--- a/excel/finished/烧结/6#烧结机生产日报.xlsx
+++ b/excel/finished/烧结/6#烧结机生产日报.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="13500"/>
+    <workbookView windowWidth="28245" windowHeight="13500" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="技术经济指标" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267">
   <si>
     <r>
       <rPr>
@@ -1106,9 +1106,6 @@
     <t>ST6_L1R_SIN_MI202_1h_avg</t>
   </si>
   <si>
-    <t>ST6_L1R_SIN_SI301_1h_avg</t>
-  </si>
-  <si>
     <t>ST6_L1R_SIN_SiMaRunVel_1h_avg</t>
   </si>
   <si>
@@ -1545,21 +1542,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="15">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0.0_ "/>
-    <numFmt numFmtId="181" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="179" formatCode="0.0_ "/>
+    <numFmt numFmtId="180" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="181" formatCode="0.00_ "/>
     <numFmt numFmtId="182" formatCode="0.0_);\(0.0\)"/>
-    <numFmt numFmtId="183" formatCode="0_ "/>
-    <numFmt numFmtId="184" formatCode="0.000_ "/>
-    <numFmt numFmtId="185" formatCode="0.00_ "/>
-    <numFmt numFmtId="186" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="183" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="184" formatCode="0_ "/>
+    <numFmt numFmtId="185" formatCode="0.000_ "/>
+    <numFmt numFmtId="186" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -1618,11 +1615,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1633,8 +1630,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1647,11 +1645,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1663,15 +1667,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1686,7 +1698,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1700,33 +1712,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1738,8 +1728,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1753,6 +1744,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1761,9 +1759,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1824,7 +1821,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1836,7 +1869,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1848,25 +1905,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1878,85 +1923,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1974,7 +1941,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1986,25 +1965,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2571,6 +2568,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2582,6 +2588,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2605,16 +2626,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2625,15 +2637,6 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2654,17 +2657,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2674,10 +2671,10 @@
     <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2686,133 +2683,133 @@
     <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="49" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="47" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="296">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2831,7 +2828,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -2878,25 +2875,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="11" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2905,34 +2902,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="182" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2956,13 +2953,13 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2983,13 +2980,13 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3006,13 +3003,13 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3024,16 +3021,16 @@
     <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="182" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3129,10 +3126,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3205,304 +3202,304 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="186" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="184" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="186" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="184" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="186" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="183" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="186" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3558,7 +3555,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3571,7 +3568,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3601,10 +3598,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="1" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="1" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3615,7 +3612,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3643,19 +3640,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="186" fontId="1" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3671,7 +3662,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3713,13 +3704,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="186" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4105,7 +4096,7 @@
   <sheetPr/>
   <dimension ref="A2:Z119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A15" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -4246,8 +4237,8 @@
       <c r="V5" s="150"/>
       <c r="W5" s="150"/>
       <c r="X5" s="205"/>
-      <c r="Y5" s="272"/>
-      <c r="Z5" s="272"/>
+      <c r="Y5" s="270"/>
+      <c r="Z5" s="270"/>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:26">
       <c r="A6" s="131"/>
@@ -4282,8 +4273,8 @@
       <c r="V6" s="111"/>
       <c r="W6" s="111"/>
       <c r="X6" s="235"/>
-      <c r="Y6" s="272"/>
-      <c r="Z6" s="272"/>
+      <c r="Y6" s="270"/>
+      <c r="Z6" s="270"/>
     </row>
     <row r="7" ht="69.75" customHeight="1" spans="1:26">
       <c r="A7" s="136"/>
@@ -4324,8 +4315,8 @@
       <c r="V7" s="238"/>
       <c r="W7" s="238"/>
       <c r="X7" s="239"/>
-      <c r="Y7" s="272"/>
-      <c r="Z7" s="272"/>
+      <c r="Y7" s="270"/>
+      <c r="Z7" s="270"/>
     </row>
     <row r="8" ht="30" customHeight="1" spans="1:26">
       <c r="A8" s="131" t="s">
@@ -4361,8 +4352,8 @@
       <c r="V8" s="242"/>
       <c r="W8" s="242"/>
       <c r="X8" s="243"/>
-      <c r="Y8" s="272"/>
-      <c r="Z8" s="272"/>
+      <c r="Y8" s="270"/>
+      <c r="Z8" s="270"/>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:26">
       <c r="A9" s="131" t="s">
@@ -4398,8 +4389,8 @@
       <c r="V9" s="242"/>
       <c r="W9" s="242"/>
       <c r="X9" s="243"/>
-      <c r="Y9" s="272"/>
-      <c r="Z9" s="272"/>
+      <c r="Y9" s="270"/>
+      <c r="Z9" s="270"/>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:26">
       <c r="A10" s="131" t="s">
@@ -4435,8 +4426,8 @@
       <c r="V10" s="242"/>
       <c r="W10" s="242"/>
       <c r="X10" s="243"/>
-      <c r="Y10" s="272"/>
-      <c r="Z10" s="272"/>
+      <c r="Y10" s="270"/>
+      <c r="Z10" s="270"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:26">
       <c r="A11" s="144" t="s">
@@ -4469,8 +4460,8 @@
       <c r="V11" s="242"/>
       <c r="W11" s="242"/>
       <c r="X11" s="243"/>
-      <c r="Y11" s="272"/>
-      <c r="Z11" s="272"/>
+      <c r="Y11" s="270"/>
+      <c r="Z11" s="270"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:26">
       <c r="A12" s="149" t="s">
@@ -4492,7 +4483,7 @@
       <c r="M12" s="207"/>
       <c r="N12" s="207"/>
       <c r="O12" s="208"/>
-      <c r="P12" s="298" t="s">
+      <c r="P12" s="296" t="s">
         <v>34</v>
       </c>
       <c r="Q12" s="246"/>
@@ -4507,8 +4498,8 @@
       <c r="V12" s="242"/>
       <c r="W12" s="242"/>
       <c r="X12" s="243"/>
-      <c r="Y12" s="272"/>
-      <c r="Z12" s="272"/>
+      <c r="Y12" s="270"/>
+      <c r="Z12" s="270"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:26">
       <c r="A13" s="131" t="s">
@@ -4538,22 +4529,22 @@
       <c r="I13" s="201" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="299" t="s">
+      <c r="J13" s="297" t="s">
         <v>43</v>
       </c>
-      <c r="K13" s="300" t="s">
+      <c r="K13" s="298" t="s">
         <v>44</v>
       </c>
-      <c r="L13" s="300" t="s">
+      <c r="L13" s="298" t="s">
         <v>45</v>
       </c>
-      <c r="M13" s="300" t="s">
+      <c r="M13" s="298" t="s">
         <v>46</v>
       </c>
       <c r="N13" s="181" t="s">
         <v>47</v>
       </c>
-      <c r="O13" s="301" t="s">
+      <c r="O13" s="299" t="s">
         <v>48</v>
       </c>
       <c r="P13" s="212" t="s">
@@ -4573,8 +4564,8 @@
       <c r="V13" s="242"/>
       <c r="W13" s="242"/>
       <c r="X13" s="243"/>
-      <c r="Y13" s="272"/>
-      <c r="Z13" s="272"/>
+      <c r="Y13" s="270"/>
+      <c r="Z13" s="270"/>
     </row>
     <row r="14" ht="116.25" customHeight="1" spans="1:26">
       <c r="A14" s="136"/>
@@ -4602,28 +4593,28 @@
       <c r="I14" s="194" t="s">
         <v>56</v>
       </c>
-      <c r="J14" s="302" t="s">
+      <c r="J14" s="300" t="s">
         <v>57</v>
       </c>
-      <c r="K14" s="302" t="s">
+      <c r="K14" s="300" t="s">
         <v>57</v>
       </c>
-      <c r="L14" s="302" t="s">
+      <c r="L14" s="300" t="s">
         <v>57</v>
       </c>
-      <c r="M14" s="302" t="s">
+      <c r="M14" s="300" t="s">
         <v>57</v>
       </c>
-      <c r="N14" s="302" t="s">
+      <c r="N14" s="300" t="s">
         <v>57</v>
       </c>
-      <c r="O14" s="302" t="s">
+      <c r="O14" s="300" t="s">
         <v>57</v>
       </c>
-      <c r="P14" s="302" t="s">
+      <c r="P14" s="300" t="s">
         <v>57</v>
       </c>
-      <c r="Q14" s="302" t="s">
+      <c r="Q14" s="300" t="s">
         <v>57</v>
       </c>
       <c r="R14" s="110" t="s">
@@ -4635,8 +4626,8 @@
       <c r="V14" s="242"/>
       <c r="W14" s="242"/>
       <c r="X14" s="243"/>
-      <c r="Y14" s="272"/>
-      <c r="Z14" s="272"/>
+      <c r="Y14" s="270"/>
+      <c r="Z14" s="270"/>
     </row>
     <row r="15" ht="35.25" customHeight="1" spans="1:26">
       <c r="A15" s="131" t="s">
@@ -4693,8 +4684,8 @@
       <c r="V15" s="242"/>
       <c r="W15" s="242"/>
       <c r="X15" s="243"/>
-      <c r="Y15" s="272"/>
-      <c r="Z15" s="272"/>
+      <c r="Y15" s="270"/>
+      <c r="Z15" s="270"/>
     </row>
     <row r="16" ht="30" customHeight="1" spans="1:26">
       <c r="A16" s="131" t="s">
@@ -4750,8 +4741,8 @@
       <c r="V16" s="242"/>
       <c r="W16" s="242"/>
       <c r="X16" s="243"/>
-      <c r="Y16" s="272"/>
-      <c r="Z16" s="272"/>
+      <c r="Y16" s="270"/>
+      <c r="Z16" s="270"/>
     </row>
     <row r="17" ht="30" customHeight="1" spans="1:26">
       <c r="A17" s="144" t="s">
@@ -4808,8 +4799,8 @@
       <c r="V17" s="253"/>
       <c r="W17" s="253"/>
       <c r="X17" s="254"/>
-      <c r="Y17" s="272"/>
-      <c r="Z17" s="272"/>
+      <c r="Y17" s="270"/>
+      <c r="Z17" s="270"/>
     </row>
     <row r="18" ht="30" customHeight="1" spans="1:26">
       <c r="A18" s="156" t="s">
@@ -4844,8 +4835,8 @@
       <c r="V18" s="253"/>
       <c r="W18" s="253"/>
       <c r="X18" s="254"/>
-      <c r="Y18" s="272"/>
-      <c r="Z18" s="272"/>
+      <c r="Y18" s="270"/>
+      <c r="Z18" s="270"/>
     </row>
     <row r="19" ht="30" customHeight="1" spans="1:26">
       <c r="A19" s="159" t="s">
@@ -4910,8 +4901,8 @@
       <c r="V19" s="253"/>
       <c r="W19" s="253"/>
       <c r="X19" s="254"/>
-      <c r="Y19" s="272"/>
-      <c r="Z19" s="272"/>
+      <c r="Y19" s="270"/>
+      <c r="Z19" s="270"/>
     </row>
     <row r="20" ht="114" customHeight="1" spans="1:26">
       <c r="A20" s="163"/>
@@ -4966,8 +4957,8 @@
       <c r="V20" s="253"/>
       <c r="W20" s="253"/>
       <c r="X20" s="254"/>
-      <c r="Y20" s="272"/>
-      <c r="Z20" s="272"/>
+      <c r="Y20" s="270"/>
+      <c r="Z20" s="270"/>
     </row>
     <row r="21" customFormat="1" ht="49" customHeight="1" spans="1:26">
       <c r="A21" s="168"/>
@@ -5030,8 +5021,8 @@
       <c r="V21" s="253"/>
       <c r="W21" s="253"/>
       <c r="X21" s="254"/>
-      <c r="Y21" s="272"/>
-      <c r="Z21" s="272"/>
+      <c r="Y21" s="270"/>
+      <c r="Z21" s="270"/>
     </row>
     <row r="22" s="118" customFormat="1" ht="46" customHeight="1" spans="1:26">
       <c r="A22" s="168"/>
@@ -5094,8 +5085,8 @@
       <c r="V22" s="262"/>
       <c r="W22" s="262"/>
       <c r="X22" s="263"/>
-      <c r="Y22" s="273"/>
-      <c r="Z22" s="273"/>
+      <c r="Y22" s="271"/>
+      <c r="Z22" s="271"/>
     </row>
     <row r="23" ht="48" customHeight="1" spans="1:26">
       <c r="A23" s="173"/>
@@ -5158,8 +5149,8 @@
       <c r="V23" s="253"/>
       <c r="W23" s="253"/>
       <c r="X23" s="254"/>
-      <c r="Y23" s="272"/>
-      <c r="Z23" s="272"/>
+      <c r="Y23" s="270"/>
+      <c r="Z23" s="270"/>
     </row>
     <row r="24" ht="30.95" customHeight="1" spans="1:26">
       <c r="A24" s="176" t="s">
@@ -5190,8 +5181,8 @@
       <c r="V24" s="266"/>
       <c r="W24" s="266"/>
       <c r="X24" s="267"/>
-      <c r="Y24" s="272"/>
-      <c r="Z24" s="272"/>
+      <c r="Y24" s="270"/>
+      <c r="Z24" s="270"/>
     </row>
     <row r="25" ht="30.95" customHeight="1" spans="1:26">
       <c r="A25" s="131" t="s">
@@ -5254,8 +5245,8 @@
       <c r="V25" s="242"/>
       <c r="W25" s="242"/>
       <c r="X25" s="243"/>
-      <c r="Y25" s="272"/>
-      <c r="Z25" s="272"/>
+      <c r="Y25" s="270"/>
+      <c r="Z25" s="270"/>
     </row>
     <row r="26" ht="30.95" customHeight="1" spans="1:26">
       <c r="A26" s="182" t="s">
@@ -5305,8 +5296,8 @@
       <c r="V26" s="242"/>
       <c r="W26" s="242"/>
       <c r="X26" s="243"/>
-      <c r="Y26" s="272"/>
-      <c r="Z26" s="272"/>
+      <c r="Y26" s="270"/>
+      <c r="Z26" s="270"/>
     </row>
     <row r="27" ht="30.95" customHeight="1" spans="1:26">
       <c r="A27" s="184" t="str">
@@ -5385,8 +5376,8 @@
       <c r="V27" s="242"/>
       <c r="W27" s="242"/>
       <c r="X27" s="243"/>
-      <c r="Y27" s="272"/>
-      <c r="Z27" s="272"/>
+      <c r="Y27" s="270"/>
+      <c r="Z27" s="270"/>
     </row>
     <row r="28" ht="30.75" customHeight="1" spans="1:26">
       <c r="A28" s="189" t="str">
@@ -5459,8 +5450,8 @@
       <c r="V28" s="242"/>
       <c r="W28" s="242"/>
       <c r="X28" s="243"/>
-      <c r="Y28" s="272"/>
-      <c r="Z28" s="272"/>
+      <c r="Y28" s="270"/>
+      <c r="Z28" s="270"/>
     </row>
     <row r="29" ht="30.95" customHeight="1" spans="1:26">
       <c r="A29" s="189" t="str">
@@ -5533,8 +5524,8 @@
       <c r="V29" s="242"/>
       <c r="W29" s="242"/>
       <c r="X29" s="243"/>
-      <c r="Y29" s="272"/>
-      <c r="Z29" s="272"/>
+      <c r="Y29" s="270"/>
+      <c r="Z29" s="270"/>
     </row>
     <row r="30" ht="30.95" customHeight="1" spans="1:26">
       <c r="A30" s="189" t="str">
@@ -5607,8 +5598,8 @@
       <c r="V30" s="253"/>
       <c r="W30" s="253"/>
       <c r="X30" s="254"/>
-      <c r="Y30" s="272"/>
-      <c r="Z30" s="272"/>
+      <c r="Y30" s="270"/>
+      <c r="Z30" s="270"/>
     </row>
     <row r="31" ht="30.95" customHeight="1" spans="1:26">
       <c r="A31" s="189" t="str">
@@ -5677,8 +5668,8 @@
       <c r="V31" s="242"/>
       <c r="W31" s="242"/>
       <c r="X31" s="243"/>
-      <c r="Y31" s="272"/>
-      <c r="Z31" s="272"/>
+      <c r="Y31" s="270"/>
+      <c r="Z31" s="270"/>
     </row>
     <row r="32" ht="30.95" customHeight="1" spans="1:26">
       <c r="A32" s="189" t="str">
@@ -5747,8 +5738,8 @@
       <c r="V32" s="253"/>
       <c r="W32" s="253"/>
       <c r="X32" s="254"/>
-      <c r="Y32" s="272"/>
-      <c r="Z32" s="272"/>
+      <c r="Y32" s="270"/>
+      <c r="Z32" s="270"/>
     </row>
     <row r="33" ht="30.95" customHeight="1" spans="1:26">
       <c r="A33" s="189" t="str">
@@ -5819,8 +5810,8 @@
       <c r="V33" s="266"/>
       <c r="W33" s="266"/>
       <c r="X33" s="267"/>
-      <c r="Y33" s="272"/>
-      <c r="Z33" s="272"/>
+      <c r="Y33" s="270"/>
+      <c r="Z33" s="270"/>
     </row>
     <row r="34" ht="30" customHeight="1" spans="1:24">
       <c r="A34" s="189" t="str">
@@ -5954,8 +5945,8 @@
       </c>
       <c r="P35" s="227"/>
       <c r="Q35" s="269"/>
-      <c r="R35" s="270"/>
-      <c r="S35" s="271"/>
+      <c r="R35" s="110"/>
+      <c r="S35" s="111"/>
       <c r="T35" s="248"/>
       <c r="U35" s="265"/>
       <c r="V35" s="266"/>
@@ -6022,8 +6013,8 @@
       </c>
       <c r="P36" s="227"/>
       <c r="Q36" s="269"/>
-      <c r="R36" s="270"/>
-      <c r="S36" s="271"/>
+      <c r="R36" s="110"/>
+      <c r="S36" s="111"/>
       <c r="T36" s="248"/>
       <c r="U36" s="265"/>
       <c r="V36" s="266"/>
@@ -6090,8 +6081,8 @@
       </c>
       <c r="P37" s="227"/>
       <c r="Q37" s="269"/>
-      <c r="R37" s="270"/>
-      <c r="S37" s="271"/>
+      <c r="R37" s="110"/>
+      <c r="S37" s="111"/>
       <c r="T37" s="248"/>
       <c r="U37" s="265"/>
       <c r="V37" s="266"/>
@@ -6158,8 +6149,8 @@
       </c>
       <c r="P38" s="227"/>
       <c r="Q38" s="269"/>
-      <c r="R38" s="270"/>
-      <c r="S38" s="271"/>
+      <c r="R38" s="110"/>
+      <c r="S38" s="111"/>
       <c r="T38" s="248"/>
       <c r="U38" s="265"/>
       <c r="V38" s="266"/>
@@ -6226,8 +6217,8 @@
       </c>
       <c r="P39" s="227"/>
       <c r="Q39" s="269"/>
-      <c r="R39" s="270"/>
-      <c r="S39" s="271"/>
+      <c r="R39" s="110"/>
+      <c r="S39" s="111"/>
       <c r="T39" s="248"/>
       <c r="U39" s="265"/>
       <c r="V39" s="266"/>
@@ -6294,8 +6285,8 @@
       </c>
       <c r="P40" s="227"/>
       <c r="Q40" s="269"/>
-      <c r="R40" s="270"/>
-      <c r="S40" s="271"/>
+      <c r="R40" s="110"/>
+      <c r="S40" s="111"/>
       <c r="T40" s="248"/>
       <c r="U40" s="265"/>
       <c r="V40" s="266"/>
@@ -6362,8 +6353,8 @@
       </c>
       <c r="P41" s="227"/>
       <c r="Q41" s="269"/>
-      <c r="R41" s="270"/>
-      <c r="S41" s="271"/>
+      <c r="R41" s="110"/>
+      <c r="S41" s="111"/>
       <c r="T41" s="248"/>
       <c r="U41" s="265"/>
       <c r="V41" s="266"/>
@@ -6430,8 +6421,8 @@
       </c>
       <c r="P42" s="227"/>
       <c r="Q42" s="269"/>
-      <c r="R42" s="270"/>
-      <c r="S42" s="271"/>
+      <c r="R42" s="110"/>
+      <c r="S42" s="111"/>
       <c r="T42" s="248"/>
       <c r="U42" s="265"/>
       <c r="V42" s="266"/>
@@ -6498,8 +6489,8 @@
       </c>
       <c r="P43" s="227"/>
       <c r="Q43" s="269"/>
-      <c r="R43" s="270"/>
-      <c r="S43" s="271"/>
+      <c r="R43" s="110"/>
+      <c r="S43" s="111"/>
       <c r="T43" s="248"/>
       <c r="U43" s="265"/>
       <c r="V43" s="266"/>
@@ -6566,8 +6557,8 @@
       </c>
       <c r="P44" s="227"/>
       <c r="Q44" s="269"/>
-      <c r="R44" s="270"/>
-      <c r="S44" s="271"/>
+      <c r="R44" s="110"/>
+      <c r="S44" s="111"/>
       <c r="T44" s="248"/>
       <c r="U44" s="265"/>
       <c r="V44" s="266"/>
@@ -6634,8 +6625,8 @@
       </c>
       <c r="P45" s="227"/>
       <c r="Q45" s="269"/>
-      <c r="R45" s="270"/>
-      <c r="S45" s="271"/>
+      <c r="R45" s="110"/>
+      <c r="S45" s="111"/>
       <c r="T45" s="248"/>
       <c r="U45" s="265"/>
       <c r="V45" s="266"/>
@@ -6702,8 +6693,8 @@
       </c>
       <c r="P46" s="227"/>
       <c r="Q46" s="269"/>
-      <c r="R46" s="270"/>
-      <c r="S46" s="271"/>
+      <c r="R46" s="110"/>
+      <c r="S46" s="111"/>
       <c r="T46" s="248"/>
       <c r="U46" s="265"/>
       <c r="V46" s="266"/>
@@ -6770,8 +6761,8 @@
       </c>
       <c r="P47" s="227"/>
       <c r="Q47" s="269"/>
-      <c r="R47" s="270"/>
-      <c r="S47" s="271"/>
+      <c r="R47" s="110"/>
+      <c r="S47" s="111"/>
       <c r="T47" s="248"/>
       <c r="U47" s="265"/>
       <c r="V47" s="266"/>
@@ -6838,8 +6829,8 @@
       </c>
       <c r="P48" s="227"/>
       <c r="Q48" s="269"/>
-      <c r="R48" s="270"/>
-      <c r="S48" s="271"/>
+      <c r="R48" s="110"/>
+      <c r="S48" s="111"/>
       <c r="T48" s="248"/>
       <c r="U48" s="265"/>
       <c r="V48" s="266"/>
@@ -6906,8 +6897,8 @@
       </c>
       <c r="P49" s="227"/>
       <c r="Q49" s="269"/>
-      <c r="R49" s="270"/>
-      <c r="S49" s="271"/>
+      <c r="R49" s="110"/>
+      <c r="S49" s="111"/>
       <c r="T49" s="248"/>
       <c r="U49" s="265"/>
       <c r="V49" s="266"/>
@@ -6974,8 +6965,8 @@
       </c>
       <c r="P50" s="227"/>
       <c r="Q50" s="269"/>
-      <c r="R50" s="270"/>
-      <c r="S50" s="271"/>
+      <c r="R50" s="110"/>
+      <c r="S50" s="111"/>
       <c r="T50" s="248"/>
       <c r="U50" s="265"/>
       <c r="V50" s="266"/>
@@ -7042,8 +7033,8 @@
       </c>
       <c r="P51" s="227"/>
       <c r="Q51" s="269"/>
-      <c r="R51" s="270"/>
-      <c r="S51" s="271"/>
+      <c r="R51" s="110"/>
+      <c r="S51" s="111"/>
       <c r="T51" s="248"/>
       <c r="U51" s="265"/>
       <c r="V51" s="266"/>
@@ -7110,8 +7101,8 @@
       </c>
       <c r="P52" s="227"/>
       <c r="Q52" s="269"/>
-      <c r="R52" s="270"/>
-      <c r="S52" s="271"/>
+      <c r="R52" s="110"/>
+      <c r="S52" s="111"/>
       <c r="T52" s="248"/>
       <c r="U52" s="265"/>
       <c r="V52" s="266"/>
@@ -7178,8 +7169,8 @@
       </c>
       <c r="P53" s="227"/>
       <c r="Q53" s="269"/>
-      <c r="R53" s="270"/>
-      <c r="S53" s="271"/>
+      <c r="R53" s="110"/>
+      <c r="S53" s="111"/>
       <c r="T53" s="248"/>
       <c r="U53" s="265"/>
       <c r="V53" s="266"/>
@@ -7246,8 +7237,8 @@
       </c>
       <c r="P54" s="227"/>
       <c r="Q54" s="269"/>
-      <c r="R54" s="270"/>
-      <c r="S54" s="271"/>
+      <c r="R54" s="110"/>
+      <c r="S54" s="111"/>
       <c r="T54" s="248"/>
       <c r="U54" s="265"/>
       <c r="V54" s="266"/>
@@ -7314,8 +7305,8 @@
       </c>
       <c r="P55" s="227"/>
       <c r="Q55" s="269"/>
-      <c r="R55" s="270"/>
-      <c r="S55" s="271"/>
+      <c r="R55" s="110"/>
+      <c r="S55" s="111"/>
       <c r="T55" s="248"/>
       <c r="U55" s="265"/>
       <c r="V55" s="266"/>
@@ -7382,8 +7373,8 @@
       </c>
       <c r="P56" s="227"/>
       <c r="Q56" s="269"/>
-      <c r="R56" s="270"/>
-      <c r="S56" s="271"/>
+      <c r="R56" s="110"/>
+      <c r="S56" s="111"/>
       <c r="T56" s="248"/>
       <c r="U56" s="265"/>
       <c r="V56" s="266"/>
@@ -7450,8 +7441,8 @@
       </c>
       <c r="P57" s="227"/>
       <c r="Q57" s="269"/>
-      <c r="R57" s="270"/>
-      <c r="S57" s="271"/>
+      <c r="R57" s="110"/>
+      <c r="S57" s="111"/>
       <c r="T57" s="248"/>
       <c r="U57" s="265"/>
       <c r="V57" s="266"/>
@@ -7518,8 +7509,8 @@
       </c>
       <c r="P58" s="227"/>
       <c r="Q58" s="269"/>
-      <c r="R58" s="270"/>
-      <c r="S58" s="271"/>
+      <c r="R58" s="110"/>
+      <c r="S58" s="111"/>
       <c r="T58" s="248"/>
       <c r="U58" s="265"/>
       <c r="V58" s="266"/>
@@ -7586,8 +7577,8 @@
       </c>
       <c r="P59" s="227"/>
       <c r="Q59" s="269"/>
-      <c r="R59" s="270"/>
-      <c r="S59" s="271"/>
+      <c r="R59" s="110"/>
+      <c r="S59" s="111"/>
       <c r="T59" s="248"/>
       <c r="U59" s="265"/>
       <c r="V59" s="266"/>
@@ -7654,8 +7645,8 @@
       </c>
       <c r="P60" s="227"/>
       <c r="Q60" s="269"/>
-      <c r="R60" s="270"/>
-      <c r="S60" s="271"/>
+      <c r="R60" s="110"/>
+      <c r="S60" s="111"/>
       <c r="T60" s="248"/>
       <c r="U60" s="265"/>
       <c r="V60" s="266"/>
@@ -7722,8 +7713,8 @@
       </c>
       <c r="P61" s="227"/>
       <c r="Q61" s="269"/>
-      <c r="R61" s="270"/>
-      <c r="S61" s="271"/>
+      <c r="R61" s="110"/>
+      <c r="S61" s="111"/>
       <c r="T61" s="248"/>
       <c r="U61" s="265"/>
       <c r="V61" s="266"/>
@@ -7790,8 +7781,8 @@
       </c>
       <c r="P62" s="227"/>
       <c r="Q62" s="269"/>
-      <c r="R62" s="270"/>
-      <c r="S62" s="271"/>
+      <c r="R62" s="110"/>
+      <c r="S62" s="111"/>
       <c r="T62" s="248"/>
       <c r="U62" s="265"/>
       <c r="V62" s="266"/>
@@ -7858,8 +7849,8 @@
       </c>
       <c r="P63" s="227"/>
       <c r="Q63" s="269"/>
-      <c r="R63" s="270"/>
-      <c r="S63" s="271"/>
+      <c r="R63" s="110"/>
+      <c r="S63" s="111"/>
       <c r="T63" s="248"/>
       <c r="U63" s="265"/>
       <c r="V63" s="266"/>
@@ -7926,8 +7917,8 @@
       </c>
       <c r="P64" s="227"/>
       <c r="Q64" s="269"/>
-      <c r="R64" s="270"/>
-      <c r="S64" s="271"/>
+      <c r="R64" s="110"/>
+      <c r="S64" s="111"/>
       <c r="T64" s="248"/>
       <c r="U64" s="265"/>
       <c r="V64" s="266"/>
@@ -7994,8 +7985,8 @@
       </c>
       <c r="P65" s="227"/>
       <c r="Q65" s="269"/>
-      <c r="R65" s="270"/>
-      <c r="S65" s="271"/>
+      <c r="R65" s="110"/>
+      <c r="S65" s="111"/>
       <c r="T65" s="248"/>
       <c r="U65" s="265"/>
       <c r="V65" s="266"/>
@@ -8071,224 +8062,224 @@
       <c r="X66" s="267"/>
     </row>
     <row r="67" s="119" customFormat="1" ht="45" customHeight="1" spans="1:24">
-      <c r="A67" s="274" t="s">
+      <c r="A67" s="272" t="s">
         <v>106</v>
       </c>
-      <c r="B67" s="275"/>
-      <c r="C67" s="276"/>
-      <c r="D67" s="277"/>
-      <c r="E67" s="277"/>
-      <c r="F67" s="277"/>
-      <c r="G67" s="277"/>
-      <c r="H67" s="277"/>
-      <c r="I67" s="289"/>
-      <c r="J67" s="289"/>
-      <c r="K67" s="277"/>
-      <c r="L67" s="277"/>
+      <c r="B67" s="273"/>
+      <c r="C67" s="274"/>
+      <c r="D67" s="275"/>
+      <c r="E67" s="275"/>
+      <c r="F67" s="275"/>
+      <c r="G67" s="275"/>
+      <c r="H67" s="275"/>
+      <c r="I67" s="287"/>
+      <c r="J67" s="287"/>
+      <c r="K67" s="275"/>
+      <c r="L67" s="275"/>
       <c r="M67" s="188"/>
       <c r="N67" s="188"/>
       <c r="O67" s="188"/>
-      <c r="P67" s="290"/>
-      <c r="Q67" s="291"/>
+      <c r="P67" s="288"/>
+      <c r="Q67" s="289"/>
       <c r="R67" s="144"/>
-      <c r="S67" s="292"/>
-      <c r="T67" s="293"/>
-      <c r="U67" s="294"/>
-      <c r="V67" s="295"/>
-      <c r="W67" s="295"/>
-      <c r="X67" s="296"/>
+      <c r="S67" s="290"/>
+      <c r="T67" s="291"/>
+      <c r="U67" s="292"/>
+      <c r="V67" s="293"/>
+      <c r="W67" s="293"/>
+      <c r="X67" s="294"/>
     </row>
     <row r="68" s="119" customFormat="1" ht="45" customHeight="1" spans="1:24">
-      <c r="A68" s="278" t="s">
+      <c r="A68" s="276" t="s">
         <v>107</v>
       </c>
-      <c r="B68" s="279"/>
-      <c r="C68" s="279"/>
-      <c r="D68" s="279"/>
-      <c r="E68" s="279"/>
-      <c r="F68" s="279"/>
-      <c r="G68" s="279"/>
-      <c r="H68" s="280"/>
-      <c r="I68" s="278" t="s">
+      <c r="B68" s="277"/>
+      <c r="C68" s="277"/>
+      <c r="D68" s="277"/>
+      <c r="E68" s="277"/>
+      <c r="F68" s="277"/>
+      <c r="G68" s="277"/>
+      <c r="H68" s="278"/>
+      <c r="I68" s="276" t="s">
         <v>108</v>
       </c>
-      <c r="J68" s="279"/>
-      <c r="K68" s="279"/>
-      <c r="L68" s="279"/>
-      <c r="M68" s="279"/>
-      <c r="N68" s="279"/>
-      <c r="O68" s="279"/>
-      <c r="P68" s="280"/>
-      <c r="Q68" s="297" t="s">
+      <c r="J68" s="277"/>
+      <c r="K68" s="277"/>
+      <c r="L68" s="277"/>
+      <c r="M68" s="277"/>
+      <c r="N68" s="277"/>
+      <c r="O68" s="277"/>
+      <c r="P68" s="278"/>
+      <c r="Q68" s="295" t="s">
         <v>109</v>
       </c>
-      <c r="R68" s="282"/>
-      <c r="S68" s="282"/>
-      <c r="T68" s="282"/>
-      <c r="U68" s="282"/>
-      <c r="V68" s="282"/>
-      <c r="W68" s="282"/>
-      <c r="X68" s="283"/>
+      <c r="R68" s="280"/>
+      <c r="S68" s="280"/>
+      <c r="T68" s="280"/>
+      <c r="U68" s="280"/>
+      <c r="V68" s="280"/>
+      <c r="W68" s="280"/>
+      <c r="X68" s="281"/>
     </row>
     <row r="69" s="119" customFormat="1" ht="45" customHeight="1" spans="1:24">
-      <c r="A69" s="281"/>
-      <c r="B69" s="282"/>
-      <c r="C69" s="282"/>
-      <c r="D69" s="282"/>
-      <c r="E69" s="282"/>
-      <c r="F69" s="282"/>
-      <c r="G69" s="282"/>
-      <c r="H69" s="283"/>
-      <c r="I69" s="281"/>
-      <c r="J69" s="282"/>
-      <c r="K69" s="282"/>
-      <c r="L69" s="282"/>
-      <c r="M69" s="282"/>
-      <c r="N69" s="282"/>
-      <c r="O69" s="282"/>
-      <c r="P69" s="283"/>
-      <c r="Q69" s="281"/>
-      <c r="R69" s="282"/>
-      <c r="S69" s="282"/>
-      <c r="T69" s="282"/>
-      <c r="U69" s="282"/>
-      <c r="V69" s="282"/>
-      <c r="W69" s="282"/>
-      <c r="X69" s="283"/>
+      <c r="A69" s="279"/>
+      <c r="B69" s="280"/>
+      <c r="C69" s="280"/>
+      <c r="D69" s="280"/>
+      <c r="E69" s="280"/>
+      <c r="F69" s="280"/>
+      <c r="G69" s="280"/>
+      <c r="H69" s="281"/>
+      <c r="I69" s="279"/>
+      <c r="J69" s="280"/>
+      <c r="K69" s="280"/>
+      <c r="L69" s="280"/>
+      <c r="M69" s="280"/>
+      <c r="N69" s="280"/>
+      <c r="O69" s="280"/>
+      <c r="P69" s="281"/>
+      <c r="Q69" s="279"/>
+      <c r="R69" s="280"/>
+      <c r="S69" s="280"/>
+      <c r="T69" s="280"/>
+      <c r="U69" s="280"/>
+      <c r="V69" s="280"/>
+      <c r="W69" s="280"/>
+      <c r="X69" s="281"/>
     </row>
     <row r="70" s="119" customFormat="1" ht="45" customHeight="1" spans="1:24">
-      <c r="A70" s="281"/>
-      <c r="B70" s="282"/>
-      <c r="C70" s="282"/>
-      <c r="D70" s="282"/>
-      <c r="E70" s="282"/>
-      <c r="F70" s="282"/>
-      <c r="G70" s="282"/>
-      <c r="H70" s="283"/>
-      <c r="I70" s="281"/>
-      <c r="J70" s="282"/>
-      <c r="K70" s="282"/>
-      <c r="L70" s="282"/>
-      <c r="M70" s="282"/>
-      <c r="N70" s="282"/>
-      <c r="O70" s="282"/>
-      <c r="P70" s="283"/>
-      <c r="Q70" s="281"/>
-      <c r="R70" s="282"/>
-      <c r="S70" s="282"/>
-      <c r="T70" s="282"/>
-      <c r="U70" s="282"/>
-      <c r="V70" s="282"/>
-      <c r="W70" s="282"/>
-      <c r="X70" s="283"/>
+      <c r="A70" s="279"/>
+      <c r="B70" s="280"/>
+      <c r="C70" s="280"/>
+      <c r="D70" s="280"/>
+      <c r="E70" s="280"/>
+      <c r="F70" s="280"/>
+      <c r="G70" s="280"/>
+      <c r="H70" s="281"/>
+      <c r="I70" s="279"/>
+      <c r="J70" s="280"/>
+      <c r="K70" s="280"/>
+      <c r="L70" s="280"/>
+      <c r="M70" s="280"/>
+      <c r="N70" s="280"/>
+      <c r="O70" s="280"/>
+      <c r="P70" s="281"/>
+      <c r="Q70" s="279"/>
+      <c r="R70" s="280"/>
+      <c r="S70" s="280"/>
+      <c r="T70" s="280"/>
+      <c r="U70" s="280"/>
+      <c r="V70" s="280"/>
+      <c r="W70" s="280"/>
+      <c r="X70" s="281"/>
     </row>
     <row r="71" s="119" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A71" s="281"/>
-      <c r="B71" s="282"/>
-      <c r="C71" s="282"/>
-      <c r="D71" s="282"/>
-      <c r="E71" s="282"/>
-      <c r="F71" s="282"/>
-      <c r="G71" s="282"/>
-      <c r="H71" s="283"/>
-      <c r="I71" s="281"/>
-      <c r="J71" s="282"/>
-      <c r="K71" s="282"/>
-      <c r="L71" s="282"/>
-      <c r="M71" s="282"/>
-      <c r="N71" s="282"/>
-      <c r="O71" s="282"/>
-      <c r="P71" s="283"/>
-      <c r="Q71" s="281"/>
-      <c r="R71" s="282"/>
-      <c r="S71" s="282"/>
-      <c r="T71" s="282"/>
-      <c r="U71" s="282"/>
-      <c r="V71" s="282"/>
-      <c r="W71" s="282"/>
-      <c r="X71" s="283"/>
+      <c r="A71" s="279"/>
+      <c r="B71" s="280"/>
+      <c r="C71" s="280"/>
+      <c r="D71" s="280"/>
+      <c r="E71" s="280"/>
+      <c r="F71" s="280"/>
+      <c r="G71" s="280"/>
+      <c r="H71" s="281"/>
+      <c r="I71" s="279"/>
+      <c r="J71" s="280"/>
+      <c r="K71" s="280"/>
+      <c r="L71" s="280"/>
+      <c r="M71" s="280"/>
+      <c r="N71" s="280"/>
+      <c r="O71" s="280"/>
+      <c r="P71" s="281"/>
+      <c r="Q71" s="279"/>
+      <c r="R71" s="280"/>
+      <c r="S71" s="280"/>
+      <c r="T71" s="280"/>
+      <c r="U71" s="280"/>
+      <c r="V71" s="280"/>
+      <c r="W71" s="280"/>
+      <c r="X71" s="281"/>
     </row>
     <row r="72" s="119" customFormat="1" ht="22.5" spans="1:24">
-      <c r="A72" s="281"/>
-      <c r="B72" s="282"/>
-      <c r="C72" s="282"/>
-      <c r="D72" s="282"/>
-      <c r="E72" s="282"/>
-      <c r="F72" s="282"/>
-      <c r="G72" s="282"/>
-      <c r="H72" s="283"/>
-      <c r="I72" s="281"/>
-      <c r="J72" s="282"/>
-      <c r="K72" s="282"/>
-      <c r="L72" s="282"/>
-      <c r="M72" s="282"/>
-      <c r="N72" s="282"/>
-      <c r="O72" s="282"/>
-      <c r="P72" s="283"/>
-      <c r="Q72" s="281"/>
-      <c r="X72" s="283"/>
+      <c r="A72" s="279"/>
+      <c r="B72" s="280"/>
+      <c r="C72" s="280"/>
+      <c r="D72" s="280"/>
+      <c r="E72" s="280"/>
+      <c r="F72" s="280"/>
+      <c r="G72" s="280"/>
+      <c r="H72" s="281"/>
+      <c r="I72" s="279"/>
+      <c r="J72" s="280"/>
+      <c r="K72" s="280"/>
+      <c r="L72" s="280"/>
+      <c r="M72" s="280"/>
+      <c r="N72" s="280"/>
+      <c r="O72" s="280"/>
+      <c r="P72" s="281"/>
+      <c r="Q72" s="279"/>
+      <c r="X72" s="281"/>
     </row>
     <row r="73" s="119" customFormat="1" ht="22.5" spans="1:24">
-      <c r="A73" s="281"/>
-      <c r="B73" s="282"/>
-      <c r="C73" s="282"/>
-      <c r="D73" s="282"/>
-      <c r="E73" s="282"/>
-      <c r="F73" s="282"/>
-      <c r="G73" s="282"/>
-      <c r="H73" s="283"/>
-      <c r="I73" s="281"/>
-      <c r="J73" s="282"/>
-      <c r="K73" s="282"/>
-      <c r="L73" s="282"/>
-      <c r="M73" s="282"/>
-      <c r="N73" s="282"/>
-      <c r="O73" s="282"/>
-      <c r="P73" s="283"/>
-      <c r="Q73" s="281"/>
+      <c r="A73" s="279"/>
+      <c r="B73" s="280"/>
+      <c r="C73" s="280"/>
+      <c r="D73" s="280"/>
+      <c r="E73" s="280"/>
+      <c r="F73" s="280"/>
+      <c r="G73" s="280"/>
+      <c r="H73" s="281"/>
+      <c r="I73" s="279"/>
+      <c r="J73" s="280"/>
+      <c r="K73" s="280"/>
+      <c r="L73" s="280"/>
+      <c r="M73" s="280"/>
+      <c r="N73" s="280"/>
+      <c r="O73" s="280"/>
+      <c r="P73" s="281"/>
+      <c r="Q73" s="279"/>
       <c r="S73" s="228"/>
       <c r="U73" s="230"/>
       <c r="V73" s="230"/>
       <c r="W73" s="230"/>
-      <c r="X73" s="283"/>
+      <c r="X73" s="281"/>
     </row>
     <row r="74" s="119" customFormat="1" ht="23.25" spans="1:24">
-      <c r="A74" s="284" t="s">
+      <c r="A74" s="282" t="s">
         <v>110</v>
       </c>
-      <c r="B74" s="285"/>
-      <c r="C74" s="285"/>
-      <c r="D74" s="286" t="s">
+      <c r="B74" s="283"/>
+      <c r="C74" s="283"/>
+      <c r="D74" s="284" t="s">
         <v>111</v>
       </c>
-      <c r="E74" s="287"/>
-      <c r="F74" s="287"/>
-      <c r="G74" s="287"/>
-      <c r="H74" s="288"/>
-      <c r="I74" s="286" t="s">
+      <c r="E74" s="285"/>
+      <c r="F74" s="285"/>
+      <c r="G74" s="285"/>
+      <c r="H74" s="286"/>
+      <c r="I74" s="284" t="s">
         <v>110</v>
       </c>
-      <c r="J74" s="285"/>
-      <c r="K74" s="285"/>
-      <c r="L74" s="286" t="s">
+      <c r="J74" s="283"/>
+      <c r="K74" s="283"/>
+      <c r="L74" s="284" t="s">
         <v>111</v>
       </c>
-      <c r="M74" s="287"/>
-      <c r="N74" s="287"/>
-      <c r="O74" s="287"/>
-      <c r="P74" s="288"/>
-      <c r="Q74" s="286" t="s">
+      <c r="M74" s="285"/>
+      <c r="N74" s="285"/>
+      <c r="O74" s="285"/>
+      <c r="P74" s="286"/>
+      <c r="Q74" s="284" t="s">
         <v>112</v>
       </c>
-      <c r="R74" s="287"/>
-      <c r="S74" s="287"/>
-      <c r="T74" s="286" t="s">
+      <c r="R74" s="285"/>
+      <c r="S74" s="285"/>
+      <c r="T74" s="284" t="s">
         <v>111</v>
       </c>
-      <c r="U74" s="287"/>
-      <c r="V74" s="287"/>
-      <c r="W74" s="287"/>
-      <c r="X74" s="288"/>
+      <c r="U74" s="285"/>
+      <c r="V74" s="285"/>
+      <c r="W74" s="285"/>
+      <c r="X74" s="286"/>
     </row>
     <row r="75" s="119" customFormat="1" ht="20.25" spans="19:24">
       <c r="S75" s="228"/>
@@ -8812,140 +8803,140 @@
   <dimension ref="A1:AQ1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" ht="112.5" spans="1:43">
       <c r="A1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -8959,7 +8950,7 @@
   <sheetPr/>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
@@ -8967,7 +8958,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B1">
         <v>6</v>
@@ -8985,7 +8976,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9032,7 +9023,7 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E1"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9217,7 +9208,7 @@
   <dimension ref="A2:X35"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:V31"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9482,58 +9473,58 @@
         <v>172</v>
       </c>
       <c r="E7" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="F7" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="G7" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="H7" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="I7" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="I7" s="48" t="s">
+      <c r="J7" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="J7" s="44" t="s">
+      <c r="K7" s="46" t="s">
         <v>178</v>
       </c>
-      <c r="K7" s="46" t="s">
+      <c r="L7" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="L7" s="44" t="s">
+      <c r="M7" s="49" t="s">
         <v>180</v>
       </c>
-      <c r="M7" s="49" t="s">
+      <c r="N7" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="N7" s="44" t="s">
+      <c r="O7" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O7" s="44" t="s">
+      <c r="P7" s="44" t="s">
         <v>183</v>
       </c>
-      <c r="P7" s="44" t="s">
+      <c r="Q7" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="Q7" s="49" t="s">
+      <c r="R7" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="R7" s="49" t="s">
+      <c r="S7" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="S7" s="47" t="s">
+      <c r="T7" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="T7" s="49" t="s">
+      <c r="U7" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="U7" s="47" t="s">
+      <c r="V7" s="50" t="s">
         <v>189</v>
-      </c>
-      <c r="V7" s="50" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="8" s="52" customFormat="1" ht="30" customHeight="1" spans="1:22">
@@ -11759,7 +11750,7 @@
     </row>
     <row r="35" s="52" customFormat="1" ht="30" customHeight="1" spans="1:22">
       <c r="A35" s="83" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B35" s="88">
         <v>6.39633369445801</v>
@@ -11843,7 +11834,7 @@
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11859,58 +11850,58 @@
         <v>172</v>
       </c>
       <c r="D1" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="F1" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="G1" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="H1" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="I1" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="J1" s="46" t="s">
         <v>178</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="K1" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="L1" s="49" t="s">
         <v>180</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="M1" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="N1" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="O1" s="44" t="s">
         <v>183</v>
       </c>
-      <c r="O1" s="44" t="s">
+      <c r="P1" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="P1" s="49" t="s">
+      <c r="Q1" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="R1" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="R1" s="47" t="s">
+      <c r="S1" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="S1" s="49" t="s">
+      <c r="T1" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="T1" s="47" t="s">
+      <c r="U1" s="50" t="s">
         <v>189</v>
-      </c>
-      <c r="U1" s="50" t="s">
-        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -11925,7 +11916,7 @@
   <dimension ref="A1:AT41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:AR31"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -11952,7 +11943,7 @@
     </row>
     <row r="2" s="4" customFormat="1" ht="35.25" spans="1:43">
       <c r="A2" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -12002,7 +11993,7 @@
     </row>
     <row r="4" s="4" customFormat="1" ht="35.1" customHeight="1" spans="1:44">
       <c r="A4" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B4" s="11">
         <v>42256</v>
@@ -12043,14 +12034,14 @@
       <c r="AJ4" s="33"/>
       <c r="AK4" s="13"/>
       <c r="AL4" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="AM4" s="10" t="s">
         <v>194</v>
-      </c>
-      <c r="AM4" s="10" t="s">
-        <v>195</v>
       </c>
       <c r="AN4" s="10"/>
       <c r="AO4" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AP4" s="10" t="s">
         <v>5</v>
@@ -12063,7 +12054,7 @@
         <v>138</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -12082,7 +12073,7 @@
       <c r="Q5" s="16"/>
       <c r="R5" s="30"/>
       <c r="S5" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="T5" s="16"/>
       <c r="U5" s="16"/>
@@ -12101,7 +12092,7 @@
       <c r="AH5" s="16"/>
       <c r="AI5" s="30"/>
       <c r="AJ5" s="34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AK5" s="34"/>
       <c r="AL5" s="34"/>
@@ -12115,265 +12106,265 @@
     <row r="6" s="5" customFormat="1" ht="35.1" customHeight="1" spans="1:44">
       <c r="A6" s="17"/>
       <c r="B6" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="D6" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="E6" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="F6" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="G6" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="H6" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="I6" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="J6" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="K6" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="L6" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="L6" s="18" t="s">
+      <c r="M6" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="M6" s="18" t="s">
+      <c r="N6" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="N6" s="18" t="s">
+      <c r="O6" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="O6" s="18" t="s">
+      <c r="P6" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="P6" s="18" t="s">
+      <c r="Q6" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="Q6" s="18" t="s">
+      <c r="R6" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="R6" s="18" t="s">
+      <c r="S6" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="T6" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="U6" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="V6" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="W6" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="X6" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y6" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z6" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA6" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB6" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="AC6" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="AD6" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="AE6" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="AF6" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="AG6" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH6" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="AI6" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ6" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="AK6" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="S6" s="18" t="s">
+      <c r="AL6" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="T6" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="U6" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="V6" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="W6" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="X6" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="Y6" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z6" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="AA6" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="AB6" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="AC6" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="AD6" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="AE6" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="AF6" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG6" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="AH6" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="AI6" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ6" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="AK6" s="18" t="s">
+      <c r="AM6" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="AL6" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="AM6" s="18" t="s">
+      <c r="AN6" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="AN6" s="35" t="s">
+      <c r="AO6" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="AO6" s="18" t="s">
+      <c r="AP6" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="AP6" s="18" t="s">
+      <c r="AQ6" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="AQ6" s="18" t="s">
+      <c r="AR6" s="18" t="s">
         <v>222</v>
-      </c>
-      <c r="AR6" s="18" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="123.75" customHeight="1" spans="1:44">
       <c r="A7" s="19"/>
       <c r="B7" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="T7" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="U7" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="V7" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="V7" s="2" t="s">
+      <c r="W7" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="W7" s="2" t="s">
+      <c r="X7" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="X7" s="2" t="s">
+      <c r="Y7" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="Y7" s="2" t="s">
+      <c r="Z7" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="Z7" s="2" t="s">
+      <c r="AA7" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="AA7" s="2" t="s">
+      <c r="AB7" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="AB7" s="2" t="s">
+      <c r="AC7" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="AC7" s="2" t="s">
+      <c r="AD7" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AD7" s="2" t="s">
+      <c r="AE7" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="AE7" s="2" t="s">
+      <c r="AF7" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="AF7" s="2" t="s">
+      <c r="AG7" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="AG7" s="2" t="s">
+      <c r="AH7" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="AH7" s="2" t="s">
+      <c r="AI7" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="AI7" s="2" t="s">
+      <c r="AJ7" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="AJ7" s="2" t="s">
+      <c r="AK7" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="AK7" s="2" t="s">
+      <c r="AL7" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="AL7" s="2" t="s">
+      <c r="AM7" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="AM7" s="2" t="s">
+      <c r="AN7" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="AN7" s="2" t="s">
+      <c r="AO7" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="AO7" s="2" t="s">
+      <c r="AP7" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="AP7" s="2" t="s">
+      <c r="AQ7" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="AQ7" s="2" t="s">
+      <c r="AR7" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="AR7" s="3" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="8" s="5" customFormat="1" ht="37.5" customHeight="1" spans="1:46">
@@ -16778,7 +16769,7 @@
     </row>
     <row r="35" s="5" customFormat="1" ht="37.5" customHeight="1" spans="1:44">
       <c r="A35" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>

--- a/excel/finished/烧结/6#烧结机生产日报.xlsx
+++ b/excel/finished/烧结/6#烧结机生产日报.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\报表\烧结\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="13500" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="13500" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="技术经济指标" sheetId="1" r:id="rId1"/>
@@ -23,12 +18,13 @@
     <sheet name="风箱温度压力" sheetId="3" r:id="rId9"/>
     <sheet name="_sjfx_day_hour" sheetId="6" r:id="rId10"/>
     <sheet name="_dictionary" sheetId="7" r:id="rId11"/>
+    <sheet name="_metadata" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="8">风箱温度压力!$A$1:$AR$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">过程参数!$A$2:$V$34</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -39,6 +35,7 @@
       <rPr>
         <sz val="28"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>韶钢</t>
@@ -55,6 +52,7 @@
       <rPr>
         <sz val="28"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>烧结机生产日报</t>
@@ -71,6 +69,7 @@
       <rPr>
         <sz val="28"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>一</t>
@@ -89,6 +88,7 @@
       <rPr>
         <sz val="16"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>日期</t>
@@ -107,6 +107,7 @@
       <rPr>
         <sz val="16"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>编号</t>
@@ -125,6 +126,7 @@
       <rPr>
         <sz val="16"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>烧表</t>
@@ -141,6 +143,7 @@
       <rPr>
         <sz val="16"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>生</t>
@@ -159,6 +162,7 @@
       <rPr>
         <sz val="16"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>报出时间</t>
@@ -183,6 +187,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>实际生产量</t>
@@ -201,6 +206,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>理论生产量</t>
@@ -219,6 +225,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>台时产量</t>
@@ -237,6 +244,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>利用系数 t/m</t>
@@ -246,6 +254,7 @@
         <vertAlign val="superscript"/>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -254,6 +263,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.h</t>
@@ -270,6 +280,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>作业率</t>
@@ -297,6 +308,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>小计</t>
@@ -355,6 +367,7 @@
         <b/>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比例</t>
@@ -441,6 +454,7 @@
         <b/>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>成品矿料位</t>
@@ -538,6 +552,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>白班合计</t>
@@ -653,6 +668,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>中班合计</t>
@@ -671,6 +687,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>全天合计</t>
@@ -743,6 +760,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>values/SiO</t>
@@ -774,6 +792,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>values/Al</t>
@@ -828,6 +847,7 @@
       <rPr>
         <sz val="28"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>韶钢</t>
@@ -844,6 +864,7 @@
       <rPr>
         <sz val="28"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>烧结机生产日报</t>
@@ -860,6 +881,7 @@
       <rPr>
         <sz val="28"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>二</t>
@@ -950,6 +972,7 @@
       <rPr>
         <sz val="16"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>m/m</t>
@@ -958,6 +981,7 @@
       <rPr>
         <sz val="16"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>in</t>
@@ -968,6 +992,7 @@
       <rPr>
         <sz val="16"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>mm/m</t>
@@ -976,6 +1001,7 @@
       <rPr>
         <sz val="16"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>in</t>
@@ -986,6 +1012,7 @@
       <rPr>
         <sz val="16"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>m</t>
@@ -994,6 +1021,7 @@
       <rPr>
         <sz val="16"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>m</t>
@@ -1010,6 +1038,7 @@
       <rPr>
         <sz val="16"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>P</t>
@@ -1018,6 +1047,7 @@
       <rPr>
         <sz val="16"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>a</t>
@@ -1100,6 +1130,7 @@
       <rPr>
         <sz val="28"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>韶钢</t>
@@ -1116,6 +1147,7 @@
       <rPr>
         <sz val="28"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>烧结机生产日报</t>
@@ -1132,6 +1164,7 @@
       <rPr>
         <sz val="28"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>三</t>
@@ -1225,6 +1258,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>4</t>
@@ -1233,6 +1267,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -1241,6 +1276,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>5#</t>
@@ -1249,6 +1285,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>6#</t>
@@ -1262,6 +1299,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1270,6 +1308,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>4#15#16#</t>
@@ -1280,6 +1319,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>19</t>
@@ -1288,6 +1328,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -1296,6 +1337,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>20#21#</t>
@@ -1306,6 +1348,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -1314,6 +1357,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>3#</t>
@@ -1324,6 +1368,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -1332,6 +1377,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>4#</t>
@@ -1476,17 +1522,17 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="12">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.0"/>
-    <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="180" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="181" formatCode="0.0_ "/>
-    <numFmt numFmtId="182" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="183" formatCode="0.00_ "/>
-    <numFmt numFmtId="184" formatCode="0.0_);\(0.0\)"/>
-    <numFmt numFmtId="185" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="186" formatCode="0_ "/>
-    <numFmt numFmtId="187" formatCode="0.000_ "/>
-    <numFmt numFmtId="188" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="179" formatCode="0.0_ "/>
+    <numFmt numFmtId="180" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="181" formatCode="0.00_ "/>
+    <numFmt numFmtId="182" formatCode="0.0_);\(0.0\)"/>
+    <numFmt numFmtId="183" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="184" formatCode="0_ "/>
+    <numFmt numFmtId="185" formatCode="0.000_ "/>
+    <numFmt numFmtId="186" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -1497,27 +1543,32 @@
     <font>
       <sz val="18"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="28"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="16"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1529,6 +1580,7 @@
       <b/>
       <sz val="18"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1558,11 +1610,13 @@
       <vertAlign val="superscript"/>
       <sz val="18"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2185,7 +2239,7 @@
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="292">
+  <cellXfs count="290">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2204,7 +2258,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2228,58 +2282,58 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="179" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="182" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2294,97 +2348,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="182" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2393,31 +2447,31 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2426,16 +2480,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2444,10 +2498,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2486,13 +2540,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2507,34 +2561,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="1" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="188" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="186" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="188" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="186" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="184" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2545,11 +2599,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2563,44 +2617,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2608,11 +2662,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="188" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2629,14 +2683,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2654,11 +2708,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="188" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2668,7 +2722,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2692,10 +2746,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="188" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2707,80 +2761,191 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="184" fontId="1" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="187" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="187" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2794,22 +2959,82 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2818,159 +3043,52 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2978,122 +3096,50 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="188" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3403,8 +3449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Z115"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="AM61" sqref="AM61"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3436,41 +3482,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" ht="35.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="269" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
-      <c r="J2" s="172"/>
-      <c r="K2" s="172"/>
-      <c r="L2" s="172"/>
-      <c r="M2" s="172"/>
-      <c r="N2" s="172"/>
-      <c r="O2" s="172"/>
-      <c r="P2" s="172"/>
-      <c r="Q2" s="172"/>
-      <c r="R2" s="172"/>
-      <c r="S2" s="172"/>
-      <c r="T2" s="172"/>
-      <c r="U2" s="172"/>
-      <c r="V2" s="172"/>
-      <c r="W2" s="172"/>
-      <c r="X2" s="172"/>
+      <c r="B2" s="269"/>
+      <c r="C2" s="269"/>
+      <c r="D2" s="269"/>
+      <c r="E2" s="269"/>
+      <c r="F2" s="269"/>
+      <c r="G2" s="269"/>
+      <c r="H2" s="269"/>
+      <c r="I2" s="269"/>
+      <c r="J2" s="269"/>
+      <c r="K2" s="269"/>
+      <c r="L2" s="269"/>
+      <c r="M2" s="269"/>
+      <c r="N2" s="269"/>
+      <c r="O2" s="269"/>
+      <c r="P2" s="269"/>
+      <c r="Q2" s="269"/>
+      <c r="R2" s="269"/>
+      <c r="S2" s="269"/>
+      <c r="T2" s="269"/>
+      <c r="U2" s="269"/>
+      <c r="V2" s="269"/>
+      <c r="W2" s="269"/>
+      <c r="X2" s="269"/>
     </row>
     <row r="4" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="173">
-        <v>43343</v>
-      </c>
-      <c r="C4" s="173"/>
+      <c r="B4" s="288">
+        <f>_metadata!B2</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="288"/>
       <c r="D4" s="99"/>
       <c r="E4" s="99"/>
       <c r="F4" s="99"/>
@@ -3489,82 +3536,82 @@
       <c r="S4" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="T4" s="174" t="s">
+      <c r="T4" s="270" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="174"/>
+      <c r="U4" s="270"/>
       <c r="V4" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="W4" s="175" t="s">
+      <c r="W4" s="271" t="s">
         <v>5</v>
       </c>
-      <c r="X4" s="175"/>
+      <c r="X4" s="271"/>
     </row>
     <row r="5" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="239" t="s">
+      <c r="A5" s="198" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="241" t="s">
+      <c r="B5" s="200" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="242"/>
-      <c r="D5" s="245" t="s">
+      <c r="C5" s="201"/>
+      <c r="D5" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="246"/>
-      <c r="F5" s="245" t="s">
+      <c r="E5" s="205"/>
+      <c r="F5" s="204" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="246"/>
-      <c r="H5" s="245" t="s">
+      <c r="G5" s="205"/>
+      <c r="H5" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="246"/>
-      <c r="J5" s="241" t="s">
+      <c r="I5" s="205"/>
+      <c r="J5" s="200" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="242"/>
-      <c r="L5" s="241" t="s">
+      <c r="K5" s="201"/>
+      <c r="L5" s="200" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="242"/>
-      <c r="N5" s="241" t="s">
+      <c r="M5" s="201"/>
+      <c r="N5" s="200" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="242"/>
-      <c r="P5" s="241"/>
-      <c r="Q5" s="249"/>
-      <c r="R5" s="176" t="s">
+      <c r="O5" s="201"/>
+      <c r="P5" s="200"/>
+      <c r="Q5" s="208"/>
+      <c r="R5" s="239" t="s">
         <v>14</v>
       </c>
-      <c r="S5" s="177"/>
-      <c r="T5" s="177"/>
-      <c r="U5" s="177"/>
-      <c r="V5" s="177"/>
-      <c r="W5" s="177"/>
-      <c r="X5" s="178"/>
+      <c r="S5" s="240"/>
+      <c r="T5" s="240"/>
+      <c r="U5" s="240"/>
+      <c r="V5" s="240"/>
+      <c r="W5" s="240"/>
+      <c r="X5" s="241"/>
       <c r="Y5" s="158"/>
       <c r="Z5" s="158"/>
     </row>
     <row r="6" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="240"/>
-      <c r="B6" s="243"/>
-      <c r="C6" s="244"/>
-      <c r="D6" s="247"/>
-      <c r="E6" s="248"/>
-      <c r="F6" s="247"/>
-      <c r="G6" s="248"/>
-      <c r="H6" s="247"/>
-      <c r="I6" s="248"/>
-      <c r="J6" s="243"/>
-      <c r="K6" s="244"/>
-      <c r="L6" s="243"/>
-      <c r="M6" s="244"/>
-      <c r="N6" s="243"/>
-      <c r="O6" s="244"/>
-      <c r="P6" s="243"/>
-      <c r="Q6" s="250"/>
+      <c r="A6" s="199"/>
+      <c r="B6" s="202"/>
+      <c r="C6" s="203"/>
+      <c r="D6" s="206"/>
+      <c r="E6" s="207"/>
+      <c r="F6" s="206"/>
+      <c r="G6" s="207"/>
+      <c r="H6" s="206"/>
+      <c r="I6" s="207"/>
+      <c r="J6" s="202"/>
+      <c r="K6" s="203"/>
+      <c r="L6" s="202"/>
+      <c r="M6" s="203"/>
+      <c r="N6" s="202"/>
+      <c r="O6" s="203"/>
+      <c r="P6" s="202"/>
+      <c r="Q6" s="209"/>
       <c r="R6" s="104" t="s">
         <v>15</v>
       </c>
@@ -3574,12 +3621,12 @@
       <c r="T6" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="U6" s="179" t="s">
+      <c r="U6" s="267" t="s">
         <v>18</v>
       </c>
-      <c r="V6" s="180"/>
-      <c r="W6" s="180"/>
-      <c r="X6" s="181"/>
+      <c r="V6" s="225"/>
+      <c r="W6" s="225"/>
+      <c r="X6" s="268"/>
       <c r="Y6" s="158"/>
       <c r="Z6" s="158"/>
     </row>
@@ -3587,25 +3634,25 @@
       <c r="A7" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="184" t="str">
+      <c r="B7" s="259" t="str">
         <f>IF(_sjmain1_day_hour!A2="","",_sjmain1_day_hour!A2)</f>
         <v/>
       </c>
-      <c r="C7" s="185"/>
-      <c r="D7" s="186"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="188"/>
-      <c r="G7" s="189"/>
-      <c r="H7" s="190"/>
-      <c r="I7" s="191"/>
-      <c r="J7" s="192"/>
-      <c r="K7" s="193"/>
-      <c r="L7" s="194"/>
-      <c r="M7" s="195"/>
-      <c r="N7" s="194"/>
-      <c r="O7" s="195"/>
-      <c r="P7" s="179"/>
-      <c r="Q7" s="181"/>
+      <c r="C7" s="260"/>
+      <c r="D7" s="261"/>
+      <c r="E7" s="262"/>
+      <c r="F7" s="251"/>
+      <c r="G7" s="252"/>
+      <c r="H7" s="253"/>
+      <c r="I7" s="254"/>
+      <c r="J7" s="263"/>
+      <c r="K7" s="264"/>
+      <c r="L7" s="265"/>
+      <c r="M7" s="266"/>
+      <c r="N7" s="265"/>
+      <c r="O7" s="266"/>
+      <c r="P7" s="267"/>
+      <c r="Q7" s="268"/>
       <c r="R7" s="128" t="s">
         <v>21</v>
       </c>
@@ -3613,10 +3660,10 @@
         <v>22</v>
       </c>
       <c r="T7" s="133"/>
-      <c r="U7" s="196"/>
-      <c r="V7" s="197"/>
-      <c r="W7" s="197"/>
-      <c r="X7" s="198"/>
+      <c r="U7" s="228"/>
+      <c r="V7" s="229"/>
+      <c r="W7" s="229"/>
+      <c r="X7" s="230"/>
       <c r="Y7" s="158"/>
       <c r="Z7" s="158"/>
     </row>
@@ -3624,25 +3671,25 @@
       <c r="A8" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="184" t="str">
+      <c r="B8" s="259" t="str">
         <f>IF(_sjmain1_day_hour!A3="","",_sjmain1_day_hour!A3)</f>
         <v/>
       </c>
-      <c r="C8" s="185"/>
-      <c r="D8" s="186"/>
-      <c r="E8" s="187"/>
-      <c r="F8" s="188"/>
-      <c r="G8" s="189"/>
-      <c r="H8" s="190"/>
-      <c r="I8" s="191"/>
-      <c r="J8" s="192"/>
-      <c r="K8" s="193"/>
-      <c r="L8" s="194"/>
-      <c r="M8" s="195"/>
-      <c r="N8" s="194"/>
-      <c r="O8" s="195"/>
-      <c r="P8" s="179"/>
-      <c r="Q8" s="181"/>
+      <c r="C8" s="260"/>
+      <c r="D8" s="261"/>
+      <c r="E8" s="262"/>
+      <c r="F8" s="251"/>
+      <c r="G8" s="252"/>
+      <c r="H8" s="253"/>
+      <c r="I8" s="254"/>
+      <c r="J8" s="263"/>
+      <c r="K8" s="264"/>
+      <c r="L8" s="265"/>
+      <c r="M8" s="266"/>
+      <c r="N8" s="265"/>
+      <c r="O8" s="266"/>
+      <c r="P8" s="267"/>
+      <c r="Q8" s="268"/>
       <c r="R8" s="128" t="s">
         <v>21</v>
       </c>
@@ -3650,10 +3697,10 @@
         <v>21</v>
       </c>
       <c r="T8" s="149"/>
-      <c r="U8" s="196"/>
-      <c r="V8" s="197"/>
-      <c r="W8" s="197"/>
-      <c r="X8" s="198"/>
+      <c r="U8" s="228"/>
+      <c r="V8" s="229"/>
+      <c r="W8" s="229"/>
+      <c r="X8" s="230"/>
       <c r="Y8" s="158"/>
       <c r="Z8" s="158"/>
     </row>
@@ -3661,25 +3708,25 @@
       <c r="A9" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="184" t="str">
+      <c r="B9" s="259" t="str">
         <f>IF(_sjmain1_day_hour!A4="","",_sjmain1_day_hour!A4)</f>
         <v/>
       </c>
-      <c r="C9" s="185"/>
-      <c r="D9" s="186"/>
-      <c r="E9" s="187"/>
-      <c r="F9" s="188"/>
-      <c r="G9" s="189"/>
-      <c r="H9" s="190"/>
-      <c r="I9" s="191"/>
-      <c r="J9" s="192"/>
-      <c r="K9" s="193"/>
-      <c r="L9" s="194"/>
-      <c r="M9" s="195"/>
-      <c r="N9" s="194"/>
-      <c r="O9" s="195"/>
-      <c r="P9" s="179"/>
-      <c r="Q9" s="181"/>
+      <c r="C9" s="260"/>
+      <c r="D9" s="261"/>
+      <c r="E9" s="262"/>
+      <c r="F9" s="251"/>
+      <c r="G9" s="252"/>
+      <c r="H9" s="253"/>
+      <c r="I9" s="254"/>
+      <c r="J9" s="263"/>
+      <c r="K9" s="264"/>
+      <c r="L9" s="265"/>
+      <c r="M9" s="266"/>
+      <c r="N9" s="265"/>
+      <c r="O9" s="266"/>
+      <c r="P9" s="267"/>
+      <c r="Q9" s="268"/>
       <c r="R9" s="128" t="s">
         <v>21</v>
       </c>
@@ -3687,10 +3734,10 @@
         <v>21</v>
       </c>
       <c r="T9" s="133"/>
-      <c r="U9" s="196"/>
-      <c r="V9" s="197"/>
-      <c r="W9" s="197"/>
-      <c r="X9" s="198"/>
+      <c r="U9" s="228"/>
+      <c r="V9" s="229"/>
+      <c r="W9" s="229"/>
+      <c r="X9" s="230"/>
       <c r="Y9" s="158"/>
       <c r="Z9" s="158"/>
     </row>
@@ -3698,22 +3745,22 @@
       <c r="A10" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="199"/>
-      <c r="C10" s="200"/>
-      <c r="D10" s="201"/>
-      <c r="E10" s="202"/>
-      <c r="F10" s="188"/>
-      <c r="G10" s="189"/>
-      <c r="H10" s="190"/>
-      <c r="I10" s="191"/>
-      <c r="J10" s="203"/>
-      <c r="K10" s="204"/>
-      <c r="L10" s="203"/>
-      <c r="M10" s="204"/>
-      <c r="N10" s="203"/>
-      <c r="O10" s="204"/>
-      <c r="P10" s="205"/>
-      <c r="Q10" s="206"/>
+      <c r="B10" s="247"/>
+      <c r="C10" s="248"/>
+      <c r="D10" s="249"/>
+      <c r="E10" s="250"/>
+      <c r="F10" s="251"/>
+      <c r="G10" s="252"/>
+      <c r="H10" s="253"/>
+      <c r="I10" s="254"/>
+      <c r="J10" s="255"/>
+      <c r="K10" s="256"/>
+      <c r="L10" s="255"/>
+      <c r="M10" s="256"/>
+      <c r="N10" s="255"/>
+      <c r="O10" s="256"/>
+      <c r="P10" s="257"/>
+      <c r="Q10" s="258"/>
       <c r="R10" s="128" t="s">
         <v>21</v>
       </c>
@@ -3721,37 +3768,37 @@
         <v>21</v>
       </c>
       <c r="T10" s="133"/>
-      <c r="U10" s="196"/>
-      <c r="V10" s="197"/>
-      <c r="W10" s="197"/>
-      <c r="X10" s="198"/>
+      <c r="U10" s="228"/>
+      <c r="V10" s="229"/>
+      <c r="W10" s="229"/>
+      <c r="X10" s="230"/>
       <c r="Y10" s="158"/>
       <c r="Z10" s="158"/>
     </row>
     <row r="11" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="176" t="s">
+      <c r="A11" s="239" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="177"/>
-      <c r="C11" s="177"/>
-      <c r="D11" s="177"/>
-      <c r="E11" s="177"/>
-      <c r="F11" s="177"/>
-      <c r="G11" s="177"/>
-      <c r="H11" s="177"/>
-      <c r="I11" s="178"/>
-      <c r="J11" s="207" t="s">
+      <c r="B11" s="240"/>
+      <c r="C11" s="240"/>
+      <c r="D11" s="240"/>
+      <c r="E11" s="240"/>
+      <c r="F11" s="240"/>
+      <c r="G11" s="240"/>
+      <c r="H11" s="240"/>
+      <c r="I11" s="241"/>
+      <c r="J11" s="242" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="208"/>
-      <c r="L11" s="208"/>
-      <c r="M11" s="208"/>
-      <c r="N11" s="208"/>
-      <c r="O11" s="209"/>
-      <c r="P11" s="210" t="s">
+      <c r="K11" s="243"/>
+      <c r="L11" s="243"/>
+      <c r="M11" s="243"/>
+      <c r="N11" s="243"/>
+      <c r="O11" s="244"/>
+      <c r="P11" s="245" t="s">
         <v>28</v>
       </c>
-      <c r="Q11" s="211"/>
+      <c r="Q11" s="246"/>
       <c r="R11" s="128" t="s">
         <v>21</v>
       </c>
@@ -3759,10 +3806,10 @@
         <v>21</v>
       </c>
       <c r="T11" s="133"/>
-      <c r="U11" s="196"/>
-      <c r="V11" s="197"/>
-      <c r="W11" s="197"/>
-      <c r="X11" s="198"/>
+      <c r="U11" s="228"/>
+      <c r="V11" s="229"/>
+      <c r="W11" s="229"/>
+      <c r="X11" s="230"/>
       <c r="Y11" s="158"/>
       <c r="Z11" s="158"/>
     </row>
@@ -3825,10 +3872,10 @@
         <v>21</v>
       </c>
       <c r="T12" s="133"/>
-      <c r="U12" s="196"/>
-      <c r="V12" s="197"/>
-      <c r="W12" s="197"/>
-      <c r="X12" s="198"/>
+      <c r="U12" s="228"/>
+      <c r="V12" s="229"/>
+      <c r="W12" s="229"/>
+      <c r="X12" s="230"/>
       <c r="Y12" s="158"/>
       <c r="Z12" s="158"/>
     </row>
@@ -3883,10 +3930,10 @@
         <v>21</v>
       </c>
       <c r="T13" s="133"/>
-      <c r="U13" s="196"/>
-      <c r="V13" s="197"/>
-      <c r="W13" s="197"/>
-      <c r="X13" s="198"/>
+      <c r="U13" s="228"/>
+      <c r="V13" s="229"/>
+      <c r="W13" s="229"/>
+      <c r="X13" s="230"/>
       <c r="Y13" s="158"/>
       <c r="Z13" s="158"/>
     </row>
@@ -3940,10 +3987,10 @@
         <v>21</v>
       </c>
       <c r="T14" s="133"/>
-      <c r="U14" s="196"/>
-      <c r="V14" s="197"/>
-      <c r="W14" s="197"/>
-      <c r="X14" s="198"/>
+      <c r="U14" s="228"/>
+      <c r="V14" s="229"/>
+      <c r="W14" s="229"/>
+      <c r="X14" s="230"/>
       <c r="Y14" s="158"/>
       <c r="Z14" s="158"/>
     </row>
@@ -4006,27 +4053,27 @@
       <c r="Z15" s="158"/>
     </row>
     <row r="16" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="216" t="s">
+      <c r="A16" s="233" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="217"/>
-      <c r="C16" s="217"/>
-      <c r="D16" s="217"/>
-      <c r="E16" s="218"/>
-      <c r="F16" s="216" t="s">
+      <c r="B16" s="234"/>
+      <c r="C16" s="234"/>
+      <c r="D16" s="234"/>
+      <c r="E16" s="235"/>
+      <c r="F16" s="233" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="217"/>
-      <c r="H16" s="217"/>
-      <c r="I16" s="217"/>
-      <c r="J16" s="217"/>
-      <c r="K16" s="217"/>
-      <c r="L16" s="217"/>
-      <c r="M16" s="217"/>
-      <c r="N16" s="217"/>
-      <c r="O16" s="217"/>
-      <c r="P16" s="217"/>
-      <c r="Q16" s="218"/>
+      <c r="G16" s="234"/>
+      <c r="H16" s="234"/>
+      <c r="I16" s="234"/>
+      <c r="J16" s="234"/>
+      <c r="K16" s="234"/>
+      <c r="L16" s="234"/>
+      <c r="M16" s="234"/>
+      <c r="N16" s="234"/>
+      <c r="O16" s="234"/>
+      <c r="P16" s="234"/>
+      <c r="Q16" s="235"/>
       <c r="R16" s="154" t="s">
         <v>21</v>
       </c>
@@ -4157,11 +4204,11 @@
         <f>IF(_sjmain2_day_hour!K2="","",_sjmain2_day_hour!K2)</f>
         <v/>
       </c>
-      <c r="Q18" s="274" t="str">
+      <c r="Q18" s="175" t="str">
         <f>IF(_sjmain2_day_hour!L2="","",_sjmain2_day_hour!L2)</f>
         <v/>
       </c>
-      <c r="R18" s="272"/>
+      <c r="R18" s="173"/>
       <c r="S18" s="152"/>
       <c r="T18" s="133"/>
       <c r="U18" s="213"/>
@@ -4221,12 +4268,12 @@
         <f>IF(_sjmain2_day_hour!K3="","",_sjmain2_day_hour!K3)</f>
         <v/>
       </c>
-      <c r="Q19" s="274" t="str">
+      <c r="Q19" s="175" t="str">
         <f>IF(_sjmain2_day_hour!L3="","",_sjmain2_day_hour!L3)</f>
         <v/>
       </c>
-      <c r="R19" s="273"/>
-      <c r="S19" s="271"/>
+      <c r="R19" s="174"/>
+      <c r="S19" s="172"/>
       <c r="T19" s="156"/>
       <c r="U19" s="213"/>
       <c r="V19" s="214"/>
@@ -4285,11 +4332,11 @@
         <f>IF(_sjmain2_day_hour!K4="","",_sjmain2_day_hour!K4)</f>
         <v/>
       </c>
-      <c r="Q20" s="274" t="str">
+      <c r="Q20" s="175" t="str">
         <f>IF(_sjmain2_day_hour!L4="","",_sjmain2_day_hour!L4)</f>
         <v/>
       </c>
-      <c r="R20" s="272"/>
+      <c r="R20" s="173"/>
       <c r="S20" s="152"/>
       <c r="T20" s="133"/>
       <c r="U20" s="213"/>
@@ -4300,34 +4347,34 @@
       <c r="Z20" s="158"/>
     </row>
     <row r="21" spans="1:26" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="219" t="s">
+      <c r="A21" s="236" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="220"/>
-      <c r="C21" s="220"/>
-      <c r="D21" s="220"/>
-      <c r="E21" s="220"/>
-      <c r="F21" s="220"/>
-      <c r="G21" s="220"/>
-      <c r="H21" s="220"/>
-      <c r="I21" s="220"/>
-      <c r="J21" s="220"/>
-      <c r="K21" s="220"/>
-      <c r="L21" s="220"/>
-      <c r="M21" s="220"/>
-      <c r="N21" s="220"/>
-      <c r="O21" s="220"/>
-      <c r="P21" s="220"/>
-      <c r="Q21" s="221"/>
-      <c r="R21" s="212" t="s">
+      <c r="B21" s="237"/>
+      <c r="C21" s="237"/>
+      <c r="D21" s="237"/>
+      <c r="E21" s="237"/>
+      <c r="F21" s="237"/>
+      <c r="G21" s="237"/>
+      <c r="H21" s="237"/>
+      <c r="I21" s="237"/>
+      <c r="J21" s="237"/>
+      <c r="K21" s="237"/>
+      <c r="L21" s="237"/>
+      <c r="M21" s="237"/>
+      <c r="N21" s="237"/>
+      <c r="O21" s="237"/>
+      <c r="P21" s="237"/>
+      <c r="Q21" s="238"/>
+      <c r="R21" s="224" t="s">
         <v>78</v>
       </c>
-      <c r="S21" s="180"/>
+      <c r="S21" s="225"/>
       <c r="T21" s="151"/>
-      <c r="U21" s="222"/>
-      <c r="V21" s="223"/>
-      <c r="W21" s="223"/>
-      <c r="X21" s="224"/>
+      <c r="U21" s="190"/>
+      <c r="V21" s="191"/>
+      <c r="W21" s="191"/>
+      <c r="X21" s="192"/>
       <c r="Y21" s="158"/>
       <c r="Z21" s="158"/>
     </row>
@@ -4335,10 +4382,10 @@
       <c r="A22" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="225" t="s">
+      <c r="B22" s="231" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="226"/>
+      <c r="C22" s="232"/>
       <c r="D22" s="123" t="s">
         <v>81</v>
       </c>
@@ -4388,10 +4435,10 @@
         <v>21</v>
       </c>
       <c r="T22" s="133"/>
-      <c r="U22" s="196"/>
-      <c r="V22" s="197"/>
-      <c r="W22" s="197"/>
-      <c r="X22" s="198"/>
+      <c r="U22" s="228"/>
+      <c r="V22" s="229"/>
+      <c r="W22" s="229"/>
+      <c r="X22" s="230"/>
       <c r="Y22" s="158"/>
       <c r="Z22" s="158"/>
     </row>
@@ -4400,11 +4447,11 @@
         <f>IF(_sjmain4_day_shift!A2="","",_sjmain4_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="B23" s="227" t="str">
+      <c r="B23" s="226" t="str">
         <f>IF(_sjmain4_day_shift!B2="","",_sjmain4_day_shift!B2)</f>
         <v/>
       </c>
-      <c r="C23" s="228"/>
+      <c r="C23" s="227"/>
       <c r="D23" s="126" t="str">
         <f>IF(_sjmain4_day_shift!D2="","",_sjmain4_day_shift!D2)</f>
         <v/>
@@ -4468,10 +4515,10 @@
         <v>21</v>
       </c>
       <c r="T23" s="133"/>
-      <c r="U23" s="196"/>
-      <c r="V23" s="197"/>
-      <c r="W23" s="197"/>
-      <c r="X23" s="198"/>
+      <c r="U23" s="228"/>
+      <c r="V23" s="229"/>
+      <c r="W23" s="229"/>
+      <c r="X23" s="230"/>
       <c r="Y23" s="158"/>
       <c r="Z23" s="158"/>
     </row>
@@ -4480,11 +4527,11 @@
         <f>IF(_sjmain4_day_shift!A3="","",_sjmain4_day_shift!A3)</f>
         <v/>
       </c>
-      <c r="B24" s="229" t="str">
+      <c r="B24" s="216" t="str">
         <f>IF(_sjmain4_day_shift!B3="","",_sjmain4_day_shift!B3)</f>
         <v/>
       </c>
-      <c r="C24" s="230"/>
+      <c r="C24" s="217"/>
       <c r="D24" s="127" t="str">
         <f>IF(_sjmain4_day_shift!D3="","",_sjmain4_day_shift!D3)</f>
         <v/>
@@ -4542,10 +4589,10 @@
         <v>21</v>
       </c>
       <c r="T24" s="133"/>
-      <c r="U24" s="196"/>
-      <c r="V24" s="197"/>
-      <c r="W24" s="197"/>
-      <c r="X24" s="198"/>
+      <c r="U24" s="228"/>
+      <c r="V24" s="229"/>
+      <c r="W24" s="229"/>
+      <c r="X24" s="230"/>
       <c r="Y24" s="158"/>
       <c r="Z24" s="158"/>
     </row>
@@ -4554,11 +4601,11 @@
         <f>IF(_sjmain4_day_shift!A4="","",_sjmain4_day_shift!A4)</f>
         <v/>
       </c>
-      <c r="B25" s="229" t="str">
+      <c r="B25" s="216" t="str">
         <f>IF(_sjmain4_day_shift!B4="","",_sjmain4_day_shift!B4)</f>
         <v/>
       </c>
-      <c r="C25" s="230"/>
+      <c r="C25" s="217"/>
       <c r="D25" s="127" t="str">
         <f>IF(_sjmain4_day_shift!D4="","",_sjmain4_day_shift!D4)</f>
         <v/>
@@ -4616,10 +4663,10 @@
         <v>21</v>
       </c>
       <c r="T25" s="133"/>
-      <c r="U25" s="196"/>
-      <c r="V25" s="197"/>
-      <c r="W25" s="197"/>
-      <c r="X25" s="198"/>
+      <c r="U25" s="228"/>
+      <c r="V25" s="229"/>
+      <c r="W25" s="229"/>
+      <c r="X25" s="230"/>
       <c r="Y25" s="158"/>
       <c r="Z25" s="158"/>
     </row>
@@ -4628,11 +4675,11 @@
         <f>IF(_sjmain4_day_shift!A5="","",_sjmain4_day_shift!A5)</f>
         <v/>
       </c>
-      <c r="B26" s="229" t="str">
+      <c r="B26" s="216" t="str">
         <f>IF(_sjmain4_day_shift!B5="","",_sjmain4_day_shift!B5)</f>
         <v/>
       </c>
-      <c r="C26" s="230"/>
+      <c r="C26" s="217"/>
       <c r="D26" s="127" t="str">
         <f>IF(_sjmain4_day_shift!D5="","",_sjmain4_day_shift!D5)</f>
         <v/>
@@ -4702,11 +4749,11 @@
         <f>IF(_sjmain4_day_shift!A6="","",_sjmain4_day_shift!A6)</f>
         <v/>
       </c>
-      <c r="B27" s="229" t="str">
+      <c r="B27" s="216" t="str">
         <f>IF(_sjmain4_day_shift!B6="","",_sjmain4_day_shift!B6)</f>
         <v/>
       </c>
-      <c r="C27" s="230"/>
+      <c r="C27" s="217"/>
       <c r="D27" s="127" t="str">
         <f>IF(_sjmain4_day_shift!D6="","",_sjmain4_day_shift!D6)</f>
         <v/>
@@ -4760,10 +4807,10 @@
       <c r="R27" s="154"/>
       <c r="S27" s="152"/>
       <c r="T27" s="133"/>
-      <c r="U27" s="196"/>
-      <c r="V27" s="197"/>
-      <c r="W27" s="197"/>
-      <c r="X27" s="198"/>
+      <c r="U27" s="228"/>
+      <c r="V27" s="229"/>
+      <c r="W27" s="229"/>
+      <c r="X27" s="230"/>
       <c r="Y27" s="158"/>
       <c r="Z27" s="158"/>
     </row>
@@ -4772,11 +4819,11 @@
         <f>IF(_sjmain4_day_shift!A7="","",_sjmain4_day_shift!A7)</f>
         <v/>
       </c>
-      <c r="B28" s="229" t="str">
+      <c r="B28" s="216" t="str">
         <f>IF(_sjmain4_day_shift!B7="","",_sjmain4_day_shift!B7)</f>
         <v/>
       </c>
-      <c r="C28" s="230"/>
+      <c r="C28" s="217"/>
       <c r="D28" s="127" t="str">
         <f>IF(_sjmain4_day_shift!D7="","",_sjmain4_day_shift!D7)</f>
         <v/>
@@ -4842,11 +4889,11 @@
         <f>IF(_sjmain4_day_shift!A8="","",_sjmain4_day_shift!A8)</f>
         <v/>
       </c>
-      <c r="B29" s="229" t="str">
+      <c r="B29" s="216" t="str">
         <f>IF(_sjmain4_day_shift!B8="","",_sjmain4_day_shift!B8)</f>
         <v/>
       </c>
-      <c r="C29" s="230"/>
+      <c r="C29" s="217"/>
       <c r="D29" s="127" t="str">
         <f>IF(_sjmain4_day_shift!D8="","",_sjmain4_day_shift!D8)</f>
         <v/>
@@ -4897,15 +4944,15 @@
       </c>
       <c r="P29" s="144"/>
       <c r="Q29" s="157"/>
-      <c r="R29" s="212" t="s">
+      <c r="R29" s="224" t="s">
         <v>95</v>
       </c>
-      <c r="S29" s="180"/>
+      <c r="S29" s="225"/>
       <c r="T29" s="151"/>
-      <c r="U29" s="222"/>
-      <c r="V29" s="223"/>
-      <c r="W29" s="223"/>
-      <c r="X29" s="224"/>
+      <c r="U29" s="190"/>
+      <c r="V29" s="191"/>
+      <c r="W29" s="191"/>
+      <c r="X29" s="192"/>
       <c r="Y29" s="158"/>
       <c r="Z29" s="158"/>
     </row>
@@ -4914,11 +4961,11 @@
         <f>IF(_sjmain4_day_shift!A9="","",_sjmain4_day_shift!A9)</f>
         <v/>
       </c>
-      <c r="B30" s="229" t="str">
+      <c r="B30" s="216" t="str">
         <f>IF(_sjmain4_day_shift!B9="","",_sjmain4_day_shift!B9)</f>
         <v/>
       </c>
-      <c r="C30" s="230"/>
+      <c r="C30" s="217"/>
       <c r="D30" s="127" t="str">
         <f>IF(_sjmain4_day_shift!D9="","",_sjmain4_day_shift!D9)</f>
         <v/>
@@ -4969,28 +5016,28 @@
       </c>
       <c r="P30" s="144"/>
       <c r="Q30" s="157"/>
-      <c r="R30" s="212" t="s">
+      <c r="R30" s="224" t="s">
         <v>96</v>
       </c>
-      <c r="S30" s="180"/>
+      <c r="S30" s="225"/>
       <c r="T30" s="151">
         <v>0</v>
       </c>
-      <c r="U30" s="222"/>
-      <c r="V30" s="223"/>
-      <c r="W30" s="223"/>
-      <c r="X30" s="224"/>
+      <c r="U30" s="190"/>
+      <c r="V30" s="191"/>
+      <c r="W30" s="191"/>
+      <c r="X30" s="192"/>
     </row>
     <row r="31" spans="1:26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="128" t="str">
         <f>IF(_sjmain4_day_shift!A10="","",_sjmain4_day_shift!A10)</f>
         <v/>
       </c>
-      <c r="B31" s="229" t="str">
+      <c r="B31" s="216" t="str">
         <f>IF(_sjmain4_day_shift!B10="","",_sjmain4_day_shift!B10)</f>
         <v/>
       </c>
-      <c r="C31" s="230"/>
+      <c r="C31" s="217"/>
       <c r="D31" s="127" t="str">
         <f>IF(_sjmain4_day_shift!D10="","",_sjmain4_day_shift!D10)</f>
         <v/>
@@ -5044,21 +5091,21 @@
       <c r="R31" s="92"/>
       <c r="S31" s="93"/>
       <c r="T31" s="151"/>
-      <c r="U31" s="222"/>
-      <c r="V31" s="223"/>
-      <c r="W31" s="223"/>
-      <c r="X31" s="224"/>
+      <c r="U31" s="190"/>
+      <c r="V31" s="191"/>
+      <c r="W31" s="191"/>
+      <c r="X31" s="192"/>
     </row>
     <row r="32" spans="1:26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="128" t="str">
         <f>IF(_sjmain4_day_shift!A11="","",_sjmain4_day_shift!A11)</f>
         <v/>
       </c>
-      <c r="B32" s="229" t="str">
+      <c r="B32" s="216" t="str">
         <f>IF(_sjmain4_day_shift!B11="","",_sjmain4_day_shift!B11)</f>
         <v/>
       </c>
-      <c r="C32" s="230"/>
+      <c r="C32" s="217"/>
       <c r="D32" s="127" t="str">
         <f>IF(_sjmain4_day_shift!D11="","",_sjmain4_day_shift!D11)</f>
         <v/>
@@ -5112,21 +5159,21 @@
       <c r="R32" s="92"/>
       <c r="S32" s="93"/>
       <c r="T32" s="151"/>
-      <c r="U32" s="222"/>
-      <c r="V32" s="223"/>
-      <c r="W32" s="223"/>
-      <c r="X32" s="224"/>
+      <c r="U32" s="190"/>
+      <c r="V32" s="191"/>
+      <c r="W32" s="191"/>
+      <c r="X32" s="192"/>
     </row>
     <row r="33" spans="1:24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="128" t="str">
         <f>IF(_sjmain4_day_shift!A12="","",_sjmain4_day_shift!A12)</f>
         <v/>
       </c>
-      <c r="B33" s="229" t="str">
+      <c r="B33" s="216" t="str">
         <f>IF(_sjmain4_day_shift!B12="","",_sjmain4_day_shift!B12)</f>
         <v/>
       </c>
-      <c r="C33" s="230"/>
+      <c r="C33" s="217"/>
       <c r="D33" s="127" t="str">
         <f>IF(_sjmain4_day_shift!D12="","",_sjmain4_day_shift!D12)</f>
         <v/>
@@ -5180,21 +5227,21 @@
       <c r="R33" s="92"/>
       <c r="S33" s="93"/>
       <c r="T33" s="151"/>
-      <c r="U33" s="222"/>
-      <c r="V33" s="223"/>
-      <c r="W33" s="223"/>
-      <c r="X33" s="224"/>
+      <c r="U33" s="190"/>
+      <c r="V33" s="191"/>
+      <c r="W33" s="191"/>
+      <c r="X33" s="192"/>
     </row>
     <row r="34" spans="1:24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="128" t="str">
         <f>IF(_sjmain4_day_shift!A13="","",_sjmain4_day_shift!A13)</f>
         <v/>
       </c>
-      <c r="B34" s="229" t="str">
+      <c r="B34" s="216" t="str">
         <f>IF(_sjmain4_day_shift!B13="","",_sjmain4_day_shift!B13)</f>
         <v/>
       </c>
-      <c r="C34" s="230"/>
+      <c r="C34" s="217"/>
       <c r="D34" s="127" t="str">
         <f>IF(_sjmain4_day_shift!D13="","",_sjmain4_day_shift!D13)</f>
         <v/>
@@ -5248,21 +5295,21 @@
       <c r="R34" s="92"/>
       <c r="S34" s="93"/>
       <c r="T34" s="151"/>
-      <c r="U34" s="222"/>
-      <c r="V34" s="223"/>
-      <c r="W34" s="223"/>
-      <c r="X34" s="224"/>
+      <c r="U34" s="190"/>
+      <c r="V34" s="191"/>
+      <c r="W34" s="191"/>
+      <c r="X34" s="192"/>
     </row>
     <row r="35" spans="1:24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="128" t="str">
         <f>IF(_sjmain4_day_shift!A14="","",_sjmain4_day_shift!A14)</f>
         <v/>
       </c>
-      <c r="B35" s="229" t="str">
+      <c r="B35" s="216" t="str">
         <f>IF(_sjmain4_day_shift!B14="","",_sjmain4_day_shift!B14)</f>
         <v/>
       </c>
-      <c r="C35" s="230"/>
+      <c r="C35" s="217"/>
       <c r="D35" s="127" t="str">
         <f>IF(_sjmain4_day_shift!D14="","",_sjmain4_day_shift!D14)</f>
         <v/>
@@ -5316,21 +5363,21 @@
       <c r="R35" s="92"/>
       <c r="S35" s="93"/>
       <c r="T35" s="151"/>
-      <c r="U35" s="222"/>
-      <c r="V35" s="223"/>
-      <c r="W35" s="223"/>
-      <c r="X35" s="224"/>
+      <c r="U35" s="190"/>
+      <c r="V35" s="191"/>
+      <c r="W35" s="191"/>
+      <c r="X35" s="192"/>
     </row>
     <row r="36" spans="1:24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="128" t="str">
         <f>IF(_sjmain4_day_shift!A15="","",_sjmain4_day_shift!A15)</f>
         <v/>
       </c>
-      <c r="B36" s="229" t="str">
+      <c r="B36" s="216" t="str">
         <f>IF(_sjmain4_day_shift!B15="","",_sjmain4_day_shift!B15)</f>
         <v/>
       </c>
-      <c r="C36" s="230"/>
+      <c r="C36" s="217"/>
       <c r="D36" s="127" t="str">
         <f>IF(_sjmain4_day_shift!D15="","",_sjmain4_day_shift!D15)</f>
         <v/>
@@ -5384,21 +5431,21 @@
       <c r="R36" s="92"/>
       <c r="S36" s="93"/>
       <c r="T36" s="151"/>
-      <c r="U36" s="222"/>
-      <c r="V36" s="223"/>
-      <c r="W36" s="223"/>
-      <c r="X36" s="224"/>
+      <c r="U36" s="190"/>
+      <c r="V36" s="191"/>
+      <c r="W36" s="191"/>
+      <c r="X36" s="192"/>
     </row>
     <row r="37" spans="1:24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="128" t="str">
         <f>IF(_sjmain4_day_shift!A16="","",_sjmain4_day_shift!A16)</f>
         <v/>
       </c>
-      <c r="B37" s="229" t="str">
+      <c r="B37" s="216" t="str">
         <f>IF(_sjmain4_day_shift!B16="","",_sjmain4_day_shift!B16)</f>
         <v/>
       </c>
-      <c r="C37" s="230"/>
+      <c r="C37" s="217"/>
       <c r="D37" s="127" t="str">
         <f>IF(_sjmain4_day_shift!D16="","",_sjmain4_day_shift!D16)</f>
         <v/>
@@ -5452,21 +5499,21 @@
       <c r="R37" s="92"/>
       <c r="S37" s="93"/>
       <c r="T37" s="151"/>
-      <c r="U37" s="222"/>
-      <c r="V37" s="223"/>
-      <c r="W37" s="223"/>
-      <c r="X37" s="224"/>
+      <c r="U37" s="190"/>
+      <c r="V37" s="191"/>
+      <c r="W37" s="191"/>
+      <c r="X37" s="192"/>
     </row>
     <row r="38" spans="1:24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="128" t="str">
         <f>IF(_sjmain4_day_shift!A17="","",_sjmain4_day_shift!A17)</f>
         <v/>
       </c>
-      <c r="B38" s="229" t="str">
+      <c r="B38" s="216" t="str">
         <f>IF(_sjmain4_day_shift!B17="","",_sjmain4_day_shift!B17)</f>
         <v/>
       </c>
-      <c r="C38" s="230"/>
+      <c r="C38" s="217"/>
       <c r="D38" s="127" t="str">
         <f>IF(_sjmain4_day_shift!D17="","",_sjmain4_day_shift!D17)</f>
         <v/>
@@ -5520,21 +5567,21 @@
       <c r="R38" s="92"/>
       <c r="S38" s="93"/>
       <c r="T38" s="151"/>
-      <c r="U38" s="222"/>
-      <c r="V38" s="223"/>
-      <c r="W38" s="223"/>
-      <c r="X38" s="224"/>
+      <c r="U38" s="190"/>
+      <c r="V38" s="191"/>
+      <c r="W38" s="191"/>
+      <c r="X38" s="192"/>
     </row>
     <row r="39" spans="1:24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="128" t="str">
         <f>IF(_sjmain4_day_shift!A18="","",_sjmain4_day_shift!A18)</f>
         <v/>
       </c>
-      <c r="B39" s="229" t="str">
+      <c r="B39" s="216" t="str">
         <f>IF(_sjmain4_day_shift!B18="","",_sjmain4_day_shift!B18)</f>
         <v/>
       </c>
-      <c r="C39" s="230"/>
+      <c r="C39" s="217"/>
       <c r="D39" s="127" t="str">
         <f>IF(_sjmain4_day_shift!D18="","",_sjmain4_day_shift!D18)</f>
         <v/>
@@ -5588,21 +5635,21 @@
       <c r="R39" s="92"/>
       <c r="S39" s="93"/>
       <c r="T39" s="151"/>
-      <c r="U39" s="222"/>
-      <c r="V39" s="223"/>
-      <c r="W39" s="223"/>
-      <c r="X39" s="224"/>
+      <c r="U39" s="190"/>
+      <c r="V39" s="191"/>
+      <c r="W39" s="191"/>
+      <c r="X39" s="192"/>
     </row>
     <row r="40" spans="1:24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="128" t="str">
         <f>IF(_sjmain4_day_shift!A19="","",_sjmain4_day_shift!A19)</f>
         <v/>
       </c>
-      <c r="B40" s="229" t="str">
+      <c r="B40" s="216" t="str">
         <f>IF(_sjmain4_day_shift!B19="","",_sjmain4_day_shift!B19)</f>
         <v/>
       </c>
-      <c r="C40" s="230"/>
+      <c r="C40" s="217"/>
       <c r="D40" s="127" t="str">
         <f>IF(_sjmain4_day_shift!D19="","",_sjmain4_day_shift!D19)</f>
         <v/>
@@ -5656,21 +5703,21 @@
       <c r="R40" s="92"/>
       <c r="S40" s="93"/>
       <c r="T40" s="151"/>
-      <c r="U40" s="222"/>
-      <c r="V40" s="223"/>
-      <c r="W40" s="223"/>
-      <c r="X40" s="224"/>
+      <c r="U40" s="190"/>
+      <c r="V40" s="191"/>
+      <c r="W40" s="191"/>
+      <c r="X40" s="192"/>
     </row>
     <row r="41" spans="1:24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="128" t="str">
         <f>IF(_sjmain4_day_shift!A20="","",_sjmain4_day_shift!A20)</f>
         <v/>
       </c>
-      <c r="B41" s="229" t="str">
+      <c r="B41" s="216" t="str">
         <f>IF(_sjmain4_day_shift!B20="","",_sjmain4_day_shift!B20)</f>
         <v/>
       </c>
-      <c r="C41" s="230"/>
+      <c r="C41" s="217"/>
       <c r="D41" s="127" t="str">
         <f>IF(_sjmain4_day_shift!D20="","",_sjmain4_day_shift!D20)</f>
         <v/>
@@ -5724,21 +5771,21 @@
       <c r="R41" s="92"/>
       <c r="S41" s="93"/>
       <c r="T41" s="151"/>
-      <c r="U41" s="222"/>
-      <c r="V41" s="223"/>
-      <c r="W41" s="223"/>
-      <c r="X41" s="224"/>
+      <c r="U41" s="190"/>
+      <c r="V41" s="191"/>
+      <c r="W41" s="191"/>
+      <c r="X41" s="192"/>
     </row>
     <row r="42" spans="1:24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="128" t="str">
         <f>IF(_sjmain4_day_shift!A21="","",_sjmain4_day_shift!A21)</f>
         <v/>
       </c>
-      <c r="B42" s="229" t="str">
+      <c r="B42" s="216" t="str">
         <f>IF(_sjmain4_day_shift!B21="","",_sjmain4_day_shift!B21)</f>
         <v/>
       </c>
-      <c r="C42" s="230"/>
+      <c r="C42" s="217"/>
       <c r="D42" s="127" t="str">
         <f>IF(_sjmain4_day_shift!D21="","",_sjmain4_day_shift!D21)</f>
         <v/>
@@ -5792,21 +5839,21 @@
       <c r="R42" s="92"/>
       <c r="S42" s="93"/>
       <c r="T42" s="151"/>
-      <c r="U42" s="222"/>
-      <c r="V42" s="223"/>
-      <c r="W42" s="223"/>
-      <c r="X42" s="224"/>
+      <c r="U42" s="190"/>
+      <c r="V42" s="191"/>
+      <c r="W42" s="191"/>
+      <c r="X42" s="192"/>
     </row>
     <row r="43" spans="1:24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="128" t="str">
         <f>IF(_sjmain4_day_shift!A22="","",_sjmain4_day_shift!A22)</f>
         <v/>
       </c>
-      <c r="B43" s="229" t="str">
+      <c r="B43" s="216" t="str">
         <f>IF(_sjmain4_day_shift!B22="","",_sjmain4_day_shift!B22)</f>
         <v/>
       </c>
-      <c r="C43" s="230"/>
+      <c r="C43" s="217"/>
       <c r="D43" s="127" t="str">
         <f>IF(_sjmain4_day_shift!D22="","",_sjmain4_day_shift!D22)</f>
         <v/>
@@ -5860,21 +5907,21 @@
       <c r="R43" s="92"/>
       <c r="S43" s="93"/>
       <c r="T43" s="151"/>
-      <c r="U43" s="222"/>
-      <c r="V43" s="223"/>
-      <c r="W43" s="223"/>
-      <c r="X43" s="224"/>
+      <c r="U43" s="190"/>
+      <c r="V43" s="191"/>
+      <c r="W43" s="191"/>
+      <c r="X43" s="192"/>
     </row>
     <row r="44" spans="1:24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="128" t="str">
         <f>IF(_sjmain4_day_shift!A23="","",_sjmain4_day_shift!A23)</f>
         <v/>
       </c>
-      <c r="B44" s="229" t="str">
+      <c r="B44" s="216" t="str">
         <f>IF(_sjmain4_day_shift!B23="","",_sjmain4_day_shift!B23)</f>
         <v/>
       </c>
-      <c r="C44" s="230"/>
+      <c r="C44" s="217"/>
       <c r="D44" s="127" t="str">
         <f>IF(_sjmain4_day_shift!D23="","",_sjmain4_day_shift!D23)</f>
         <v/>
@@ -5928,21 +5975,21 @@
       <c r="R44" s="92"/>
       <c r="S44" s="93"/>
       <c r="T44" s="151"/>
-      <c r="U44" s="222"/>
-      <c r="V44" s="223"/>
-      <c r="W44" s="223"/>
-      <c r="X44" s="224"/>
+      <c r="U44" s="190"/>
+      <c r="V44" s="191"/>
+      <c r="W44" s="191"/>
+      <c r="X44" s="192"/>
     </row>
     <row r="45" spans="1:24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="128" t="str">
         <f>IF(_sjmain4_day_shift!A24="","",_sjmain4_day_shift!A24)</f>
         <v/>
       </c>
-      <c r="B45" s="229" t="str">
+      <c r="B45" s="216" t="str">
         <f>IF(_sjmain4_day_shift!B24="","",_sjmain4_day_shift!B24)</f>
         <v/>
       </c>
-      <c r="C45" s="230"/>
+      <c r="C45" s="217"/>
       <c r="D45" s="127" t="str">
         <f>IF(_sjmain4_day_shift!D24="","",_sjmain4_day_shift!D24)</f>
         <v/>
@@ -5996,21 +6043,21 @@
       <c r="R45" s="92"/>
       <c r="S45" s="93"/>
       <c r="T45" s="151"/>
-      <c r="U45" s="222"/>
-      <c r="V45" s="223"/>
-      <c r="W45" s="223"/>
-      <c r="X45" s="224"/>
+      <c r="U45" s="190"/>
+      <c r="V45" s="191"/>
+      <c r="W45" s="191"/>
+      <c r="X45" s="192"/>
     </row>
     <row r="46" spans="1:24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="128" t="str">
         <f>IF(_sjmain4_day_shift!A25="","",_sjmain4_day_shift!A25)</f>
         <v/>
       </c>
-      <c r="B46" s="229" t="str">
+      <c r="B46" s="216" t="str">
         <f>IF(_sjmain4_day_shift!B25="","",_sjmain4_day_shift!B25)</f>
         <v/>
       </c>
-      <c r="C46" s="230"/>
+      <c r="C46" s="217"/>
       <c r="D46" s="127" t="str">
         <f>IF(_sjmain4_day_shift!D25="","",_sjmain4_day_shift!D25)</f>
         <v/>
@@ -6064,21 +6111,21 @@
       <c r="R46" s="92"/>
       <c r="S46" s="93"/>
       <c r="T46" s="151"/>
-      <c r="U46" s="222"/>
-      <c r="V46" s="223"/>
-      <c r="W46" s="223"/>
-      <c r="X46" s="224"/>
+      <c r="U46" s="190"/>
+      <c r="V46" s="191"/>
+      <c r="W46" s="191"/>
+      <c r="X46" s="192"/>
     </row>
     <row r="47" spans="1:24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="128" t="str">
         <f>IF(_sjmain4_day_shift!A26="","",_sjmain4_day_shift!A26)</f>
         <v/>
       </c>
-      <c r="B47" s="229" t="str">
+      <c r="B47" s="216" t="str">
         <f>IF(_sjmain4_day_shift!B26="","",_sjmain4_day_shift!B26)</f>
         <v/>
       </c>
-      <c r="C47" s="230"/>
+      <c r="C47" s="217"/>
       <c r="D47" s="127" t="str">
         <f>IF(_sjmain4_day_shift!D26="","",_sjmain4_day_shift!D26)</f>
         <v/>
@@ -6132,21 +6179,21 @@
       <c r="R47" s="92"/>
       <c r="S47" s="93"/>
       <c r="T47" s="151"/>
-      <c r="U47" s="222"/>
-      <c r="V47" s="223"/>
-      <c r="W47" s="223"/>
-      <c r="X47" s="224"/>
+      <c r="U47" s="190"/>
+      <c r="V47" s="191"/>
+      <c r="W47" s="191"/>
+      <c r="X47" s="192"/>
     </row>
     <row r="48" spans="1:24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="128" t="str">
         <f>IF(_sjmain4_day_shift!A27="","",_sjmain4_day_shift!A27)</f>
         <v/>
       </c>
-      <c r="B48" s="229" t="str">
+      <c r="B48" s="216" t="str">
         <f>IF(_sjmain4_day_shift!B27="","",_sjmain4_day_shift!B27)</f>
         <v/>
       </c>
-      <c r="C48" s="230"/>
+      <c r="C48" s="217"/>
       <c r="D48" s="127" t="str">
         <f>IF(_sjmain4_day_shift!D27="","",_sjmain4_day_shift!D27)</f>
         <v/>
@@ -6200,21 +6247,21 @@
       <c r="R48" s="92"/>
       <c r="S48" s="93"/>
       <c r="T48" s="151"/>
-      <c r="U48" s="222"/>
-      <c r="V48" s="223"/>
-      <c r="W48" s="223"/>
-      <c r="X48" s="224"/>
+      <c r="U48" s="190"/>
+      <c r="V48" s="191"/>
+      <c r="W48" s="191"/>
+      <c r="X48" s="192"/>
     </row>
     <row r="49" spans="1:24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="128" t="str">
         <f>IF(_sjmain4_day_shift!A28="","",_sjmain4_day_shift!A28)</f>
         <v/>
       </c>
-      <c r="B49" s="229" t="str">
+      <c r="B49" s="216" t="str">
         <f>IF(_sjmain4_day_shift!B28="","",_sjmain4_day_shift!B28)</f>
         <v/>
       </c>
-      <c r="C49" s="230"/>
+      <c r="C49" s="217"/>
       <c r="D49" s="127" t="str">
         <f>IF(_sjmain4_day_shift!D28="","",_sjmain4_day_shift!D28)</f>
         <v/>
@@ -6268,21 +6315,21 @@
       <c r="R49" s="92"/>
       <c r="S49" s="93"/>
       <c r="T49" s="151"/>
-      <c r="U49" s="222"/>
-      <c r="V49" s="223"/>
-      <c r="W49" s="223"/>
-      <c r="X49" s="224"/>
+      <c r="U49" s="190"/>
+      <c r="V49" s="191"/>
+      <c r="W49" s="191"/>
+      <c r="X49" s="192"/>
     </row>
     <row r="50" spans="1:24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="128" t="str">
         <f>IF(_sjmain4_day_shift!A29="","",_sjmain4_day_shift!A29)</f>
         <v/>
       </c>
-      <c r="B50" s="229" t="str">
+      <c r="B50" s="216" t="str">
         <f>IF(_sjmain4_day_shift!B29="","",_sjmain4_day_shift!B29)</f>
         <v/>
       </c>
-      <c r="C50" s="230"/>
+      <c r="C50" s="217"/>
       <c r="D50" s="127" t="str">
         <f>IF(_sjmain4_day_shift!D29="","",_sjmain4_day_shift!D29)</f>
         <v/>
@@ -6336,21 +6383,21 @@
       <c r="R50" s="92"/>
       <c r="S50" s="93"/>
       <c r="T50" s="151"/>
-      <c r="U50" s="222"/>
-      <c r="V50" s="223"/>
-      <c r="W50" s="223"/>
-      <c r="X50" s="224"/>
+      <c r="U50" s="190"/>
+      <c r="V50" s="191"/>
+      <c r="W50" s="191"/>
+      <c r="X50" s="192"/>
     </row>
     <row r="51" spans="1:24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="128" t="str">
         <f>IF(_sjmain4_day_shift!A30="","",_sjmain4_day_shift!A30)</f>
         <v/>
       </c>
-      <c r="B51" s="229" t="str">
+      <c r="B51" s="216" t="str">
         <f>IF(_sjmain4_day_shift!B30="","",_sjmain4_day_shift!B30)</f>
         <v/>
       </c>
-      <c r="C51" s="230"/>
+      <c r="C51" s="217"/>
       <c r="D51" s="127" t="str">
         <f>IF(_sjmain4_day_shift!D30="","",_sjmain4_day_shift!D30)</f>
         <v/>
@@ -6404,21 +6451,21 @@
       <c r="R51" s="92"/>
       <c r="S51" s="93"/>
       <c r="T51" s="151"/>
-      <c r="U51" s="222"/>
-      <c r="V51" s="223"/>
-      <c r="W51" s="223"/>
-      <c r="X51" s="224"/>
+      <c r="U51" s="190"/>
+      <c r="V51" s="191"/>
+      <c r="W51" s="191"/>
+      <c r="X51" s="192"/>
     </row>
     <row r="52" spans="1:24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="128" t="str">
         <f>IF(_sjmain4_day_shift!A31="","",_sjmain4_day_shift!A31)</f>
         <v/>
       </c>
-      <c r="B52" s="229" t="str">
+      <c r="B52" s="216" t="str">
         <f>IF(_sjmain4_day_shift!B31="","",_sjmain4_day_shift!B31)</f>
         <v/>
       </c>
-      <c r="C52" s="230"/>
+      <c r="C52" s="217"/>
       <c r="D52" s="127" t="str">
         <f>IF(_sjmain4_day_shift!D31="","",_sjmain4_day_shift!D31)</f>
         <v/>
@@ -6472,21 +6519,21 @@
       <c r="R52" s="92"/>
       <c r="S52" s="93"/>
       <c r="T52" s="151"/>
-      <c r="U52" s="222"/>
-      <c r="V52" s="223"/>
-      <c r="W52" s="223"/>
-      <c r="X52" s="224"/>
+      <c r="U52" s="190"/>
+      <c r="V52" s="191"/>
+      <c r="W52" s="191"/>
+      <c r="X52" s="192"/>
     </row>
     <row r="53" spans="1:24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="128" t="str">
         <f>IF(_sjmain4_day_shift!A32="","",_sjmain4_day_shift!A32)</f>
         <v/>
       </c>
-      <c r="B53" s="229" t="str">
+      <c r="B53" s="216" t="str">
         <f>IF(_sjmain4_day_shift!B32="","",_sjmain4_day_shift!B32)</f>
         <v/>
       </c>
-      <c r="C53" s="230"/>
+      <c r="C53" s="217"/>
       <c r="D53" s="127" t="str">
         <f>IF(_sjmain4_day_shift!D32="","",_sjmain4_day_shift!D32)</f>
         <v/>
@@ -6540,21 +6587,21 @@
       <c r="R53" s="92"/>
       <c r="S53" s="93"/>
       <c r="T53" s="151"/>
-      <c r="U53" s="222"/>
-      <c r="V53" s="223"/>
-      <c r="W53" s="223"/>
-      <c r="X53" s="224"/>
+      <c r="U53" s="190"/>
+      <c r="V53" s="191"/>
+      <c r="W53" s="191"/>
+      <c r="X53" s="192"/>
     </row>
     <row r="54" spans="1:24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="128" t="str">
         <f>IF(_sjmain4_day_shift!A33="","",_sjmain4_day_shift!A33)</f>
         <v/>
       </c>
-      <c r="B54" s="229" t="str">
+      <c r="B54" s="216" t="str">
         <f>IF(_sjmain4_day_shift!B33="","",_sjmain4_day_shift!B33)</f>
         <v/>
       </c>
-      <c r="C54" s="230"/>
+      <c r="C54" s="217"/>
       <c r="D54" s="127" t="str">
         <f>IF(_sjmain4_day_shift!D33="","",_sjmain4_day_shift!D33)</f>
         <v/>
@@ -6608,21 +6655,21 @@
       <c r="R54" s="92"/>
       <c r="S54" s="93"/>
       <c r="T54" s="151"/>
-      <c r="U54" s="222"/>
-      <c r="V54" s="223"/>
-      <c r="W54" s="223"/>
-      <c r="X54" s="224"/>
+      <c r="U54" s="190"/>
+      <c r="V54" s="191"/>
+      <c r="W54" s="191"/>
+      <c r="X54" s="192"/>
     </row>
     <row r="55" spans="1:24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="128" t="str">
         <f>IF(_sjmain4_day_shift!A34="","",_sjmain4_day_shift!A34)</f>
         <v/>
       </c>
-      <c r="B55" s="229" t="str">
+      <c r="B55" s="216" t="str">
         <f>IF(_sjmain4_day_shift!B34="","",_sjmain4_day_shift!B34)</f>
         <v/>
       </c>
-      <c r="C55" s="230"/>
+      <c r="C55" s="217"/>
       <c r="D55" s="127" t="str">
         <f>IF(_sjmain4_day_shift!D34="","",_sjmain4_day_shift!D34)</f>
         <v/>
@@ -6676,21 +6723,21 @@
       <c r="R55" s="92"/>
       <c r="S55" s="93"/>
       <c r="T55" s="151"/>
-      <c r="U55" s="222"/>
-      <c r="V55" s="223"/>
-      <c r="W55" s="223"/>
-      <c r="X55" s="224"/>
+      <c r="U55" s="190"/>
+      <c r="V55" s="191"/>
+      <c r="W55" s="191"/>
+      <c r="X55" s="192"/>
     </row>
     <row r="56" spans="1:24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="128" t="str">
         <f>IF(_sjmain4_day_shift!A35="","",_sjmain4_day_shift!A35)</f>
         <v/>
       </c>
-      <c r="B56" s="229" t="str">
+      <c r="B56" s="216" t="str">
         <f>IF(_sjmain4_day_shift!B35="","",_sjmain4_day_shift!B35)</f>
         <v/>
       </c>
-      <c r="C56" s="230"/>
+      <c r="C56" s="217"/>
       <c r="D56" s="127" t="str">
         <f>IF(_sjmain4_day_shift!D35="","",_sjmain4_day_shift!D35)</f>
         <v/>
@@ -6744,21 +6791,21 @@
       <c r="R56" s="92"/>
       <c r="S56" s="93"/>
       <c r="T56" s="151"/>
-      <c r="U56" s="222"/>
-      <c r="V56" s="223"/>
-      <c r="W56" s="223"/>
-      <c r="X56" s="224"/>
+      <c r="U56" s="190"/>
+      <c r="V56" s="191"/>
+      <c r="W56" s="191"/>
+      <c r="X56" s="192"/>
     </row>
     <row r="57" spans="1:24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="128" t="str">
         <f>IF(_sjmain4_day_shift!A36="","",_sjmain4_day_shift!A36)</f>
         <v/>
       </c>
-      <c r="B57" s="229" t="str">
+      <c r="B57" s="216" t="str">
         <f>IF(_sjmain4_day_shift!B36="","",_sjmain4_day_shift!B36)</f>
         <v/>
       </c>
-      <c r="C57" s="230"/>
+      <c r="C57" s="217"/>
       <c r="D57" s="127" t="str">
         <f>IF(_sjmain4_day_shift!D36="","",_sjmain4_day_shift!D36)</f>
         <v/>
@@ -6812,21 +6859,21 @@
       <c r="R57" s="92"/>
       <c r="S57" s="93"/>
       <c r="T57" s="151"/>
-      <c r="U57" s="222"/>
-      <c r="V57" s="223"/>
-      <c r="W57" s="223"/>
-      <c r="X57" s="224"/>
+      <c r="U57" s="190"/>
+      <c r="V57" s="191"/>
+      <c r="W57" s="191"/>
+      <c r="X57" s="192"/>
     </row>
     <row r="58" spans="1:24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="128" t="str">
         <f>IF(_sjmain4_day_shift!A37="","",_sjmain4_day_shift!A37)</f>
         <v/>
       </c>
-      <c r="B58" s="229" t="str">
+      <c r="B58" s="216" t="str">
         <f>IF(_sjmain4_day_shift!B37="","",_sjmain4_day_shift!B37)</f>
         <v/>
       </c>
-      <c r="C58" s="230"/>
+      <c r="C58" s="217"/>
       <c r="D58" s="127" t="str">
         <f>IF(_sjmain4_day_shift!D37="","",_sjmain4_day_shift!D37)</f>
         <v/>
@@ -6880,21 +6927,21 @@
       <c r="R58" s="92"/>
       <c r="S58" s="93"/>
       <c r="T58" s="151"/>
-      <c r="U58" s="222"/>
-      <c r="V58" s="223"/>
-      <c r="W58" s="223"/>
-      <c r="X58" s="224"/>
+      <c r="U58" s="190"/>
+      <c r="V58" s="191"/>
+      <c r="W58" s="191"/>
+      <c r="X58" s="192"/>
     </row>
     <row r="59" spans="1:24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="128" t="str">
         <f>IF(_sjmain4_day_shift!A38="","",_sjmain4_day_shift!A38)</f>
         <v/>
       </c>
-      <c r="B59" s="229" t="str">
+      <c r="B59" s="216" t="str">
         <f>IF(_sjmain4_day_shift!B38="","",_sjmain4_day_shift!B38)</f>
         <v/>
       </c>
-      <c r="C59" s="230"/>
+      <c r="C59" s="217"/>
       <c r="D59" s="127" t="str">
         <f>IF(_sjmain4_day_shift!D38="","",_sjmain4_day_shift!D38)</f>
         <v/>
@@ -6948,21 +6995,21 @@
       <c r="R59" s="92"/>
       <c r="S59" s="93"/>
       <c r="T59" s="151"/>
-      <c r="U59" s="222"/>
-      <c r="V59" s="223"/>
-      <c r="W59" s="223"/>
-      <c r="X59" s="224"/>
+      <c r="U59" s="190"/>
+      <c r="V59" s="191"/>
+      <c r="W59" s="191"/>
+      <c r="X59" s="192"/>
     </row>
     <row r="60" spans="1:24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="128" t="str">
         <f>IF(_sjmain4_day_shift!A39="","",_sjmain4_day_shift!A39)</f>
         <v/>
       </c>
-      <c r="B60" s="229" t="str">
+      <c r="B60" s="216" t="str">
         <f>IF(_sjmain4_day_shift!B39="","",_sjmain4_day_shift!B39)</f>
         <v/>
       </c>
-      <c r="C60" s="230"/>
+      <c r="C60" s="217"/>
       <c r="D60" s="127" t="str">
         <f>IF(_sjmain4_day_shift!D39="","",_sjmain4_day_shift!D39)</f>
         <v/>
@@ -7016,21 +7063,21 @@
       <c r="R60" s="92"/>
       <c r="S60" s="93"/>
       <c r="T60" s="151"/>
-      <c r="U60" s="222"/>
-      <c r="V60" s="223"/>
-      <c r="W60" s="223"/>
-      <c r="X60" s="224"/>
+      <c r="U60" s="190"/>
+      <c r="V60" s="191"/>
+      <c r="W60" s="191"/>
+      <c r="X60" s="192"/>
     </row>
     <row r="61" spans="1:24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="128" t="str">
         <f>IF(_sjmain4_day_shift!A40="","",_sjmain4_day_shift!A40)</f>
         <v/>
       </c>
-      <c r="B61" s="229" t="str">
+      <c r="B61" s="216" t="str">
         <f>IF(_sjmain4_day_shift!B40="","",_sjmain4_day_shift!B40)</f>
         <v/>
       </c>
-      <c r="C61" s="230"/>
+      <c r="C61" s="217"/>
       <c r="D61" s="127" t="str">
         <f>IF(_sjmain4_day_shift!D40="","",_sjmain4_day_shift!D40)</f>
         <v/>
@@ -7084,21 +7131,21 @@
       <c r="R61" s="92"/>
       <c r="S61" s="93"/>
       <c r="T61" s="151"/>
-      <c r="U61" s="222"/>
-      <c r="V61" s="223"/>
-      <c r="W61" s="223"/>
-      <c r="X61" s="224"/>
+      <c r="U61" s="190"/>
+      <c r="V61" s="191"/>
+      <c r="W61" s="191"/>
+      <c r="X61" s="192"/>
     </row>
     <row r="62" spans="1:24" s="99" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="128" t="str">
         <f>IF(_sjmain4_day_shift!A41="","",_sjmain4_day_shift!A41)</f>
         <v/>
       </c>
-      <c r="B62" s="229" t="str">
+      <c r="B62" s="216" t="str">
         <f>IF(_sjmain4_day_shift!B41="","",_sjmain4_day_shift!B41)</f>
         <v/>
       </c>
-      <c r="C62" s="230"/>
+      <c r="C62" s="217"/>
       <c r="D62" s="127" t="str">
         <f>IF(_sjmain4_day_shift!D41="","",_sjmain4_day_shift!D41)</f>
         <v/>
@@ -7152,17 +7199,17 @@
       <c r="R62" s="104"/>
       <c r="S62" s="147"/>
       <c r="T62" s="106"/>
-      <c r="U62" s="222"/>
-      <c r="V62" s="223"/>
-      <c r="W62" s="223"/>
-      <c r="X62" s="224"/>
+      <c r="U62" s="190"/>
+      <c r="V62" s="191"/>
+      <c r="W62" s="191"/>
+      <c r="X62" s="192"/>
     </row>
     <row r="63" spans="1:24" s="99" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="231" t="s">
+      <c r="A63" s="218" t="s">
         <v>97</v>
       </c>
-      <c r="B63" s="232"/>
-      <c r="C63" s="233"/>
+      <c r="B63" s="219"/>
+      <c r="C63" s="220"/>
       <c r="D63" s="160"/>
       <c r="E63" s="160"/>
       <c r="F63" s="160"/>
@@ -7176,64 +7223,64 @@
       <c r="N63" s="127"/>
       <c r="O63" s="127"/>
       <c r="P63" s="168"/>
-      <c r="Q63" s="275"/>
-      <c r="R63" s="276"/>
-      <c r="S63" s="277"/>
-      <c r="T63" s="278"/>
-      <c r="U63" s="279"/>
-      <c r="V63" s="280"/>
-      <c r="W63" s="280"/>
-      <c r="X63" s="281"/>
+      <c r="Q63" s="176"/>
+      <c r="R63" s="177"/>
+      <c r="S63" s="178"/>
+      <c r="T63" s="179"/>
+      <c r="U63" s="193"/>
+      <c r="V63" s="194"/>
+      <c r="W63" s="194"/>
+      <c r="X63" s="195"/>
     </row>
     <row r="64" spans="1:24" s="99" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="161" t="s">
         <v>98</v>
       </c>
-      <c r="B64" s="234"/>
-      <c r="C64" s="234"/>
-      <c r="D64" s="234"/>
-      <c r="E64" s="234"/>
-      <c r="F64" s="234"/>
-      <c r="G64" s="234"/>
-      <c r="H64" s="235"/>
+      <c r="B64" s="221"/>
+      <c r="C64" s="221"/>
+      <c r="D64" s="221"/>
+      <c r="E64" s="221"/>
+      <c r="F64" s="221"/>
+      <c r="G64" s="221"/>
+      <c r="H64" s="222"/>
       <c r="I64" s="161" t="s">
         <v>99</v>
       </c>
-      <c r="J64" s="234"/>
-      <c r="K64" s="234"/>
-      <c r="L64" s="234"/>
-      <c r="M64" s="234"/>
-      <c r="N64" s="234"/>
-      <c r="O64" s="234"/>
-      <c r="P64" s="235"/>
+      <c r="J64" s="221"/>
+      <c r="K64" s="221"/>
+      <c r="L64" s="221"/>
+      <c r="M64" s="221"/>
+      <c r="N64" s="221"/>
+      <c r="O64" s="221"/>
+      <c r="P64" s="222"/>
       <c r="Q64" s="161" t="s">
         <v>100</v>
       </c>
-      <c r="R64" s="282"/>
-      <c r="S64" s="282"/>
-      <c r="T64" s="282"/>
-      <c r="U64" s="282"/>
-      <c r="V64" s="282"/>
-      <c r="W64" s="282"/>
-      <c r="X64" s="283"/>
+      <c r="R64" s="180"/>
+      <c r="S64" s="180"/>
+      <c r="T64" s="180"/>
+      <c r="U64" s="180"/>
+      <c r="V64" s="180"/>
+      <c r="W64" s="180"/>
+      <c r="X64" s="181"/>
     </row>
     <row r="65" spans="1:24" s="99" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="251"/>
-      <c r="B65" s="252"/>
-      <c r="C65" s="252"/>
-      <c r="D65" s="252"/>
-      <c r="E65" s="252"/>
-      <c r="F65" s="252"/>
-      <c r="G65" s="252"/>
-      <c r="H65" s="253"/>
-      <c r="I65" s="251"/>
-      <c r="J65" s="252"/>
-      <c r="K65" s="252"/>
-      <c r="L65" s="252"/>
-      <c r="M65" s="252"/>
-      <c r="N65" s="252"/>
-      <c r="O65" s="252"/>
-      <c r="P65" s="253"/>
+      <c r="A65" s="210"/>
+      <c r="B65" s="211"/>
+      <c r="C65" s="211"/>
+      <c r="D65" s="211"/>
+      <c r="E65" s="211"/>
+      <c r="F65" s="211"/>
+      <c r="G65" s="211"/>
+      <c r="H65" s="212"/>
+      <c r="I65" s="210"/>
+      <c r="J65" s="211"/>
+      <c r="K65" s="211"/>
+      <c r="L65" s="211"/>
+      <c r="M65" s="211"/>
+      <c r="N65" s="211"/>
+      <c r="O65" s="211"/>
+      <c r="P65" s="212"/>
       <c r="Q65" s="162"/>
       <c r="R65" s="163"/>
       <c r="S65" s="163"/>
@@ -7244,22 +7291,22 @@
       <c r="X65" s="164"/>
     </row>
     <row r="66" spans="1:24" s="99" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="251"/>
-      <c r="B66" s="252"/>
-      <c r="C66" s="252"/>
-      <c r="D66" s="252"/>
-      <c r="E66" s="252"/>
-      <c r="F66" s="252"/>
-      <c r="G66" s="252"/>
-      <c r="H66" s="253"/>
-      <c r="I66" s="251"/>
-      <c r="J66" s="252"/>
-      <c r="K66" s="252"/>
-      <c r="L66" s="252"/>
-      <c r="M66" s="252"/>
-      <c r="N66" s="252"/>
-      <c r="O66" s="252"/>
-      <c r="P66" s="253"/>
+      <c r="A66" s="210"/>
+      <c r="B66" s="211"/>
+      <c r="C66" s="211"/>
+      <c r="D66" s="211"/>
+      <c r="E66" s="211"/>
+      <c r="F66" s="211"/>
+      <c r="G66" s="211"/>
+      <c r="H66" s="212"/>
+      <c r="I66" s="210"/>
+      <c r="J66" s="211"/>
+      <c r="K66" s="211"/>
+      <c r="L66" s="211"/>
+      <c r="M66" s="211"/>
+      <c r="N66" s="211"/>
+      <c r="O66" s="211"/>
+      <c r="P66" s="212"/>
       <c r="Q66" s="162"/>
       <c r="R66" s="163"/>
       <c r="S66" s="163"/>
@@ -7270,22 +7317,22 @@
       <c r="X66" s="164"/>
     </row>
     <row r="67" spans="1:24" s="99" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="251"/>
-      <c r="B67" s="252"/>
-      <c r="C67" s="252"/>
-      <c r="D67" s="252"/>
-      <c r="E67" s="252"/>
-      <c r="F67" s="252"/>
-      <c r="G67" s="252"/>
-      <c r="H67" s="253"/>
-      <c r="I67" s="251"/>
-      <c r="J67" s="252"/>
-      <c r="K67" s="252"/>
-      <c r="L67" s="252"/>
-      <c r="M67" s="252"/>
-      <c r="N67" s="252"/>
-      <c r="O67" s="252"/>
-      <c r="P67" s="253"/>
+      <c r="A67" s="210"/>
+      <c r="B67" s="211"/>
+      <c r="C67" s="211"/>
+      <c r="D67" s="211"/>
+      <c r="E67" s="211"/>
+      <c r="F67" s="211"/>
+      <c r="G67" s="211"/>
+      <c r="H67" s="212"/>
+      <c r="I67" s="210"/>
+      <c r="J67" s="211"/>
+      <c r="K67" s="211"/>
+      <c r="L67" s="211"/>
+      <c r="M67" s="211"/>
+      <c r="N67" s="211"/>
+      <c r="O67" s="211"/>
+      <c r="P67" s="212"/>
       <c r="Q67" s="162"/>
       <c r="R67" s="163"/>
       <c r="S67" s="163"/>
@@ -7296,22 +7343,22 @@
       <c r="X67" s="164"/>
     </row>
     <row r="68" spans="1:24" s="99" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A68" s="251"/>
-      <c r="B68" s="252"/>
-      <c r="C68" s="252"/>
-      <c r="D68" s="252"/>
-      <c r="E68" s="252"/>
-      <c r="F68" s="252"/>
-      <c r="G68" s="252"/>
-      <c r="H68" s="253"/>
-      <c r="I68" s="251"/>
-      <c r="J68" s="252"/>
-      <c r="K68" s="252"/>
-      <c r="L68" s="252"/>
-      <c r="M68" s="252"/>
-      <c r="N68" s="252"/>
-      <c r="O68" s="252"/>
-      <c r="P68" s="253"/>
+      <c r="A68" s="210"/>
+      <c r="B68" s="211"/>
+      <c r="C68" s="211"/>
+      <c r="D68" s="211"/>
+      <c r="E68" s="211"/>
+      <c r="F68" s="211"/>
+      <c r="G68" s="211"/>
+      <c r="H68" s="212"/>
+      <c r="I68" s="210"/>
+      <c r="J68" s="211"/>
+      <c r="K68" s="211"/>
+      <c r="L68" s="211"/>
+      <c r="M68" s="211"/>
+      <c r="N68" s="211"/>
+      <c r="O68" s="211"/>
+      <c r="P68" s="212"/>
       <c r="Q68" s="162"/>
       <c r="R68" s="103"/>
       <c r="S68" s="103"/>
@@ -7322,68 +7369,68 @@
       <c r="X68" s="164"/>
     </row>
     <row r="69" spans="1:24" s="99" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A69" s="251"/>
-      <c r="B69" s="252"/>
-      <c r="C69" s="252"/>
-      <c r="D69" s="252"/>
-      <c r="E69" s="252"/>
-      <c r="F69" s="252"/>
-      <c r="G69" s="252"/>
-      <c r="H69" s="253"/>
-      <c r="I69" s="251"/>
-      <c r="J69" s="252"/>
-      <c r="K69" s="252"/>
-      <c r="L69" s="252"/>
-      <c r="M69" s="252"/>
-      <c r="N69" s="252"/>
-      <c r="O69" s="252"/>
-      <c r="P69" s="253"/>
+      <c r="A69" s="210"/>
+      <c r="B69" s="211"/>
+      <c r="C69" s="211"/>
+      <c r="D69" s="211"/>
+      <c r="E69" s="211"/>
+      <c r="F69" s="211"/>
+      <c r="G69" s="211"/>
+      <c r="H69" s="212"/>
+      <c r="I69" s="210"/>
+      <c r="J69" s="211"/>
+      <c r="K69" s="211"/>
+      <c r="L69" s="211"/>
+      <c r="M69" s="211"/>
+      <c r="N69" s="211"/>
+      <c r="O69" s="211"/>
+      <c r="P69" s="212"/>
       <c r="Q69" s="162"/>
       <c r="R69" s="103"/>
-      <c r="S69" s="284"/>
+      <c r="S69" s="182"/>
       <c r="T69" s="103"/>
-      <c r="U69" s="285"/>
-      <c r="V69" s="285"/>
-      <c r="W69" s="285"/>
+      <c r="U69" s="183"/>
+      <c r="V69" s="183"/>
+      <c r="W69" s="183"/>
       <c r="X69" s="164"/>
     </row>
     <row r="70" spans="1:24" s="99" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A70" s="165" t="s">
         <v>101</v>
       </c>
-      <c r="B70" s="236"/>
-      <c r="C70" s="236"/>
+      <c r="B70" s="223"/>
+      <c r="C70" s="223"/>
       <c r="D70" s="166" t="s">
         <v>102</v>
       </c>
-      <c r="E70" s="237"/>
-      <c r="F70" s="237"/>
-      <c r="G70" s="237"/>
-      <c r="H70" s="238"/>
+      <c r="E70" s="196"/>
+      <c r="F70" s="196"/>
+      <c r="G70" s="196"/>
+      <c r="H70" s="197"/>
       <c r="I70" s="166" t="s">
         <v>101</v>
       </c>
-      <c r="J70" s="236"/>
-      <c r="K70" s="236"/>
+      <c r="J70" s="223"/>
+      <c r="K70" s="223"/>
       <c r="L70" s="166" t="s">
         <v>102</v>
       </c>
-      <c r="M70" s="237"/>
-      <c r="N70" s="237"/>
-      <c r="O70" s="237"/>
-      <c r="P70" s="238"/>
+      <c r="M70" s="196"/>
+      <c r="N70" s="196"/>
+      <c r="O70" s="196"/>
+      <c r="P70" s="197"/>
       <c r="Q70" s="165" t="s">
         <v>103</v>
       </c>
-      <c r="R70" s="237"/>
-      <c r="S70" s="237"/>
+      <c r="R70" s="196"/>
+      <c r="S70" s="196"/>
       <c r="T70" s="166" t="s">
         <v>102</v>
       </c>
-      <c r="U70" s="237"/>
-      <c r="V70" s="237"/>
-      <c r="W70" s="237"/>
-      <c r="X70" s="238"/>
+      <c r="U70" s="196"/>
+      <c r="V70" s="196"/>
+      <c r="W70" s="196"/>
+      <c r="X70" s="197"/>
     </row>
     <row r="71" spans="1:24" s="99" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
       <c r="S71" s="145"/>
@@ -7745,30 +7792,123 @@
     </row>
   </sheetData>
   <mergeCells count="165">
-    <mergeCell ref="U58:X58"/>
-    <mergeCell ref="U59:X59"/>
-    <mergeCell ref="U60:X60"/>
-    <mergeCell ref="U61:X61"/>
-    <mergeCell ref="U62:X62"/>
-    <mergeCell ref="U63:X63"/>
-    <mergeCell ref="U49:X49"/>
-    <mergeCell ref="U50:X50"/>
-    <mergeCell ref="U51:X51"/>
-    <mergeCell ref="U52:X52"/>
-    <mergeCell ref="U53:X53"/>
-    <mergeCell ref="U54:X54"/>
-    <mergeCell ref="U55:X55"/>
-    <mergeCell ref="U56:X56"/>
-    <mergeCell ref="U57:X57"/>
-    <mergeCell ref="U40:X40"/>
-    <mergeCell ref="U41:X41"/>
-    <mergeCell ref="U42:X42"/>
-    <mergeCell ref="U43:X43"/>
-    <mergeCell ref="U44:X44"/>
-    <mergeCell ref="U45:X45"/>
-    <mergeCell ref="U46:X46"/>
-    <mergeCell ref="U47:X47"/>
-    <mergeCell ref="U48:X48"/>
+    <mergeCell ref="A2:X2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="U6:X6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="U8:X8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="U9:X9"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="J11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="U22:X22"/>
+    <mergeCell ref="U15:X15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:Q16"/>
+    <mergeCell ref="U16:X16"/>
+    <mergeCell ref="U17:X17"/>
+    <mergeCell ref="U18:X18"/>
+    <mergeCell ref="A21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="U21:X21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="U25:X25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="U27:X27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="U29:X29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="U30:X30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="B64:H64"/>
+    <mergeCell ref="J64:P64"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="E70:H70"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="M70:P70"/>
     <mergeCell ref="R70:S70"/>
     <mergeCell ref="U70:X70"/>
     <mergeCell ref="A5:A6"/>
@@ -7793,123 +7933,30 @@
     <mergeCell ref="U37:X37"/>
     <mergeCell ref="U38:X38"/>
     <mergeCell ref="U39:X39"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="B64:H64"/>
-    <mergeCell ref="J64:P64"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="E70:H70"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="M70:P70"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="U28:X28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="U29:X29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="U30:X30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="U25:X25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="U26:X26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="U27:X27"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="U22:X22"/>
-    <mergeCell ref="U15:X15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="F16:Q16"/>
-    <mergeCell ref="U16:X16"/>
-    <mergeCell ref="U17:X17"/>
-    <mergeCell ref="U18:X18"/>
-    <mergeCell ref="A21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="U21:X21"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="J11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="U9:X9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="U8:X8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="A2:X2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="U6:X6"/>
+    <mergeCell ref="U40:X40"/>
+    <mergeCell ref="U41:X41"/>
+    <mergeCell ref="U42:X42"/>
+    <mergeCell ref="U43:X43"/>
+    <mergeCell ref="U44:X44"/>
+    <mergeCell ref="U45:X45"/>
+    <mergeCell ref="U46:X46"/>
+    <mergeCell ref="U47:X47"/>
+    <mergeCell ref="U48:X48"/>
+    <mergeCell ref="U58:X58"/>
+    <mergeCell ref="U59:X59"/>
+    <mergeCell ref="U60:X60"/>
+    <mergeCell ref="U61:X61"/>
+    <mergeCell ref="U62:X62"/>
+    <mergeCell ref="U63:X63"/>
+    <mergeCell ref="U49:X49"/>
+    <mergeCell ref="U50:X50"/>
+    <mergeCell ref="U51:X51"/>
+    <mergeCell ref="U52:X52"/>
+    <mergeCell ref="U53:X53"/>
+    <mergeCell ref="U54:X54"/>
+    <mergeCell ref="U55:X55"/>
+    <mergeCell ref="U56:X56"/>
+    <mergeCell ref="U57:X57"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.2" right="0.27916666666666701" top="0.51875000000000004" bottom="0.63888888888888895" header="0.4" footer="0.51180555555555596"/>
@@ -8089,6 +8136,21 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
@@ -8100,10 +8162,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:10" ht="135" x14ac:dyDescent="0.15">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="272" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="183"/>
+      <c r="B1" s="273"/>
       <c r="D1" s="96" t="s">
         <v>43</v>
       </c>
@@ -8239,10 +8301,10 @@
       <c r="A1" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="212" t="s">
+      <c r="B1" s="224" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="180"/>
+      <c r="C1" s="225"/>
       <c r="D1" s="92" t="s">
         <v>112</v>
       </c>
@@ -8318,8 +8380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X34"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -8348,30 +8410,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:24" ht="35.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="254" t="s">
+      <c r="A2" s="274" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="254"/>
-      <c r="C2" s="254"/>
-      <c r="D2" s="254"/>
-      <c r="E2" s="254"/>
-      <c r="F2" s="254"/>
-      <c r="G2" s="254"/>
-      <c r="H2" s="254"/>
-      <c r="I2" s="254"/>
-      <c r="J2" s="254"/>
-      <c r="K2" s="254"/>
-      <c r="L2" s="254"/>
-      <c r="M2" s="254"/>
-      <c r="N2" s="254"/>
-      <c r="O2" s="254"/>
-      <c r="P2" s="254"/>
-      <c r="Q2" s="254"/>
-      <c r="R2" s="255"/>
-      <c r="S2" s="254"/>
-      <c r="T2" s="255"/>
-      <c r="U2" s="254"/>
-      <c r="V2" s="254"/>
+      <c r="B2" s="274"/>
+      <c r="C2" s="274"/>
+      <c r="D2" s="274"/>
+      <c r="E2" s="274"/>
+      <c r="F2" s="274"/>
+      <c r="G2" s="274"/>
+      <c r="H2" s="274"/>
+      <c r="I2" s="274"/>
+      <c r="J2" s="274"/>
+      <c r="K2" s="274"/>
+      <c r="L2" s="274"/>
+      <c r="M2" s="274"/>
+      <c r="N2" s="274"/>
+      <c r="O2" s="274"/>
+      <c r="P2" s="274"/>
+      <c r="Q2" s="274"/>
+      <c r="R2" s="275"/>
+      <c r="S2" s="274"/>
+      <c r="T2" s="275"/>
+      <c r="U2" s="274"/>
+      <c r="V2" s="274"/>
       <c r="W2" s="86"/>
       <c r="X2" s="86"/>
     </row>
@@ -8403,10 +8465,11 @@
       <c r="A4" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="256">
-        <v>42982</v>
-      </c>
-      <c r="C4" s="257"/>
+      <c r="B4" s="289">
+        <f>_metadata!B2</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="289"/>
       <c r="D4" s="58" t="s">
         <v>128</v>
       </c>
@@ -8431,10 +8494,10 @@
       <c r="S4" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="T4" s="258" t="s">
+      <c r="T4" s="276" t="s">
         <v>5</v>
       </c>
-      <c r="U4" s="259"/>
+      <c r="U4" s="277"/>
       <c r="V4" s="87"/>
       <c r="W4" s="88"/>
     </row>
@@ -8502,7 +8565,7 @@
       <c r="U5" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="V5" s="286" t="s">
+      <c r="V5" s="184" t="s">
         <v>150</v>
       </c>
     </row>
@@ -8568,7 +8631,7 @@
       <c r="U6" s="66" t="s">
         <v>155</v>
       </c>
-      <c r="V6" s="287" t="s">
+      <c r="V6" s="185" t="s">
         <v>160</v>
       </c>
     </row>
@@ -8656,7 +8719,7 @@
         <f>IF(_sjgc_day_hour!T2="","",_sjgc_day_hour!T2)</f>
         <v/>
       </c>
-      <c r="V7" s="288" t="str">
+      <c r="V7" s="186" t="str">
         <f>IF(_sjgc_day_hour!U2="","",_sjgc_day_hour!U2)</f>
         <v/>
       </c>
@@ -8745,7 +8808,7 @@
         <f>IF(_sjgc_day_hour!T3="","",_sjgc_day_hour!T3)</f>
         <v/>
       </c>
-      <c r="V8" s="288" t="str">
+      <c r="V8" s="186" t="str">
         <f>IF(_sjgc_day_hour!U3="","",_sjgc_day_hour!U3)</f>
         <v/>
       </c>
@@ -8834,7 +8897,7 @@
         <f>IF(_sjgc_day_hour!T4="","",_sjgc_day_hour!T4)</f>
         <v/>
       </c>
-      <c r="V9" s="288" t="str">
+      <c r="V9" s="186" t="str">
         <f>IF(_sjgc_day_hour!U4="","",_sjgc_day_hour!U4)</f>
         <v/>
       </c>
@@ -8924,7 +8987,7 @@
         <f>IF(_sjgc_day_hour!T5="","",_sjgc_day_hour!T5)</f>
         <v/>
       </c>
-      <c r="V10" s="288" t="str">
+      <c r="V10" s="186" t="str">
         <f>IF(_sjgc_day_hour!U5="","",_sjgc_day_hour!U5)</f>
         <v/>
       </c>
@@ -9014,7 +9077,7 @@
         <f>IF(_sjgc_day_hour!T6="","",_sjgc_day_hour!T6)</f>
         <v/>
       </c>
-      <c r="V11" s="288" t="str">
+      <c r="V11" s="186" t="str">
         <f>IF(_sjgc_day_hour!U6="","",_sjgc_day_hour!U6)</f>
         <v/>
       </c>
@@ -9103,7 +9166,7 @@
         <f>IF(_sjgc_day_hour!T7="","",_sjgc_day_hour!T7)</f>
         <v/>
       </c>
-      <c r="V12" s="288" t="str">
+      <c r="V12" s="186" t="str">
         <f>IF(_sjgc_day_hour!U7="","",_sjgc_day_hour!U7)</f>
         <v/>
       </c>
@@ -9192,7 +9255,7 @@
         <f>IF(_sjgc_day_hour!T8="","",_sjgc_day_hour!T8)</f>
         <v/>
       </c>
-      <c r="V13" s="288" t="str">
+      <c r="V13" s="186" t="str">
         <f>IF(_sjgc_day_hour!U8="","",_sjgc_day_hour!U8)</f>
         <v/>
       </c>
@@ -9282,7 +9345,7 @@
         <f>IF(_sjgc_day_hour!T9="","",_sjgc_day_hour!T9)</f>
         <v/>
       </c>
-      <c r="V14" s="288" t="str">
+      <c r="V14" s="186" t="str">
         <f>IF(_sjgc_day_hour!U9="","",_sjgc_day_hour!U9)</f>
         <v/>
       </c>
@@ -9372,7 +9435,7 @@
         <f>IF(_sjgc_day_hour!T10="","",_sjgc_day_hour!T10)</f>
         <v/>
       </c>
-      <c r="V15" s="288" t="str">
+      <c r="V15" s="186" t="str">
         <f>IF(_sjgc_day_hour!U10="","",_sjgc_day_hour!U10)</f>
         <v/>
       </c>
@@ -9462,7 +9525,7 @@
         <f>IF(_sjgc_day_hour!T11="","",_sjgc_day_hour!T11)</f>
         <v/>
       </c>
-      <c r="V16" s="288" t="str">
+      <c r="V16" s="186" t="str">
         <f>IF(_sjgc_day_hour!U11="","",_sjgc_day_hour!U11)</f>
         <v/>
       </c>
@@ -9551,7 +9614,7 @@
         <f>IF(_sjgc_day_hour!T12="","",_sjgc_day_hour!T12)</f>
         <v/>
       </c>
-      <c r="V17" s="288" t="str">
+      <c r="V17" s="186" t="str">
         <f>IF(_sjgc_day_hour!U12="","",_sjgc_day_hour!U12)</f>
         <v/>
       </c>
@@ -9640,7 +9703,7 @@
         <f>IF(_sjgc_day_hour!T13="","",_sjgc_day_hour!T13)</f>
         <v/>
       </c>
-      <c r="V18" s="288" t="str">
+      <c r="V18" s="186" t="str">
         <f>IF(_sjgc_day_hour!U13="","",_sjgc_day_hour!U13)</f>
         <v/>
       </c>
@@ -9729,7 +9792,7 @@
         <f>IF(_sjgc_day_hour!T14="","",_sjgc_day_hour!T14)</f>
         <v/>
       </c>
-      <c r="V19" s="288" t="str">
+      <c r="V19" s="186" t="str">
         <f>IF(_sjgc_day_hour!U14="","",_sjgc_day_hour!U14)</f>
         <v/>
       </c>
@@ -9818,7 +9881,7 @@
         <f>IF(_sjgc_day_hour!T15="","",_sjgc_day_hour!T15)</f>
         <v/>
       </c>
-      <c r="V20" s="288" t="str">
+      <c r="V20" s="186" t="str">
         <f>IF(_sjgc_day_hour!U15="","",_sjgc_day_hour!U15)</f>
         <v/>
       </c>
@@ -9907,7 +9970,7 @@
         <f>IF(_sjgc_day_hour!T16="","",_sjgc_day_hour!T16)</f>
         <v/>
       </c>
-      <c r="V21" s="288" t="str">
+      <c r="V21" s="186" t="str">
         <f>IF(_sjgc_day_hour!U16="","",_sjgc_day_hour!U16)</f>
         <v/>
       </c>
@@ -9996,7 +10059,7 @@
         <f>IF(_sjgc_day_hour!T17="","",_sjgc_day_hour!T17)</f>
         <v/>
       </c>
-      <c r="V22" s="288" t="str">
+      <c r="V22" s="186" t="str">
         <f>IF(_sjgc_day_hour!U17="","",_sjgc_day_hour!U17)</f>
         <v/>
       </c>
@@ -10085,7 +10148,7 @@
         <f>IF(_sjgc_day_hour!T18="","",_sjgc_day_hour!T18)</f>
         <v/>
       </c>
-      <c r="V23" s="288" t="str">
+      <c r="V23" s="186" t="str">
         <f>IF(_sjgc_day_hour!U18="","",_sjgc_day_hour!U18)</f>
         <v/>
       </c>
@@ -10174,7 +10237,7 @@
         <f>IF(_sjgc_day_hour!T19="","",_sjgc_day_hour!T19)</f>
         <v/>
       </c>
-      <c r="V24" s="288" t="str">
+      <c r="V24" s="186" t="str">
         <f>IF(_sjgc_day_hour!U19="","",_sjgc_day_hour!U19)</f>
         <v/>
       </c>
@@ -10265,7 +10328,7 @@
         <f>IF(_sjgc_day_hour!T20="","",_sjgc_day_hour!T20)</f>
         <v/>
       </c>
-      <c r="V25" s="288" t="str">
+      <c r="V25" s="186" t="str">
         <f>IF(_sjgc_day_hour!U20="","",_sjgc_day_hour!U20)</f>
         <v/>
       </c>
@@ -10354,7 +10417,7 @@
         <f>IF(_sjgc_day_hour!T21="","",_sjgc_day_hour!T21)</f>
         <v/>
       </c>
-      <c r="V26" s="288" t="str">
+      <c r="V26" s="186" t="str">
         <f>IF(_sjgc_day_hour!U21="","",_sjgc_day_hour!U21)</f>
         <v/>
       </c>
@@ -10443,7 +10506,7 @@
         <f>IF(_sjgc_day_hour!T22="","",_sjgc_day_hour!T22)</f>
         <v/>
       </c>
-      <c r="V27" s="288" t="str">
+      <c r="V27" s="186" t="str">
         <f>IF(_sjgc_day_hour!U22="","",_sjgc_day_hour!U22)</f>
         <v/>
       </c>
@@ -10532,7 +10595,7 @@
         <f>IF(_sjgc_day_hour!T23="","",_sjgc_day_hour!T23)</f>
         <v/>
       </c>
-      <c r="V28" s="288" t="str">
+      <c r="V28" s="186" t="str">
         <f>IF(_sjgc_day_hour!U23="","",_sjgc_day_hour!U23)</f>
         <v/>
       </c>
@@ -10621,7 +10684,7 @@
         <f>IF(_sjgc_day_hour!T24="","",_sjgc_day_hour!T24)</f>
         <v/>
       </c>
-      <c r="V29" s="288" t="str">
+      <c r="V29" s="186" t="str">
         <f>IF(_sjgc_day_hour!U24="","",_sjgc_day_hour!U24)</f>
         <v/>
       </c>
@@ -10710,7 +10773,7 @@
         <f>IF(_sjgc_day_hour!T25="","",_sjgc_day_hour!T25)</f>
         <v/>
       </c>
-      <c r="V30" s="288" t="str">
+      <c r="V30" s="186" t="str">
         <f>IF(_sjgc_day_hour!U25="","",_sjgc_day_hour!U25)</f>
         <v/>
       </c>
@@ -10739,7 +10802,7 @@
       <c r="S31" s="72"/>
       <c r="T31" s="84"/>
       <c r="U31" s="72"/>
-      <c r="V31" s="289"/>
+      <c r="V31" s="187"/>
     </row>
     <row r="32" spans="1:24" s="42" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="69" t="s">
@@ -10765,7 +10828,7 @@
       <c r="S32" s="72"/>
       <c r="T32" s="84"/>
       <c r="U32" s="72"/>
-      <c r="V32" s="289"/>
+      <c r="V32" s="187"/>
     </row>
     <row r="33" spans="1:22" s="42" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="69" t="s">
@@ -10791,7 +10854,7 @@
       <c r="S33" s="72"/>
       <c r="T33" s="84"/>
       <c r="U33" s="72"/>
-      <c r="V33" s="289"/>
+      <c r="V33" s="187"/>
     </row>
     <row r="34" spans="1:22" s="42" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="69" t="s">
@@ -10917,8 +10980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -10944,51 +11007,51 @@
       <c r="AJ1" s="24"/>
     </row>
     <row r="2" spans="1:46" s="4" customFormat="1" ht="35.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="260" t="s">
+      <c r="A2" s="278" t="s">
         <v>182</v>
       </c>
-      <c r="B2" s="260"/>
-      <c r="C2" s="260"/>
-      <c r="D2" s="260"/>
-      <c r="E2" s="260"/>
-      <c r="F2" s="260"/>
-      <c r="G2" s="260"/>
-      <c r="H2" s="260"/>
-      <c r="I2" s="260"/>
-      <c r="J2" s="260"/>
-      <c r="K2" s="260"/>
-      <c r="L2" s="260"/>
-      <c r="M2" s="260"/>
-      <c r="N2" s="260"/>
-      <c r="O2" s="260"/>
-      <c r="P2" s="260"/>
-      <c r="Q2" s="260"/>
-      <c r="R2" s="260"/>
-      <c r="S2" s="260"/>
-      <c r="T2" s="260"/>
-      <c r="U2" s="260"/>
-      <c r="V2" s="260"/>
-      <c r="W2" s="260"/>
-      <c r="X2" s="260"/>
-      <c r="Y2" s="260"/>
-      <c r="Z2" s="260"/>
-      <c r="AA2" s="260"/>
-      <c r="AB2" s="260"/>
-      <c r="AC2" s="260"/>
-      <c r="AD2" s="260"/>
-      <c r="AE2" s="260"/>
-      <c r="AF2" s="260"/>
-      <c r="AG2" s="260"/>
-      <c r="AH2" s="260"/>
-      <c r="AI2" s="260"/>
-      <c r="AJ2" s="260"/>
-      <c r="AK2" s="260"/>
-      <c r="AL2" s="260"/>
-      <c r="AM2" s="260"/>
-      <c r="AN2" s="260"/>
-      <c r="AO2" s="260"/>
-      <c r="AP2" s="260"/>
-      <c r="AQ2" s="260"/>
+      <c r="B2" s="278"/>
+      <c r="C2" s="278"/>
+      <c r="D2" s="278"/>
+      <c r="E2" s="278"/>
+      <c r="F2" s="278"/>
+      <c r="G2" s="278"/>
+      <c r="H2" s="278"/>
+      <c r="I2" s="278"/>
+      <c r="J2" s="278"/>
+      <c r="K2" s="278"/>
+      <c r="L2" s="278"/>
+      <c r="M2" s="278"/>
+      <c r="N2" s="278"/>
+      <c r="O2" s="278"/>
+      <c r="P2" s="278"/>
+      <c r="Q2" s="278"/>
+      <c r="R2" s="278"/>
+      <c r="S2" s="278"/>
+      <c r="T2" s="278"/>
+      <c r="U2" s="278"/>
+      <c r="V2" s="278"/>
+      <c r="W2" s="278"/>
+      <c r="X2" s="278"/>
+      <c r="Y2" s="278"/>
+      <c r="Z2" s="278"/>
+      <c r="AA2" s="278"/>
+      <c r="AB2" s="278"/>
+      <c r="AC2" s="278"/>
+      <c r="AD2" s="278"/>
+      <c r="AE2" s="278"/>
+      <c r="AF2" s="278"/>
+      <c r="AG2" s="278"/>
+      <c r="AH2" s="278"/>
+      <c r="AI2" s="278"/>
+      <c r="AJ2" s="278"/>
+      <c r="AK2" s="278"/>
+      <c r="AL2" s="278"/>
+      <c r="AM2" s="278"/>
+      <c r="AN2" s="278"/>
+      <c r="AO2" s="278"/>
+      <c r="AP2" s="278"/>
+      <c r="AQ2" s="278"/>
     </row>
     <row r="3" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="AJ3" s="24"/>
@@ -10997,10 +11060,11 @@
       <c r="A4" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B4" s="261">
-        <v>42256</v>
-      </c>
-      <c r="C4" s="262"/>
+      <c r="B4" s="287">
+        <f>_metadata!B2</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="287"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
@@ -11038,75 +11102,75 @@
       <c r="AL4" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="AM4" s="263" t="s">
+      <c r="AM4" s="279" t="s">
         <v>185</v>
       </c>
-      <c r="AN4" s="263"/>
+      <c r="AN4" s="279"/>
       <c r="AO4" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="AP4" s="263" t="s">
+      <c r="AP4" s="279" t="s">
         <v>5</v>
       </c>
-      <c r="AQ4" s="263"/>
+      <c r="AQ4" s="279"/>
       <c r="AR4" s="10"/>
     </row>
     <row r="5" spans="1:46" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="269" t="s">
+      <c r="A5" s="285" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="264" t="s">
+      <c r="B5" s="280" t="s">
         <v>187</v>
       </c>
-      <c r="C5" s="265"/>
-      <c r="D5" s="265"/>
-      <c r="E5" s="265"/>
-      <c r="F5" s="265"/>
-      <c r="G5" s="265"/>
-      <c r="H5" s="265"/>
-      <c r="I5" s="265"/>
-      <c r="J5" s="265"/>
-      <c r="K5" s="265"/>
-      <c r="L5" s="265"/>
-      <c r="M5" s="265"/>
-      <c r="N5" s="265"/>
-      <c r="O5" s="265"/>
-      <c r="P5" s="265"/>
-      <c r="Q5" s="265"/>
-      <c r="R5" s="266"/>
-      <c r="S5" s="264" t="s">
+      <c r="C5" s="281"/>
+      <c r="D5" s="281"/>
+      <c r="E5" s="281"/>
+      <c r="F5" s="281"/>
+      <c r="G5" s="281"/>
+      <c r="H5" s="281"/>
+      <c r="I5" s="281"/>
+      <c r="J5" s="281"/>
+      <c r="K5" s="281"/>
+      <c r="L5" s="281"/>
+      <c r="M5" s="281"/>
+      <c r="N5" s="281"/>
+      <c r="O5" s="281"/>
+      <c r="P5" s="281"/>
+      <c r="Q5" s="281"/>
+      <c r="R5" s="282"/>
+      <c r="S5" s="280" t="s">
         <v>188</v>
       </c>
-      <c r="T5" s="265"/>
-      <c r="U5" s="265"/>
-      <c r="V5" s="265"/>
-      <c r="W5" s="265"/>
-      <c r="X5" s="265"/>
-      <c r="Y5" s="265"/>
-      <c r="Z5" s="265"/>
-      <c r="AA5" s="265"/>
-      <c r="AB5" s="265"/>
-      <c r="AC5" s="265"/>
-      <c r="AD5" s="265"/>
-      <c r="AE5" s="265"/>
-      <c r="AF5" s="265"/>
-      <c r="AG5" s="265"/>
-      <c r="AH5" s="265"/>
-      <c r="AI5" s="266"/>
-      <c r="AJ5" s="267" t="s">
+      <c r="T5" s="281"/>
+      <c r="U5" s="281"/>
+      <c r="V5" s="281"/>
+      <c r="W5" s="281"/>
+      <c r="X5" s="281"/>
+      <c r="Y5" s="281"/>
+      <c r="Z5" s="281"/>
+      <c r="AA5" s="281"/>
+      <c r="AB5" s="281"/>
+      <c r="AC5" s="281"/>
+      <c r="AD5" s="281"/>
+      <c r="AE5" s="281"/>
+      <c r="AF5" s="281"/>
+      <c r="AG5" s="281"/>
+      <c r="AH5" s="281"/>
+      <c r="AI5" s="282"/>
+      <c r="AJ5" s="283" t="s">
         <v>189</v>
       </c>
-      <c r="AK5" s="267"/>
-      <c r="AL5" s="267"/>
-      <c r="AM5" s="267"/>
-      <c r="AN5" s="267"/>
-      <c r="AO5" s="267"/>
-      <c r="AP5" s="267"/>
-      <c r="AQ5" s="267"/>
-      <c r="AR5" s="268"/>
+      <c r="AK5" s="283"/>
+      <c r="AL5" s="283"/>
+      <c r="AM5" s="283"/>
+      <c r="AN5" s="283"/>
+      <c r="AO5" s="283"/>
+      <c r="AP5" s="283"/>
+      <c r="AQ5" s="283"/>
+      <c r="AR5" s="284"/>
     </row>
     <row r="6" spans="1:46" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="270"/>
+      <c r="A6" s="286"/>
       <c r="B6" s="12" t="s">
         <v>190</v>
       </c>
@@ -11224,7 +11288,7 @@
       <c r="AN6" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="AO6" s="290" t="s">
+      <c r="AO6" s="188" t="s">
         <v>210</v>
       </c>
       <c r="AP6" s="12" t="s">
@@ -11233,7 +11297,7 @@
       <c r="AQ6" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="AR6" s="291" t="s">
+      <c r="AR6" s="189" t="s">
         <v>213</v>
       </c>
     </row>

--- a/excel/finished/烧结/6#烧结机生产日报.xlsx
+++ b/excel/finished/烧结/6#烧结机生产日报.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="2" activeTab="8"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="技术经济指标" sheetId="1" r:id="rId1"/>
-    <sheet name="_sjmain1_day_hour" sheetId="4" r:id="rId2"/>
-    <sheet name="_sjmain2_day_hour" sheetId="8" r:id="rId3"/>
+    <sheet name="_sjmain1_day_shift" sheetId="4" r:id="rId2"/>
+    <sheet name="_sjmain2_day_shift" sheetId="8" r:id="rId3"/>
     <sheet name="_sjmain3_day_shift" sheetId="9" r:id="rId4"/>
     <sheet name="_sjmain4_day_shift" sheetId="10" r:id="rId5"/>
     <sheet name="_lilunshengchan_day_shift" sheetId="11" r:id="rId6"/>
@@ -1471,23 +1471,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="15">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
+    <numFmt numFmtId="180" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="180" formatCode="0.0_ "/>
-    <numFmt numFmtId="181" formatCode="0.0"/>
+    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="182" formatCode="0.0_);\(0.0\)"/>
-    <numFmt numFmtId="183" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="184" formatCode="0_ "/>
-    <numFmt numFmtId="185" formatCode="0.000_ "/>
-    <numFmt numFmtId="186" formatCode="0.00_ "/>
+    <numFmt numFmtId="183" formatCode="0.000_ "/>
+    <numFmt numFmtId="184" formatCode="0.0"/>
+    <numFmt numFmtId="185" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="186" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="33">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1539,52 +1539,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1595,15 +1553,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1624,32 +1576,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1664,7 +1614,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1678,17 +1675,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1743,7 +1738,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1755,73 +1810,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1839,19 +1828,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1869,7 +1852,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1881,49 +1882,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2514,7 +2509,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2534,24 +2544,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2563,6 +2555,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2582,172 +2594,155 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="52" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="51" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2770,7 +2765,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -2810,37 +2805,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="11" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2855,28 +2850,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="182" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2891,25 +2886,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2918,16 +2913,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2940,88 +2935,88 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="13" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3036,7 +3031,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3045,19 +3040,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3066,10 +3061,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3139,293 +3134,293 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="185" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3468,7 +3463,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3508,7 +3503,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3523,14 +3518,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3542,11 +3537,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4165,7 +4160,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="136" t="str">
-        <f>IF(_sjmain1_day_hour!A2="","",_sjmain1_day_hour!A2)</f>
+        <f>IF(_sjmain1_day_shift!A2="","",_sjmain1_day_shift!A2)</f>
         <v/>
       </c>
       <c r="C7" s="137"/>
@@ -4202,7 +4197,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="136" t="str">
-        <f>IF(_sjmain1_day_hour!A3="","",_sjmain1_day_hour!A3)</f>
+        <f>IF(_sjmain1_day_shift!A3="","",_sjmain1_day_shift!A3)</f>
         <v/>
       </c>
       <c r="C8" s="137"/>
@@ -4239,7 +4234,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="136" t="str">
-        <f>IF(_sjmain1_day_hour!A4="","",_sjmain1_day_hour!A4)</f>
+        <f>IF(_sjmain1_day_shift!A4="","",_sjmain1_day_shift!A4)</f>
         <v/>
       </c>
       <c r="C9" s="137"/>
@@ -4414,35 +4409,35 @@
         <v>19</v>
       </c>
       <c r="B13" s="152" t="str">
-        <f>IF(_sjmain1_day_hour!D2="","",_sjmain1_day_hour!D2)</f>
+        <f>IF(_sjmain1_day_shift!D2="","",_sjmain1_day_shift!D2)</f>
         <v/>
       </c>
       <c r="C13" s="152" t="str">
-        <f>IF(_sjmain1_day_hour!E2="","",_sjmain1_day_hour!E2)</f>
+        <f>IF(_sjmain1_day_shift!E2="","",_sjmain1_day_shift!E2)</f>
         <v/>
       </c>
       <c r="D13" s="152" t="str">
-        <f>IF(_sjmain1_day_hour!F2="","",_sjmain1_day_hour!F2)</f>
+        <f>IF(_sjmain1_day_shift!F2="","",_sjmain1_day_shift!F2)</f>
         <v/>
       </c>
       <c r="E13" s="152" t="str">
-        <f>IF(_sjmain1_day_hour!G2="","",_sjmain1_day_hour!G2)</f>
+        <f>IF(_sjmain1_day_shift!G2="","",_sjmain1_day_shift!G2)</f>
         <v/>
       </c>
       <c r="F13" s="152" t="str">
-        <f>IF(_sjmain1_day_hour!H2="","",_sjmain1_day_hour!H2)</f>
+        <f>IF(_sjmain1_day_shift!H2="","",_sjmain1_day_shift!H2)</f>
         <v/>
       </c>
       <c r="G13" s="153" t="str">
-        <f>IF(_sjmain1_day_hour!I2="","",_sjmain1_day_hour!I2)</f>
+        <f>IF(_sjmain1_day_shift!I2="","",_sjmain1_day_shift!I2)</f>
         <v/>
       </c>
       <c r="H13" s="154" t="str">
-        <f>IF(_sjmain1_day_hour!J2="","",_sjmain1_day_hour!J2)</f>
+        <f>IF(_sjmain1_day_shift!J2="","",_sjmain1_day_shift!J2)</f>
         <v/>
       </c>
       <c r="I13" s="208" t="str">
-        <f>IF(_sjmain1_day_hour!K2="","",_sjmain1_day_hour!K2)</f>
+        <f>IF(_sjmain1_day_shift!K2="","",_sjmain1_day_shift!K2)</f>
         <v/>
       </c>
       <c r="J13" s="209"/>
@@ -4472,35 +4467,35 @@
         <v>22</v>
       </c>
       <c r="B14" s="152" t="str">
-        <f>IF(_sjmain1_day_hour!D3="","",_sjmain1_day_hour!D3)</f>
+        <f>IF(_sjmain1_day_shift!D3="","",_sjmain1_day_shift!D3)</f>
         <v/>
       </c>
       <c r="C14" s="152" t="str">
-        <f>IF(_sjmain1_day_hour!E3="","",_sjmain1_day_hour!E3)</f>
+        <f>IF(_sjmain1_day_shift!E3="","",_sjmain1_day_shift!E3)</f>
         <v/>
       </c>
       <c r="D14" s="152" t="str">
-        <f>IF(_sjmain1_day_hour!F3="","",_sjmain1_day_hour!F3)</f>
+        <f>IF(_sjmain1_day_shift!F3="","",_sjmain1_day_shift!F3)</f>
         <v/>
       </c>
       <c r="E14" s="152" t="str">
-        <f>IF(_sjmain1_day_hour!G3="","",_sjmain1_day_hour!G3)</f>
+        <f>IF(_sjmain1_day_shift!G3="","",_sjmain1_day_shift!G3)</f>
         <v/>
       </c>
       <c r="F14" s="152" t="str">
-        <f>IF(_sjmain1_day_hour!H3="","",_sjmain1_day_hour!H3)</f>
+        <f>IF(_sjmain1_day_shift!H3="","",_sjmain1_day_shift!H3)</f>
         <v/>
       </c>
       <c r="G14" s="152" t="str">
-        <f>IF(_sjmain1_day_hour!I3="","",_sjmain1_day_hour!I3)</f>
+        <f>IF(_sjmain1_day_shift!I3="","",_sjmain1_day_shift!I3)</f>
         <v/>
       </c>
       <c r="H14" s="154" t="str">
-        <f>IF(_sjmain1_day_hour!J3="","",_sjmain1_day_hour!J3)</f>
+        <f>IF(_sjmain1_day_shift!J3="","",_sjmain1_day_shift!J3)</f>
         <v/>
       </c>
       <c r="I14" s="213" t="str">
-        <f>IF(_sjmain1_day_hour!K3="","",_sjmain1_day_hour!K3)</f>
+        <f>IF(_sjmain1_day_shift!K3="","",_sjmain1_day_shift!K3)</f>
         <v/>
       </c>
       <c r="J14" s="209"/>
@@ -4529,35 +4524,35 @@
         <v>23</v>
       </c>
       <c r="B15" s="152" t="str">
-        <f>IF(_sjmain1_day_hour!D4="","",_sjmain1_day_hour!D4)</f>
+        <f>IF(_sjmain1_day_shift!D4="","",_sjmain1_day_shift!D4)</f>
         <v/>
       </c>
       <c r="C15" s="152" t="str">
-        <f>IF(_sjmain1_day_hour!E4="","",_sjmain1_day_hour!E4)</f>
+        <f>IF(_sjmain1_day_shift!E4="","",_sjmain1_day_shift!E4)</f>
         <v/>
       </c>
       <c r="D15" s="152" t="str">
-        <f>IF(_sjmain1_day_hour!F4="","",_sjmain1_day_hour!F4)</f>
+        <f>IF(_sjmain1_day_shift!F4="","",_sjmain1_day_shift!F4)</f>
         <v/>
       </c>
       <c r="E15" s="152" t="str">
-        <f>IF(_sjmain1_day_hour!G4="","",_sjmain1_day_hour!G4)</f>
+        <f>IF(_sjmain1_day_shift!G4="","",_sjmain1_day_shift!G4)</f>
         <v/>
       </c>
       <c r="F15" s="152" t="str">
-        <f>IF(_sjmain1_day_hour!H4="","",_sjmain1_day_hour!H4)</f>
+        <f>IF(_sjmain1_day_shift!H4="","",_sjmain1_day_shift!H4)</f>
         <v/>
       </c>
       <c r="G15" s="152" t="str">
-        <f>IF(_sjmain1_day_hour!I4="","",_sjmain1_day_hour!I4)</f>
+        <f>IF(_sjmain1_day_shift!I4="","",_sjmain1_day_shift!I4)</f>
         <v/>
       </c>
       <c r="H15" s="154" t="str">
-        <f>IF(_sjmain1_day_hour!J4="","",_sjmain1_day_hour!J4)</f>
+        <f>IF(_sjmain1_day_shift!J4="","",_sjmain1_day_shift!J4)</f>
         <v/>
       </c>
       <c r="I15" s="215" t="str">
-        <f>IF(_sjmain1_day_hour!K4="","",_sjmain1_day_hour!K4)</f>
+        <f>IF(_sjmain1_day_shift!K4="","",_sjmain1_day_shift!K4)</f>
         <v/>
       </c>
       <c r="J15" s="216"/>
@@ -4691,51 +4686,51 @@
       <c r="D18" s="164"/>
       <c r="E18" s="165"/>
       <c r="F18" s="166" t="str">
-        <f>IF(_sjmain2_day_hour!A2="","",_sjmain2_day_hour!A2)</f>
+        <f>IF(_sjmain2_day_shift!A2="","",_sjmain2_day_shift!A2)</f>
         <v/>
       </c>
       <c r="G18" s="166" t="str">
-        <f>IF(_sjmain2_day_hour!B2="","",_sjmain2_day_hour!B2)</f>
+        <f>IF(_sjmain2_day_shift!B2="","",_sjmain2_day_shift!B2)</f>
         <v/>
       </c>
       <c r="H18" s="166" t="str">
-        <f>IF(_sjmain2_day_hour!C2="","",_sjmain2_day_hour!C2)</f>
+        <f>IF(_sjmain2_day_shift!C2="","",_sjmain2_day_shift!C2)</f>
         <v/>
       </c>
       <c r="I18" s="166" t="str">
-        <f>IF(_sjmain2_day_hour!D2="","",_sjmain2_day_hour!D2)</f>
+        <f>IF(_sjmain2_day_shift!D2="","",_sjmain2_day_shift!D2)</f>
         <v/>
       </c>
       <c r="J18" s="166" t="str">
-        <f>IF(_sjmain2_day_hour!E2="","",_sjmain2_day_hour!E2)</f>
+        <f>IF(_sjmain2_day_shift!E2="","",_sjmain2_day_shift!E2)</f>
         <v/>
       </c>
       <c r="K18" s="166" t="str">
-        <f>IF(_sjmain2_day_hour!F2="","",_sjmain2_day_hour!F2)</f>
+        <f>IF(_sjmain2_day_shift!F2="","",_sjmain2_day_shift!F2)</f>
         <v/>
       </c>
       <c r="L18" s="166" t="str">
-        <f>IF(_sjmain2_day_hour!G2="","",_sjmain2_day_hour!G2)</f>
+        <f>IF(_sjmain2_day_shift!G2="","",_sjmain2_day_shift!G2)</f>
         <v/>
       </c>
       <c r="M18" s="166" t="str">
-        <f>IF(_sjmain2_day_hour!H2="","",_sjmain2_day_hour!H2)</f>
+        <f>IF(_sjmain2_day_shift!H2="","",_sjmain2_day_shift!H2)</f>
         <v/>
       </c>
       <c r="N18" s="166" t="str">
-        <f>IF(_sjmain2_day_hour!I2="","",_sjmain2_day_hour!I2)</f>
+        <f>IF(_sjmain2_day_shift!I2="","",_sjmain2_day_shift!I2)</f>
         <v/>
       </c>
       <c r="O18" s="166" t="str">
-        <f>IF(_sjmain2_day_hour!J2="","",_sjmain2_day_hour!J2)</f>
+        <f>IF(_sjmain2_day_shift!J2="","",_sjmain2_day_shift!J2)</f>
         <v/>
       </c>
       <c r="P18" s="166" t="str">
-        <f>IF(_sjmain2_day_hour!K2="","",_sjmain2_day_hour!K2)</f>
+        <f>IF(_sjmain2_day_shift!K2="","",_sjmain2_day_shift!K2)</f>
         <v/>
       </c>
       <c r="Q18" s="247" t="str">
-        <f>IF(_sjmain2_day_hour!L2="","",_sjmain2_day_hour!L2)</f>
+        <f>IF(_sjmain2_day_shift!L2="","",_sjmain2_day_shift!L2)</f>
         <v/>
       </c>
       <c r="R18" s="248"/>
@@ -4755,51 +4750,51 @@
       <c r="D19" s="164"/>
       <c r="E19" s="165"/>
       <c r="F19" s="166" t="str">
-        <f>IF(_sjmain2_day_hour!A3="","",_sjmain2_day_hour!A3)</f>
+        <f>IF(_sjmain2_day_shift!A3="","",_sjmain2_day_shift!A3)</f>
         <v/>
       </c>
       <c r="G19" s="166" t="str">
-        <f>IF(_sjmain2_day_hour!B3="","",_sjmain2_day_hour!B3)</f>
+        <f>IF(_sjmain2_day_shift!B3="","",_sjmain2_day_shift!B3)</f>
         <v/>
       </c>
       <c r="H19" s="166" t="str">
-        <f>IF(_sjmain2_day_hour!C3="","",_sjmain2_day_hour!C3)</f>
+        <f>IF(_sjmain2_day_shift!C3="","",_sjmain2_day_shift!C3)</f>
         <v/>
       </c>
       <c r="I19" s="166" t="str">
-        <f>IF(_sjmain2_day_hour!D3="","",_sjmain2_day_hour!D3)</f>
+        <f>IF(_sjmain2_day_shift!D3="","",_sjmain2_day_shift!D3)</f>
         <v/>
       </c>
       <c r="J19" s="166" t="str">
-        <f>IF(_sjmain2_day_hour!E3="","",_sjmain2_day_hour!E3)</f>
+        <f>IF(_sjmain2_day_shift!E3="","",_sjmain2_day_shift!E3)</f>
         <v/>
       </c>
       <c r="K19" s="166" t="str">
-        <f>IF(_sjmain2_day_hour!F3="","",_sjmain2_day_hour!F3)</f>
+        <f>IF(_sjmain2_day_shift!F3="","",_sjmain2_day_shift!F3)</f>
         <v/>
       </c>
       <c r="L19" s="166" t="str">
-        <f>IF(_sjmain2_day_hour!G3="","",_sjmain2_day_hour!G3)</f>
+        <f>IF(_sjmain2_day_shift!G3="","",_sjmain2_day_shift!G3)</f>
         <v/>
       </c>
       <c r="M19" s="166" t="str">
-        <f>IF(_sjmain2_day_hour!H3="","",_sjmain2_day_hour!H3)</f>
+        <f>IF(_sjmain2_day_shift!H3="","",_sjmain2_day_shift!H3)</f>
         <v/>
       </c>
       <c r="N19" s="166" t="str">
-        <f>IF(_sjmain2_day_hour!I3="","",_sjmain2_day_hour!I3)</f>
+        <f>IF(_sjmain2_day_shift!I3="","",_sjmain2_day_shift!I3)</f>
         <v/>
       </c>
       <c r="O19" s="166" t="str">
-        <f>IF(_sjmain2_day_hour!J3="","",_sjmain2_day_hour!J3)</f>
+        <f>IF(_sjmain2_day_shift!J3="","",_sjmain2_day_shift!J3)</f>
         <v/>
       </c>
       <c r="P19" s="166" t="str">
-        <f>IF(_sjmain2_day_hour!K3="","",_sjmain2_day_hour!K3)</f>
+        <f>IF(_sjmain2_day_shift!K3="","",_sjmain2_day_shift!K3)</f>
         <v/>
       </c>
       <c r="Q19" s="247" t="str">
-        <f>IF(_sjmain2_day_hour!L3="","",_sjmain2_day_hour!L3)</f>
+        <f>IF(_sjmain2_day_shift!L3="","",_sjmain2_day_shift!L3)</f>
         <v/>
       </c>
       <c r="R19" s="249"/>
@@ -4819,51 +4814,51 @@
       <c r="D20" s="168"/>
       <c r="E20" s="167"/>
       <c r="F20" s="169" t="str">
-        <f>IF(_sjmain2_day_hour!A4="","",_sjmain2_day_hour!A4)</f>
+        <f>IF(_sjmain2_day_shift!A4="","",_sjmain2_day_shift!A4)</f>
         <v/>
       </c>
       <c r="G20" s="169" t="str">
-        <f>IF(_sjmain2_day_hour!B4="","",_sjmain2_day_hour!B4)</f>
+        <f>IF(_sjmain2_day_shift!B4="","",_sjmain2_day_shift!B4)</f>
         <v/>
       </c>
       <c r="H20" s="169" t="str">
-        <f>IF(_sjmain2_day_hour!C4="","",_sjmain2_day_hour!C4)</f>
+        <f>IF(_sjmain2_day_shift!C4="","",_sjmain2_day_shift!C4)</f>
         <v/>
       </c>
       <c r="I20" s="169" t="str">
-        <f>IF(_sjmain2_day_hour!D4="","",_sjmain2_day_hour!D4)</f>
+        <f>IF(_sjmain2_day_shift!D4="","",_sjmain2_day_shift!D4)</f>
         <v/>
       </c>
       <c r="J20" s="169" t="str">
-        <f>IF(_sjmain2_day_hour!E4="","",_sjmain2_day_hour!E4)</f>
+        <f>IF(_sjmain2_day_shift!E4="","",_sjmain2_day_shift!E4)</f>
         <v/>
       </c>
       <c r="K20" s="169" t="str">
-        <f>IF(_sjmain2_day_hour!F4="","",_sjmain2_day_hour!F4)</f>
+        <f>IF(_sjmain2_day_shift!F4="","",_sjmain2_day_shift!F4)</f>
         <v/>
       </c>
       <c r="L20" s="169" t="str">
-        <f>IF(_sjmain2_day_hour!G4="","",_sjmain2_day_hour!G4)</f>
+        <f>IF(_sjmain2_day_shift!G4="","",_sjmain2_day_shift!G4)</f>
         <v/>
       </c>
       <c r="M20" s="169" t="str">
-        <f>IF(_sjmain2_day_hour!H4="","",_sjmain2_day_hour!H4)</f>
+        <f>IF(_sjmain2_day_shift!H4="","",_sjmain2_day_shift!H4)</f>
         <v/>
       </c>
       <c r="N20" s="169" t="str">
-        <f>IF(_sjmain2_day_hour!I4="","",_sjmain2_day_hour!I4)</f>
+        <f>IF(_sjmain2_day_shift!I4="","",_sjmain2_day_shift!I4)</f>
         <v/>
       </c>
       <c r="O20" s="169" t="str">
-        <f>IF(_sjmain2_day_hour!J4="","",_sjmain2_day_hour!J4)</f>
+        <f>IF(_sjmain2_day_shift!J4="","",_sjmain2_day_shift!J4)</f>
         <v/>
       </c>
       <c r="P20" s="169" t="str">
-        <f>IF(_sjmain2_day_hour!K4="","",_sjmain2_day_hour!K4)</f>
+        <f>IF(_sjmain2_day_shift!K4="","",_sjmain2_day_shift!K4)</f>
         <v/>
       </c>
       <c r="Q20" s="247" t="str">
-        <f>IF(_sjmain2_day_hour!L4="","",_sjmain2_day_hour!L4)</f>
+        <f>IF(_sjmain2_day_shift!L4="","",_sjmain2_day_shift!L4)</f>
         <v/>
       </c>
       <c r="R20" s="248"/>
@@ -8689,7 +8684,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8735,8 +8730,8 @@
   <sheetPr/>
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11521,7 +11516,7 @@
   <sheetPr/>
   <dimension ref="A1:AT40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>

--- a/excel/finished/烧结/6#烧结机生产日报.xlsx
+++ b/excel/finished/烧结/6#烧结机生产日报.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="技术经济指标" sheetId="1" r:id="rId1"/>
-    <sheet name="_sjmain1_day_shift" sheetId="4" r:id="rId2"/>
-    <sheet name="_sjmain2_day_shift" sheetId="8" r:id="rId3"/>
-    <sheet name="_sjmain3_day_shift" sheetId="9" r:id="rId4"/>
-    <sheet name="_sjmain4_day_shift" sheetId="10" r:id="rId5"/>
-    <sheet name="_lilunshengchan_day_shift" sheetId="11" r:id="rId6"/>
+    <sheet name="_sjmain1_day_shift" sheetId="4" state="hidden" r:id="rId2"/>
+    <sheet name="_sjmain2_day_shift" sheetId="8" state="hidden" r:id="rId3"/>
+    <sheet name="_sjmain3_day_shift" sheetId="9" state="hidden" r:id="rId4"/>
+    <sheet name="_sjmain4_day_shift" sheetId="10" state="hidden" r:id="rId5"/>
+    <sheet name="_lilunshengchan_day_shift" sheetId="11" state="hidden" r:id="rId6"/>
     <sheet name="过程参数" sheetId="2" r:id="rId7"/>
-    <sheet name="_sjgc_day_hour" sheetId="5" r:id="rId8"/>
+    <sheet name="_sjgc_day_hour" sheetId="5" state="hidden" r:id="rId8"/>
     <sheet name="风箱温度压力" sheetId="3" r:id="rId9"/>
-    <sheet name="_sjfx_day_hour" sheetId="6" r:id="rId10"/>
-    <sheet name="_dictionary" sheetId="7" r:id="rId11"/>
+    <sheet name="_sjfx_day_hour" sheetId="6" state="hidden" r:id="rId10"/>
+    <sheet name="_dictionary" sheetId="7" state="hidden" r:id="rId11"/>
     <sheet name="_metadata" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
@@ -1471,20 +1471,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="15">
+    <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.0_);\(0.0\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="0_ "/>
-    <numFmt numFmtId="180" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="180" formatCode="0.0_ "/>
     <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="182" formatCode="0.0_);\(0.0\)"/>
-    <numFmt numFmtId="183" formatCode="0.000_ "/>
-    <numFmt numFmtId="184" formatCode="0.0"/>
-    <numFmt numFmtId="185" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="182" formatCode="0.0"/>
+    <numFmt numFmtId="183" formatCode="0_ "/>
+    <numFmt numFmtId="184" formatCode="0.000_ "/>
+    <numFmt numFmtId="185" formatCode="0.00_ "/>
     <numFmt numFmtId="186" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
   <fonts count="33">
@@ -1538,8 +1538,38 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1547,7 +1577,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1561,14 +1635,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1576,30 +1666,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1614,76 +1683,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1738,19 +1738,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1762,7 +1750,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1774,7 +1774,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1792,7 +1810,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1804,13 +1876,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1822,79 +1900,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1907,18 +1919,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2505,30 +2505,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2545,16 +2521,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2580,16 +2556,40 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2605,144 +2605,144 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="51" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="52" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2765,7 +2765,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -2805,37 +2805,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="11" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2850,28 +2850,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="180" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="182" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2886,46 +2886,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2935,88 +2935,88 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="13" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="182" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="13" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3031,7 +3031,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3040,19 +3040,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3061,10 +3061,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3134,42 +3134,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="183" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3184,13 +3184,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3214,32 +3214,32 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="181" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="181" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3272,136 +3272,136 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3463,7 +3463,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3503,7 +3503,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3518,14 +3518,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="185" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3974,7 +3974,7 @@
   <sheetPr/>
   <dimension ref="A2:Z115"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
@@ -4038,9 +4038,9 @@
       <c r="A4" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="125">
-        <f>_metadata!B2</f>
-        <v>0</v>
+      <c r="B4" s="125" t="str">
+        <f>IF(_metadata!B2="","",_metadata!B2)</f>
+        <v/>
       </c>
       <c r="C4" s="125"/>
       <c r="D4" s="119"/>
@@ -8730,7 +8730,7 @@
   <sheetPr/>
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>

--- a/excel/finished/烧结/6#烧结机生产日报.xlsx
+++ b/excel/finished/烧结/6#烧结机生产日报.xlsx
@@ -1470,22 +1470,21 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="15">
-    <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="0.0_);\(0.0\)"/>
+  <numFmts count="14">
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="181" formatCode="0.0"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="182" formatCode="0.000_);[Red]\(0.000\)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="180" formatCode="0.0_ "/>
-    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="182" formatCode="0.0"/>
-    <numFmt numFmtId="183" formatCode="0_ "/>
-    <numFmt numFmtId="184" formatCode="0.000_ "/>
-    <numFmt numFmtId="185" formatCode="0.00_ "/>
-    <numFmt numFmtId="186" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="183" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="184" formatCode="0.0_);\(0.0\)"/>
+    <numFmt numFmtId="185" formatCode="0_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -1546,18 +1545,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1584,15 +1582,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1606,22 +1596,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1629,7 +1604,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1640,6 +1623,22 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1660,23 +1659,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1684,6 +1667,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1738,7 +1737,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1750,7 +1821,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1762,7 +1833,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1774,7 +1887,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1786,139 +1905,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2505,51 +2504,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2570,6 +2528,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2585,168 +2587,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="49" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="52" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="279">
+  <cellXfs count="270">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2765,7 +2764,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -2805,37 +2804,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="11" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2850,28 +2849,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2886,25 +2885,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2913,19 +2912,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2935,88 +2934,88 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="13" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="13" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3031,7 +3030,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3040,19 +3039,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3061,10 +3060,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3134,42 +3133,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3184,14 +3174,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3214,32 +3201,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3272,11 +3253,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3301,7 +3282,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3313,48 +3294,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3364,63 +3330,62 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3445,12 +3410,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -3463,11 +3435,11 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3480,7 +3452,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3503,7 +3475,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3518,14 +3490,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3537,11 +3509,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3975,7 +3947,7 @@
   <dimension ref="A2:Z115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4058,20 +4030,20 @@
       <c r="P4" s="119"/>
       <c r="Q4" s="119"/>
       <c r="R4" s="119"/>
-      <c r="S4" s="224" t="s">
+      <c r="S4" s="213" t="s">
         <v>2</v>
       </c>
-      <c r="T4" s="225" t="s">
+      <c r="T4" s="214" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="225"/>
-      <c r="V4" s="226" t="s">
+      <c r="U4" s="214"/>
+      <c r="V4" s="215" t="s">
         <v>4</v>
       </c>
-      <c r="W4" s="227" t="s">
+      <c r="W4" s="216" t="s">
         <v>5</v>
       </c>
-      <c r="X4" s="227"/>
+      <c r="X4" s="216"/>
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:26">
       <c r="A5" s="126" t="s">
@@ -4106,18 +4078,18 @@
       </c>
       <c r="O5" s="128"/>
       <c r="P5" s="127"/>
-      <c r="Q5" s="228"/>
-      <c r="R5" s="148" t="s">
+      <c r="Q5" s="217"/>
+      <c r="R5" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="S5" s="149"/>
-      <c r="T5" s="149"/>
-      <c r="U5" s="149"/>
-      <c r="V5" s="149"/>
-      <c r="W5" s="149"/>
-      <c r="X5" s="200"/>
-      <c r="Y5" s="267"/>
-      <c r="Z5" s="267"/>
+      <c r="S5" s="146"/>
+      <c r="T5" s="146"/>
+      <c r="U5" s="146"/>
+      <c r="V5" s="146"/>
+      <c r="W5" s="146"/>
+      <c r="X5" s="188"/>
+      <c r="Y5" s="258"/>
+      <c r="Z5" s="258"/>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:26">
       <c r="A6" s="131"/>
@@ -4136,24 +4108,24 @@
       <c r="N6" s="132"/>
       <c r="O6" s="133"/>
       <c r="P6" s="132"/>
-      <c r="Q6" s="229"/>
+      <c r="Q6" s="218"/>
       <c r="R6" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="S6" s="230" t="s">
+      <c r="S6" s="219" t="s">
         <v>16</v>
       </c>
-      <c r="T6" s="150" t="s">
+      <c r="T6" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="U6" s="196" t="s">
+      <c r="U6" s="193" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="111"/>
       <c r="W6" s="111"/>
-      <c r="X6" s="231"/>
-      <c r="Y6" s="267"/>
-      <c r="Z6" s="267"/>
+      <c r="X6" s="220"/>
+      <c r="Y6" s="258"/>
+      <c r="Z6" s="258"/>
     </row>
     <row r="7" ht="30" customHeight="1" spans="1:26">
       <c r="A7" s="131" t="s">
@@ -4164,33 +4136,48 @@
         <v/>
       </c>
       <c r="C7" s="137"/>
-      <c r="D7" s="138"/>
+      <c r="D7" s="138" t="str">
+        <f>IF(_lilunshengchan_day_shift!A2="","",_lilunshengchan_day_shift!A2)</f>
+        <v/>
+      </c>
       <c r="E7" s="139"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="191"/>
-      <c r="J7" s="192"/>
-      <c r="K7" s="193"/>
-      <c r="L7" s="194"/>
-      <c r="M7" s="195"/>
-      <c r="N7" s="194"/>
-      <c r="O7" s="195"/>
-      <c r="P7" s="196"/>
-      <c r="Q7" s="231"/>
-      <c r="R7" s="181" t="s">
+      <c r="F7" s="138" t="str">
+        <f t="shared" ref="F7:G9" si="0">IF(D7="","",D7/8)</f>
+        <v/>
+      </c>
+      <c r="G7" s="139"/>
+      <c r="H7" s="138" t="str">
+        <f>IF(F7="","",F7/360)</f>
+        <v/>
+      </c>
+      <c r="I7" s="139"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="139"/>
+      <c r="L7" s="185">
+        <f>IF(T30="","",T30)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="186"/>
+      <c r="N7" s="185">
+        <f t="shared" ref="N7:O9" si="1">(24-L8)/24*100</f>
+        <v>100</v>
+      </c>
+      <c r="O7" s="186"/>
+      <c r="P7" s="187"/>
+      <c r="Q7" s="221"/>
+      <c r="R7" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="232" t="s">
+      <c r="S7" s="222" t="s">
         <v>21</v>
       </c>
-      <c r="T7" s="210"/>
-      <c r="U7" s="233"/>
-      <c r="V7" s="234"/>
-      <c r="W7" s="234"/>
-      <c r="X7" s="235"/>
-      <c r="Y7" s="267"/>
-      <c r="Z7" s="267"/>
+      <c r="T7" s="223"/>
+      <c r="U7" s="224"/>
+      <c r="V7" s="225"/>
+      <c r="W7" s="225"/>
+      <c r="X7" s="226"/>
+      <c r="Y7" s="258"/>
+      <c r="Z7" s="258"/>
     </row>
     <row r="8" ht="30" customHeight="1" spans="1:26">
       <c r="A8" s="131" t="s">
@@ -4201,33 +4188,48 @@
         <v/>
       </c>
       <c r="C8" s="137"/>
-      <c r="D8" s="138"/>
+      <c r="D8" s="138" t="str">
+        <f>IF(_lilunshengchan_day_shift!A3="","",_lilunshengchan_day_shift!A3)</f>
+        <v/>
+      </c>
       <c r="E8" s="139"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="141"/>
-      <c r="H8" s="142"/>
-      <c r="I8" s="191"/>
-      <c r="J8" s="192"/>
-      <c r="K8" s="193"/>
-      <c r="L8" s="194"/>
-      <c r="M8" s="195"/>
-      <c r="N8" s="194"/>
-      <c r="O8" s="195"/>
-      <c r="P8" s="196"/>
-      <c r="Q8" s="231"/>
-      <c r="R8" s="181" t="s">
+      <c r="F8" s="138" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G8" s="139"/>
+      <c r="H8" s="138" t="str">
+        <f>IF(F8="","",F8/360)</f>
+        <v/>
+      </c>
+      <c r="I8" s="139"/>
+      <c r="J8" s="138"/>
+      <c r="K8" s="139"/>
+      <c r="L8" s="185">
+        <f>IF(T30="","",T30)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="186"/>
+      <c r="N8" s="185">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="O8" s="186"/>
+      <c r="P8" s="187"/>
+      <c r="Q8" s="221"/>
+      <c r="R8" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="S8" s="232" t="s">
+      <c r="S8" s="222" t="s">
         <v>20</v>
       </c>
-      <c r="T8" s="236"/>
-      <c r="U8" s="233"/>
-      <c r="V8" s="234"/>
-      <c r="W8" s="234"/>
-      <c r="X8" s="235"/>
-      <c r="Y8" s="267"/>
-      <c r="Z8" s="267"/>
+      <c r="T8" s="227"/>
+      <c r="U8" s="224"/>
+      <c r="V8" s="225"/>
+      <c r="W8" s="225"/>
+      <c r="X8" s="226"/>
+      <c r="Y8" s="258"/>
+      <c r="Z8" s="258"/>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:26">
       <c r="A9" s="131" t="s">
@@ -4238,4018 +4240,4052 @@
         <v/>
       </c>
       <c r="C9" s="137"/>
-      <c r="D9" s="138"/>
+      <c r="D9" s="138" t="str">
+        <f>IF(_lilunshengchan_day_shift!A4="","",_lilunshengchan_day_shift!A4)</f>
+        <v/>
+      </c>
       <c r="E9" s="139"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="141"/>
-      <c r="H9" s="142"/>
-      <c r="I9" s="191"/>
-      <c r="J9" s="192"/>
-      <c r="K9" s="193"/>
-      <c r="L9" s="194"/>
-      <c r="M9" s="195"/>
-      <c r="N9" s="194"/>
-      <c r="O9" s="195"/>
-      <c r="P9" s="196"/>
-      <c r="Q9" s="231"/>
-      <c r="R9" s="181" t="s">
+      <c r="F9" s="138" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G9" s="139"/>
+      <c r="H9" s="138" t="str">
+        <f>IF(F9="","",F9/360)</f>
+        <v/>
+      </c>
+      <c r="I9" s="139"/>
+      <c r="J9" s="138"/>
+      <c r="K9" s="139"/>
+      <c r="L9" s="185">
+        <f>IF(T30="","",T30)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="186"/>
+      <c r="N9" s="185">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="O9" s="186"/>
+      <c r="P9" s="187"/>
+      <c r="Q9" s="221"/>
+      <c r="R9" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="S9" s="232" t="s">
+      <c r="S9" s="222" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="210"/>
-      <c r="U9" s="233"/>
-      <c r="V9" s="234"/>
-      <c r="W9" s="234"/>
-      <c r="X9" s="235"/>
-      <c r="Y9" s="267"/>
-      <c r="Z9" s="267"/>
+      <c r="T9" s="223"/>
+      <c r="U9" s="224"/>
+      <c r="V9" s="225"/>
+      <c r="W9" s="225"/>
+      <c r="X9" s="226"/>
+      <c r="Y9" s="258"/>
+      <c r="Z9" s="258"/>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:26">
-      <c r="A10" s="143" t="s">
+      <c r="A10" s="140" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="144"/>
-      <c r="C10" s="145"/>
-      <c r="D10" s="146"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="141"/>
-      <c r="H10" s="142"/>
-      <c r="I10" s="191"/>
-      <c r="J10" s="197"/>
-      <c r="K10" s="198"/>
-      <c r="L10" s="197"/>
-      <c r="M10" s="198"/>
-      <c r="N10" s="197"/>
-      <c r="O10" s="198"/>
-      <c r="P10" s="199"/>
-      <c r="Q10" s="237"/>
-      <c r="R10" s="181" t="s">
+      <c r="B10" s="141" t="str">
+        <f>IF(B7="","",SUM(B7:B9))</f>
+        <v/>
+      </c>
+      <c r="C10" s="142"/>
+      <c r="D10" s="143" t="str">
+        <f>IF(D7="","",SUM(D7:D9))</f>
+        <v/>
+      </c>
+      <c r="E10" s="144"/>
+      <c r="F10" s="138" t="str">
+        <f>IF(F7="","",SUM(F7:F9))</f>
+        <v/>
+      </c>
+      <c r="G10" s="139"/>
+      <c r="H10" s="138" t="str">
+        <f>IF(H7="","",SUM(H7:H9))</f>
+        <v/>
+      </c>
+      <c r="I10" s="139"/>
+      <c r="J10" s="141"/>
+      <c r="K10" s="142"/>
+      <c r="L10" s="141">
+        <f>IF(L7="","",SUM(L7:L9))</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="142"/>
+      <c r="N10" s="141">
+        <f>IF(N7="","",SUM(N7:N9)/3)</f>
+        <v>100</v>
+      </c>
+      <c r="O10" s="142"/>
+      <c r="P10" s="141"/>
+      <c r="Q10" s="228"/>
+      <c r="R10" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="S10" s="232" t="s">
+      <c r="S10" s="222" t="s">
         <v>20</v>
       </c>
-      <c r="T10" s="210"/>
-      <c r="U10" s="233"/>
-      <c r="V10" s="234"/>
-      <c r="W10" s="234"/>
-      <c r="X10" s="235"/>
-      <c r="Y10" s="267"/>
-      <c r="Z10" s="267"/>
+      <c r="T10" s="223"/>
+      <c r="U10" s="224"/>
+      <c r="V10" s="225"/>
+      <c r="W10" s="225"/>
+      <c r="X10" s="226"/>
+      <c r="Y10" s="258"/>
+      <c r="Z10" s="258"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:26">
-      <c r="A11" s="148" t="s">
+      <c r="A11" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="149"/>
-      <c r="C11" s="149"/>
-      <c r="D11" s="149"/>
-      <c r="E11" s="149"/>
-      <c r="F11" s="149"/>
-      <c r="G11" s="149"/>
-      <c r="H11" s="149"/>
-      <c r="I11" s="200"/>
-      <c r="J11" s="201" t="s">
+      <c r="B11" s="146"/>
+      <c r="C11" s="146"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="146"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="146"/>
+      <c r="H11" s="146"/>
+      <c r="I11" s="188"/>
+      <c r="J11" s="189" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="202"/>
-      <c r="L11" s="202"/>
-      <c r="M11" s="202"/>
-      <c r="N11" s="202"/>
-      <c r="O11" s="203"/>
-      <c r="P11" s="279" t="s">
+      <c r="K11" s="190"/>
+      <c r="L11" s="190"/>
+      <c r="M11" s="190"/>
+      <c r="N11" s="190"/>
+      <c r="O11" s="191"/>
+      <c r="P11" s="270" t="s">
         <v>27</v>
       </c>
-      <c r="Q11" s="238"/>
-      <c r="R11" s="181" t="s">
+      <c r="Q11" s="229"/>
+      <c r="R11" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="S11" s="232" t="s">
+      <c r="S11" s="222" t="s">
         <v>20</v>
       </c>
-      <c r="T11" s="210"/>
-      <c r="U11" s="233"/>
-      <c r="V11" s="234"/>
-      <c r="W11" s="234"/>
-      <c r="X11" s="235"/>
-      <c r="Y11" s="267"/>
-      <c r="Z11" s="267"/>
+      <c r="T11" s="223"/>
+      <c r="U11" s="224"/>
+      <c r="V11" s="225"/>
+      <c r="W11" s="225"/>
+      <c r="X11" s="226"/>
+      <c r="Y11" s="258"/>
+      <c r="Z11" s="258"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:26">
       <c r="A12" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="150" t="s">
+      <c r="B12" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="151" t="s">
+      <c r="C12" s="148" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="151" t="s">
+      <c r="D12" s="148" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="151" t="s">
+      <c r="E12" s="148" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="151" t="s">
+      <c r="F12" s="148" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="151" t="s">
+      <c r="G12" s="148" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="150" t="s">
+      <c r="H12" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="196" t="s">
+      <c r="I12" s="193" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="280" t="s">
+      <c r="J12" s="271" t="s">
         <v>36</v>
       </c>
-      <c r="K12" s="281" t="s">
+      <c r="K12" s="272" t="s">
         <v>37</v>
       </c>
-      <c r="L12" s="281" t="s">
+      <c r="L12" s="272" t="s">
         <v>38</v>
       </c>
-      <c r="M12" s="281" t="s">
+      <c r="M12" s="272" t="s">
         <v>39</v>
       </c>
-      <c r="N12" s="175" t="s">
+      <c r="N12" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="O12" s="282" t="s">
+      <c r="O12" s="273" t="s">
         <v>41</v>
       </c>
-      <c r="P12" s="207" t="s">
+      <c r="P12" s="196" t="s">
         <v>32</v>
       </c>
-      <c r="Q12" s="239" t="s">
+      <c r="Q12" s="230" t="s">
         <v>31</v>
       </c>
-      <c r="R12" s="181" t="s">
+      <c r="R12" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="S12" s="232" t="s">
+      <c r="S12" s="222" t="s">
         <v>20</v>
       </c>
-      <c r="T12" s="210"/>
-      <c r="U12" s="233"/>
-      <c r="V12" s="234"/>
-      <c r="W12" s="234"/>
-      <c r="X12" s="235"/>
-      <c r="Y12" s="267"/>
-      <c r="Z12" s="267"/>
+      <c r="T12" s="223"/>
+      <c r="U12" s="224"/>
+      <c r="V12" s="225"/>
+      <c r="W12" s="225"/>
+      <c r="X12" s="226"/>
+      <c r="Y12" s="258"/>
+      <c r="Z12" s="258"/>
     </row>
     <row r="13" ht="35.25" customHeight="1" spans="1:26">
       <c r="A13" s="131" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="152" t="str">
+      <c r="B13" s="149" t="str">
         <f>IF(_sjmain1_day_shift!D2="","",_sjmain1_day_shift!D2)</f>
         <v/>
       </c>
-      <c r="C13" s="152" t="str">
+      <c r="C13" s="149" t="str">
         <f>IF(_sjmain1_day_shift!E2="","",_sjmain1_day_shift!E2)</f>
         <v/>
       </c>
-      <c r="D13" s="152" t="str">
+      <c r="D13" s="149" t="str">
         <f>IF(_sjmain1_day_shift!F2="","",_sjmain1_day_shift!F2)</f>
         <v/>
       </c>
-      <c r="E13" s="152" t="str">
+      <c r="E13" s="149" t="str">
         <f>IF(_sjmain1_day_shift!G2="","",_sjmain1_day_shift!G2)</f>
         <v/>
       </c>
-      <c r="F13" s="152" t="str">
+      <c r="F13" s="149" t="str">
         <f>IF(_sjmain1_day_shift!H2="","",_sjmain1_day_shift!H2)</f>
         <v/>
       </c>
-      <c r="G13" s="153" t="str">
+      <c r="G13" s="150" t="str">
         <f>IF(_sjmain1_day_shift!I2="","",_sjmain1_day_shift!I2)</f>
         <v/>
       </c>
-      <c r="H13" s="154" t="str">
+      <c r="H13" s="149" t="str">
         <f>IF(_sjmain1_day_shift!J2="","",_sjmain1_day_shift!J2)</f>
         <v/>
       </c>
-      <c r="I13" s="208" t="str">
+      <c r="I13" s="197" t="str">
         <f>IF(_sjmain1_day_shift!K2="","",_sjmain1_day_shift!K2)</f>
         <v/>
       </c>
-      <c r="J13" s="209"/>
-      <c r="K13" s="210"/>
-      <c r="L13" s="210"/>
-      <c r="M13" s="210"/>
-      <c r="N13" s="210"/>
-      <c r="O13" s="211"/>
-      <c r="P13" s="212"/>
-      <c r="Q13" s="214"/>
-      <c r="R13" s="181" t="s">
+      <c r="J13" s="198"/>
+      <c r="K13" s="199"/>
+      <c r="L13" s="199"/>
+      <c r="M13" s="199"/>
+      <c r="N13" s="199"/>
+      <c r="O13" s="200"/>
+      <c r="P13" s="137"/>
+      <c r="Q13" s="203"/>
+      <c r="R13" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="S13" s="232" t="s">
+      <c r="S13" s="222" t="s">
         <v>20</v>
       </c>
-      <c r="T13" s="210"/>
-      <c r="U13" s="233"/>
-      <c r="V13" s="234"/>
-      <c r="W13" s="234"/>
-      <c r="X13" s="235"/>
-      <c r="Y13" s="267"/>
-      <c r="Z13" s="267"/>
+      <c r="T13" s="223"/>
+      <c r="U13" s="224"/>
+      <c r="V13" s="225"/>
+      <c r="W13" s="225"/>
+      <c r="X13" s="226"/>
+      <c r="Y13" s="258"/>
+      <c r="Z13" s="258"/>
     </row>
     <row r="14" ht="30" customHeight="1" spans="1:26">
       <c r="A14" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="152" t="str">
+      <c r="B14" s="149" t="str">
         <f>IF(_sjmain1_day_shift!D3="","",_sjmain1_day_shift!D3)</f>
         <v/>
       </c>
-      <c r="C14" s="152" t="str">
+      <c r="C14" s="149" t="str">
         <f>IF(_sjmain1_day_shift!E3="","",_sjmain1_day_shift!E3)</f>
         <v/>
       </c>
-      <c r="D14" s="152" t="str">
+      <c r="D14" s="149" t="str">
         <f>IF(_sjmain1_day_shift!F3="","",_sjmain1_day_shift!F3)</f>
         <v/>
       </c>
-      <c r="E14" s="152" t="str">
+      <c r="E14" s="149" t="str">
         <f>IF(_sjmain1_day_shift!G3="","",_sjmain1_day_shift!G3)</f>
         <v/>
       </c>
-      <c r="F14" s="152" t="str">
+      <c r="F14" s="149" t="str">
         <f>IF(_sjmain1_day_shift!H3="","",_sjmain1_day_shift!H3)</f>
         <v/>
       </c>
-      <c r="G14" s="152" t="str">
+      <c r="G14" s="149" t="str">
         <f>IF(_sjmain1_day_shift!I3="","",_sjmain1_day_shift!I3)</f>
         <v/>
       </c>
-      <c r="H14" s="154" t="str">
+      <c r="H14" s="149" t="str">
         <f>IF(_sjmain1_day_shift!J3="","",_sjmain1_day_shift!J3)</f>
         <v/>
       </c>
-      <c r="I14" s="213" t="str">
+      <c r="I14" s="201" t="str">
         <f>IF(_sjmain1_day_shift!K3="","",_sjmain1_day_shift!K3)</f>
         <v/>
       </c>
-      <c r="J14" s="209"/>
-      <c r="K14" s="210"/>
-      <c r="L14" s="210"/>
-      <c r="M14" s="210"/>
-      <c r="O14" s="214"/>
-      <c r="P14" s="212"/>
-      <c r="Q14" s="214"/>
-      <c r="R14" s="232" t="s">
+      <c r="J14" s="198"/>
+      <c r="K14" s="199"/>
+      <c r="L14" s="199"/>
+      <c r="M14" s="199"/>
+      <c r="N14" s="202"/>
+      <c r="O14" s="203"/>
+      <c r="P14" s="137"/>
+      <c r="Q14" s="203"/>
+      <c r="R14" s="222" t="s">
         <v>20</v>
       </c>
-      <c r="S14" s="240" t="s">
+      <c r="S14" s="231" t="s">
         <v>20</v>
       </c>
-      <c r="T14" s="210"/>
-      <c r="U14" s="233"/>
-      <c r="V14" s="234"/>
-      <c r="W14" s="234"/>
-      <c r="X14" s="235"/>
-      <c r="Y14" s="267"/>
-      <c r="Z14" s="267"/>
+      <c r="T14" s="223"/>
+      <c r="U14" s="224"/>
+      <c r="V14" s="225"/>
+      <c r="W14" s="225"/>
+      <c r="X14" s="226"/>
+      <c r="Y14" s="258"/>
+      <c r="Z14" s="258"/>
     </row>
     <row r="15" ht="30" customHeight="1" spans="1:26">
-      <c r="A15" s="143" t="s">
+      <c r="A15" s="140" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="152" t="str">
+      <c r="B15" s="149" t="str">
         <f>IF(_sjmain1_day_shift!D4="","",_sjmain1_day_shift!D4)</f>
         <v/>
       </c>
-      <c r="C15" s="152" t="str">
+      <c r="C15" s="149" t="str">
         <f>IF(_sjmain1_day_shift!E4="","",_sjmain1_day_shift!E4)</f>
         <v/>
       </c>
-      <c r="D15" s="152" t="str">
+      <c r="D15" s="149" t="str">
         <f>IF(_sjmain1_day_shift!F4="","",_sjmain1_day_shift!F4)</f>
         <v/>
       </c>
-      <c r="E15" s="152" t="str">
+      <c r="E15" s="149" t="str">
         <f>IF(_sjmain1_day_shift!G4="","",_sjmain1_day_shift!G4)</f>
         <v/>
       </c>
-      <c r="F15" s="152" t="str">
+      <c r="F15" s="149" t="str">
         <f>IF(_sjmain1_day_shift!H4="","",_sjmain1_day_shift!H4)</f>
         <v/>
       </c>
-      <c r="G15" s="152" t="str">
+      <c r="G15" s="149" t="str">
         <f>IF(_sjmain1_day_shift!I4="","",_sjmain1_day_shift!I4)</f>
         <v/>
       </c>
-      <c r="H15" s="154" t="str">
+      <c r="H15" s="149" t="str">
         <f>IF(_sjmain1_day_shift!J4="","",_sjmain1_day_shift!J4)</f>
         <v/>
       </c>
-      <c r="I15" s="215" t="str">
+      <c r="I15" s="204" t="str">
         <f>IF(_sjmain1_day_shift!K4="","",_sjmain1_day_shift!K4)</f>
         <v/>
       </c>
-      <c r="J15" s="216"/>
-      <c r="K15" s="217"/>
-      <c r="L15" s="217"/>
-      <c r="M15" s="217"/>
-      <c r="N15" s="217"/>
-      <c r="O15" s="218"/>
-      <c r="P15" s="219"/>
-      <c r="Q15" s="241"/>
-      <c r="R15" s="242" t="s">
+      <c r="J15" s="205"/>
+      <c r="K15" s="206"/>
+      <c r="L15" s="206"/>
+      <c r="M15" s="206"/>
+      <c r="N15" s="206"/>
+      <c r="O15" s="207"/>
+      <c r="P15" s="208"/>
+      <c r="Q15" s="232"/>
+      <c r="R15" s="233" t="s">
         <v>20</v>
       </c>
-      <c r="S15" s="240" t="s">
+      <c r="S15" s="231" t="s">
         <v>20</v>
       </c>
-      <c r="T15" s="210"/>
-      <c r="U15" s="243"/>
-      <c r="V15" s="244"/>
-      <c r="W15" s="244"/>
-      <c r="X15" s="245"/>
-      <c r="Y15" s="267"/>
-      <c r="Z15" s="267"/>
+      <c r="T15" s="223"/>
+      <c r="U15" s="234"/>
+      <c r="V15" s="235"/>
+      <c r="W15" s="235"/>
+      <c r="X15" s="236"/>
+      <c r="Y15" s="258"/>
+      <c r="Z15" s="258"/>
     </row>
     <row r="16" ht="30" customHeight="1" spans="1:26">
-      <c r="A16" s="155" t="s">
+      <c r="A16" s="151" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="156"/>
-      <c r="C16" s="156"/>
-      <c r="D16" s="156"/>
-      <c r="E16" s="157"/>
-      <c r="F16" s="155" t="s">
+      <c r="B16" s="152"/>
+      <c r="C16" s="152"/>
+      <c r="D16" s="152"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="151" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="156"/>
-      <c r="H16" s="156"/>
-      <c r="I16" s="156"/>
-      <c r="J16" s="156"/>
-      <c r="K16" s="156"/>
-      <c r="L16" s="156"/>
-      <c r="M16" s="156"/>
-      <c r="N16" s="156"/>
-      <c r="O16" s="156"/>
-      <c r="P16" s="156"/>
-      <c r="Q16" s="157"/>
-      <c r="R16" s="242" t="s">
+      <c r="G16" s="152"/>
+      <c r="H16" s="152"/>
+      <c r="I16" s="152"/>
+      <c r="J16" s="152"/>
+      <c r="K16" s="152"/>
+      <c r="L16" s="152"/>
+      <c r="M16" s="152"/>
+      <c r="N16" s="152"/>
+      <c r="O16" s="152"/>
+      <c r="P16" s="152"/>
+      <c r="Q16" s="153"/>
+      <c r="R16" s="233" t="s">
         <v>20</v>
       </c>
-      <c r="S16" s="240" t="s">
+      <c r="S16" s="231" t="s">
         <v>20</v>
       </c>
-      <c r="T16" s="210"/>
-      <c r="U16" s="243"/>
-      <c r="V16" s="244"/>
-      <c r="W16" s="244"/>
-      <c r="X16" s="245"/>
-      <c r="Y16" s="267"/>
-      <c r="Z16" s="267"/>
+      <c r="T16" s="223"/>
+      <c r="U16" s="234"/>
+      <c r="V16" s="235"/>
+      <c r="W16" s="235"/>
+      <c r="X16" s="236"/>
+      <c r="Y16" s="258"/>
+      <c r="Z16" s="258"/>
     </row>
     <row r="17" ht="30" customHeight="1" spans="1:26">
-      <c r="A17" s="158" t="s">
+      <c r="A17" s="154" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="151" t="s">
+      <c r="B17" s="148" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="151" t="s">
+      <c r="C17" s="148" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="151" t="s">
+      <c r="D17" s="148" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="159" t="s">
+      <c r="E17" s="155" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="160" t="s">
+      <c r="F17" s="156" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="161" t="s">
+      <c r="G17" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="161" t="s">
+      <c r="H17" s="157" t="s">
         <v>47</v>
       </c>
-      <c r="I17" s="161" t="s">
+      <c r="I17" s="157" t="s">
         <v>48</v>
       </c>
-      <c r="J17" s="161" t="s">
+      <c r="J17" s="157" t="s">
         <v>49</v>
       </c>
-      <c r="K17" s="161" t="s">
+      <c r="K17" s="157" t="s">
         <v>50</v>
       </c>
-      <c r="L17" s="161" t="s">
+      <c r="L17" s="157" t="s">
         <v>51</v>
       </c>
-      <c r="M17" s="161" t="s">
+      <c r="M17" s="157" t="s">
         <v>52</v>
       </c>
-      <c r="N17" s="161" t="s">
+      <c r="N17" s="157" t="s">
         <v>53</v>
       </c>
-      <c r="O17" s="161" t="s">
+      <c r="O17" s="157" t="s">
         <v>54</v>
       </c>
-      <c r="P17" s="161" t="s">
+      <c r="P17" s="157" t="s">
         <v>55</v>
       </c>
-      <c r="Q17" s="246" t="s">
+      <c r="Q17" s="237" t="s">
         <v>56</v>
       </c>
-      <c r="R17" s="242" t="s">
+      <c r="R17" s="233" t="s">
         <v>20</v>
       </c>
-      <c r="S17" s="240" t="s">
+      <c r="S17" s="231" t="s">
         <v>20</v>
       </c>
-      <c r="T17" s="210"/>
-      <c r="U17" s="243"/>
-      <c r="V17" s="244"/>
-      <c r="W17" s="244"/>
-      <c r="X17" s="245"/>
-      <c r="Y17" s="267"/>
-      <c r="Z17" s="267"/>
+      <c r="T17" s="223"/>
+      <c r="U17" s="234"/>
+      <c r="V17" s="235"/>
+      <c r="W17" s="235"/>
+      <c r="X17" s="236"/>
+      <c r="Y17" s="258"/>
+      <c r="Z17" s="258"/>
     </row>
     <row r="18" customFormat="1" ht="48.95" customHeight="1" spans="1:26">
-      <c r="A18" s="162"/>
-      <c r="B18" s="163"/>
-      <c r="C18" s="164"/>
-      <c r="D18" s="164"/>
-      <c r="E18" s="165"/>
-      <c r="F18" s="166" t="str">
+      <c r="A18" s="158"/>
+      <c r="B18" s="159"/>
+      <c r="C18" s="160"/>
+      <c r="D18" s="160"/>
+      <c r="E18" s="161"/>
+      <c r="F18" s="160" t="str">
         <f>IF(_sjmain2_day_shift!A2="","",_sjmain2_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="G18" s="166" t="str">
+      <c r="G18" s="160" t="str">
         <f>IF(_sjmain2_day_shift!B2="","",_sjmain2_day_shift!B2)</f>
         <v/>
       </c>
-      <c r="H18" s="166" t="str">
+      <c r="H18" s="160" t="str">
         <f>IF(_sjmain2_day_shift!C2="","",_sjmain2_day_shift!C2)</f>
         <v/>
       </c>
-      <c r="I18" s="166" t="str">
+      <c r="I18" s="160" t="str">
         <f>IF(_sjmain2_day_shift!D2="","",_sjmain2_day_shift!D2)</f>
         <v/>
       </c>
-      <c r="J18" s="166" t="str">
+      <c r="J18" s="160" t="str">
         <f>IF(_sjmain2_day_shift!E2="","",_sjmain2_day_shift!E2)</f>
         <v/>
       </c>
-      <c r="K18" s="166" t="str">
+      <c r="K18" s="160" t="str">
         <f>IF(_sjmain2_day_shift!F2="","",_sjmain2_day_shift!F2)</f>
         <v/>
       </c>
-      <c r="L18" s="166" t="str">
+      <c r="L18" s="160" t="str">
         <f>IF(_sjmain2_day_shift!G2="","",_sjmain2_day_shift!G2)</f>
         <v/>
       </c>
-      <c r="M18" s="166" t="str">
+      <c r="M18" s="160" t="str">
         <f>IF(_sjmain2_day_shift!H2="","",_sjmain2_day_shift!H2)</f>
         <v/>
       </c>
-      <c r="N18" s="166" t="str">
+      <c r="N18" s="160" t="str">
         <f>IF(_sjmain2_day_shift!I2="","",_sjmain2_day_shift!I2)</f>
         <v/>
       </c>
-      <c r="O18" s="166" t="str">
+      <c r="O18" s="160" t="str">
         <f>IF(_sjmain2_day_shift!J2="","",_sjmain2_day_shift!J2)</f>
         <v/>
       </c>
-      <c r="P18" s="166" t="str">
+      <c r="P18" s="160" t="str">
         <f>IF(_sjmain2_day_shift!K2="","",_sjmain2_day_shift!K2)</f>
         <v/>
       </c>
-      <c r="Q18" s="247" t="str">
+      <c r="Q18" s="238" t="str">
         <f>IF(_sjmain2_day_shift!L2="","",_sjmain2_day_shift!L2)</f>
         <v/>
       </c>
-      <c r="R18" s="248"/>
-      <c r="S18" s="240"/>
-      <c r="T18" s="210"/>
-      <c r="U18" s="243"/>
-      <c r="V18" s="244"/>
-      <c r="W18" s="244"/>
-      <c r="X18" s="245"/>
-      <c r="Y18" s="267"/>
-      <c r="Z18" s="267"/>
+      <c r="R18" s="239"/>
+      <c r="S18" s="231"/>
+      <c r="T18" s="223"/>
+      <c r="U18" s="234"/>
+      <c r="V18" s="235"/>
+      <c r="W18" s="235"/>
+      <c r="X18" s="236"/>
+      <c r="Y18" s="258"/>
+      <c r="Z18" s="258"/>
     </row>
     <row r="19" s="118" customFormat="1" ht="45.95" customHeight="1" spans="1:26">
-      <c r="A19" s="162"/>
-      <c r="B19" s="163"/>
-      <c r="C19" s="164"/>
-      <c r="D19" s="164"/>
-      <c r="E19" s="165"/>
-      <c r="F19" s="166" t="str">
+      <c r="A19" s="158"/>
+      <c r="B19" s="159"/>
+      <c r="C19" s="160"/>
+      <c r="D19" s="160"/>
+      <c r="E19" s="161"/>
+      <c r="F19" s="160" t="str">
         <f>IF(_sjmain2_day_shift!A3="","",_sjmain2_day_shift!A3)</f>
         <v/>
       </c>
-      <c r="G19" s="166" t="str">
+      <c r="G19" s="160" t="str">
         <f>IF(_sjmain2_day_shift!B3="","",_sjmain2_day_shift!B3)</f>
         <v/>
       </c>
-      <c r="H19" s="166" t="str">
+      <c r="H19" s="160" t="str">
         <f>IF(_sjmain2_day_shift!C3="","",_sjmain2_day_shift!C3)</f>
         <v/>
       </c>
-      <c r="I19" s="166" t="str">
+      <c r="I19" s="160" t="str">
         <f>IF(_sjmain2_day_shift!D3="","",_sjmain2_day_shift!D3)</f>
         <v/>
       </c>
-      <c r="J19" s="166" t="str">
+      <c r="J19" s="160" t="str">
         <f>IF(_sjmain2_day_shift!E3="","",_sjmain2_day_shift!E3)</f>
         <v/>
       </c>
-      <c r="K19" s="166" t="str">
+      <c r="K19" s="160" t="str">
         <f>IF(_sjmain2_day_shift!F3="","",_sjmain2_day_shift!F3)</f>
         <v/>
       </c>
-      <c r="L19" s="166" t="str">
+      <c r="L19" s="160" t="str">
         <f>IF(_sjmain2_day_shift!G3="","",_sjmain2_day_shift!G3)</f>
         <v/>
       </c>
-      <c r="M19" s="166" t="str">
+      <c r="M19" s="160" t="str">
         <f>IF(_sjmain2_day_shift!H3="","",_sjmain2_day_shift!H3)</f>
         <v/>
       </c>
-      <c r="N19" s="166" t="str">
+      <c r="N19" s="160" t="str">
         <f>IF(_sjmain2_day_shift!I3="","",_sjmain2_day_shift!I3)</f>
         <v/>
       </c>
-      <c r="O19" s="166" t="str">
+      <c r="O19" s="160" t="str">
         <f>IF(_sjmain2_day_shift!J3="","",_sjmain2_day_shift!J3)</f>
         <v/>
       </c>
-      <c r="P19" s="166" t="str">
+      <c r="P19" s="160" t="str">
         <f>IF(_sjmain2_day_shift!K3="","",_sjmain2_day_shift!K3)</f>
         <v/>
       </c>
-      <c r="Q19" s="247" t="str">
+      <c r="Q19" s="238" t="str">
         <f>IF(_sjmain2_day_shift!L3="","",_sjmain2_day_shift!L3)</f>
         <v/>
       </c>
-      <c r="R19" s="249"/>
-      <c r="S19" s="250"/>
-      <c r="T19" s="251"/>
-      <c r="U19" s="243"/>
-      <c r="V19" s="244"/>
-      <c r="W19" s="244"/>
-      <c r="X19" s="245"/>
-      <c r="Y19" s="268"/>
-      <c r="Z19" s="268"/>
+      <c r="R19" s="240"/>
+      <c r="S19" s="241"/>
+      <c r="T19" s="242"/>
+      <c r="U19" s="234"/>
+      <c r="V19" s="235"/>
+      <c r="W19" s="235"/>
+      <c r="X19" s="236"/>
+      <c r="Y19" s="259"/>
+      <c r="Z19" s="259"/>
     </row>
     <row r="20" ht="48" customHeight="1" spans="1:26">
-      <c r="A20" s="167"/>
-      <c r="B20" s="167"/>
-      <c r="C20" s="168"/>
-      <c r="D20" s="168"/>
-      <c r="E20" s="167"/>
-      <c r="F20" s="169" t="str">
+      <c r="A20" s="162"/>
+      <c r="B20" s="162"/>
+      <c r="C20" s="163"/>
+      <c r="D20" s="163"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="163" t="str">
         <f>IF(_sjmain2_day_shift!A4="","",_sjmain2_day_shift!A4)</f>
         <v/>
       </c>
-      <c r="G20" s="169" t="str">
+      <c r="G20" s="163" t="str">
         <f>IF(_sjmain2_day_shift!B4="","",_sjmain2_day_shift!B4)</f>
         <v/>
       </c>
-      <c r="H20" s="169" t="str">
+      <c r="H20" s="163" t="str">
         <f>IF(_sjmain2_day_shift!C4="","",_sjmain2_day_shift!C4)</f>
         <v/>
       </c>
-      <c r="I20" s="169" t="str">
+      <c r="I20" s="163" t="str">
         <f>IF(_sjmain2_day_shift!D4="","",_sjmain2_day_shift!D4)</f>
         <v/>
       </c>
-      <c r="J20" s="169" t="str">
+      <c r="J20" s="163" t="str">
         <f>IF(_sjmain2_day_shift!E4="","",_sjmain2_day_shift!E4)</f>
         <v/>
       </c>
-      <c r="K20" s="169" t="str">
+      <c r="K20" s="163" t="str">
         <f>IF(_sjmain2_day_shift!F4="","",_sjmain2_day_shift!F4)</f>
         <v/>
       </c>
-      <c r="L20" s="169" t="str">
+      <c r="L20" s="163" t="str">
         <f>IF(_sjmain2_day_shift!G4="","",_sjmain2_day_shift!G4)</f>
         <v/>
       </c>
-      <c r="M20" s="169" t="str">
+      <c r="M20" s="163" t="str">
         <f>IF(_sjmain2_day_shift!H4="","",_sjmain2_day_shift!H4)</f>
         <v/>
       </c>
-      <c r="N20" s="169" t="str">
+      <c r="N20" s="163" t="str">
         <f>IF(_sjmain2_day_shift!I4="","",_sjmain2_day_shift!I4)</f>
         <v/>
       </c>
-      <c r="O20" s="169" t="str">
+      <c r="O20" s="163" t="str">
         <f>IF(_sjmain2_day_shift!J4="","",_sjmain2_day_shift!J4)</f>
         <v/>
       </c>
-      <c r="P20" s="169" t="str">
+      <c r="P20" s="163" t="str">
         <f>IF(_sjmain2_day_shift!K4="","",_sjmain2_day_shift!K4)</f>
         <v/>
       </c>
-      <c r="Q20" s="247" t="str">
+      <c r="Q20" s="238" t="str">
         <f>IF(_sjmain2_day_shift!L4="","",_sjmain2_day_shift!L4)</f>
         <v/>
       </c>
-      <c r="R20" s="248"/>
-      <c r="S20" s="240"/>
-      <c r="T20" s="210"/>
-      <c r="U20" s="243"/>
-      <c r="V20" s="244"/>
-      <c r="W20" s="244"/>
-      <c r="X20" s="245"/>
-      <c r="Y20" s="267"/>
-      <c r="Z20" s="267"/>
+      <c r="R20" s="239"/>
+      <c r="S20" s="231"/>
+      <c r="T20" s="223"/>
+      <c r="U20" s="234"/>
+      <c r="V20" s="235"/>
+      <c r="W20" s="235"/>
+      <c r="X20" s="236"/>
+      <c r="Y20" s="258"/>
+      <c r="Z20" s="258"/>
     </row>
     <row r="21" ht="30.95" customHeight="1" spans="1:26">
-      <c r="A21" s="170" t="s">
+      <c r="A21" s="164" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="171"/>
-      <c r="C21" s="171"/>
-      <c r="D21" s="171"/>
-      <c r="E21" s="171"/>
-      <c r="F21" s="171"/>
-      <c r="G21" s="171"/>
-      <c r="H21" s="171"/>
-      <c r="I21" s="171"/>
-      <c r="J21" s="171"/>
-      <c r="K21" s="171"/>
-      <c r="L21" s="171"/>
-      <c r="M21" s="171"/>
-      <c r="N21" s="171"/>
-      <c r="O21" s="171"/>
-      <c r="P21" s="171"/>
-      <c r="Q21" s="252"/>
+      <c r="B21" s="165"/>
+      <c r="C21" s="165"/>
+      <c r="D21" s="165"/>
+      <c r="E21" s="165"/>
+      <c r="F21" s="165"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="165"/>
+      <c r="I21" s="165"/>
+      <c r="J21" s="165"/>
+      <c r="K21" s="165"/>
+      <c r="L21" s="165"/>
+      <c r="M21" s="165"/>
+      <c r="N21" s="165"/>
+      <c r="O21" s="165"/>
+      <c r="P21" s="165"/>
+      <c r="Q21" s="243"/>
       <c r="R21" s="110" t="s">
         <v>58</v>
       </c>
       <c r="S21" s="111"/>
-      <c r="T21" s="253"/>
-      <c r="U21" s="254"/>
-      <c r="V21" s="255"/>
-      <c r="W21" s="255"/>
-      <c r="X21" s="256"/>
-      <c r="Y21" s="267"/>
-      <c r="Z21" s="267"/>
+      <c r="T21" s="244"/>
+      <c r="U21" s="245"/>
+      <c r="V21" s="246"/>
+      <c r="W21" s="246"/>
+      <c r="X21" s="247"/>
+      <c r="Y21" s="258"/>
+      <c r="Z21" s="258"/>
     </row>
     <row r="22" ht="30.95" customHeight="1" spans="1:26">
       <c r="A22" s="131" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="172" t="s">
+      <c r="B22" s="166" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="173"/>
-      <c r="D22" s="174" t="s">
+      <c r="C22" s="167"/>
+      <c r="D22" s="168" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="174" t="s">
+      <c r="E22" s="168" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="174" t="s">
+      <c r="F22" s="168" t="s">
         <v>63</v>
       </c>
-      <c r="G22" s="174" t="s">
+      <c r="G22" s="168" t="s">
         <v>64</v>
       </c>
-      <c r="H22" s="175" t="s">
+      <c r="H22" s="169" t="s">
         <v>65</v>
       </c>
-      <c r="I22" s="175" t="s">
+      <c r="I22" s="169" t="s">
         <v>66</v>
       </c>
-      <c r="J22" s="175" t="s">
+      <c r="J22" s="169" t="s">
         <v>67</v>
       </c>
-      <c r="K22" s="175" t="s">
+      <c r="K22" s="169" t="s">
         <v>68</v>
       </c>
-      <c r="L22" s="175" t="s">
+      <c r="L22" s="169" t="s">
         <v>69</v>
       </c>
-      <c r="M22" s="175" t="s">
+      <c r="M22" s="169" t="s">
         <v>70</v>
       </c>
-      <c r="N22" s="150" t="s">
+      <c r="N22" s="147" t="s">
         <v>71</v>
       </c>
-      <c r="O22" s="150" t="s">
+      <c r="O22" s="147" t="s">
         <v>72</v>
       </c>
-      <c r="P22" s="150" t="s">
+      <c r="P22" s="147" t="s">
         <v>73</v>
       </c>
-      <c r="Q22" s="239" t="s">
+      <c r="Q22" s="230" t="s">
         <v>74</v>
       </c>
-      <c r="R22" s="232" t="s">
+      <c r="R22" s="222" t="s">
         <v>20</v>
       </c>
-      <c r="S22" s="232" t="s">
+      <c r="S22" s="222" t="s">
         <v>20</v>
       </c>
-      <c r="T22" s="210"/>
-      <c r="U22" s="233"/>
-      <c r="V22" s="234"/>
-      <c r="W22" s="234"/>
-      <c r="X22" s="235"/>
-      <c r="Y22" s="267"/>
-      <c r="Z22" s="267"/>
+      <c r="T22" s="223"/>
+      <c r="U22" s="224"/>
+      <c r="V22" s="225"/>
+      <c r="W22" s="225"/>
+      <c r="X22" s="226"/>
+      <c r="Y22" s="258"/>
+      <c r="Z22" s="258"/>
     </row>
     <row r="23" ht="30.95" customHeight="1" spans="1:26">
-      <c r="A23" s="176" t="str">
+      <c r="A23" s="170" t="str">
         <f>IF(_sjmain4_day_shift!A2="","",_sjmain4_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="B23" s="177" t="str">
+      <c r="B23" s="171" t="str">
         <f>IF(_sjmain4_day_shift!B2="","",_sjmain4_day_shift!B2)</f>
         <v/>
       </c>
-      <c r="C23" s="178"/>
-      <c r="D23" s="179" t="str">
+      <c r="C23" s="172"/>
+      <c r="D23" s="173" t="str">
         <f>IF(_sjmain4_day_shift!D2="","",_sjmain4_day_shift!D2)</f>
         <v/>
       </c>
-      <c r="E23" s="179" t="str">
+      <c r="E23" s="173" t="str">
         <f>IF(_sjmain4_day_shift!E2="","",_sjmain4_day_shift!E2)</f>
         <v/>
       </c>
-      <c r="F23" s="179" t="str">
+      <c r="F23" s="173" t="str">
         <f>IF(_sjmain4_day_shift!F2="","",_sjmain4_day_shift!F2)</f>
         <v/>
       </c>
-      <c r="G23" s="179" t="str">
+      <c r="G23" s="173" t="str">
         <f>IF(_sjmain4_day_shift!G2="","",_sjmain4_day_shift!G2)</f>
         <v/>
       </c>
-      <c r="H23" s="180" t="str">
+      <c r="H23" s="174" t="str">
         <f>IF(_sjmain4_day_shift!H2="","",_sjmain4_day_shift!H2)</f>
         <v/>
       </c>
-      <c r="I23" s="220" t="str">
+      <c r="I23" s="209" t="str">
         <f>IF(_sjmain4_day_shift!I2="","",_sjmain4_day_shift!I2)</f>
         <v/>
       </c>
-      <c r="J23" s="220" t="str">
+      <c r="J23" s="209" t="str">
         <f>IF(_sjmain4_day_shift!J2="","",_sjmain4_day_shift!J2)</f>
         <v/>
       </c>
-      <c r="K23" s="180" t="str">
+      <c r="K23" s="174" t="str">
         <f>IF(_sjmain4_day_shift!K2="","",_sjmain4_day_shift!K2)</f>
         <v/>
       </c>
-      <c r="L23" s="180" t="str">
+      <c r="L23" s="174" t="str">
         <f>IF(_sjmain4_day_shift!L2="","",_sjmain4_day_shift!L2)</f>
         <v/>
       </c>
-      <c r="M23" s="180" t="str">
+      <c r="M23" s="174" t="str">
         <f>IF(_sjmain4_day_shift!M2="","",_sjmain4_day_shift!M2)</f>
         <v/>
       </c>
-      <c r="N23" s="180" t="str">
+      <c r="N23" s="174" t="str">
         <f>IF(_sjmain4_day_shift!N2="","",_sjmain4_day_shift!N2)</f>
         <v/>
       </c>
-      <c r="O23" s="180" t="str">
+      <c r="O23" s="174" t="str">
         <f>IF(_sjmain4_day_shift!O2="","",_sjmain4_day_shift!O2)</f>
         <v/>
       </c>
-      <c r="P23" s="221" t="str">
+      <c r="P23" s="210" t="str">
         <f>IF(_sjmain4_day_shift!P2="","",_sjmain4_day_shift!P2)</f>
         <v/>
       </c>
-      <c r="Q23" s="257" t="str">
+      <c r="Q23" s="248" t="str">
         <f>IF(_sjmain4_day_shift!Q2="","",_sjmain4_day_shift!Q2)</f>
         <v/>
       </c>
-      <c r="R23" s="242" t="s">
+      <c r="R23" s="233" t="s">
         <v>20</v>
       </c>
-      <c r="S23" s="240" t="s">
+      <c r="S23" s="231" t="s">
         <v>20</v>
       </c>
-      <c r="T23" s="210"/>
-      <c r="U23" s="233"/>
-      <c r="V23" s="234"/>
-      <c r="W23" s="234"/>
-      <c r="X23" s="235"/>
-      <c r="Y23" s="267"/>
-      <c r="Z23" s="267"/>
+      <c r="T23" s="223"/>
+      <c r="U23" s="224"/>
+      <c r="V23" s="225"/>
+      <c r="W23" s="225"/>
+      <c r="X23" s="226"/>
+      <c r="Y23" s="258"/>
+      <c r="Z23" s="258"/>
     </row>
     <row r="24" ht="30.75" customHeight="1" spans="1:26">
-      <c r="A24" s="181" t="str">
+      <c r="A24" s="175" t="str">
         <f>IF(_sjmain4_day_shift!A3="","",_sjmain4_day_shift!A3)</f>
         <v/>
       </c>
-      <c r="B24" s="182" t="str">
+      <c r="B24" s="176" t="str">
         <f>IF(_sjmain4_day_shift!B3="","",_sjmain4_day_shift!B3)</f>
         <v/>
       </c>
-      <c r="C24" s="183"/>
-      <c r="D24" s="180" t="str">
+      <c r="C24" s="177"/>
+      <c r="D24" s="174" t="str">
         <f>IF(_sjmain4_day_shift!D3="","",_sjmain4_day_shift!D3)</f>
         <v/>
       </c>
-      <c r="E24" s="180" t="str">
+      <c r="E24" s="174" t="str">
         <f>IF(_sjmain4_day_shift!E3="","",_sjmain4_day_shift!E3)</f>
         <v/>
       </c>
-      <c r="F24" s="180" t="str">
+      <c r="F24" s="174" t="str">
         <f>IF(_sjmain4_day_shift!F3="","",_sjmain4_day_shift!F3)</f>
         <v/>
       </c>
-      <c r="G24" s="180" t="str">
+      <c r="G24" s="174" t="str">
         <f>IF(_sjmain4_day_shift!G3="","",_sjmain4_day_shift!G3)</f>
         <v/>
       </c>
-      <c r="H24" s="180" t="str">
+      <c r="H24" s="174" t="str">
         <f>IF(_sjmain4_day_shift!H3="","",_sjmain4_day_shift!H3)</f>
         <v/>
       </c>
-      <c r="I24" s="220" t="str">
+      <c r="I24" s="209" t="str">
         <f>IF(_sjmain4_day_shift!I3="","",_sjmain4_day_shift!I3)</f>
         <v/>
       </c>
-      <c r="J24" s="220" t="str">
+      <c r="J24" s="209" t="str">
         <f>IF(_sjmain4_day_shift!J3="","",_sjmain4_day_shift!J3)</f>
         <v/>
       </c>
-      <c r="K24" s="180" t="str">
+      <c r="K24" s="174" t="str">
         <f>IF(_sjmain4_day_shift!K3="","",_sjmain4_day_shift!K3)</f>
         <v/>
       </c>
-      <c r="L24" s="180" t="str">
+      <c r="L24" s="174" t="str">
         <f>IF(_sjmain4_day_shift!L3="","",_sjmain4_day_shift!L3)</f>
         <v/>
       </c>
-      <c r="M24" s="180" t="str">
+      <c r="M24" s="174" t="str">
         <f>IF(_sjmain4_day_shift!M3="","",_sjmain4_day_shift!M3)</f>
         <v/>
       </c>
-      <c r="N24" s="180" t="str">
+      <c r="N24" s="174" t="str">
         <f>IF(_sjmain4_day_shift!N3="","",_sjmain4_day_shift!N3)</f>
         <v/>
       </c>
-      <c r="O24" s="180" t="str">
+      <c r="O24" s="174" t="str">
         <f>IF(_sjmain4_day_shift!O3="","",_sjmain4_day_shift!O3)</f>
         <v/>
       </c>
-      <c r="P24" s="221"/>
-      <c r="Q24" s="257"/>
-      <c r="R24" s="242" t="s">
+      <c r="P24" s="210"/>
+      <c r="Q24" s="248"/>
+      <c r="R24" s="233" t="s">
         <v>20</v>
       </c>
-      <c r="S24" s="240" t="s">
+      <c r="S24" s="231" t="s">
         <v>20</v>
       </c>
-      <c r="T24" s="210"/>
-      <c r="U24" s="233"/>
-      <c r="V24" s="234"/>
-      <c r="W24" s="234"/>
-      <c r="X24" s="235"/>
-      <c r="Y24" s="267"/>
-      <c r="Z24" s="267"/>
+      <c r="T24" s="223"/>
+      <c r="U24" s="224"/>
+      <c r="V24" s="225"/>
+      <c r="W24" s="225"/>
+      <c r="X24" s="226"/>
+      <c r="Y24" s="258"/>
+      <c r="Z24" s="258"/>
     </row>
     <row r="25" ht="30.95" customHeight="1" spans="1:26">
-      <c r="A25" s="181" t="str">
+      <c r="A25" s="175" t="str">
         <f>IF(_sjmain4_day_shift!A4="","",_sjmain4_day_shift!A4)</f>
         <v/>
       </c>
-      <c r="B25" s="182" t="str">
+      <c r="B25" s="176" t="str">
         <f>IF(_sjmain4_day_shift!B4="","",_sjmain4_day_shift!B4)</f>
         <v/>
       </c>
-      <c r="C25" s="183"/>
-      <c r="D25" s="180" t="str">
+      <c r="C25" s="177"/>
+      <c r="D25" s="174" t="str">
         <f>IF(_sjmain4_day_shift!D4="","",_sjmain4_day_shift!D4)</f>
         <v/>
       </c>
-      <c r="E25" s="180" t="str">
+      <c r="E25" s="174" t="str">
         <f>IF(_sjmain4_day_shift!E4="","",_sjmain4_day_shift!E4)</f>
         <v/>
       </c>
-      <c r="F25" s="180" t="str">
+      <c r="F25" s="174" t="str">
         <f>IF(_sjmain4_day_shift!F4="","",_sjmain4_day_shift!F4)</f>
         <v/>
       </c>
-      <c r="G25" s="180" t="str">
+      <c r="G25" s="174" t="str">
         <f>IF(_sjmain4_day_shift!G4="","",_sjmain4_day_shift!G4)</f>
         <v/>
       </c>
-      <c r="H25" s="180" t="str">
+      <c r="H25" s="174" t="str">
         <f>IF(_sjmain4_day_shift!H4="","",_sjmain4_day_shift!H4)</f>
         <v/>
       </c>
-      <c r="I25" s="220" t="str">
+      <c r="I25" s="209" t="str">
         <f>IF(_sjmain4_day_shift!I4="","",_sjmain4_day_shift!I4)</f>
         <v/>
       </c>
-      <c r="J25" s="220" t="str">
+      <c r="J25" s="209" t="str">
         <f>IF(_sjmain4_day_shift!J4="","",_sjmain4_day_shift!J4)</f>
         <v/>
       </c>
-      <c r="K25" s="180" t="str">
+      <c r="K25" s="174" t="str">
         <f>IF(_sjmain4_day_shift!K4="","",_sjmain4_day_shift!K4)</f>
         <v/>
       </c>
-      <c r="L25" s="180" t="str">
+      <c r="L25" s="174" t="str">
         <f>IF(_sjmain4_day_shift!L4="","",_sjmain4_day_shift!L4)</f>
         <v/>
       </c>
-      <c r="M25" s="180" t="str">
+      <c r="M25" s="174" t="str">
         <f>IF(_sjmain4_day_shift!M4="","",_sjmain4_day_shift!M4)</f>
         <v/>
       </c>
-      <c r="N25" s="180" t="str">
+      <c r="N25" s="174" t="str">
         <f>IF(_sjmain4_day_shift!N4="","",_sjmain4_day_shift!N4)</f>
         <v/>
       </c>
-      <c r="O25" s="180" t="str">
+      <c r="O25" s="174" t="str">
         <f>IF(_sjmain4_day_shift!O4="","",_sjmain4_day_shift!O4)</f>
         <v/>
       </c>
-      <c r="P25" s="221"/>
-      <c r="Q25" s="257"/>
-      <c r="R25" s="242" t="s">
+      <c r="P25" s="210"/>
+      <c r="Q25" s="248"/>
+      <c r="R25" s="233" t="s">
         <v>20</v>
       </c>
-      <c r="S25" s="240" t="s">
+      <c r="S25" s="231" t="s">
         <v>20</v>
       </c>
-      <c r="T25" s="210"/>
-      <c r="U25" s="233"/>
-      <c r="V25" s="234"/>
-      <c r="W25" s="234"/>
-      <c r="X25" s="235"/>
-      <c r="Y25" s="267"/>
-      <c r="Z25" s="267"/>
+      <c r="T25" s="223"/>
+      <c r="U25" s="224"/>
+      <c r="V25" s="225"/>
+      <c r="W25" s="225"/>
+      <c r="X25" s="226"/>
+      <c r="Y25" s="258"/>
+      <c r="Z25" s="258"/>
     </row>
     <row r="26" ht="30.95" customHeight="1" spans="1:26">
-      <c r="A26" s="181" t="str">
+      <c r="A26" s="175" t="str">
         <f>IF(_sjmain4_day_shift!A5="","",_sjmain4_day_shift!A5)</f>
         <v/>
       </c>
-      <c r="B26" s="182" t="str">
+      <c r="B26" s="176" t="str">
         <f>IF(_sjmain4_day_shift!B5="","",_sjmain4_day_shift!B5)</f>
         <v/>
       </c>
-      <c r="C26" s="183"/>
-      <c r="D26" s="180" t="str">
+      <c r="C26" s="177"/>
+      <c r="D26" s="174" t="str">
         <f>IF(_sjmain4_day_shift!D5="","",_sjmain4_day_shift!D5)</f>
         <v/>
       </c>
-      <c r="E26" s="180" t="str">
+      <c r="E26" s="174" t="str">
         <f>IF(_sjmain4_day_shift!E5="","",_sjmain4_day_shift!E5)</f>
         <v/>
       </c>
-      <c r="F26" s="180" t="str">
+      <c r="F26" s="174" t="str">
         <f>IF(_sjmain4_day_shift!F5="","",_sjmain4_day_shift!F5)</f>
         <v/>
       </c>
-      <c r="G26" s="180" t="str">
+      <c r="G26" s="174" t="str">
         <f>IF(_sjmain4_day_shift!G5="","",_sjmain4_day_shift!G5)</f>
         <v/>
       </c>
-      <c r="H26" s="180" t="str">
+      <c r="H26" s="174" t="str">
         <f>IF(_sjmain4_day_shift!H5="","",_sjmain4_day_shift!H5)</f>
         <v/>
       </c>
-      <c r="I26" s="220" t="str">
+      <c r="I26" s="209" t="str">
         <f>IF(_sjmain4_day_shift!I5="","",_sjmain4_day_shift!I5)</f>
         <v/>
       </c>
-      <c r="J26" s="220" t="str">
+      <c r="J26" s="209" t="str">
         <f>IF(_sjmain4_day_shift!J5="","",_sjmain4_day_shift!J5)</f>
         <v/>
       </c>
-      <c r="K26" s="180" t="str">
+      <c r="K26" s="174" t="str">
         <f>IF(_sjmain4_day_shift!K5="","",_sjmain4_day_shift!K5)</f>
         <v/>
       </c>
-      <c r="L26" s="180" t="str">
+      <c r="L26" s="174" t="str">
         <f>IF(_sjmain4_day_shift!L5="","",_sjmain4_day_shift!L5)</f>
         <v/>
       </c>
-      <c r="M26" s="180" t="str">
+      <c r="M26" s="174" t="str">
         <f>IF(_sjmain4_day_shift!M5="","",_sjmain4_day_shift!M5)</f>
         <v/>
       </c>
-      <c r="N26" s="180" t="str">
+      <c r="N26" s="174" t="str">
         <f>IF(_sjmain4_day_shift!N5="","",_sjmain4_day_shift!N5)</f>
         <v/>
       </c>
-      <c r="O26" s="180" t="str">
+      <c r="O26" s="174" t="str">
         <f>IF(_sjmain4_day_shift!O5="","",_sjmain4_day_shift!O5)</f>
         <v/>
       </c>
-      <c r="P26" s="221"/>
-      <c r="Q26" s="257"/>
-      <c r="R26" s="242" t="s">
+      <c r="P26" s="210"/>
+      <c r="Q26" s="248"/>
+      <c r="R26" s="233" t="s">
         <v>20</v>
       </c>
-      <c r="S26" s="240" t="s">
+      <c r="S26" s="231" t="s">
         <v>20</v>
       </c>
-      <c r="T26" s="210"/>
-      <c r="U26" s="243"/>
-      <c r="V26" s="244"/>
-      <c r="W26" s="244"/>
-      <c r="X26" s="245"/>
-      <c r="Y26" s="267"/>
-      <c r="Z26" s="267"/>
+      <c r="T26" s="223"/>
+      <c r="U26" s="234"/>
+      <c r="V26" s="235"/>
+      <c r="W26" s="235"/>
+      <c r="X26" s="236"/>
+      <c r="Y26" s="258"/>
+      <c r="Z26" s="258"/>
     </row>
     <row r="27" ht="30.95" customHeight="1" spans="1:26">
-      <c r="A27" s="181" t="str">
+      <c r="A27" s="175" t="str">
         <f>IF(_sjmain4_day_shift!A6="","",_sjmain4_day_shift!A6)</f>
         <v/>
       </c>
-      <c r="B27" s="182" t="str">
+      <c r="B27" s="176" t="str">
         <f>IF(_sjmain4_day_shift!B6="","",_sjmain4_day_shift!B6)</f>
         <v/>
       </c>
-      <c r="C27" s="183"/>
-      <c r="D27" s="180" t="str">
+      <c r="C27" s="177"/>
+      <c r="D27" s="174" t="str">
         <f>IF(_sjmain4_day_shift!D6="","",_sjmain4_day_shift!D6)</f>
         <v/>
       </c>
-      <c r="E27" s="180" t="str">
+      <c r="E27" s="174" t="str">
         <f>IF(_sjmain4_day_shift!E6="","",_sjmain4_day_shift!E6)</f>
         <v/>
       </c>
-      <c r="F27" s="180" t="str">
+      <c r="F27" s="174" t="str">
         <f>IF(_sjmain4_day_shift!F6="","",_sjmain4_day_shift!F6)</f>
         <v/>
       </c>
-      <c r="G27" s="180" t="str">
+      <c r="G27" s="174" t="str">
         <f>IF(_sjmain4_day_shift!G6="","",_sjmain4_day_shift!G6)</f>
         <v/>
       </c>
-      <c r="H27" s="180" t="str">
+      <c r="H27" s="174" t="str">
         <f>IF(_sjmain4_day_shift!H6="","",_sjmain4_day_shift!H6)</f>
         <v/>
       </c>
-      <c r="I27" s="220" t="str">
+      <c r="I27" s="209" t="str">
         <f>IF(_sjmain4_day_shift!I6="","",_sjmain4_day_shift!I6)</f>
         <v/>
       </c>
-      <c r="J27" s="220" t="str">
+      <c r="J27" s="209" t="str">
         <f>IF(_sjmain4_day_shift!J6="","",_sjmain4_day_shift!J6)</f>
         <v/>
       </c>
-      <c r="K27" s="180" t="str">
+      <c r="K27" s="174" t="str">
         <f>IF(_sjmain4_day_shift!K6="","",_sjmain4_day_shift!K6)</f>
         <v/>
       </c>
-      <c r="L27" s="180" t="str">
+      <c r="L27" s="174" t="str">
         <f>IF(_sjmain4_day_shift!L6="","",_sjmain4_day_shift!L6)</f>
         <v/>
       </c>
-      <c r="M27" s="180" t="str">
+      <c r="M27" s="174" t="str">
         <f>IF(_sjmain4_day_shift!M6="","",_sjmain4_day_shift!M6)</f>
         <v/>
       </c>
-      <c r="N27" s="180" t="str">
+      <c r="N27" s="174" t="str">
         <f>IF(_sjmain4_day_shift!N6="","",_sjmain4_day_shift!N6)</f>
         <v/>
       </c>
-      <c r="O27" s="180" t="str">
+      <c r="O27" s="174" t="str">
         <f>IF(_sjmain4_day_shift!O6="","",_sjmain4_day_shift!O6)</f>
         <v/>
       </c>
-      <c r="P27" s="221"/>
-      <c r="Q27" s="257"/>
-      <c r="R27" s="242"/>
-      <c r="S27" s="240"/>
-      <c r="T27" s="210"/>
-      <c r="U27" s="233"/>
-      <c r="V27" s="234"/>
-      <c r="W27" s="234"/>
-      <c r="X27" s="235"/>
-      <c r="Y27" s="267"/>
-      <c r="Z27" s="267"/>
+      <c r="P27" s="210"/>
+      <c r="Q27" s="248"/>
+      <c r="R27" s="233"/>
+      <c r="S27" s="231"/>
+      <c r="T27" s="223"/>
+      <c r="U27" s="224"/>
+      <c r="V27" s="225"/>
+      <c r="W27" s="225"/>
+      <c r="X27" s="226"/>
+      <c r="Y27" s="258"/>
+      <c r="Z27" s="258"/>
     </row>
     <row r="28" ht="30.95" customHeight="1" spans="1:26">
-      <c r="A28" s="181" t="str">
+      <c r="A28" s="175" t="str">
         <f>IF(_sjmain4_day_shift!A7="","",_sjmain4_day_shift!A7)</f>
         <v/>
       </c>
-      <c r="B28" s="182" t="str">
+      <c r="B28" s="176" t="str">
         <f>IF(_sjmain4_day_shift!B7="","",_sjmain4_day_shift!B7)</f>
         <v/>
       </c>
-      <c r="C28" s="183"/>
-      <c r="D28" s="180" t="str">
+      <c r="C28" s="177"/>
+      <c r="D28" s="174" t="str">
         <f>IF(_sjmain4_day_shift!D7="","",_sjmain4_day_shift!D7)</f>
         <v/>
       </c>
-      <c r="E28" s="180" t="str">
+      <c r="E28" s="174" t="str">
         <f>IF(_sjmain4_day_shift!E7="","",_sjmain4_day_shift!E7)</f>
         <v/>
       </c>
-      <c r="F28" s="180" t="str">
+      <c r="F28" s="174" t="str">
         <f>IF(_sjmain4_day_shift!F7="","",_sjmain4_day_shift!F7)</f>
         <v/>
       </c>
-      <c r="G28" s="180" t="str">
+      <c r="G28" s="174" t="str">
         <f>IF(_sjmain4_day_shift!G7="","",_sjmain4_day_shift!G7)</f>
         <v/>
       </c>
-      <c r="H28" s="180" t="str">
+      <c r="H28" s="174" t="str">
         <f>IF(_sjmain4_day_shift!H7="","",_sjmain4_day_shift!H7)</f>
         <v/>
       </c>
-      <c r="I28" s="220" t="str">
+      <c r="I28" s="209" t="str">
         <f>IF(_sjmain4_day_shift!I7="","",_sjmain4_day_shift!I7)</f>
         <v/>
       </c>
-      <c r="J28" s="220" t="str">
+      <c r="J28" s="209" t="str">
         <f>IF(_sjmain4_day_shift!J7="","",_sjmain4_day_shift!J7)</f>
         <v/>
       </c>
-      <c r="K28" s="180" t="str">
+      <c r="K28" s="174" t="str">
         <f>IF(_sjmain4_day_shift!K7="","",_sjmain4_day_shift!K7)</f>
         <v/>
       </c>
-      <c r="L28" s="180" t="str">
+      <c r="L28" s="174" t="str">
         <f>IF(_sjmain4_day_shift!L7="","",_sjmain4_day_shift!L7)</f>
         <v/>
       </c>
-      <c r="M28" s="180" t="str">
+      <c r="M28" s="174" t="str">
         <f>IF(_sjmain4_day_shift!M7="","",_sjmain4_day_shift!M7)</f>
         <v/>
       </c>
-      <c r="N28" s="180" t="str">
+      <c r="N28" s="174" t="str">
         <f>IF(_sjmain4_day_shift!N7="","",_sjmain4_day_shift!N7)</f>
         <v/>
       </c>
-      <c r="O28" s="180" t="str">
+      <c r="O28" s="174" t="str">
         <f>IF(_sjmain4_day_shift!O7="","",_sjmain4_day_shift!O7)</f>
         <v/>
       </c>
-      <c r="P28" s="221"/>
-      <c r="Q28" s="257"/>
-      <c r="R28" s="242"/>
-      <c r="S28" s="240"/>
-      <c r="T28" s="210"/>
-      <c r="U28" s="243"/>
-      <c r="V28" s="244"/>
-      <c r="W28" s="244"/>
-      <c r="X28" s="245"/>
-      <c r="Y28" s="267"/>
-      <c r="Z28" s="267"/>
+      <c r="P28" s="210"/>
+      <c r="Q28" s="248"/>
+      <c r="R28" s="233"/>
+      <c r="S28" s="231"/>
+      <c r="T28" s="223"/>
+      <c r="U28" s="234"/>
+      <c r="V28" s="235"/>
+      <c r="W28" s="235"/>
+      <c r="X28" s="236"/>
+      <c r="Y28" s="258"/>
+      <c r="Z28" s="258"/>
     </row>
     <row r="29" ht="30.95" customHeight="1" spans="1:26">
-      <c r="A29" s="181" t="str">
+      <c r="A29" s="175" t="str">
         <f>IF(_sjmain4_day_shift!A8="","",_sjmain4_day_shift!A8)</f>
         <v/>
       </c>
-      <c r="B29" s="182" t="str">
+      <c r="B29" s="176" t="str">
         <f>IF(_sjmain4_day_shift!B8="","",_sjmain4_day_shift!B8)</f>
         <v/>
       </c>
-      <c r="C29" s="183"/>
-      <c r="D29" s="180" t="str">
+      <c r="C29" s="177"/>
+      <c r="D29" s="174" t="str">
         <f>IF(_sjmain4_day_shift!D8="","",_sjmain4_day_shift!D8)</f>
         <v/>
       </c>
-      <c r="E29" s="180" t="str">
+      <c r="E29" s="174" t="str">
         <f>IF(_sjmain4_day_shift!E8="","",_sjmain4_day_shift!E8)</f>
         <v/>
       </c>
-      <c r="F29" s="180" t="str">
+      <c r="F29" s="174" t="str">
         <f>IF(_sjmain4_day_shift!F8="","",_sjmain4_day_shift!F8)</f>
         <v/>
       </c>
-      <c r="G29" s="180" t="str">
+      <c r="G29" s="174" t="str">
         <f>IF(_sjmain4_day_shift!G8="","",_sjmain4_day_shift!G8)</f>
         <v/>
       </c>
-      <c r="H29" s="180" t="str">
+      <c r="H29" s="174" t="str">
         <f>IF(_sjmain4_day_shift!H8="","",_sjmain4_day_shift!H8)</f>
         <v/>
       </c>
-      <c r="I29" s="220" t="str">
+      <c r="I29" s="209" t="str">
         <f>IF(_sjmain4_day_shift!I8="","",_sjmain4_day_shift!I8)</f>
         <v/>
       </c>
-      <c r="J29" s="220" t="str">
+      <c r="J29" s="209" t="str">
         <f>IF(_sjmain4_day_shift!J8="","",_sjmain4_day_shift!J8)</f>
         <v/>
       </c>
-      <c r="K29" s="180" t="str">
+      <c r="K29" s="174" t="str">
         <f>IF(_sjmain4_day_shift!K8="","",_sjmain4_day_shift!K8)</f>
         <v/>
       </c>
-      <c r="L29" s="180" t="str">
+      <c r="L29" s="174" t="str">
         <f>IF(_sjmain4_day_shift!L8="","",_sjmain4_day_shift!L8)</f>
         <v/>
       </c>
-      <c r="M29" s="180" t="str">
+      <c r="M29" s="174" t="str">
         <f>IF(_sjmain4_day_shift!M8="","",_sjmain4_day_shift!M8)</f>
         <v/>
       </c>
-      <c r="N29" s="180" t="str">
+      <c r="N29" s="174" t="str">
         <f>IF(_sjmain4_day_shift!N8="","",_sjmain4_day_shift!N8)</f>
         <v/>
       </c>
-      <c r="O29" s="180" t="str">
+      <c r="O29" s="174" t="str">
         <f>IF(_sjmain4_day_shift!O8="","",_sjmain4_day_shift!O8)</f>
         <v/>
       </c>
-      <c r="P29" s="221"/>
-      <c r="Q29" s="257"/>
+      <c r="P29" s="210"/>
+      <c r="Q29" s="248"/>
       <c r="R29" s="110" t="s">
         <v>75</v>
       </c>
       <c r="S29" s="111"/>
-      <c r="T29" s="253"/>
-      <c r="U29" s="254"/>
-      <c r="V29" s="255"/>
-      <c r="W29" s="255"/>
-      <c r="X29" s="256"/>
-      <c r="Y29" s="267"/>
-      <c r="Z29" s="267"/>
+      <c r="T29" s="244"/>
+      <c r="U29" s="245"/>
+      <c r="V29" s="246"/>
+      <c r="W29" s="246"/>
+      <c r="X29" s="247"/>
+      <c r="Y29" s="258"/>
+      <c r="Z29" s="258"/>
     </row>
     <row r="30" ht="30" customHeight="1" spans="1:24">
-      <c r="A30" s="181" t="str">
+      <c r="A30" s="175" t="str">
         <f>IF(_sjmain4_day_shift!A9="","",_sjmain4_day_shift!A9)</f>
         <v/>
       </c>
-      <c r="B30" s="182" t="str">
+      <c r="B30" s="176" t="str">
         <f>IF(_sjmain4_day_shift!B9="","",_sjmain4_day_shift!B9)</f>
         <v/>
       </c>
-      <c r="C30" s="183"/>
-      <c r="D30" s="180" t="str">
+      <c r="C30" s="177"/>
+      <c r="D30" s="174" t="str">
         <f>IF(_sjmain4_day_shift!D9="","",_sjmain4_day_shift!D9)</f>
         <v/>
       </c>
-      <c r="E30" s="180" t="str">
+      <c r="E30" s="174" t="str">
         <f>IF(_sjmain4_day_shift!E9="","",_sjmain4_day_shift!E9)</f>
         <v/>
       </c>
-      <c r="F30" s="180" t="str">
+      <c r="F30" s="174" t="str">
         <f>IF(_sjmain4_day_shift!F9="","",_sjmain4_day_shift!F9)</f>
         <v/>
       </c>
-      <c r="G30" s="180" t="str">
+      <c r="G30" s="174" t="str">
         <f>IF(_sjmain4_day_shift!G9="","",_sjmain4_day_shift!G9)</f>
         <v/>
       </c>
-      <c r="H30" s="180" t="str">
+      <c r="H30" s="174" t="str">
         <f>IF(_sjmain4_day_shift!H9="","",_sjmain4_day_shift!H9)</f>
         <v/>
       </c>
-      <c r="I30" s="220" t="str">
+      <c r="I30" s="209" t="str">
         <f>IF(_sjmain4_day_shift!I9="","",_sjmain4_day_shift!I9)</f>
         <v/>
       </c>
-      <c r="J30" s="220" t="str">
+      <c r="J30" s="209" t="str">
         <f>IF(_sjmain4_day_shift!J9="","",_sjmain4_day_shift!J9)</f>
         <v/>
       </c>
-      <c r="K30" s="180" t="str">
+      <c r="K30" s="174" t="str">
         <f>IF(_sjmain4_day_shift!K9="","",_sjmain4_day_shift!K9)</f>
         <v/>
       </c>
-      <c r="L30" s="180" t="str">
+      <c r="L30" s="174" t="str">
         <f>IF(_sjmain4_day_shift!L9="","",_sjmain4_day_shift!L9)</f>
         <v/>
       </c>
-      <c r="M30" s="180" t="str">
+      <c r="M30" s="174" t="str">
         <f>IF(_sjmain4_day_shift!M9="","",_sjmain4_day_shift!M9)</f>
         <v/>
       </c>
-      <c r="N30" s="180" t="str">
+      <c r="N30" s="174" t="str">
         <f>IF(_sjmain4_day_shift!N9="","",_sjmain4_day_shift!N9)</f>
         <v/>
       </c>
-      <c r="O30" s="180" t="str">
+      <c r="O30" s="174" t="str">
         <f>IF(_sjmain4_day_shift!O9="","",_sjmain4_day_shift!O9)</f>
         <v/>
       </c>
-      <c r="P30" s="221"/>
-      <c r="Q30" s="257"/>
+      <c r="P30" s="210"/>
+      <c r="Q30" s="248"/>
       <c r="R30" s="110" t="s">
         <v>76</v>
       </c>
       <c r="S30" s="111"/>
-      <c r="T30" s="253">
+      <c r="T30" s="244">
         <v>0</v>
       </c>
-      <c r="U30" s="254"/>
-      <c r="V30" s="255"/>
-      <c r="W30" s="255"/>
-      <c r="X30" s="256"/>
+      <c r="U30" s="245"/>
+      <c r="V30" s="246"/>
+      <c r="W30" s="246"/>
+      <c r="X30" s="247"/>
     </row>
     <row r="31" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A31" s="181" t="str">
+      <c r="A31" s="175" t="str">
         <f>IF(_sjmain4_day_shift!A10="","",_sjmain4_day_shift!A10)</f>
         <v/>
       </c>
-      <c r="B31" s="182" t="str">
+      <c r="B31" s="176" t="str">
         <f>IF(_sjmain4_day_shift!B10="","",_sjmain4_day_shift!B10)</f>
         <v/>
       </c>
-      <c r="C31" s="183"/>
-      <c r="D31" s="180" t="str">
+      <c r="C31" s="177"/>
+      <c r="D31" s="174" t="str">
         <f>IF(_sjmain4_day_shift!D10="","",_sjmain4_day_shift!D10)</f>
         <v/>
       </c>
-      <c r="E31" s="180" t="str">
+      <c r="E31" s="174" t="str">
         <f>IF(_sjmain4_day_shift!E10="","",_sjmain4_day_shift!E10)</f>
         <v/>
       </c>
-      <c r="F31" s="180" t="str">
+      <c r="F31" s="174" t="str">
         <f>IF(_sjmain4_day_shift!F10="","",_sjmain4_day_shift!F10)</f>
         <v/>
       </c>
-      <c r="G31" s="180" t="str">
+      <c r="G31" s="174" t="str">
         <f>IF(_sjmain4_day_shift!G10="","",_sjmain4_day_shift!G10)</f>
         <v/>
       </c>
-      <c r="H31" s="180" t="str">
+      <c r="H31" s="174" t="str">
         <f>IF(_sjmain4_day_shift!H10="","",_sjmain4_day_shift!H10)</f>
         <v/>
       </c>
-      <c r="I31" s="220" t="str">
+      <c r="I31" s="209" t="str">
         <f>IF(_sjmain4_day_shift!I10="","",_sjmain4_day_shift!I10)</f>
         <v/>
       </c>
-      <c r="J31" s="220" t="str">
+      <c r="J31" s="209" t="str">
         <f>IF(_sjmain4_day_shift!J10="","",_sjmain4_day_shift!J10)</f>
         <v/>
       </c>
-      <c r="K31" s="180" t="str">
+      <c r="K31" s="174" t="str">
         <f>IF(_sjmain4_day_shift!K10="","",_sjmain4_day_shift!K10)</f>
         <v/>
       </c>
-      <c r="L31" s="180" t="str">
+      <c r="L31" s="174" t="str">
         <f>IF(_sjmain4_day_shift!L10="","",_sjmain4_day_shift!L10)</f>
         <v/>
       </c>
-      <c r="M31" s="180" t="str">
+      <c r="M31" s="174" t="str">
         <f>IF(_sjmain4_day_shift!M10="","",_sjmain4_day_shift!M10)</f>
         <v/>
       </c>
-      <c r="N31" s="180" t="str">
+      <c r="N31" s="174" t="str">
         <f>IF(_sjmain4_day_shift!N10="","",_sjmain4_day_shift!N10)</f>
         <v/>
       </c>
-      <c r="O31" s="180" t="str">
+      <c r="O31" s="174" t="str">
         <f>IF(_sjmain4_day_shift!O10="","",_sjmain4_day_shift!O10)</f>
         <v/>
       </c>
-      <c r="P31" s="221"/>
-      <c r="Q31" s="257"/>
+      <c r="P31" s="210"/>
+      <c r="Q31" s="248"/>
       <c r="R31" s="110"/>
       <c r="S31" s="111"/>
-      <c r="T31" s="253"/>
-      <c r="U31" s="254"/>
-      <c r="V31" s="255"/>
-      <c r="W31" s="255"/>
-      <c r="X31" s="256"/>
+      <c r="T31" s="244"/>
+      <c r="U31" s="245"/>
+      <c r="V31" s="246"/>
+      <c r="W31" s="246"/>
+      <c r="X31" s="247"/>
     </row>
     <row r="32" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A32" s="181" t="str">
+      <c r="A32" s="175" t="str">
         <f>IF(_sjmain4_day_shift!A11="","",_sjmain4_day_shift!A11)</f>
         <v/>
       </c>
-      <c r="B32" s="182" t="str">
+      <c r="B32" s="176" t="str">
         <f>IF(_sjmain4_day_shift!B11="","",_sjmain4_day_shift!B11)</f>
         <v/>
       </c>
-      <c r="C32" s="183"/>
-      <c r="D32" s="180" t="str">
+      <c r="C32" s="177"/>
+      <c r="D32" s="174" t="str">
         <f>IF(_sjmain4_day_shift!D11="","",_sjmain4_day_shift!D11)</f>
         <v/>
       </c>
-      <c r="E32" s="180" t="str">
+      <c r="E32" s="174" t="str">
         <f>IF(_sjmain4_day_shift!E11="","",_sjmain4_day_shift!E11)</f>
         <v/>
       </c>
-      <c r="F32" s="180" t="str">
+      <c r="F32" s="174" t="str">
         <f>IF(_sjmain4_day_shift!F11="","",_sjmain4_day_shift!F11)</f>
         <v/>
       </c>
-      <c r="G32" s="180" t="str">
+      <c r="G32" s="174" t="str">
         <f>IF(_sjmain4_day_shift!G11="","",_sjmain4_day_shift!G11)</f>
         <v/>
       </c>
-      <c r="H32" s="180" t="str">
+      <c r="H32" s="174" t="str">
         <f>IF(_sjmain4_day_shift!H11="","",_sjmain4_day_shift!H11)</f>
         <v/>
       </c>
-      <c r="I32" s="220" t="str">
+      <c r="I32" s="209" t="str">
         <f>IF(_sjmain4_day_shift!I11="","",_sjmain4_day_shift!I11)</f>
         <v/>
       </c>
-      <c r="J32" s="220" t="str">
+      <c r="J32" s="209" t="str">
         <f>IF(_sjmain4_day_shift!J11="","",_sjmain4_day_shift!J11)</f>
         <v/>
       </c>
-      <c r="K32" s="180" t="str">
+      <c r="K32" s="174" t="str">
         <f>IF(_sjmain4_day_shift!K11="","",_sjmain4_day_shift!K11)</f>
         <v/>
       </c>
-      <c r="L32" s="180" t="str">
+      <c r="L32" s="174" t="str">
         <f>IF(_sjmain4_day_shift!L11="","",_sjmain4_day_shift!L11)</f>
         <v/>
       </c>
-      <c r="M32" s="180" t="str">
+      <c r="M32" s="174" t="str">
         <f>IF(_sjmain4_day_shift!M11="","",_sjmain4_day_shift!M11)</f>
         <v/>
       </c>
-      <c r="N32" s="180" t="str">
+      <c r="N32" s="174" t="str">
         <f>IF(_sjmain4_day_shift!N11="","",_sjmain4_day_shift!N11)</f>
         <v/>
       </c>
-      <c r="O32" s="180" t="str">
+      <c r="O32" s="174" t="str">
         <f>IF(_sjmain4_day_shift!O11="","",_sjmain4_day_shift!O11)</f>
         <v/>
       </c>
-      <c r="P32" s="221"/>
-      <c r="Q32" s="257"/>
+      <c r="P32" s="210"/>
+      <c r="Q32" s="248"/>
       <c r="R32" s="110"/>
       <c r="S32" s="111"/>
-      <c r="T32" s="253"/>
-      <c r="U32" s="254"/>
-      <c r="V32" s="255"/>
-      <c r="W32" s="255"/>
-      <c r="X32" s="256"/>
+      <c r="T32" s="244"/>
+      <c r="U32" s="245"/>
+      <c r="V32" s="246"/>
+      <c r="W32" s="246"/>
+      <c r="X32" s="247"/>
     </row>
     <row r="33" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A33" s="181" t="str">
+      <c r="A33" s="175" t="str">
         <f>IF(_sjmain4_day_shift!A12="","",_sjmain4_day_shift!A12)</f>
         <v/>
       </c>
-      <c r="B33" s="182" t="str">
+      <c r="B33" s="176" t="str">
         <f>IF(_sjmain4_day_shift!B12="","",_sjmain4_day_shift!B12)</f>
         <v/>
       </c>
-      <c r="C33" s="183"/>
-      <c r="D33" s="180" t="str">
+      <c r="C33" s="177"/>
+      <c r="D33" s="174" t="str">
         <f>IF(_sjmain4_day_shift!D12="","",_sjmain4_day_shift!D12)</f>
         <v/>
       </c>
-      <c r="E33" s="180" t="str">
+      <c r="E33" s="174" t="str">
         <f>IF(_sjmain4_day_shift!E12="","",_sjmain4_day_shift!E12)</f>
         <v/>
       </c>
-      <c r="F33" s="180" t="str">
+      <c r="F33" s="174" t="str">
         <f>IF(_sjmain4_day_shift!F12="","",_sjmain4_day_shift!F12)</f>
         <v/>
       </c>
-      <c r="G33" s="180" t="str">
+      <c r="G33" s="174" t="str">
         <f>IF(_sjmain4_day_shift!G12="","",_sjmain4_day_shift!G12)</f>
         <v/>
       </c>
-      <c r="H33" s="180" t="str">
+      <c r="H33" s="174" t="str">
         <f>IF(_sjmain4_day_shift!H12="","",_sjmain4_day_shift!H12)</f>
         <v/>
       </c>
-      <c r="I33" s="220" t="str">
+      <c r="I33" s="209" t="str">
         <f>IF(_sjmain4_day_shift!I12="","",_sjmain4_day_shift!I12)</f>
         <v/>
       </c>
-      <c r="J33" s="220" t="str">
+      <c r="J33" s="209" t="str">
         <f>IF(_sjmain4_day_shift!J12="","",_sjmain4_day_shift!J12)</f>
         <v/>
       </c>
-      <c r="K33" s="180" t="str">
+      <c r="K33" s="174" t="str">
         <f>IF(_sjmain4_day_shift!K12="","",_sjmain4_day_shift!K12)</f>
         <v/>
       </c>
-      <c r="L33" s="180" t="str">
+      <c r="L33" s="174" t="str">
         <f>IF(_sjmain4_day_shift!L12="","",_sjmain4_day_shift!L12)</f>
         <v/>
       </c>
-      <c r="M33" s="180" t="str">
+      <c r="M33" s="174" t="str">
         <f>IF(_sjmain4_day_shift!M12="","",_sjmain4_day_shift!M12)</f>
         <v/>
       </c>
-      <c r="N33" s="180" t="str">
+      <c r="N33" s="174" t="str">
         <f>IF(_sjmain4_day_shift!N12="","",_sjmain4_day_shift!N12)</f>
         <v/>
       </c>
-      <c r="O33" s="180" t="str">
+      <c r="O33" s="174" t="str">
         <f>IF(_sjmain4_day_shift!O12="","",_sjmain4_day_shift!O12)</f>
         <v/>
       </c>
-      <c r="P33" s="221"/>
-      <c r="Q33" s="257"/>
+      <c r="P33" s="210"/>
+      <c r="Q33" s="248"/>
       <c r="R33" s="110"/>
       <c r="S33" s="111"/>
-      <c r="T33" s="253"/>
-      <c r="U33" s="254"/>
-      <c r="V33" s="255"/>
-      <c r="W33" s="255"/>
-      <c r="X33" s="256"/>
+      <c r="T33" s="244"/>
+      <c r="U33" s="245"/>
+      <c r="V33" s="246"/>
+      <c r="W33" s="246"/>
+      <c r="X33" s="247"/>
     </row>
     <row r="34" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A34" s="181" t="str">
+      <c r="A34" s="175" t="str">
         <f>IF(_sjmain4_day_shift!A13="","",_sjmain4_day_shift!A13)</f>
         <v/>
       </c>
-      <c r="B34" s="182" t="str">
+      <c r="B34" s="176" t="str">
         <f>IF(_sjmain4_day_shift!B13="","",_sjmain4_day_shift!B13)</f>
         <v/>
       </c>
-      <c r="C34" s="183"/>
-      <c r="D34" s="180" t="str">
+      <c r="C34" s="177"/>
+      <c r="D34" s="174" t="str">
         <f>IF(_sjmain4_day_shift!D13="","",_sjmain4_day_shift!D13)</f>
         <v/>
       </c>
-      <c r="E34" s="180" t="str">
+      <c r="E34" s="174" t="str">
         <f>IF(_sjmain4_day_shift!E13="","",_sjmain4_day_shift!E13)</f>
         <v/>
       </c>
-      <c r="F34" s="180" t="str">
+      <c r="F34" s="174" t="str">
         <f>IF(_sjmain4_day_shift!F13="","",_sjmain4_day_shift!F13)</f>
         <v/>
       </c>
-      <c r="G34" s="180" t="str">
+      <c r="G34" s="174" t="str">
         <f>IF(_sjmain4_day_shift!G13="","",_sjmain4_day_shift!G13)</f>
         <v/>
       </c>
-      <c r="H34" s="180" t="str">
+      <c r="H34" s="174" t="str">
         <f>IF(_sjmain4_day_shift!H13="","",_sjmain4_day_shift!H13)</f>
         <v/>
       </c>
-      <c r="I34" s="220" t="str">
+      <c r="I34" s="209" t="str">
         <f>IF(_sjmain4_day_shift!I13="","",_sjmain4_day_shift!I13)</f>
         <v/>
       </c>
-      <c r="J34" s="220" t="str">
+      <c r="J34" s="209" t="str">
         <f>IF(_sjmain4_day_shift!J13="","",_sjmain4_day_shift!J13)</f>
         <v/>
       </c>
-      <c r="K34" s="180" t="str">
+      <c r="K34" s="174" t="str">
         <f>IF(_sjmain4_day_shift!K13="","",_sjmain4_day_shift!K13)</f>
         <v/>
       </c>
-      <c r="L34" s="180" t="str">
+      <c r="L34" s="174" t="str">
         <f>IF(_sjmain4_day_shift!L13="","",_sjmain4_day_shift!L13)</f>
         <v/>
       </c>
-      <c r="M34" s="180" t="str">
+      <c r="M34" s="174" t="str">
         <f>IF(_sjmain4_day_shift!M13="","",_sjmain4_day_shift!M13)</f>
         <v/>
       </c>
-      <c r="N34" s="180" t="str">
+      <c r="N34" s="174" t="str">
         <f>IF(_sjmain4_day_shift!N13="","",_sjmain4_day_shift!N13)</f>
         <v/>
       </c>
-      <c r="O34" s="180" t="str">
+      <c r="O34" s="174" t="str">
         <f>IF(_sjmain4_day_shift!O13="","",_sjmain4_day_shift!O13)</f>
         <v/>
       </c>
-      <c r="P34" s="221"/>
-      <c r="Q34" s="257"/>
+      <c r="P34" s="210"/>
+      <c r="Q34" s="248"/>
       <c r="R34" s="110"/>
       <c r="S34" s="111"/>
-      <c r="T34" s="253"/>
-      <c r="U34" s="254"/>
-      <c r="V34" s="255"/>
-      <c r="W34" s="255"/>
-      <c r="X34" s="256"/>
+      <c r="T34" s="244"/>
+      <c r="U34" s="245"/>
+      <c r="V34" s="246"/>
+      <c r="W34" s="246"/>
+      <c r="X34" s="247"/>
     </row>
     <row r="35" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A35" s="181" t="str">
+      <c r="A35" s="175" t="str">
         <f>IF(_sjmain4_day_shift!A14="","",_sjmain4_day_shift!A14)</f>
         <v/>
       </c>
-      <c r="B35" s="182" t="str">
+      <c r="B35" s="176" t="str">
         <f>IF(_sjmain4_day_shift!B14="","",_sjmain4_day_shift!B14)</f>
         <v/>
       </c>
-      <c r="C35" s="183"/>
-      <c r="D35" s="180" t="str">
+      <c r="C35" s="177"/>
+      <c r="D35" s="174" t="str">
         <f>IF(_sjmain4_day_shift!D14="","",_sjmain4_day_shift!D14)</f>
         <v/>
       </c>
-      <c r="E35" s="180" t="str">
+      <c r="E35" s="174" t="str">
         <f>IF(_sjmain4_day_shift!E14="","",_sjmain4_day_shift!E14)</f>
         <v/>
       </c>
-      <c r="F35" s="180" t="str">
+      <c r="F35" s="174" t="str">
         <f>IF(_sjmain4_day_shift!F14="","",_sjmain4_day_shift!F14)</f>
         <v/>
       </c>
-      <c r="G35" s="180" t="str">
+      <c r="G35" s="174" t="str">
         <f>IF(_sjmain4_day_shift!G14="","",_sjmain4_day_shift!G14)</f>
         <v/>
       </c>
-      <c r="H35" s="180" t="str">
+      <c r="H35" s="174" t="str">
         <f>IF(_sjmain4_day_shift!H14="","",_sjmain4_day_shift!H14)</f>
         <v/>
       </c>
-      <c r="I35" s="220" t="str">
+      <c r="I35" s="209" t="str">
         <f>IF(_sjmain4_day_shift!I14="","",_sjmain4_day_shift!I14)</f>
         <v/>
       </c>
-      <c r="J35" s="220" t="str">
+      <c r="J35" s="209" t="str">
         <f>IF(_sjmain4_day_shift!J14="","",_sjmain4_day_shift!J14)</f>
         <v/>
       </c>
-      <c r="K35" s="180" t="str">
+      <c r="K35" s="174" t="str">
         <f>IF(_sjmain4_day_shift!K14="","",_sjmain4_day_shift!K14)</f>
         <v/>
       </c>
-      <c r="L35" s="180" t="str">
+      <c r="L35" s="174" t="str">
         <f>IF(_sjmain4_day_shift!L14="","",_sjmain4_day_shift!L14)</f>
         <v/>
       </c>
-      <c r="M35" s="180" t="str">
+      <c r="M35" s="174" t="str">
         <f>IF(_sjmain4_day_shift!M14="","",_sjmain4_day_shift!M14)</f>
         <v/>
       </c>
-      <c r="N35" s="180" t="str">
+      <c r="N35" s="174" t="str">
         <f>IF(_sjmain4_day_shift!N14="","",_sjmain4_day_shift!N14)</f>
         <v/>
       </c>
-      <c r="O35" s="180" t="str">
+      <c r="O35" s="174" t="str">
         <f>IF(_sjmain4_day_shift!O14="","",_sjmain4_day_shift!O14)</f>
         <v/>
       </c>
-      <c r="P35" s="221"/>
-      <c r="Q35" s="257"/>
+      <c r="P35" s="210"/>
+      <c r="Q35" s="248"/>
       <c r="R35" s="110"/>
       <c r="S35" s="111"/>
-      <c r="T35" s="253"/>
-      <c r="U35" s="254"/>
-      <c r="V35" s="255"/>
-      <c r="W35" s="255"/>
-      <c r="X35" s="256"/>
+      <c r="T35" s="244"/>
+      <c r="U35" s="245"/>
+      <c r="V35" s="246"/>
+      <c r="W35" s="246"/>
+      <c r="X35" s="247"/>
     </row>
     <row r="36" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A36" s="181" t="str">
+      <c r="A36" s="175" t="str">
         <f>IF(_sjmain4_day_shift!A15="","",_sjmain4_day_shift!A15)</f>
         <v/>
       </c>
-      <c r="B36" s="182" t="str">
+      <c r="B36" s="176" t="str">
         <f>IF(_sjmain4_day_shift!B15="","",_sjmain4_day_shift!B15)</f>
         <v/>
       </c>
-      <c r="C36" s="183"/>
-      <c r="D36" s="180" t="str">
+      <c r="C36" s="177"/>
+      <c r="D36" s="174" t="str">
         <f>IF(_sjmain4_day_shift!D15="","",_sjmain4_day_shift!D15)</f>
         <v/>
       </c>
-      <c r="E36" s="180" t="str">
+      <c r="E36" s="174" t="str">
         <f>IF(_sjmain4_day_shift!E15="","",_sjmain4_day_shift!E15)</f>
         <v/>
       </c>
-      <c r="F36" s="180" t="str">
+      <c r="F36" s="174" t="str">
         <f>IF(_sjmain4_day_shift!F15="","",_sjmain4_day_shift!F15)</f>
         <v/>
       </c>
-      <c r="G36" s="180" t="str">
+      <c r="G36" s="174" t="str">
         <f>IF(_sjmain4_day_shift!G15="","",_sjmain4_day_shift!G15)</f>
         <v/>
       </c>
-      <c r="H36" s="180" t="str">
+      <c r="H36" s="174" t="str">
         <f>IF(_sjmain4_day_shift!H15="","",_sjmain4_day_shift!H15)</f>
         <v/>
       </c>
-      <c r="I36" s="220" t="str">
+      <c r="I36" s="209" t="str">
         <f>IF(_sjmain4_day_shift!I15="","",_sjmain4_day_shift!I15)</f>
         <v/>
       </c>
-      <c r="J36" s="220" t="str">
+      <c r="J36" s="209" t="str">
         <f>IF(_sjmain4_day_shift!J15="","",_sjmain4_day_shift!J15)</f>
         <v/>
       </c>
-      <c r="K36" s="180" t="str">
+      <c r="K36" s="174" t="str">
         <f>IF(_sjmain4_day_shift!K15="","",_sjmain4_day_shift!K15)</f>
         <v/>
       </c>
-      <c r="L36" s="180" t="str">
+      <c r="L36" s="174" t="str">
         <f>IF(_sjmain4_day_shift!L15="","",_sjmain4_day_shift!L15)</f>
         <v/>
       </c>
-      <c r="M36" s="180" t="str">
+      <c r="M36" s="174" t="str">
         <f>IF(_sjmain4_day_shift!M15="","",_sjmain4_day_shift!M15)</f>
         <v/>
       </c>
-      <c r="N36" s="180" t="str">
+      <c r="N36" s="174" t="str">
         <f>IF(_sjmain4_day_shift!N15="","",_sjmain4_day_shift!N15)</f>
         <v/>
       </c>
-      <c r="O36" s="180" t="str">
+      <c r="O36" s="174" t="str">
         <f>IF(_sjmain4_day_shift!O15="","",_sjmain4_day_shift!O15)</f>
         <v/>
       </c>
-      <c r="P36" s="221"/>
-      <c r="Q36" s="257"/>
+      <c r="P36" s="210"/>
+      <c r="Q36" s="248"/>
       <c r="R36" s="110"/>
       <c r="S36" s="111"/>
-      <c r="T36" s="253"/>
-      <c r="U36" s="254"/>
-      <c r="V36" s="255"/>
-      <c r="W36" s="255"/>
-      <c r="X36" s="256"/>
+      <c r="T36" s="244"/>
+      <c r="U36" s="245"/>
+      <c r="V36" s="246"/>
+      <c r="W36" s="246"/>
+      <c r="X36" s="247"/>
     </row>
     <row r="37" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A37" s="181" t="str">
+      <c r="A37" s="175" t="str">
         <f>IF(_sjmain4_day_shift!A16="","",_sjmain4_day_shift!A16)</f>
         <v/>
       </c>
-      <c r="B37" s="182" t="str">
+      <c r="B37" s="176" t="str">
         <f>IF(_sjmain4_day_shift!B16="","",_sjmain4_day_shift!B16)</f>
         <v/>
       </c>
-      <c r="C37" s="183"/>
-      <c r="D37" s="180" t="str">
+      <c r="C37" s="177"/>
+      <c r="D37" s="174" t="str">
         <f>IF(_sjmain4_day_shift!D16="","",_sjmain4_day_shift!D16)</f>
         <v/>
       </c>
-      <c r="E37" s="180" t="str">
+      <c r="E37" s="174" t="str">
         <f>IF(_sjmain4_day_shift!E16="","",_sjmain4_day_shift!E16)</f>
         <v/>
       </c>
-      <c r="F37" s="180" t="str">
+      <c r="F37" s="174" t="str">
         <f>IF(_sjmain4_day_shift!F16="","",_sjmain4_day_shift!F16)</f>
         <v/>
       </c>
-      <c r="G37" s="180" t="str">
+      <c r="G37" s="174" t="str">
         <f>IF(_sjmain4_day_shift!G16="","",_sjmain4_day_shift!G16)</f>
         <v/>
       </c>
-      <c r="H37" s="180" t="str">
+      <c r="H37" s="174" t="str">
         <f>IF(_sjmain4_day_shift!H16="","",_sjmain4_day_shift!H16)</f>
         <v/>
       </c>
-      <c r="I37" s="220" t="str">
+      <c r="I37" s="209" t="str">
         <f>IF(_sjmain4_day_shift!I16="","",_sjmain4_day_shift!I16)</f>
         <v/>
       </c>
-      <c r="J37" s="220" t="str">
+      <c r="J37" s="209" t="str">
         <f>IF(_sjmain4_day_shift!J16="","",_sjmain4_day_shift!J16)</f>
         <v/>
       </c>
-      <c r="K37" s="180" t="str">
+      <c r="K37" s="174" t="str">
         <f>IF(_sjmain4_day_shift!K16="","",_sjmain4_day_shift!K16)</f>
         <v/>
       </c>
-      <c r="L37" s="180" t="str">
+      <c r="L37" s="174" t="str">
         <f>IF(_sjmain4_day_shift!L16="","",_sjmain4_day_shift!L16)</f>
         <v/>
       </c>
-      <c r="M37" s="180" t="str">
+      <c r="M37" s="174" t="str">
         <f>IF(_sjmain4_day_shift!M16="","",_sjmain4_day_shift!M16)</f>
         <v/>
       </c>
-      <c r="N37" s="180" t="str">
+      <c r="N37" s="174" t="str">
         <f>IF(_sjmain4_day_shift!N16="","",_sjmain4_day_shift!N16)</f>
         <v/>
       </c>
-      <c r="O37" s="180" t="str">
+      <c r="O37" s="174" t="str">
         <f>IF(_sjmain4_day_shift!O16="","",_sjmain4_day_shift!O16)</f>
         <v/>
       </c>
-      <c r="P37" s="221"/>
-      <c r="Q37" s="257"/>
+      <c r="P37" s="210"/>
+      <c r="Q37" s="248"/>
       <c r="R37" s="110"/>
       <c r="S37" s="111"/>
-      <c r="T37" s="253"/>
-      <c r="U37" s="254"/>
-      <c r="V37" s="255"/>
-      <c r="W37" s="255"/>
-      <c r="X37" s="256"/>
+      <c r="T37" s="244"/>
+      <c r="U37" s="245"/>
+      <c r="V37" s="246"/>
+      <c r="W37" s="246"/>
+      <c r="X37" s="247"/>
     </row>
     <row r="38" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A38" s="181" t="str">
+      <c r="A38" s="175" t="str">
         <f>IF(_sjmain4_day_shift!A17="","",_sjmain4_day_shift!A17)</f>
         <v/>
       </c>
-      <c r="B38" s="182" t="str">
+      <c r="B38" s="176" t="str">
         <f>IF(_sjmain4_day_shift!B17="","",_sjmain4_day_shift!B17)</f>
         <v/>
       </c>
-      <c r="C38" s="183"/>
-      <c r="D38" s="180" t="str">
+      <c r="C38" s="177"/>
+      <c r="D38" s="174" t="str">
         <f>IF(_sjmain4_day_shift!D17="","",_sjmain4_day_shift!D17)</f>
         <v/>
       </c>
-      <c r="E38" s="180" t="str">
+      <c r="E38" s="174" t="str">
         <f>IF(_sjmain4_day_shift!E17="","",_sjmain4_day_shift!E17)</f>
         <v/>
       </c>
-      <c r="F38" s="180" t="str">
+      <c r="F38" s="174" t="str">
         <f>IF(_sjmain4_day_shift!F17="","",_sjmain4_day_shift!F17)</f>
         <v/>
       </c>
-      <c r="G38" s="180" t="str">
+      <c r="G38" s="174" t="str">
         <f>IF(_sjmain4_day_shift!G17="","",_sjmain4_day_shift!G17)</f>
         <v/>
       </c>
-      <c r="H38" s="180" t="str">
+      <c r="H38" s="174" t="str">
         <f>IF(_sjmain4_day_shift!H17="","",_sjmain4_day_shift!H17)</f>
         <v/>
       </c>
-      <c r="I38" s="220" t="str">
+      <c r="I38" s="209" t="str">
         <f>IF(_sjmain4_day_shift!I17="","",_sjmain4_day_shift!I17)</f>
         <v/>
       </c>
-      <c r="J38" s="220" t="str">
+      <c r="J38" s="209" t="str">
         <f>IF(_sjmain4_day_shift!J17="","",_sjmain4_day_shift!J17)</f>
         <v/>
       </c>
-      <c r="K38" s="180" t="str">
+      <c r="K38" s="174" t="str">
         <f>IF(_sjmain4_day_shift!K17="","",_sjmain4_day_shift!K17)</f>
         <v/>
       </c>
-      <c r="L38" s="180" t="str">
+      <c r="L38" s="174" t="str">
         <f>IF(_sjmain4_day_shift!L17="","",_sjmain4_day_shift!L17)</f>
         <v/>
       </c>
-      <c r="M38" s="180" t="str">
+      <c r="M38" s="174" t="str">
         <f>IF(_sjmain4_day_shift!M17="","",_sjmain4_day_shift!M17)</f>
         <v/>
       </c>
-      <c r="N38" s="180" t="str">
+      <c r="N38" s="174" t="str">
         <f>IF(_sjmain4_day_shift!N17="","",_sjmain4_day_shift!N17)</f>
         <v/>
       </c>
-      <c r="O38" s="180" t="str">
+      <c r="O38" s="174" t="str">
         <f>IF(_sjmain4_day_shift!O17="","",_sjmain4_day_shift!O17)</f>
         <v/>
       </c>
-      <c r="P38" s="221"/>
-      <c r="Q38" s="257"/>
+      <c r="P38" s="210"/>
+      <c r="Q38" s="248"/>
       <c r="R38" s="110"/>
       <c r="S38" s="111"/>
-      <c r="T38" s="253"/>
-      <c r="U38" s="254"/>
-      <c r="V38" s="255"/>
-      <c r="W38" s="255"/>
-      <c r="X38" s="256"/>
+      <c r="T38" s="244"/>
+      <c r="U38" s="245"/>
+      <c r="V38" s="246"/>
+      <c r="W38" s="246"/>
+      <c r="X38" s="247"/>
     </row>
     <row r="39" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A39" s="181" t="str">
+      <c r="A39" s="175" t="str">
         <f>IF(_sjmain4_day_shift!A18="","",_sjmain4_day_shift!A18)</f>
         <v/>
       </c>
-      <c r="B39" s="182" t="str">
+      <c r="B39" s="176" t="str">
         <f>IF(_sjmain4_day_shift!B18="","",_sjmain4_day_shift!B18)</f>
         <v/>
       </c>
-      <c r="C39" s="183"/>
-      <c r="D39" s="180" t="str">
+      <c r="C39" s="177"/>
+      <c r="D39" s="174" t="str">
         <f>IF(_sjmain4_day_shift!D18="","",_sjmain4_day_shift!D18)</f>
         <v/>
       </c>
-      <c r="E39" s="180" t="str">
+      <c r="E39" s="174" t="str">
         <f>IF(_sjmain4_day_shift!E18="","",_sjmain4_day_shift!E18)</f>
         <v/>
       </c>
-      <c r="F39" s="180" t="str">
+      <c r="F39" s="174" t="str">
         <f>IF(_sjmain4_day_shift!F18="","",_sjmain4_day_shift!F18)</f>
         <v/>
       </c>
-      <c r="G39" s="180" t="str">
+      <c r="G39" s="174" t="str">
         <f>IF(_sjmain4_day_shift!G18="","",_sjmain4_day_shift!G18)</f>
         <v/>
       </c>
-      <c r="H39" s="180" t="str">
+      <c r="H39" s="174" t="str">
         <f>IF(_sjmain4_day_shift!H18="","",_sjmain4_day_shift!H18)</f>
         <v/>
       </c>
-      <c r="I39" s="220" t="str">
+      <c r="I39" s="209" t="str">
         <f>IF(_sjmain4_day_shift!I18="","",_sjmain4_day_shift!I18)</f>
         <v/>
       </c>
-      <c r="J39" s="220" t="str">
+      <c r="J39" s="209" t="str">
         <f>IF(_sjmain4_day_shift!J18="","",_sjmain4_day_shift!J18)</f>
         <v/>
       </c>
-      <c r="K39" s="180" t="str">
+      <c r="K39" s="174" t="str">
         <f>IF(_sjmain4_day_shift!K18="","",_sjmain4_day_shift!K18)</f>
         <v/>
       </c>
-      <c r="L39" s="180" t="str">
+      <c r="L39" s="174" t="str">
         <f>IF(_sjmain4_day_shift!L18="","",_sjmain4_day_shift!L18)</f>
         <v/>
       </c>
-      <c r="M39" s="180" t="str">
+      <c r="M39" s="174" t="str">
         <f>IF(_sjmain4_day_shift!M18="","",_sjmain4_day_shift!M18)</f>
         <v/>
       </c>
-      <c r="N39" s="180" t="str">
+      <c r="N39" s="174" t="str">
         <f>IF(_sjmain4_day_shift!N18="","",_sjmain4_day_shift!N18)</f>
         <v/>
       </c>
-      <c r="O39" s="180" t="str">
+      <c r="O39" s="174" t="str">
         <f>IF(_sjmain4_day_shift!O18="","",_sjmain4_day_shift!O18)</f>
         <v/>
       </c>
-      <c r="P39" s="221"/>
-      <c r="Q39" s="257"/>
+      <c r="P39" s="210"/>
+      <c r="Q39" s="248"/>
       <c r="R39" s="110"/>
       <c r="S39" s="111"/>
-      <c r="T39" s="253"/>
-      <c r="U39" s="254"/>
-      <c r="V39" s="255"/>
-      <c r="W39" s="255"/>
-      <c r="X39" s="256"/>
+      <c r="T39" s="244"/>
+      <c r="U39" s="245"/>
+      <c r="V39" s="246"/>
+      <c r="W39" s="246"/>
+      <c r="X39" s="247"/>
     </row>
     <row r="40" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A40" s="181" t="str">
+      <c r="A40" s="175" t="str">
         <f>IF(_sjmain4_day_shift!A19="","",_sjmain4_day_shift!A19)</f>
         <v/>
       </c>
-      <c r="B40" s="182" t="str">
+      <c r="B40" s="176" t="str">
         <f>IF(_sjmain4_day_shift!B19="","",_sjmain4_day_shift!B19)</f>
         <v/>
       </c>
-      <c r="C40" s="183"/>
-      <c r="D40" s="180" t="str">
+      <c r="C40" s="177"/>
+      <c r="D40" s="174" t="str">
         <f>IF(_sjmain4_day_shift!D19="","",_sjmain4_day_shift!D19)</f>
         <v/>
       </c>
-      <c r="E40" s="180" t="str">
+      <c r="E40" s="174" t="str">
         <f>IF(_sjmain4_day_shift!E19="","",_sjmain4_day_shift!E19)</f>
         <v/>
       </c>
-      <c r="F40" s="180" t="str">
+      <c r="F40" s="174" t="str">
         <f>IF(_sjmain4_day_shift!F19="","",_sjmain4_day_shift!F19)</f>
         <v/>
       </c>
-      <c r="G40" s="180" t="str">
+      <c r="G40" s="174" t="str">
         <f>IF(_sjmain4_day_shift!G19="","",_sjmain4_day_shift!G19)</f>
         <v/>
       </c>
-      <c r="H40" s="180" t="str">
+      <c r="H40" s="174" t="str">
         <f>IF(_sjmain4_day_shift!H19="","",_sjmain4_day_shift!H19)</f>
         <v/>
       </c>
-      <c r="I40" s="220" t="str">
+      <c r="I40" s="209" t="str">
         <f>IF(_sjmain4_day_shift!I19="","",_sjmain4_day_shift!I19)</f>
         <v/>
       </c>
-      <c r="J40" s="220" t="str">
+      <c r="J40" s="209" t="str">
         <f>IF(_sjmain4_day_shift!J19="","",_sjmain4_day_shift!J19)</f>
         <v/>
       </c>
-      <c r="K40" s="180" t="str">
+      <c r="K40" s="174" t="str">
         <f>IF(_sjmain4_day_shift!K19="","",_sjmain4_day_shift!K19)</f>
         <v/>
       </c>
-      <c r="L40" s="180" t="str">
+      <c r="L40" s="174" t="str">
         <f>IF(_sjmain4_day_shift!L19="","",_sjmain4_day_shift!L19)</f>
         <v/>
       </c>
-      <c r="M40" s="180" t="str">
+      <c r="M40" s="174" t="str">
         <f>IF(_sjmain4_day_shift!M19="","",_sjmain4_day_shift!M19)</f>
         <v/>
       </c>
-      <c r="N40" s="180" t="str">
+      <c r="N40" s="174" t="str">
         <f>IF(_sjmain4_day_shift!N19="","",_sjmain4_day_shift!N19)</f>
         <v/>
       </c>
-      <c r="O40" s="180" t="str">
+      <c r="O40" s="174" t="str">
         <f>IF(_sjmain4_day_shift!O19="","",_sjmain4_day_shift!O19)</f>
         <v/>
       </c>
-      <c r="P40" s="221"/>
-      <c r="Q40" s="257"/>
+      <c r="P40" s="210"/>
+      <c r="Q40" s="248"/>
       <c r="R40" s="110"/>
       <c r="S40" s="111"/>
-      <c r="T40" s="253"/>
-      <c r="U40" s="254"/>
-      <c r="V40" s="255"/>
-      <c r="W40" s="255"/>
-      <c r="X40" s="256"/>
+      <c r="T40" s="244"/>
+      <c r="U40" s="245"/>
+      <c r="V40" s="246"/>
+      <c r="W40" s="246"/>
+      <c r="X40" s="247"/>
     </row>
     <row r="41" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A41" s="181" t="str">
+      <c r="A41" s="175" t="str">
         <f>IF(_sjmain4_day_shift!A20="","",_sjmain4_day_shift!A20)</f>
         <v/>
       </c>
-      <c r="B41" s="182" t="str">
+      <c r="B41" s="176" t="str">
         <f>IF(_sjmain4_day_shift!B20="","",_sjmain4_day_shift!B20)</f>
         <v/>
       </c>
-      <c r="C41" s="183"/>
-      <c r="D41" s="180" t="str">
+      <c r="C41" s="177"/>
+      <c r="D41" s="174" t="str">
         <f>IF(_sjmain4_day_shift!D20="","",_sjmain4_day_shift!D20)</f>
         <v/>
       </c>
-      <c r="E41" s="180" t="str">
+      <c r="E41" s="174" t="str">
         <f>IF(_sjmain4_day_shift!E20="","",_sjmain4_day_shift!E20)</f>
         <v/>
       </c>
-      <c r="F41" s="180" t="str">
+      <c r="F41" s="174" t="str">
         <f>IF(_sjmain4_day_shift!F20="","",_sjmain4_day_shift!F20)</f>
         <v/>
       </c>
-      <c r="G41" s="180" t="str">
+      <c r="G41" s="174" t="str">
         <f>IF(_sjmain4_day_shift!G20="","",_sjmain4_day_shift!G20)</f>
         <v/>
       </c>
-      <c r="H41" s="180" t="str">
+      <c r="H41" s="174" t="str">
         <f>IF(_sjmain4_day_shift!H20="","",_sjmain4_day_shift!H20)</f>
         <v/>
       </c>
-      <c r="I41" s="220" t="str">
+      <c r="I41" s="209" t="str">
         <f>IF(_sjmain4_day_shift!I20="","",_sjmain4_day_shift!I20)</f>
         <v/>
       </c>
-      <c r="J41" s="220" t="str">
+      <c r="J41" s="209" t="str">
         <f>IF(_sjmain4_day_shift!J20="","",_sjmain4_day_shift!J20)</f>
         <v/>
       </c>
-      <c r="K41" s="180" t="str">
+      <c r="K41" s="174" t="str">
         <f>IF(_sjmain4_day_shift!K20="","",_sjmain4_day_shift!K20)</f>
         <v/>
       </c>
-      <c r="L41" s="180" t="str">
+      <c r="L41" s="174" t="str">
         <f>IF(_sjmain4_day_shift!L20="","",_sjmain4_day_shift!L20)</f>
         <v/>
       </c>
-      <c r="M41" s="180" t="str">
+      <c r="M41" s="174" t="str">
         <f>IF(_sjmain4_day_shift!M20="","",_sjmain4_day_shift!M20)</f>
         <v/>
       </c>
-      <c r="N41" s="180" t="str">
+      <c r="N41" s="174" t="str">
         <f>IF(_sjmain4_day_shift!N20="","",_sjmain4_day_shift!N20)</f>
         <v/>
       </c>
-      <c r="O41" s="180" t="str">
+      <c r="O41" s="174" t="str">
         <f>IF(_sjmain4_day_shift!O20="","",_sjmain4_day_shift!O20)</f>
         <v/>
       </c>
-      <c r="P41" s="221"/>
-      <c r="Q41" s="257"/>
+      <c r="P41" s="210"/>
+      <c r="Q41" s="248"/>
       <c r="R41" s="110"/>
       <c r="S41" s="111"/>
-      <c r="T41" s="253"/>
-      <c r="U41" s="254"/>
-      <c r="V41" s="255"/>
-      <c r="W41" s="255"/>
-      <c r="X41" s="256"/>
+      <c r="T41" s="244"/>
+      <c r="U41" s="245"/>
+      <c r="V41" s="246"/>
+      <c r="W41" s="246"/>
+      <c r="X41" s="247"/>
     </row>
     <row r="42" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A42" s="181" t="str">
+      <c r="A42" s="175" t="str">
         <f>IF(_sjmain4_day_shift!A21="","",_sjmain4_day_shift!A21)</f>
         <v/>
       </c>
-      <c r="B42" s="182" t="str">
+      <c r="B42" s="176" t="str">
         <f>IF(_sjmain4_day_shift!B21="","",_sjmain4_day_shift!B21)</f>
         <v/>
       </c>
-      <c r="C42" s="183"/>
-      <c r="D42" s="180" t="str">
+      <c r="C42" s="177"/>
+      <c r="D42" s="174" t="str">
         <f>IF(_sjmain4_day_shift!D21="","",_sjmain4_day_shift!D21)</f>
         <v/>
       </c>
-      <c r="E42" s="180" t="str">
+      <c r="E42" s="174" t="str">
         <f>IF(_sjmain4_day_shift!E21="","",_sjmain4_day_shift!E21)</f>
         <v/>
       </c>
-      <c r="F42" s="180" t="str">
+      <c r="F42" s="174" t="str">
         <f>IF(_sjmain4_day_shift!F21="","",_sjmain4_day_shift!F21)</f>
         <v/>
       </c>
-      <c r="G42" s="180" t="str">
+      <c r="G42" s="174" t="str">
         <f>IF(_sjmain4_day_shift!G21="","",_sjmain4_day_shift!G21)</f>
         <v/>
       </c>
-      <c r="H42" s="180" t="str">
+      <c r="H42" s="174" t="str">
         <f>IF(_sjmain4_day_shift!H21="","",_sjmain4_day_shift!H21)</f>
         <v/>
       </c>
-      <c r="I42" s="220" t="str">
+      <c r="I42" s="209" t="str">
         <f>IF(_sjmain4_day_shift!I21="","",_sjmain4_day_shift!I21)</f>
         <v/>
       </c>
-      <c r="J42" s="220" t="str">
+      <c r="J42" s="209" t="str">
         <f>IF(_sjmain4_day_shift!J21="","",_sjmain4_day_shift!J21)</f>
         <v/>
       </c>
-      <c r="K42" s="180" t="str">
+      <c r="K42" s="174" t="str">
         <f>IF(_sjmain4_day_shift!K21="","",_sjmain4_day_shift!K21)</f>
         <v/>
       </c>
-      <c r="L42" s="180" t="str">
+      <c r="L42" s="174" t="str">
         <f>IF(_sjmain4_day_shift!L21="","",_sjmain4_day_shift!L21)</f>
         <v/>
       </c>
-      <c r="M42" s="180" t="str">
+      <c r="M42" s="174" t="str">
         <f>IF(_sjmain4_day_shift!M21="","",_sjmain4_day_shift!M21)</f>
         <v/>
       </c>
-      <c r="N42" s="180" t="str">
+      <c r="N42" s="174" t="str">
         <f>IF(_sjmain4_day_shift!N21="","",_sjmain4_day_shift!N21)</f>
         <v/>
       </c>
-      <c r="O42" s="180" t="str">
+      <c r="O42" s="174" t="str">
         <f>IF(_sjmain4_day_shift!O21="","",_sjmain4_day_shift!O21)</f>
         <v/>
       </c>
-      <c r="P42" s="221"/>
-      <c r="Q42" s="257"/>
+      <c r="P42" s="210"/>
+      <c r="Q42" s="248"/>
       <c r="R42" s="110"/>
       <c r="S42" s="111"/>
-      <c r="T42" s="253"/>
-      <c r="U42" s="254"/>
-      <c r="V42" s="255"/>
-      <c r="W42" s="255"/>
-      <c r="X42" s="256"/>
+      <c r="T42" s="244"/>
+      <c r="U42" s="245"/>
+      <c r="V42" s="246"/>
+      <c r="W42" s="246"/>
+      <c r="X42" s="247"/>
     </row>
     <row r="43" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A43" s="181" t="str">
+      <c r="A43" s="175" t="str">
         <f>IF(_sjmain4_day_shift!A22="","",_sjmain4_day_shift!A22)</f>
         <v/>
       </c>
-      <c r="B43" s="182" t="str">
+      <c r="B43" s="176" t="str">
         <f>IF(_sjmain4_day_shift!B22="","",_sjmain4_day_shift!B22)</f>
         <v/>
       </c>
-      <c r="C43" s="183"/>
-      <c r="D43" s="180" t="str">
+      <c r="C43" s="177"/>
+      <c r="D43" s="174" t="str">
         <f>IF(_sjmain4_day_shift!D22="","",_sjmain4_day_shift!D22)</f>
         <v/>
       </c>
-      <c r="E43" s="180" t="str">
+      <c r="E43" s="174" t="str">
         <f>IF(_sjmain4_day_shift!E22="","",_sjmain4_day_shift!E22)</f>
         <v/>
       </c>
-      <c r="F43" s="180" t="str">
+      <c r="F43" s="174" t="str">
         <f>IF(_sjmain4_day_shift!F22="","",_sjmain4_day_shift!F22)</f>
         <v/>
       </c>
-      <c r="G43" s="180" t="str">
+      <c r="G43" s="174" t="str">
         <f>IF(_sjmain4_day_shift!G22="","",_sjmain4_day_shift!G22)</f>
         <v/>
       </c>
-      <c r="H43" s="180" t="str">
+      <c r="H43" s="174" t="str">
         <f>IF(_sjmain4_day_shift!H22="","",_sjmain4_day_shift!H22)</f>
         <v/>
       </c>
-      <c r="I43" s="220" t="str">
+      <c r="I43" s="209" t="str">
         <f>IF(_sjmain4_day_shift!I22="","",_sjmain4_day_shift!I22)</f>
         <v/>
       </c>
-      <c r="J43" s="220" t="str">
+      <c r="J43" s="209" t="str">
         <f>IF(_sjmain4_day_shift!J22="","",_sjmain4_day_shift!J22)</f>
         <v/>
       </c>
-      <c r="K43" s="180" t="str">
+      <c r="K43" s="174" t="str">
         <f>IF(_sjmain4_day_shift!K22="","",_sjmain4_day_shift!K22)</f>
         <v/>
       </c>
-      <c r="L43" s="180" t="str">
+      <c r="L43" s="174" t="str">
         <f>IF(_sjmain4_day_shift!L22="","",_sjmain4_day_shift!L22)</f>
         <v/>
       </c>
-      <c r="M43" s="180" t="str">
+      <c r="M43" s="174" t="str">
         <f>IF(_sjmain4_day_shift!M22="","",_sjmain4_day_shift!M22)</f>
         <v/>
       </c>
-      <c r="N43" s="180" t="str">
+      <c r="N43" s="174" t="str">
         <f>IF(_sjmain4_day_shift!N22="","",_sjmain4_day_shift!N22)</f>
         <v/>
       </c>
-      <c r="O43" s="180" t="str">
+      <c r="O43" s="174" t="str">
         <f>IF(_sjmain4_day_shift!O22="","",_sjmain4_day_shift!O22)</f>
         <v/>
       </c>
-      <c r="P43" s="221"/>
-      <c r="Q43" s="257"/>
+      <c r="P43" s="210"/>
+      <c r="Q43" s="248"/>
       <c r="R43" s="110"/>
       <c r="S43" s="111"/>
-      <c r="T43" s="253"/>
-      <c r="U43" s="254"/>
-      <c r="V43" s="255"/>
-      <c r="W43" s="255"/>
-      <c r="X43" s="256"/>
+      <c r="T43" s="244"/>
+      <c r="U43" s="245"/>
+      <c r="V43" s="246"/>
+      <c r="W43" s="246"/>
+      <c r="X43" s="247"/>
     </row>
     <row r="44" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A44" s="181" t="str">
+      <c r="A44" s="175" t="str">
         <f>IF(_sjmain4_day_shift!A23="","",_sjmain4_day_shift!A23)</f>
         <v/>
       </c>
-      <c r="B44" s="182" t="str">
+      <c r="B44" s="176" t="str">
         <f>IF(_sjmain4_day_shift!B23="","",_sjmain4_day_shift!B23)</f>
         <v/>
       </c>
-      <c r="C44" s="183"/>
-      <c r="D44" s="180" t="str">
+      <c r="C44" s="177"/>
+      <c r="D44" s="174" t="str">
         <f>IF(_sjmain4_day_shift!D23="","",_sjmain4_day_shift!D23)</f>
         <v/>
       </c>
-      <c r="E44" s="180" t="str">
+      <c r="E44" s="174" t="str">
         <f>IF(_sjmain4_day_shift!E23="","",_sjmain4_day_shift!E23)</f>
         <v/>
       </c>
-      <c r="F44" s="180" t="str">
+      <c r="F44" s="174" t="str">
         <f>IF(_sjmain4_day_shift!F23="","",_sjmain4_day_shift!F23)</f>
         <v/>
       </c>
-      <c r="G44" s="180" t="str">
+      <c r="G44" s="174" t="str">
         <f>IF(_sjmain4_day_shift!G23="","",_sjmain4_day_shift!G23)</f>
         <v/>
       </c>
-      <c r="H44" s="180" t="str">
+      <c r="H44" s="174" t="str">
         <f>IF(_sjmain4_day_shift!H23="","",_sjmain4_day_shift!H23)</f>
         <v/>
       </c>
-      <c r="I44" s="220" t="str">
+      <c r="I44" s="209" t="str">
         <f>IF(_sjmain4_day_shift!I23="","",_sjmain4_day_shift!I23)</f>
         <v/>
       </c>
-      <c r="J44" s="220" t="str">
+      <c r="J44" s="209" t="str">
         <f>IF(_sjmain4_day_shift!J23="","",_sjmain4_day_shift!J23)</f>
         <v/>
       </c>
-      <c r="K44" s="180" t="str">
+      <c r="K44" s="174" t="str">
         <f>IF(_sjmain4_day_shift!K23="","",_sjmain4_day_shift!K23)</f>
         <v/>
       </c>
-      <c r="L44" s="180" t="str">
+      <c r="L44" s="174" t="str">
         <f>IF(_sjmain4_day_shift!L23="","",_sjmain4_day_shift!L23)</f>
         <v/>
       </c>
-      <c r="M44" s="180" t="str">
+      <c r="M44" s="174" t="str">
         <f>IF(_sjmain4_day_shift!M23="","",_sjmain4_day_shift!M23)</f>
         <v/>
       </c>
-      <c r="N44" s="180" t="str">
+      <c r="N44" s="174" t="str">
         <f>IF(_sjmain4_day_shift!N23="","",_sjmain4_day_shift!N23)</f>
         <v/>
       </c>
-      <c r="O44" s="180" t="str">
+      <c r="O44" s="174" t="str">
         <f>IF(_sjmain4_day_shift!O23="","",_sjmain4_day_shift!O23)</f>
         <v/>
       </c>
-      <c r="P44" s="221"/>
-      <c r="Q44" s="257"/>
+      <c r="P44" s="210"/>
+      <c r="Q44" s="248"/>
       <c r="R44" s="110"/>
       <c r="S44" s="111"/>
-      <c r="T44" s="253"/>
-      <c r="U44" s="254"/>
-      <c r="V44" s="255"/>
-      <c r="W44" s="255"/>
-      <c r="X44" s="256"/>
+      <c r="T44" s="244"/>
+      <c r="U44" s="245"/>
+      <c r="V44" s="246"/>
+      <c r="W44" s="246"/>
+      <c r="X44" s="247"/>
     </row>
     <row r="45" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A45" s="181" t="str">
+      <c r="A45" s="175" t="str">
         <f>IF(_sjmain4_day_shift!A24="","",_sjmain4_day_shift!A24)</f>
         <v/>
       </c>
-      <c r="B45" s="182" t="str">
+      <c r="B45" s="176" t="str">
         <f>IF(_sjmain4_day_shift!B24="","",_sjmain4_day_shift!B24)</f>
         <v/>
       </c>
-      <c r="C45" s="183"/>
-      <c r="D45" s="180" t="str">
+      <c r="C45" s="177"/>
+      <c r="D45" s="174" t="str">
         <f>IF(_sjmain4_day_shift!D24="","",_sjmain4_day_shift!D24)</f>
         <v/>
       </c>
-      <c r="E45" s="180" t="str">
+      <c r="E45" s="174" t="str">
         <f>IF(_sjmain4_day_shift!E24="","",_sjmain4_day_shift!E24)</f>
         <v/>
       </c>
-      <c r="F45" s="180" t="str">
+      <c r="F45" s="174" t="str">
         <f>IF(_sjmain4_day_shift!F24="","",_sjmain4_day_shift!F24)</f>
         <v/>
       </c>
-      <c r="G45" s="180" t="str">
+      <c r="G45" s="174" t="str">
         <f>IF(_sjmain4_day_shift!G24="","",_sjmain4_day_shift!G24)</f>
         <v/>
       </c>
-      <c r="H45" s="180" t="str">
+      <c r="H45" s="174" t="str">
         <f>IF(_sjmain4_day_shift!H24="","",_sjmain4_day_shift!H24)</f>
         <v/>
       </c>
-      <c r="I45" s="220" t="str">
+      <c r="I45" s="209" t="str">
         <f>IF(_sjmain4_day_shift!I24="","",_sjmain4_day_shift!I24)</f>
         <v/>
       </c>
-      <c r="J45" s="220" t="str">
+      <c r="J45" s="209" t="str">
         <f>IF(_sjmain4_day_shift!J24="","",_sjmain4_day_shift!J24)</f>
         <v/>
       </c>
-      <c r="K45" s="180" t="str">
+      <c r="K45" s="174" t="str">
         <f>IF(_sjmain4_day_shift!K24="","",_sjmain4_day_shift!K24)</f>
         <v/>
       </c>
-      <c r="L45" s="180" t="str">
+      <c r="L45" s="174" t="str">
         <f>IF(_sjmain4_day_shift!L24="","",_sjmain4_day_shift!L24)</f>
         <v/>
       </c>
-      <c r="M45" s="180" t="str">
+      <c r="M45" s="174" t="str">
         <f>IF(_sjmain4_day_shift!M24="","",_sjmain4_day_shift!M24)</f>
         <v/>
       </c>
-      <c r="N45" s="180" t="str">
+      <c r="N45" s="174" t="str">
         <f>IF(_sjmain4_day_shift!N24="","",_sjmain4_day_shift!N24)</f>
         <v/>
       </c>
-      <c r="O45" s="180" t="str">
+      <c r="O45" s="174" t="str">
         <f>IF(_sjmain4_day_shift!O24="","",_sjmain4_day_shift!O24)</f>
         <v/>
       </c>
-      <c r="P45" s="221"/>
-      <c r="Q45" s="257"/>
+      <c r="P45" s="210"/>
+      <c r="Q45" s="248"/>
       <c r="R45" s="110"/>
       <c r="S45" s="111"/>
-      <c r="T45" s="253"/>
-      <c r="U45" s="254"/>
-      <c r="V45" s="255"/>
-      <c r="W45" s="255"/>
-      <c r="X45" s="256"/>
+      <c r="T45" s="244"/>
+      <c r="U45" s="245"/>
+      <c r="V45" s="246"/>
+      <c r="W45" s="246"/>
+      <c r="X45" s="247"/>
     </row>
     <row r="46" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A46" s="181" t="str">
+      <c r="A46" s="175" t="str">
         <f>IF(_sjmain4_day_shift!A25="","",_sjmain4_day_shift!A25)</f>
         <v/>
       </c>
-      <c r="B46" s="182" t="str">
+      <c r="B46" s="176" t="str">
         <f>IF(_sjmain4_day_shift!B25="","",_sjmain4_day_shift!B25)</f>
         <v/>
       </c>
-      <c r="C46" s="183"/>
-      <c r="D46" s="180" t="str">
+      <c r="C46" s="177"/>
+      <c r="D46" s="174" t="str">
         <f>IF(_sjmain4_day_shift!D25="","",_sjmain4_day_shift!D25)</f>
         <v/>
       </c>
-      <c r="E46" s="180" t="str">
+      <c r="E46" s="174" t="str">
         <f>IF(_sjmain4_day_shift!E25="","",_sjmain4_day_shift!E25)</f>
         <v/>
       </c>
-      <c r="F46" s="180" t="str">
+      <c r="F46" s="174" t="str">
         <f>IF(_sjmain4_day_shift!F25="","",_sjmain4_day_shift!F25)</f>
         <v/>
       </c>
-      <c r="G46" s="180" t="str">
+      <c r="G46" s="174" t="str">
         <f>IF(_sjmain4_day_shift!G25="","",_sjmain4_day_shift!G25)</f>
         <v/>
       </c>
-      <c r="H46" s="180" t="str">
+      <c r="H46" s="174" t="str">
         <f>IF(_sjmain4_day_shift!H25="","",_sjmain4_day_shift!H25)</f>
         <v/>
       </c>
-      <c r="I46" s="220" t="str">
+      <c r="I46" s="209" t="str">
         <f>IF(_sjmain4_day_shift!I25="","",_sjmain4_day_shift!I25)</f>
         <v/>
       </c>
-      <c r="J46" s="220" t="str">
+      <c r="J46" s="209" t="str">
         <f>IF(_sjmain4_day_shift!J25="","",_sjmain4_day_shift!J25)</f>
         <v/>
       </c>
-      <c r="K46" s="180" t="str">
+      <c r="K46" s="174" t="str">
         <f>IF(_sjmain4_day_shift!K25="","",_sjmain4_day_shift!K25)</f>
         <v/>
       </c>
-      <c r="L46" s="180" t="str">
+      <c r="L46" s="174" t="str">
         <f>IF(_sjmain4_day_shift!L25="","",_sjmain4_day_shift!L25)</f>
         <v/>
       </c>
-      <c r="M46" s="180" t="str">
+      <c r="M46" s="174" t="str">
         <f>IF(_sjmain4_day_shift!M25="","",_sjmain4_day_shift!M25)</f>
         <v/>
       </c>
-      <c r="N46" s="180" t="str">
+      <c r="N46" s="174" t="str">
         <f>IF(_sjmain4_day_shift!N25="","",_sjmain4_day_shift!N25)</f>
         <v/>
       </c>
-      <c r="O46" s="180" t="str">
+      <c r="O46" s="174" t="str">
         <f>IF(_sjmain4_day_shift!O25="","",_sjmain4_day_shift!O25)</f>
         <v/>
       </c>
-      <c r="P46" s="221"/>
-      <c r="Q46" s="257"/>
+      <c r="P46" s="210"/>
+      <c r="Q46" s="248"/>
       <c r="R46" s="110"/>
       <c r="S46" s="111"/>
-      <c r="T46" s="253"/>
-      <c r="U46" s="254"/>
-      <c r="V46" s="255"/>
-      <c r="W46" s="255"/>
-      <c r="X46" s="256"/>
+      <c r="T46" s="244"/>
+      <c r="U46" s="245"/>
+      <c r="V46" s="246"/>
+      <c r="W46" s="246"/>
+      <c r="X46" s="247"/>
     </row>
     <row r="47" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A47" s="181" t="str">
+      <c r="A47" s="175" t="str">
         <f>IF(_sjmain4_day_shift!A26="","",_sjmain4_day_shift!A26)</f>
         <v/>
       </c>
-      <c r="B47" s="182" t="str">
+      <c r="B47" s="176" t="str">
         <f>IF(_sjmain4_day_shift!B26="","",_sjmain4_day_shift!B26)</f>
         <v/>
       </c>
-      <c r="C47" s="183"/>
-      <c r="D47" s="180" t="str">
+      <c r="C47" s="177"/>
+      <c r="D47" s="174" t="str">
         <f>IF(_sjmain4_day_shift!D26="","",_sjmain4_day_shift!D26)</f>
         <v/>
       </c>
-      <c r="E47" s="180" t="str">
+      <c r="E47" s="174" t="str">
         <f>IF(_sjmain4_day_shift!E26="","",_sjmain4_day_shift!E26)</f>
         <v/>
       </c>
-      <c r="F47" s="180" t="str">
+      <c r="F47" s="174" t="str">
         <f>IF(_sjmain4_day_shift!F26="","",_sjmain4_day_shift!F26)</f>
         <v/>
       </c>
-      <c r="G47" s="180" t="str">
+      <c r="G47" s="174" t="str">
         <f>IF(_sjmain4_day_shift!G26="","",_sjmain4_day_shift!G26)</f>
         <v/>
       </c>
-      <c r="H47" s="180" t="str">
+      <c r="H47" s="174" t="str">
         <f>IF(_sjmain4_day_shift!H26="","",_sjmain4_day_shift!H26)</f>
         <v/>
       </c>
-      <c r="I47" s="220" t="str">
+      <c r="I47" s="209" t="str">
         <f>IF(_sjmain4_day_shift!I26="","",_sjmain4_day_shift!I26)</f>
         <v/>
       </c>
-      <c r="J47" s="220" t="str">
+      <c r="J47" s="209" t="str">
         <f>IF(_sjmain4_day_shift!J26="","",_sjmain4_day_shift!J26)</f>
         <v/>
       </c>
-      <c r="K47" s="180" t="str">
+      <c r="K47" s="174" t="str">
         <f>IF(_sjmain4_day_shift!K26="","",_sjmain4_day_shift!K26)</f>
         <v/>
       </c>
-      <c r="L47" s="180" t="str">
+      <c r="L47" s="174" t="str">
         <f>IF(_sjmain4_day_shift!L26="","",_sjmain4_day_shift!L26)</f>
         <v/>
       </c>
-      <c r="M47" s="180" t="str">
+      <c r="M47" s="174" t="str">
         <f>IF(_sjmain4_day_shift!M26="","",_sjmain4_day_shift!M26)</f>
         <v/>
       </c>
-      <c r="N47" s="180" t="str">
+      <c r="N47" s="174" t="str">
         <f>IF(_sjmain4_day_shift!N26="","",_sjmain4_day_shift!N26)</f>
         <v/>
       </c>
-      <c r="O47" s="180" t="str">
+      <c r="O47" s="174" t="str">
         <f>IF(_sjmain4_day_shift!O26="","",_sjmain4_day_shift!O26)</f>
         <v/>
       </c>
-      <c r="P47" s="221"/>
-      <c r="Q47" s="257"/>
+      <c r="P47" s="210"/>
+      <c r="Q47" s="248"/>
       <c r="R47" s="110"/>
       <c r="S47" s="111"/>
-      <c r="T47" s="253"/>
-      <c r="U47" s="254"/>
-      <c r="V47" s="255"/>
-      <c r="W47" s="255"/>
-      <c r="X47" s="256"/>
+      <c r="T47" s="244"/>
+      <c r="U47" s="245"/>
+      <c r="V47" s="246"/>
+      <c r="W47" s="246"/>
+      <c r="X47" s="247"/>
     </row>
     <row r="48" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A48" s="181" t="str">
+      <c r="A48" s="175" t="str">
         <f>IF(_sjmain4_day_shift!A27="","",_sjmain4_day_shift!A27)</f>
         <v/>
       </c>
-      <c r="B48" s="182" t="str">
+      <c r="B48" s="176" t="str">
         <f>IF(_sjmain4_day_shift!B27="","",_sjmain4_day_shift!B27)</f>
         <v/>
       </c>
-      <c r="C48" s="183"/>
-      <c r="D48" s="180" t="str">
+      <c r="C48" s="177"/>
+      <c r="D48" s="174" t="str">
         <f>IF(_sjmain4_day_shift!D27="","",_sjmain4_day_shift!D27)</f>
         <v/>
       </c>
-      <c r="E48" s="180" t="str">
+      <c r="E48" s="174" t="str">
         <f>IF(_sjmain4_day_shift!E27="","",_sjmain4_day_shift!E27)</f>
         <v/>
       </c>
-      <c r="F48" s="180" t="str">
+      <c r="F48" s="174" t="str">
         <f>IF(_sjmain4_day_shift!F27="","",_sjmain4_day_shift!F27)</f>
         <v/>
       </c>
-      <c r="G48" s="180" t="str">
+      <c r="G48" s="174" t="str">
         <f>IF(_sjmain4_day_shift!G27="","",_sjmain4_day_shift!G27)</f>
         <v/>
       </c>
-      <c r="H48" s="180" t="str">
+      <c r="H48" s="174" t="str">
         <f>IF(_sjmain4_day_shift!H27="","",_sjmain4_day_shift!H27)</f>
         <v/>
       </c>
-      <c r="I48" s="220" t="str">
+      <c r="I48" s="209" t="str">
         <f>IF(_sjmain4_day_shift!I27="","",_sjmain4_day_shift!I27)</f>
         <v/>
       </c>
-      <c r="J48" s="220" t="str">
+      <c r="J48" s="209" t="str">
         <f>IF(_sjmain4_day_shift!J27="","",_sjmain4_day_shift!J27)</f>
         <v/>
       </c>
-      <c r="K48" s="180" t="str">
+      <c r="K48" s="174" t="str">
         <f>IF(_sjmain4_day_shift!K27="","",_sjmain4_day_shift!K27)</f>
         <v/>
       </c>
-      <c r="L48" s="180" t="str">
+      <c r="L48" s="174" t="str">
         <f>IF(_sjmain4_day_shift!L27="","",_sjmain4_day_shift!L27)</f>
         <v/>
       </c>
-      <c r="M48" s="180" t="str">
+      <c r="M48" s="174" t="str">
         <f>IF(_sjmain4_day_shift!M27="","",_sjmain4_day_shift!M27)</f>
         <v/>
       </c>
-      <c r="N48" s="180" t="str">
+      <c r="N48" s="174" t="str">
         <f>IF(_sjmain4_day_shift!N27="","",_sjmain4_day_shift!N27)</f>
         <v/>
       </c>
-      <c r="O48" s="180" t="str">
+      <c r="O48" s="174" t="str">
         <f>IF(_sjmain4_day_shift!O27="","",_sjmain4_day_shift!O27)</f>
         <v/>
       </c>
-      <c r="P48" s="221"/>
-      <c r="Q48" s="257"/>
+      <c r="P48" s="210"/>
+      <c r="Q48" s="248"/>
       <c r="R48" s="110"/>
       <c r="S48" s="111"/>
-      <c r="T48" s="253"/>
-      <c r="U48" s="254"/>
-      <c r="V48" s="255"/>
-      <c r="W48" s="255"/>
-      <c r="X48" s="256"/>
+      <c r="T48" s="244"/>
+      <c r="U48" s="245"/>
+      <c r="V48" s="246"/>
+      <c r="W48" s="246"/>
+      <c r="X48" s="247"/>
     </row>
     <row r="49" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A49" s="181" t="str">
+      <c r="A49" s="175" t="str">
         <f>IF(_sjmain4_day_shift!A28="","",_sjmain4_day_shift!A28)</f>
         <v/>
       </c>
-      <c r="B49" s="182" t="str">
+      <c r="B49" s="176" t="str">
         <f>IF(_sjmain4_day_shift!B28="","",_sjmain4_day_shift!B28)</f>
         <v/>
       </c>
-      <c r="C49" s="183"/>
-      <c r="D49" s="180" t="str">
+      <c r="C49" s="177"/>
+      <c r="D49" s="174" t="str">
         <f>IF(_sjmain4_day_shift!D28="","",_sjmain4_day_shift!D28)</f>
         <v/>
       </c>
-      <c r="E49" s="180" t="str">
+      <c r="E49" s="174" t="str">
         <f>IF(_sjmain4_day_shift!E28="","",_sjmain4_day_shift!E28)</f>
         <v/>
       </c>
-      <c r="F49" s="180" t="str">
+      <c r="F49" s="174" t="str">
         <f>IF(_sjmain4_day_shift!F28="","",_sjmain4_day_shift!F28)</f>
         <v/>
       </c>
-      <c r="G49" s="180" t="str">
+      <c r="G49" s="174" t="str">
         <f>IF(_sjmain4_day_shift!G28="","",_sjmain4_day_shift!G28)</f>
         <v/>
       </c>
-      <c r="H49" s="180" t="str">
+      <c r="H49" s="174" t="str">
         <f>IF(_sjmain4_day_shift!H28="","",_sjmain4_day_shift!H28)</f>
         <v/>
       </c>
-      <c r="I49" s="220" t="str">
+      <c r="I49" s="209" t="str">
         <f>IF(_sjmain4_day_shift!I28="","",_sjmain4_day_shift!I28)</f>
         <v/>
       </c>
-      <c r="J49" s="220" t="str">
+      <c r="J49" s="209" t="str">
         <f>IF(_sjmain4_day_shift!J28="","",_sjmain4_day_shift!J28)</f>
         <v/>
       </c>
-      <c r="K49" s="180" t="str">
+      <c r="K49" s="174" t="str">
         <f>IF(_sjmain4_day_shift!K28="","",_sjmain4_day_shift!K28)</f>
         <v/>
       </c>
-      <c r="L49" s="180" t="str">
+      <c r="L49" s="174" t="str">
         <f>IF(_sjmain4_day_shift!L28="","",_sjmain4_day_shift!L28)</f>
         <v/>
       </c>
-      <c r="M49" s="180" t="str">
+      <c r="M49" s="174" t="str">
         <f>IF(_sjmain4_day_shift!M28="","",_sjmain4_day_shift!M28)</f>
         <v/>
       </c>
-      <c r="N49" s="180" t="str">
+      <c r="N49" s="174" t="str">
         <f>IF(_sjmain4_day_shift!N28="","",_sjmain4_day_shift!N28)</f>
         <v/>
       </c>
-      <c r="O49" s="180" t="str">
+      <c r="O49" s="174" t="str">
         <f>IF(_sjmain4_day_shift!O28="","",_sjmain4_day_shift!O28)</f>
         <v/>
       </c>
-      <c r="P49" s="221"/>
-      <c r="Q49" s="257"/>
+      <c r="P49" s="210"/>
+      <c r="Q49" s="248"/>
       <c r="R49" s="110"/>
       <c r="S49" s="111"/>
-      <c r="T49" s="253"/>
-      <c r="U49" s="254"/>
-      <c r="V49" s="255"/>
-      <c r="W49" s="255"/>
-      <c r="X49" s="256"/>
+      <c r="T49" s="244"/>
+      <c r="U49" s="245"/>
+      <c r="V49" s="246"/>
+      <c r="W49" s="246"/>
+      <c r="X49" s="247"/>
     </row>
     <row r="50" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A50" s="181" t="str">
+      <c r="A50" s="175" t="str">
         <f>IF(_sjmain4_day_shift!A29="","",_sjmain4_day_shift!A29)</f>
         <v/>
       </c>
-      <c r="B50" s="182" t="str">
+      <c r="B50" s="176" t="str">
         <f>IF(_sjmain4_day_shift!B29="","",_sjmain4_day_shift!B29)</f>
         <v/>
       </c>
-      <c r="C50" s="183"/>
-      <c r="D50" s="180" t="str">
+      <c r="C50" s="177"/>
+      <c r="D50" s="174" t="str">
         <f>IF(_sjmain4_day_shift!D29="","",_sjmain4_day_shift!D29)</f>
         <v/>
       </c>
-      <c r="E50" s="180" t="str">
+      <c r="E50" s="174" t="str">
         <f>IF(_sjmain4_day_shift!E29="","",_sjmain4_day_shift!E29)</f>
         <v/>
       </c>
-      <c r="F50" s="180" t="str">
+      <c r="F50" s="174" t="str">
         <f>IF(_sjmain4_day_shift!F29="","",_sjmain4_day_shift!F29)</f>
         <v/>
       </c>
-      <c r="G50" s="180" t="str">
+      <c r="G50" s="174" t="str">
         <f>IF(_sjmain4_day_shift!G29="","",_sjmain4_day_shift!G29)</f>
         <v/>
       </c>
-      <c r="H50" s="180" t="str">
+      <c r="H50" s="174" t="str">
         <f>IF(_sjmain4_day_shift!H29="","",_sjmain4_day_shift!H29)</f>
         <v/>
       </c>
-      <c r="I50" s="220" t="str">
+      <c r="I50" s="209" t="str">
         <f>IF(_sjmain4_day_shift!I29="","",_sjmain4_day_shift!I29)</f>
         <v/>
       </c>
-      <c r="J50" s="220" t="str">
+      <c r="J50" s="209" t="str">
         <f>IF(_sjmain4_day_shift!J29="","",_sjmain4_day_shift!J29)</f>
         <v/>
       </c>
-      <c r="K50" s="180" t="str">
+      <c r="K50" s="174" t="str">
         <f>IF(_sjmain4_day_shift!K29="","",_sjmain4_day_shift!K29)</f>
         <v/>
       </c>
-      <c r="L50" s="180" t="str">
+      <c r="L50" s="174" t="str">
         <f>IF(_sjmain4_day_shift!L29="","",_sjmain4_day_shift!L29)</f>
         <v/>
       </c>
-      <c r="M50" s="180" t="str">
+      <c r="M50" s="174" t="str">
         <f>IF(_sjmain4_day_shift!M29="","",_sjmain4_day_shift!M29)</f>
         <v/>
       </c>
-      <c r="N50" s="180" t="str">
+      <c r="N50" s="174" t="str">
         <f>IF(_sjmain4_day_shift!N29="","",_sjmain4_day_shift!N29)</f>
         <v/>
       </c>
-      <c r="O50" s="180" t="str">
+      <c r="O50" s="174" t="str">
         <f>IF(_sjmain4_day_shift!O29="","",_sjmain4_day_shift!O29)</f>
         <v/>
       </c>
-      <c r="P50" s="221"/>
-      <c r="Q50" s="257"/>
+      <c r="P50" s="210"/>
+      <c r="Q50" s="248"/>
       <c r="R50" s="110"/>
       <c r="S50" s="111"/>
-      <c r="T50" s="253"/>
-      <c r="U50" s="254"/>
-      <c r="V50" s="255"/>
-      <c r="W50" s="255"/>
-      <c r="X50" s="256"/>
+      <c r="T50" s="244"/>
+      <c r="U50" s="245"/>
+      <c r="V50" s="246"/>
+      <c r="W50" s="246"/>
+      <c r="X50" s="247"/>
     </row>
     <row r="51" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A51" s="181" t="str">
+      <c r="A51" s="175" t="str">
         <f>IF(_sjmain4_day_shift!A30="","",_sjmain4_day_shift!A30)</f>
         <v/>
       </c>
-      <c r="B51" s="182" t="str">
+      <c r="B51" s="176" t="str">
         <f>IF(_sjmain4_day_shift!B30="","",_sjmain4_day_shift!B30)</f>
         <v/>
       </c>
-      <c r="C51" s="183"/>
-      <c r="D51" s="180" t="str">
+      <c r="C51" s="177"/>
+      <c r="D51" s="174" t="str">
         <f>IF(_sjmain4_day_shift!D30="","",_sjmain4_day_shift!D30)</f>
         <v/>
       </c>
-      <c r="E51" s="180" t="str">
+      <c r="E51" s="174" t="str">
         <f>IF(_sjmain4_day_shift!E30="","",_sjmain4_day_shift!E30)</f>
         <v/>
       </c>
-      <c r="F51" s="180" t="str">
+      <c r="F51" s="174" t="str">
         <f>IF(_sjmain4_day_shift!F30="","",_sjmain4_day_shift!F30)</f>
         <v/>
       </c>
-      <c r="G51" s="180" t="str">
+      <c r="G51" s="174" t="str">
         <f>IF(_sjmain4_day_shift!G30="","",_sjmain4_day_shift!G30)</f>
         <v/>
       </c>
-      <c r="H51" s="180" t="str">
+      <c r="H51" s="174" t="str">
         <f>IF(_sjmain4_day_shift!H30="","",_sjmain4_day_shift!H30)</f>
         <v/>
       </c>
-      <c r="I51" s="220" t="str">
+      <c r="I51" s="209" t="str">
         <f>IF(_sjmain4_day_shift!I30="","",_sjmain4_day_shift!I30)</f>
         <v/>
       </c>
-      <c r="J51" s="220" t="str">
+      <c r="J51" s="209" t="str">
         <f>IF(_sjmain4_day_shift!J30="","",_sjmain4_day_shift!J30)</f>
         <v/>
       </c>
-      <c r="K51" s="180" t="str">
+      <c r="K51" s="174" t="str">
         <f>IF(_sjmain4_day_shift!K30="","",_sjmain4_day_shift!K30)</f>
         <v/>
       </c>
-      <c r="L51" s="180" t="str">
+      <c r="L51" s="174" t="str">
         <f>IF(_sjmain4_day_shift!L30="","",_sjmain4_day_shift!L30)</f>
         <v/>
       </c>
-      <c r="M51" s="180" t="str">
+      <c r="M51" s="174" t="str">
         <f>IF(_sjmain4_day_shift!M30="","",_sjmain4_day_shift!M30)</f>
         <v/>
       </c>
-      <c r="N51" s="180" t="str">
+      <c r="N51" s="174" t="str">
         <f>IF(_sjmain4_day_shift!N30="","",_sjmain4_day_shift!N30)</f>
         <v/>
       </c>
-      <c r="O51" s="180" t="str">
+      <c r="O51" s="174" t="str">
         <f>IF(_sjmain4_day_shift!O30="","",_sjmain4_day_shift!O30)</f>
         <v/>
       </c>
-      <c r="P51" s="221"/>
-      <c r="Q51" s="257"/>
+      <c r="P51" s="210"/>
+      <c r="Q51" s="248"/>
       <c r="R51" s="110"/>
       <c r="S51" s="111"/>
-      <c r="T51" s="253"/>
-      <c r="U51" s="254"/>
-      <c r="V51" s="255"/>
-      <c r="W51" s="255"/>
-      <c r="X51" s="256"/>
+      <c r="T51" s="244"/>
+      <c r="U51" s="245"/>
+      <c r="V51" s="246"/>
+      <c r="W51" s="246"/>
+      <c r="X51" s="247"/>
     </row>
     <row r="52" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A52" s="181" t="str">
+      <c r="A52" s="175" t="str">
         <f>IF(_sjmain4_day_shift!A31="","",_sjmain4_day_shift!A31)</f>
         <v/>
       </c>
-      <c r="B52" s="182" t="str">
+      <c r="B52" s="176" t="str">
         <f>IF(_sjmain4_day_shift!B31="","",_sjmain4_day_shift!B31)</f>
         <v/>
       </c>
-      <c r="C52" s="183"/>
-      <c r="D52" s="180" t="str">
+      <c r="C52" s="177"/>
+      <c r="D52" s="174" t="str">
         <f>IF(_sjmain4_day_shift!D31="","",_sjmain4_day_shift!D31)</f>
         <v/>
       </c>
-      <c r="E52" s="180" t="str">
+      <c r="E52" s="174" t="str">
         <f>IF(_sjmain4_day_shift!E31="","",_sjmain4_day_shift!E31)</f>
         <v/>
       </c>
-      <c r="F52" s="180" t="str">
+      <c r="F52" s="174" t="str">
         <f>IF(_sjmain4_day_shift!F31="","",_sjmain4_day_shift!F31)</f>
         <v/>
       </c>
-      <c r="G52" s="180" t="str">
+      <c r="G52" s="174" t="str">
         <f>IF(_sjmain4_day_shift!G31="","",_sjmain4_day_shift!G31)</f>
         <v/>
       </c>
-      <c r="H52" s="180" t="str">
+      <c r="H52" s="174" t="str">
         <f>IF(_sjmain4_day_shift!H31="","",_sjmain4_day_shift!H31)</f>
         <v/>
       </c>
-      <c r="I52" s="220" t="str">
+      <c r="I52" s="209" t="str">
         <f>IF(_sjmain4_day_shift!I31="","",_sjmain4_day_shift!I31)</f>
         <v/>
       </c>
-      <c r="J52" s="220" t="str">
+      <c r="J52" s="209" t="str">
         <f>IF(_sjmain4_day_shift!J31="","",_sjmain4_day_shift!J31)</f>
         <v/>
       </c>
-      <c r="K52" s="180" t="str">
+      <c r="K52" s="174" t="str">
         <f>IF(_sjmain4_day_shift!K31="","",_sjmain4_day_shift!K31)</f>
         <v/>
       </c>
-      <c r="L52" s="180" t="str">
+      <c r="L52" s="174" t="str">
         <f>IF(_sjmain4_day_shift!L31="","",_sjmain4_day_shift!L31)</f>
         <v/>
       </c>
-      <c r="M52" s="180" t="str">
+      <c r="M52" s="174" t="str">
         <f>IF(_sjmain4_day_shift!M31="","",_sjmain4_day_shift!M31)</f>
         <v/>
       </c>
-      <c r="N52" s="180" t="str">
+      <c r="N52" s="174" t="str">
         <f>IF(_sjmain4_day_shift!N31="","",_sjmain4_day_shift!N31)</f>
         <v/>
       </c>
-      <c r="O52" s="180" t="str">
+      <c r="O52" s="174" t="str">
         <f>IF(_sjmain4_day_shift!O31="","",_sjmain4_day_shift!O31)</f>
         <v/>
       </c>
-      <c r="P52" s="221"/>
-      <c r="Q52" s="257"/>
+      <c r="P52" s="210"/>
+      <c r="Q52" s="248"/>
       <c r="R52" s="110"/>
       <c r="S52" s="111"/>
-      <c r="T52" s="253"/>
-      <c r="U52" s="254"/>
-      <c r="V52" s="255"/>
-      <c r="W52" s="255"/>
-      <c r="X52" s="256"/>
+      <c r="T52" s="244"/>
+      <c r="U52" s="245"/>
+      <c r="V52" s="246"/>
+      <c r="W52" s="246"/>
+      <c r="X52" s="247"/>
     </row>
     <row r="53" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A53" s="181" t="str">
+      <c r="A53" s="175" t="str">
         <f>IF(_sjmain4_day_shift!A32="","",_sjmain4_day_shift!A32)</f>
         <v/>
       </c>
-      <c r="B53" s="182" t="str">
+      <c r="B53" s="176" t="str">
         <f>IF(_sjmain4_day_shift!B32="","",_sjmain4_day_shift!B32)</f>
         <v/>
       </c>
-      <c r="C53" s="183"/>
-      <c r="D53" s="180" t="str">
+      <c r="C53" s="177"/>
+      <c r="D53" s="174" t="str">
         <f>IF(_sjmain4_day_shift!D32="","",_sjmain4_day_shift!D32)</f>
         <v/>
       </c>
-      <c r="E53" s="180" t="str">
+      <c r="E53" s="174" t="str">
         <f>IF(_sjmain4_day_shift!E32="","",_sjmain4_day_shift!E32)</f>
         <v/>
       </c>
-      <c r="F53" s="180" t="str">
+      <c r="F53" s="174" t="str">
         <f>IF(_sjmain4_day_shift!F32="","",_sjmain4_day_shift!F32)</f>
         <v/>
       </c>
-      <c r="G53" s="180" t="str">
+      <c r="G53" s="174" t="str">
         <f>IF(_sjmain4_day_shift!G32="","",_sjmain4_day_shift!G32)</f>
         <v/>
       </c>
-      <c r="H53" s="180" t="str">
+      <c r="H53" s="174" t="str">
         <f>IF(_sjmain4_day_shift!H32="","",_sjmain4_day_shift!H32)</f>
         <v/>
       </c>
-      <c r="I53" s="220" t="str">
+      <c r="I53" s="209" t="str">
         <f>IF(_sjmain4_day_shift!I32="","",_sjmain4_day_shift!I32)</f>
         <v/>
       </c>
-      <c r="J53" s="220" t="str">
+      <c r="J53" s="209" t="str">
         <f>IF(_sjmain4_day_shift!J32="","",_sjmain4_day_shift!J32)</f>
         <v/>
       </c>
-      <c r="K53" s="180" t="str">
+      <c r="K53" s="174" t="str">
         <f>IF(_sjmain4_day_shift!K32="","",_sjmain4_day_shift!K32)</f>
         <v/>
       </c>
-      <c r="L53" s="180" t="str">
+      <c r="L53" s="174" t="str">
         <f>IF(_sjmain4_day_shift!L32="","",_sjmain4_day_shift!L32)</f>
         <v/>
       </c>
-      <c r="M53" s="180" t="str">
+      <c r="M53" s="174" t="str">
         <f>IF(_sjmain4_day_shift!M32="","",_sjmain4_day_shift!M32)</f>
         <v/>
       </c>
-      <c r="N53" s="180" t="str">
+      <c r="N53" s="174" t="str">
         <f>IF(_sjmain4_day_shift!N32="","",_sjmain4_day_shift!N32)</f>
         <v/>
       </c>
-      <c r="O53" s="180" t="str">
+      <c r="O53" s="174" t="str">
         <f>IF(_sjmain4_day_shift!O32="","",_sjmain4_day_shift!O32)</f>
         <v/>
       </c>
-      <c r="P53" s="221"/>
-      <c r="Q53" s="257"/>
+      <c r="P53" s="210"/>
+      <c r="Q53" s="248"/>
       <c r="R53" s="110"/>
       <c r="S53" s="111"/>
-      <c r="T53" s="253"/>
-      <c r="U53" s="254"/>
-      <c r="V53" s="255"/>
-      <c r="W53" s="255"/>
-      <c r="X53" s="256"/>
+      <c r="T53" s="244"/>
+      <c r="U53" s="245"/>
+      <c r="V53" s="246"/>
+      <c r="W53" s="246"/>
+      <c r="X53" s="247"/>
     </row>
     <row r="54" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A54" s="181" t="str">
+      <c r="A54" s="175" t="str">
         <f>IF(_sjmain4_day_shift!A33="","",_sjmain4_day_shift!A33)</f>
         <v/>
       </c>
-      <c r="B54" s="182" t="str">
+      <c r="B54" s="176" t="str">
         <f>IF(_sjmain4_day_shift!B33="","",_sjmain4_day_shift!B33)</f>
         <v/>
       </c>
-      <c r="C54" s="183"/>
-      <c r="D54" s="180" t="str">
+      <c r="C54" s="177"/>
+      <c r="D54" s="174" t="str">
         <f>IF(_sjmain4_day_shift!D33="","",_sjmain4_day_shift!D33)</f>
         <v/>
       </c>
-      <c r="E54" s="180" t="str">
+      <c r="E54" s="174" t="str">
         <f>IF(_sjmain4_day_shift!E33="","",_sjmain4_day_shift!E33)</f>
         <v/>
       </c>
-      <c r="F54" s="180" t="str">
+      <c r="F54" s="174" t="str">
         <f>IF(_sjmain4_day_shift!F33="","",_sjmain4_day_shift!F33)</f>
         <v/>
       </c>
-      <c r="G54" s="180" t="str">
+      <c r="G54" s="174" t="str">
         <f>IF(_sjmain4_day_shift!G33="","",_sjmain4_day_shift!G33)</f>
         <v/>
       </c>
-      <c r="H54" s="180" t="str">
+      <c r="H54" s="174" t="str">
         <f>IF(_sjmain4_day_shift!H33="","",_sjmain4_day_shift!H33)</f>
         <v/>
       </c>
-      <c r="I54" s="220" t="str">
+      <c r="I54" s="209" t="str">
         <f>IF(_sjmain4_day_shift!I33="","",_sjmain4_day_shift!I33)</f>
         <v/>
       </c>
-      <c r="J54" s="220" t="str">
+      <c r="J54" s="209" t="str">
         <f>IF(_sjmain4_day_shift!J33="","",_sjmain4_day_shift!J33)</f>
         <v/>
       </c>
-      <c r="K54" s="180" t="str">
+      <c r="K54" s="174" t="str">
         <f>IF(_sjmain4_day_shift!K33="","",_sjmain4_day_shift!K33)</f>
         <v/>
       </c>
-      <c r="L54" s="180" t="str">
+      <c r="L54" s="174" t="str">
         <f>IF(_sjmain4_day_shift!L33="","",_sjmain4_day_shift!L33)</f>
         <v/>
       </c>
-      <c r="M54" s="180" t="str">
+      <c r="M54" s="174" t="str">
         <f>IF(_sjmain4_day_shift!M33="","",_sjmain4_day_shift!M33)</f>
         <v/>
       </c>
-      <c r="N54" s="180" t="str">
+      <c r="N54" s="174" t="str">
         <f>IF(_sjmain4_day_shift!N33="","",_sjmain4_day_shift!N33)</f>
         <v/>
       </c>
-      <c r="O54" s="180" t="str">
+      <c r="O54" s="174" t="str">
         <f>IF(_sjmain4_day_shift!O33="","",_sjmain4_day_shift!O33)</f>
         <v/>
       </c>
-      <c r="P54" s="221"/>
-      <c r="Q54" s="257"/>
+      <c r="P54" s="210"/>
+      <c r="Q54" s="248"/>
       <c r="R54" s="110"/>
       <c r="S54" s="111"/>
-      <c r="T54" s="253"/>
-      <c r="U54" s="254"/>
-      <c r="V54" s="255"/>
-      <c r="W54" s="255"/>
-      <c r="X54" s="256"/>
+      <c r="T54" s="244"/>
+      <c r="U54" s="245"/>
+      <c r="V54" s="246"/>
+      <c r="W54" s="246"/>
+      <c r="X54" s="247"/>
     </row>
     <row r="55" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A55" s="181" t="str">
+      <c r="A55" s="175" t="str">
         <f>IF(_sjmain4_day_shift!A34="","",_sjmain4_day_shift!A34)</f>
         <v/>
       </c>
-      <c r="B55" s="182" t="str">
+      <c r="B55" s="176" t="str">
         <f>IF(_sjmain4_day_shift!B34="","",_sjmain4_day_shift!B34)</f>
         <v/>
       </c>
-      <c r="C55" s="183"/>
-      <c r="D55" s="180" t="str">
+      <c r="C55" s="177"/>
+      <c r="D55" s="174" t="str">
         <f>IF(_sjmain4_day_shift!D34="","",_sjmain4_day_shift!D34)</f>
         <v/>
       </c>
-      <c r="E55" s="180" t="str">
+      <c r="E55" s="174" t="str">
         <f>IF(_sjmain4_day_shift!E34="","",_sjmain4_day_shift!E34)</f>
         <v/>
       </c>
-      <c r="F55" s="180" t="str">
+      <c r="F55" s="174" t="str">
         <f>IF(_sjmain4_day_shift!F34="","",_sjmain4_day_shift!F34)</f>
         <v/>
       </c>
-      <c r="G55" s="180" t="str">
+      <c r="G55" s="174" t="str">
         <f>IF(_sjmain4_day_shift!G34="","",_sjmain4_day_shift!G34)</f>
         <v/>
       </c>
-      <c r="H55" s="180" t="str">
+      <c r="H55" s="174" t="str">
         <f>IF(_sjmain4_day_shift!H34="","",_sjmain4_day_shift!H34)</f>
         <v/>
       </c>
-      <c r="I55" s="220" t="str">
+      <c r="I55" s="209" t="str">
         <f>IF(_sjmain4_day_shift!I34="","",_sjmain4_day_shift!I34)</f>
         <v/>
       </c>
-      <c r="J55" s="220" t="str">
+      <c r="J55" s="209" t="str">
         <f>IF(_sjmain4_day_shift!J34="","",_sjmain4_day_shift!J34)</f>
         <v/>
       </c>
-      <c r="K55" s="180" t="str">
+      <c r="K55" s="174" t="str">
         <f>IF(_sjmain4_day_shift!K34="","",_sjmain4_day_shift!K34)</f>
         <v/>
       </c>
-      <c r="L55" s="180" t="str">
+      <c r="L55" s="174" t="str">
         <f>IF(_sjmain4_day_shift!L34="","",_sjmain4_day_shift!L34)</f>
         <v/>
       </c>
-      <c r="M55" s="180" t="str">
+      <c r="M55" s="174" t="str">
         <f>IF(_sjmain4_day_shift!M34="","",_sjmain4_day_shift!M34)</f>
         <v/>
       </c>
-      <c r="N55" s="180" t="str">
+      <c r="N55" s="174" t="str">
         <f>IF(_sjmain4_day_shift!N34="","",_sjmain4_day_shift!N34)</f>
         <v/>
       </c>
-      <c r="O55" s="180" t="str">
+      <c r="O55" s="174" t="str">
         <f>IF(_sjmain4_day_shift!O34="","",_sjmain4_day_shift!O34)</f>
         <v/>
       </c>
-      <c r="P55" s="221"/>
-      <c r="Q55" s="257"/>
+      <c r="P55" s="210"/>
+      <c r="Q55" s="248"/>
       <c r="R55" s="110"/>
       <c r="S55" s="111"/>
-      <c r="T55" s="253"/>
-      <c r="U55" s="254"/>
-      <c r="V55" s="255"/>
-      <c r="W55" s="255"/>
-      <c r="X55" s="256"/>
+      <c r="T55" s="244"/>
+      <c r="U55" s="245"/>
+      <c r="V55" s="246"/>
+      <c r="W55" s="246"/>
+      <c r="X55" s="247"/>
     </row>
     <row r="56" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A56" s="181" t="str">
+      <c r="A56" s="175" t="str">
         <f>IF(_sjmain4_day_shift!A35="","",_sjmain4_day_shift!A35)</f>
         <v/>
       </c>
-      <c r="B56" s="182" t="str">
+      <c r="B56" s="176" t="str">
         <f>IF(_sjmain4_day_shift!B35="","",_sjmain4_day_shift!B35)</f>
         <v/>
       </c>
-      <c r="C56" s="183"/>
-      <c r="D56" s="180" t="str">
+      <c r="C56" s="177"/>
+      <c r="D56" s="174" t="str">
         <f>IF(_sjmain4_day_shift!D35="","",_sjmain4_day_shift!D35)</f>
         <v/>
       </c>
-      <c r="E56" s="180" t="str">
+      <c r="E56" s="174" t="str">
         <f>IF(_sjmain4_day_shift!E35="","",_sjmain4_day_shift!E35)</f>
         <v/>
       </c>
-      <c r="F56" s="180" t="str">
+      <c r="F56" s="174" t="str">
         <f>IF(_sjmain4_day_shift!F35="","",_sjmain4_day_shift!F35)</f>
         <v/>
       </c>
-      <c r="G56" s="180" t="str">
+      <c r="G56" s="174" t="str">
         <f>IF(_sjmain4_day_shift!G35="","",_sjmain4_day_shift!G35)</f>
         <v/>
       </c>
-      <c r="H56" s="180" t="str">
+      <c r="H56" s="174" t="str">
         <f>IF(_sjmain4_day_shift!H35="","",_sjmain4_day_shift!H35)</f>
         <v/>
       </c>
-      <c r="I56" s="220" t="str">
+      <c r="I56" s="209" t="str">
         <f>IF(_sjmain4_day_shift!I35="","",_sjmain4_day_shift!I35)</f>
         <v/>
       </c>
-      <c r="J56" s="220" t="str">
+      <c r="J56" s="209" t="str">
         <f>IF(_sjmain4_day_shift!J35="","",_sjmain4_day_shift!J35)</f>
         <v/>
       </c>
-      <c r="K56" s="180" t="str">
+      <c r="K56" s="174" t="str">
         <f>IF(_sjmain4_day_shift!K35="","",_sjmain4_day_shift!K35)</f>
         <v/>
       </c>
-      <c r="L56" s="180" t="str">
+      <c r="L56" s="174" t="str">
         <f>IF(_sjmain4_day_shift!L35="","",_sjmain4_day_shift!L35)</f>
         <v/>
       </c>
-      <c r="M56" s="180" t="str">
+      <c r="M56" s="174" t="str">
         <f>IF(_sjmain4_day_shift!M35="","",_sjmain4_day_shift!M35)</f>
         <v/>
       </c>
-      <c r="N56" s="180" t="str">
+      <c r="N56" s="174" t="str">
         <f>IF(_sjmain4_day_shift!N35="","",_sjmain4_day_shift!N35)</f>
         <v/>
       </c>
-      <c r="O56" s="180" t="str">
+      <c r="O56" s="174" t="str">
         <f>IF(_sjmain4_day_shift!O35="","",_sjmain4_day_shift!O35)</f>
         <v/>
       </c>
-      <c r="P56" s="221"/>
-      <c r="Q56" s="257"/>
+      <c r="P56" s="210"/>
+      <c r="Q56" s="248"/>
       <c r="R56" s="110"/>
       <c r="S56" s="111"/>
-      <c r="T56" s="253"/>
-      <c r="U56" s="254"/>
-      <c r="V56" s="255"/>
-      <c r="W56" s="255"/>
-      <c r="X56" s="256"/>
+      <c r="T56" s="244"/>
+      <c r="U56" s="245"/>
+      <c r="V56" s="246"/>
+      <c r="W56" s="246"/>
+      <c r="X56" s="247"/>
     </row>
     <row r="57" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A57" s="181" t="str">
+      <c r="A57" s="175" t="str">
         <f>IF(_sjmain4_day_shift!A36="","",_sjmain4_day_shift!A36)</f>
         <v/>
       </c>
-      <c r="B57" s="182" t="str">
+      <c r="B57" s="176" t="str">
         <f>IF(_sjmain4_day_shift!B36="","",_sjmain4_day_shift!B36)</f>
         <v/>
       </c>
-      <c r="C57" s="183"/>
-      <c r="D57" s="180" t="str">
+      <c r="C57" s="177"/>
+      <c r="D57" s="174" t="str">
         <f>IF(_sjmain4_day_shift!D36="","",_sjmain4_day_shift!D36)</f>
         <v/>
       </c>
-      <c r="E57" s="180" t="str">
+      <c r="E57" s="174" t="str">
         <f>IF(_sjmain4_day_shift!E36="","",_sjmain4_day_shift!E36)</f>
         <v/>
       </c>
-      <c r="F57" s="180" t="str">
+      <c r="F57" s="174" t="str">
         <f>IF(_sjmain4_day_shift!F36="","",_sjmain4_day_shift!F36)</f>
         <v/>
       </c>
-      <c r="G57" s="180" t="str">
+      <c r="G57" s="174" t="str">
         <f>IF(_sjmain4_day_shift!G36="","",_sjmain4_day_shift!G36)</f>
         <v/>
       </c>
-      <c r="H57" s="180" t="str">
+      <c r="H57" s="174" t="str">
         <f>IF(_sjmain4_day_shift!H36="","",_sjmain4_day_shift!H36)</f>
         <v/>
       </c>
-      <c r="I57" s="220" t="str">
+      <c r="I57" s="209" t="str">
         <f>IF(_sjmain4_day_shift!I36="","",_sjmain4_day_shift!I36)</f>
         <v/>
       </c>
-      <c r="J57" s="220" t="str">
+      <c r="J57" s="209" t="str">
         <f>IF(_sjmain4_day_shift!J36="","",_sjmain4_day_shift!J36)</f>
         <v/>
       </c>
-      <c r="K57" s="180" t="str">
+      <c r="K57" s="174" t="str">
         <f>IF(_sjmain4_day_shift!K36="","",_sjmain4_day_shift!K36)</f>
         <v/>
       </c>
-      <c r="L57" s="180" t="str">
+      <c r="L57" s="174" t="str">
         <f>IF(_sjmain4_day_shift!L36="","",_sjmain4_day_shift!L36)</f>
         <v/>
       </c>
-      <c r="M57" s="180" t="str">
+      <c r="M57" s="174" t="str">
         <f>IF(_sjmain4_day_shift!M36="","",_sjmain4_day_shift!M36)</f>
         <v/>
       </c>
-      <c r="N57" s="180" t="str">
+      <c r="N57" s="174" t="str">
         <f>IF(_sjmain4_day_shift!N36="","",_sjmain4_day_shift!N36)</f>
         <v/>
       </c>
-      <c r="O57" s="180" t="str">
+      <c r="O57" s="174" t="str">
         <f>IF(_sjmain4_day_shift!O36="","",_sjmain4_day_shift!O36)</f>
         <v/>
       </c>
-      <c r="P57" s="221"/>
-      <c r="Q57" s="257"/>
+      <c r="P57" s="210"/>
+      <c r="Q57" s="248"/>
       <c r="R57" s="110"/>
       <c r="S57" s="111"/>
-      <c r="T57" s="253"/>
-      <c r="U57" s="254"/>
-      <c r="V57" s="255"/>
-      <c r="W57" s="255"/>
-      <c r="X57" s="256"/>
+      <c r="T57" s="244"/>
+      <c r="U57" s="245"/>
+      <c r="V57" s="246"/>
+      <c r="W57" s="246"/>
+      <c r="X57" s="247"/>
     </row>
     <row r="58" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A58" s="181" t="str">
+      <c r="A58" s="175" t="str">
         <f>IF(_sjmain4_day_shift!A37="","",_sjmain4_day_shift!A37)</f>
         <v/>
       </c>
-      <c r="B58" s="182" t="str">
+      <c r="B58" s="176" t="str">
         <f>IF(_sjmain4_day_shift!B37="","",_sjmain4_day_shift!B37)</f>
         <v/>
       </c>
-      <c r="C58" s="183"/>
-      <c r="D58" s="180" t="str">
+      <c r="C58" s="177"/>
+      <c r="D58" s="174" t="str">
         <f>IF(_sjmain4_day_shift!D37="","",_sjmain4_day_shift!D37)</f>
         <v/>
       </c>
-      <c r="E58" s="180" t="str">
+      <c r="E58" s="174" t="str">
         <f>IF(_sjmain4_day_shift!E37="","",_sjmain4_day_shift!E37)</f>
         <v/>
       </c>
-      <c r="F58" s="180" t="str">
+      <c r="F58" s="174" t="str">
         <f>IF(_sjmain4_day_shift!F37="","",_sjmain4_day_shift!F37)</f>
         <v/>
       </c>
-      <c r="G58" s="180" t="str">
+      <c r="G58" s="174" t="str">
         <f>IF(_sjmain4_day_shift!G37="","",_sjmain4_day_shift!G37)</f>
         <v/>
       </c>
-      <c r="H58" s="180" t="str">
+      <c r="H58" s="174" t="str">
         <f>IF(_sjmain4_day_shift!H37="","",_sjmain4_day_shift!H37)</f>
         <v/>
       </c>
-      <c r="I58" s="220" t="str">
+      <c r="I58" s="209" t="str">
         <f>IF(_sjmain4_day_shift!I37="","",_sjmain4_day_shift!I37)</f>
         <v/>
       </c>
-      <c r="J58" s="220" t="str">
+      <c r="J58" s="209" t="str">
         <f>IF(_sjmain4_day_shift!J37="","",_sjmain4_day_shift!J37)</f>
         <v/>
       </c>
-      <c r="K58" s="180" t="str">
+      <c r="K58" s="174" t="str">
         <f>IF(_sjmain4_day_shift!K37="","",_sjmain4_day_shift!K37)</f>
         <v/>
       </c>
-      <c r="L58" s="180" t="str">
+      <c r="L58" s="174" t="str">
         <f>IF(_sjmain4_day_shift!L37="","",_sjmain4_day_shift!L37)</f>
         <v/>
       </c>
-      <c r="M58" s="180" t="str">
+      <c r="M58" s="174" t="str">
         <f>IF(_sjmain4_day_shift!M37="","",_sjmain4_day_shift!M37)</f>
         <v/>
       </c>
-      <c r="N58" s="180" t="str">
+      <c r="N58" s="174" t="str">
         <f>IF(_sjmain4_day_shift!N37="","",_sjmain4_day_shift!N37)</f>
         <v/>
       </c>
-      <c r="O58" s="180" t="str">
+      <c r="O58" s="174" t="str">
         <f>IF(_sjmain4_day_shift!O37="","",_sjmain4_day_shift!O37)</f>
         <v/>
       </c>
-      <c r="P58" s="221"/>
-      <c r="Q58" s="257"/>
+      <c r="P58" s="210"/>
+      <c r="Q58" s="248"/>
       <c r="R58" s="110"/>
       <c r="S58" s="111"/>
-      <c r="T58" s="253"/>
-      <c r="U58" s="254"/>
-      <c r="V58" s="255"/>
-      <c r="W58" s="255"/>
-      <c r="X58" s="256"/>
+      <c r="T58" s="244"/>
+      <c r="U58" s="245"/>
+      <c r="V58" s="246"/>
+      <c r="W58" s="246"/>
+      <c r="X58" s="247"/>
     </row>
     <row r="59" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A59" s="181" t="str">
+      <c r="A59" s="175" t="str">
         <f>IF(_sjmain4_day_shift!A38="","",_sjmain4_day_shift!A38)</f>
         <v/>
       </c>
-      <c r="B59" s="182" t="str">
+      <c r="B59" s="176" t="str">
         <f>IF(_sjmain4_day_shift!B38="","",_sjmain4_day_shift!B38)</f>
         <v/>
       </c>
-      <c r="C59" s="183"/>
-      <c r="D59" s="180" t="str">
+      <c r="C59" s="177"/>
+      <c r="D59" s="174" t="str">
         <f>IF(_sjmain4_day_shift!D38="","",_sjmain4_day_shift!D38)</f>
         <v/>
       </c>
-      <c r="E59" s="180" t="str">
+      <c r="E59" s="174" t="str">
         <f>IF(_sjmain4_day_shift!E38="","",_sjmain4_day_shift!E38)</f>
         <v/>
       </c>
-      <c r="F59" s="180" t="str">
+      <c r="F59" s="174" t="str">
         <f>IF(_sjmain4_day_shift!F38="","",_sjmain4_day_shift!F38)</f>
         <v/>
       </c>
-      <c r="G59" s="180" t="str">
+      <c r="G59" s="174" t="str">
         <f>IF(_sjmain4_day_shift!G38="","",_sjmain4_day_shift!G38)</f>
         <v/>
       </c>
-      <c r="H59" s="180" t="str">
+      <c r="H59" s="174" t="str">
         <f>IF(_sjmain4_day_shift!H38="","",_sjmain4_day_shift!H38)</f>
         <v/>
       </c>
-      <c r="I59" s="220" t="str">
+      <c r="I59" s="209" t="str">
         <f>IF(_sjmain4_day_shift!I38="","",_sjmain4_day_shift!I38)</f>
         <v/>
       </c>
-      <c r="J59" s="220" t="str">
+      <c r="J59" s="209" t="str">
         <f>IF(_sjmain4_day_shift!J38="","",_sjmain4_day_shift!J38)</f>
         <v/>
       </c>
-      <c r="K59" s="180" t="str">
+      <c r="K59" s="174" t="str">
         <f>IF(_sjmain4_day_shift!K38="","",_sjmain4_day_shift!K38)</f>
         <v/>
       </c>
-      <c r="L59" s="180" t="str">
+      <c r="L59" s="174" t="str">
         <f>IF(_sjmain4_day_shift!L38="","",_sjmain4_day_shift!L38)</f>
         <v/>
       </c>
-      <c r="M59" s="180" t="str">
+      <c r="M59" s="174" t="str">
         <f>IF(_sjmain4_day_shift!M38="","",_sjmain4_day_shift!M38)</f>
         <v/>
       </c>
-      <c r="N59" s="180" t="str">
+      <c r="N59" s="174" t="str">
         <f>IF(_sjmain4_day_shift!N38="","",_sjmain4_day_shift!N38)</f>
         <v/>
       </c>
-      <c r="O59" s="180" t="str">
+      <c r="O59" s="174" t="str">
         <f>IF(_sjmain4_day_shift!O38="","",_sjmain4_day_shift!O38)</f>
         <v/>
       </c>
-      <c r="P59" s="221"/>
-      <c r="Q59" s="257"/>
+      <c r="P59" s="210"/>
+      <c r="Q59" s="248"/>
       <c r="R59" s="110"/>
       <c r="S59" s="111"/>
-      <c r="T59" s="253"/>
-      <c r="U59" s="254"/>
-      <c r="V59" s="255"/>
-      <c r="W59" s="255"/>
-      <c r="X59" s="256"/>
+      <c r="T59" s="244"/>
+      <c r="U59" s="245"/>
+      <c r="V59" s="246"/>
+      <c r="W59" s="246"/>
+      <c r="X59" s="247"/>
     </row>
     <row r="60" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A60" s="181" t="str">
+      <c r="A60" s="175" t="str">
         <f>IF(_sjmain4_day_shift!A39="","",_sjmain4_day_shift!A39)</f>
         <v/>
       </c>
-      <c r="B60" s="182" t="str">
+      <c r="B60" s="176" t="str">
         <f>IF(_sjmain4_day_shift!B39="","",_sjmain4_day_shift!B39)</f>
         <v/>
       </c>
-      <c r="C60" s="183"/>
-      <c r="D60" s="180" t="str">
+      <c r="C60" s="177"/>
+      <c r="D60" s="174" t="str">
         <f>IF(_sjmain4_day_shift!D39="","",_sjmain4_day_shift!D39)</f>
         <v/>
       </c>
-      <c r="E60" s="180" t="str">
+      <c r="E60" s="174" t="str">
         <f>IF(_sjmain4_day_shift!E39="","",_sjmain4_day_shift!E39)</f>
         <v/>
       </c>
-      <c r="F60" s="180" t="str">
+      <c r="F60" s="174" t="str">
         <f>IF(_sjmain4_day_shift!F39="","",_sjmain4_day_shift!F39)</f>
         <v/>
       </c>
-      <c r="G60" s="180" t="str">
+      <c r="G60" s="174" t="str">
         <f>IF(_sjmain4_day_shift!G39="","",_sjmain4_day_shift!G39)</f>
         <v/>
       </c>
-      <c r="H60" s="180" t="str">
+      <c r="H60" s="174" t="str">
         <f>IF(_sjmain4_day_shift!H39="","",_sjmain4_day_shift!H39)</f>
         <v/>
       </c>
-      <c r="I60" s="220" t="str">
+      <c r="I60" s="209" t="str">
         <f>IF(_sjmain4_day_shift!I39="","",_sjmain4_day_shift!I39)</f>
         <v/>
       </c>
-      <c r="J60" s="220" t="str">
+      <c r="J60" s="209" t="str">
         <f>IF(_sjmain4_day_shift!J39="","",_sjmain4_day_shift!J39)</f>
         <v/>
       </c>
-      <c r="K60" s="180" t="str">
+      <c r="K60" s="174" t="str">
         <f>IF(_sjmain4_day_shift!K39="","",_sjmain4_day_shift!K39)</f>
         <v/>
       </c>
-      <c r="L60" s="180" t="str">
+      <c r="L60" s="174" t="str">
         <f>IF(_sjmain4_day_shift!L39="","",_sjmain4_day_shift!L39)</f>
         <v/>
       </c>
-      <c r="M60" s="180" t="str">
+      <c r="M60" s="174" t="str">
         <f>IF(_sjmain4_day_shift!M39="","",_sjmain4_day_shift!M39)</f>
         <v/>
       </c>
-      <c r="N60" s="180" t="str">
+      <c r="N60" s="174" t="str">
         <f>IF(_sjmain4_day_shift!N39="","",_sjmain4_day_shift!N39)</f>
         <v/>
       </c>
-      <c r="O60" s="180" t="str">
+      <c r="O60" s="174" t="str">
         <f>IF(_sjmain4_day_shift!O39="","",_sjmain4_day_shift!O39)</f>
         <v/>
       </c>
-      <c r="P60" s="221"/>
-      <c r="Q60" s="257"/>
+      <c r="P60" s="210"/>
+      <c r="Q60" s="248"/>
       <c r="R60" s="110"/>
       <c r="S60" s="111"/>
-      <c r="T60" s="253"/>
-      <c r="U60" s="254"/>
-      <c r="V60" s="255"/>
-      <c r="W60" s="255"/>
-      <c r="X60" s="256"/>
+      <c r="T60" s="244"/>
+      <c r="U60" s="245"/>
+      <c r="V60" s="246"/>
+      <c r="W60" s="246"/>
+      <c r="X60" s="247"/>
     </row>
     <row r="61" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A61" s="181" t="str">
+      <c r="A61" s="175" t="str">
         <f>IF(_sjmain4_day_shift!A40="","",_sjmain4_day_shift!A40)</f>
         <v/>
       </c>
-      <c r="B61" s="182" t="str">
+      <c r="B61" s="176" t="str">
         <f>IF(_sjmain4_day_shift!B40="","",_sjmain4_day_shift!B40)</f>
         <v/>
       </c>
-      <c r="C61" s="183"/>
-      <c r="D61" s="180" t="str">
+      <c r="C61" s="177"/>
+      <c r="D61" s="174" t="str">
         <f>IF(_sjmain4_day_shift!D40="","",_sjmain4_day_shift!D40)</f>
         <v/>
       </c>
-      <c r="E61" s="180" t="str">
+      <c r="E61" s="174" t="str">
         <f>IF(_sjmain4_day_shift!E40="","",_sjmain4_day_shift!E40)</f>
         <v/>
       </c>
-      <c r="F61" s="180" t="str">
+      <c r="F61" s="174" t="str">
         <f>IF(_sjmain4_day_shift!F40="","",_sjmain4_day_shift!F40)</f>
         <v/>
       </c>
-      <c r="G61" s="180" t="str">
+      <c r="G61" s="174" t="str">
         <f>IF(_sjmain4_day_shift!G40="","",_sjmain4_day_shift!G40)</f>
         <v/>
       </c>
-      <c r="H61" s="180" t="str">
+      <c r="H61" s="174" t="str">
         <f>IF(_sjmain4_day_shift!H40="","",_sjmain4_day_shift!H40)</f>
         <v/>
       </c>
-      <c r="I61" s="220" t="str">
+      <c r="I61" s="209" t="str">
         <f>IF(_sjmain4_day_shift!I40="","",_sjmain4_day_shift!I40)</f>
         <v/>
       </c>
-      <c r="J61" s="220" t="str">
+      <c r="J61" s="209" t="str">
         <f>IF(_sjmain4_day_shift!J40="","",_sjmain4_day_shift!J40)</f>
         <v/>
       </c>
-      <c r="K61" s="180" t="str">
+      <c r="K61" s="174" t="str">
         <f>IF(_sjmain4_day_shift!K40="","",_sjmain4_day_shift!K40)</f>
         <v/>
       </c>
-      <c r="L61" s="180" t="str">
+      <c r="L61" s="174" t="str">
         <f>IF(_sjmain4_day_shift!L40="","",_sjmain4_day_shift!L40)</f>
         <v/>
       </c>
-      <c r="M61" s="180" t="str">
+      <c r="M61" s="174" t="str">
         <f>IF(_sjmain4_day_shift!M40="","",_sjmain4_day_shift!M40)</f>
         <v/>
       </c>
-      <c r="N61" s="180" t="str">
+      <c r="N61" s="174" t="str">
         <f>IF(_sjmain4_day_shift!N40="","",_sjmain4_day_shift!N40)</f>
         <v/>
       </c>
-      <c r="O61" s="180" t="str">
+      <c r="O61" s="174" t="str">
         <f>IF(_sjmain4_day_shift!O40="","",_sjmain4_day_shift!O40)</f>
         <v/>
       </c>
-      <c r="P61" s="221"/>
-      <c r="Q61" s="257"/>
+      <c r="P61" s="210"/>
+      <c r="Q61" s="248"/>
       <c r="R61" s="110"/>
       <c r="S61" s="111"/>
-      <c r="T61" s="253"/>
-      <c r="U61" s="254"/>
-      <c r="V61" s="255"/>
-      <c r="W61" s="255"/>
-      <c r="X61" s="256"/>
+      <c r="T61" s="244"/>
+      <c r="U61" s="245"/>
+      <c r="V61" s="246"/>
+      <c r="W61" s="246"/>
+      <c r="X61" s="247"/>
     </row>
     <row r="62" s="119" customFormat="1" ht="45" customHeight="1" spans="1:24">
-      <c r="A62" s="181" t="str">
+      <c r="A62" s="175" t="str">
         <f>IF(_sjmain4_day_shift!A41="","",_sjmain4_day_shift!A41)</f>
         <v/>
       </c>
-      <c r="B62" s="182" t="str">
+      <c r="B62" s="176" t="str">
         <f>IF(_sjmain4_day_shift!B41="","",_sjmain4_day_shift!B41)</f>
         <v/>
       </c>
-      <c r="C62" s="183"/>
-      <c r="D62" s="180" t="str">
+      <c r="C62" s="177"/>
+      <c r="D62" s="174" t="str">
         <f>IF(_sjmain4_day_shift!D41="","",_sjmain4_day_shift!D41)</f>
         <v/>
       </c>
-      <c r="E62" s="180" t="str">
+      <c r="E62" s="174" t="str">
         <f>IF(_sjmain4_day_shift!E41="","",_sjmain4_day_shift!E41)</f>
         <v/>
       </c>
-      <c r="F62" s="180" t="str">
+      <c r="F62" s="174" t="str">
         <f>IF(_sjmain4_day_shift!F41="","",_sjmain4_day_shift!F41)</f>
         <v/>
       </c>
-      <c r="G62" s="180" t="str">
+      <c r="G62" s="174" t="str">
         <f>IF(_sjmain4_day_shift!G41="","",_sjmain4_day_shift!G41)</f>
         <v/>
       </c>
-      <c r="H62" s="180" t="str">
+      <c r="H62" s="174" t="str">
         <f>IF(_sjmain4_day_shift!H41="","",_sjmain4_day_shift!H41)</f>
         <v/>
       </c>
-      <c r="I62" s="220" t="str">
+      <c r="I62" s="209" t="str">
         <f>IF(_sjmain4_day_shift!I41="","",_sjmain4_day_shift!I41)</f>
         <v/>
       </c>
-      <c r="J62" s="220" t="str">
+      <c r="J62" s="209" t="str">
         <f>IF(_sjmain4_day_shift!J41="","",_sjmain4_day_shift!J41)</f>
         <v/>
       </c>
-      <c r="K62" s="180" t="str">
+      <c r="K62" s="174" t="str">
         <f>IF(_sjmain4_day_shift!K41="","",_sjmain4_day_shift!K41)</f>
         <v/>
       </c>
-      <c r="L62" s="180" t="str">
+      <c r="L62" s="174" t="str">
         <f>IF(_sjmain4_day_shift!L41="","",_sjmain4_day_shift!L41)</f>
         <v/>
       </c>
-      <c r="M62" s="180" t="str">
+      <c r="M62" s="174" t="str">
         <f>IF(_sjmain4_day_shift!M41="","",_sjmain4_day_shift!M41)</f>
         <v/>
       </c>
-      <c r="N62" s="180" t="str">
+      <c r="N62" s="174" t="str">
         <f>IF(_sjmain4_day_shift!N41="","",_sjmain4_day_shift!N41)</f>
         <v/>
       </c>
-      <c r="O62" s="180" t="str">
+      <c r="O62" s="174" t="str">
         <f>IF(_sjmain4_day_shift!O41="","",_sjmain4_day_shift!O41)</f>
         <v/>
       </c>
-      <c r="P62" s="221"/>
-      <c r="Q62" s="257"/>
+      <c r="P62" s="210"/>
+      <c r="Q62" s="248"/>
       <c r="R62" s="131"/>
-      <c r="S62" s="230"/>
-      <c r="T62" s="150"/>
-      <c r="U62" s="254"/>
-      <c r="V62" s="255"/>
-      <c r="W62" s="255"/>
-      <c r="X62" s="256"/>
+      <c r="S62" s="219"/>
+      <c r="T62" s="147"/>
+      <c r="U62" s="245"/>
+      <c r="V62" s="246"/>
+      <c r="W62" s="246"/>
+      <c r="X62" s="247"/>
     </row>
     <row r="63" s="119" customFormat="1" ht="45" customHeight="1" spans="1:24">
-      <c r="A63" s="184" t="s">
+      <c r="A63" s="178" t="s">
         <v>77</v>
       </c>
-      <c r="B63" s="185"/>
-      <c r="C63" s="186"/>
-      <c r="D63" s="187"/>
-      <c r="E63" s="187"/>
-      <c r="F63" s="187"/>
-      <c r="G63" s="187"/>
-      <c r="H63" s="187"/>
-      <c r="I63" s="222"/>
-      <c r="J63" s="222"/>
-      <c r="K63" s="187"/>
-      <c r="L63" s="187"/>
-      <c r="M63" s="180"/>
-      <c r="N63" s="180"/>
-      <c r="O63" s="180"/>
-      <c r="P63" s="223"/>
-      <c r="Q63" s="258"/>
-      <c r="R63" s="259"/>
-      <c r="S63" s="260"/>
-      <c r="T63" s="261"/>
-      <c r="U63" s="262"/>
-      <c r="V63" s="263"/>
-      <c r="W63" s="263"/>
-      <c r="X63" s="264"/>
+      <c r="B63" s="179"/>
+      <c r="C63" s="180"/>
+      <c r="D63" s="181"/>
+      <c r="E63" s="181"/>
+      <c r="F63" s="181"/>
+      <c r="G63" s="181"/>
+      <c r="H63" s="181"/>
+      <c r="I63" s="211"/>
+      <c r="J63" s="211"/>
+      <c r="K63" s="181"/>
+      <c r="L63" s="181"/>
+      <c r="M63" s="174"/>
+      <c r="N63" s="174"/>
+      <c r="O63" s="174"/>
+      <c r="P63" s="212"/>
+      <c r="Q63" s="249"/>
+      <c r="R63" s="250"/>
+      <c r="S63" s="251"/>
+      <c r="T63" s="252"/>
+      <c r="U63" s="253"/>
+      <c r="V63" s="254"/>
+      <c r="W63" s="254"/>
+      <c r="X63" s="255"/>
     </row>
     <row r="64" s="119" customFormat="1" ht="45" customHeight="1" spans="1:24">
-      <c r="A64" s="188" t="s">
+      <c r="A64" s="182" t="s">
         <v>78</v>
       </c>
-      <c r="B64" s="189"/>
-      <c r="C64" s="189"/>
-      <c r="D64" s="189"/>
-      <c r="E64" s="189"/>
-      <c r="F64" s="189"/>
-      <c r="G64" s="189"/>
-      <c r="H64" s="190"/>
-      <c r="I64" s="188" t="s">
+      <c r="B64" s="183"/>
+      <c r="C64" s="183"/>
+      <c r="D64" s="183"/>
+      <c r="E64" s="183"/>
+      <c r="F64" s="183"/>
+      <c r="G64" s="183"/>
+      <c r="H64" s="184"/>
+      <c r="I64" s="182" t="s">
         <v>79</v>
       </c>
-      <c r="J64" s="189"/>
-      <c r="K64" s="189"/>
-      <c r="L64" s="189"/>
-      <c r="M64" s="189"/>
-      <c r="N64" s="189"/>
-      <c r="O64" s="189"/>
-      <c r="P64" s="190"/>
-      <c r="Q64" s="188" t="s">
+      <c r="J64" s="183"/>
+      <c r="K64" s="183"/>
+      <c r="L64" s="183"/>
+      <c r="M64" s="183"/>
+      <c r="N64" s="183"/>
+      <c r="O64" s="183"/>
+      <c r="P64" s="184"/>
+      <c r="Q64" s="182" t="s">
         <v>80</v>
       </c>
-      <c r="R64" s="265"/>
-      <c r="S64" s="265"/>
-      <c r="T64" s="265"/>
-      <c r="U64" s="265"/>
-      <c r="V64" s="265"/>
-      <c r="W64" s="265"/>
-      <c r="X64" s="266"/>
+      <c r="R64" s="256"/>
+      <c r="S64" s="256"/>
+      <c r="T64" s="256"/>
+      <c r="U64" s="256"/>
+      <c r="V64" s="256"/>
+      <c r="W64" s="256"/>
+      <c r="X64" s="257"/>
     </row>
     <row r="65" s="119" customFormat="1" ht="45" customHeight="1" spans="1:24">
-      <c r="A65" s="269"/>
-      <c r="B65" s="270"/>
-      <c r="C65" s="270"/>
-      <c r="D65" s="270"/>
-      <c r="E65" s="270"/>
-      <c r="F65" s="270"/>
-      <c r="G65" s="270"/>
-      <c r="H65" s="271"/>
-      <c r="I65" s="269"/>
-      <c r="J65" s="270"/>
-      <c r="K65" s="270"/>
-      <c r="L65" s="270"/>
-      <c r="M65" s="270"/>
-      <c r="N65" s="270"/>
-      <c r="O65" s="270"/>
-      <c r="P65" s="271"/>
-      <c r="Q65" s="269"/>
-      <c r="R65" s="270"/>
-      <c r="S65" s="270"/>
-      <c r="T65" s="270"/>
-      <c r="U65" s="270"/>
-      <c r="V65" s="270"/>
-      <c r="W65" s="270"/>
-      <c r="X65" s="271"/>
+      <c r="A65" s="260"/>
+      <c r="B65" s="261"/>
+      <c r="C65" s="261"/>
+      <c r="D65" s="261"/>
+      <c r="E65" s="261"/>
+      <c r="F65" s="261"/>
+      <c r="G65" s="261"/>
+      <c r="H65" s="262"/>
+      <c r="I65" s="260"/>
+      <c r="J65" s="261"/>
+      <c r="K65" s="261"/>
+      <c r="L65" s="261"/>
+      <c r="M65" s="261"/>
+      <c r="N65" s="261"/>
+      <c r="O65" s="261"/>
+      <c r="P65" s="262"/>
+      <c r="Q65" s="260"/>
+      <c r="R65" s="261"/>
+      <c r="S65" s="261"/>
+      <c r="T65" s="261"/>
+      <c r="U65" s="261"/>
+      <c r="V65" s="261"/>
+      <c r="W65" s="261"/>
+      <c r="X65" s="262"/>
     </row>
     <row r="66" s="119" customFormat="1" ht="45" customHeight="1" spans="1:24">
-      <c r="A66" s="269"/>
-      <c r="B66" s="270"/>
-      <c r="C66" s="270"/>
-      <c r="D66" s="270"/>
-      <c r="E66" s="270"/>
-      <c r="F66" s="270"/>
-      <c r="G66" s="270"/>
-      <c r="H66" s="271"/>
-      <c r="I66" s="269"/>
-      <c r="J66" s="270"/>
-      <c r="K66" s="270"/>
-      <c r="L66" s="270"/>
-      <c r="M66" s="270"/>
-      <c r="N66" s="270"/>
-      <c r="O66" s="270"/>
-      <c r="P66" s="271"/>
-      <c r="Q66" s="269"/>
-      <c r="R66" s="270"/>
-      <c r="S66" s="270"/>
-      <c r="T66" s="270"/>
-      <c r="U66" s="270"/>
-      <c r="V66" s="270"/>
-      <c r="W66" s="270"/>
-      <c r="X66" s="271"/>
+      <c r="A66" s="260"/>
+      <c r="B66" s="261"/>
+      <c r="C66" s="261"/>
+      <c r="D66" s="261"/>
+      <c r="E66" s="261"/>
+      <c r="F66" s="261"/>
+      <c r="G66" s="261"/>
+      <c r="H66" s="262"/>
+      <c r="I66" s="260"/>
+      <c r="J66" s="261"/>
+      <c r="K66" s="261"/>
+      <c r="L66" s="261"/>
+      <c r="M66" s="261"/>
+      <c r="N66" s="261"/>
+      <c r="O66" s="261"/>
+      <c r="P66" s="262"/>
+      <c r="Q66" s="260"/>
+      <c r="R66" s="261"/>
+      <c r="S66" s="261"/>
+      <c r="T66" s="261"/>
+      <c r="U66" s="261"/>
+      <c r="V66" s="261"/>
+      <c r="W66" s="261"/>
+      <c r="X66" s="262"/>
     </row>
     <row r="67" s="119" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A67" s="269"/>
-      <c r="B67" s="270"/>
-      <c r="C67" s="270"/>
-      <c r="D67" s="270"/>
-      <c r="E67" s="270"/>
-      <c r="F67" s="270"/>
-      <c r="G67" s="270"/>
-      <c r="H67" s="271"/>
-      <c r="I67" s="269"/>
-      <c r="J67" s="270"/>
-      <c r="K67" s="270"/>
-      <c r="L67" s="270"/>
-      <c r="M67" s="270"/>
-      <c r="N67" s="270"/>
-      <c r="O67" s="270"/>
-      <c r="P67" s="271"/>
-      <c r="Q67" s="269"/>
-      <c r="R67" s="270"/>
-      <c r="S67" s="270"/>
-      <c r="T67" s="270"/>
-      <c r="U67" s="270"/>
-      <c r="V67" s="270"/>
-      <c r="W67" s="270"/>
-      <c r="X67" s="271"/>
+      <c r="A67" s="260"/>
+      <c r="B67" s="261"/>
+      <c r="C67" s="261"/>
+      <c r="D67" s="261"/>
+      <c r="E67" s="261"/>
+      <c r="F67" s="261"/>
+      <c r="G67" s="261"/>
+      <c r="H67" s="262"/>
+      <c r="I67" s="260"/>
+      <c r="J67" s="261"/>
+      <c r="K67" s="261"/>
+      <c r="L67" s="261"/>
+      <c r="M67" s="261"/>
+      <c r="N67" s="261"/>
+      <c r="O67" s="261"/>
+      <c r="P67" s="262"/>
+      <c r="Q67" s="260"/>
+      <c r="R67" s="261"/>
+      <c r="S67" s="261"/>
+      <c r="T67" s="261"/>
+      <c r="U67" s="261"/>
+      <c r="V67" s="261"/>
+      <c r="W67" s="261"/>
+      <c r="X67" s="262"/>
     </row>
     <row r="68" s="119" customFormat="1" ht="22.5" spans="1:24">
-      <c r="A68" s="269"/>
-      <c r="B68" s="270"/>
-      <c r="C68" s="270"/>
-      <c r="D68" s="270"/>
-      <c r="E68" s="270"/>
-      <c r="F68" s="270"/>
-      <c r="G68" s="270"/>
-      <c r="H68" s="271"/>
-      <c r="I68" s="269"/>
-      <c r="J68" s="270"/>
-      <c r="K68" s="270"/>
-      <c r="L68" s="270"/>
-      <c r="M68" s="270"/>
-      <c r="N68" s="270"/>
-      <c r="O68" s="270"/>
-      <c r="P68" s="271"/>
-      <c r="Q68" s="269"/>
+      <c r="A68" s="260"/>
+      <c r="B68" s="261"/>
+      <c r="C68" s="261"/>
+      <c r="D68" s="261"/>
+      <c r="E68" s="261"/>
+      <c r="F68" s="261"/>
+      <c r="G68" s="261"/>
+      <c r="H68" s="262"/>
+      <c r="I68" s="260"/>
+      <c r="J68" s="261"/>
+      <c r="K68" s="261"/>
+      <c r="L68" s="261"/>
+      <c r="M68" s="261"/>
+      <c r="N68" s="261"/>
+      <c r="O68" s="261"/>
+      <c r="P68" s="262"/>
+      <c r="Q68" s="260"/>
       <c r="R68" s="124"/>
       <c r="S68" s="124"/>
       <c r="T68" s="124"/>
       <c r="U68" s="124"/>
       <c r="V68" s="124"/>
       <c r="W68" s="124"/>
-      <c r="X68" s="271"/>
+      <c r="X68" s="262"/>
     </row>
     <row r="69" s="119" customFormat="1" ht="22.5" spans="1:24">
-      <c r="A69" s="269"/>
-      <c r="B69" s="270"/>
-      <c r="C69" s="270"/>
-      <c r="D69" s="270"/>
-      <c r="E69" s="270"/>
-      <c r="F69" s="270"/>
-      <c r="G69" s="270"/>
-      <c r="H69" s="271"/>
-      <c r="I69" s="269"/>
-      <c r="J69" s="270"/>
-      <c r="K69" s="270"/>
-      <c r="L69" s="270"/>
-      <c r="M69" s="270"/>
-      <c r="N69" s="270"/>
-      <c r="O69" s="270"/>
-      <c r="P69" s="271"/>
-      <c r="Q69" s="269"/>
+      <c r="A69" s="260"/>
+      <c r="B69" s="261"/>
+      <c r="C69" s="261"/>
+      <c r="D69" s="261"/>
+      <c r="E69" s="261"/>
+      <c r="F69" s="261"/>
+      <c r="G69" s="261"/>
+      <c r="H69" s="262"/>
+      <c r="I69" s="260"/>
+      <c r="J69" s="261"/>
+      <c r="K69" s="261"/>
+      <c r="L69" s="261"/>
+      <c r="M69" s="261"/>
+      <c r="N69" s="261"/>
+      <c r="O69" s="261"/>
+      <c r="P69" s="262"/>
+      <c r="Q69" s="260"/>
       <c r="R69" s="124"/>
-      <c r="S69" s="277"/>
+      <c r="S69" s="268"/>
       <c r="T69" s="124"/>
-      <c r="U69" s="278"/>
-      <c r="V69" s="278"/>
-      <c r="W69" s="278"/>
-      <c r="X69" s="271"/>
+      <c r="U69" s="269"/>
+      <c r="V69" s="269"/>
+      <c r="W69" s="269"/>
+      <c r="X69" s="262"/>
     </row>
     <row r="70" s="119" customFormat="1" ht="23.25" spans="1:24">
-      <c r="A70" s="272" t="s">
+      <c r="A70" s="263" t="s">
         <v>81</v>
       </c>
-      <c r="B70" s="273"/>
-      <c r="C70" s="273"/>
-      <c r="D70" s="274" t="s">
+      <c r="B70" s="264"/>
+      <c r="C70" s="264"/>
+      <c r="D70" s="265" t="s">
         <v>82</v>
       </c>
-      <c r="E70" s="275"/>
-      <c r="F70" s="275"/>
-      <c r="G70" s="275"/>
-      <c r="H70" s="276"/>
-      <c r="I70" s="274" t="s">
+      <c r="E70" s="266"/>
+      <c r="F70" s="266"/>
+      <c r="G70" s="266"/>
+      <c r="H70" s="267"/>
+      <c r="I70" s="265" t="s">
         <v>81</v>
       </c>
-      <c r="J70" s="273"/>
-      <c r="K70" s="273"/>
-      <c r="L70" s="274" t="s">
+      <c r="J70" s="264"/>
+      <c r="K70" s="264"/>
+      <c r="L70" s="265" t="s">
         <v>82</v>
       </c>
-      <c r="M70" s="275"/>
-      <c r="N70" s="275"/>
-      <c r="O70" s="275"/>
-      <c r="P70" s="276"/>
-      <c r="Q70" s="272" t="s">
+      <c r="M70" s="266"/>
+      <c r="N70" s="266"/>
+      <c r="O70" s="266"/>
+      <c r="P70" s="267"/>
+      <c r="Q70" s="263" t="s">
         <v>83</v>
       </c>
-      <c r="R70" s="275"/>
-      <c r="S70" s="275"/>
-      <c r="T70" s="274" t="s">
+      <c r="R70" s="266"/>
+      <c r="S70" s="266"/>
+      <c r="T70" s="265" t="s">
         <v>82</v>
       </c>
-      <c r="U70" s="275"/>
-      <c r="V70" s="275"/>
-      <c r="W70" s="275"/>
-      <c r="X70" s="276"/>
+      <c r="U70" s="266"/>
+      <c r="V70" s="266"/>
+      <c r="W70" s="266"/>
+      <c r="X70" s="267"/>
     </row>
     <row r="71" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S71" s="224"/>
-      <c r="U71" s="226"/>
-      <c r="V71" s="226"/>
-      <c r="W71" s="226"/>
-      <c r="X71" s="226"/>
+      <c r="S71" s="213"/>
+      <c r="U71" s="215"/>
+      <c r="V71" s="215"/>
+      <c r="W71" s="215"/>
+      <c r="X71" s="215"/>
     </row>
     <row r="72" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S72" s="224"/>
-      <c r="U72" s="226"/>
-      <c r="V72" s="226"/>
-      <c r="W72" s="226"/>
-      <c r="X72" s="226"/>
+      <c r="S72" s="213"/>
+      <c r="U72" s="215"/>
+      <c r="V72" s="215"/>
+      <c r="W72" s="215"/>
+      <c r="X72" s="215"/>
     </row>
     <row r="73" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S73" s="224"/>
-      <c r="U73" s="226"/>
-      <c r="V73" s="226"/>
-      <c r="W73" s="226"/>
-      <c r="X73" s="226"/>
+      <c r="S73" s="213"/>
+      <c r="U73" s="215"/>
+      <c r="V73" s="215"/>
+      <c r="W73" s="215"/>
+      <c r="X73" s="215"/>
     </row>
     <row r="74" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S74" s="224"/>
-      <c r="U74" s="226"/>
-      <c r="V74" s="226"/>
-      <c r="W74" s="226"/>
-      <c r="X74" s="226"/>
+      <c r="S74" s="213"/>
+      <c r="U74" s="215"/>
+      <c r="V74" s="215"/>
+      <c r="W74" s="215"/>
+      <c r="X74" s="215"/>
     </row>
     <row r="75" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S75" s="224"/>
-      <c r="U75" s="226"/>
-      <c r="V75" s="226"/>
-      <c r="W75" s="226"/>
-      <c r="X75" s="226"/>
+      <c r="S75" s="213"/>
+      <c r="U75" s="215"/>
+      <c r="V75" s="215"/>
+      <c r="W75" s="215"/>
+      <c r="X75" s="215"/>
     </row>
     <row r="76" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S76" s="224"/>
-      <c r="U76" s="226"/>
-      <c r="V76" s="226"/>
-      <c r="W76" s="226"/>
-      <c r="X76" s="226"/>
+      <c r="S76" s="213"/>
+      <c r="U76" s="215"/>
+      <c r="V76" s="215"/>
+      <c r="W76" s="215"/>
+      <c r="X76" s="215"/>
     </row>
     <row r="77" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S77" s="224"/>
-      <c r="U77" s="226"/>
-      <c r="V77" s="226"/>
-      <c r="W77" s="226"/>
-      <c r="X77" s="226"/>
+      <c r="S77" s="213"/>
+      <c r="U77" s="215"/>
+      <c r="V77" s="215"/>
+      <c r="W77" s="215"/>
+      <c r="X77" s="215"/>
     </row>
     <row r="78" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S78" s="224"/>
-      <c r="U78" s="226"/>
-      <c r="V78" s="226"/>
-      <c r="W78" s="226"/>
-      <c r="X78" s="226"/>
+      <c r="S78" s="213"/>
+      <c r="U78" s="215"/>
+      <c r="V78" s="215"/>
+      <c r="W78" s="215"/>
+      <c r="X78" s="215"/>
     </row>
     <row r="79" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S79" s="224"/>
-      <c r="U79" s="226"/>
-      <c r="V79" s="226"/>
-      <c r="W79" s="226"/>
-      <c r="X79" s="226"/>
+      <c r="S79" s="213"/>
+      <c r="U79" s="215"/>
+      <c r="V79" s="215"/>
+      <c r="W79" s="215"/>
+      <c r="X79" s="215"/>
     </row>
     <row r="80" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S80" s="224"/>
-      <c r="U80" s="226"/>
-      <c r="V80" s="226"/>
-      <c r="W80" s="226"/>
-      <c r="X80" s="226"/>
+      <c r="S80" s="213"/>
+      <c r="U80" s="215"/>
+      <c r="V80" s="215"/>
+      <c r="W80" s="215"/>
+      <c r="X80" s="215"/>
     </row>
     <row r="81" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S81" s="224"/>
-      <c r="U81" s="226"/>
-      <c r="V81" s="226"/>
-      <c r="W81" s="226"/>
-      <c r="X81" s="226"/>
+      <c r="S81" s="213"/>
+      <c r="U81" s="215"/>
+      <c r="V81" s="215"/>
+      <c r="W81" s="215"/>
+      <c r="X81" s="215"/>
     </row>
     <row r="82" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S82" s="224"/>
-      <c r="U82" s="226"/>
-      <c r="V82" s="226"/>
-      <c r="W82" s="226"/>
-      <c r="X82" s="226"/>
+      <c r="S82" s="213"/>
+      <c r="U82" s="215"/>
+      <c r="V82" s="215"/>
+      <c r="W82" s="215"/>
+      <c r="X82" s="215"/>
     </row>
     <row r="83" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S83" s="224"/>
-      <c r="U83" s="226"/>
-      <c r="V83" s="226"/>
-      <c r="W83" s="226"/>
-      <c r="X83" s="226"/>
+      <c r="S83" s="213"/>
+      <c r="U83" s="215"/>
+      <c r="V83" s="215"/>
+      <c r="W83" s="215"/>
+      <c r="X83" s="215"/>
     </row>
     <row r="84" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S84" s="224"/>
-      <c r="U84" s="226"/>
-      <c r="V84" s="226"/>
-      <c r="W84" s="226"/>
-      <c r="X84" s="226"/>
+      <c r="S84" s="213"/>
+      <c r="U84" s="215"/>
+      <c r="V84" s="215"/>
+      <c r="W84" s="215"/>
+      <c r="X84" s="215"/>
     </row>
     <row r="85" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S85" s="224"/>
-      <c r="U85" s="226"/>
-      <c r="V85" s="226"/>
-      <c r="W85" s="226"/>
-      <c r="X85" s="226"/>
+      <c r="S85" s="213"/>
+      <c r="U85" s="215"/>
+      <c r="V85" s="215"/>
+      <c r="W85" s="215"/>
+      <c r="X85" s="215"/>
     </row>
     <row r="86" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S86" s="224"/>
-      <c r="U86" s="226"/>
-      <c r="V86" s="226"/>
-      <c r="W86" s="226"/>
-      <c r="X86" s="226"/>
+      <c r="S86" s="213"/>
+      <c r="U86" s="215"/>
+      <c r="V86" s="215"/>
+      <c r="W86" s="215"/>
+      <c r="X86" s="215"/>
     </row>
     <row r="87" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S87" s="224"/>
-      <c r="U87" s="226"/>
-      <c r="V87" s="226"/>
-      <c r="W87" s="226"/>
-      <c r="X87" s="226"/>
+      <c r="S87" s="213"/>
+      <c r="U87" s="215"/>
+      <c r="V87" s="215"/>
+      <c r="W87" s="215"/>
+      <c r="X87" s="215"/>
     </row>
     <row r="88" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S88" s="224"/>
-      <c r="U88" s="226"/>
-      <c r="V88" s="226"/>
-      <c r="W88" s="226"/>
-      <c r="X88" s="226"/>
+      <c r="S88" s="213"/>
+      <c r="U88" s="215"/>
+      <c r="V88" s="215"/>
+      <c r="W88" s="215"/>
+      <c r="X88" s="215"/>
     </row>
     <row r="89" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S89" s="224"/>
-      <c r="U89" s="226"/>
-      <c r="V89" s="226"/>
-      <c r="W89" s="226"/>
-      <c r="X89" s="226"/>
+      <c r="S89" s="213"/>
+      <c r="U89" s="215"/>
+      <c r="V89" s="215"/>
+      <c r="W89" s="215"/>
+      <c r="X89" s="215"/>
     </row>
     <row r="90" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S90" s="224"/>
-      <c r="U90" s="226"/>
-      <c r="V90" s="226"/>
-      <c r="W90" s="226"/>
-      <c r="X90" s="226"/>
+      <c r="S90" s="213"/>
+      <c r="U90" s="215"/>
+      <c r="V90" s="215"/>
+      <c r="W90" s="215"/>
+      <c r="X90" s="215"/>
     </row>
     <row r="91" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S91" s="224"/>
-      <c r="U91" s="226"/>
-      <c r="V91" s="226"/>
-      <c r="W91" s="226"/>
-      <c r="X91" s="226"/>
+      <c r="S91" s="213"/>
+      <c r="U91" s="215"/>
+      <c r="V91" s="215"/>
+      <c r="W91" s="215"/>
+      <c r="X91" s="215"/>
     </row>
     <row r="92" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S92" s="224"/>
-      <c r="U92" s="226"/>
-      <c r="V92" s="226"/>
-      <c r="W92" s="226"/>
-      <c r="X92" s="226"/>
+      <c r="S92" s="213"/>
+      <c r="U92" s="215"/>
+      <c r="V92" s="215"/>
+      <c r="W92" s="215"/>
+      <c r="X92" s="215"/>
     </row>
     <row r="93" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S93" s="224"/>
-      <c r="U93" s="226"/>
-      <c r="V93" s="226"/>
-      <c r="W93" s="226"/>
-      <c r="X93" s="226"/>
+      <c r="S93" s="213"/>
+      <c r="U93" s="215"/>
+      <c r="V93" s="215"/>
+      <c r="W93" s="215"/>
+      <c r="X93" s="215"/>
     </row>
     <row r="94" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S94" s="224"/>
-      <c r="U94" s="226"/>
-      <c r="V94" s="226"/>
-      <c r="W94" s="226"/>
-      <c r="X94" s="226"/>
+      <c r="S94" s="213"/>
+      <c r="U94" s="215"/>
+      <c r="V94" s="215"/>
+      <c r="W94" s="215"/>
+      <c r="X94" s="215"/>
     </row>
     <row r="95" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S95" s="224"/>
-      <c r="U95" s="226"/>
-      <c r="V95" s="226"/>
-      <c r="W95" s="226"/>
-      <c r="X95" s="226"/>
+      <c r="S95" s="213"/>
+      <c r="U95" s="215"/>
+      <c r="V95" s="215"/>
+      <c r="W95" s="215"/>
+      <c r="X95" s="215"/>
     </row>
     <row r="96" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S96" s="224"/>
-      <c r="U96" s="226"/>
-      <c r="V96" s="226"/>
-      <c r="W96" s="226"/>
-      <c r="X96" s="226"/>
+      <c r="S96" s="213"/>
+      <c r="U96" s="215"/>
+      <c r="V96" s="215"/>
+      <c r="W96" s="215"/>
+      <c r="X96" s="215"/>
     </row>
     <row r="97" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S97" s="224"/>
-      <c r="U97" s="226"/>
-      <c r="V97" s="226"/>
-      <c r="W97" s="226"/>
-      <c r="X97" s="226"/>
+      <c r="S97" s="213"/>
+      <c r="U97" s="215"/>
+      <c r="V97" s="215"/>
+      <c r="W97" s="215"/>
+      <c r="X97" s="215"/>
     </row>
     <row r="98" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S98" s="224"/>
-      <c r="U98" s="226"/>
-      <c r="V98" s="226"/>
-      <c r="W98" s="226"/>
-      <c r="X98" s="226"/>
+      <c r="S98" s="213"/>
+      <c r="U98" s="215"/>
+      <c r="V98" s="215"/>
+      <c r="W98" s="215"/>
+      <c r="X98" s="215"/>
     </row>
     <row r="99" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S99" s="224"/>
-      <c r="U99" s="226"/>
-      <c r="V99" s="226"/>
-      <c r="W99" s="226"/>
-      <c r="X99" s="226"/>
+      <c r="S99" s="213"/>
+      <c r="U99" s="215"/>
+      <c r="V99" s="215"/>
+      <c r="W99" s="215"/>
+      <c r="X99" s="215"/>
     </row>
     <row r="100" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S100" s="224"/>
-      <c r="U100" s="226"/>
-      <c r="V100" s="226"/>
-      <c r="W100" s="226"/>
-      <c r="X100" s="226"/>
+      <c r="S100" s="213"/>
+      <c r="U100" s="215"/>
+      <c r="V100" s="215"/>
+      <c r="W100" s="215"/>
+      <c r="X100" s="215"/>
     </row>
     <row r="101" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S101" s="224"/>
-      <c r="U101" s="226"/>
-      <c r="V101" s="226"/>
-      <c r="W101" s="226"/>
-      <c r="X101" s="226"/>
+      <c r="S101" s="213"/>
+      <c r="U101" s="215"/>
+      <c r="V101" s="215"/>
+      <c r="W101" s="215"/>
+      <c r="X101" s="215"/>
     </row>
     <row r="102" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S102" s="224"/>
-      <c r="U102" s="226"/>
-      <c r="V102" s="226"/>
-      <c r="W102" s="226"/>
-      <c r="X102" s="226"/>
+      <c r="S102" s="213"/>
+      <c r="U102" s="215"/>
+      <c r="V102" s="215"/>
+      <c r="W102" s="215"/>
+      <c r="X102" s="215"/>
     </row>
     <row r="103" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S103" s="224"/>
-      <c r="U103" s="226"/>
-      <c r="V103" s="226"/>
-      <c r="W103" s="226"/>
-      <c r="X103" s="226"/>
+      <c r="S103" s="213"/>
+      <c r="U103" s="215"/>
+      <c r="V103" s="215"/>
+      <c r="W103" s="215"/>
+      <c r="X103" s="215"/>
     </row>
     <row r="104" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S104" s="224"/>
-      <c r="U104" s="226"/>
-      <c r="V104" s="226"/>
-      <c r="W104" s="226"/>
-      <c r="X104" s="226"/>
+      <c r="S104" s="213"/>
+      <c r="U104" s="215"/>
+      <c r="V104" s="215"/>
+      <c r="W104" s="215"/>
+      <c r="X104" s="215"/>
     </row>
     <row r="105" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S105" s="224"/>
-      <c r="U105" s="226"/>
-      <c r="V105" s="226"/>
-      <c r="W105" s="226"/>
-      <c r="X105" s="226"/>
+      <c r="S105" s="213"/>
+      <c r="U105" s="215"/>
+      <c r="V105" s="215"/>
+      <c r="W105" s="215"/>
+      <c r="X105" s="215"/>
     </row>
     <row r="106" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S106" s="224"/>
-      <c r="U106" s="226"/>
-      <c r="V106" s="226"/>
-      <c r="W106" s="226"/>
-      <c r="X106" s="226"/>
+      <c r="S106" s="213"/>
+      <c r="U106" s="215"/>
+      <c r="V106" s="215"/>
+      <c r="W106" s="215"/>
+      <c r="X106" s="215"/>
     </row>
     <row r="107" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S107" s="224"/>
-      <c r="U107" s="226"/>
-      <c r="V107" s="226"/>
-      <c r="W107" s="226"/>
-      <c r="X107" s="226"/>
+      <c r="S107" s="213"/>
+      <c r="U107" s="215"/>
+      <c r="V107" s="215"/>
+      <c r="W107" s="215"/>
+      <c r="X107" s="215"/>
     </row>
     <row r="108" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S108" s="224"/>
-      <c r="U108" s="226"/>
-      <c r="V108" s="226"/>
-      <c r="W108" s="226"/>
-      <c r="X108" s="226"/>
+      <c r="S108" s="213"/>
+      <c r="U108" s="215"/>
+      <c r="V108" s="215"/>
+      <c r="W108" s="215"/>
+      <c r="X108" s="215"/>
     </row>
     <row r="109" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S109" s="224"/>
-      <c r="U109" s="226"/>
-      <c r="V109" s="226"/>
-      <c r="W109" s="226"/>
-      <c r="X109" s="226"/>
+      <c r="S109" s="213"/>
+      <c r="U109" s="215"/>
+      <c r="V109" s="215"/>
+      <c r="W109" s="215"/>
+      <c r="X109" s="215"/>
     </row>
     <row r="110" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S110" s="224"/>
-      <c r="U110" s="226"/>
-      <c r="V110" s="226"/>
-      <c r="W110" s="226"/>
-      <c r="X110" s="226"/>
+      <c r="S110" s="213"/>
+      <c r="U110" s="215"/>
+      <c r="V110" s="215"/>
+      <c r="W110" s="215"/>
+      <c r="X110" s="215"/>
     </row>
     <row r="111" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S111" s="224"/>
-      <c r="U111" s="226"/>
-      <c r="V111" s="226"/>
-      <c r="W111" s="226"/>
-      <c r="X111" s="226"/>
+      <c r="S111" s="213"/>
+      <c r="U111" s="215"/>
+      <c r="V111" s="215"/>
+      <c r="W111" s="215"/>
+      <c r="X111" s="215"/>
     </row>
     <row r="112" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S112" s="224"/>
-      <c r="U112" s="226"/>
-      <c r="V112" s="226"/>
-      <c r="W112" s="226"/>
-      <c r="X112" s="226"/>
+      <c r="S112" s="213"/>
+      <c r="U112" s="215"/>
+      <c r="V112" s="215"/>
+      <c r="W112" s="215"/>
+      <c r="X112" s="215"/>
     </row>
     <row r="113" ht="20.25" spans="1:24">
       <c r="A113" s="119"/>
@@ -8270,12 +8306,12 @@
       <c r="P113" s="119"/>
       <c r="Q113" s="119"/>
       <c r="R113" s="119"/>
-      <c r="S113" s="224"/>
+      <c r="S113" s="213"/>
       <c r="T113" s="119"/>
-      <c r="U113" s="226"/>
-      <c r="V113" s="226"/>
-      <c r="W113" s="226"/>
-      <c r="X113" s="226"/>
+      <c r="U113" s="215"/>
+      <c r="V113" s="215"/>
+      <c r="W113" s="215"/>
+      <c r="X113" s="215"/>
     </row>
     <row r="114" ht="20.25" spans="1:17">
       <c r="A114" s="119"/>

--- a/excel/finished/烧结/6#烧结机生产日报.xlsx
+++ b/excel/finished/烧结/6#烧结机生产日报.xlsx
@@ -1471,20 +1471,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="14">
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="181" formatCode="0.0"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="182" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="183" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="184" formatCode="0.0_);\(0.0\)"/>
-    <numFmt numFmtId="185" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="0.0_);\(0.0\)"/>
+    <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="180" formatCode="0.0"/>
+    <numFmt numFmtId="181" formatCode="0.0_ "/>
+    <numFmt numFmtId="182" formatCode="0_ "/>
+    <numFmt numFmtId="183" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="184" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="185" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -1540,6 +1540,90 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1553,14 +1637,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1581,85 +1666,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1672,17 +1681,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1737,7 +1737,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1749,19 +1827,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1773,61 +1881,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1839,25 +1893,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1869,13 +1905,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1887,37 +1917,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2412,17 +2412,6 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -2505,6 +2494,71 @@
     </border>
     <border>
       <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
       <bottom style="medium">
@@ -2528,21 +2582,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2562,190 +2601,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="49" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="53" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="270">
+  <cellXfs count="261">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2764,7 +2764,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -2804,37 +2804,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="11" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2849,28 +2849,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2885,25 +2885,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2912,7 +2912,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2921,10 +2921,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2940,16 +2940,16 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2958,31 +2958,31 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2991,31 +2991,31 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="13" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3030,7 +3030,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3039,19 +3039,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3060,10 +3060,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3253,139 +3253,108 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="183" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="183" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3403,23 +3372,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3431,15 +3400,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3452,10 +3421,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -3468,7 +3433,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3490,14 +3455,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3506,14 +3471,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3528,10 +3493,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3548,19 +3513,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3574,7 +3539,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3947,12 +3912,12 @@
   <dimension ref="A2:Z115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="120" customWidth="1"/>
+    <col min="1" max="1" width="37.5" style="120" customWidth="1"/>
     <col min="2" max="2" width="12.125" style="120" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="120" customWidth="1"/>
     <col min="4" max="4" width="21.875" style="120" customWidth="1"/>
@@ -4030,20 +3995,20 @@
       <c r="P4" s="119"/>
       <c r="Q4" s="119"/>
       <c r="R4" s="119"/>
-      <c r="S4" s="213" t="s">
+      <c r="S4" s="205" t="s">
         <v>2</v>
       </c>
-      <c r="T4" s="214" t="s">
+      <c r="T4" s="206" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="214"/>
-      <c r="V4" s="215" t="s">
+      <c r="U4" s="206"/>
+      <c r="V4" s="207" t="s">
         <v>4</v>
       </c>
-      <c r="W4" s="216" t="s">
+      <c r="W4" s="208" t="s">
         <v>5</v>
       </c>
-      <c r="X4" s="216"/>
+      <c r="X4" s="208"/>
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:26">
       <c r="A5" s="126" t="s">
@@ -4078,7 +4043,7 @@
       </c>
       <c r="O5" s="128"/>
       <c r="P5" s="127"/>
-      <c r="Q5" s="217"/>
+      <c r="Q5" s="209"/>
       <c r="R5" s="145" t="s">
         <v>14</v>
       </c>
@@ -4088,8 +4053,8 @@
       <c r="V5" s="146"/>
       <c r="W5" s="146"/>
       <c r="X5" s="188"/>
-      <c r="Y5" s="258"/>
-      <c r="Z5" s="258"/>
+      <c r="Y5" s="249"/>
+      <c r="Z5" s="249"/>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:26">
       <c r="A6" s="131"/>
@@ -4108,11 +4073,11 @@
       <c r="N6" s="132"/>
       <c r="O6" s="133"/>
       <c r="P6" s="132"/>
-      <c r="Q6" s="218"/>
+      <c r="Q6" s="210"/>
       <c r="R6" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="S6" s="219" t="s">
+      <c r="S6" s="211" t="s">
         <v>16</v>
       </c>
       <c r="T6" s="147" t="s">
@@ -4123,9 +4088,9 @@
       </c>
       <c r="V6" s="111"/>
       <c r="W6" s="111"/>
-      <c r="X6" s="220"/>
-      <c r="Y6" s="258"/>
-      <c r="Z6" s="258"/>
+      <c r="X6" s="212"/>
+      <c r="Y6" s="249"/>
+      <c r="Z6" s="249"/>
     </row>
     <row r="7" ht="30" customHeight="1" spans="1:26">
       <c r="A7" s="131" t="s">
@@ -4164,20 +4129,20 @@
       </c>
       <c r="O7" s="186"/>
       <c r="P7" s="187"/>
-      <c r="Q7" s="221"/>
+      <c r="Q7" s="213"/>
       <c r="R7" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="222" t="s">
+      <c r="S7" s="214" t="s">
         <v>21</v>
       </c>
-      <c r="T7" s="223"/>
-      <c r="U7" s="224"/>
-      <c r="V7" s="225"/>
-      <c r="W7" s="225"/>
-      <c r="X7" s="226"/>
-      <c r="Y7" s="258"/>
-      <c r="Z7" s="258"/>
+      <c r="T7" s="215"/>
+      <c r="U7" s="216"/>
+      <c r="V7" s="217"/>
+      <c r="W7" s="217"/>
+      <c r="X7" s="218"/>
+      <c r="Y7" s="249"/>
+      <c r="Z7" s="249"/>
     </row>
     <row r="8" ht="30" customHeight="1" spans="1:26">
       <c r="A8" s="131" t="s">
@@ -4216,20 +4181,20 @@
       </c>
       <c r="O8" s="186"/>
       <c r="P8" s="187"/>
-      <c r="Q8" s="221"/>
+      <c r="Q8" s="213"/>
       <c r="R8" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="S8" s="222" t="s">
+      <c r="S8" s="214" t="s">
         <v>20</v>
       </c>
-      <c r="T8" s="227"/>
-      <c r="U8" s="224"/>
-      <c r="V8" s="225"/>
-      <c r="W8" s="225"/>
-      <c r="X8" s="226"/>
-      <c r="Y8" s="258"/>
-      <c r="Z8" s="258"/>
+      <c r="T8" s="219"/>
+      <c r="U8" s="216"/>
+      <c r="V8" s="217"/>
+      <c r="W8" s="217"/>
+      <c r="X8" s="218"/>
+      <c r="Y8" s="249"/>
+      <c r="Z8" s="249"/>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:26">
       <c r="A9" s="131" t="s">
@@ -4268,20 +4233,20 @@
       </c>
       <c r="O9" s="186"/>
       <c r="P9" s="187"/>
-      <c r="Q9" s="221"/>
+      <c r="Q9" s="213"/>
       <c r="R9" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="S9" s="222" t="s">
+      <c r="S9" s="214" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="223"/>
-      <c r="U9" s="224"/>
-      <c r="V9" s="225"/>
-      <c r="W9" s="225"/>
-      <c r="X9" s="226"/>
-      <c r="Y9" s="258"/>
-      <c r="Z9" s="258"/>
+      <c r="T9" s="215"/>
+      <c r="U9" s="216"/>
+      <c r="V9" s="217"/>
+      <c r="W9" s="217"/>
+      <c r="X9" s="218"/>
+      <c r="Y9" s="249"/>
+      <c r="Z9" s="249"/>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:26">
       <c r="A10" s="140" t="s">
@@ -4320,20 +4285,20 @@
       </c>
       <c r="O10" s="142"/>
       <c r="P10" s="141"/>
-      <c r="Q10" s="228"/>
+      <c r="Q10" s="220"/>
       <c r="R10" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="S10" s="222" t="s">
+      <c r="S10" s="214" t="s">
         <v>20</v>
       </c>
-      <c r="T10" s="223"/>
-      <c r="U10" s="224"/>
-      <c r="V10" s="225"/>
-      <c r="W10" s="225"/>
-      <c r="X10" s="226"/>
-      <c r="Y10" s="258"/>
-      <c r="Z10" s="258"/>
+      <c r="T10" s="215"/>
+      <c r="U10" s="216"/>
+      <c r="V10" s="217"/>
+      <c r="W10" s="217"/>
+      <c r="X10" s="218"/>
+      <c r="Y10" s="249"/>
+      <c r="Z10" s="249"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:26">
       <c r="A11" s="145" t="s">
@@ -4355,23 +4320,23 @@
       <c r="M11" s="190"/>
       <c r="N11" s="190"/>
       <c r="O11" s="191"/>
-      <c r="P11" s="270" t="s">
+      <c r="P11" s="261" t="s">
         <v>27</v>
       </c>
-      <c r="Q11" s="229"/>
+      <c r="Q11" s="221"/>
       <c r="R11" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="S11" s="222" t="s">
+      <c r="S11" s="214" t="s">
         <v>20</v>
       </c>
-      <c r="T11" s="223"/>
-      <c r="U11" s="224"/>
-      <c r="V11" s="225"/>
-      <c r="W11" s="225"/>
-      <c r="X11" s="226"/>
-      <c r="Y11" s="258"/>
-      <c r="Z11" s="258"/>
+      <c r="T11" s="215"/>
+      <c r="U11" s="216"/>
+      <c r="V11" s="217"/>
+      <c r="W11" s="217"/>
+      <c r="X11" s="218"/>
+      <c r="Y11" s="249"/>
+      <c r="Z11" s="249"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:26">
       <c r="A12" s="131" t="s">
@@ -4401,43 +4366,43 @@
       <c r="I12" s="193" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="271" t="s">
+      <c r="J12" s="262" t="s">
         <v>36</v>
       </c>
-      <c r="K12" s="272" t="s">
+      <c r="K12" s="263" t="s">
         <v>37</v>
       </c>
-      <c r="L12" s="272" t="s">
+      <c r="L12" s="263" t="s">
         <v>38</v>
       </c>
-      <c r="M12" s="272" t="s">
+      <c r="M12" s="263" t="s">
         <v>39</v>
       </c>
       <c r="N12" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="O12" s="273" t="s">
+      <c r="O12" s="264" t="s">
         <v>41</v>
       </c>
       <c r="P12" s="196" t="s">
         <v>32</v>
       </c>
-      <c r="Q12" s="230" t="s">
+      <c r="Q12" s="222" t="s">
         <v>31</v>
       </c>
       <c r="R12" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="S12" s="222" t="s">
+      <c r="S12" s="214" t="s">
         <v>20</v>
       </c>
-      <c r="T12" s="223"/>
-      <c r="U12" s="224"/>
-      <c r="V12" s="225"/>
-      <c r="W12" s="225"/>
-      <c r="X12" s="226"/>
-      <c r="Y12" s="258"/>
-      <c r="Z12" s="258"/>
+      <c r="T12" s="215"/>
+      <c r="U12" s="216"/>
+      <c r="V12" s="217"/>
+      <c r="W12" s="217"/>
+      <c r="X12" s="218"/>
+      <c r="Y12" s="249"/>
+      <c r="Z12" s="249"/>
     </row>
     <row r="13" ht="35.25" customHeight="1" spans="1:26">
       <c r="A13" s="131" t="s">
@@ -4475,27 +4440,51 @@
         <f>IF(_sjmain1_day_shift!K2="","",_sjmain1_day_shift!K2)</f>
         <v/>
       </c>
-      <c r="J13" s="198"/>
-      <c r="K13" s="199"/>
-      <c r="L13" s="199"/>
-      <c r="M13" s="199"/>
-      <c r="N13" s="199"/>
-      <c r="O13" s="200"/>
-      <c r="P13" s="137"/>
-      <c r="Q13" s="203"/>
+      <c r="J13" s="198" t="str">
+        <f>IF(_sjmain3_day_shift!A2="","",_sjmain3_day_shift!A2)</f>
+        <v/>
+      </c>
+      <c r="K13" s="198" t="str">
+        <f>IF(_sjmain3_day_shift!B2="","",_sjmain3_day_shift!B2)</f>
+        <v/>
+      </c>
+      <c r="L13" s="198" t="str">
+        <f>IF(_sjmain3_day_shift!C2="","",_sjmain3_day_shift!C2)</f>
+        <v/>
+      </c>
+      <c r="M13" s="198" t="str">
+        <f>IF(_sjmain3_day_shift!D2="","",_sjmain3_day_shift!D2)</f>
+        <v/>
+      </c>
+      <c r="N13" s="198" t="str">
+        <f>IF(_sjmain3_day_shift!E2="","",_sjmain3_day_shift!E2)</f>
+        <v/>
+      </c>
+      <c r="O13" s="198" t="str">
+        <f>IF(_sjmain3_day_shift!F2="","",_sjmain3_day_shift!F2)</f>
+        <v/>
+      </c>
+      <c r="P13" s="198" t="str">
+        <f>IF(_sjmain3_day_shift!G2="","",_sjmain3_day_shift!G2)</f>
+        <v/>
+      </c>
+      <c r="Q13" s="198" t="str">
+        <f>IF(_sjmain3_day_shift!H2="","",_sjmain3_day_shift!H2)</f>
+        <v/>
+      </c>
       <c r="R13" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="S13" s="222" t="s">
+      <c r="S13" s="214" t="s">
         <v>20</v>
       </c>
-      <c r="T13" s="223"/>
-      <c r="U13" s="224"/>
-      <c r="V13" s="225"/>
-      <c r="W13" s="225"/>
-      <c r="X13" s="226"/>
-      <c r="Y13" s="258"/>
-      <c r="Z13" s="258"/>
+      <c r="T13" s="215"/>
+      <c r="U13" s="216"/>
+      <c r="V13" s="217"/>
+      <c r="W13" s="217"/>
+      <c r="X13" s="218"/>
+      <c r="Y13" s="249"/>
+      <c r="Z13" s="249"/>
     </row>
     <row r="14" ht="30" customHeight="1" spans="1:26">
       <c r="A14" s="131" t="s">
@@ -4529,31 +4518,55 @@
         <f>IF(_sjmain1_day_shift!J3="","",_sjmain1_day_shift!J3)</f>
         <v/>
       </c>
-      <c r="I14" s="201" t="str">
+      <c r="I14" s="199" t="str">
         <f>IF(_sjmain1_day_shift!K3="","",_sjmain1_day_shift!K3)</f>
         <v/>
       </c>
-      <c r="J14" s="198"/>
-      <c r="K14" s="199"/>
-      <c r="L14" s="199"/>
-      <c r="M14" s="199"/>
-      <c r="N14" s="202"/>
-      <c r="O14" s="203"/>
-      <c r="P14" s="137"/>
-      <c r="Q14" s="203"/>
-      <c r="R14" s="222" t="s">
+      <c r="J14" s="198" t="str">
+        <f>IF(_sjmain3_day_shift!A3="","",_sjmain3_day_shift!A3)</f>
+        <v/>
+      </c>
+      <c r="K14" s="198" t="str">
+        <f>IF(_sjmain3_day_shift!B3="","",_sjmain3_day_shift!B3)</f>
+        <v/>
+      </c>
+      <c r="L14" s="198" t="str">
+        <f>IF(_sjmain3_day_shift!C3="","",_sjmain3_day_shift!C3)</f>
+        <v/>
+      </c>
+      <c r="M14" s="198" t="str">
+        <f>IF(_sjmain3_day_shift!D3="","",_sjmain3_day_shift!D3)</f>
+        <v/>
+      </c>
+      <c r="N14" s="198" t="str">
+        <f>IF(_sjmain3_day_shift!E3="","",_sjmain3_day_shift!E3)</f>
+        <v/>
+      </c>
+      <c r="O14" s="198" t="str">
+        <f>IF(_sjmain3_day_shift!F3="","",_sjmain3_day_shift!F3)</f>
+        <v/>
+      </c>
+      <c r="P14" s="198" t="str">
+        <f>IF(_sjmain3_day_shift!G3="","",_sjmain3_day_shift!G3)</f>
+        <v/>
+      </c>
+      <c r="Q14" s="198" t="str">
+        <f>IF(_sjmain3_day_shift!H3="","",_sjmain3_day_shift!H3)</f>
+        <v/>
+      </c>
+      <c r="R14" s="214" t="s">
         <v>20</v>
       </c>
-      <c r="S14" s="231" t="s">
+      <c r="S14" s="223" t="s">
         <v>20</v>
       </c>
-      <c r="T14" s="223"/>
-      <c r="U14" s="224"/>
-      <c r="V14" s="225"/>
-      <c r="W14" s="225"/>
-      <c r="X14" s="226"/>
-      <c r="Y14" s="258"/>
-      <c r="Z14" s="258"/>
+      <c r="T14" s="215"/>
+      <c r="U14" s="216"/>
+      <c r="V14" s="217"/>
+      <c r="W14" s="217"/>
+      <c r="X14" s="218"/>
+      <c r="Y14" s="249"/>
+      <c r="Z14" s="249"/>
     </row>
     <row r="15" ht="30" customHeight="1" spans="1:26">
       <c r="A15" s="140" t="s">
@@ -4587,31 +4600,55 @@
         <f>IF(_sjmain1_day_shift!J4="","",_sjmain1_day_shift!J4)</f>
         <v/>
       </c>
-      <c r="I15" s="204" t="str">
+      <c r="I15" s="200" t="str">
         <f>IF(_sjmain1_day_shift!K4="","",_sjmain1_day_shift!K4)</f>
         <v/>
       </c>
-      <c r="J15" s="205"/>
-      <c r="K15" s="206"/>
-      <c r="L15" s="206"/>
-      <c r="M15" s="206"/>
-      <c r="N15" s="206"/>
-      <c r="O15" s="207"/>
-      <c r="P15" s="208"/>
-      <c r="Q15" s="232"/>
-      <c r="R15" s="233" t="s">
+      <c r="J15" s="198" t="str">
+        <f>IF(_sjmain3_day_shift!A4="","",_sjmain3_day_shift!A4)</f>
+        <v/>
+      </c>
+      <c r="K15" s="198" t="str">
+        <f>IF(_sjmain3_day_shift!B4="","",_sjmain3_day_shift!B4)</f>
+        <v/>
+      </c>
+      <c r="L15" s="198" t="str">
+        <f>IF(_sjmain3_day_shift!C4="","",_sjmain3_day_shift!C4)</f>
+        <v/>
+      </c>
+      <c r="M15" s="198" t="str">
+        <f>IF(_sjmain3_day_shift!D4="","",_sjmain3_day_shift!D4)</f>
+        <v/>
+      </c>
+      <c r="N15" s="198" t="str">
+        <f>IF(_sjmain3_day_shift!E4="","",_sjmain3_day_shift!E4)</f>
+        <v/>
+      </c>
+      <c r="O15" s="198" t="str">
+        <f>IF(_sjmain3_day_shift!F4="","",_sjmain3_day_shift!F4)</f>
+        <v/>
+      </c>
+      <c r="P15" s="198" t="str">
+        <f>IF(_sjmain3_day_shift!G4="","",_sjmain3_day_shift!G4)</f>
+        <v/>
+      </c>
+      <c r="Q15" s="198" t="str">
+        <f>IF(_sjmain3_day_shift!H4="","",_sjmain3_day_shift!H4)</f>
+        <v/>
+      </c>
+      <c r="R15" s="224" t="s">
         <v>20</v>
       </c>
-      <c r="S15" s="231" t="s">
+      <c r="S15" s="223" t="s">
         <v>20</v>
       </c>
-      <c r="T15" s="223"/>
-      <c r="U15" s="234"/>
-      <c r="V15" s="235"/>
-      <c r="W15" s="235"/>
-      <c r="X15" s="236"/>
-      <c r="Y15" s="258"/>
-      <c r="Z15" s="258"/>
+      <c r="T15" s="215"/>
+      <c r="U15" s="225"/>
+      <c r="V15" s="226"/>
+      <c r="W15" s="226"/>
+      <c r="X15" s="227"/>
+      <c r="Y15" s="249"/>
+      <c r="Z15" s="249"/>
     </row>
     <row r="16" ht="30" customHeight="1" spans="1:26">
       <c r="A16" s="151" t="s">
@@ -4635,19 +4672,19 @@
       <c r="O16" s="152"/>
       <c r="P16" s="152"/>
       <c r="Q16" s="153"/>
-      <c r="R16" s="233" t="s">
+      <c r="R16" s="224" t="s">
         <v>20</v>
       </c>
-      <c r="S16" s="231" t="s">
+      <c r="S16" s="223" t="s">
         <v>20</v>
       </c>
-      <c r="T16" s="223"/>
-      <c r="U16" s="234"/>
-      <c r="V16" s="235"/>
-      <c r="W16" s="235"/>
-      <c r="X16" s="236"/>
-      <c r="Y16" s="258"/>
-      <c r="Z16" s="258"/>
+      <c r="T16" s="215"/>
+      <c r="U16" s="225"/>
+      <c r="V16" s="226"/>
+      <c r="W16" s="226"/>
+      <c r="X16" s="227"/>
+      <c r="Y16" s="249"/>
+      <c r="Z16" s="249"/>
     </row>
     <row r="17" ht="30" customHeight="1" spans="1:26">
       <c r="A17" s="154" t="s">
@@ -4698,22 +4735,22 @@
       <c r="P17" s="157" t="s">
         <v>55</v>
       </c>
-      <c r="Q17" s="237" t="s">
+      <c r="Q17" s="228" t="s">
         <v>56</v>
       </c>
-      <c r="R17" s="233" t="s">
+      <c r="R17" s="224" t="s">
         <v>20</v>
       </c>
-      <c r="S17" s="231" t="s">
+      <c r="S17" s="223" t="s">
         <v>20</v>
       </c>
-      <c r="T17" s="223"/>
-      <c r="U17" s="234"/>
-      <c r="V17" s="235"/>
-      <c r="W17" s="235"/>
-      <c r="X17" s="236"/>
-      <c r="Y17" s="258"/>
-      <c r="Z17" s="258"/>
+      <c r="T17" s="215"/>
+      <c r="U17" s="225"/>
+      <c r="V17" s="226"/>
+      <c r="W17" s="226"/>
+      <c r="X17" s="227"/>
+      <c r="Y17" s="249"/>
+      <c r="Z17" s="249"/>
     </row>
     <row r="18" customFormat="1" ht="48.95" customHeight="1" spans="1:26">
       <c r="A18" s="158"/>
@@ -4765,19 +4802,19 @@
         <f>IF(_sjmain2_day_shift!K2="","",_sjmain2_day_shift!K2)</f>
         <v/>
       </c>
-      <c r="Q18" s="238" t="str">
+      <c r="Q18" s="229" t="str">
         <f>IF(_sjmain2_day_shift!L2="","",_sjmain2_day_shift!L2)</f>
         <v/>
       </c>
-      <c r="R18" s="239"/>
-      <c r="S18" s="231"/>
-      <c r="T18" s="223"/>
-      <c r="U18" s="234"/>
-      <c r="V18" s="235"/>
-      <c r="W18" s="235"/>
-      <c r="X18" s="236"/>
-      <c r="Y18" s="258"/>
-      <c r="Z18" s="258"/>
+      <c r="R18" s="230"/>
+      <c r="S18" s="223"/>
+      <c r="T18" s="215"/>
+      <c r="U18" s="225"/>
+      <c r="V18" s="226"/>
+      <c r="W18" s="226"/>
+      <c r="X18" s="227"/>
+      <c r="Y18" s="249"/>
+      <c r="Z18" s="249"/>
     </row>
     <row r="19" s="118" customFormat="1" ht="45.95" customHeight="1" spans="1:26">
       <c r="A19" s="158"/>
@@ -4829,19 +4866,19 @@
         <f>IF(_sjmain2_day_shift!K3="","",_sjmain2_day_shift!K3)</f>
         <v/>
       </c>
-      <c r="Q19" s="238" t="str">
+      <c r="Q19" s="229" t="str">
         <f>IF(_sjmain2_day_shift!L3="","",_sjmain2_day_shift!L3)</f>
         <v/>
       </c>
-      <c r="R19" s="240"/>
-      <c r="S19" s="241"/>
-      <c r="T19" s="242"/>
-      <c r="U19" s="234"/>
-      <c r="V19" s="235"/>
-      <c r="W19" s="235"/>
-      <c r="X19" s="236"/>
-      <c r="Y19" s="259"/>
-      <c r="Z19" s="259"/>
+      <c r="R19" s="231"/>
+      <c r="S19" s="232"/>
+      <c r="T19" s="233"/>
+      <c r="U19" s="225"/>
+      <c r="V19" s="226"/>
+      <c r="W19" s="226"/>
+      <c r="X19" s="227"/>
+      <c r="Y19" s="250"/>
+      <c r="Z19" s="250"/>
     </row>
     <row r="20" ht="48" customHeight="1" spans="1:26">
       <c r="A20" s="162"/>
@@ -4893,19 +4930,19 @@
         <f>IF(_sjmain2_day_shift!K4="","",_sjmain2_day_shift!K4)</f>
         <v/>
       </c>
-      <c r="Q20" s="238" t="str">
+      <c r="Q20" s="229" t="str">
         <f>IF(_sjmain2_day_shift!L4="","",_sjmain2_day_shift!L4)</f>
         <v/>
       </c>
-      <c r="R20" s="239"/>
-      <c r="S20" s="231"/>
-      <c r="T20" s="223"/>
-      <c r="U20" s="234"/>
-      <c r="V20" s="235"/>
-      <c r="W20" s="235"/>
-      <c r="X20" s="236"/>
-      <c r="Y20" s="258"/>
-      <c r="Z20" s="258"/>
+      <c r="R20" s="230"/>
+      <c r="S20" s="223"/>
+      <c r="T20" s="215"/>
+      <c r="U20" s="225"/>
+      <c r="V20" s="226"/>
+      <c r="W20" s="226"/>
+      <c r="X20" s="227"/>
+      <c r="Y20" s="249"/>
+      <c r="Z20" s="249"/>
     </row>
     <row r="21" ht="30.95" customHeight="1" spans="1:26">
       <c r="A21" s="164" t="s">
@@ -4926,18 +4963,18 @@
       <c r="N21" s="165"/>
       <c r="O21" s="165"/>
       <c r="P21" s="165"/>
-      <c r="Q21" s="243"/>
+      <c r="Q21" s="234"/>
       <c r="R21" s="110" t="s">
         <v>58</v>
       </c>
       <c r="S21" s="111"/>
-      <c r="T21" s="244"/>
-      <c r="U21" s="245"/>
-      <c r="V21" s="246"/>
-      <c r="W21" s="246"/>
-      <c r="X21" s="247"/>
-      <c r="Y21" s="258"/>
-      <c r="Z21" s="258"/>
+      <c r="T21" s="235"/>
+      <c r="U21" s="236"/>
+      <c r="V21" s="237"/>
+      <c r="W21" s="237"/>
+      <c r="X21" s="238"/>
+      <c r="Y21" s="249"/>
+      <c r="Z21" s="249"/>
     </row>
     <row r="22" ht="30.95" customHeight="1" spans="1:26">
       <c r="A22" s="131" t="s">
@@ -4986,22 +5023,22 @@
       <c r="P22" s="147" t="s">
         <v>73</v>
       </c>
-      <c r="Q22" s="230" t="s">
+      <c r="Q22" s="222" t="s">
         <v>74</v>
       </c>
-      <c r="R22" s="222" t="s">
+      <c r="R22" s="214" t="s">
         <v>20</v>
       </c>
-      <c r="S22" s="222" t="s">
+      <c r="S22" s="214" t="s">
         <v>20</v>
       </c>
-      <c r="T22" s="223"/>
-      <c r="U22" s="224"/>
-      <c r="V22" s="225"/>
-      <c r="W22" s="225"/>
-      <c r="X22" s="226"/>
-      <c r="Y22" s="258"/>
-      <c r="Z22" s="258"/>
+      <c r="T22" s="215"/>
+      <c r="U22" s="216"/>
+      <c r="V22" s="217"/>
+      <c r="W22" s="217"/>
+      <c r="X22" s="218"/>
+      <c r="Y22" s="249"/>
+      <c r="Z22" s="249"/>
     </row>
     <row r="23" ht="30.95" customHeight="1" spans="1:26">
       <c r="A23" s="170" t="str">
@@ -5033,11 +5070,11 @@
         <f>IF(_sjmain4_day_shift!H2="","",_sjmain4_day_shift!H2)</f>
         <v/>
       </c>
-      <c r="I23" s="209" t="str">
+      <c r="I23" s="201" t="str">
         <f>IF(_sjmain4_day_shift!I2="","",_sjmain4_day_shift!I2)</f>
         <v/>
       </c>
-      <c r="J23" s="209" t="str">
+      <c r="J23" s="201" t="str">
         <f>IF(_sjmain4_day_shift!J2="","",_sjmain4_day_shift!J2)</f>
         <v/>
       </c>
@@ -5061,27 +5098,27 @@
         <f>IF(_sjmain4_day_shift!O2="","",_sjmain4_day_shift!O2)</f>
         <v/>
       </c>
-      <c r="P23" s="210" t="str">
+      <c r="P23" s="202" t="str">
         <f>IF(_sjmain4_day_shift!P2="","",_sjmain4_day_shift!P2)</f>
         <v/>
       </c>
-      <c r="Q23" s="248" t="str">
+      <c r="Q23" s="239" t="str">
         <f>IF(_sjmain4_day_shift!Q2="","",_sjmain4_day_shift!Q2)</f>
         <v/>
       </c>
-      <c r="R23" s="233" t="s">
+      <c r="R23" s="224" t="s">
         <v>20</v>
       </c>
-      <c r="S23" s="231" t="s">
+      <c r="S23" s="223" t="s">
         <v>20</v>
       </c>
-      <c r="T23" s="223"/>
-      <c r="U23" s="224"/>
-      <c r="V23" s="225"/>
-      <c r="W23" s="225"/>
-      <c r="X23" s="226"/>
-      <c r="Y23" s="258"/>
-      <c r="Z23" s="258"/>
+      <c r="T23" s="215"/>
+      <c r="U23" s="216"/>
+      <c r="V23" s="217"/>
+      <c r="W23" s="217"/>
+      <c r="X23" s="218"/>
+      <c r="Y23" s="249"/>
+      <c r="Z23" s="249"/>
     </row>
     <row r="24" ht="30.75" customHeight="1" spans="1:26">
       <c r="A24" s="175" t="str">
@@ -5113,11 +5150,11 @@
         <f>IF(_sjmain4_day_shift!H3="","",_sjmain4_day_shift!H3)</f>
         <v/>
       </c>
-      <c r="I24" s="209" t="str">
+      <c r="I24" s="201" t="str">
         <f>IF(_sjmain4_day_shift!I3="","",_sjmain4_day_shift!I3)</f>
         <v/>
       </c>
-      <c r="J24" s="209" t="str">
+      <c r="J24" s="201" t="str">
         <f>IF(_sjmain4_day_shift!J3="","",_sjmain4_day_shift!J3)</f>
         <v/>
       </c>
@@ -5141,21 +5178,21 @@
         <f>IF(_sjmain4_day_shift!O3="","",_sjmain4_day_shift!O3)</f>
         <v/>
       </c>
-      <c r="P24" s="210"/>
-      <c r="Q24" s="248"/>
-      <c r="R24" s="233" t="s">
+      <c r="P24" s="202"/>
+      <c r="Q24" s="239"/>
+      <c r="R24" s="224" t="s">
         <v>20</v>
       </c>
-      <c r="S24" s="231" t="s">
+      <c r="S24" s="223" t="s">
         <v>20</v>
       </c>
-      <c r="T24" s="223"/>
-      <c r="U24" s="224"/>
-      <c r="V24" s="225"/>
-      <c r="W24" s="225"/>
-      <c r="X24" s="226"/>
-      <c r="Y24" s="258"/>
-      <c r="Z24" s="258"/>
+      <c r="T24" s="215"/>
+      <c r="U24" s="216"/>
+      <c r="V24" s="217"/>
+      <c r="W24" s="217"/>
+      <c r="X24" s="218"/>
+      <c r="Y24" s="249"/>
+      <c r="Z24" s="249"/>
     </row>
     <row r="25" ht="30.95" customHeight="1" spans="1:26">
       <c r="A25" s="175" t="str">
@@ -5187,11 +5224,11 @@
         <f>IF(_sjmain4_day_shift!H4="","",_sjmain4_day_shift!H4)</f>
         <v/>
       </c>
-      <c r="I25" s="209" t="str">
+      <c r="I25" s="201" t="str">
         <f>IF(_sjmain4_day_shift!I4="","",_sjmain4_day_shift!I4)</f>
         <v/>
       </c>
-      <c r="J25" s="209" t="str">
+      <c r="J25" s="201" t="str">
         <f>IF(_sjmain4_day_shift!J4="","",_sjmain4_day_shift!J4)</f>
         <v/>
       </c>
@@ -5215,21 +5252,21 @@
         <f>IF(_sjmain4_day_shift!O4="","",_sjmain4_day_shift!O4)</f>
         <v/>
       </c>
-      <c r="P25" s="210"/>
-      <c r="Q25" s="248"/>
-      <c r="R25" s="233" t="s">
+      <c r="P25" s="202"/>
+      <c r="Q25" s="239"/>
+      <c r="R25" s="224" t="s">
         <v>20</v>
       </c>
-      <c r="S25" s="231" t="s">
+      <c r="S25" s="223" t="s">
         <v>20</v>
       </c>
-      <c r="T25" s="223"/>
-      <c r="U25" s="224"/>
-      <c r="V25" s="225"/>
-      <c r="W25" s="225"/>
-      <c r="X25" s="226"/>
-      <c r="Y25" s="258"/>
-      <c r="Z25" s="258"/>
+      <c r="T25" s="215"/>
+      <c r="U25" s="216"/>
+      <c r="V25" s="217"/>
+      <c r="W25" s="217"/>
+      <c r="X25" s="218"/>
+      <c r="Y25" s="249"/>
+      <c r="Z25" s="249"/>
     </row>
     <row r="26" ht="30.95" customHeight="1" spans="1:26">
       <c r="A26" s="175" t="str">
@@ -5261,11 +5298,11 @@
         <f>IF(_sjmain4_day_shift!H5="","",_sjmain4_day_shift!H5)</f>
         <v/>
       </c>
-      <c r="I26" s="209" t="str">
+      <c r="I26" s="201" t="str">
         <f>IF(_sjmain4_day_shift!I5="","",_sjmain4_day_shift!I5)</f>
         <v/>
       </c>
-      <c r="J26" s="209" t="str">
+      <c r="J26" s="201" t="str">
         <f>IF(_sjmain4_day_shift!J5="","",_sjmain4_day_shift!J5)</f>
         <v/>
       </c>
@@ -5289,21 +5326,21 @@
         <f>IF(_sjmain4_day_shift!O5="","",_sjmain4_day_shift!O5)</f>
         <v/>
       </c>
-      <c r="P26" s="210"/>
-      <c r="Q26" s="248"/>
-      <c r="R26" s="233" t="s">
+      <c r="P26" s="202"/>
+      <c r="Q26" s="239"/>
+      <c r="R26" s="224" t="s">
         <v>20</v>
       </c>
-      <c r="S26" s="231" t="s">
+      <c r="S26" s="223" t="s">
         <v>20</v>
       </c>
-      <c r="T26" s="223"/>
-      <c r="U26" s="234"/>
-      <c r="V26" s="235"/>
-      <c r="W26" s="235"/>
-      <c r="X26" s="236"/>
-      <c r="Y26" s="258"/>
-      <c r="Z26" s="258"/>
+      <c r="T26" s="215"/>
+      <c r="U26" s="225"/>
+      <c r="V26" s="226"/>
+      <c r="W26" s="226"/>
+      <c r="X26" s="227"/>
+      <c r="Y26" s="249"/>
+      <c r="Z26" s="249"/>
     </row>
     <row r="27" ht="30.95" customHeight="1" spans="1:26">
       <c r="A27" s="175" t="str">
@@ -5335,11 +5372,11 @@
         <f>IF(_sjmain4_day_shift!H6="","",_sjmain4_day_shift!H6)</f>
         <v/>
       </c>
-      <c r="I27" s="209" t="str">
+      <c r="I27" s="201" t="str">
         <f>IF(_sjmain4_day_shift!I6="","",_sjmain4_day_shift!I6)</f>
         <v/>
       </c>
-      <c r="J27" s="209" t="str">
+      <c r="J27" s="201" t="str">
         <f>IF(_sjmain4_day_shift!J6="","",_sjmain4_day_shift!J6)</f>
         <v/>
       </c>
@@ -5363,17 +5400,17 @@
         <f>IF(_sjmain4_day_shift!O6="","",_sjmain4_day_shift!O6)</f>
         <v/>
       </c>
-      <c r="P27" s="210"/>
-      <c r="Q27" s="248"/>
-      <c r="R27" s="233"/>
-      <c r="S27" s="231"/>
-      <c r="T27" s="223"/>
-      <c r="U27" s="224"/>
-      <c r="V27" s="225"/>
-      <c r="W27" s="225"/>
-      <c r="X27" s="226"/>
-      <c r="Y27" s="258"/>
-      <c r="Z27" s="258"/>
+      <c r="P27" s="202"/>
+      <c r="Q27" s="239"/>
+      <c r="R27" s="224"/>
+      <c r="S27" s="223"/>
+      <c r="T27" s="215"/>
+      <c r="U27" s="216"/>
+      <c r="V27" s="217"/>
+      <c r="W27" s="217"/>
+      <c r="X27" s="218"/>
+      <c r="Y27" s="249"/>
+      <c r="Z27" s="249"/>
     </row>
     <row r="28" ht="30.95" customHeight="1" spans="1:26">
       <c r="A28" s="175" t="str">
@@ -5405,11 +5442,11 @@
         <f>IF(_sjmain4_day_shift!H7="","",_sjmain4_day_shift!H7)</f>
         <v/>
       </c>
-      <c r="I28" s="209" t="str">
+      <c r="I28" s="201" t="str">
         <f>IF(_sjmain4_day_shift!I7="","",_sjmain4_day_shift!I7)</f>
         <v/>
       </c>
-      <c r="J28" s="209" t="str">
+      <c r="J28" s="201" t="str">
         <f>IF(_sjmain4_day_shift!J7="","",_sjmain4_day_shift!J7)</f>
         <v/>
       </c>
@@ -5433,17 +5470,17 @@
         <f>IF(_sjmain4_day_shift!O7="","",_sjmain4_day_shift!O7)</f>
         <v/>
       </c>
-      <c r="P28" s="210"/>
-      <c r="Q28" s="248"/>
-      <c r="R28" s="233"/>
-      <c r="S28" s="231"/>
-      <c r="T28" s="223"/>
-      <c r="U28" s="234"/>
-      <c r="V28" s="235"/>
-      <c r="W28" s="235"/>
-      <c r="X28" s="236"/>
-      <c r="Y28" s="258"/>
-      <c r="Z28" s="258"/>
+      <c r="P28" s="202"/>
+      <c r="Q28" s="239"/>
+      <c r="R28" s="224"/>
+      <c r="S28" s="223"/>
+      <c r="T28" s="215"/>
+      <c r="U28" s="225"/>
+      <c r="V28" s="226"/>
+      <c r="W28" s="226"/>
+      <c r="X28" s="227"/>
+      <c r="Y28" s="249"/>
+      <c r="Z28" s="249"/>
     </row>
     <row r="29" ht="30.95" customHeight="1" spans="1:26">
       <c r="A29" s="175" t="str">
@@ -5475,11 +5512,11 @@
         <f>IF(_sjmain4_day_shift!H8="","",_sjmain4_day_shift!H8)</f>
         <v/>
       </c>
-      <c r="I29" s="209" t="str">
+      <c r="I29" s="201" t="str">
         <f>IF(_sjmain4_day_shift!I8="","",_sjmain4_day_shift!I8)</f>
         <v/>
       </c>
-      <c r="J29" s="209" t="str">
+      <c r="J29" s="201" t="str">
         <f>IF(_sjmain4_day_shift!J8="","",_sjmain4_day_shift!J8)</f>
         <v/>
       </c>
@@ -5503,19 +5540,19 @@
         <f>IF(_sjmain4_day_shift!O8="","",_sjmain4_day_shift!O8)</f>
         <v/>
       </c>
-      <c r="P29" s="210"/>
-      <c r="Q29" s="248"/>
+      <c r="P29" s="202"/>
+      <c r="Q29" s="239"/>
       <c r="R29" s="110" t="s">
         <v>75</v>
       </c>
       <c r="S29" s="111"/>
-      <c r="T29" s="244"/>
-      <c r="U29" s="245"/>
-      <c r="V29" s="246"/>
-      <c r="W29" s="246"/>
-      <c r="X29" s="247"/>
-      <c r="Y29" s="258"/>
-      <c r="Z29" s="258"/>
+      <c r="T29" s="235"/>
+      <c r="U29" s="236"/>
+      <c r="V29" s="237"/>
+      <c r="W29" s="237"/>
+      <c r="X29" s="238"/>
+      <c r="Y29" s="249"/>
+      <c r="Z29" s="249"/>
     </row>
     <row r="30" ht="30" customHeight="1" spans="1:24">
       <c r="A30" s="175" t="str">
@@ -5547,11 +5584,11 @@
         <f>IF(_sjmain4_day_shift!H9="","",_sjmain4_day_shift!H9)</f>
         <v/>
       </c>
-      <c r="I30" s="209" t="str">
+      <c r="I30" s="201" t="str">
         <f>IF(_sjmain4_day_shift!I9="","",_sjmain4_day_shift!I9)</f>
         <v/>
       </c>
-      <c r="J30" s="209" t="str">
+      <c r="J30" s="201" t="str">
         <f>IF(_sjmain4_day_shift!J9="","",_sjmain4_day_shift!J9)</f>
         <v/>
       </c>
@@ -5575,19 +5612,19 @@
         <f>IF(_sjmain4_day_shift!O9="","",_sjmain4_day_shift!O9)</f>
         <v/>
       </c>
-      <c r="P30" s="210"/>
-      <c r="Q30" s="248"/>
+      <c r="P30" s="202"/>
+      <c r="Q30" s="239"/>
       <c r="R30" s="110" t="s">
         <v>76</v>
       </c>
       <c r="S30" s="111"/>
-      <c r="T30" s="244">
+      <c r="T30" s="235">
         <v>0</v>
       </c>
-      <c r="U30" s="245"/>
-      <c r="V30" s="246"/>
-      <c r="W30" s="246"/>
-      <c r="X30" s="247"/>
+      <c r="U30" s="236"/>
+      <c r="V30" s="237"/>
+      <c r="W30" s="237"/>
+      <c r="X30" s="238"/>
     </row>
     <row r="31" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A31" s="175" t="str">
@@ -5619,11 +5656,11 @@
         <f>IF(_sjmain4_day_shift!H10="","",_sjmain4_day_shift!H10)</f>
         <v/>
       </c>
-      <c r="I31" s="209" t="str">
+      <c r="I31" s="201" t="str">
         <f>IF(_sjmain4_day_shift!I10="","",_sjmain4_day_shift!I10)</f>
         <v/>
       </c>
-      <c r="J31" s="209" t="str">
+      <c r="J31" s="201" t="str">
         <f>IF(_sjmain4_day_shift!J10="","",_sjmain4_day_shift!J10)</f>
         <v/>
       </c>
@@ -5647,15 +5684,15 @@
         <f>IF(_sjmain4_day_shift!O10="","",_sjmain4_day_shift!O10)</f>
         <v/>
       </c>
-      <c r="P31" s="210"/>
-      <c r="Q31" s="248"/>
+      <c r="P31" s="202"/>
+      <c r="Q31" s="239"/>
       <c r="R31" s="110"/>
       <c r="S31" s="111"/>
-      <c r="T31" s="244"/>
-      <c r="U31" s="245"/>
-      <c r="V31" s="246"/>
-      <c r="W31" s="246"/>
-      <c r="X31" s="247"/>
+      <c r="T31" s="235"/>
+      <c r="U31" s="236"/>
+      <c r="V31" s="237"/>
+      <c r="W31" s="237"/>
+      <c r="X31" s="238"/>
     </row>
     <row r="32" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A32" s="175" t="str">
@@ -5687,11 +5724,11 @@
         <f>IF(_sjmain4_day_shift!H11="","",_sjmain4_day_shift!H11)</f>
         <v/>
       </c>
-      <c r="I32" s="209" t="str">
+      <c r="I32" s="201" t="str">
         <f>IF(_sjmain4_day_shift!I11="","",_sjmain4_day_shift!I11)</f>
         <v/>
       </c>
-      <c r="J32" s="209" t="str">
+      <c r="J32" s="201" t="str">
         <f>IF(_sjmain4_day_shift!J11="","",_sjmain4_day_shift!J11)</f>
         <v/>
       </c>
@@ -5715,15 +5752,15 @@
         <f>IF(_sjmain4_day_shift!O11="","",_sjmain4_day_shift!O11)</f>
         <v/>
       </c>
-      <c r="P32" s="210"/>
-      <c r="Q32" s="248"/>
+      <c r="P32" s="202"/>
+      <c r="Q32" s="239"/>
       <c r="R32" s="110"/>
       <c r="S32" s="111"/>
-      <c r="T32" s="244"/>
-      <c r="U32" s="245"/>
-      <c r="V32" s="246"/>
-      <c r="W32" s="246"/>
-      <c r="X32" s="247"/>
+      <c r="T32" s="235"/>
+      <c r="U32" s="236"/>
+      <c r="V32" s="237"/>
+      <c r="W32" s="237"/>
+      <c r="X32" s="238"/>
     </row>
     <row r="33" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A33" s="175" t="str">
@@ -5755,11 +5792,11 @@
         <f>IF(_sjmain4_day_shift!H12="","",_sjmain4_day_shift!H12)</f>
         <v/>
       </c>
-      <c r="I33" s="209" t="str">
+      <c r="I33" s="201" t="str">
         <f>IF(_sjmain4_day_shift!I12="","",_sjmain4_day_shift!I12)</f>
         <v/>
       </c>
-      <c r="J33" s="209" t="str">
+      <c r="J33" s="201" t="str">
         <f>IF(_sjmain4_day_shift!J12="","",_sjmain4_day_shift!J12)</f>
         <v/>
       </c>
@@ -5783,15 +5820,15 @@
         <f>IF(_sjmain4_day_shift!O12="","",_sjmain4_day_shift!O12)</f>
         <v/>
       </c>
-      <c r="P33" s="210"/>
-      <c r="Q33" s="248"/>
+      <c r="P33" s="202"/>
+      <c r="Q33" s="239"/>
       <c r="R33" s="110"/>
       <c r="S33" s="111"/>
-      <c r="T33" s="244"/>
-      <c r="U33" s="245"/>
-      <c r="V33" s="246"/>
-      <c r="W33" s="246"/>
-      <c r="X33" s="247"/>
+      <c r="T33" s="235"/>
+      <c r="U33" s="236"/>
+      <c r="V33" s="237"/>
+      <c r="W33" s="237"/>
+      <c r="X33" s="238"/>
     </row>
     <row r="34" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A34" s="175" t="str">
@@ -5823,11 +5860,11 @@
         <f>IF(_sjmain4_day_shift!H13="","",_sjmain4_day_shift!H13)</f>
         <v/>
       </c>
-      <c r="I34" s="209" t="str">
+      <c r="I34" s="201" t="str">
         <f>IF(_sjmain4_day_shift!I13="","",_sjmain4_day_shift!I13)</f>
         <v/>
       </c>
-      <c r="J34" s="209" t="str">
+      <c r="J34" s="201" t="str">
         <f>IF(_sjmain4_day_shift!J13="","",_sjmain4_day_shift!J13)</f>
         <v/>
       </c>
@@ -5851,15 +5888,15 @@
         <f>IF(_sjmain4_day_shift!O13="","",_sjmain4_day_shift!O13)</f>
         <v/>
       </c>
-      <c r="P34" s="210"/>
-      <c r="Q34" s="248"/>
+      <c r="P34" s="202"/>
+      <c r="Q34" s="239"/>
       <c r="R34" s="110"/>
       <c r="S34" s="111"/>
-      <c r="T34" s="244"/>
-      <c r="U34" s="245"/>
-      <c r="V34" s="246"/>
-      <c r="W34" s="246"/>
-      <c r="X34" s="247"/>
+      <c r="T34" s="235"/>
+      <c r="U34" s="236"/>
+      <c r="V34" s="237"/>
+      <c r="W34" s="237"/>
+      <c r="X34" s="238"/>
     </row>
     <row r="35" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A35" s="175" t="str">
@@ -5891,11 +5928,11 @@
         <f>IF(_sjmain4_day_shift!H14="","",_sjmain4_day_shift!H14)</f>
         <v/>
       </c>
-      <c r="I35" s="209" t="str">
+      <c r="I35" s="201" t="str">
         <f>IF(_sjmain4_day_shift!I14="","",_sjmain4_day_shift!I14)</f>
         <v/>
       </c>
-      <c r="J35" s="209" t="str">
+      <c r="J35" s="201" t="str">
         <f>IF(_sjmain4_day_shift!J14="","",_sjmain4_day_shift!J14)</f>
         <v/>
       </c>
@@ -5919,15 +5956,15 @@
         <f>IF(_sjmain4_day_shift!O14="","",_sjmain4_day_shift!O14)</f>
         <v/>
       </c>
-      <c r="P35" s="210"/>
-      <c r="Q35" s="248"/>
+      <c r="P35" s="202"/>
+      <c r="Q35" s="239"/>
       <c r="R35" s="110"/>
       <c r="S35" s="111"/>
-      <c r="T35" s="244"/>
-      <c r="U35" s="245"/>
-      <c r="V35" s="246"/>
-      <c r="W35" s="246"/>
-      <c r="X35" s="247"/>
+      <c r="T35" s="235"/>
+      <c r="U35" s="236"/>
+      <c r="V35" s="237"/>
+      <c r="W35" s="237"/>
+      <c r="X35" s="238"/>
     </row>
     <row r="36" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A36" s="175" t="str">
@@ -5959,11 +5996,11 @@
         <f>IF(_sjmain4_day_shift!H15="","",_sjmain4_day_shift!H15)</f>
         <v/>
       </c>
-      <c r="I36" s="209" t="str">
+      <c r="I36" s="201" t="str">
         <f>IF(_sjmain4_day_shift!I15="","",_sjmain4_day_shift!I15)</f>
         <v/>
       </c>
-      <c r="J36" s="209" t="str">
+      <c r="J36" s="201" t="str">
         <f>IF(_sjmain4_day_shift!J15="","",_sjmain4_day_shift!J15)</f>
         <v/>
       </c>
@@ -5987,15 +6024,15 @@
         <f>IF(_sjmain4_day_shift!O15="","",_sjmain4_day_shift!O15)</f>
         <v/>
       </c>
-      <c r="P36" s="210"/>
-      <c r="Q36" s="248"/>
+      <c r="P36" s="202"/>
+      <c r="Q36" s="239"/>
       <c r="R36" s="110"/>
       <c r="S36" s="111"/>
-      <c r="T36" s="244"/>
-      <c r="U36" s="245"/>
-      <c r="V36" s="246"/>
-      <c r="W36" s="246"/>
-      <c r="X36" s="247"/>
+      <c r="T36" s="235"/>
+      <c r="U36" s="236"/>
+      <c r="V36" s="237"/>
+      <c r="W36" s="237"/>
+      <c r="X36" s="238"/>
     </row>
     <row r="37" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A37" s="175" t="str">
@@ -6027,11 +6064,11 @@
         <f>IF(_sjmain4_day_shift!H16="","",_sjmain4_day_shift!H16)</f>
         <v/>
       </c>
-      <c r="I37" s="209" t="str">
+      <c r="I37" s="201" t="str">
         <f>IF(_sjmain4_day_shift!I16="","",_sjmain4_day_shift!I16)</f>
         <v/>
       </c>
-      <c r="J37" s="209" t="str">
+      <c r="J37" s="201" t="str">
         <f>IF(_sjmain4_day_shift!J16="","",_sjmain4_day_shift!J16)</f>
         <v/>
       </c>
@@ -6055,15 +6092,15 @@
         <f>IF(_sjmain4_day_shift!O16="","",_sjmain4_day_shift!O16)</f>
         <v/>
       </c>
-      <c r="P37" s="210"/>
-      <c r="Q37" s="248"/>
+      <c r="P37" s="202"/>
+      <c r="Q37" s="239"/>
       <c r="R37" s="110"/>
       <c r="S37" s="111"/>
-      <c r="T37" s="244"/>
-      <c r="U37" s="245"/>
-      <c r="V37" s="246"/>
-      <c r="W37" s="246"/>
-      <c r="X37" s="247"/>
+      <c r="T37" s="235"/>
+      <c r="U37" s="236"/>
+      <c r="V37" s="237"/>
+      <c r="W37" s="237"/>
+      <c r="X37" s="238"/>
     </row>
     <row r="38" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A38" s="175" t="str">
@@ -6095,11 +6132,11 @@
         <f>IF(_sjmain4_day_shift!H17="","",_sjmain4_day_shift!H17)</f>
         <v/>
       </c>
-      <c r="I38" s="209" t="str">
+      <c r="I38" s="201" t="str">
         <f>IF(_sjmain4_day_shift!I17="","",_sjmain4_day_shift!I17)</f>
         <v/>
       </c>
-      <c r="J38" s="209" t="str">
+      <c r="J38" s="201" t="str">
         <f>IF(_sjmain4_day_shift!J17="","",_sjmain4_day_shift!J17)</f>
         <v/>
       </c>
@@ -6123,15 +6160,15 @@
         <f>IF(_sjmain4_day_shift!O17="","",_sjmain4_day_shift!O17)</f>
         <v/>
       </c>
-      <c r="P38" s="210"/>
-      <c r="Q38" s="248"/>
+      <c r="P38" s="202"/>
+      <c r="Q38" s="239"/>
       <c r="R38" s="110"/>
       <c r="S38" s="111"/>
-      <c r="T38" s="244"/>
-      <c r="U38" s="245"/>
-      <c r="V38" s="246"/>
-      <c r="W38" s="246"/>
-      <c r="X38" s="247"/>
+      <c r="T38" s="235"/>
+      <c r="U38" s="236"/>
+      <c r="V38" s="237"/>
+      <c r="W38" s="237"/>
+      <c r="X38" s="238"/>
     </row>
     <row r="39" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A39" s="175" t="str">
@@ -6163,11 +6200,11 @@
         <f>IF(_sjmain4_day_shift!H18="","",_sjmain4_day_shift!H18)</f>
         <v/>
       </c>
-      <c r="I39" s="209" t="str">
+      <c r="I39" s="201" t="str">
         <f>IF(_sjmain4_day_shift!I18="","",_sjmain4_day_shift!I18)</f>
         <v/>
       </c>
-      <c r="J39" s="209" t="str">
+      <c r="J39" s="201" t="str">
         <f>IF(_sjmain4_day_shift!J18="","",_sjmain4_day_shift!J18)</f>
         <v/>
       </c>
@@ -6191,15 +6228,15 @@
         <f>IF(_sjmain4_day_shift!O18="","",_sjmain4_day_shift!O18)</f>
         <v/>
       </c>
-      <c r="P39" s="210"/>
-      <c r="Q39" s="248"/>
+      <c r="P39" s="202"/>
+      <c r="Q39" s="239"/>
       <c r="R39" s="110"/>
       <c r="S39" s="111"/>
-      <c r="T39" s="244"/>
-      <c r="U39" s="245"/>
-      <c r="V39" s="246"/>
-      <c r="W39" s="246"/>
-      <c r="X39" s="247"/>
+      <c r="T39" s="235"/>
+      <c r="U39" s="236"/>
+      <c r="V39" s="237"/>
+      <c r="W39" s="237"/>
+      <c r="X39" s="238"/>
     </row>
     <row r="40" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A40" s="175" t="str">
@@ -6231,11 +6268,11 @@
         <f>IF(_sjmain4_day_shift!H19="","",_sjmain4_day_shift!H19)</f>
         <v/>
       </c>
-      <c r="I40" s="209" t="str">
+      <c r="I40" s="201" t="str">
         <f>IF(_sjmain4_day_shift!I19="","",_sjmain4_day_shift!I19)</f>
         <v/>
       </c>
-      <c r="J40" s="209" t="str">
+      <c r="J40" s="201" t="str">
         <f>IF(_sjmain4_day_shift!J19="","",_sjmain4_day_shift!J19)</f>
         <v/>
       </c>
@@ -6259,15 +6296,15 @@
         <f>IF(_sjmain4_day_shift!O19="","",_sjmain4_day_shift!O19)</f>
         <v/>
       </c>
-      <c r="P40" s="210"/>
-      <c r="Q40" s="248"/>
+      <c r="P40" s="202"/>
+      <c r="Q40" s="239"/>
       <c r="R40" s="110"/>
       <c r="S40" s="111"/>
-      <c r="T40" s="244"/>
-      <c r="U40" s="245"/>
-      <c r="V40" s="246"/>
-      <c r="W40" s="246"/>
-      <c r="X40" s="247"/>
+      <c r="T40" s="235"/>
+      <c r="U40" s="236"/>
+      <c r="V40" s="237"/>
+      <c r="W40" s="237"/>
+      <c r="X40" s="238"/>
     </row>
     <row r="41" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A41" s="175" t="str">
@@ -6299,11 +6336,11 @@
         <f>IF(_sjmain4_day_shift!H20="","",_sjmain4_day_shift!H20)</f>
         <v/>
       </c>
-      <c r="I41" s="209" t="str">
+      <c r="I41" s="201" t="str">
         <f>IF(_sjmain4_day_shift!I20="","",_sjmain4_day_shift!I20)</f>
         <v/>
       </c>
-      <c r="J41" s="209" t="str">
+      <c r="J41" s="201" t="str">
         <f>IF(_sjmain4_day_shift!J20="","",_sjmain4_day_shift!J20)</f>
         <v/>
       </c>
@@ -6327,15 +6364,15 @@
         <f>IF(_sjmain4_day_shift!O20="","",_sjmain4_day_shift!O20)</f>
         <v/>
       </c>
-      <c r="P41" s="210"/>
-      <c r="Q41" s="248"/>
+      <c r="P41" s="202"/>
+      <c r="Q41" s="239"/>
       <c r="R41" s="110"/>
       <c r="S41" s="111"/>
-      <c r="T41" s="244"/>
-      <c r="U41" s="245"/>
-      <c r="V41" s="246"/>
-      <c r="W41" s="246"/>
-      <c r="X41" s="247"/>
+      <c r="T41" s="235"/>
+      <c r="U41" s="236"/>
+      <c r="V41" s="237"/>
+      <c r="W41" s="237"/>
+      <c r="X41" s="238"/>
     </row>
     <row r="42" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A42" s="175" t="str">
@@ -6367,11 +6404,11 @@
         <f>IF(_sjmain4_day_shift!H21="","",_sjmain4_day_shift!H21)</f>
         <v/>
       </c>
-      <c r="I42" s="209" t="str">
+      <c r="I42" s="201" t="str">
         <f>IF(_sjmain4_day_shift!I21="","",_sjmain4_day_shift!I21)</f>
         <v/>
       </c>
-      <c r="J42" s="209" t="str">
+      <c r="J42" s="201" t="str">
         <f>IF(_sjmain4_day_shift!J21="","",_sjmain4_day_shift!J21)</f>
         <v/>
       </c>
@@ -6395,15 +6432,15 @@
         <f>IF(_sjmain4_day_shift!O21="","",_sjmain4_day_shift!O21)</f>
         <v/>
       </c>
-      <c r="P42" s="210"/>
-      <c r="Q42" s="248"/>
+      <c r="P42" s="202"/>
+      <c r="Q42" s="239"/>
       <c r="R42" s="110"/>
       <c r="S42" s="111"/>
-      <c r="T42" s="244"/>
-      <c r="U42" s="245"/>
-      <c r="V42" s="246"/>
-      <c r="W42" s="246"/>
-      <c r="X42" s="247"/>
+      <c r="T42" s="235"/>
+      <c r="U42" s="236"/>
+      <c r="V42" s="237"/>
+      <c r="W42" s="237"/>
+      <c r="X42" s="238"/>
     </row>
     <row r="43" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A43" s="175" t="str">
@@ -6435,11 +6472,11 @@
         <f>IF(_sjmain4_day_shift!H22="","",_sjmain4_day_shift!H22)</f>
         <v/>
       </c>
-      <c r="I43" s="209" t="str">
+      <c r="I43" s="201" t="str">
         <f>IF(_sjmain4_day_shift!I22="","",_sjmain4_day_shift!I22)</f>
         <v/>
       </c>
-      <c r="J43" s="209" t="str">
+      <c r="J43" s="201" t="str">
         <f>IF(_sjmain4_day_shift!J22="","",_sjmain4_day_shift!J22)</f>
         <v/>
       </c>
@@ -6463,15 +6500,15 @@
         <f>IF(_sjmain4_day_shift!O22="","",_sjmain4_day_shift!O22)</f>
         <v/>
       </c>
-      <c r="P43" s="210"/>
-      <c r="Q43" s="248"/>
+      <c r="P43" s="202"/>
+      <c r="Q43" s="239"/>
       <c r="R43" s="110"/>
       <c r="S43" s="111"/>
-      <c r="T43" s="244"/>
-      <c r="U43" s="245"/>
-      <c r="V43" s="246"/>
-      <c r="W43" s="246"/>
-      <c r="X43" s="247"/>
+      <c r="T43" s="235"/>
+      <c r="U43" s="236"/>
+      <c r="V43" s="237"/>
+      <c r="W43" s="237"/>
+      <c r="X43" s="238"/>
     </row>
     <row r="44" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A44" s="175" t="str">
@@ -6503,11 +6540,11 @@
         <f>IF(_sjmain4_day_shift!H23="","",_sjmain4_day_shift!H23)</f>
         <v/>
       </c>
-      <c r="I44" s="209" t="str">
+      <c r="I44" s="201" t="str">
         <f>IF(_sjmain4_day_shift!I23="","",_sjmain4_day_shift!I23)</f>
         <v/>
       </c>
-      <c r="J44" s="209" t="str">
+      <c r="J44" s="201" t="str">
         <f>IF(_sjmain4_day_shift!J23="","",_sjmain4_day_shift!J23)</f>
         <v/>
       </c>
@@ -6531,15 +6568,15 @@
         <f>IF(_sjmain4_day_shift!O23="","",_sjmain4_day_shift!O23)</f>
         <v/>
       </c>
-      <c r="P44" s="210"/>
-      <c r="Q44" s="248"/>
+      <c r="P44" s="202"/>
+      <c r="Q44" s="239"/>
       <c r="R44" s="110"/>
       <c r="S44" s="111"/>
-      <c r="T44" s="244"/>
-      <c r="U44" s="245"/>
-      <c r="V44" s="246"/>
-      <c r="W44" s="246"/>
-      <c r="X44" s="247"/>
+      <c r="T44" s="235"/>
+      <c r="U44" s="236"/>
+      <c r="V44" s="237"/>
+      <c r="W44" s="237"/>
+      <c r="X44" s="238"/>
     </row>
     <row r="45" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A45" s="175" t="str">
@@ -6571,11 +6608,11 @@
         <f>IF(_sjmain4_day_shift!H24="","",_sjmain4_day_shift!H24)</f>
         <v/>
       </c>
-      <c r="I45" s="209" t="str">
+      <c r="I45" s="201" t="str">
         <f>IF(_sjmain4_day_shift!I24="","",_sjmain4_day_shift!I24)</f>
         <v/>
       </c>
-      <c r="J45" s="209" t="str">
+      <c r="J45" s="201" t="str">
         <f>IF(_sjmain4_day_shift!J24="","",_sjmain4_day_shift!J24)</f>
         <v/>
       </c>
@@ -6599,15 +6636,15 @@
         <f>IF(_sjmain4_day_shift!O24="","",_sjmain4_day_shift!O24)</f>
         <v/>
       </c>
-      <c r="P45" s="210"/>
-      <c r="Q45" s="248"/>
+      <c r="P45" s="202"/>
+      <c r="Q45" s="239"/>
       <c r="R45" s="110"/>
       <c r="S45" s="111"/>
-      <c r="T45" s="244"/>
-      <c r="U45" s="245"/>
-      <c r="V45" s="246"/>
-      <c r="W45" s="246"/>
-      <c r="X45" s="247"/>
+      <c r="T45" s="235"/>
+      <c r="U45" s="236"/>
+      <c r="V45" s="237"/>
+      <c r="W45" s="237"/>
+      <c r="X45" s="238"/>
     </row>
     <row r="46" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A46" s="175" t="str">
@@ -6639,11 +6676,11 @@
         <f>IF(_sjmain4_day_shift!H25="","",_sjmain4_day_shift!H25)</f>
         <v/>
       </c>
-      <c r="I46" s="209" t="str">
+      <c r="I46" s="201" t="str">
         <f>IF(_sjmain4_day_shift!I25="","",_sjmain4_day_shift!I25)</f>
         <v/>
       </c>
-      <c r="J46" s="209" t="str">
+      <c r="J46" s="201" t="str">
         <f>IF(_sjmain4_day_shift!J25="","",_sjmain4_day_shift!J25)</f>
         <v/>
       </c>
@@ -6667,15 +6704,15 @@
         <f>IF(_sjmain4_day_shift!O25="","",_sjmain4_day_shift!O25)</f>
         <v/>
       </c>
-      <c r="P46" s="210"/>
-      <c r="Q46" s="248"/>
+      <c r="P46" s="202"/>
+      <c r="Q46" s="239"/>
       <c r="R46" s="110"/>
       <c r="S46" s="111"/>
-      <c r="T46" s="244"/>
-      <c r="U46" s="245"/>
-      <c r="V46" s="246"/>
-      <c r="W46" s="246"/>
-      <c r="X46" s="247"/>
+      <c r="T46" s="235"/>
+      <c r="U46" s="236"/>
+      <c r="V46" s="237"/>
+      <c r="W46" s="237"/>
+      <c r="X46" s="238"/>
     </row>
     <row r="47" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A47" s="175" t="str">
@@ -6707,11 +6744,11 @@
         <f>IF(_sjmain4_day_shift!H26="","",_sjmain4_day_shift!H26)</f>
         <v/>
       </c>
-      <c r="I47" s="209" t="str">
+      <c r="I47" s="201" t="str">
         <f>IF(_sjmain4_day_shift!I26="","",_sjmain4_day_shift!I26)</f>
         <v/>
       </c>
-      <c r="J47" s="209" t="str">
+      <c r="J47" s="201" t="str">
         <f>IF(_sjmain4_day_shift!J26="","",_sjmain4_day_shift!J26)</f>
         <v/>
       </c>
@@ -6735,15 +6772,15 @@
         <f>IF(_sjmain4_day_shift!O26="","",_sjmain4_day_shift!O26)</f>
         <v/>
       </c>
-      <c r="P47" s="210"/>
-      <c r="Q47" s="248"/>
+      <c r="P47" s="202"/>
+      <c r="Q47" s="239"/>
       <c r="R47" s="110"/>
       <c r="S47" s="111"/>
-      <c r="T47" s="244"/>
-      <c r="U47" s="245"/>
-      <c r="V47" s="246"/>
-      <c r="W47" s="246"/>
-      <c r="X47" s="247"/>
+      <c r="T47" s="235"/>
+      <c r="U47" s="236"/>
+      <c r="V47" s="237"/>
+      <c r="W47" s="237"/>
+      <c r="X47" s="238"/>
     </row>
     <row r="48" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A48" s="175" t="str">
@@ -6775,11 +6812,11 @@
         <f>IF(_sjmain4_day_shift!H27="","",_sjmain4_day_shift!H27)</f>
         <v/>
       </c>
-      <c r="I48" s="209" t="str">
+      <c r="I48" s="201" t="str">
         <f>IF(_sjmain4_day_shift!I27="","",_sjmain4_day_shift!I27)</f>
         <v/>
       </c>
-      <c r="J48" s="209" t="str">
+      <c r="J48" s="201" t="str">
         <f>IF(_sjmain4_day_shift!J27="","",_sjmain4_day_shift!J27)</f>
         <v/>
       </c>
@@ -6803,15 +6840,15 @@
         <f>IF(_sjmain4_day_shift!O27="","",_sjmain4_day_shift!O27)</f>
         <v/>
       </c>
-      <c r="P48" s="210"/>
-      <c r="Q48" s="248"/>
+      <c r="P48" s="202"/>
+      <c r="Q48" s="239"/>
       <c r="R48" s="110"/>
       <c r="S48" s="111"/>
-      <c r="T48" s="244"/>
-      <c r="U48" s="245"/>
-      <c r="V48" s="246"/>
-      <c r="W48" s="246"/>
-      <c r="X48" s="247"/>
+      <c r="T48" s="235"/>
+      <c r="U48" s="236"/>
+      <c r="V48" s="237"/>
+      <c r="W48" s="237"/>
+      <c r="X48" s="238"/>
     </row>
     <row r="49" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A49" s="175" t="str">
@@ -6843,11 +6880,11 @@
         <f>IF(_sjmain4_day_shift!H28="","",_sjmain4_day_shift!H28)</f>
         <v/>
       </c>
-      <c r="I49" s="209" t="str">
+      <c r="I49" s="201" t="str">
         <f>IF(_sjmain4_day_shift!I28="","",_sjmain4_day_shift!I28)</f>
         <v/>
       </c>
-      <c r="J49" s="209" t="str">
+      <c r="J49" s="201" t="str">
         <f>IF(_sjmain4_day_shift!J28="","",_sjmain4_day_shift!J28)</f>
         <v/>
       </c>
@@ -6871,15 +6908,15 @@
         <f>IF(_sjmain4_day_shift!O28="","",_sjmain4_day_shift!O28)</f>
         <v/>
       </c>
-      <c r="P49" s="210"/>
-      <c r="Q49" s="248"/>
+      <c r="P49" s="202"/>
+      <c r="Q49" s="239"/>
       <c r="R49" s="110"/>
       <c r="S49" s="111"/>
-      <c r="T49" s="244"/>
-      <c r="U49" s="245"/>
-      <c r="V49" s="246"/>
-      <c r="W49" s="246"/>
-      <c r="X49" s="247"/>
+      <c r="T49" s="235"/>
+      <c r="U49" s="236"/>
+      <c r="V49" s="237"/>
+      <c r="W49" s="237"/>
+      <c r="X49" s="238"/>
     </row>
     <row r="50" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A50" s="175" t="str">
@@ -6911,11 +6948,11 @@
         <f>IF(_sjmain4_day_shift!H29="","",_sjmain4_day_shift!H29)</f>
         <v/>
       </c>
-      <c r="I50" s="209" t="str">
+      <c r="I50" s="201" t="str">
         <f>IF(_sjmain4_day_shift!I29="","",_sjmain4_day_shift!I29)</f>
         <v/>
       </c>
-      <c r="J50" s="209" t="str">
+      <c r="J50" s="201" t="str">
         <f>IF(_sjmain4_day_shift!J29="","",_sjmain4_day_shift!J29)</f>
         <v/>
       </c>
@@ -6939,15 +6976,15 @@
         <f>IF(_sjmain4_day_shift!O29="","",_sjmain4_day_shift!O29)</f>
         <v/>
       </c>
-      <c r="P50" s="210"/>
-      <c r="Q50" s="248"/>
+      <c r="P50" s="202"/>
+      <c r="Q50" s="239"/>
       <c r="R50" s="110"/>
       <c r="S50" s="111"/>
-      <c r="T50" s="244"/>
-      <c r="U50" s="245"/>
-      <c r="V50" s="246"/>
-      <c r="W50" s="246"/>
-      <c r="X50" s="247"/>
+      <c r="T50" s="235"/>
+      <c r="U50" s="236"/>
+      <c r="V50" s="237"/>
+      <c r="W50" s="237"/>
+      <c r="X50" s="238"/>
     </row>
     <row r="51" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A51" s="175" t="str">
@@ -6979,11 +7016,11 @@
         <f>IF(_sjmain4_day_shift!H30="","",_sjmain4_day_shift!H30)</f>
         <v/>
       </c>
-      <c r="I51" s="209" t="str">
+      <c r="I51" s="201" t="str">
         <f>IF(_sjmain4_day_shift!I30="","",_sjmain4_day_shift!I30)</f>
         <v/>
       </c>
-      <c r="J51" s="209" t="str">
+      <c r="J51" s="201" t="str">
         <f>IF(_sjmain4_day_shift!J30="","",_sjmain4_day_shift!J30)</f>
         <v/>
       </c>
@@ -7007,15 +7044,15 @@
         <f>IF(_sjmain4_day_shift!O30="","",_sjmain4_day_shift!O30)</f>
         <v/>
       </c>
-      <c r="P51" s="210"/>
-      <c r="Q51" s="248"/>
+      <c r="P51" s="202"/>
+      <c r="Q51" s="239"/>
       <c r="R51" s="110"/>
       <c r="S51" s="111"/>
-      <c r="T51" s="244"/>
-      <c r="U51" s="245"/>
-      <c r="V51" s="246"/>
-      <c r="W51" s="246"/>
-      <c r="X51" s="247"/>
+      <c r="T51" s="235"/>
+      <c r="U51" s="236"/>
+      <c r="V51" s="237"/>
+      <c r="W51" s="237"/>
+      <c r="X51" s="238"/>
     </row>
     <row r="52" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A52" s="175" t="str">
@@ -7047,11 +7084,11 @@
         <f>IF(_sjmain4_day_shift!H31="","",_sjmain4_day_shift!H31)</f>
         <v/>
       </c>
-      <c r="I52" s="209" t="str">
+      <c r="I52" s="201" t="str">
         <f>IF(_sjmain4_day_shift!I31="","",_sjmain4_day_shift!I31)</f>
         <v/>
       </c>
-      <c r="J52" s="209" t="str">
+      <c r="J52" s="201" t="str">
         <f>IF(_sjmain4_day_shift!J31="","",_sjmain4_day_shift!J31)</f>
         <v/>
       </c>
@@ -7075,15 +7112,15 @@
         <f>IF(_sjmain4_day_shift!O31="","",_sjmain4_day_shift!O31)</f>
         <v/>
       </c>
-      <c r="P52" s="210"/>
-      <c r="Q52" s="248"/>
+      <c r="P52" s="202"/>
+      <c r="Q52" s="239"/>
       <c r="R52" s="110"/>
       <c r="S52" s="111"/>
-      <c r="T52" s="244"/>
-      <c r="U52" s="245"/>
-      <c r="V52" s="246"/>
-      <c r="W52" s="246"/>
-      <c r="X52" s="247"/>
+      <c r="T52" s="235"/>
+      <c r="U52" s="236"/>
+      <c r="V52" s="237"/>
+      <c r="W52" s="237"/>
+      <c r="X52" s="238"/>
     </row>
     <row r="53" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A53" s="175" t="str">
@@ -7115,11 +7152,11 @@
         <f>IF(_sjmain4_day_shift!H32="","",_sjmain4_day_shift!H32)</f>
         <v/>
       </c>
-      <c r="I53" s="209" t="str">
+      <c r="I53" s="201" t="str">
         <f>IF(_sjmain4_day_shift!I32="","",_sjmain4_day_shift!I32)</f>
         <v/>
       </c>
-      <c r="J53" s="209" t="str">
+      <c r="J53" s="201" t="str">
         <f>IF(_sjmain4_day_shift!J32="","",_sjmain4_day_shift!J32)</f>
         <v/>
       </c>
@@ -7143,15 +7180,15 @@
         <f>IF(_sjmain4_day_shift!O32="","",_sjmain4_day_shift!O32)</f>
         <v/>
       </c>
-      <c r="P53" s="210"/>
-      <c r="Q53" s="248"/>
+      <c r="P53" s="202"/>
+      <c r="Q53" s="239"/>
       <c r="R53" s="110"/>
       <c r="S53" s="111"/>
-      <c r="T53" s="244"/>
-      <c r="U53" s="245"/>
-      <c r="V53" s="246"/>
-      <c r="W53" s="246"/>
-      <c r="X53" s="247"/>
+      <c r="T53" s="235"/>
+      <c r="U53" s="236"/>
+      <c r="V53" s="237"/>
+      <c r="W53" s="237"/>
+      <c r="X53" s="238"/>
     </row>
     <row r="54" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A54" s="175" t="str">
@@ -7183,11 +7220,11 @@
         <f>IF(_sjmain4_day_shift!H33="","",_sjmain4_day_shift!H33)</f>
         <v/>
       </c>
-      <c r="I54" s="209" t="str">
+      <c r="I54" s="201" t="str">
         <f>IF(_sjmain4_day_shift!I33="","",_sjmain4_day_shift!I33)</f>
         <v/>
       </c>
-      <c r="J54" s="209" t="str">
+      <c r="J54" s="201" t="str">
         <f>IF(_sjmain4_day_shift!J33="","",_sjmain4_day_shift!J33)</f>
         <v/>
       </c>
@@ -7211,15 +7248,15 @@
         <f>IF(_sjmain4_day_shift!O33="","",_sjmain4_day_shift!O33)</f>
         <v/>
       </c>
-      <c r="P54" s="210"/>
-      <c r="Q54" s="248"/>
+      <c r="P54" s="202"/>
+      <c r="Q54" s="239"/>
       <c r="R54" s="110"/>
       <c r="S54" s="111"/>
-      <c r="T54" s="244"/>
-      <c r="U54" s="245"/>
-      <c r="V54" s="246"/>
-      <c r="W54" s="246"/>
-      <c r="X54" s="247"/>
+      <c r="T54" s="235"/>
+      <c r="U54" s="236"/>
+      <c r="V54" s="237"/>
+      <c r="W54" s="237"/>
+      <c r="X54" s="238"/>
     </row>
     <row r="55" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A55" s="175" t="str">
@@ -7251,11 +7288,11 @@
         <f>IF(_sjmain4_day_shift!H34="","",_sjmain4_day_shift!H34)</f>
         <v/>
       </c>
-      <c r="I55" s="209" t="str">
+      <c r="I55" s="201" t="str">
         <f>IF(_sjmain4_day_shift!I34="","",_sjmain4_day_shift!I34)</f>
         <v/>
       </c>
-      <c r="J55" s="209" t="str">
+      <c r="J55" s="201" t="str">
         <f>IF(_sjmain4_day_shift!J34="","",_sjmain4_day_shift!J34)</f>
         <v/>
       </c>
@@ -7279,15 +7316,15 @@
         <f>IF(_sjmain4_day_shift!O34="","",_sjmain4_day_shift!O34)</f>
         <v/>
       </c>
-      <c r="P55" s="210"/>
-      <c r="Q55" s="248"/>
+      <c r="P55" s="202"/>
+      <c r="Q55" s="239"/>
       <c r="R55" s="110"/>
       <c r="S55" s="111"/>
-      <c r="T55" s="244"/>
-      <c r="U55" s="245"/>
-      <c r="V55" s="246"/>
-      <c r="W55" s="246"/>
-      <c r="X55" s="247"/>
+      <c r="T55" s="235"/>
+      <c r="U55" s="236"/>
+      <c r="V55" s="237"/>
+      <c r="W55" s="237"/>
+      <c r="X55" s="238"/>
     </row>
     <row r="56" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A56" s="175" t="str">
@@ -7319,11 +7356,11 @@
         <f>IF(_sjmain4_day_shift!H35="","",_sjmain4_day_shift!H35)</f>
         <v/>
       </c>
-      <c r="I56" s="209" t="str">
+      <c r="I56" s="201" t="str">
         <f>IF(_sjmain4_day_shift!I35="","",_sjmain4_day_shift!I35)</f>
         <v/>
       </c>
-      <c r="J56" s="209" t="str">
+      <c r="J56" s="201" t="str">
         <f>IF(_sjmain4_day_shift!J35="","",_sjmain4_day_shift!J35)</f>
         <v/>
       </c>
@@ -7347,15 +7384,15 @@
         <f>IF(_sjmain4_day_shift!O35="","",_sjmain4_day_shift!O35)</f>
         <v/>
       </c>
-      <c r="P56" s="210"/>
-      <c r="Q56" s="248"/>
+      <c r="P56" s="202"/>
+      <c r="Q56" s="239"/>
       <c r="R56" s="110"/>
       <c r="S56" s="111"/>
-      <c r="T56" s="244"/>
-      <c r="U56" s="245"/>
-      <c r="V56" s="246"/>
-      <c r="W56" s="246"/>
-      <c r="X56" s="247"/>
+      <c r="T56" s="235"/>
+      <c r="U56" s="236"/>
+      <c r="V56" s="237"/>
+      <c r="W56" s="237"/>
+      <c r="X56" s="238"/>
     </row>
     <row r="57" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A57" s="175" t="str">
@@ -7387,11 +7424,11 @@
         <f>IF(_sjmain4_day_shift!H36="","",_sjmain4_day_shift!H36)</f>
         <v/>
       </c>
-      <c r="I57" s="209" t="str">
+      <c r="I57" s="201" t="str">
         <f>IF(_sjmain4_day_shift!I36="","",_sjmain4_day_shift!I36)</f>
         <v/>
       </c>
-      <c r="J57" s="209" t="str">
+      <c r="J57" s="201" t="str">
         <f>IF(_sjmain4_day_shift!J36="","",_sjmain4_day_shift!J36)</f>
         <v/>
       </c>
@@ -7415,15 +7452,15 @@
         <f>IF(_sjmain4_day_shift!O36="","",_sjmain4_day_shift!O36)</f>
         <v/>
       </c>
-      <c r="P57" s="210"/>
-      <c r="Q57" s="248"/>
+      <c r="P57" s="202"/>
+      <c r="Q57" s="239"/>
       <c r="R57" s="110"/>
       <c r="S57" s="111"/>
-      <c r="T57" s="244"/>
-      <c r="U57" s="245"/>
-      <c r="V57" s="246"/>
-      <c r="W57" s="246"/>
-      <c r="X57" s="247"/>
+      <c r="T57" s="235"/>
+      <c r="U57" s="236"/>
+      <c r="V57" s="237"/>
+      <c r="W57" s="237"/>
+      <c r="X57" s="238"/>
     </row>
     <row r="58" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A58" s="175" t="str">
@@ -7455,11 +7492,11 @@
         <f>IF(_sjmain4_day_shift!H37="","",_sjmain4_day_shift!H37)</f>
         <v/>
       </c>
-      <c r="I58" s="209" t="str">
+      <c r="I58" s="201" t="str">
         <f>IF(_sjmain4_day_shift!I37="","",_sjmain4_day_shift!I37)</f>
         <v/>
       </c>
-      <c r="J58" s="209" t="str">
+      <c r="J58" s="201" t="str">
         <f>IF(_sjmain4_day_shift!J37="","",_sjmain4_day_shift!J37)</f>
         <v/>
       </c>
@@ -7483,15 +7520,15 @@
         <f>IF(_sjmain4_day_shift!O37="","",_sjmain4_day_shift!O37)</f>
         <v/>
       </c>
-      <c r="P58" s="210"/>
-      <c r="Q58" s="248"/>
+      <c r="P58" s="202"/>
+      <c r="Q58" s="239"/>
       <c r="R58" s="110"/>
       <c r="S58" s="111"/>
-      <c r="T58" s="244"/>
-      <c r="U58" s="245"/>
-      <c r="V58" s="246"/>
-      <c r="W58" s="246"/>
-      <c r="X58" s="247"/>
+      <c r="T58" s="235"/>
+      <c r="U58" s="236"/>
+      <c r="V58" s="237"/>
+      <c r="W58" s="237"/>
+      <c r="X58" s="238"/>
     </row>
     <row r="59" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A59" s="175" t="str">
@@ -7523,11 +7560,11 @@
         <f>IF(_sjmain4_day_shift!H38="","",_sjmain4_day_shift!H38)</f>
         <v/>
       </c>
-      <c r="I59" s="209" t="str">
+      <c r="I59" s="201" t="str">
         <f>IF(_sjmain4_day_shift!I38="","",_sjmain4_day_shift!I38)</f>
         <v/>
       </c>
-      <c r="J59" s="209" t="str">
+      <c r="J59" s="201" t="str">
         <f>IF(_sjmain4_day_shift!J38="","",_sjmain4_day_shift!J38)</f>
         <v/>
       </c>
@@ -7551,15 +7588,15 @@
         <f>IF(_sjmain4_day_shift!O38="","",_sjmain4_day_shift!O38)</f>
         <v/>
       </c>
-      <c r="P59" s="210"/>
-      <c r="Q59" s="248"/>
+      <c r="P59" s="202"/>
+      <c r="Q59" s="239"/>
       <c r="R59" s="110"/>
       <c r="S59" s="111"/>
-      <c r="T59" s="244"/>
-      <c r="U59" s="245"/>
-      <c r="V59" s="246"/>
-      <c r="W59" s="246"/>
-      <c r="X59" s="247"/>
+      <c r="T59" s="235"/>
+      <c r="U59" s="236"/>
+      <c r="V59" s="237"/>
+      <c r="W59" s="237"/>
+      <c r="X59" s="238"/>
     </row>
     <row r="60" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A60" s="175" t="str">
@@ -7591,11 +7628,11 @@
         <f>IF(_sjmain4_day_shift!H39="","",_sjmain4_day_shift!H39)</f>
         <v/>
       </c>
-      <c r="I60" s="209" t="str">
+      <c r="I60" s="201" t="str">
         <f>IF(_sjmain4_day_shift!I39="","",_sjmain4_day_shift!I39)</f>
         <v/>
       </c>
-      <c r="J60" s="209" t="str">
+      <c r="J60" s="201" t="str">
         <f>IF(_sjmain4_day_shift!J39="","",_sjmain4_day_shift!J39)</f>
         <v/>
       </c>
@@ -7619,15 +7656,15 @@
         <f>IF(_sjmain4_day_shift!O39="","",_sjmain4_day_shift!O39)</f>
         <v/>
       </c>
-      <c r="P60" s="210"/>
-      <c r="Q60" s="248"/>
+      <c r="P60" s="202"/>
+      <c r="Q60" s="239"/>
       <c r="R60" s="110"/>
       <c r="S60" s="111"/>
-      <c r="T60" s="244"/>
-      <c r="U60" s="245"/>
-      <c r="V60" s="246"/>
-      <c r="W60" s="246"/>
-      <c r="X60" s="247"/>
+      <c r="T60" s="235"/>
+      <c r="U60" s="236"/>
+      <c r="V60" s="237"/>
+      <c r="W60" s="237"/>
+      <c r="X60" s="238"/>
     </row>
     <row r="61" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A61" s="175" t="str">
@@ -7659,11 +7696,11 @@
         <f>IF(_sjmain4_day_shift!H40="","",_sjmain4_day_shift!H40)</f>
         <v/>
       </c>
-      <c r="I61" s="209" t="str">
+      <c r="I61" s="201" t="str">
         <f>IF(_sjmain4_day_shift!I40="","",_sjmain4_day_shift!I40)</f>
         <v/>
       </c>
-      <c r="J61" s="209" t="str">
+      <c r="J61" s="201" t="str">
         <f>IF(_sjmain4_day_shift!J40="","",_sjmain4_day_shift!J40)</f>
         <v/>
       </c>
@@ -7687,15 +7724,15 @@
         <f>IF(_sjmain4_day_shift!O40="","",_sjmain4_day_shift!O40)</f>
         <v/>
       </c>
-      <c r="P61" s="210"/>
-      <c r="Q61" s="248"/>
+      <c r="P61" s="202"/>
+      <c r="Q61" s="239"/>
       <c r="R61" s="110"/>
       <c r="S61" s="111"/>
-      <c r="T61" s="244"/>
-      <c r="U61" s="245"/>
-      <c r="V61" s="246"/>
-      <c r="W61" s="246"/>
-      <c r="X61" s="247"/>
+      <c r="T61" s="235"/>
+      <c r="U61" s="236"/>
+      <c r="V61" s="237"/>
+      <c r="W61" s="237"/>
+      <c r="X61" s="238"/>
     </row>
     <row r="62" s="119" customFormat="1" ht="45" customHeight="1" spans="1:24">
       <c r="A62" s="175" t="str">
@@ -7727,11 +7764,11 @@
         <f>IF(_sjmain4_day_shift!H41="","",_sjmain4_day_shift!H41)</f>
         <v/>
       </c>
-      <c r="I62" s="209" t="str">
+      <c r="I62" s="201" t="str">
         <f>IF(_sjmain4_day_shift!I41="","",_sjmain4_day_shift!I41)</f>
         <v/>
       </c>
-      <c r="J62" s="209" t="str">
+      <c r="J62" s="201" t="str">
         <f>IF(_sjmain4_day_shift!J41="","",_sjmain4_day_shift!J41)</f>
         <v/>
       </c>
@@ -7755,15 +7792,15 @@
         <f>IF(_sjmain4_day_shift!O41="","",_sjmain4_day_shift!O41)</f>
         <v/>
       </c>
-      <c r="P62" s="210"/>
-      <c r="Q62" s="248"/>
+      <c r="P62" s="202"/>
+      <c r="Q62" s="239"/>
       <c r="R62" s="131"/>
-      <c r="S62" s="219"/>
+      <c r="S62" s="211"/>
       <c r="T62" s="147"/>
-      <c r="U62" s="245"/>
-      <c r="V62" s="246"/>
-      <c r="W62" s="246"/>
-      <c r="X62" s="247"/>
+      <c r="U62" s="236"/>
+      <c r="V62" s="237"/>
+      <c r="W62" s="237"/>
+      <c r="X62" s="238"/>
     </row>
     <row r="63" s="119" customFormat="1" ht="45" customHeight="1" spans="1:24">
       <c r="A63" s="178" t="s">
@@ -7776,22 +7813,22 @@
       <c r="F63" s="181"/>
       <c r="G63" s="181"/>
       <c r="H63" s="181"/>
-      <c r="I63" s="211"/>
-      <c r="J63" s="211"/>
+      <c r="I63" s="203"/>
+      <c r="J63" s="203"/>
       <c r="K63" s="181"/>
       <c r="L63" s="181"/>
       <c r="M63" s="174"/>
       <c r="N63" s="174"/>
       <c r="O63" s="174"/>
-      <c r="P63" s="212"/>
-      <c r="Q63" s="249"/>
-      <c r="R63" s="250"/>
-      <c r="S63" s="251"/>
-      <c r="T63" s="252"/>
-      <c r="U63" s="253"/>
-      <c r="V63" s="254"/>
-      <c r="W63" s="254"/>
-      <c r="X63" s="255"/>
+      <c r="P63" s="204"/>
+      <c r="Q63" s="240"/>
+      <c r="R63" s="241"/>
+      <c r="S63" s="242"/>
+      <c r="T63" s="243"/>
+      <c r="U63" s="244"/>
+      <c r="V63" s="245"/>
+      <c r="W63" s="245"/>
+      <c r="X63" s="246"/>
     </row>
     <row r="64" s="119" customFormat="1" ht="45" customHeight="1" spans="1:24">
       <c r="A64" s="182" t="s">
@@ -7817,475 +7854,475 @@
       <c r="Q64" s="182" t="s">
         <v>80</v>
       </c>
-      <c r="R64" s="256"/>
-      <c r="S64" s="256"/>
-      <c r="T64" s="256"/>
-      <c r="U64" s="256"/>
-      <c r="V64" s="256"/>
-      <c r="W64" s="256"/>
-      <c r="X64" s="257"/>
+      <c r="R64" s="247"/>
+      <c r="S64" s="247"/>
+      <c r="T64" s="247"/>
+      <c r="U64" s="247"/>
+      <c r="V64" s="247"/>
+      <c r="W64" s="247"/>
+      <c r="X64" s="248"/>
     </row>
     <row r="65" s="119" customFormat="1" ht="45" customHeight="1" spans="1:24">
-      <c r="A65" s="260"/>
-      <c r="B65" s="261"/>
-      <c r="C65" s="261"/>
-      <c r="D65" s="261"/>
-      <c r="E65" s="261"/>
-      <c r="F65" s="261"/>
-      <c r="G65" s="261"/>
-      <c r="H65" s="262"/>
-      <c r="I65" s="260"/>
-      <c r="J65" s="261"/>
-      <c r="K65" s="261"/>
-      <c r="L65" s="261"/>
-      <c r="M65" s="261"/>
-      <c r="N65" s="261"/>
-      <c r="O65" s="261"/>
-      <c r="P65" s="262"/>
-      <c r="Q65" s="260"/>
-      <c r="R65" s="261"/>
-      <c r="S65" s="261"/>
-      <c r="T65" s="261"/>
-      <c r="U65" s="261"/>
-      <c r="V65" s="261"/>
-      <c r="W65" s="261"/>
-      <c r="X65" s="262"/>
+      <c r="A65" s="251"/>
+      <c r="B65" s="252"/>
+      <c r="C65" s="252"/>
+      <c r="D65" s="252"/>
+      <c r="E65" s="252"/>
+      <c r="F65" s="252"/>
+      <c r="G65" s="252"/>
+      <c r="H65" s="253"/>
+      <c r="I65" s="251"/>
+      <c r="J65" s="252"/>
+      <c r="K65" s="252"/>
+      <c r="L65" s="252"/>
+      <c r="M65" s="252"/>
+      <c r="N65" s="252"/>
+      <c r="O65" s="252"/>
+      <c r="P65" s="253"/>
+      <c r="Q65" s="251"/>
+      <c r="R65" s="252"/>
+      <c r="S65" s="252"/>
+      <c r="T65" s="252"/>
+      <c r="U65" s="252"/>
+      <c r="V65" s="252"/>
+      <c r="W65" s="252"/>
+      <c r="X65" s="253"/>
     </row>
     <row r="66" s="119" customFormat="1" ht="45" customHeight="1" spans="1:24">
-      <c r="A66" s="260"/>
-      <c r="B66" s="261"/>
-      <c r="C66" s="261"/>
-      <c r="D66" s="261"/>
-      <c r="E66" s="261"/>
-      <c r="F66" s="261"/>
-      <c r="G66" s="261"/>
-      <c r="H66" s="262"/>
-      <c r="I66" s="260"/>
-      <c r="J66" s="261"/>
-      <c r="K66" s="261"/>
-      <c r="L66" s="261"/>
-      <c r="M66" s="261"/>
-      <c r="N66" s="261"/>
-      <c r="O66" s="261"/>
-      <c r="P66" s="262"/>
-      <c r="Q66" s="260"/>
-      <c r="R66" s="261"/>
-      <c r="S66" s="261"/>
-      <c r="T66" s="261"/>
-      <c r="U66" s="261"/>
-      <c r="V66" s="261"/>
-      <c r="W66" s="261"/>
-      <c r="X66" s="262"/>
+      <c r="A66" s="251"/>
+      <c r="B66" s="252"/>
+      <c r="C66" s="252"/>
+      <c r="D66" s="252"/>
+      <c r="E66" s="252"/>
+      <c r="F66" s="252"/>
+      <c r="G66" s="252"/>
+      <c r="H66" s="253"/>
+      <c r="I66" s="251"/>
+      <c r="J66" s="252"/>
+      <c r="K66" s="252"/>
+      <c r="L66" s="252"/>
+      <c r="M66" s="252"/>
+      <c r="N66" s="252"/>
+      <c r="O66" s="252"/>
+      <c r="P66" s="253"/>
+      <c r="Q66" s="251"/>
+      <c r="R66" s="252"/>
+      <c r="S66" s="252"/>
+      <c r="T66" s="252"/>
+      <c r="U66" s="252"/>
+      <c r="V66" s="252"/>
+      <c r="W66" s="252"/>
+      <c r="X66" s="253"/>
     </row>
     <row r="67" s="119" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A67" s="260"/>
-      <c r="B67" s="261"/>
-      <c r="C67" s="261"/>
-      <c r="D67" s="261"/>
-      <c r="E67" s="261"/>
-      <c r="F67" s="261"/>
-      <c r="G67" s="261"/>
-      <c r="H67" s="262"/>
-      <c r="I67" s="260"/>
-      <c r="J67" s="261"/>
-      <c r="K67" s="261"/>
-      <c r="L67" s="261"/>
-      <c r="M67" s="261"/>
-      <c r="N67" s="261"/>
-      <c r="O67" s="261"/>
-      <c r="P67" s="262"/>
-      <c r="Q67" s="260"/>
-      <c r="R67" s="261"/>
-      <c r="S67" s="261"/>
-      <c r="T67" s="261"/>
-      <c r="U67" s="261"/>
-      <c r="V67" s="261"/>
-      <c r="W67" s="261"/>
-      <c r="X67" s="262"/>
+      <c r="A67" s="251"/>
+      <c r="B67" s="252"/>
+      <c r="C67" s="252"/>
+      <c r="D67" s="252"/>
+      <c r="E67" s="252"/>
+      <c r="F67" s="252"/>
+      <c r="G67" s="252"/>
+      <c r="H67" s="253"/>
+      <c r="I67" s="251"/>
+      <c r="J67" s="252"/>
+      <c r="K67" s="252"/>
+      <c r="L67" s="252"/>
+      <c r="M67" s="252"/>
+      <c r="N67" s="252"/>
+      <c r="O67" s="252"/>
+      <c r="P67" s="253"/>
+      <c r="Q67" s="251"/>
+      <c r="R67" s="252"/>
+      <c r="S67" s="252"/>
+      <c r="T67" s="252"/>
+      <c r="U67" s="252"/>
+      <c r="V67" s="252"/>
+      <c r="W67" s="252"/>
+      <c r="X67" s="253"/>
     </row>
     <row r="68" s="119" customFormat="1" ht="22.5" spans="1:24">
-      <c r="A68" s="260"/>
-      <c r="B68" s="261"/>
-      <c r="C68" s="261"/>
-      <c r="D68" s="261"/>
-      <c r="E68" s="261"/>
-      <c r="F68" s="261"/>
-      <c r="G68" s="261"/>
-      <c r="H68" s="262"/>
-      <c r="I68" s="260"/>
-      <c r="J68" s="261"/>
-      <c r="K68" s="261"/>
-      <c r="L68" s="261"/>
-      <c r="M68" s="261"/>
-      <c r="N68" s="261"/>
-      <c r="O68" s="261"/>
-      <c r="P68" s="262"/>
-      <c r="Q68" s="260"/>
+      <c r="A68" s="251"/>
+      <c r="B68" s="252"/>
+      <c r="C68" s="252"/>
+      <c r="D68" s="252"/>
+      <c r="E68" s="252"/>
+      <c r="F68" s="252"/>
+      <c r="G68" s="252"/>
+      <c r="H68" s="253"/>
+      <c r="I68" s="251"/>
+      <c r="J68" s="252"/>
+      <c r="K68" s="252"/>
+      <c r="L68" s="252"/>
+      <c r="M68" s="252"/>
+      <c r="N68" s="252"/>
+      <c r="O68" s="252"/>
+      <c r="P68" s="253"/>
+      <c r="Q68" s="251"/>
       <c r="R68" s="124"/>
       <c r="S68" s="124"/>
       <c r="T68" s="124"/>
       <c r="U68" s="124"/>
       <c r="V68" s="124"/>
       <c r="W68" s="124"/>
-      <c r="X68" s="262"/>
+      <c r="X68" s="253"/>
     </row>
     <row r="69" s="119" customFormat="1" ht="22.5" spans="1:24">
-      <c r="A69" s="260"/>
-      <c r="B69" s="261"/>
-      <c r="C69" s="261"/>
-      <c r="D69" s="261"/>
-      <c r="E69" s="261"/>
-      <c r="F69" s="261"/>
-      <c r="G69" s="261"/>
-      <c r="H69" s="262"/>
-      <c r="I69" s="260"/>
-      <c r="J69" s="261"/>
-      <c r="K69" s="261"/>
-      <c r="L69" s="261"/>
-      <c r="M69" s="261"/>
-      <c r="N69" s="261"/>
-      <c r="O69" s="261"/>
-      <c r="P69" s="262"/>
-      <c r="Q69" s="260"/>
+      <c r="A69" s="251"/>
+      <c r="B69" s="252"/>
+      <c r="C69" s="252"/>
+      <c r="D69" s="252"/>
+      <c r="E69" s="252"/>
+      <c r="F69" s="252"/>
+      <c r="G69" s="252"/>
+      <c r="H69" s="253"/>
+      <c r="I69" s="251"/>
+      <c r="J69" s="252"/>
+      <c r="K69" s="252"/>
+      <c r="L69" s="252"/>
+      <c r="M69" s="252"/>
+      <c r="N69" s="252"/>
+      <c r="O69" s="252"/>
+      <c r="P69" s="253"/>
+      <c r="Q69" s="251"/>
       <c r="R69" s="124"/>
-      <c r="S69" s="268"/>
+      <c r="S69" s="259"/>
       <c r="T69" s="124"/>
-      <c r="U69" s="269"/>
-      <c r="V69" s="269"/>
-      <c r="W69" s="269"/>
-      <c r="X69" s="262"/>
+      <c r="U69" s="260"/>
+      <c r="V69" s="260"/>
+      <c r="W69" s="260"/>
+      <c r="X69" s="253"/>
     </row>
     <row r="70" s="119" customFormat="1" ht="23.25" spans="1:24">
-      <c r="A70" s="263" t="s">
+      <c r="A70" s="254" t="s">
         <v>81</v>
       </c>
-      <c r="B70" s="264"/>
-      <c r="C70" s="264"/>
-      <c r="D70" s="265" t="s">
+      <c r="B70" s="255"/>
+      <c r="C70" s="255"/>
+      <c r="D70" s="256" t="s">
         <v>82</v>
       </c>
-      <c r="E70" s="266"/>
-      <c r="F70" s="266"/>
-      <c r="G70" s="266"/>
-      <c r="H70" s="267"/>
-      <c r="I70" s="265" t="s">
+      <c r="E70" s="257"/>
+      <c r="F70" s="257"/>
+      <c r="G70" s="257"/>
+      <c r="H70" s="258"/>
+      <c r="I70" s="256" t="s">
         <v>81</v>
       </c>
-      <c r="J70" s="264"/>
-      <c r="K70" s="264"/>
-      <c r="L70" s="265" t="s">
+      <c r="J70" s="255"/>
+      <c r="K70" s="255"/>
+      <c r="L70" s="256" t="s">
         <v>82</v>
       </c>
-      <c r="M70" s="266"/>
-      <c r="N70" s="266"/>
-      <c r="O70" s="266"/>
-      <c r="P70" s="267"/>
-      <c r="Q70" s="263" t="s">
+      <c r="M70" s="257"/>
+      <c r="N70" s="257"/>
+      <c r="O70" s="257"/>
+      <c r="P70" s="258"/>
+      <c r="Q70" s="254" t="s">
         <v>83</v>
       </c>
-      <c r="R70" s="266"/>
-      <c r="S70" s="266"/>
-      <c r="T70" s="265" t="s">
+      <c r="R70" s="257"/>
+      <c r="S70" s="257"/>
+      <c r="T70" s="256" t="s">
         <v>82</v>
       </c>
-      <c r="U70" s="266"/>
-      <c r="V70" s="266"/>
-      <c r="W70" s="266"/>
-      <c r="X70" s="267"/>
+      <c r="U70" s="257"/>
+      <c r="V70" s="257"/>
+      <c r="W70" s="257"/>
+      <c r="X70" s="258"/>
     </row>
     <row r="71" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S71" s="213"/>
-      <c r="U71" s="215"/>
-      <c r="V71" s="215"/>
-      <c r="W71" s="215"/>
-      <c r="X71" s="215"/>
+      <c r="S71" s="205"/>
+      <c r="U71" s="207"/>
+      <c r="V71" s="207"/>
+      <c r="W71" s="207"/>
+      <c r="X71" s="207"/>
     </row>
     <row r="72" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S72" s="213"/>
-      <c r="U72" s="215"/>
-      <c r="V72" s="215"/>
-      <c r="W72" s="215"/>
-      <c r="X72" s="215"/>
+      <c r="S72" s="205"/>
+      <c r="U72" s="207"/>
+      <c r="V72" s="207"/>
+      <c r="W72" s="207"/>
+      <c r="X72" s="207"/>
     </row>
     <row r="73" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S73" s="213"/>
-      <c r="U73" s="215"/>
-      <c r="V73" s="215"/>
-      <c r="W73" s="215"/>
-      <c r="X73" s="215"/>
+      <c r="S73" s="205"/>
+      <c r="U73" s="207"/>
+      <c r="V73" s="207"/>
+      <c r="W73" s="207"/>
+      <c r="X73" s="207"/>
     </row>
     <row r="74" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S74" s="213"/>
-      <c r="U74" s="215"/>
-      <c r="V74" s="215"/>
-      <c r="W74" s="215"/>
-      <c r="X74" s="215"/>
+      <c r="S74" s="205"/>
+      <c r="U74" s="207"/>
+      <c r="V74" s="207"/>
+      <c r="W74" s="207"/>
+      <c r="X74" s="207"/>
     </row>
     <row r="75" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S75" s="213"/>
-      <c r="U75" s="215"/>
-      <c r="V75" s="215"/>
-      <c r="W75" s="215"/>
-      <c r="X75" s="215"/>
+      <c r="S75" s="205"/>
+      <c r="U75" s="207"/>
+      <c r="V75" s="207"/>
+      <c r="W75" s="207"/>
+      <c r="X75" s="207"/>
     </row>
     <row r="76" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S76" s="213"/>
-      <c r="U76" s="215"/>
-      <c r="V76" s="215"/>
-      <c r="W76" s="215"/>
-      <c r="X76" s="215"/>
+      <c r="S76" s="205"/>
+      <c r="U76" s="207"/>
+      <c r="V76" s="207"/>
+      <c r="W76" s="207"/>
+      <c r="X76" s="207"/>
     </row>
     <row r="77" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S77" s="213"/>
-      <c r="U77" s="215"/>
-      <c r="V77" s="215"/>
-      <c r="W77" s="215"/>
-      <c r="X77" s="215"/>
+      <c r="S77" s="205"/>
+      <c r="U77" s="207"/>
+      <c r="V77" s="207"/>
+      <c r="W77" s="207"/>
+      <c r="X77" s="207"/>
     </row>
     <row r="78" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S78" s="213"/>
-      <c r="U78" s="215"/>
-      <c r="V78" s="215"/>
-      <c r="W78" s="215"/>
-      <c r="X78" s="215"/>
+      <c r="S78" s="205"/>
+      <c r="U78" s="207"/>
+      <c r="V78" s="207"/>
+      <c r="W78" s="207"/>
+      <c r="X78" s="207"/>
     </row>
     <row r="79" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S79" s="213"/>
-      <c r="U79" s="215"/>
-      <c r="V79" s="215"/>
-      <c r="W79" s="215"/>
-      <c r="X79" s="215"/>
+      <c r="S79" s="205"/>
+      <c r="U79" s="207"/>
+      <c r="V79" s="207"/>
+      <c r="W79" s="207"/>
+      <c r="X79" s="207"/>
     </row>
     <row r="80" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S80" s="213"/>
-      <c r="U80" s="215"/>
-      <c r="V80" s="215"/>
-      <c r="W80" s="215"/>
-      <c r="X80" s="215"/>
+      <c r="S80" s="205"/>
+      <c r="U80" s="207"/>
+      <c r="V80" s="207"/>
+      <c r="W80" s="207"/>
+      <c r="X80" s="207"/>
     </row>
     <row r="81" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S81" s="213"/>
-      <c r="U81" s="215"/>
-      <c r="V81" s="215"/>
-      <c r="W81" s="215"/>
-      <c r="X81" s="215"/>
+      <c r="S81" s="205"/>
+      <c r="U81" s="207"/>
+      <c r="V81" s="207"/>
+      <c r="W81" s="207"/>
+      <c r="X81" s="207"/>
     </row>
     <row r="82" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S82" s="213"/>
-      <c r="U82" s="215"/>
-      <c r="V82" s="215"/>
-      <c r="W82" s="215"/>
-      <c r="X82" s="215"/>
+      <c r="S82" s="205"/>
+      <c r="U82" s="207"/>
+      <c r="V82" s="207"/>
+      <c r="W82" s="207"/>
+      <c r="X82" s="207"/>
     </row>
     <row r="83" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S83" s="213"/>
-      <c r="U83" s="215"/>
-      <c r="V83" s="215"/>
-      <c r="W83" s="215"/>
-      <c r="X83" s="215"/>
+      <c r="S83" s="205"/>
+      <c r="U83" s="207"/>
+      <c r="V83" s="207"/>
+      <c r="W83" s="207"/>
+      <c r="X83" s="207"/>
     </row>
     <row r="84" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S84" s="213"/>
-      <c r="U84" s="215"/>
-      <c r="V84" s="215"/>
-      <c r="W84" s="215"/>
-      <c r="X84" s="215"/>
+      <c r="S84" s="205"/>
+      <c r="U84" s="207"/>
+      <c r="V84" s="207"/>
+      <c r="W84" s="207"/>
+      <c r="X84" s="207"/>
     </row>
     <row r="85" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S85" s="213"/>
-      <c r="U85" s="215"/>
-      <c r="V85" s="215"/>
-      <c r="W85" s="215"/>
-      <c r="X85" s="215"/>
+      <c r="S85" s="205"/>
+      <c r="U85" s="207"/>
+      <c r="V85" s="207"/>
+      <c r="W85" s="207"/>
+      <c r="X85" s="207"/>
     </row>
     <row r="86" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S86" s="213"/>
-      <c r="U86" s="215"/>
-      <c r="V86" s="215"/>
-      <c r="W86" s="215"/>
-      <c r="X86" s="215"/>
+      <c r="S86" s="205"/>
+      <c r="U86" s="207"/>
+      <c r="V86" s="207"/>
+      <c r="W86" s="207"/>
+      <c r="X86" s="207"/>
     </row>
     <row r="87" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S87" s="213"/>
-      <c r="U87" s="215"/>
-      <c r="V87" s="215"/>
-      <c r="W87" s="215"/>
-      <c r="X87" s="215"/>
+      <c r="S87" s="205"/>
+      <c r="U87" s="207"/>
+      <c r="V87" s="207"/>
+      <c r="W87" s="207"/>
+      <c r="X87" s="207"/>
     </row>
     <row r="88" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S88" s="213"/>
-      <c r="U88" s="215"/>
-      <c r="V88" s="215"/>
-      <c r="W88" s="215"/>
-      <c r="X88" s="215"/>
+      <c r="S88" s="205"/>
+      <c r="U88" s="207"/>
+      <c r="V88" s="207"/>
+      <c r="W88" s="207"/>
+      <c r="X88" s="207"/>
     </row>
     <row r="89" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S89" s="213"/>
-      <c r="U89" s="215"/>
-      <c r="V89" s="215"/>
-      <c r="W89" s="215"/>
-      <c r="X89" s="215"/>
+      <c r="S89" s="205"/>
+      <c r="U89" s="207"/>
+      <c r="V89" s="207"/>
+      <c r="W89" s="207"/>
+      <c r="X89" s="207"/>
     </row>
     <row r="90" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S90" s="213"/>
-      <c r="U90" s="215"/>
-      <c r="V90" s="215"/>
-      <c r="W90" s="215"/>
-      <c r="X90" s="215"/>
+      <c r="S90" s="205"/>
+      <c r="U90" s="207"/>
+      <c r="V90" s="207"/>
+      <c r="W90" s="207"/>
+      <c r="X90" s="207"/>
     </row>
     <row r="91" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S91" s="213"/>
-      <c r="U91" s="215"/>
-      <c r="V91" s="215"/>
-      <c r="W91" s="215"/>
-      <c r="X91" s="215"/>
+      <c r="S91" s="205"/>
+      <c r="U91" s="207"/>
+      <c r="V91" s="207"/>
+      <c r="W91" s="207"/>
+      <c r="X91" s="207"/>
     </row>
     <row r="92" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S92" s="213"/>
-      <c r="U92" s="215"/>
-      <c r="V92" s="215"/>
-      <c r="W92" s="215"/>
-      <c r="X92" s="215"/>
+      <c r="S92" s="205"/>
+      <c r="U92" s="207"/>
+      <c r="V92" s="207"/>
+      <c r="W92" s="207"/>
+      <c r="X92" s="207"/>
     </row>
     <row r="93" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S93" s="213"/>
-      <c r="U93" s="215"/>
-      <c r="V93" s="215"/>
-      <c r="W93" s="215"/>
-      <c r="X93" s="215"/>
+      <c r="S93" s="205"/>
+      <c r="U93" s="207"/>
+      <c r="V93" s="207"/>
+      <c r="W93" s="207"/>
+      <c r="X93" s="207"/>
     </row>
     <row r="94" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S94" s="213"/>
-      <c r="U94" s="215"/>
-      <c r="V94" s="215"/>
-      <c r="W94" s="215"/>
-      <c r="X94" s="215"/>
+      <c r="S94" s="205"/>
+      <c r="U94" s="207"/>
+      <c r="V94" s="207"/>
+      <c r="W94" s="207"/>
+      <c r="X94" s="207"/>
     </row>
     <row r="95" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S95" s="213"/>
-      <c r="U95" s="215"/>
-      <c r="V95" s="215"/>
-      <c r="W95" s="215"/>
-      <c r="X95" s="215"/>
+      <c r="S95" s="205"/>
+      <c r="U95" s="207"/>
+      <c r="V95" s="207"/>
+      <c r="W95" s="207"/>
+      <c r="X95" s="207"/>
     </row>
     <row r="96" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S96" s="213"/>
-      <c r="U96" s="215"/>
-      <c r="V96" s="215"/>
-      <c r="W96" s="215"/>
-      <c r="X96" s="215"/>
+      <c r="S96" s="205"/>
+      <c r="U96" s="207"/>
+      <c r="V96" s="207"/>
+      <c r="W96" s="207"/>
+      <c r="X96" s="207"/>
     </row>
     <row r="97" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S97" s="213"/>
-      <c r="U97" s="215"/>
-      <c r="V97" s="215"/>
-      <c r="W97" s="215"/>
-      <c r="X97" s="215"/>
+      <c r="S97" s="205"/>
+      <c r="U97" s="207"/>
+      <c r="V97" s="207"/>
+      <c r="W97" s="207"/>
+      <c r="X97" s="207"/>
     </row>
     <row r="98" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S98" s="213"/>
-      <c r="U98" s="215"/>
-      <c r="V98" s="215"/>
-      <c r="W98" s="215"/>
-      <c r="X98" s="215"/>
+      <c r="S98" s="205"/>
+      <c r="U98" s="207"/>
+      <c r="V98" s="207"/>
+      <c r="W98" s="207"/>
+      <c r="X98" s="207"/>
     </row>
     <row r="99" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S99" s="213"/>
-      <c r="U99" s="215"/>
-      <c r="V99" s="215"/>
-      <c r="W99" s="215"/>
-      <c r="X99" s="215"/>
+      <c r="S99" s="205"/>
+      <c r="U99" s="207"/>
+      <c r="V99" s="207"/>
+      <c r="W99" s="207"/>
+      <c r="X99" s="207"/>
     </row>
     <row r="100" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S100" s="213"/>
-      <c r="U100" s="215"/>
-      <c r="V100" s="215"/>
-      <c r="W100" s="215"/>
-      <c r="X100" s="215"/>
+      <c r="S100" s="205"/>
+      <c r="U100" s="207"/>
+      <c r="V100" s="207"/>
+      <c r="W100" s="207"/>
+      <c r="X100" s="207"/>
     </row>
     <row r="101" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S101" s="213"/>
-      <c r="U101" s="215"/>
-      <c r="V101" s="215"/>
-      <c r="W101" s="215"/>
-      <c r="X101" s="215"/>
+      <c r="S101" s="205"/>
+      <c r="U101" s="207"/>
+      <c r="V101" s="207"/>
+      <c r="W101" s="207"/>
+      <c r="X101" s="207"/>
     </row>
     <row r="102" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S102" s="213"/>
-      <c r="U102" s="215"/>
-      <c r="V102" s="215"/>
-      <c r="W102" s="215"/>
-      <c r="X102" s="215"/>
+      <c r="S102" s="205"/>
+      <c r="U102" s="207"/>
+      <c r="V102" s="207"/>
+      <c r="W102" s="207"/>
+      <c r="X102" s="207"/>
     </row>
     <row r="103" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S103" s="213"/>
-      <c r="U103" s="215"/>
-      <c r="V103" s="215"/>
-      <c r="W103" s="215"/>
-      <c r="X103" s="215"/>
+      <c r="S103" s="205"/>
+      <c r="U103" s="207"/>
+      <c r="V103" s="207"/>
+      <c r="W103" s="207"/>
+      <c r="X103" s="207"/>
     </row>
     <row r="104" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S104" s="213"/>
-      <c r="U104" s="215"/>
-      <c r="V104" s="215"/>
-      <c r="W104" s="215"/>
-      <c r="X104" s="215"/>
+      <c r="S104" s="205"/>
+      <c r="U104" s="207"/>
+      <c r="V104" s="207"/>
+      <c r="W104" s="207"/>
+      <c r="X104" s="207"/>
     </row>
     <row r="105" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S105" s="213"/>
-      <c r="U105" s="215"/>
-      <c r="V105" s="215"/>
-      <c r="W105" s="215"/>
-      <c r="X105" s="215"/>
+      <c r="S105" s="205"/>
+      <c r="U105" s="207"/>
+      <c r="V105" s="207"/>
+      <c r="W105" s="207"/>
+      <c r="X105" s="207"/>
     </row>
     <row r="106" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S106" s="213"/>
-      <c r="U106" s="215"/>
-      <c r="V106" s="215"/>
-      <c r="W106" s="215"/>
-      <c r="X106" s="215"/>
+      <c r="S106" s="205"/>
+      <c r="U106" s="207"/>
+      <c r="V106" s="207"/>
+      <c r="W106" s="207"/>
+      <c r="X106" s="207"/>
     </row>
     <row r="107" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S107" s="213"/>
-      <c r="U107" s="215"/>
-      <c r="V107" s="215"/>
-      <c r="W107" s="215"/>
-      <c r="X107" s="215"/>
+      <c r="S107" s="205"/>
+      <c r="U107" s="207"/>
+      <c r="V107" s="207"/>
+      <c r="W107" s="207"/>
+      <c r="X107" s="207"/>
     </row>
     <row r="108" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S108" s="213"/>
-      <c r="U108" s="215"/>
-      <c r="V108" s="215"/>
-      <c r="W108" s="215"/>
-      <c r="X108" s="215"/>
+      <c r="S108" s="205"/>
+      <c r="U108" s="207"/>
+      <c r="V108" s="207"/>
+      <c r="W108" s="207"/>
+      <c r="X108" s="207"/>
     </row>
     <row r="109" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S109" s="213"/>
-      <c r="U109" s="215"/>
-      <c r="V109" s="215"/>
-      <c r="W109" s="215"/>
-      <c r="X109" s="215"/>
+      <c r="S109" s="205"/>
+      <c r="U109" s="207"/>
+      <c r="V109" s="207"/>
+      <c r="W109" s="207"/>
+      <c r="X109" s="207"/>
     </row>
     <row r="110" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S110" s="213"/>
-      <c r="U110" s="215"/>
-      <c r="V110" s="215"/>
-      <c r="W110" s="215"/>
-      <c r="X110" s="215"/>
+      <c r="S110" s="205"/>
+      <c r="U110" s="207"/>
+      <c r="V110" s="207"/>
+      <c r="W110" s="207"/>
+      <c r="X110" s="207"/>
     </row>
     <row r="111" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S111" s="213"/>
-      <c r="U111" s="215"/>
-      <c r="V111" s="215"/>
-      <c r="W111" s="215"/>
-      <c r="X111" s="215"/>
+      <c r="S111" s="205"/>
+      <c r="U111" s="207"/>
+      <c r="V111" s="207"/>
+      <c r="W111" s="207"/>
+      <c r="X111" s="207"/>
     </row>
     <row r="112" s="119" customFormat="1" ht="20.25" spans="19:24">
-      <c r="S112" s="213"/>
-      <c r="U112" s="215"/>
-      <c r="V112" s="215"/>
-      <c r="W112" s="215"/>
-      <c r="X112" s="215"/>
+      <c r="S112" s="205"/>
+      <c r="U112" s="207"/>
+      <c r="V112" s="207"/>
+      <c r="W112" s="207"/>
+      <c r="X112" s="207"/>
     </row>
     <row r="113" ht="20.25" spans="1:24">
       <c r="A113" s="119"/>
@@ -8306,12 +8343,12 @@
       <c r="P113" s="119"/>
       <c r="Q113" s="119"/>
       <c r="R113" s="119"/>
-      <c r="S113" s="213"/>
+      <c r="S113" s="205"/>
       <c r="T113" s="119"/>
-      <c r="U113" s="215"/>
-      <c r="V113" s="215"/>
-      <c r="W113" s="215"/>
-      <c r="X113" s="215"/>
+      <c r="U113" s="207"/>
+      <c r="V113" s="207"/>
+      <c r="W113" s="207"/>
+      <c r="X113" s="207"/>
     </row>
     <row r="114" ht="20.25" spans="1:17">
       <c r="A114" s="119"/>

--- a/excel/finished/烧结/6#烧结机生产日报.xlsx
+++ b/excel/finished/烧结/6#烧结机生产日报.xlsx
@@ -8,28 +8,30 @@
   </bookViews>
   <sheets>
     <sheet name="技术经济指标" sheetId="1" r:id="rId1"/>
-    <sheet name="_sjmain1_day_shift" sheetId="4" state="hidden" r:id="rId2"/>
-    <sheet name="_sjmain2_day_shift" sheetId="8" state="hidden" r:id="rId3"/>
-    <sheet name="_sjmain3_day_shift" sheetId="9" state="hidden" r:id="rId4"/>
-    <sheet name="_sjmain4_day_shift" sheetId="10" state="hidden" r:id="rId5"/>
-    <sheet name="_lilunshengchan_day_shift" sheetId="11" state="hidden" r:id="rId6"/>
-    <sheet name="过程参数" sheetId="2" r:id="rId7"/>
-    <sheet name="_sjgc_day_hour" sheetId="5" state="hidden" r:id="rId8"/>
-    <sheet name="风箱温度压力" sheetId="3" r:id="rId9"/>
-    <sheet name="_sjfx_day_hour" sheetId="6" state="hidden" r:id="rId10"/>
-    <sheet name="_dictionary" sheetId="7" state="hidden" r:id="rId11"/>
-    <sheet name="_metadata" sheetId="12" r:id="rId12"/>
+    <sheet name="_sjmain1_day_shift" sheetId="4" r:id="rId2"/>
+    <sheet name="_sjmain2_day_shift" sheetId="8" r:id="rId3"/>
+    <sheet name="_sjmain3_day_shift" sheetId="9" r:id="rId4"/>
+    <sheet name="_sjmain4_day_shift" sheetId="10" r:id="rId5"/>
+    <sheet name="_sjmain5_day_shift" sheetId="13" r:id="rId6"/>
+    <sheet name="_sjmain6_day_shift" sheetId="14" r:id="rId7"/>
+    <sheet name="_lilunshengchan_day_shift" sheetId="11" r:id="rId8"/>
+    <sheet name="过程参数" sheetId="2" r:id="rId9"/>
+    <sheet name="_sjgc_day_hour" sheetId="5" r:id="rId10"/>
+    <sheet name="风箱温度压力" sheetId="3" r:id="rId11"/>
+    <sheet name="_sjfx_day_hour" sheetId="6" r:id="rId12"/>
+    <sheet name="_dictionary" sheetId="7" state="hidden" r:id="rId13"/>
+    <sheet name="_metadata" sheetId="12" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">风箱温度压力!$A$1:$AR$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">过程参数!$A$2:$V$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">风箱温度压力!$A$1:$AR$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">过程参数!$A$2:$V$34</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259">
   <si>
     <r>
       <rPr>
@@ -817,6 +819,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>values/GF3</t>
+  </si>
+  <si>
     <t>THEO_WGT</t>
   </si>
   <si>
@@ -1472,19 +1477,19 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="14">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="0.0_);\(0.0\)"/>
-    <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="179" formatCode="0.0_ "/>
     <numFmt numFmtId="180" formatCode="0.0"/>
-    <numFmt numFmtId="181" formatCode="0.0_ "/>
+    <numFmt numFmtId="181" formatCode="0.0_);\(0.0\)"/>
     <numFmt numFmtId="182" formatCode="0_ "/>
-    <numFmt numFmtId="183" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="184" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="185" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="183" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="184" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="185" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -1538,21 +1543,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1567,7 +1557,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1583,46 +1610,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1637,25 +1648,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1674,17 +1677,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1737,7 +1742,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1749,7 +1778,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1761,103 +1892,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1869,55 +1916,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2504,21 +2509,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2539,6 +2529,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2567,6 +2572,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2584,15 +2598,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2604,144 +2609,144 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="53" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="54" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2764,7 +2769,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -2804,37 +2809,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="11" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2849,27 +2854,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="181" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="180" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2885,21 +2890,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -2912,19 +2917,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2934,78 +2939,78 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="13" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="13" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3039,19 +3044,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3253,97 +3258,138 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="184" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="184" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3351,47 +3397,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -3404,7 +3409,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3455,14 +3460,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="185" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3474,11 +3479,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3911,8 +3916,8 @@
   <sheetPr/>
   <dimension ref="A2:Z115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4465,11 +4470,11 @@
         <v/>
       </c>
       <c r="P13" s="198" t="str">
-        <f>IF(_sjmain3_day_shift!G2="","",_sjmain3_day_shift!G2)</f>
+        <f>IF(_sjmain5_day_shift!A2="","",100-_sjmain5_day_shift!A2)</f>
         <v/>
       </c>
       <c r="Q13" s="198" t="str">
-        <f>IF(_sjmain3_day_shift!H2="","",_sjmain3_day_shift!H2)</f>
+        <f>IF(_sjmain6_day_shift!A2="","",100-_sjmain6_day_shift!A2)</f>
         <v/>
       </c>
       <c r="R13" s="175" t="s">
@@ -4551,7 +4556,7 @@
         <v/>
       </c>
       <c r="Q14" s="198" t="str">
-        <f>IF(_sjmain3_day_shift!H3="","",_sjmain3_day_shift!H3)</f>
+        <f>IF(_sjmain6_day_shift!A3="","",100-_sjmain6_day_shift!A3)</f>
         <v/>
       </c>
       <c r="R14" s="214" t="s">
@@ -4633,7 +4638,7 @@
         <v/>
       </c>
       <c r="Q15" s="198" t="str">
-        <f>IF(_sjmain3_day_shift!H4="","",_sjmain3_day_shift!H4)</f>
+        <f>IF(_sjmain6_day_shift!A4="","",100-_sjmain6_day_shift!A4)</f>
         <v/>
       </c>
       <c r="R15" s="224" t="s">
@@ -8565,2946 +8570,6 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AQ1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1" ht="112.5" spans="1:43">
-      <c r="A1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B1">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1" ht="135" spans="1:10">
-      <c r="A1" s="114" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="D1" s="116" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="116" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" s="116" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" s="116" t="s">
-        <v>88</v>
-      </c>
-      <c r="H1" s="116" t="s">
-        <v>89</v>
-      </c>
-      <c r="I1" s="117" t="s">
-        <v>90</v>
-      </c>
-      <c r="J1" s="116" t="s">
-        <v>91</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1" ht="135.75" spans="1:12">
-      <c r="A1" s="112" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="112" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="112" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" s="112" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="112" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" s="112" t="s">
-        <v>97</v>
-      </c>
-      <c r="G1" s="112" t="s">
-        <v>98</v>
-      </c>
-      <c r="H1" s="112" t="s">
-        <v>99</v>
-      </c>
-      <c r="I1" s="112" t="s">
-        <v>100</v>
-      </c>
-      <c r="J1" s="112" t="s">
-        <v>101</v>
-      </c>
-      <c r="K1" s="112" t="s">
-        <v>102</v>
-      </c>
-      <c r="L1" s="113" t="s">
-        <v>103</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:Q1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:Q1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1" ht="90" spans="1:17">
-      <c r="A1" s="110" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="110" t="s">
-        <v>111</v>
-      </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="110" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" s="110" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1" s="110" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" s="110" t="s">
-        <v>115</v>
-      </c>
-      <c r="H1" s="110" t="s">
-        <v>116</v>
-      </c>
-      <c r="I1" s="110" t="s">
-        <v>117</v>
-      </c>
-      <c r="J1" s="110" t="s">
-        <v>118</v>
-      </c>
-      <c r="K1" s="110" t="s">
-        <v>119</v>
-      </c>
-      <c r="L1" s="110" t="s">
-        <v>120</v>
-      </c>
-      <c r="M1" s="110" t="s">
-        <v>121</v>
-      </c>
-      <c r="N1" s="110" t="s">
-        <v>122</v>
-      </c>
-      <c r="O1" s="110" t="s">
-        <v>123</v>
-      </c>
-      <c r="P1" s="110" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q1" s="110" t="s">
-        <v>125</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A2:X34"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="9.125" style="53" customWidth="1"/>
-    <col min="2" max="3" width="17.875" style="54" customWidth="1"/>
-    <col min="4" max="4" width="14.375" style="55" customWidth="1"/>
-    <col min="5" max="5" width="21.125" style="56" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="57" customWidth="1"/>
-    <col min="7" max="7" width="16.875" style="57" customWidth="1"/>
-    <col min="8" max="9" width="16.875" style="58" customWidth="1"/>
-    <col min="10" max="10" width="16.875" style="54" customWidth="1"/>
-    <col min="11" max="11" width="14.375" style="59" customWidth="1"/>
-    <col min="12" max="12" width="14.375" style="54" customWidth="1"/>
-    <col min="13" max="13" width="14.375" style="60" customWidth="1"/>
-    <col min="14" max="14" width="14.375" style="54" customWidth="1"/>
-    <col min="15" max="15" width="17.875" style="54" customWidth="1"/>
-    <col min="16" max="16" width="24" style="54" customWidth="1"/>
-    <col min="17" max="17" width="17.875" style="60" customWidth="1"/>
-    <col min="18" max="18" width="19.625" style="60" customWidth="1"/>
-    <col min="19" max="19" width="19.625" style="57" customWidth="1"/>
-    <col min="20" max="20" width="19.625" style="60" customWidth="1"/>
-    <col min="21" max="21" width="19.625" style="57" customWidth="1"/>
-    <col min="22" max="22" width="19.125" style="53" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="53"/>
-  </cols>
-  <sheetData>
-    <row r="2" ht="35.25" spans="1:24">
-      <c r="A2" s="61" t="s">
-        <v>127</v>
-      </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="99"/>
-      <c r="X2" s="99"/>
-    </row>
-    <row r="3" ht="15" spans="1:22">
-      <c r="A3" s="62"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="89"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="89"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="62"/>
-    </row>
-    <row r="4" ht="30" customHeight="1" spans="1:23">
-      <c r="A4" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="69">
-        <f>_metadata!B2</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="70" t="s">
-        <v>128</v>
-      </c>
-      <c r="E4" s="71"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="92" t="s">
-        <v>3</v>
-      </c>
-      <c r="R4" s="92"/>
-      <c r="S4" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="T4" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="U4" s="100"/>
-      <c r="V4" s="101"/>
-      <c r="W4" s="102"/>
-    </row>
-    <row r="5" s="51" customFormat="1" ht="33" customHeight="1" spans="1:22">
-      <c r="A5" s="74" t="s">
-        <v>129</v>
-      </c>
-      <c r="B5" s="75" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" s="75" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" s="76" t="s">
-        <v>132</v>
-      </c>
-      <c r="E5" s="77" t="s">
-        <v>133</v>
-      </c>
-      <c r="F5" s="78" t="s">
-        <v>134</v>
-      </c>
-      <c r="G5" s="79" t="s">
-        <v>135</v>
-      </c>
-      <c r="H5" s="80" t="s">
-        <v>136</v>
-      </c>
-      <c r="I5" s="80" t="s">
-        <v>137</v>
-      </c>
-      <c r="J5" s="93" t="s">
-        <v>138</v>
-      </c>
-      <c r="K5" s="77" t="s">
-        <v>139</v>
-      </c>
-      <c r="L5" s="75" t="s">
-        <v>140</v>
-      </c>
-      <c r="M5" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="N5" s="75" t="s">
-        <v>142</v>
-      </c>
-      <c r="O5" s="75" t="s">
-        <v>143</v>
-      </c>
-      <c r="P5" s="75" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q5" s="94" t="s">
-        <v>145</v>
-      </c>
-      <c r="R5" s="94" t="s">
-        <v>146</v>
-      </c>
-      <c r="S5" s="78" t="s">
-        <v>147</v>
-      </c>
-      <c r="T5" s="94" t="s">
-        <v>148</v>
-      </c>
-      <c r="U5" s="78" t="s">
-        <v>149</v>
-      </c>
-      <c r="V5" s="103" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" s="51" customFormat="1" ht="33" customHeight="1" spans="1:22">
-      <c r="A6" s="74"/>
-      <c r="B6" s="75" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6" s="75" t="s">
-        <v>151</v>
-      </c>
-      <c r="D6" s="76" t="s">
-        <v>152</v>
-      </c>
-      <c r="E6" s="77" t="s">
-        <v>153</v>
-      </c>
-      <c r="F6" s="78" t="s">
-        <v>154</v>
-      </c>
-      <c r="G6" s="79" t="s">
-        <v>155</v>
-      </c>
-      <c r="H6" s="80" t="s">
-        <v>156</v>
-      </c>
-      <c r="I6" s="80" t="s">
-        <v>155</v>
-      </c>
-      <c r="J6" s="93" t="s">
-        <v>156</v>
-      </c>
-      <c r="K6" s="77" t="s">
-        <v>152</v>
-      </c>
-      <c r="L6" s="75" t="s">
-        <v>155</v>
-      </c>
-      <c r="M6" s="94" t="s">
-        <v>157</v>
-      </c>
-      <c r="N6" s="75" t="s">
-        <v>155</v>
-      </c>
-      <c r="O6" s="75" t="s">
-        <v>158</v>
-      </c>
-      <c r="P6" s="75" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q6" s="94" t="s">
-        <v>158</v>
-      </c>
-      <c r="R6" s="94" t="s">
-        <v>159</v>
-      </c>
-      <c r="S6" s="78" t="s">
-        <v>155</v>
-      </c>
-      <c r="T6" s="94" t="s">
-        <v>159</v>
-      </c>
-      <c r="U6" s="78" t="s">
-        <v>155</v>
-      </c>
-      <c r="V6" s="104" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" s="52" customFormat="1" ht="30" customHeight="1" spans="1:22">
-      <c r="A7" s="81">
-        <v>1</v>
-      </c>
-      <c r="B7" s="82" t="str">
-        <f>IF(_sjgc_day_hour!A2="","",_sjgc_day_hour!A2)</f>
-        <v/>
-      </c>
-      <c r="C7" s="82" t="str">
-        <f>IF(_sjgc_day_hour!B2="","",_sjgc_day_hour!B2)</f>
-        <v/>
-      </c>
-      <c r="D7" s="82" t="str">
-        <f>IF(_sjgc_day_hour!C2="","",_sjgc_day_hour!C2)</f>
-        <v/>
-      </c>
-      <c r="E7" s="83" t="str">
-        <f>IF(_sjgc_day_hour!D2="","",_sjgc_day_hour!D2)</f>
-        <v/>
-      </c>
-      <c r="F7" s="82" t="str">
-        <f>IF(_sjgc_day_hour!E2="","",_sjgc_day_hour!E2)</f>
-        <v/>
-      </c>
-      <c r="G7" s="82" t="str">
-        <f>IF(_sjgc_day_hour!F2="","",_sjgc_day_hour!F2)</f>
-        <v/>
-      </c>
-      <c r="H7" s="82" t="str">
-        <f>IF(_sjgc_day_hour!G2="","",_sjgc_day_hour!G2)</f>
-        <v/>
-      </c>
-      <c r="I7" s="82" t="str">
-        <f>IF(_sjgc_day_hour!H2="","",_sjgc_day_hour!H2)</f>
-        <v/>
-      </c>
-      <c r="J7" s="82" t="str">
-        <f>IF(_sjgc_day_hour!I2="","",_sjgc_day_hour!I2)</f>
-        <v/>
-      </c>
-      <c r="K7" s="83" t="str">
-        <f>IF(_sjgc_day_hour!J2="","",_sjgc_day_hour!J2)</f>
-        <v/>
-      </c>
-      <c r="L7" s="82" t="str">
-        <f>IF(_sjgc_day_hour!K2="","",_sjgc_day_hour!K2)</f>
-        <v/>
-      </c>
-      <c r="M7" s="95" t="str">
-        <f>IF(_sjgc_day_hour!L2="","",_sjgc_day_hour!L2)</f>
-        <v/>
-      </c>
-      <c r="N7" s="82" t="str">
-        <f>IF(_sjgc_day_hour!M2="","",_sjgc_day_hour!M2)</f>
-        <v/>
-      </c>
-      <c r="O7" s="82" t="str">
-        <f>IF(_sjgc_day_hour!N2="","",_sjgc_day_hour!N2)</f>
-        <v/>
-      </c>
-      <c r="P7" s="82" t="str">
-        <f>IF(_sjgc_day_hour!O2="","",_sjgc_day_hour!O2)</f>
-        <v/>
-      </c>
-      <c r="Q7" s="95" t="str">
-        <f>IF(_sjgc_day_hour!P2="","",_sjgc_day_hour!P2)</f>
-        <v/>
-      </c>
-      <c r="R7" s="95" t="str">
-        <f>IF(_sjgc_day_hour!Q2="","",_sjgc_day_hour!Q2)</f>
-        <v/>
-      </c>
-      <c r="S7" s="82" t="str">
-        <f>IF(_sjgc_day_hour!R2="","",_sjgc_day_hour!R2)</f>
-        <v/>
-      </c>
-      <c r="T7" s="95" t="str">
-        <f>IF(_sjgc_day_hour!S2="","",_sjgc_day_hour!S2)</f>
-        <v/>
-      </c>
-      <c r="U7" s="82" t="str">
-        <f>IF(_sjgc_day_hour!T2="","",_sjgc_day_hour!T2)</f>
-        <v/>
-      </c>
-      <c r="V7" s="105" t="str">
-        <f>IF(_sjgc_day_hour!U2="","",_sjgc_day_hour!U2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" s="52" customFormat="1" ht="30" customHeight="1" spans="1:22">
-      <c r="A8" s="81">
-        <v>2</v>
-      </c>
-      <c r="B8" s="82" t="str">
-        <f>IF(_sjgc_day_hour!A3="","",_sjgc_day_hour!A3)</f>
-        <v/>
-      </c>
-      <c r="C8" s="82" t="str">
-        <f>IF(_sjgc_day_hour!B3="","",_sjgc_day_hour!B3)</f>
-        <v/>
-      </c>
-      <c r="D8" s="82" t="str">
-        <f>IF(_sjgc_day_hour!C3="","",_sjgc_day_hour!C3)</f>
-        <v/>
-      </c>
-      <c r="E8" s="83" t="str">
-        <f>IF(_sjgc_day_hour!D3="","",_sjgc_day_hour!D3)</f>
-        <v/>
-      </c>
-      <c r="F8" s="82" t="str">
-        <f>IF(_sjgc_day_hour!E3="","",_sjgc_day_hour!E3)</f>
-        <v/>
-      </c>
-      <c r="G8" s="82" t="str">
-        <f>IF(_sjgc_day_hour!F3="","",_sjgc_day_hour!F3)</f>
-        <v/>
-      </c>
-      <c r="H8" s="82" t="str">
-        <f>IF(_sjgc_day_hour!G3="","",_sjgc_day_hour!G3)</f>
-        <v/>
-      </c>
-      <c r="I8" s="82" t="str">
-        <f>IF(_sjgc_day_hour!H3="","",_sjgc_day_hour!H3)</f>
-        <v/>
-      </c>
-      <c r="J8" s="82" t="str">
-        <f>IF(_sjgc_day_hour!I3="","",_sjgc_day_hour!I3)</f>
-        <v/>
-      </c>
-      <c r="K8" s="83" t="str">
-        <f>IF(_sjgc_day_hour!J3="","",_sjgc_day_hour!J3)</f>
-        <v/>
-      </c>
-      <c r="L8" s="82" t="str">
-        <f>IF(_sjgc_day_hour!K3="","",_sjgc_day_hour!K3)</f>
-        <v/>
-      </c>
-      <c r="M8" s="95" t="str">
-        <f>IF(_sjgc_day_hour!L3="","",_sjgc_day_hour!L3)</f>
-        <v/>
-      </c>
-      <c r="N8" s="82" t="str">
-        <f>IF(_sjgc_day_hour!M3="","",_sjgc_day_hour!M3)</f>
-        <v/>
-      </c>
-      <c r="O8" s="82" t="str">
-        <f>IF(_sjgc_day_hour!N3="","",_sjgc_day_hour!N3)</f>
-        <v/>
-      </c>
-      <c r="P8" s="82" t="str">
-        <f>IF(_sjgc_day_hour!O3="","",_sjgc_day_hour!O3)</f>
-        <v/>
-      </c>
-      <c r="Q8" s="95" t="str">
-        <f>IF(_sjgc_day_hour!P3="","",_sjgc_day_hour!P3)</f>
-        <v/>
-      </c>
-      <c r="R8" s="95" t="str">
-        <f>IF(_sjgc_day_hour!Q3="","",_sjgc_day_hour!Q3)</f>
-        <v/>
-      </c>
-      <c r="S8" s="82" t="str">
-        <f>IF(_sjgc_day_hour!R3="","",_sjgc_day_hour!R3)</f>
-        <v/>
-      </c>
-      <c r="T8" s="95" t="str">
-        <f>IF(_sjgc_day_hour!S3="","",_sjgc_day_hour!S3)</f>
-        <v/>
-      </c>
-      <c r="U8" s="82" t="str">
-        <f>IF(_sjgc_day_hour!T3="","",_sjgc_day_hour!T3)</f>
-        <v/>
-      </c>
-      <c r="V8" s="105" t="str">
-        <f>IF(_sjgc_day_hour!U3="","",_sjgc_day_hour!U3)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" s="52" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A9" s="81">
-        <v>3</v>
-      </c>
-      <c r="B9" s="82" t="str">
-        <f>IF(_sjgc_day_hour!A4="","",_sjgc_day_hour!A4)</f>
-        <v/>
-      </c>
-      <c r="C9" s="82" t="str">
-        <f>IF(_sjgc_day_hour!B4="","",_sjgc_day_hour!B4)</f>
-        <v/>
-      </c>
-      <c r="D9" s="82" t="str">
-        <f>IF(_sjgc_day_hour!C4="","",_sjgc_day_hour!C4)</f>
-        <v/>
-      </c>
-      <c r="E9" s="83" t="str">
-        <f>IF(_sjgc_day_hour!D4="","",_sjgc_day_hour!D4)</f>
-        <v/>
-      </c>
-      <c r="F9" s="82" t="str">
-        <f>IF(_sjgc_day_hour!E4="","",_sjgc_day_hour!E4)</f>
-        <v/>
-      </c>
-      <c r="G9" s="82" t="str">
-        <f>IF(_sjgc_day_hour!F4="","",_sjgc_day_hour!F4)</f>
-        <v/>
-      </c>
-      <c r="H9" s="82" t="str">
-        <f>IF(_sjgc_day_hour!G4="","",_sjgc_day_hour!G4)</f>
-        <v/>
-      </c>
-      <c r="I9" s="82" t="str">
-        <f>IF(_sjgc_day_hour!H4="","",_sjgc_day_hour!H4)</f>
-        <v/>
-      </c>
-      <c r="J9" s="82" t="str">
-        <f>IF(_sjgc_day_hour!I4="","",_sjgc_day_hour!I4)</f>
-        <v/>
-      </c>
-      <c r="K9" s="83" t="str">
-        <f>IF(_sjgc_day_hour!J4="","",_sjgc_day_hour!J4)</f>
-        <v/>
-      </c>
-      <c r="L9" s="82" t="str">
-        <f>IF(_sjgc_day_hour!K4="","",_sjgc_day_hour!K4)</f>
-        <v/>
-      </c>
-      <c r="M9" s="95" t="str">
-        <f>IF(_sjgc_day_hour!L4="","",_sjgc_day_hour!L4)</f>
-        <v/>
-      </c>
-      <c r="N9" s="82" t="str">
-        <f>IF(_sjgc_day_hour!M4="","",_sjgc_day_hour!M4)</f>
-        <v/>
-      </c>
-      <c r="O9" s="82" t="str">
-        <f>IF(_sjgc_day_hour!N4="","",_sjgc_day_hour!N4)</f>
-        <v/>
-      </c>
-      <c r="P9" s="82" t="str">
-        <f>IF(_sjgc_day_hour!O4="","",_sjgc_day_hour!O4)</f>
-        <v/>
-      </c>
-      <c r="Q9" s="95" t="str">
-        <f>IF(_sjgc_day_hour!P4="","",_sjgc_day_hour!P4)</f>
-        <v/>
-      </c>
-      <c r="R9" s="95" t="str">
-        <f>IF(_sjgc_day_hour!Q4="","",_sjgc_day_hour!Q4)</f>
-        <v/>
-      </c>
-      <c r="S9" s="82" t="str">
-        <f>IF(_sjgc_day_hour!R4="","",_sjgc_day_hour!R4)</f>
-        <v/>
-      </c>
-      <c r="T9" s="95" t="str">
-        <f>IF(_sjgc_day_hour!S4="","",_sjgc_day_hour!S4)</f>
-        <v/>
-      </c>
-      <c r="U9" s="82" t="str">
-        <f>IF(_sjgc_day_hour!T4="","",_sjgc_day_hour!T4)</f>
-        <v/>
-      </c>
-      <c r="V9" s="105" t="str">
-        <f>IF(_sjgc_day_hour!U4="","",_sjgc_day_hour!U4)</f>
-        <v/>
-      </c>
-      <c r="X9" s="106"/>
-    </row>
-    <row r="10" s="52" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A10" s="81">
-        <v>4</v>
-      </c>
-      <c r="B10" s="82" t="str">
-        <f>IF(_sjgc_day_hour!A5="","",_sjgc_day_hour!A5)</f>
-        <v/>
-      </c>
-      <c r="C10" s="82" t="str">
-        <f>IF(_sjgc_day_hour!B5="","",_sjgc_day_hour!B5)</f>
-        <v/>
-      </c>
-      <c r="D10" s="82" t="str">
-        <f>IF(_sjgc_day_hour!C5="","",_sjgc_day_hour!C5)</f>
-        <v/>
-      </c>
-      <c r="E10" s="83" t="str">
-        <f>IF(_sjgc_day_hour!D5="","",_sjgc_day_hour!D5)</f>
-        <v/>
-      </c>
-      <c r="F10" s="82" t="str">
-        <f>IF(_sjgc_day_hour!E5="","",_sjgc_day_hour!E5)</f>
-        <v/>
-      </c>
-      <c r="G10" s="82" t="str">
-        <f>IF(_sjgc_day_hour!F5="","",_sjgc_day_hour!F5)</f>
-        <v/>
-      </c>
-      <c r="H10" s="82" t="str">
-        <f>IF(_sjgc_day_hour!G5="","",_sjgc_day_hour!G5)</f>
-        <v/>
-      </c>
-      <c r="I10" s="82" t="str">
-        <f>IF(_sjgc_day_hour!H5="","",_sjgc_day_hour!H5)</f>
-        <v/>
-      </c>
-      <c r="J10" s="82" t="str">
-        <f>IF(_sjgc_day_hour!I5="","",_sjgc_day_hour!I5)</f>
-        <v/>
-      </c>
-      <c r="K10" s="83" t="str">
-        <f>IF(_sjgc_day_hour!J5="","",_sjgc_day_hour!J5)</f>
-        <v/>
-      </c>
-      <c r="L10" s="82" t="str">
-        <f>IF(_sjgc_day_hour!K5="","",_sjgc_day_hour!K5)</f>
-        <v/>
-      </c>
-      <c r="M10" s="95" t="str">
-        <f>IF(_sjgc_day_hour!L5="","",_sjgc_day_hour!L5)</f>
-        <v/>
-      </c>
-      <c r="N10" s="82" t="str">
-        <f>IF(_sjgc_day_hour!M5="","",_sjgc_day_hour!M5)</f>
-        <v/>
-      </c>
-      <c r="O10" s="82" t="str">
-        <f>IF(_sjgc_day_hour!N5="","",_sjgc_day_hour!N5)</f>
-        <v/>
-      </c>
-      <c r="P10" s="82" t="str">
-        <f>IF(_sjgc_day_hour!O5="","",_sjgc_day_hour!O5)</f>
-        <v/>
-      </c>
-      <c r="Q10" s="95" t="str">
-        <f>IF(_sjgc_day_hour!P5="","",_sjgc_day_hour!P5)</f>
-        <v/>
-      </c>
-      <c r="R10" s="95" t="str">
-        <f>IF(_sjgc_day_hour!Q5="","",_sjgc_day_hour!Q5)</f>
-        <v/>
-      </c>
-      <c r="S10" s="82" t="str">
-        <f>IF(_sjgc_day_hour!R5="","",_sjgc_day_hour!R5)</f>
-        <v/>
-      </c>
-      <c r="T10" s="95" t="str">
-        <f>IF(_sjgc_day_hour!S5="","",_sjgc_day_hour!S5)</f>
-        <v/>
-      </c>
-      <c r="U10" s="82" t="str">
-        <f>IF(_sjgc_day_hour!T5="","",_sjgc_day_hour!T5)</f>
-        <v/>
-      </c>
-      <c r="V10" s="105" t="str">
-        <f>IF(_sjgc_day_hour!U5="","",_sjgc_day_hour!U5)</f>
-        <v/>
-      </c>
-      <c r="X10" s="106"/>
-    </row>
-    <row r="11" s="52" customFormat="1" ht="30" customHeight="1" spans="1:22">
-      <c r="A11" s="81">
-        <v>5</v>
-      </c>
-      <c r="B11" s="82" t="str">
-        <f>IF(_sjgc_day_hour!A6="","",_sjgc_day_hour!A6)</f>
-        <v/>
-      </c>
-      <c r="C11" s="82" t="str">
-        <f>IF(_sjgc_day_hour!B6="","",_sjgc_day_hour!B6)</f>
-        <v/>
-      </c>
-      <c r="D11" s="82" t="str">
-        <f>IF(_sjgc_day_hour!C6="","",_sjgc_day_hour!C6)</f>
-        <v/>
-      </c>
-      <c r="E11" s="83" t="str">
-        <f>IF(_sjgc_day_hour!D6="","",_sjgc_day_hour!D6)</f>
-        <v/>
-      </c>
-      <c r="F11" s="82" t="str">
-        <f>IF(_sjgc_day_hour!E6="","",_sjgc_day_hour!E6)</f>
-        <v/>
-      </c>
-      <c r="G11" s="82" t="str">
-        <f>IF(_sjgc_day_hour!F6="","",_sjgc_day_hour!F6)</f>
-        <v/>
-      </c>
-      <c r="H11" s="82" t="str">
-        <f>IF(_sjgc_day_hour!G6="","",_sjgc_day_hour!G6)</f>
-        <v/>
-      </c>
-      <c r="I11" s="82" t="str">
-        <f>IF(_sjgc_day_hour!H6="","",_sjgc_day_hour!H6)</f>
-        <v/>
-      </c>
-      <c r="J11" s="82" t="str">
-        <f>IF(_sjgc_day_hour!I6="","",_sjgc_day_hour!I6)</f>
-        <v/>
-      </c>
-      <c r="K11" s="83" t="str">
-        <f>IF(_sjgc_day_hour!J6="","",_sjgc_day_hour!J6)</f>
-        <v/>
-      </c>
-      <c r="L11" s="82" t="str">
-        <f>IF(_sjgc_day_hour!K6="","",_sjgc_day_hour!K6)</f>
-        <v/>
-      </c>
-      <c r="M11" s="95" t="str">
-        <f>IF(_sjgc_day_hour!L6="","",_sjgc_day_hour!L6)</f>
-        <v/>
-      </c>
-      <c r="N11" s="82" t="str">
-        <f>IF(_sjgc_day_hour!M6="","",_sjgc_day_hour!M6)</f>
-        <v/>
-      </c>
-      <c r="O11" s="82" t="str">
-        <f>IF(_sjgc_day_hour!N6="","",_sjgc_day_hour!N6)</f>
-        <v/>
-      </c>
-      <c r="P11" s="82" t="str">
-        <f>IF(_sjgc_day_hour!O6="","",_sjgc_day_hour!O6)</f>
-        <v/>
-      </c>
-      <c r="Q11" s="95" t="str">
-        <f>IF(_sjgc_day_hour!P6="","",_sjgc_day_hour!P6)</f>
-        <v/>
-      </c>
-      <c r="R11" s="95" t="str">
-        <f>IF(_sjgc_day_hour!Q6="","",_sjgc_day_hour!Q6)</f>
-        <v/>
-      </c>
-      <c r="S11" s="82" t="str">
-        <f>IF(_sjgc_day_hour!R6="","",_sjgc_day_hour!R6)</f>
-        <v/>
-      </c>
-      <c r="T11" s="95" t="str">
-        <f>IF(_sjgc_day_hour!S6="","",_sjgc_day_hour!S6)</f>
-        <v/>
-      </c>
-      <c r="U11" s="82" t="str">
-        <f>IF(_sjgc_day_hour!T6="","",_sjgc_day_hour!T6)</f>
-        <v/>
-      </c>
-      <c r="V11" s="105" t="str">
-        <f>IF(_sjgc_day_hour!U6="","",_sjgc_day_hour!U6)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" s="52" customFormat="1" ht="30" customHeight="1" spans="1:22">
-      <c r="A12" s="81">
-        <v>6</v>
-      </c>
-      <c r="B12" s="82" t="str">
-        <f>IF(_sjgc_day_hour!A7="","",_sjgc_day_hour!A7)</f>
-        <v/>
-      </c>
-      <c r="C12" s="82" t="str">
-        <f>IF(_sjgc_day_hour!B7="","",_sjgc_day_hour!B7)</f>
-        <v/>
-      </c>
-      <c r="D12" s="82" t="str">
-        <f>IF(_sjgc_day_hour!C7="","",_sjgc_day_hour!C7)</f>
-        <v/>
-      </c>
-      <c r="E12" s="83" t="str">
-        <f>IF(_sjgc_day_hour!D7="","",_sjgc_day_hour!D7)</f>
-        <v/>
-      </c>
-      <c r="F12" s="82" t="str">
-        <f>IF(_sjgc_day_hour!E7="","",_sjgc_day_hour!E7)</f>
-        <v/>
-      </c>
-      <c r="G12" s="82" t="str">
-        <f>IF(_sjgc_day_hour!F7="","",_sjgc_day_hour!F7)</f>
-        <v/>
-      </c>
-      <c r="H12" s="82" t="str">
-        <f>IF(_sjgc_day_hour!G7="","",_sjgc_day_hour!G7)</f>
-        <v/>
-      </c>
-      <c r="I12" s="82" t="str">
-        <f>IF(_sjgc_day_hour!H7="","",_sjgc_day_hour!H7)</f>
-        <v/>
-      </c>
-      <c r="J12" s="82" t="str">
-        <f>IF(_sjgc_day_hour!I7="","",_sjgc_day_hour!I7)</f>
-        <v/>
-      </c>
-      <c r="K12" s="83" t="str">
-        <f>IF(_sjgc_day_hour!J7="","",_sjgc_day_hour!J7)</f>
-        <v/>
-      </c>
-      <c r="L12" s="82" t="str">
-        <f>IF(_sjgc_day_hour!K7="","",_sjgc_day_hour!K7)</f>
-        <v/>
-      </c>
-      <c r="M12" s="95" t="str">
-        <f>IF(_sjgc_day_hour!L7="","",_sjgc_day_hour!L7)</f>
-        <v/>
-      </c>
-      <c r="N12" s="82" t="str">
-        <f>IF(_sjgc_day_hour!M7="","",_sjgc_day_hour!M7)</f>
-        <v/>
-      </c>
-      <c r="O12" s="82" t="str">
-        <f>IF(_sjgc_day_hour!N7="","",_sjgc_day_hour!N7)</f>
-        <v/>
-      </c>
-      <c r="P12" s="82" t="str">
-        <f>IF(_sjgc_day_hour!O7="","",_sjgc_day_hour!O7)</f>
-        <v/>
-      </c>
-      <c r="Q12" s="95" t="str">
-        <f>IF(_sjgc_day_hour!P7="","",_sjgc_day_hour!P7)</f>
-        <v/>
-      </c>
-      <c r="R12" s="95" t="str">
-        <f>IF(_sjgc_day_hour!Q7="","",_sjgc_day_hour!Q7)</f>
-        <v/>
-      </c>
-      <c r="S12" s="82" t="str">
-        <f>IF(_sjgc_day_hour!R7="","",_sjgc_day_hour!R7)</f>
-        <v/>
-      </c>
-      <c r="T12" s="95" t="str">
-        <f>IF(_sjgc_day_hour!S7="","",_sjgc_day_hour!S7)</f>
-        <v/>
-      </c>
-      <c r="U12" s="82" t="str">
-        <f>IF(_sjgc_day_hour!T7="","",_sjgc_day_hour!T7)</f>
-        <v/>
-      </c>
-      <c r="V12" s="105" t="str">
-        <f>IF(_sjgc_day_hour!U7="","",_sjgc_day_hour!U7)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" s="52" customFormat="1" ht="27.75" customHeight="1" spans="1:23">
-      <c r="A13" s="81">
-        <v>7</v>
-      </c>
-      <c r="B13" s="82" t="str">
-        <f>IF(_sjgc_day_hour!A8="","",_sjgc_day_hour!A8)</f>
-        <v/>
-      </c>
-      <c r="C13" s="82" t="str">
-        <f>IF(_sjgc_day_hour!B8="","",_sjgc_day_hour!B8)</f>
-        <v/>
-      </c>
-      <c r="D13" s="82" t="str">
-        <f>IF(_sjgc_day_hour!C8="","",_sjgc_day_hour!C8)</f>
-        <v/>
-      </c>
-      <c r="E13" s="83" t="str">
-        <f>IF(_sjgc_day_hour!D8="","",_sjgc_day_hour!D8)</f>
-        <v/>
-      </c>
-      <c r="F13" s="82" t="str">
-        <f>IF(_sjgc_day_hour!E8="","",_sjgc_day_hour!E8)</f>
-        <v/>
-      </c>
-      <c r="G13" s="82" t="str">
-        <f>IF(_sjgc_day_hour!F8="","",_sjgc_day_hour!F8)</f>
-        <v/>
-      </c>
-      <c r="H13" s="82" t="str">
-        <f>IF(_sjgc_day_hour!G8="","",_sjgc_day_hour!G8)</f>
-        <v/>
-      </c>
-      <c r="I13" s="82" t="str">
-        <f>IF(_sjgc_day_hour!H8="","",_sjgc_day_hour!H8)</f>
-        <v/>
-      </c>
-      <c r="J13" s="82" t="str">
-        <f>IF(_sjgc_day_hour!I8="","",_sjgc_day_hour!I8)</f>
-        <v/>
-      </c>
-      <c r="K13" s="83" t="str">
-        <f>IF(_sjgc_day_hour!J8="","",_sjgc_day_hour!J8)</f>
-        <v/>
-      </c>
-      <c r="L13" s="82" t="str">
-        <f>IF(_sjgc_day_hour!K8="","",_sjgc_day_hour!K8)</f>
-        <v/>
-      </c>
-      <c r="M13" s="95" t="str">
-        <f>IF(_sjgc_day_hour!L8="","",_sjgc_day_hour!L8)</f>
-        <v/>
-      </c>
-      <c r="N13" s="82" t="str">
-        <f>IF(_sjgc_day_hour!M8="","",_sjgc_day_hour!M8)</f>
-        <v/>
-      </c>
-      <c r="O13" s="82" t="str">
-        <f>IF(_sjgc_day_hour!N8="","",_sjgc_day_hour!N8)</f>
-        <v/>
-      </c>
-      <c r="P13" s="82" t="str">
-        <f>IF(_sjgc_day_hour!O8="","",_sjgc_day_hour!O8)</f>
-        <v/>
-      </c>
-      <c r="Q13" s="95" t="str">
-        <f>IF(_sjgc_day_hour!P8="","",_sjgc_day_hour!P8)</f>
-        <v/>
-      </c>
-      <c r="R13" s="95" t="str">
-        <f>IF(_sjgc_day_hour!Q8="","",_sjgc_day_hour!Q8)</f>
-        <v/>
-      </c>
-      <c r="S13" s="82" t="str">
-        <f>IF(_sjgc_day_hour!R8="","",_sjgc_day_hour!R8)</f>
-        <v/>
-      </c>
-      <c r="T13" s="95" t="str">
-        <f>IF(_sjgc_day_hour!S8="","",_sjgc_day_hour!S8)</f>
-        <v/>
-      </c>
-      <c r="U13" s="82" t="str">
-        <f>IF(_sjgc_day_hour!T8="","",_sjgc_day_hour!T8)</f>
-        <v/>
-      </c>
-      <c r="V13" s="105" t="str">
-        <f>IF(_sjgc_day_hour!U8="","",_sjgc_day_hour!U8)</f>
-        <v/>
-      </c>
-      <c r="W13" s="107"/>
-    </row>
-    <row r="14" s="52" customFormat="1" ht="30" customHeight="1" spans="1:23">
-      <c r="A14" s="81">
-        <v>8</v>
-      </c>
-      <c r="B14" s="82" t="str">
-        <f>IF(_sjgc_day_hour!A9="","",_sjgc_day_hour!A9)</f>
-        <v/>
-      </c>
-      <c r="C14" s="82" t="str">
-        <f>IF(_sjgc_day_hour!B9="","",_sjgc_day_hour!B9)</f>
-        <v/>
-      </c>
-      <c r="D14" s="82" t="str">
-        <f>IF(_sjgc_day_hour!C9="","",_sjgc_day_hour!C9)</f>
-        <v/>
-      </c>
-      <c r="E14" s="83" t="str">
-        <f>IF(_sjgc_day_hour!D9="","",_sjgc_day_hour!D9)</f>
-        <v/>
-      </c>
-      <c r="F14" s="82" t="str">
-        <f>IF(_sjgc_day_hour!E9="","",_sjgc_day_hour!E9)</f>
-        <v/>
-      </c>
-      <c r="G14" s="82" t="str">
-        <f>IF(_sjgc_day_hour!F9="","",_sjgc_day_hour!F9)</f>
-        <v/>
-      </c>
-      <c r="H14" s="82" t="str">
-        <f>IF(_sjgc_day_hour!G9="","",_sjgc_day_hour!G9)</f>
-        <v/>
-      </c>
-      <c r="I14" s="82" t="str">
-        <f>IF(_sjgc_day_hour!H9="","",_sjgc_day_hour!H9)</f>
-        <v/>
-      </c>
-      <c r="J14" s="82" t="str">
-        <f>IF(_sjgc_day_hour!I9="","",_sjgc_day_hour!I9)</f>
-        <v/>
-      </c>
-      <c r="K14" s="83" t="str">
-        <f>IF(_sjgc_day_hour!J9="","",_sjgc_day_hour!J9)</f>
-        <v/>
-      </c>
-      <c r="L14" s="82" t="str">
-        <f>IF(_sjgc_day_hour!K9="","",_sjgc_day_hour!K9)</f>
-        <v/>
-      </c>
-      <c r="M14" s="95" t="str">
-        <f>IF(_sjgc_day_hour!L9="","",_sjgc_day_hour!L9)</f>
-        <v/>
-      </c>
-      <c r="N14" s="82" t="str">
-        <f>IF(_sjgc_day_hour!M9="","",_sjgc_day_hour!M9)</f>
-        <v/>
-      </c>
-      <c r="O14" s="82" t="str">
-        <f>IF(_sjgc_day_hour!N9="","",_sjgc_day_hour!N9)</f>
-        <v/>
-      </c>
-      <c r="P14" s="82" t="str">
-        <f>IF(_sjgc_day_hour!O9="","",_sjgc_day_hour!O9)</f>
-        <v/>
-      </c>
-      <c r="Q14" s="95" t="str">
-        <f>IF(_sjgc_day_hour!P9="","",_sjgc_day_hour!P9)</f>
-        <v/>
-      </c>
-      <c r="R14" s="95" t="str">
-        <f>IF(_sjgc_day_hour!Q9="","",_sjgc_day_hour!Q9)</f>
-        <v/>
-      </c>
-      <c r="S14" s="82" t="str">
-        <f>IF(_sjgc_day_hour!R9="","",_sjgc_day_hour!R9)</f>
-        <v/>
-      </c>
-      <c r="T14" s="95" t="str">
-        <f>IF(_sjgc_day_hour!S9="","",_sjgc_day_hour!S9)</f>
-        <v/>
-      </c>
-      <c r="U14" s="82" t="str">
-        <f>IF(_sjgc_day_hour!T9="","",_sjgc_day_hour!T9)</f>
-        <v/>
-      </c>
-      <c r="V14" s="105" t="str">
-        <f>IF(_sjgc_day_hour!U9="","",_sjgc_day_hour!U9)</f>
-        <v/>
-      </c>
-      <c r="W14" s="107"/>
-    </row>
-    <row r="15" s="52" customFormat="1" ht="30" customHeight="1" spans="1:23">
-      <c r="A15" s="81">
-        <v>9</v>
-      </c>
-      <c r="B15" s="82" t="str">
-        <f>IF(_sjgc_day_hour!A10="","",_sjgc_day_hour!A10)</f>
-        <v/>
-      </c>
-      <c r="C15" s="82" t="str">
-        <f>IF(_sjgc_day_hour!B10="","",_sjgc_day_hour!B10)</f>
-        <v/>
-      </c>
-      <c r="D15" s="82" t="str">
-        <f>IF(_sjgc_day_hour!C10="","",_sjgc_day_hour!C10)</f>
-        <v/>
-      </c>
-      <c r="E15" s="83" t="str">
-        <f>IF(_sjgc_day_hour!D10="","",_sjgc_day_hour!D10)</f>
-        <v/>
-      </c>
-      <c r="F15" s="82" t="str">
-        <f>IF(_sjgc_day_hour!E10="","",_sjgc_day_hour!E10)</f>
-        <v/>
-      </c>
-      <c r="G15" s="82" t="str">
-        <f>IF(_sjgc_day_hour!F10="","",_sjgc_day_hour!F10)</f>
-        <v/>
-      </c>
-      <c r="H15" s="82" t="str">
-        <f>IF(_sjgc_day_hour!G10="","",_sjgc_day_hour!G10)</f>
-        <v/>
-      </c>
-      <c r="I15" s="82" t="str">
-        <f>IF(_sjgc_day_hour!H10="","",_sjgc_day_hour!H10)</f>
-        <v/>
-      </c>
-      <c r="J15" s="82" t="str">
-        <f>IF(_sjgc_day_hour!I10="","",_sjgc_day_hour!I10)</f>
-        <v/>
-      </c>
-      <c r="K15" s="83" t="str">
-        <f>IF(_sjgc_day_hour!J10="","",_sjgc_day_hour!J10)</f>
-        <v/>
-      </c>
-      <c r="L15" s="82" t="str">
-        <f>IF(_sjgc_day_hour!K10="","",_sjgc_day_hour!K10)</f>
-        <v/>
-      </c>
-      <c r="M15" s="95" t="str">
-        <f>IF(_sjgc_day_hour!L10="","",_sjgc_day_hour!L10)</f>
-        <v/>
-      </c>
-      <c r="N15" s="82" t="str">
-        <f>IF(_sjgc_day_hour!M10="","",_sjgc_day_hour!M10)</f>
-        <v/>
-      </c>
-      <c r="O15" s="82" t="str">
-        <f>IF(_sjgc_day_hour!N10="","",_sjgc_day_hour!N10)</f>
-        <v/>
-      </c>
-      <c r="P15" s="82" t="str">
-        <f>IF(_sjgc_day_hour!O10="","",_sjgc_day_hour!O10)</f>
-        <v/>
-      </c>
-      <c r="Q15" s="95" t="str">
-        <f>IF(_sjgc_day_hour!P10="","",_sjgc_day_hour!P10)</f>
-        <v/>
-      </c>
-      <c r="R15" s="95" t="str">
-        <f>IF(_sjgc_day_hour!Q10="","",_sjgc_day_hour!Q10)</f>
-        <v/>
-      </c>
-      <c r="S15" s="82" t="str">
-        <f>IF(_sjgc_day_hour!R10="","",_sjgc_day_hour!R10)</f>
-        <v/>
-      </c>
-      <c r="T15" s="95" t="str">
-        <f>IF(_sjgc_day_hour!S10="","",_sjgc_day_hour!S10)</f>
-        <v/>
-      </c>
-      <c r="U15" s="82" t="str">
-        <f>IF(_sjgc_day_hour!T10="","",_sjgc_day_hour!T10)</f>
-        <v/>
-      </c>
-      <c r="V15" s="105" t="str">
-        <f>IF(_sjgc_day_hour!U10="","",_sjgc_day_hour!U10)</f>
-        <v/>
-      </c>
-      <c r="W15" s="107"/>
-    </row>
-    <row r="16" s="52" customFormat="1" ht="30" customHeight="1" spans="1:22">
-      <c r="A16" s="81">
-        <v>10</v>
-      </c>
-      <c r="B16" s="82" t="str">
-        <f>IF(_sjgc_day_hour!A11="","",_sjgc_day_hour!A11)</f>
-        <v/>
-      </c>
-      <c r="C16" s="82" t="str">
-        <f>IF(_sjgc_day_hour!B11="","",_sjgc_day_hour!B11)</f>
-        <v/>
-      </c>
-      <c r="D16" s="82" t="str">
-        <f>IF(_sjgc_day_hour!C11="","",_sjgc_day_hour!C11)</f>
-        <v/>
-      </c>
-      <c r="E16" s="83" t="str">
-        <f>IF(_sjgc_day_hour!D11="","",_sjgc_day_hour!D11)</f>
-        <v/>
-      </c>
-      <c r="F16" s="82" t="str">
-        <f>IF(_sjgc_day_hour!E11="","",_sjgc_day_hour!E11)</f>
-        <v/>
-      </c>
-      <c r="G16" s="82" t="str">
-        <f>IF(_sjgc_day_hour!F11="","",_sjgc_day_hour!F11)</f>
-        <v/>
-      </c>
-      <c r="H16" s="82" t="str">
-        <f>IF(_sjgc_day_hour!G11="","",_sjgc_day_hour!G11)</f>
-        <v/>
-      </c>
-      <c r="I16" s="82" t="str">
-        <f>IF(_sjgc_day_hour!H11="","",_sjgc_day_hour!H11)</f>
-        <v/>
-      </c>
-      <c r="J16" s="82" t="str">
-        <f>IF(_sjgc_day_hour!I11="","",_sjgc_day_hour!I11)</f>
-        <v/>
-      </c>
-      <c r="K16" s="83" t="str">
-        <f>IF(_sjgc_day_hour!J11="","",_sjgc_day_hour!J11)</f>
-        <v/>
-      </c>
-      <c r="L16" s="82" t="str">
-        <f>IF(_sjgc_day_hour!K11="","",_sjgc_day_hour!K11)</f>
-        <v/>
-      </c>
-      <c r="M16" s="95" t="str">
-        <f>IF(_sjgc_day_hour!L11="","",_sjgc_day_hour!L11)</f>
-        <v/>
-      </c>
-      <c r="N16" s="82" t="str">
-        <f>IF(_sjgc_day_hour!M11="","",_sjgc_day_hour!M11)</f>
-        <v/>
-      </c>
-      <c r="O16" s="82" t="str">
-        <f>IF(_sjgc_day_hour!N11="","",_sjgc_day_hour!N11)</f>
-        <v/>
-      </c>
-      <c r="P16" s="82" t="str">
-        <f>IF(_sjgc_day_hour!O11="","",_sjgc_day_hour!O11)</f>
-        <v/>
-      </c>
-      <c r="Q16" s="95" t="str">
-        <f>IF(_sjgc_day_hour!P11="","",_sjgc_day_hour!P11)</f>
-        <v/>
-      </c>
-      <c r="R16" s="95" t="str">
-        <f>IF(_sjgc_day_hour!Q11="","",_sjgc_day_hour!Q11)</f>
-        <v/>
-      </c>
-      <c r="S16" s="82" t="str">
-        <f>IF(_sjgc_day_hour!R11="","",_sjgc_day_hour!R11)</f>
-        <v/>
-      </c>
-      <c r="T16" s="95" t="str">
-        <f>IF(_sjgc_day_hour!S11="","",_sjgc_day_hour!S11)</f>
-        <v/>
-      </c>
-      <c r="U16" s="82" t="str">
-        <f>IF(_sjgc_day_hour!T11="","",_sjgc_day_hour!T11)</f>
-        <v/>
-      </c>
-      <c r="V16" s="105" t="str">
-        <f>IF(_sjgc_day_hour!U11="","",_sjgc_day_hour!U11)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" s="52" customFormat="1" ht="30" customHeight="1" spans="1:22">
-      <c r="A17" s="81">
-        <v>11</v>
-      </c>
-      <c r="B17" s="82" t="str">
-        <f>IF(_sjgc_day_hour!A12="","",_sjgc_day_hour!A12)</f>
-        <v/>
-      </c>
-      <c r="C17" s="82" t="str">
-        <f>IF(_sjgc_day_hour!B12="","",_sjgc_day_hour!B12)</f>
-        <v/>
-      </c>
-      <c r="D17" s="82" t="str">
-        <f>IF(_sjgc_day_hour!C12="","",_sjgc_day_hour!C12)</f>
-        <v/>
-      </c>
-      <c r="E17" s="83" t="str">
-        <f>IF(_sjgc_day_hour!D12="","",_sjgc_day_hour!D12)</f>
-        <v/>
-      </c>
-      <c r="F17" s="82" t="str">
-        <f>IF(_sjgc_day_hour!E12="","",_sjgc_day_hour!E12)</f>
-        <v/>
-      </c>
-      <c r="G17" s="82" t="str">
-        <f>IF(_sjgc_day_hour!F12="","",_sjgc_day_hour!F12)</f>
-        <v/>
-      </c>
-      <c r="H17" s="82" t="str">
-        <f>IF(_sjgc_day_hour!G12="","",_sjgc_day_hour!G12)</f>
-        <v/>
-      </c>
-      <c r="I17" s="82" t="str">
-        <f>IF(_sjgc_day_hour!H12="","",_sjgc_day_hour!H12)</f>
-        <v/>
-      </c>
-      <c r="J17" s="82" t="str">
-        <f>IF(_sjgc_day_hour!I12="","",_sjgc_day_hour!I12)</f>
-        <v/>
-      </c>
-      <c r="K17" s="83" t="str">
-        <f>IF(_sjgc_day_hour!J12="","",_sjgc_day_hour!J12)</f>
-        <v/>
-      </c>
-      <c r="L17" s="82" t="str">
-        <f>IF(_sjgc_day_hour!K12="","",_sjgc_day_hour!K12)</f>
-        <v/>
-      </c>
-      <c r="M17" s="95" t="str">
-        <f>IF(_sjgc_day_hour!L12="","",_sjgc_day_hour!L12)</f>
-        <v/>
-      </c>
-      <c r="N17" s="82" t="str">
-        <f>IF(_sjgc_day_hour!M12="","",_sjgc_day_hour!M12)</f>
-        <v/>
-      </c>
-      <c r="O17" s="82" t="str">
-        <f>IF(_sjgc_day_hour!N12="","",_sjgc_day_hour!N12)</f>
-        <v/>
-      </c>
-      <c r="P17" s="82" t="str">
-        <f>IF(_sjgc_day_hour!O12="","",_sjgc_day_hour!O12)</f>
-        <v/>
-      </c>
-      <c r="Q17" s="95" t="str">
-        <f>IF(_sjgc_day_hour!P12="","",_sjgc_day_hour!P12)</f>
-        <v/>
-      </c>
-      <c r="R17" s="95" t="str">
-        <f>IF(_sjgc_day_hour!Q12="","",_sjgc_day_hour!Q12)</f>
-        <v/>
-      </c>
-      <c r="S17" s="82" t="str">
-        <f>IF(_sjgc_day_hour!R12="","",_sjgc_day_hour!R12)</f>
-        <v/>
-      </c>
-      <c r="T17" s="95" t="str">
-        <f>IF(_sjgc_day_hour!S12="","",_sjgc_day_hour!S12)</f>
-        <v/>
-      </c>
-      <c r="U17" s="82" t="str">
-        <f>IF(_sjgc_day_hour!T12="","",_sjgc_day_hour!T12)</f>
-        <v/>
-      </c>
-      <c r="V17" s="105" t="str">
-        <f>IF(_sjgc_day_hour!U12="","",_sjgc_day_hour!U12)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" s="52" customFormat="1" ht="30" customHeight="1" spans="1:22">
-      <c r="A18" s="81">
-        <v>12</v>
-      </c>
-      <c r="B18" s="82" t="str">
-        <f>IF(_sjgc_day_hour!A13="","",_sjgc_day_hour!A13)</f>
-        <v/>
-      </c>
-      <c r="C18" s="82" t="str">
-        <f>IF(_sjgc_day_hour!B13="","",_sjgc_day_hour!B13)</f>
-        <v/>
-      </c>
-      <c r="D18" s="82" t="str">
-        <f>IF(_sjgc_day_hour!C13="","",_sjgc_day_hour!C13)</f>
-        <v/>
-      </c>
-      <c r="E18" s="83" t="str">
-        <f>IF(_sjgc_day_hour!D13="","",_sjgc_day_hour!D13)</f>
-        <v/>
-      </c>
-      <c r="F18" s="82" t="str">
-        <f>IF(_sjgc_day_hour!E13="","",_sjgc_day_hour!E13)</f>
-        <v/>
-      </c>
-      <c r="G18" s="82" t="str">
-        <f>IF(_sjgc_day_hour!F13="","",_sjgc_day_hour!F13)</f>
-        <v/>
-      </c>
-      <c r="H18" s="82" t="str">
-        <f>IF(_sjgc_day_hour!G13="","",_sjgc_day_hour!G13)</f>
-        <v/>
-      </c>
-      <c r="I18" s="82" t="str">
-        <f>IF(_sjgc_day_hour!H13="","",_sjgc_day_hour!H13)</f>
-        <v/>
-      </c>
-      <c r="J18" s="82" t="str">
-        <f>IF(_sjgc_day_hour!I13="","",_sjgc_day_hour!I13)</f>
-        <v/>
-      </c>
-      <c r="K18" s="83" t="str">
-        <f>IF(_sjgc_day_hour!J13="","",_sjgc_day_hour!J13)</f>
-        <v/>
-      </c>
-      <c r="L18" s="82" t="str">
-        <f>IF(_sjgc_day_hour!K13="","",_sjgc_day_hour!K13)</f>
-        <v/>
-      </c>
-      <c r="M18" s="95" t="str">
-        <f>IF(_sjgc_day_hour!L13="","",_sjgc_day_hour!L13)</f>
-        <v/>
-      </c>
-      <c r="N18" s="82" t="str">
-        <f>IF(_sjgc_day_hour!M13="","",_sjgc_day_hour!M13)</f>
-        <v/>
-      </c>
-      <c r="O18" s="82" t="str">
-        <f>IF(_sjgc_day_hour!N13="","",_sjgc_day_hour!N13)</f>
-        <v/>
-      </c>
-      <c r="P18" s="82" t="str">
-        <f>IF(_sjgc_day_hour!O13="","",_sjgc_day_hour!O13)</f>
-        <v/>
-      </c>
-      <c r="Q18" s="95" t="str">
-        <f>IF(_sjgc_day_hour!P13="","",_sjgc_day_hour!P13)</f>
-        <v/>
-      </c>
-      <c r="R18" s="95" t="str">
-        <f>IF(_sjgc_day_hour!Q13="","",_sjgc_day_hour!Q13)</f>
-        <v/>
-      </c>
-      <c r="S18" s="82" t="str">
-        <f>IF(_sjgc_day_hour!R13="","",_sjgc_day_hour!R13)</f>
-        <v/>
-      </c>
-      <c r="T18" s="95" t="str">
-        <f>IF(_sjgc_day_hour!S13="","",_sjgc_day_hour!S13)</f>
-        <v/>
-      </c>
-      <c r="U18" s="82" t="str">
-        <f>IF(_sjgc_day_hour!T13="","",_sjgc_day_hour!T13)</f>
-        <v/>
-      </c>
-      <c r="V18" s="105" t="str">
-        <f>IF(_sjgc_day_hour!U13="","",_sjgc_day_hour!U13)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" s="52" customFormat="1" ht="30" customHeight="1" spans="1:22">
-      <c r="A19" s="81">
-        <v>13</v>
-      </c>
-      <c r="B19" s="82" t="str">
-        <f>IF(_sjgc_day_hour!A14="","",_sjgc_day_hour!A14)</f>
-        <v/>
-      </c>
-      <c r="C19" s="82" t="str">
-        <f>IF(_sjgc_day_hour!B14="","",_sjgc_day_hour!B14)</f>
-        <v/>
-      </c>
-      <c r="D19" s="82" t="str">
-        <f>IF(_sjgc_day_hour!C14="","",_sjgc_day_hour!C14)</f>
-        <v/>
-      </c>
-      <c r="E19" s="83" t="str">
-        <f>IF(_sjgc_day_hour!D14="","",_sjgc_day_hour!D14)</f>
-        <v/>
-      </c>
-      <c r="F19" s="82" t="str">
-        <f>IF(_sjgc_day_hour!E14="","",_sjgc_day_hour!E14)</f>
-        <v/>
-      </c>
-      <c r="G19" s="82" t="str">
-        <f>IF(_sjgc_day_hour!F14="","",_sjgc_day_hour!F14)</f>
-        <v/>
-      </c>
-      <c r="H19" s="82" t="str">
-        <f>IF(_sjgc_day_hour!G14="","",_sjgc_day_hour!G14)</f>
-        <v/>
-      </c>
-      <c r="I19" s="82" t="str">
-        <f>IF(_sjgc_day_hour!H14="","",_sjgc_day_hour!H14)</f>
-        <v/>
-      </c>
-      <c r="J19" s="82" t="str">
-        <f>IF(_sjgc_day_hour!I14="","",_sjgc_day_hour!I14)</f>
-        <v/>
-      </c>
-      <c r="K19" s="83" t="str">
-        <f>IF(_sjgc_day_hour!J14="","",_sjgc_day_hour!J14)</f>
-        <v/>
-      </c>
-      <c r="L19" s="82" t="str">
-        <f>IF(_sjgc_day_hour!K14="","",_sjgc_day_hour!K14)</f>
-        <v/>
-      </c>
-      <c r="M19" s="95" t="str">
-        <f>IF(_sjgc_day_hour!L14="","",_sjgc_day_hour!L14)</f>
-        <v/>
-      </c>
-      <c r="N19" s="82" t="str">
-        <f>IF(_sjgc_day_hour!M14="","",_sjgc_day_hour!M14)</f>
-        <v/>
-      </c>
-      <c r="O19" s="82" t="str">
-        <f>IF(_sjgc_day_hour!N14="","",_sjgc_day_hour!N14)</f>
-        <v/>
-      </c>
-      <c r="P19" s="82" t="str">
-        <f>IF(_sjgc_day_hour!O14="","",_sjgc_day_hour!O14)</f>
-        <v/>
-      </c>
-      <c r="Q19" s="95" t="str">
-        <f>IF(_sjgc_day_hour!P14="","",_sjgc_day_hour!P14)</f>
-        <v/>
-      </c>
-      <c r="R19" s="95" t="str">
-        <f>IF(_sjgc_day_hour!Q14="","",_sjgc_day_hour!Q14)</f>
-        <v/>
-      </c>
-      <c r="S19" s="82" t="str">
-        <f>IF(_sjgc_day_hour!R14="","",_sjgc_day_hour!R14)</f>
-        <v/>
-      </c>
-      <c r="T19" s="95" t="str">
-        <f>IF(_sjgc_day_hour!S14="","",_sjgc_day_hour!S14)</f>
-        <v/>
-      </c>
-      <c r="U19" s="82" t="str">
-        <f>IF(_sjgc_day_hour!T14="","",_sjgc_day_hour!T14)</f>
-        <v/>
-      </c>
-      <c r="V19" s="105" t="str">
-        <f>IF(_sjgc_day_hour!U14="","",_sjgc_day_hour!U14)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" s="52" customFormat="1" ht="30" customHeight="1" spans="1:22">
-      <c r="A20" s="81">
-        <v>14</v>
-      </c>
-      <c r="B20" s="82" t="str">
-        <f>IF(_sjgc_day_hour!A15="","",_sjgc_day_hour!A15)</f>
-        <v/>
-      </c>
-      <c r="C20" s="82" t="str">
-        <f>IF(_sjgc_day_hour!B15="","",_sjgc_day_hour!B15)</f>
-        <v/>
-      </c>
-      <c r="D20" s="82" t="str">
-        <f>IF(_sjgc_day_hour!C15="","",_sjgc_day_hour!C15)</f>
-        <v/>
-      </c>
-      <c r="E20" s="83" t="str">
-        <f>IF(_sjgc_day_hour!D15="","",_sjgc_day_hour!D15)</f>
-        <v/>
-      </c>
-      <c r="F20" s="82" t="str">
-        <f>IF(_sjgc_day_hour!E15="","",_sjgc_day_hour!E15)</f>
-        <v/>
-      </c>
-      <c r="G20" s="82" t="str">
-        <f>IF(_sjgc_day_hour!F15="","",_sjgc_day_hour!F15)</f>
-        <v/>
-      </c>
-      <c r="H20" s="82" t="str">
-        <f>IF(_sjgc_day_hour!G15="","",_sjgc_day_hour!G15)</f>
-        <v/>
-      </c>
-      <c r="I20" s="82" t="str">
-        <f>IF(_sjgc_day_hour!H15="","",_sjgc_day_hour!H15)</f>
-        <v/>
-      </c>
-      <c r="J20" s="82" t="str">
-        <f>IF(_sjgc_day_hour!I15="","",_sjgc_day_hour!I15)</f>
-        <v/>
-      </c>
-      <c r="K20" s="83" t="str">
-        <f>IF(_sjgc_day_hour!J15="","",_sjgc_day_hour!J15)</f>
-        <v/>
-      </c>
-      <c r="L20" s="82" t="str">
-        <f>IF(_sjgc_day_hour!K15="","",_sjgc_day_hour!K15)</f>
-        <v/>
-      </c>
-      <c r="M20" s="95" t="str">
-        <f>IF(_sjgc_day_hour!L15="","",_sjgc_day_hour!L15)</f>
-        <v/>
-      </c>
-      <c r="N20" s="82" t="str">
-        <f>IF(_sjgc_day_hour!M15="","",_sjgc_day_hour!M15)</f>
-        <v/>
-      </c>
-      <c r="O20" s="82" t="str">
-        <f>IF(_sjgc_day_hour!N15="","",_sjgc_day_hour!N15)</f>
-        <v/>
-      </c>
-      <c r="P20" s="82" t="str">
-        <f>IF(_sjgc_day_hour!O15="","",_sjgc_day_hour!O15)</f>
-        <v/>
-      </c>
-      <c r="Q20" s="95" t="str">
-        <f>IF(_sjgc_day_hour!P15="","",_sjgc_day_hour!P15)</f>
-        <v/>
-      </c>
-      <c r="R20" s="95" t="str">
-        <f>IF(_sjgc_day_hour!Q15="","",_sjgc_day_hour!Q15)</f>
-        <v/>
-      </c>
-      <c r="S20" s="82" t="str">
-        <f>IF(_sjgc_day_hour!R15="","",_sjgc_day_hour!R15)</f>
-        <v/>
-      </c>
-      <c r="T20" s="95" t="str">
-        <f>IF(_sjgc_day_hour!S15="","",_sjgc_day_hour!S15)</f>
-        <v/>
-      </c>
-      <c r="U20" s="82" t="str">
-        <f>IF(_sjgc_day_hour!T15="","",_sjgc_day_hour!T15)</f>
-        <v/>
-      </c>
-      <c r="V20" s="105" t="str">
-        <f>IF(_sjgc_day_hour!U15="","",_sjgc_day_hour!U15)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" s="52" customFormat="1" ht="30" customHeight="1" spans="1:22">
-      <c r="A21" s="81">
-        <v>15</v>
-      </c>
-      <c r="B21" s="82" t="str">
-        <f>IF(_sjgc_day_hour!A16="","",_sjgc_day_hour!A16)</f>
-        <v/>
-      </c>
-      <c r="C21" s="82" t="str">
-        <f>IF(_sjgc_day_hour!B16="","",_sjgc_day_hour!B16)</f>
-        <v/>
-      </c>
-      <c r="D21" s="82" t="str">
-        <f>IF(_sjgc_day_hour!C16="","",_sjgc_day_hour!C16)</f>
-        <v/>
-      </c>
-      <c r="E21" s="83" t="str">
-        <f>IF(_sjgc_day_hour!D16="","",_sjgc_day_hour!D16)</f>
-        <v/>
-      </c>
-      <c r="F21" s="82" t="str">
-        <f>IF(_sjgc_day_hour!E16="","",_sjgc_day_hour!E16)</f>
-        <v/>
-      </c>
-      <c r="G21" s="82" t="str">
-        <f>IF(_sjgc_day_hour!F16="","",_sjgc_day_hour!F16)</f>
-        <v/>
-      </c>
-      <c r="H21" s="82" t="str">
-        <f>IF(_sjgc_day_hour!G16="","",_sjgc_day_hour!G16)</f>
-        <v/>
-      </c>
-      <c r="I21" s="82" t="str">
-        <f>IF(_sjgc_day_hour!H16="","",_sjgc_day_hour!H16)</f>
-        <v/>
-      </c>
-      <c r="J21" s="82" t="str">
-        <f>IF(_sjgc_day_hour!I16="","",_sjgc_day_hour!I16)</f>
-        <v/>
-      </c>
-      <c r="K21" s="83" t="str">
-        <f>IF(_sjgc_day_hour!J16="","",_sjgc_day_hour!J16)</f>
-        <v/>
-      </c>
-      <c r="L21" s="82" t="str">
-        <f>IF(_sjgc_day_hour!K16="","",_sjgc_day_hour!K16)</f>
-        <v/>
-      </c>
-      <c r="M21" s="95" t="str">
-        <f>IF(_sjgc_day_hour!L16="","",_sjgc_day_hour!L16)</f>
-        <v/>
-      </c>
-      <c r="N21" s="82" t="str">
-        <f>IF(_sjgc_day_hour!M16="","",_sjgc_day_hour!M16)</f>
-        <v/>
-      </c>
-      <c r="O21" s="82" t="str">
-        <f>IF(_sjgc_day_hour!N16="","",_sjgc_day_hour!N16)</f>
-        <v/>
-      </c>
-      <c r="P21" s="82" t="str">
-        <f>IF(_sjgc_day_hour!O16="","",_sjgc_day_hour!O16)</f>
-        <v/>
-      </c>
-      <c r="Q21" s="95" t="str">
-        <f>IF(_sjgc_day_hour!P16="","",_sjgc_day_hour!P16)</f>
-        <v/>
-      </c>
-      <c r="R21" s="95" t="str">
-        <f>IF(_sjgc_day_hour!Q16="","",_sjgc_day_hour!Q16)</f>
-        <v/>
-      </c>
-      <c r="S21" s="82" t="str">
-        <f>IF(_sjgc_day_hour!R16="","",_sjgc_day_hour!R16)</f>
-        <v/>
-      </c>
-      <c r="T21" s="95" t="str">
-        <f>IF(_sjgc_day_hour!S16="","",_sjgc_day_hour!S16)</f>
-        <v/>
-      </c>
-      <c r="U21" s="82" t="str">
-        <f>IF(_sjgc_day_hour!T16="","",_sjgc_day_hour!T16)</f>
-        <v/>
-      </c>
-      <c r="V21" s="105" t="str">
-        <f>IF(_sjgc_day_hour!U16="","",_sjgc_day_hour!U16)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" s="52" customFormat="1" ht="30" customHeight="1" spans="1:22">
-      <c r="A22" s="81">
-        <v>16</v>
-      </c>
-      <c r="B22" s="82" t="str">
-        <f>IF(_sjgc_day_hour!A17="","",_sjgc_day_hour!A17)</f>
-        <v/>
-      </c>
-      <c r="C22" s="82" t="str">
-        <f>IF(_sjgc_day_hour!B17="","",_sjgc_day_hour!B17)</f>
-        <v/>
-      </c>
-      <c r="D22" s="82" t="str">
-        <f>IF(_sjgc_day_hour!C17="","",_sjgc_day_hour!C17)</f>
-        <v/>
-      </c>
-      <c r="E22" s="83" t="str">
-        <f>IF(_sjgc_day_hour!D17="","",_sjgc_day_hour!D17)</f>
-        <v/>
-      </c>
-      <c r="F22" s="82" t="str">
-        <f>IF(_sjgc_day_hour!E17="","",_sjgc_day_hour!E17)</f>
-        <v/>
-      </c>
-      <c r="G22" s="82" t="str">
-        <f>IF(_sjgc_day_hour!F17="","",_sjgc_day_hour!F17)</f>
-        <v/>
-      </c>
-      <c r="H22" s="82" t="str">
-        <f>IF(_sjgc_day_hour!G17="","",_sjgc_day_hour!G17)</f>
-        <v/>
-      </c>
-      <c r="I22" s="82" t="str">
-        <f>IF(_sjgc_day_hour!H17="","",_sjgc_day_hour!H17)</f>
-        <v/>
-      </c>
-      <c r="J22" s="82" t="str">
-        <f>IF(_sjgc_day_hour!I17="","",_sjgc_day_hour!I17)</f>
-        <v/>
-      </c>
-      <c r="K22" s="83" t="str">
-        <f>IF(_sjgc_day_hour!J17="","",_sjgc_day_hour!J17)</f>
-        <v/>
-      </c>
-      <c r="L22" s="82" t="str">
-        <f>IF(_sjgc_day_hour!K17="","",_sjgc_day_hour!K17)</f>
-        <v/>
-      </c>
-      <c r="M22" s="95" t="str">
-        <f>IF(_sjgc_day_hour!L17="","",_sjgc_day_hour!L17)</f>
-        <v/>
-      </c>
-      <c r="N22" s="82" t="str">
-        <f>IF(_sjgc_day_hour!M17="","",_sjgc_day_hour!M17)</f>
-        <v/>
-      </c>
-      <c r="O22" s="82" t="str">
-        <f>IF(_sjgc_day_hour!N17="","",_sjgc_day_hour!N17)</f>
-        <v/>
-      </c>
-      <c r="P22" s="82" t="str">
-        <f>IF(_sjgc_day_hour!O17="","",_sjgc_day_hour!O17)</f>
-        <v/>
-      </c>
-      <c r="Q22" s="95" t="str">
-        <f>IF(_sjgc_day_hour!P17="","",_sjgc_day_hour!P17)</f>
-        <v/>
-      </c>
-      <c r="R22" s="95" t="str">
-        <f>IF(_sjgc_day_hour!Q17="","",_sjgc_day_hour!Q17)</f>
-        <v/>
-      </c>
-      <c r="S22" s="82" t="str">
-        <f>IF(_sjgc_day_hour!R17="","",_sjgc_day_hour!R17)</f>
-        <v/>
-      </c>
-      <c r="T22" s="95" t="str">
-        <f>IF(_sjgc_day_hour!S17="","",_sjgc_day_hour!S17)</f>
-        <v/>
-      </c>
-      <c r="U22" s="82" t="str">
-        <f>IF(_sjgc_day_hour!T17="","",_sjgc_day_hour!T17)</f>
-        <v/>
-      </c>
-      <c r="V22" s="105" t="str">
-        <f>IF(_sjgc_day_hour!U17="","",_sjgc_day_hour!U17)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" s="52" customFormat="1" ht="30" customHeight="1" spans="1:22">
-      <c r="A23" s="81">
-        <v>17</v>
-      </c>
-      <c r="B23" s="82" t="str">
-        <f>IF(_sjgc_day_hour!A18="","",_sjgc_day_hour!A18)</f>
-        <v/>
-      </c>
-      <c r="C23" s="82" t="str">
-        <f>IF(_sjgc_day_hour!B18="","",_sjgc_day_hour!B18)</f>
-        <v/>
-      </c>
-      <c r="D23" s="82" t="str">
-        <f>IF(_sjgc_day_hour!C18="","",_sjgc_day_hour!C18)</f>
-        <v/>
-      </c>
-      <c r="E23" s="83" t="str">
-        <f>IF(_sjgc_day_hour!D18="","",_sjgc_day_hour!D18)</f>
-        <v/>
-      </c>
-      <c r="F23" s="82" t="str">
-        <f>IF(_sjgc_day_hour!E18="","",_sjgc_day_hour!E18)</f>
-        <v/>
-      </c>
-      <c r="G23" s="82" t="str">
-        <f>IF(_sjgc_day_hour!F18="","",_sjgc_day_hour!F18)</f>
-        <v/>
-      </c>
-      <c r="H23" s="82" t="str">
-        <f>IF(_sjgc_day_hour!G18="","",_sjgc_day_hour!G18)</f>
-        <v/>
-      </c>
-      <c r="I23" s="82" t="str">
-        <f>IF(_sjgc_day_hour!H18="","",_sjgc_day_hour!H18)</f>
-        <v/>
-      </c>
-      <c r="J23" s="82" t="str">
-        <f>IF(_sjgc_day_hour!I18="","",_sjgc_day_hour!I18)</f>
-        <v/>
-      </c>
-      <c r="K23" s="83" t="str">
-        <f>IF(_sjgc_day_hour!J18="","",_sjgc_day_hour!J18)</f>
-        <v/>
-      </c>
-      <c r="L23" s="82" t="str">
-        <f>IF(_sjgc_day_hour!K18="","",_sjgc_day_hour!K18)</f>
-        <v/>
-      </c>
-      <c r="M23" s="95" t="str">
-        <f>IF(_sjgc_day_hour!L18="","",_sjgc_day_hour!L18)</f>
-        <v/>
-      </c>
-      <c r="N23" s="82" t="str">
-        <f>IF(_sjgc_day_hour!M18="","",_sjgc_day_hour!M18)</f>
-        <v/>
-      </c>
-      <c r="O23" s="82" t="str">
-        <f>IF(_sjgc_day_hour!N18="","",_sjgc_day_hour!N18)</f>
-        <v/>
-      </c>
-      <c r="P23" s="82" t="str">
-        <f>IF(_sjgc_day_hour!O18="","",_sjgc_day_hour!O18)</f>
-        <v/>
-      </c>
-      <c r="Q23" s="95" t="str">
-        <f>IF(_sjgc_day_hour!P18="","",_sjgc_day_hour!P18)</f>
-        <v/>
-      </c>
-      <c r="R23" s="95" t="str">
-        <f>IF(_sjgc_day_hour!Q18="","",_sjgc_day_hour!Q18)</f>
-        <v/>
-      </c>
-      <c r="S23" s="82" t="str">
-        <f>IF(_sjgc_day_hour!R18="","",_sjgc_day_hour!R18)</f>
-        <v/>
-      </c>
-      <c r="T23" s="95" t="str">
-        <f>IF(_sjgc_day_hour!S18="","",_sjgc_day_hour!S18)</f>
-        <v/>
-      </c>
-      <c r="U23" s="82" t="str">
-        <f>IF(_sjgc_day_hour!T18="","",_sjgc_day_hour!T18)</f>
-        <v/>
-      </c>
-      <c r="V23" s="105" t="str">
-        <f>IF(_sjgc_day_hour!U18="","",_sjgc_day_hour!U18)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" s="52" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A24" s="81">
-        <v>18</v>
-      </c>
-      <c r="B24" s="82" t="str">
-        <f>IF(_sjgc_day_hour!A19="","",_sjgc_day_hour!A19)</f>
-        <v/>
-      </c>
-      <c r="C24" s="82" t="str">
-        <f>IF(_sjgc_day_hour!B19="","",_sjgc_day_hour!B19)</f>
-        <v/>
-      </c>
-      <c r="D24" s="82" t="str">
-        <f>IF(_sjgc_day_hour!C19="","",_sjgc_day_hour!C19)</f>
-        <v/>
-      </c>
-      <c r="E24" s="83" t="str">
-        <f>IF(_sjgc_day_hour!D19="","",_sjgc_day_hour!D19)</f>
-        <v/>
-      </c>
-      <c r="F24" s="82" t="str">
-        <f>IF(_sjgc_day_hour!E19="","",_sjgc_day_hour!E19)</f>
-        <v/>
-      </c>
-      <c r="G24" s="82" t="str">
-        <f>IF(_sjgc_day_hour!F19="","",_sjgc_day_hour!F19)</f>
-        <v/>
-      </c>
-      <c r="H24" s="82" t="str">
-        <f>IF(_sjgc_day_hour!G19="","",_sjgc_day_hour!G19)</f>
-        <v/>
-      </c>
-      <c r="I24" s="82" t="str">
-        <f>IF(_sjgc_day_hour!H19="","",_sjgc_day_hour!H19)</f>
-        <v/>
-      </c>
-      <c r="J24" s="82" t="str">
-        <f>IF(_sjgc_day_hour!I19="","",_sjgc_day_hour!I19)</f>
-        <v/>
-      </c>
-      <c r="K24" s="83" t="str">
-        <f>IF(_sjgc_day_hour!J19="","",_sjgc_day_hour!J19)</f>
-        <v/>
-      </c>
-      <c r="L24" s="82" t="str">
-        <f>IF(_sjgc_day_hour!K19="","",_sjgc_day_hour!K19)</f>
-        <v/>
-      </c>
-      <c r="M24" s="95" t="str">
-        <f>IF(_sjgc_day_hour!L19="","",_sjgc_day_hour!L19)</f>
-        <v/>
-      </c>
-      <c r="N24" s="82" t="str">
-        <f>IF(_sjgc_day_hour!M19="","",_sjgc_day_hour!M19)</f>
-        <v/>
-      </c>
-      <c r="O24" s="82" t="str">
-        <f>IF(_sjgc_day_hour!N19="","",_sjgc_day_hour!N19)</f>
-        <v/>
-      </c>
-      <c r="P24" s="82" t="str">
-        <f>IF(_sjgc_day_hour!O19="","",_sjgc_day_hour!O19)</f>
-        <v/>
-      </c>
-      <c r="Q24" s="95" t="str">
-        <f>IF(_sjgc_day_hour!P19="","",_sjgc_day_hour!P19)</f>
-        <v/>
-      </c>
-      <c r="R24" s="95" t="str">
-        <f>IF(_sjgc_day_hour!Q19="","",_sjgc_day_hour!Q19)</f>
-        <v/>
-      </c>
-      <c r="S24" s="82" t="str">
-        <f>IF(_sjgc_day_hour!R19="","",_sjgc_day_hour!R19)</f>
-        <v/>
-      </c>
-      <c r="T24" s="95" t="str">
-        <f>IF(_sjgc_day_hour!S19="","",_sjgc_day_hour!S19)</f>
-        <v/>
-      </c>
-      <c r="U24" s="82" t="str">
-        <f>IF(_sjgc_day_hour!T19="","",_sjgc_day_hour!T19)</f>
-        <v/>
-      </c>
-      <c r="V24" s="105" t="str">
-        <f>IF(_sjgc_day_hour!U19="","",_sjgc_day_hour!U19)</f>
-        <v/>
-      </c>
-      <c r="W24" s="106"/>
-      <c r="X24" s="106"/>
-    </row>
-    <row r="25" s="52" customFormat="1" ht="30" customHeight="1" spans="1:22">
-      <c r="A25" s="81">
-        <v>19</v>
-      </c>
-      <c r="B25" s="82" t="str">
-        <f>IF(_sjgc_day_hour!A20="","",_sjgc_day_hour!A20)</f>
-        <v/>
-      </c>
-      <c r="C25" s="82" t="str">
-        <f>IF(_sjgc_day_hour!B20="","",_sjgc_day_hour!B20)</f>
-        <v/>
-      </c>
-      <c r="D25" s="82" t="str">
-        <f>IF(_sjgc_day_hour!C20="","",_sjgc_day_hour!C20)</f>
-        <v/>
-      </c>
-      <c r="E25" s="83" t="str">
-        <f>IF(_sjgc_day_hour!D20="","",_sjgc_day_hour!D20)</f>
-        <v/>
-      </c>
-      <c r="F25" s="82" t="str">
-        <f>IF(_sjgc_day_hour!E20="","",_sjgc_day_hour!E20)</f>
-        <v/>
-      </c>
-      <c r="G25" s="82" t="str">
-        <f>IF(_sjgc_day_hour!F20="","",_sjgc_day_hour!F20)</f>
-        <v/>
-      </c>
-      <c r="H25" s="82" t="str">
-        <f>IF(_sjgc_day_hour!G20="","",_sjgc_day_hour!G20)</f>
-        <v/>
-      </c>
-      <c r="I25" s="82" t="str">
-        <f>IF(_sjgc_day_hour!H20="","",_sjgc_day_hour!H20)</f>
-        <v/>
-      </c>
-      <c r="J25" s="82" t="str">
-        <f>IF(_sjgc_day_hour!I20="","",_sjgc_day_hour!I20)</f>
-        <v/>
-      </c>
-      <c r="K25" s="83" t="str">
-        <f>IF(_sjgc_day_hour!J20="","",_sjgc_day_hour!J20)</f>
-        <v/>
-      </c>
-      <c r="L25" s="82" t="str">
-        <f>IF(_sjgc_day_hour!K20="","",_sjgc_day_hour!K20)</f>
-        <v/>
-      </c>
-      <c r="M25" s="95" t="str">
-        <f>IF(_sjgc_day_hour!L20="","",_sjgc_day_hour!L20)</f>
-        <v/>
-      </c>
-      <c r="N25" s="82" t="str">
-        <f>IF(_sjgc_day_hour!M20="","",_sjgc_day_hour!M20)</f>
-        <v/>
-      </c>
-      <c r="O25" s="82" t="str">
-        <f>IF(_sjgc_day_hour!N20="","",_sjgc_day_hour!N20)</f>
-        <v/>
-      </c>
-      <c r="P25" s="82" t="str">
-        <f>IF(_sjgc_day_hour!O20="","",_sjgc_day_hour!O20)</f>
-        <v/>
-      </c>
-      <c r="Q25" s="95" t="str">
-        <f>IF(_sjgc_day_hour!P20="","",_sjgc_day_hour!P20)</f>
-        <v/>
-      </c>
-      <c r="R25" s="95" t="str">
-        <f>IF(_sjgc_day_hour!Q20="","",_sjgc_day_hour!Q20)</f>
-        <v/>
-      </c>
-      <c r="S25" s="82" t="str">
-        <f>IF(_sjgc_day_hour!R20="","",_sjgc_day_hour!R20)</f>
-        <v/>
-      </c>
-      <c r="T25" s="95" t="str">
-        <f>IF(_sjgc_day_hour!S20="","",_sjgc_day_hour!S20)</f>
-        <v/>
-      </c>
-      <c r="U25" s="82" t="str">
-        <f>IF(_sjgc_day_hour!T20="","",_sjgc_day_hour!T20)</f>
-        <v/>
-      </c>
-      <c r="V25" s="105" t="str">
-        <f>IF(_sjgc_day_hour!U20="","",_sjgc_day_hour!U20)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" s="52" customFormat="1" ht="30" customHeight="1" spans="1:22">
-      <c r="A26" s="81">
-        <v>20</v>
-      </c>
-      <c r="B26" s="82" t="str">
-        <f>IF(_sjgc_day_hour!A21="","",_sjgc_day_hour!A21)</f>
-        <v/>
-      </c>
-      <c r="C26" s="82" t="str">
-        <f>IF(_sjgc_day_hour!B21="","",_sjgc_day_hour!B21)</f>
-        <v/>
-      </c>
-      <c r="D26" s="82" t="str">
-        <f>IF(_sjgc_day_hour!C21="","",_sjgc_day_hour!C21)</f>
-        <v/>
-      </c>
-      <c r="E26" s="83" t="str">
-        <f>IF(_sjgc_day_hour!D21="","",_sjgc_day_hour!D21)</f>
-        <v/>
-      </c>
-      <c r="F26" s="82" t="str">
-        <f>IF(_sjgc_day_hour!E21="","",_sjgc_day_hour!E21)</f>
-        <v/>
-      </c>
-      <c r="G26" s="82" t="str">
-        <f>IF(_sjgc_day_hour!F21="","",_sjgc_day_hour!F21)</f>
-        <v/>
-      </c>
-      <c r="H26" s="82" t="str">
-        <f>IF(_sjgc_day_hour!G21="","",_sjgc_day_hour!G21)</f>
-        <v/>
-      </c>
-      <c r="I26" s="82" t="str">
-        <f>IF(_sjgc_day_hour!H21="","",_sjgc_day_hour!H21)</f>
-        <v/>
-      </c>
-      <c r="J26" s="82" t="str">
-        <f>IF(_sjgc_day_hour!I21="","",_sjgc_day_hour!I21)</f>
-        <v/>
-      </c>
-      <c r="K26" s="83" t="str">
-        <f>IF(_sjgc_day_hour!J21="","",_sjgc_day_hour!J21)</f>
-        <v/>
-      </c>
-      <c r="L26" s="82" t="str">
-        <f>IF(_sjgc_day_hour!K21="","",_sjgc_day_hour!K21)</f>
-        <v/>
-      </c>
-      <c r="M26" s="95" t="str">
-        <f>IF(_sjgc_day_hour!L21="","",_sjgc_day_hour!L21)</f>
-        <v/>
-      </c>
-      <c r="N26" s="82" t="str">
-        <f>IF(_sjgc_day_hour!M21="","",_sjgc_day_hour!M21)</f>
-        <v/>
-      </c>
-      <c r="O26" s="82" t="str">
-        <f>IF(_sjgc_day_hour!N21="","",_sjgc_day_hour!N21)</f>
-        <v/>
-      </c>
-      <c r="P26" s="82" t="str">
-        <f>IF(_sjgc_day_hour!O21="","",_sjgc_day_hour!O21)</f>
-        <v/>
-      </c>
-      <c r="Q26" s="95" t="str">
-        <f>IF(_sjgc_day_hour!P21="","",_sjgc_day_hour!P21)</f>
-        <v/>
-      </c>
-      <c r="R26" s="95" t="str">
-        <f>IF(_sjgc_day_hour!Q21="","",_sjgc_day_hour!Q21)</f>
-        <v/>
-      </c>
-      <c r="S26" s="82" t="str">
-        <f>IF(_sjgc_day_hour!R21="","",_sjgc_day_hour!R21)</f>
-        <v/>
-      </c>
-      <c r="T26" s="95" t="str">
-        <f>IF(_sjgc_day_hour!S21="","",_sjgc_day_hour!S21)</f>
-        <v/>
-      </c>
-      <c r="U26" s="82" t="str">
-        <f>IF(_sjgc_day_hour!T21="","",_sjgc_day_hour!T21)</f>
-        <v/>
-      </c>
-      <c r="V26" s="105" t="str">
-        <f>IF(_sjgc_day_hour!U21="","",_sjgc_day_hour!U21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" s="52" customFormat="1" ht="30" customHeight="1" spans="1:22">
-      <c r="A27" s="81">
-        <v>21</v>
-      </c>
-      <c r="B27" s="82" t="str">
-        <f>IF(_sjgc_day_hour!A22="","",_sjgc_day_hour!A22)</f>
-        <v/>
-      </c>
-      <c r="C27" s="82" t="str">
-        <f>IF(_sjgc_day_hour!B22="","",_sjgc_day_hour!B22)</f>
-        <v/>
-      </c>
-      <c r="D27" s="82" t="str">
-        <f>IF(_sjgc_day_hour!C22="","",_sjgc_day_hour!C22)</f>
-        <v/>
-      </c>
-      <c r="E27" s="83" t="str">
-        <f>IF(_sjgc_day_hour!D22="","",_sjgc_day_hour!D22)</f>
-        <v/>
-      </c>
-      <c r="F27" s="82" t="str">
-        <f>IF(_sjgc_day_hour!E22="","",_sjgc_day_hour!E22)</f>
-        <v/>
-      </c>
-      <c r="G27" s="82" t="str">
-        <f>IF(_sjgc_day_hour!F22="","",_sjgc_day_hour!F22)</f>
-        <v/>
-      </c>
-      <c r="H27" s="82" t="str">
-        <f>IF(_sjgc_day_hour!G22="","",_sjgc_day_hour!G22)</f>
-        <v/>
-      </c>
-      <c r="I27" s="82" t="str">
-        <f>IF(_sjgc_day_hour!H22="","",_sjgc_day_hour!H22)</f>
-        <v/>
-      </c>
-      <c r="J27" s="82" t="str">
-        <f>IF(_sjgc_day_hour!I22="","",_sjgc_day_hour!I22)</f>
-        <v/>
-      </c>
-      <c r="K27" s="83" t="str">
-        <f>IF(_sjgc_day_hour!J22="","",_sjgc_day_hour!J22)</f>
-        <v/>
-      </c>
-      <c r="L27" s="82" t="str">
-        <f>IF(_sjgc_day_hour!K22="","",_sjgc_day_hour!K22)</f>
-        <v/>
-      </c>
-      <c r="M27" s="95" t="str">
-        <f>IF(_sjgc_day_hour!L22="","",_sjgc_day_hour!L22)</f>
-        <v/>
-      </c>
-      <c r="N27" s="82" t="str">
-        <f>IF(_sjgc_day_hour!M22="","",_sjgc_day_hour!M22)</f>
-        <v/>
-      </c>
-      <c r="O27" s="82" t="str">
-        <f>IF(_sjgc_day_hour!N22="","",_sjgc_day_hour!N22)</f>
-        <v/>
-      </c>
-      <c r="P27" s="82" t="str">
-        <f>IF(_sjgc_day_hour!O22="","",_sjgc_day_hour!O22)</f>
-        <v/>
-      </c>
-      <c r="Q27" s="95" t="str">
-        <f>IF(_sjgc_day_hour!P22="","",_sjgc_day_hour!P22)</f>
-        <v/>
-      </c>
-      <c r="R27" s="95" t="str">
-        <f>IF(_sjgc_day_hour!Q22="","",_sjgc_day_hour!Q22)</f>
-        <v/>
-      </c>
-      <c r="S27" s="82" t="str">
-        <f>IF(_sjgc_day_hour!R22="","",_sjgc_day_hour!R22)</f>
-        <v/>
-      </c>
-      <c r="T27" s="95" t="str">
-        <f>IF(_sjgc_day_hour!S22="","",_sjgc_day_hour!S22)</f>
-        <v/>
-      </c>
-      <c r="U27" s="82" t="str">
-        <f>IF(_sjgc_day_hour!T22="","",_sjgc_day_hour!T22)</f>
-        <v/>
-      </c>
-      <c r="V27" s="105" t="str">
-        <f>IF(_sjgc_day_hour!U22="","",_sjgc_day_hour!U22)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" s="52" customFormat="1" ht="30" customHeight="1" spans="1:22">
-      <c r="A28" s="81">
-        <v>22</v>
-      </c>
-      <c r="B28" s="82" t="str">
-        <f>IF(_sjgc_day_hour!A23="","",_sjgc_day_hour!A23)</f>
-        <v/>
-      </c>
-      <c r="C28" s="82" t="str">
-        <f>IF(_sjgc_day_hour!B23="","",_sjgc_day_hour!B23)</f>
-        <v/>
-      </c>
-      <c r="D28" s="82" t="str">
-        <f>IF(_sjgc_day_hour!C23="","",_sjgc_day_hour!C23)</f>
-        <v/>
-      </c>
-      <c r="E28" s="83" t="str">
-        <f>IF(_sjgc_day_hour!D23="","",_sjgc_day_hour!D23)</f>
-        <v/>
-      </c>
-      <c r="F28" s="82" t="str">
-        <f>IF(_sjgc_day_hour!E23="","",_sjgc_day_hour!E23)</f>
-        <v/>
-      </c>
-      <c r="G28" s="82" t="str">
-        <f>IF(_sjgc_day_hour!F23="","",_sjgc_day_hour!F23)</f>
-        <v/>
-      </c>
-      <c r="H28" s="82" t="str">
-        <f>IF(_sjgc_day_hour!G23="","",_sjgc_day_hour!G23)</f>
-        <v/>
-      </c>
-      <c r="I28" s="82" t="str">
-        <f>IF(_sjgc_day_hour!H23="","",_sjgc_day_hour!H23)</f>
-        <v/>
-      </c>
-      <c r="J28" s="82" t="str">
-        <f>IF(_sjgc_day_hour!I23="","",_sjgc_day_hour!I23)</f>
-        <v/>
-      </c>
-      <c r="K28" s="83" t="str">
-        <f>IF(_sjgc_day_hour!J23="","",_sjgc_day_hour!J23)</f>
-        <v/>
-      </c>
-      <c r="L28" s="82" t="str">
-        <f>IF(_sjgc_day_hour!K23="","",_sjgc_day_hour!K23)</f>
-        <v/>
-      </c>
-      <c r="M28" s="95" t="str">
-        <f>IF(_sjgc_day_hour!L23="","",_sjgc_day_hour!L23)</f>
-        <v/>
-      </c>
-      <c r="N28" s="82" t="str">
-        <f>IF(_sjgc_day_hour!M23="","",_sjgc_day_hour!M23)</f>
-        <v/>
-      </c>
-      <c r="O28" s="82" t="str">
-        <f>IF(_sjgc_day_hour!N23="","",_sjgc_day_hour!N23)</f>
-        <v/>
-      </c>
-      <c r="P28" s="82" t="str">
-        <f>IF(_sjgc_day_hour!O23="","",_sjgc_day_hour!O23)</f>
-        <v/>
-      </c>
-      <c r="Q28" s="95" t="str">
-        <f>IF(_sjgc_day_hour!P23="","",_sjgc_day_hour!P23)</f>
-        <v/>
-      </c>
-      <c r="R28" s="95" t="str">
-        <f>IF(_sjgc_day_hour!Q23="","",_sjgc_day_hour!Q23)</f>
-        <v/>
-      </c>
-      <c r="S28" s="82" t="str">
-        <f>IF(_sjgc_day_hour!R23="","",_sjgc_day_hour!R23)</f>
-        <v/>
-      </c>
-      <c r="T28" s="95" t="str">
-        <f>IF(_sjgc_day_hour!S23="","",_sjgc_day_hour!S23)</f>
-        <v/>
-      </c>
-      <c r="U28" s="82" t="str">
-        <f>IF(_sjgc_day_hour!T23="","",_sjgc_day_hour!T23)</f>
-        <v/>
-      </c>
-      <c r="V28" s="105" t="str">
-        <f>IF(_sjgc_day_hour!U23="","",_sjgc_day_hour!U23)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" s="52" customFormat="1" ht="30" customHeight="1" spans="1:22">
-      <c r="A29" s="81">
-        <v>23</v>
-      </c>
-      <c r="B29" s="82" t="str">
-        <f>IF(_sjgc_day_hour!A24="","",_sjgc_day_hour!A24)</f>
-        <v/>
-      </c>
-      <c r="C29" s="82" t="str">
-        <f>IF(_sjgc_day_hour!B24="","",_sjgc_day_hour!B24)</f>
-        <v/>
-      </c>
-      <c r="D29" s="82" t="str">
-        <f>IF(_sjgc_day_hour!C24="","",_sjgc_day_hour!C24)</f>
-        <v/>
-      </c>
-      <c r="E29" s="83" t="str">
-        <f>IF(_sjgc_day_hour!D24="","",_sjgc_day_hour!D24)</f>
-        <v/>
-      </c>
-      <c r="F29" s="82" t="str">
-        <f>IF(_sjgc_day_hour!E24="","",_sjgc_day_hour!E24)</f>
-        <v/>
-      </c>
-      <c r="G29" s="82" t="str">
-        <f>IF(_sjgc_day_hour!F24="","",_sjgc_day_hour!F24)</f>
-        <v/>
-      </c>
-      <c r="H29" s="82" t="str">
-        <f>IF(_sjgc_day_hour!G24="","",_sjgc_day_hour!G24)</f>
-        <v/>
-      </c>
-      <c r="I29" s="82" t="str">
-        <f>IF(_sjgc_day_hour!H24="","",_sjgc_day_hour!H24)</f>
-        <v/>
-      </c>
-      <c r="J29" s="82" t="str">
-        <f>IF(_sjgc_day_hour!I24="","",_sjgc_day_hour!I24)</f>
-        <v/>
-      </c>
-      <c r="K29" s="83" t="str">
-        <f>IF(_sjgc_day_hour!J24="","",_sjgc_day_hour!J24)</f>
-        <v/>
-      </c>
-      <c r="L29" s="82" t="str">
-        <f>IF(_sjgc_day_hour!K24="","",_sjgc_day_hour!K24)</f>
-        <v/>
-      </c>
-      <c r="M29" s="95" t="str">
-        <f>IF(_sjgc_day_hour!L24="","",_sjgc_day_hour!L24)</f>
-        <v/>
-      </c>
-      <c r="N29" s="82" t="str">
-        <f>IF(_sjgc_day_hour!M24="","",_sjgc_day_hour!M24)</f>
-        <v/>
-      </c>
-      <c r="O29" s="82" t="str">
-        <f>IF(_sjgc_day_hour!N24="","",_sjgc_day_hour!N24)</f>
-        <v/>
-      </c>
-      <c r="P29" s="82" t="str">
-        <f>IF(_sjgc_day_hour!O24="","",_sjgc_day_hour!O24)</f>
-        <v/>
-      </c>
-      <c r="Q29" s="95" t="str">
-        <f>IF(_sjgc_day_hour!P24="","",_sjgc_day_hour!P24)</f>
-        <v/>
-      </c>
-      <c r="R29" s="95" t="str">
-        <f>IF(_sjgc_day_hour!Q24="","",_sjgc_day_hour!Q24)</f>
-        <v/>
-      </c>
-      <c r="S29" s="82" t="str">
-        <f>IF(_sjgc_day_hour!R24="","",_sjgc_day_hour!R24)</f>
-        <v/>
-      </c>
-      <c r="T29" s="95" t="str">
-        <f>IF(_sjgc_day_hour!S24="","",_sjgc_day_hour!S24)</f>
-        <v/>
-      </c>
-      <c r="U29" s="82" t="str">
-        <f>IF(_sjgc_day_hour!T24="","",_sjgc_day_hour!T24)</f>
-        <v/>
-      </c>
-      <c r="V29" s="105" t="str">
-        <f>IF(_sjgc_day_hour!U24="","",_sjgc_day_hour!U24)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" s="52" customFormat="1" ht="30" customHeight="1" spans="1:22">
-      <c r="A30" s="81">
-        <v>24</v>
-      </c>
-      <c r="B30" s="82" t="str">
-        <f>IF(_sjgc_day_hour!A25="","",_sjgc_day_hour!A25)</f>
-        <v/>
-      </c>
-      <c r="C30" s="82" t="str">
-        <f>IF(_sjgc_day_hour!B25="","",_sjgc_day_hour!B25)</f>
-        <v/>
-      </c>
-      <c r="D30" s="82" t="str">
-        <f>IF(_sjgc_day_hour!C25="","",_sjgc_day_hour!C25)</f>
-        <v/>
-      </c>
-      <c r="E30" s="83" t="str">
-        <f>IF(_sjgc_day_hour!D25="","",_sjgc_day_hour!D25)</f>
-        <v/>
-      </c>
-      <c r="F30" s="82" t="str">
-        <f>IF(_sjgc_day_hour!E25="","",_sjgc_day_hour!E25)</f>
-        <v/>
-      </c>
-      <c r="G30" s="82" t="str">
-        <f>IF(_sjgc_day_hour!F25="","",_sjgc_day_hour!F25)</f>
-        <v/>
-      </c>
-      <c r="H30" s="82" t="str">
-        <f>IF(_sjgc_day_hour!G25="","",_sjgc_day_hour!G25)</f>
-        <v/>
-      </c>
-      <c r="I30" s="82" t="str">
-        <f>IF(_sjgc_day_hour!H25="","",_sjgc_day_hour!H25)</f>
-        <v/>
-      </c>
-      <c r="J30" s="82" t="str">
-        <f>IF(_sjgc_day_hour!I25="","",_sjgc_day_hour!I25)</f>
-        <v/>
-      </c>
-      <c r="K30" s="83" t="str">
-        <f>IF(_sjgc_day_hour!J25="","",_sjgc_day_hour!J25)</f>
-        <v/>
-      </c>
-      <c r="L30" s="82" t="str">
-        <f>IF(_sjgc_day_hour!K25="","",_sjgc_day_hour!K25)</f>
-        <v/>
-      </c>
-      <c r="M30" s="95" t="str">
-        <f>IF(_sjgc_day_hour!L25="","",_sjgc_day_hour!L25)</f>
-        <v/>
-      </c>
-      <c r="N30" s="82" t="str">
-        <f>IF(_sjgc_day_hour!M25="","",_sjgc_day_hour!M25)</f>
-        <v/>
-      </c>
-      <c r="O30" s="82" t="str">
-        <f>IF(_sjgc_day_hour!N25="","",_sjgc_day_hour!N25)</f>
-        <v/>
-      </c>
-      <c r="P30" s="82" t="str">
-        <f>IF(_sjgc_day_hour!O25="","",_sjgc_day_hour!O25)</f>
-        <v/>
-      </c>
-      <c r="Q30" s="95" t="str">
-        <f>IF(_sjgc_day_hour!P25="","",_sjgc_day_hour!P25)</f>
-        <v/>
-      </c>
-      <c r="R30" s="95" t="str">
-        <f>IF(_sjgc_day_hour!Q25="","",_sjgc_day_hour!Q25)</f>
-        <v/>
-      </c>
-      <c r="S30" s="82" t="str">
-        <f>IF(_sjgc_day_hour!R25="","",_sjgc_day_hour!R25)</f>
-        <v/>
-      </c>
-      <c r="T30" s="95" t="str">
-        <f>IF(_sjgc_day_hour!S25="","",_sjgc_day_hour!S25)</f>
-        <v/>
-      </c>
-      <c r="U30" s="82" t="str">
-        <f>IF(_sjgc_day_hour!T25="","",_sjgc_day_hour!T25)</f>
-        <v/>
-      </c>
-      <c r="V30" s="105" t="str">
-        <f>IF(_sjgc_day_hour!U25="","",_sjgc_day_hour!U25)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" s="52" customFormat="1" ht="30" customHeight="1" spans="1:22">
-      <c r="A31" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="B31" s="84"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="84"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="84"/>
-      <c r="K31" s="85"/>
-      <c r="L31" s="84"/>
-      <c r="M31" s="96"/>
-      <c r="N31" s="84"/>
-      <c r="O31" s="84"/>
-      <c r="P31" s="84"/>
-      <c r="Q31" s="96"/>
-      <c r="R31" s="96"/>
-      <c r="S31" s="84"/>
-      <c r="T31" s="96"/>
-      <c r="U31" s="84"/>
-      <c r="V31" s="108"/>
-    </row>
-    <row r="32" s="52" customFormat="1" ht="30" customHeight="1" spans="1:22">
-      <c r="A32" s="81" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" s="84"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="84"/>
-      <c r="K32" s="85"/>
-      <c r="L32" s="84"/>
-      <c r="M32" s="96"/>
-      <c r="N32" s="84"/>
-      <c r="O32" s="84"/>
-      <c r="P32" s="84"/>
-      <c r="Q32" s="96"/>
-      <c r="R32" s="96"/>
-      <c r="S32" s="84"/>
-      <c r="T32" s="96"/>
-      <c r="U32" s="84"/>
-      <c r="V32" s="108"/>
-    </row>
-    <row r="33" s="52" customFormat="1" ht="30" customHeight="1" spans="1:22">
-      <c r="A33" s="81" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" s="84"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="84"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="84"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="84"/>
-      <c r="M33" s="96"/>
-      <c r="N33" s="84"/>
-      <c r="O33" s="84"/>
-      <c r="P33" s="84"/>
-      <c r="Q33" s="96"/>
-      <c r="R33" s="96"/>
-      <c r="S33" s="84"/>
-      <c r="T33" s="96"/>
-      <c r="U33" s="84"/>
-      <c r="V33" s="108"/>
-    </row>
-    <row r="34" s="52" customFormat="1" ht="30" customHeight="1" spans="1:22">
-      <c r="A34" s="81" t="s">
-        <v>161</v>
-      </c>
-      <c r="B34" s="86"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="86"/>
-      <c r="I34" s="86"/>
-      <c r="J34" s="86"/>
-      <c r="K34" s="87"/>
-      <c r="L34" s="86"/>
-      <c r="M34" s="97"/>
-      <c r="N34" s="86"/>
-      <c r="O34" s="86"/>
-      <c r="P34" s="86"/>
-      <c r="Q34" s="97"/>
-      <c r="R34" s="97"/>
-      <c r="S34" s="86"/>
-      <c r="T34" s="97"/>
-      <c r="U34" s="86"/>
-      <c r="V34" s="109"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:V2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="T4:U4"/>
-  </mergeCells>
-  <pageMargins left="0.359027777777778" right="0.275" top="0.826388888888889" bottom="0.729166666666667" header="0.826388888888889" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" scale="51" orientation="landscape" horizontalDpi="180" verticalDpi="180"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11515,67 +8580,67 @@
   <sheetData>
     <row r="1" ht="121.5" spans="1:21">
       <c r="A1" s="44" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E1" s="47" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F1" s="47" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G1" s="48" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H1" s="48" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I1" s="44" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J1" s="46" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K1" s="44" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L1" s="49" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M1" s="44" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N1" s="44" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O1" s="44" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P1" s="49" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q1" s="49" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="R1" s="47" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="S1" s="49" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="T1" s="47" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="U1" s="50" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -11584,7 +8649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AT40"/>
@@ -11617,7 +8682,7 @@
     </row>
     <row r="2" s="4" customFormat="1" ht="35.25" spans="1:43">
       <c r="A2" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -11667,7 +8732,7 @@
     </row>
     <row r="4" s="4" customFormat="1" ht="35.1" customHeight="1" spans="1:44">
       <c r="A4" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B4" s="11" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
@@ -11709,14 +8774,14 @@
       <c r="AJ4" s="31"/>
       <c r="AK4" s="12"/>
       <c r="AL4" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM4" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN4" s="10"/>
       <c r="AO4" s="12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AP4" s="10" t="s">
         <v>5</v>
@@ -11726,10 +8791,10 @@
     </row>
     <row r="5" s="5" customFormat="1" ht="35.1" customHeight="1" spans="1:44">
       <c r="A5" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -11748,7 +8813,7 @@
       <c r="Q5" s="15"/>
       <c r="R5" s="28"/>
       <c r="S5" s="14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="T5" s="15"/>
       <c r="U5" s="15"/>
@@ -11767,7 +8832,7 @@
       <c r="AH5" s="15"/>
       <c r="AI5" s="28"/>
       <c r="AJ5" s="32" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AK5" s="32"/>
       <c r="AL5" s="32"/>
@@ -11781,133 +8846,133 @@
     <row r="6" s="5" customFormat="1" ht="35.1" customHeight="1" spans="1:44">
       <c r="A6" s="16"/>
       <c r="B6" s="17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C6" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="P6" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q6" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="R6" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="S6" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="T6" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="U6" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="V6" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="W6" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="X6" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="Y6" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="Z6" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="AA6" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="AB6" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="AC6" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="N6" s="17" t="s">
+      <c r="AD6" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="O6" s="17" t="s">
+      <c r="AE6" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="P6" s="17" t="s">
+      <c r="AF6" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="Q6" s="17" t="s">
+      <c r="AG6" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="R6" s="17" t="s">
+      <c r="AH6" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="S6" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="T6" s="17" t="s">
+      <c r="AI6" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="AJ6" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="U6" s="17" t="s">
+      <c r="AK6" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL6" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="V6" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="W6" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="X6" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="Y6" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="Z6" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA6" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB6" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="AC6" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="AD6" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="AE6" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="AF6" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="AG6" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="AH6" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="AI6" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="AJ6" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="AK6" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="AL6" s="17" t="s">
-        <v>191</v>
-      </c>
       <c r="AM6" s="17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN6" s="17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO6" s="37" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AP6" s="17" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AQ6" s="17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AR6" s="38" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" s="5" customFormat="1" ht="37.5" customHeight="1" spans="1:46">
@@ -16312,7 +13377,7 @@
     </row>
     <row r="34" s="5" customFormat="1" ht="37.5" customHeight="1" spans="1:44">
       <c r="A34" s="20" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -16436,7 +13501,7 @@
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H38" s="7"/>
     </row>
@@ -16461,4 +13526,2988 @@
   <pageSetup paperSize="9" scale="44" orientation="landscape" verticalDpi="180"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AQ1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" ht="112.5" spans="1:43">
+      <c r="A1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" ht="135" spans="1:10">
+      <c r="A1" s="114" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="D1" s="116" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="116" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="116" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="116" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="116" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="117" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="116" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" ht="135.75" spans="1:12">
+      <c r="A1" s="112" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="112" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="112" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="112" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="112" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="112" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="112" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="112" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="112" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="112" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" s="112" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="113" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:Q1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" ht="90" spans="1:17">
+      <c r="A1" s="110" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="110" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="111"/>
+      <c r="D1" s="110" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="110" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="110" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="110" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="110" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" s="110" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" s="110" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1" s="110" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1" s="110" t="s">
+        <v>120</v>
+      </c>
+      <c r="M1" s="110" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" s="110" t="s">
+        <v>122</v>
+      </c>
+      <c r="O1" s="110" t="s">
+        <v>123</v>
+      </c>
+      <c r="P1" s="110" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q1" s="110" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:X34"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9.125" style="53" customWidth="1"/>
+    <col min="2" max="3" width="17.875" style="54" customWidth="1"/>
+    <col min="4" max="4" width="14.375" style="55" customWidth="1"/>
+    <col min="5" max="5" width="21.125" style="56" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="57" customWidth="1"/>
+    <col min="7" max="7" width="16.875" style="57" customWidth="1"/>
+    <col min="8" max="9" width="16.875" style="58" customWidth="1"/>
+    <col min="10" max="10" width="16.875" style="54" customWidth="1"/>
+    <col min="11" max="11" width="14.375" style="59" customWidth="1"/>
+    <col min="12" max="12" width="14.375" style="54" customWidth="1"/>
+    <col min="13" max="13" width="14.375" style="60" customWidth="1"/>
+    <col min="14" max="14" width="14.375" style="54" customWidth="1"/>
+    <col min="15" max="15" width="17.875" style="54" customWidth="1"/>
+    <col min="16" max="16" width="24" style="54" customWidth="1"/>
+    <col min="17" max="17" width="17.875" style="60" customWidth="1"/>
+    <col min="18" max="18" width="19.625" style="60" customWidth="1"/>
+    <col min="19" max="19" width="19.625" style="57" customWidth="1"/>
+    <col min="20" max="20" width="19.625" style="60" customWidth="1"/>
+    <col min="21" max="21" width="19.625" style="57" customWidth="1"/>
+    <col min="22" max="22" width="19.125" style="53" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="53"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="35.25" spans="1:24">
+      <c r="A2" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="99"/>
+      <c r="X2" s="99"/>
+    </row>
+    <row r="3" ht="15" spans="1:22">
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="89"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="89"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="62"/>
+    </row>
+    <row r="4" ht="30" customHeight="1" spans="1:23">
+      <c r="A4" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="69" t="str">
+        <f>IF(_metadata!B2="","",_metadata!B2)</f>
+        <v/>
+      </c>
+      <c r="C4" s="69"/>
+      <c r="D4" s="70" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="71"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4" s="92"/>
+      <c r="S4" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="T4" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="U4" s="100"/>
+      <c r="V4" s="101"/>
+      <c r="W4" s="102"/>
+    </row>
+    <row r="5" s="51" customFormat="1" ht="33" customHeight="1" spans="1:22">
+      <c r="A5" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="78" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="79" t="s">
+        <v>136</v>
+      </c>
+      <c r="H5" s="80" t="s">
+        <v>137</v>
+      </c>
+      <c r="I5" s="80" t="s">
+        <v>138</v>
+      </c>
+      <c r="J5" s="93" t="s">
+        <v>139</v>
+      </c>
+      <c r="K5" s="77" t="s">
+        <v>140</v>
+      </c>
+      <c r="L5" s="75" t="s">
+        <v>141</v>
+      </c>
+      <c r="M5" s="94" t="s">
+        <v>142</v>
+      </c>
+      <c r="N5" s="75" t="s">
+        <v>143</v>
+      </c>
+      <c r="O5" s="75" t="s">
+        <v>144</v>
+      </c>
+      <c r="P5" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q5" s="94" t="s">
+        <v>146</v>
+      </c>
+      <c r="R5" s="94" t="s">
+        <v>147</v>
+      </c>
+      <c r="S5" s="78" t="s">
+        <v>148</v>
+      </c>
+      <c r="T5" s="94" t="s">
+        <v>149</v>
+      </c>
+      <c r="U5" s="78" t="s">
+        <v>150</v>
+      </c>
+      <c r="V5" s="103" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" s="51" customFormat="1" ht="33" customHeight="1" spans="1:22">
+      <c r="A6" s="74"/>
+      <c r="B6" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="76" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="77" t="s">
+        <v>154</v>
+      </c>
+      <c r="F6" s="78" t="s">
+        <v>155</v>
+      </c>
+      <c r="G6" s="79" t="s">
+        <v>156</v>
+      </c>
+      <c r="H6" s="80" t="s">
+        <v>157</v>
+      </c>
+      <c r="I6" s="80" t="s">
+        <v>156</v>
+      </c>
+      <c r="J6" s="93" t="s">
+        <v>157</v>
+      </c>
+      <c r="K6" s="77" t="s">
+        <v>153</v>
+      </c>
+      <c r="L6" s="75" t="s">
+        <v>156</v>
+      </c>
+      <c r="M6" s="94" t="s">
+        <v>158</v>
+      </c>
+      <c r="N6" s="75" t="s">
+        <v>156</v>
+      </c>
+      <c r="O6" s="75" t="s">
+        <v>159</v>
+      </c>
+      <c r="P6" s="75" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q6" s="94" t="s">
+        <v>159</v>
+      </c>
+      <c r="R6" s="94" t="s">
+        <v>160</v>
+      </c>
+      <c r="S6" s="78" t="s">
+        <v>156</v>
+      </c>
+      <c r="T6" s="94" t="s">
+        <v>160</v>
+      </c>
+      <c r="U6" s="78" t="s">
+        <v>156</v>
+      </c>
+      <c r="V6" s="104" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" s="52" customFormat="1" ht="30" customHeight="1" spans="1:22">
+      <c r="A7" s="81">
+        <v>1</v>
+      </c>
+      <c r="B7" s="82" t="str">
+        <f>IF(_sjgc_day_hour!A2="","",_sjgc_day_hour!A2)</f>
+        <v/>
+      </c>
+      <c r="C7" s="82" t="str">
+        <f>IF(_sjgc_day_hour!B2="","",_sjgc_day_hour!B2)</f>
+        <v/>
+      </c>
+      <c r="D7" s="82" t="str">
+        <f>IF(_sjgc_day_hour!C2="","",_sjgc_day_hour!C2)</f>
+        <v/>
+      </c>
+      <c r="E7" s="83" t="str">
+        <f>IF(_sjgc_day_hour!D2="","",_sjgc_day_hour!D2)</f>
+        <v/>
+      </c>
+      <c r="F7" s="82" t="str">
+        <f>IF(_sjgc_day_hour!E2="","",_sjgc_day_hour!E2)</f>
+        <v/>
+      </c>
+      <c r="G7" s="82" t="str">
+        <f>IF(_sjgc_day_hour!F2="","",_sjgc_day_hour!F2)</f>
+        <v/>
+      </c>
+      <c r="H7" s="82" t="str">
+        <f>IF(_sjgc_day_hour!G2="","",_sjgc_day_hour!G2)</f>
+        <v/>
+      </c>
+      <c r="I7" s="82" t="str">
+        <f>IF(_sjgc_day_hour!H2="","",_sjgc_day_hour!H2)</f>
+        <v/>
+      </c>
+      <c r="J7" s="82" t="str">
+        <f>IF(_sjgc_day_hour!I2="","",_sjgc_day_hour!I2)</f>
+        <v/>
+      </c>
+      <c r="K7" s="83" t="str">
+        <f>IF(_sjgc_day_hour!J2="","",_sjgc_day_hour!J2)</f>
+        <v/>
+      </c>
+      <c r="L7" s="82" t="str">
+        <f>IF(_sjgc_day_hour!K2="","",_sjgc_day_hour!K2)</f>
+        <v/>
+      </c>
+      <c r="M7" s="95" t="str">
+        <f>IF(_sjgc_day_hour!L2="","",_sjgc_day_hour!L2)</f>
+        <v/>
+      </c>
+      <c r="N7" s="82" t="str">
+        <f>IF(_sjgc_day_hour!M2="","",_sjgc_day_hour!M2)</f>
+        <v/>
+      </c>
+      <c r="O7" s="82" t="str">
+        <f>IF(_sjgc_day_hour!N2="","",_sjgc_day_hour!N2)</f>
+        <v/>
+      </c>
+      <c r="P7" s="82" t="str">
+        <f>IF(_sjgc_day_hour!O2="","",_sjgc_day_hour!O2)</f>
+        <v/>
+      </c>
+      <c r="Q7" s="95" t="str">
+        <f>IF(_sjgc_day_hour!P2="","",_sjgc_day_hour!P2)</f>
+        <v/>
+      </c>
+      <c r="R7" s="95" t="str">
+        <f>IF(_sjgc_day_hour!Q2="","",_sjgc_day_hour!Q2)</f>
+        <v/>
+      </c>
+      <c r="S7" s="82" t="str">
+        <f>IF(_sjgc_day_hour!R2="","",_sjgc_day_hour!R2)</f>
+        <v/>
+      </c>
+      <c r="T7" s="95" t="str">
+        <f>IF(_sjgc_day_hour!S2="","",_sjgc_day_hour!S2)</f>
+        <v/>
+      </c>
+      <c r="U7" s="82" t="str">
+        <f>IF(_sjgc_day_hour!T2="","",_sjgc_day_hour!T2)</f>
+        <v/>
+      </c>
+      <c r="V7" s="105" t="str">
+        <f>IF(_sjgc_day_hour!U2="","",_sjgc_day_hour!U2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" s="52" customFormat="1" ht="30" customHeight="1" spans="1:22">
+      <c r="A8" s="81">
+        <v>2</v>
+      </c>
+      <c r="B8" s="82" t="str">
+        <f>IF(_sjgc_day_hour!A3="","",_sjgc_day_hour!A3)</f>
+        <v/>
+      </c>
+      <c r="C8" s="82" t="str">
+        <f>IF(_sjgc_day_hour!B3="","",_sjgc_day_hour!B3)</f>
+        <v/>
+      </c>
+      <c r="D8" s="82" t="str">
+        <f>IF(_sjgc_day_hour!C3="","",_sjgc_day_hour!C3)</f>
+        <v/>
+      </c>
+      <c r="E8" s="83" t="str">
+        <f>IF(_sjgc_day_hour!D3="","",_sjgc_day_hour!D3)</f>
+        <v/>
+      </c>
+      <c r="F8" s="82" t="str">
+        <f>IF(_sjgc_day_hour!E3="","",_sjgc_day_hour!E3)</f>
+        <v/>
+      </c>
+      <c r="G8" s="82" t="str">
+        <f>IF(_sjgc_day_hour!F3="","",_sjgc_day_hour!F3)</f>
+        <v/>
+      </c>
+      <c r="H8" s="82" t="str">
+        <f>IF(_sjgc_day_hour!G3="","",_sjgc_day_hour!G3)</f>
+        <v/>
+      </c>
+      <c r="I8" s="82" t="str">
+        <f>IF(_sjgc_day_hour!H3="","",_sjgc_day_hour!H3)</f>
+        <v/>
+      </c>
+      <c r="J8" s="82" t="str">
+        <f>IF(_sjgc_day_hour!I3="","",_sjgc_day_hour!I3)</f>
+        <v/>
+      </c>
+      <c r="K8" s="83" t="str">
+        <f>IF(_sjgc_day_hour!J3="","",_sjgc_day_hour!J3)</f>
+        <v/>
+      </c>
+      <c r="L8" s="82" t="str">
+        <f>IF(_sjgc_day_hour!K3="","",_sjgc_day_hour!K3)</f>
+        <v/>
+      </c>
+      <c r="M8" s="95" t="str">
+        <f>IF(_sjgc_day_hour!L3="","",_sjgc_day_hour!L3)</f>
+        <v/>
+      </c>
+      <c r="N8" s="82" t="str">
+        <f>IF(_sjgc_day_hour!M3="","",_sjgc_day_hour!M3)</f>
+        <v/>
+      </c>
+      <c r="O8" s="82" t="str">
+        <f>IF(_sjgc_day_hour!N3="","",_sjgc_day_hour!N3)</f>
+        <v/>
+      </c>
+      <c r="P8" s="82" t="str">
+        <f>IF(_sjgc_day_hour!O3="","",_sjgc_day_hour!O3)</f>
+        <v/>
+      </c>
+      <c r="Q8" s="95" t="str">
+        <f>IF(_sjgc_day_hour!P3="","",_sjgc_day_hour!P3)</f>
+        <v/>
+      </c>
+      <c r="R8" s="95" t="str">
+        <f>IF(_sjgc_day_hour!Q3="","",_sjgc_day_hour!Q3)</f>
+        <v/>
+      </c>
+      <c r="S8" s="82" t="str">
+        <f>IF(_sjgc_day_hour!R3="","",_sjgc_day_hour!R3)</f>
+        <v/>
+      </c>
+      <c r="T8" s="95" t="str">
+        <f>IF(_sjgc_day_hour!S3="","",_sjgc_day_hour!S3)</f>
+        <v/>
+      </c>
+      <c r="U8" s="82" t="str">
+        <f>IF(_sjgc_day_hour!T3="","",_sjgc_day_hour!T3)</f>
+        <v/>
+      </c>
+      <c r="V8" s="105" t="str">
+        <f>IF(_sjgc_day_hour!U3="","",_sjgc_day_hour!U3)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" s="52" customFormat="1" ht="30" customHeight="1" spans="1:24">
+      <c r="A9" s="81">
+        <v>3</v>
+      </c>
+      <c r="B9" s="82" t="str">
+        <f>IF(_sjgc_day_hour!A4="","",_sjgc_day_hour!A4)</f>
+        <v/>
+      </c>
+      <c r="C9" s="82" t="str">
+        <f>IF(_sjgc_day_hour!B4="","",_sjgc_day_hour!B4)</f>
+        <v/>
+      </c>
+      <c r="D9" s="82" t="str">
+        <f>IF(_sjgc_day_hour!C4="","",_sjgc_day_hour!C4)</f>
+        <v/>
+      </c>
+      <c r="E9" s="83" t="str">
+        <f>IF(_sjgc_day_hour!D4="","",_sjgc_day_hour!D4)</f>
+        <v/>
+      </c>
+      <c r="F9" s="82" t="str">
+        <f>IF(_sjgc_day_hour!E4="","",_sjgc_day_hour!E4)</f>
+        <v/>
+      </c>
+      <c r="G9" s="82" t="str">
+        <f>IF(_sjgc_day_hour!F4="","",_sjgc_day_hour!F4)</f>
+        <v/>
+      </c>
+      <c r="H9" s="82" t="str">
+        <f>IF(_sjgc_day_hour!G4="","",_sjgc_day_hour!G4)</f>
+        <v/>
+      </c>
+      <c r="I9" s="82" t="str">
+        <f>IF(_sjgc_day_hour!H4="","",_sjgc_day_hour!H4)</f>
+        <v/>
+      </c>
+      <c r="J9" s="82" t="str">
+        <f>IF(_sjgc_day_hour!I4="","",_sjgc_day_hour!I4)</f>
+        <v/>
+      </c>
+      <c r="K9" s="83" t="str">
+        <f>IF(_sjgc_day_hour!J4="","",_sjgc_day_hour!J4)</f>
+        <v/>
+      </c>
+      <c r="L9" s="82" t="str">
+        <f>IF(_sjgc_day_hour!K4="","",_sjgc_day_hour!K4)</f>
+        <v/>
+      </c>
+      <c r="M9" s="95" t="str">
+        <f>IF(_sjgc_day_hour!L4="","",_sjgc_day_hour!L4)</f>
+        <v/>
+      </c>
+      <c r="N9" s="82" t="str">
+        <f>IF(_sjgc_day_hour!M4="","",_sjgc_day_hour!M4)</f>
+        <v/>
+      </c>
+      <c r="O9" s="82" t="str">
+        <f>IF(_sjgc_day_hour!N4="","",_sjgc_day_hour!N4)</f>
+        <v/>
+      </c>
+      <c r="P9" s="82" t="str">
+        <f>IF(_sjgc_day_hour!O4="","",_sjgc_day_hour!O4)</f>
+        <v/>
+      </c>
+      <c r="Q9" s="95" t="str">
+        <f>IF(_sjgc_day_hour!P4="","",_sjgc_day_hour!P4)</f>
+        <v/>
+      </c>
+      <c r="R9" s="95" t="str">
+        <f>IF(_sjgc_day_hour!Q4="","",_sjgc_day_hour!Q4)</f>
+        <v/>
+      </c>
+      <c r="S9" s="82" t="str">
+        <f>IF(_sjgc_day_hour!R4="","",_sjgc_day_hour!R4)</f>
+        <v/>
+      </c>
+      <c r="T9" s="95" t="str">
+        <f>IF(_sjgc_day_hour!S4="","",_sjgc_day_hour!S4)</f>
+        <v/>
+      </c>
+      <c r="U9" s="82" t="str">
+        <f>IF(_sjgc_day_hour!T4="","",_sjgc_day_hour!T4)</f>
+        <v/>
+      </c>
+      <c r="V9" s="105" t="str">
+        <f>IF(_sjgc_day_hour!U4="","",_sjgc_day_hour!U4)</f>
+        <v/>
+      </c>
+      <c r="X9" s="106"/>
+    </row>
+    <row r="10" s="52" customFormat="1" ht="30" customHeight="1" spans="1:24">
+      <c r="A10" s="81">
+        <v>4</v>
+      </c>
+      <c r="B10" s="82" t="str">
+        <f>IF(_sjgc_day_hour!A5="","",_sjgc_day_hour!A5)</f>
+        <v/>
+      </c>
+      <c r="C10" s="82" t="str">
+        <f>IF(_sjgc_day_hour!B5="","",_sjgc_day_hour!B5)</f>
+        <v/>
+      </c>
+      <c r="D10" s="82" t="str">
+        <f>IF(_sjgc_day_hour!C5="","",_sjgc_day_hour!C5)</f>
+        <v/>
+      </c>
+      <c r="E10" s="83" t="str">
+        <f>IF(_sjgc_day_hour!D5="","",_sjgc_day_hour!D5)</f>
+        <v/>
+      </c>
+      <c r="F10" s="82" t="str">
+        <f>IF(_sjgc_day_hour!E5="","",_sjgc_day_hour!E5)</f>
+        <v/>
+      </c>
+      <c r="G10" s="82" t="str">
+        <f>IF(_sjgc_day_hour!F5="","",_sjgc_day_hour!F5)</f>
+        <v/>
+      </c>
+      <c r="H10" s="82" t="str">
+        <f>IF(_sjgc_day_hour!G5="","",_sjgc_day_hour!G5)</f>
+        <v/>
+      </c>
+      <c r="I10" s="82" t="str">
+        <f>IF(_sjgc_day_hour!H5="","",_sjgc_day_hour!H5)</f>
+        <v/>
+      </c>
+      <c r="J10" s="82" t="str">
+        <f>IF(_sjgc_day_hour!I5="","",_sjgc_day_hour!I5)</f>
+        <v/>
+      </c>
+      <c r="K10" s="83" t="str">
+        <f>IF(_sjgc_day_hour!J5="","",_sjgc_day_hour!J5)</f>
+        <v/>
+      </c>
+      <c r="L10" s="82" t="str">
+        <f>IF(_sjgc_day_hour!K5="","",_sjgc_day_hour!K5)</f>
+        <v/>
+      </c>
+      <c r="M10" s="95" t="str">
+        <f>IF(_sjgc_day_hour!L5="","",_sjgc_day_hour!L5)</f>
+        <v/>
+      </c>
+      <c r="N10" s="82" t="str">
+        <f>IF(_sjgc_day_hour!M5="","",_sjgc_day_hour!M5)</f>
+        <v/>
+      </c>
+      <c r="O10" s="82" t="str">
+        <f>IF(_sjgc_day_hour!N5="","",_sjgc_day_hour!N5)</f>
+        <v/>
+      </c>
+      <c r="P10" s="82" t="str">
+        <f>IF(_sjgc_day_hour!O5="","",_sjgc_day_hour!O5)</f>
+        <v/>
+      </c>
+      <c r="Q10" s="95" t="str">
+        <f>IF(_sjgc_day_hour!P5="","",_sjgc_day_hour!P5)</f>
+        <v/>
+      </c>
+      <c r="R10" s="95" t="str">
+        <f>IF(_sjgc_day_hour!Q5="","",_sjgc_day_hour!Q5)</f>
+        <v/>
+      </c>
+      <c r="S10" s="82" t="str">
+        <f>IF(_sjgc_day_hour!R5="","",_sjgc_day_hour!R5)</f>
+        <v/>
+      </c>
+      <c r="T10" s="95" t="str">
+        <f>IF(_sjgc_day_hour!S5="","",_sjgc_day_hour!S5)</f>
+        <v/>
+      </c>
+      <c r="U10" s="82" t="str">
+        <f>IF(_sjgc_day_hour!T5="","",_sjgc_day_hour!T5)</f>
+        <v/>
+      </c>
+      <c r="V10" s="105" t="str">
+        <f>IF(_sjgc_day_hour!U5="","",_sjgc_day_hour!U5)</f>
+        <v/>
+      </c>
+      <c r="X10" s="106"/>
+    </row>
+    <row r="11" s="52" customFormat="1" ht="30" customHeight="1" spans="1:22">
+      <c r="A11" s="81">
+        <v>5</v>
+      </c>
+      <c r="B11" s="82" t="str">
+        <f>IF(_sjgc_day_hour!A6="","",_sjgc_day_hour!A6)</f>
+        <v/>
+      </c>
+      <c r="C11" s="82" t="str">
+        <f>IF(_sjgc_day_hour!B6="","",_sjgc_day_hour!B6)</f>
+        <v/>
+      </c>
+      <c r="D11" s="82" t="str">
+        <f>IF(_sjgc_day_hour!C6="","",_sjgc_day_hour!C6)</f>
+        <v/>
+      </c>
+      <c r="E11" s="83" t="str">
+        <f>IF(_sjgc_day_hour!D6="","",_sjgc_day_hour!D6)</f>
+        <v/>
+      </c>
+      <c r="F11" s="82" t="str">
+        <f>IF(_sjgc_day_hour!E6="","",_sjgc_day_hour!E6)</f>
+        <v/>
+      </c>
+      <c r="G11" s="82" t="str">
+        <f>IF(_sjgc_day_hour!F6="","",_sjgc_day_hour!F6)</f>
+        <v/>
+      </c>
+      <c r="H11" s="82" t="str">
+        <f>IF(_sjgc_day_hour!G6="","",_sjgc_day_hour!G6)</f>
+        <v/>
+      </c>
+      <c r="I11" s="82" t="str">
+        <f>IF(_sjgc_day_hour!H6="","",_sjgc_day_hour!H6)</f>
+        <v/>
+      </c>
+      <c r="J11" s="82" t="str">
+        <f>IF(_sjgc_day_hour!I6="","",_sjgc_day_hour!I6)</f>
+        <v/>
+      </c>
+      <c r="K11" s="83" t="str">
+        <f>IF(_sjgc_day_hour!J6="","",_sjgc_day_hour!J6)</f>
+        <v/>
+      </c>
+      <c r="L11" s="82" t="str">
+        <f>IF(_sjgc_day_hour!K6="","",_sjgc_day_hour!K6)</f>
+        <v/>
+      </c>
+      <c r="M11" s="95" t="str">
+        <f>IF(_sjgc_day_hour!L6="","",_sjgc_day_hour!L6)</f>
+        <v/>
+      </c>
+      <c r="N11" s="82" t="str">
+        <f>IF(_sjgc_day_hour!M6="","",_sjgc_day_hour!M6)</f>
+        <v/>
+      </c>
+      <c r="O11" s="82" t="str">
+        <f>IF(_sjgc_day_hour!N6="","",_sjgc_day_hour!N6)</f>
+        <v/>
+      </c>
+      <c r="P11" s="82" t="str">
+        <f>IF(_sjgc_day_hour!O6="","",_sjgc_day_hour!O6)</f>
+        <v/>
+      </c>
+      <c r="Q11" s="95" t="str">
+        <f>IF(_sjgc_day_hour!P6="","",_sjgc_day_hour!P6)</f>
+        <v/>
+      </c>
+      <c r="R11" s="95" t="str">
+        <f>IF(_sjgc_day_hour!Q6="","",_sjgc_day_hour!Q6)</f>
+        <v/>
+      </c>
+      <c r="S11" s="82" t="str">
+        <f>IF(_sjgc_day_hour!R6="","",_sjgc_day_hour!R6)</f>
+        <v/>
+      </c>
+      <c r="T11" s="95" t="str">
+        <f>IF(_sjgc_day_hour!S6="","",_sjgc_day_hour!S6)</f>
+        <v/>
+      </c>
+      <c r="U11" s="82" t="str">
+        <f>IF(_sjgc_day_hour!T6="","",_sjgc_day_hour!T6)</f>
+        <v/>
+      </c>
+      <c r="V11" s="105" t="str">
+        <f>IF(_sjgc_day_hour!U6="","",_sjgc_day_hour!U6)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" s="52" customFormat="1" ht="30" customHeight="1" spans="1:22">
+      <c r="A12" s="81">
+        <v>6</v>
+      </c>
+      <c r="B12" s="82" t="str">
+        <f>IF(_sjgc_day_hour!A7="","",_sjgc_day_hour!A7)</f>
+        <v/>
+      </c>
+      <c r="C12" s="82" t="str">
+        <f>IF(_sjgc_day_hour!B7="","",_sjgc_day_hour!B7)</f>
+        <v/>
+      </c>
+      <c r="D12" s="82" t="str">
+        <f>IF(_sjgc_day_hour!C7="","",_sjgc_day_hour!C7)</f>
+        <v/>
+      </c>
+      <c r="E12" s="83" t="str">
+        <f>IF(_sjgc_day_hour!D7="","",_sjgc_day_hour!D7)</f>
+        <v/>
+      </c>
+      <c r="F12" s="82" t="str">
+        <f>IF(_sjgc_day_hour!E7="","",_sjgc_day_hour!E7)</f>
+        <v/>
+      </c>
+      <c r="G12" s="82" t="str">
+        <f>IF(_sjgc_day_hour!F7="","",_sjgc_day_hour!F7)</f>
+        <v/>
+      </c>
+      <c r="H12" s="82" t="str">
+        <f>IF(_sjgc_day_hour!G7="","",_sjgc_day_hour!G7)</f>
+        <v/>
+      </c>
+      <c r="I12" s="82" t="str">
+        <f>IF(_sjgc_day_hour!H7="","",_sjgc_day_hour!H7)</f>
+        <v/>
+      </c>
+      <c r="J12" s="82" t="str">
+        <f>IF(_sjgc_day_hour!I7="","",_sjgc_day_hour!I7)</f>
+        <v/>
+      </c>
+      <c r="K12" s="83" t="str">
+        <f>IF(_sjgc_day_hour!J7="","",_sjgc_day_hour!J7)</f>
+        <v/>
+      </c>
+      <c r="L12" s="82" t="str">
+        <f>IF(_sjgc_day_hour!K7="","",_sjgc_day_hour!K7)</f>
+        <v/>
+      </c>
+      <c r="M12" s="95" t="str">
+        <f>IF(_sjgc_day_hour!L7="","",_sjgc_day_hour!L7)</f>
+        <v/>
+      </c>
+      <c r="N12" s="82" t="str">
+        <f>IF(_sjgc_day_hour!M7="","",_sjgc_day_hour!M7)</f>
+        <v/>
+      </c>
+      <c r="O12" s="82" t="str">
+        <f>IF(_sjgc_day_hour!N7="","",_sjgc_day_hour!N7)</f>
+        <v/>
+      </c>
+      <c r="P12" s="82" t="str">
+        <f>IF(_sjgc_day_hour!O7="","",_sjgc_day_hour!O7)</f>
+        <v/>
+      </c>
+      <c r="Q12" s="95" t="str">
+        <f>IF(_sjgc_day_hour!P7="","",_sjgc_day_hour!P7)</f>
+        <v/>
+      </c>
+      <c r="R12" s="95" t="str">
+        <f>IF(_sjgc_day_hour!Q7="","",_sjgc_day_hour!Q7)</f>
+        <v/>
+      </c>
+      <c r="S12" s="82" t="str">
+        <f>IF(_sjgc_day_hour!R7="","",_sjgc_day_hour!R7)</f>
+        <v/>
+      </c>
+      <c r="T12" s="95" t="str">
+        <f>IF(_sjgc_day_hour!S7="","",_sjgc_day_hour!S7)</f>
+        <v/>
+      </c>
+      <c r="U12" s="82" t="str">
+        <f>IF(_sjgc_day_hour!T7="","",_sjgc_day_hour!T7)</f>
+        <v/>
+      </c>
+      <c r="V12" s="105" t="str">
+        <f>IF(_sjgc_day_hour!U7="","",_sjgc_day_hour!U7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" s="52" customFormat="1" ht="27.75" customHeight="1" spans="1:23">
+      <c r="A13" s="81">
+        <v>7</v>
+      </c>
+      <c r="B13" s="82" t="str">
+        <f>IF(_sjgc_day_hour!A8="","",_sjgc_day_hour!A8)</f>
+        <v/>
+      </c>
+      <c r="C13" s="82" t="str">
+        <f>IF(_sjgc_day_hour!B8="","",_sjgc_day_hour!B8)</f>
+        <v/>
+      </c>
+      <c r="D13" s="82" t="str">
+        <f>IF(_sjgc_day_hour!C8="","",_sjgc_day_hour!C8)</f>
+        <v/>
+      </c>
+      <c r="E13" s="83" t="str">
+        <f>IF(_sjgc_day_hour!D8="","",_sjgc_day_hour!D8)</f>
+        <v/>
+      </c>
+      <c r="F13" s="82" t="str">
+        <f>IF(_sjgc_day_hour!E8="","",_sjgc_day_hour!E8)</f>
+        <v/>
+      </c>
+      <c r="G13" s="82" t="str">
+        <f>IF(_sjgc_day_hour!F8="","",_sjgc_day_hour!F8)</f>
+        <v/>
+      </c>
+      <c r="H13" s="82" t="str">
+        <f>IF(_sjgc_day_hour!G8="","",_sjgc_day_hour!G8)</f>
+        <v/>
+      </c>
+      <c r="I13" s="82" t="str">
+        <f>IF(_sjgc_day_hour!H8="","",_sjgc_day_hour!H8)</f>
+        <v/>
+      </c>
+      <c r="J13" s="82" t="str">
+        <f>IF(_sjgc_day_hour!I8="","",_sjgc_day_hour!I8)</f>
+        <v/>
+      </c>
+      <c r="K13" s="83" t="str">
+        <f>IF(_sjgc_day_hour!J8="","",_sjgc_day_hour!J8)</f>
+        <v/>
+      </c>
+      <c r="L13" s="82" t="str">
+        <f>IF(_sjgc_day_hour!K8="","",_sjgc_day_hour!K8)</f>
+        <v/>
+      </c>
+      <c r="M13" s="95" t="str">
+        <f>IF(_sjgc_day_hour!L8="","",_sjgc_day_hour!L8)</f>
+        <v/>
+      </c>
+      <c r="N13" s="82" t="str">
+        <f>IF(_sjgc_day_hour!M8="","",_sjgc_day_hour!M8)</f>
+        <v/>
+      </c>
+      <c r="O13" s="82" t="str">
+        <f>IF(_sjgc_day_hour!N8="","",_sjgc_day_hour!N8)</f>
+        <v/>
+      </c>
+      <c r="P13" s="82" t="str">
+        <f>IF(_sjgc_day_hour!O8="","",_sjgc_day_hour!O8)</f>
+        <v/>
+      </c>
+      <c r="Q13" s="95" t="str">
+        <f>IF(_sjgc_day_hour!P8="","",_sjgc_day_hour!P8)</f>
+        <v/>
+      </c>
+      <c r="R13" s="95" t="str">
+        <f>IF(_sjgc_day_hour!Q8="","",_sjgc_day_hour!Q8)</f>
+        <v/>
+      </c>
+      <c r="S13" s="82" t="str">
+        <f>IF(_sjgc_day_hour!R8="","",_sjgc_day_hour!R8)</f>
+        <v/>
+      </c>
+      <c r="T13" s="95" t="str">
+        <f>IF(_sjgc_day_hour!S8="","",_sjgc_day_hour!S8)</f>
+        <v/>
+      </c>
+      <c r="U13" s="82" t="str">
+        <f>IF(_sjgc_day_hour!T8="","",_sjgc_day_hour!T8)</f>
+        <v/>
+      </c>
+      <c r="V13" s="105" t="str">
+        <f>IF(_sjgc_day_hour!U8="","",_sjgc_day_hour!U8)</f>
+        <v/>
+      </c>
+      <c r="W13" s="107"/>
+    </row>
+    <row r="14" s="52" customFormat="1" ht="30" customHeight="1" spans="1:23">
+      <c r="A14" s="81">
+        <v>8</v>
+      </c>
+      <c r="B14" s="82" t="str">
+        <f>IF(_sjgc_day_hour!A9="","",_sjgc_day_hour!A9)</f>
+        <v/>
+      </c>
+      <c r="C14" s="82" t="str">
+        <f>IF(_sjgc_day_hour!B9="","",_sjgc_day_hour!B9)</f>
+        <v/>
+      </c>
+      <c r="D14" s="82" t="str">
+        <f>IF(_sjgc_day_hour!C9="","",_sjgc_day_hour!C9)</f>
+        <v/>
+      </c>
+      <c r="E14" s="83" t="str">
+        <f>IF(_sjgc_day_hour!D9="","",_sjgc_day_hour!D9)</f>
+        <v/>
+      </c>
+      <c r="F14" s="82" t="str">
+        <f>IF(_sjgc_day_hour!E9="","",_sjgc_day_hour!E9)</f>
+        <v/>
+      </c>
+      <c r="G14" s="82" t="str">
+        <f>IF(_sjgc_day_hour!F9="","",_sjgc_day_hour!F9)</f>
+        <v/>
+      </c>
+      <c r="H14" s="82" t="str">
+        <f>IF(_sjgc_day_hour!G9="","",_sjgc_day_hour!G9)</f>
+        <v/>
+      </c>
+      <c r="I14" s="82" t="str">
+        <f>IF(_sjgc_day_hour!H9="","",_sjgc_day_hour!H9)</f>
+        <v/>
+      </c>
+      <c r="J14" s="82" t="str">
+        <f>IF(_sjgc_day_hour!I9="","",_sjgc_day_hour!I9)</f>
+        <v/>
+      </c>
+      <c r="K14" s="83" t="str">
+        <f>IF(_sjgc_day_hour!J9="","",_sjgc_day_hour!J9)</f>
+        <v/>
+      </c>
+      <c r="L14" s="82" t="str">
+        <f>IF(_sjgc_day_hour!K9="","",_sjgc_day_hour!K9)</f>
+        <v/>
+      </c>
+      <c r="M14" s="95" t="str">
+        <f>IF(_sjgc_day_hour!L9="","",_sjgc_day_hour!L9)</f>
+        <v/>
+      </c>
+      <c r="N14" s="82" t="str">
+        <f>IF(_sjgc_day_hour!M9="","",_sjgc_day_hour!M9)</f>
+        <v/>
+      </c>
+      <c r="O14" s="82" t="str">
+        <f>IF(_sjgc_day_hour!N9="","",_sjgc_day_hour!N9)</f>
+        <v/>
+      </c>
+      <c r="P14" s="82" t="str">
+        <f>IF(_sjgc_day_hour!O9="","",_sjgc_day_hour!O9)</f>
+        <v/>
+      </c>
+      <c r="Q14" s="95" t="str">
+        <f>IF(_sjgc_day_hour!P9="","",_sjgc_day_hour!P9)</f>
+        <v/>
+      </c>
+      <c r="R14" s="95" t="str">
+        <f>IF(_sjgc_day_hour!Q9="","",_sjgc_day_hour!Q9)</f>
+        <v/>
+      </c>
+      <c r="S14" s="82" t="str">
+        <f>IF(_sjgc_day_hour!R9="","",_sjgc_day_hour!R9)</f>
+        <v/>
+      </c>
+      <c r="T14" s="95" t="str">
+        <f>IF(_sjgc_day_hour!S9="","",_sjgc_day_hour!S9)</f>
+        <v/>
+      </c>
+      <c r="U14" s="82" t="str">
+        <f>IF(_sjgc_day_hour!T9="","",_sjgc_day_hour!T9)</f>
+        <v/>
+      </c>
+      <c r="V14" s="105" t="str">
+        <f>IF(_sjgc_day_hour!U9="","",_sjgc_day_hour!U9)</f>
+        <v/>
+      </c>
+      <c r="W14" s="107"/>
+    </row>
+    <row r="15" s="52" customFormat="1" ht="30" customHeight="1" spans="1:23">
+      <c r="A15" s="81">
+        <v>9</v>
+      </c>
+      <c r="B15" s="82" t="str">
+        <f>IF(_sjgc_day_hour!A10="","",_sjgc_day_hour!A10)</f>
+        <v/>
+      </c>
+      <c r="C15" s="82" t="str">
+        <f>IF(_sjgc_day_hour!B10="","",_sjgc_day_hour!B10)</f>
+        <v/>
+      </c>
+      <c r="D15" s="82" t="str">
+        <f>IF(_sjgc_day_hour!C10="","",_sjgc_day_hour!C10)</f>
+        <v/>
+      </c>
+      <c r="E15" s="83" t="str">
+        <f>IF(_sjgc_day_hour!D10="","",_sjgc_day_hour!D10)</f>
+        <v/>
+      </c>
+      <c r="F15" s="82" t="str">
+        <f>IF(_sjgc_day_hour!E10="","",_sjgc_day_hour!E10)</f>
+        <v/>
+      </c>
+      <c r="G15" s="82" t="str">
+        <f>IF(_sjgc_day_hour!F10="","",_sjgc_day_hour!F10)</f>
+        <v/>
+      </c>
+      <c r="H15" s="82" t="str">
+        <f>IF(_sjgc_day_hour!G10="","",_sjgc_day_hour!G10)</f>
+        <v/>
+      </c>
+      <c r="I15" s="82" t="str">
+        <f>IF(_sjgc_day_hour!H10="","",_sjgc_day_hour!H10)</f>
+        <v/>
+      </c>
+      <c r="J15" s="82" t="str">
+        <f>IF(_sjgc_day_hour!I10="","",_sjgc_day_hour!I10)</f>
+        <v/>
+      </c>
+      <c r="K15" s="83" t="str">
+        <f>IF(_sjgc_day_hour!J10="","",_sjgc_day_hour!J10)</f>
+        <v/>
+      </c>
+      <c r="L15" s="82" t="str">
+        <f>IF(_sjgc_day_hour!K10="","",_sjgc_day_hour!K10)</f>
+        <v/>
+      </c>
+      <c r="M15" s="95" t="str">
+        <f>IF(_sjgc_day_hour!L10="","",_sjgc_day_hour!L10)</f>
+        <v/>
+      </c>
+      <c r="N15" s="82" t="str">
+        <f>IF(_sjgc_day_hour!M10="","",_sjgc_day_hour!M10)</f>
+        <v/>
+      </c>
+      <c r="O15" s="82" t="str">
+        <f>IF(_sjgc_day_hour!N10="","",_sjgc_day_hour!N10)</f>
+        <v/>
+      </c>
+      <c r="P15" s="82" t="str">
+        <f>IF(_sjgc_day_hour!O10="","",_sjgc_day_hour!O10)</f>
+        <v/>
+      </c>
+      <c r="Q15" s="95" t="str">
+        <f>IF(_sjgc_day_hour!P10="","",_sjgc_day_hour!P10)</f>
+        <v/>
+      </c>
+      <c r="R15" s="95" t="str">
+        <f>IF(_sjgc_day_hour!Q10="","",_sjgc_day_hour!Q10)</f>
+        <v/>
+      </c>
+      <c r="S15" s="82" t="str">
+        <f>IF(_sjgc_day_hour!R10="","",_sjgc_day_hour!R10)</f>
+        <v/>
+      </c>
+      <c r="T15" s="95" t="str">
+        <f>IF(_sjgc_day_hour!S10="","",_sjgc_day_hour!S10)</f>
+        <v/>
+      </c>
+      <c r="U15" s="82" t="str">
+        <f>IF(_sjgc_day_hour!T10="","",_sjgc_day_hour!T10)</f>
+        <v/>
+      </c>
+      <c r="V15" s="105" t="str">
+        <f>IF(_sjgc_day_hour!U10="","",_sjgc_day_hour!U10)</f>
+        <v/>
+      </c>
+      <c r="W15" s="107"/>
+    </row>
+    <row r="16" s="52" customFormat="1" ht="30" customHeight="1" spans="1:22">
+      <c r="A16" s="81">
+        <v>10</v>
+      </c>
+      <c r="B16" s="82" t="str">
+        <f>IF(_sjgc_day_hour!A11="","",_sjgc_day_hour!A11)</f>
+        <v/>
+      </c>
+      <c r="C16" s="82" t="str">
+        <f>IF(_sjgc_day_hour!B11="","",_sjgc_day_hour!B11)</f>
+        <v/>
+      </c>
+      <c r="D16" s="82" t="str">
+        <f>IF(_sjgc_day_hour!C11="","",_sjgc_day_hour!C11)</f>
+        <v/>
+      </c>
+      <c r="E16" s="83" t="str">
+        <f>IF(_sjgc_day_hour!D11="","",_sjgc_day_hour!D11)</f>
+        <v/>
+      </c>
+      <c r="F16" s="82" t="str">
+        <f>IF(_sjgc_day_hour!E11="","",_sjgc_day_hour!E11)</f>
+        <v/>
+      </c>
+      <c r="G16" s="82" t="str">
+        <f>IF(_sjgc_day_hour!F11="","",_sjgc_day_hour!F11)</f>
+        <v/>
+      </c>
+      <c r="H16" s="82" t="str">
+        <f>IF(_sjgc_day_hour!G11="","",_sjgc_day_hour!G11)</f>
+        <v/>
+      </c>
+      <c r="I16" s="82" t="str">
+        <f>IF(_sjgc_day_hour!H11="","",_sjgc_day_hour!H11)</f>
+        <v/>
+      </c>
+      <c r="J16" s="82" t="str">
+        <f>IF(_sjgc_day_hour!I11="","",_sjgc_day_hour!I11)</f>
+        <v/>
+      </c>
+      <c r="K16" s="83" t="str">
+        <f>IF(_sjgc_day_hour!J11="","",_sjgc_day_hour!J11)</f>
+        <v/>
+      </c>
+      <c r="L16" s="82" t="str">
+        <f>IF(_sjgc_day_hour!K11="","",_sjgc_day_hour!K11)</f>
+        <v/>
+      </c>
+      <c r="M16" s="95" t="str">
+        <f>IF(_sjgc_day_hour!L11="","",_sjgc_day_hour!L11)</f>
+        <v/>
+      </c>
+      <c r="N16" s="82" t="str">
+        <f>IF(_sjgc_day_hour!M11="","",_sjgc_day_hour!M11)</f>
+        <v/>
+      </c>
+      <c r="O16" s="82" t="str">
+        <f>IF(_sjgc_day_hour!N11="","",_sjgc_day_hour!N11)</f>
+        <v/>
+      </c>
+      <c r="P16" s="82" t="str">
+        <f>IF(_sjgc_day_hour!O11="","",_sjgc_day_hour!O11)</f>
+        <v/>
+      </c>
+      <c r="Q16" s="95" t="str">
+        <f>IF(_sjgc_day_hour!P11="","",_sjgc_day_hour!P11)</f>
+        <v/>
+      </c>
+      <c r="R16" s="95" t="str">
+        <f>IF(_sjgc_day_hour!Q11="","",_sjgc_day_hour!Q11)</f>
+        <v/>
+      </c>
+      <c r="S16" s="82" t="str">
+        <f>IF(_sjgc_day_hour!R11="","",_sjgc_day_hour!R11)</f>
+        <v/>
+      </c>
+      <c r="T16" s="95" t="str">
+        <f>IF(_sjgc_day_hour!S11="","",_sjgc_day_hour!S11)</f>
+        <v/>
+      </c>
+      <c r="U16" s="82" t="str">
+        <f>IF(_sjgc_day_hour!T11="","",_sjgc_day_hour!T11)</f>
+        <v/>
+      </c>
+      <c r="V16" s="105" t="str">
+        <f>IF(_sjgc_day_hour!U11="","",_sjgc_day_hour!U11)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" s="52" customFormat="1" ht="30" customHeight="1" spans="1:22">
+      <c r="A17" s="81">
+        <v>11</v>
+      </c>
+      <c r="B17" s="82" t="str">
+        <f>IF(_sjgc_day_hour!A12="","",_sjgc_day_hour!A12)</f>
+        <v/>
+      </c>
+      <c r="C17" s="82" t="str">
+        <f>IF(_sjgc_day_hour!B12="","",_sjgc_day_hour!B12)</f>
+        <v/>
+      </c>
+      <c r="D17" s="82" t="str">
+        <f>IF(_sjgc_day_hour!C12="","",_sjgc_day_hour!C12)</f>
+        <v/>
+      </c>
+      <c r="E17" s="83" t="str">
+        <f>IF(_sjgc_day_hour!D12="","",_sjgc_day_hour!D12)</f>
+        <v/>
+      </c>
+      <c r="F17" s="82" t="str">
+        <f>IF(_sjgc_day_hour!E12="","",_sjgc_day_hour!E12)</f>
+        <v/>
+      </c>
+      <c r="G17" s="82" t="str">
+        <f>IF(_sjgc_day_hour!F12="","",_sjgc_day_hour!F12)</f>
+        <v/>
+      </c>
+      <c r="H17" s="82" t="str">
+        <f>IF(_sjgc_day_hour!G12="","",_sjgc_day_hour!G12)</f>
+        <v/>
+      </c>
+      <c r="I17" s="82" t="str">
+        <f>IF(_sjgc_day_hour!H12="","",_sjgc_day_hour!H12)</f>
+        <v/>
+      </c>
+      <c r="J17" s="82" t="str">
+        <f>IF(_sjgc_day_hour!I12="","",_sjgc_day_hour!I12)</f>
+        <v/>
+      </c>
+      <c r="K17" s="83" t="str">
+        <f>IF(_sjgc_day_hour!J12="","",_sjgc_day_hour!J12)</f>
+        <v/>
+      </c>
+      <c r="L17" s="82" t="str">
+        <f>IF(_sjgc_day_hour!K12="","",_sjgc_day_hour!K12)</f>
+        <v/>
+      </c>
+      <c r="M17" s="95" t="str">
+        <f>IF(_sjgc_day_hour!L12="","",_sjgc_day_hour!L12)</f>
+        <v/>
+      </c>
+      <c r="N17" s="82" t="str">
+        <f>IF(_sjgc_day_hour!M12="","",_sjgc_day_hour!M12)</f>
+        <v/>
+      </c>
+      <c r="O17" s="82" t="str">
+        <f>IF(_sjgc_day_hour!N12="","",_sjgc_day_hour!N12)</f>
+        <v/>
+      </c>
+      <c r="P17" s="82" t="str">
+        <f>IF(_sjgc_day_hour!O12="","",_sjgc_day_hour!O12)</f>
+        <v/>
+      </c>
+      <c r="Q17" s="95" t="str">
+        <f>IF(_sjgc_day_hour!P12="","",_sjgc_day_hour!P12)</f>
+        <v/>
+      </c>
+      <c r="R17" s="95" t="str">
+        <f>IF(_sjgc_day_hour!Q12="","",_sjgc_day_hour!Q12)</f>
+        <v/>
+      </c>
+      <c r="S17" s="82" t="str">
+        <f>IF(_sjgc_day_hour!R12="","",_sjgc_day_hour!R12)</f>
+        <v/>
+      </c>
+      <c r="T17" s="95" t="str">
+        <f>IF(_sjgc_day_hour!S12="","",_sjgc_day_hour!S12)</f>
+        <v/>
+      </c>
+      <c r="U17" s="82" t="str">
+        <f>IF(_sjgc_day_hour!T12="","",_sjgc_day_hour!T12)</f>
+        <v/>
+      </c>
+      <c r="V17" s="105" t="str">
+        <f>IF(_sjgc_day_hour!U12="","",_sjgc_day_hour!U12)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" s="52" customFormat="1" ht="30" customHeight="1" spans="1:22">
+      <c r="A18" s="81">
+        <v>12</v>
+      </c>
+      <c r="B18" s="82" t="str">
+        <f>IF(_sjgc_day_hour!A13="","",_sjgc_day_hour!A13)</f>
+        <v/>
+      </c>
+      <c r="C18" s="82" t="str">
+        <f>IF(_sjgc_day_hour!B13="","",_sjgc_day_hour!B13)</f>
+        <v/>
+      </c>
+      <c r="D18" s="82" t="str">
+        <f>IF(_sjgc_day_hour!C13="","",_sjgc_day_hour!C13)</f>
+        <v/>
+      </c>
+      <c r="E18" s="83" t="str">
+        <f>IF(_sjgc_day_hour!D13="","",_sjgc_day_hour!D13)</f>
+        <v/>
+      </c>
+      <c r="F18" s="82" t="str">
+        <f>IF(_sjgc_day_hour!E13="","",_sjgc_day_hour!E13)</f>
+        <v/>
+      </c>
+      <c r="G18" s="82" t="str">
+        <f>IF(_sjgc_day_hour!F13="","",_sjgc_day_hour!F13)</f>
+        <v/>
+      </c>
+      <c r="H18" s="82" t="str">
+        <f>IF(_sjgc_day_hour!G13="","",_sjgc_day_hour!G13)</f>
+        <v/>
+      </c>
+      <c r="I18" s="82" t="str">
+        <f>IF(_sjgc_day_hour!H13="","",_sjgc_day_hour!H13)</f>
+        <v/>
+      </c>
+      <c r="J18" s="82" t="str">
+        <f>IF(_sjgc_day_hour!I13="","",_sjgc_day_hour!I13)</f>
+        <v/>
+      </c>
+      <c r="K18" s="83" t="str">
+        <f>IF(_sjgc_day_hour!J13="","",_sjgc_day_hour!J13)</f>
+        <v/>
+      </c>
+      <c r="L18" s="82" t="str">
+        <f>IF(_sjgc_day_hour!K13="","",_sjgc_day_hour!K13)</f>
+        <v/>
+      </c>
+      <c r="M18" s="95" t="str">
+        <f>IF(_sjgc_day_hour!L13="","",_sjgc_day_hour!L13)</f>
+        <v/>
+      </c>
+      <c r="N18" s="82" t="str">
+        <f>IF(_sjgc_day_hour!M13="","",_sjgc_day_hour!M13)</f>
+        <v/>
+      </c>
+      <c r="O18" s="82" t="str">
+        <f>IF(_sjgc_day_hour!N13="","",_sjgc_day_hour!N13)</f>
+        <v/>
+      </c>
+      <c r="P18" s="82" t="str">
+        <f>IF(_sjgc_day_hour!O13="","",_sjgc_day_hour!O13)</f>
+        <v/>
+      </c>
+      <c r="Q18" s="95" t="str">
+        <f>IF(_sjgc_day_hour!P13="","",_sjgc_day_hour!P13)</f>
+        <v/>
+      </c>
+      <c r="R18" s="95" t="str">
+        <f>IF(_sjgc_day_hour!Q13="","",_sjgc_day_hour!Q13)</f>
+        <v/>
+      </c>
+      <c r="S18" s="82" t="str">
+        <f>IF(_sjgc_day_hour!R13="","",_sjgc_day_hour!R13)</f>
+        <v/>
+      </c>
+      <c r="T18" s="95" t="str">
+        <f>IF(_sjgc_day_hour!S13="","",_sjgc_day_hour!S13)</f>
+        <v/>
+      </c>
+      <c r="U18" s="82" t="str">
+        <f>IF(_sjgc_day_hour!T13="","",_sjgc_day_hour!T13)</f>
+        <v/>
+      </c>
+      <c r="V18" s="105" t="str">
+        <f>IF(_sjgc_day_hour!U13="","",_sjgc_day_hour!U13)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" s="52" customFormat="1" ht="30" customHeight="1" spans="1:22">
+      <c r="A19" s="81">
+        <v>13</v>
+      </c>
+      <c r="B19" s="82" t="str">
+        <f>IF(_sjgc_day_hour!A14="","",_sjgc_day_hour!A14)</f>
+        <v/>
+      </c>
+      <c r="C19" s="82" t="str">
+        <f>IF(_sjgc_day_hour!B14="","",_sjgc_day_hour!B14)</f>
+        <v/>
+      </c>
+      <c r="D19" s="82" t="str">
+        <f>IF(_sjgc_day_hour!C14="","",_sjgc_day_hour!C14)</f>
+        <v/>
+      </c>
+      <c r="E19" s="83" t="str">
+        <f>IF(_sjgc_day_hour!D14="","",_sjgc_day_hour!D14)</f>
+        <v/>
+      </c>
+      <c r="F19" s="82" t="str">
+        <f>IF(_sjgc_day_hour!E14="","",_sjgc_day_hour!E14)</f>
+        <v/>
+      </c>
+      <c r="G19" s="82" t="str">
+        <f>IF(_sjgc_day_hour!F14="","",_sjgc_day_hour!F14)</f>
+        <v/>
+      </c>
+      <c r="H19" s="82" t="str">
+        <f>IF(_sjgc_day_hour!G14="","",_sjgc_day_hour!G14)</f>
+        <v/>
+      </c>
+      <c r="I19" s="82" t="str">
+        <f>IF(_sjgc_day_hour!H14="","",_sjgc_day_hour!H14)</f>
+        <v/>
+      </c>
+      <c r="J19" s="82" t="str">
+        <f>IF(_sjgc_day_hour!I14="","",_sjgc_day_hour!I14)</f>
+        <v/>
+      </c>
+      <c r="K19" s="83" t="str">
+        <f>IF(_sjgc_day_hour!J14="","",_sjgc_day_hour!J14)</f>
+        <v/>
+      </c>
+      <c r="L19" s="82" t="str">
+        <f>IF(_sjgc_day_hour!K14="","",_sjgc_day_hour!K14)</f>
+        <v/>
+      </c>
+      <c r="M19" s="95" t="str">
+        <f>IF(_sjgc_day_hour!L14="","",_sjgc_day_hour!L14)</f>
+        <v/>
+      </c>
+      <c r="N19" s="82" t="str">
+        <f>IF(_sjgc_day_hour!M14="","",_sjgc_day_hour!M14)</f>
+        <v/>
+      </c>
+      <c r="O19" s="82" t="str">
+        <f>IF(_sjgc_day_hour!N14="","",_sjgc_day_hour!N14)</f>
+        <v/>
+      </c>
+      <c r="P19" s="82" t="str">
+        <f>IF(_sjgc_day_hour!O14="","",_sjgc_day_hour!O14)</f>
+        <v/>
+      </c>
+      <c r="Q19" s="95" t="str">
+        <f>IF(_sjgc_day_hour!P14="","",_sjgc_day_hour!P14)</f>
+        <v/>
+      </c>
+      <c r="R19" s="95" t="str">
+        <f>IF(_sjgc_day_hour!Q14="","",_sjgc_day_hour!Q14)</f>
+        <v/>
+      </c>
+      <c r="S19" s="82" t="str">
+        <f>IF(_sjgc_day_hour!R14="","",_sjgc_day_hour!R14)</f>
+        <v/>
+      </c>
+      <c r="T19" s="95" t="str">
+        <f>IF(_sjgc_day_hour!S14="","",_sjgc_day_hour!S14)</f>
+        <v/>
+      </c>
+      <c r="U19" s="82" t="str">
+        <f>IF(_sjgc_day_hour!T14="","",_sjgc_day_hour!T14)</f>
+        <v/>
+      </c>
+      <c r="V19" s="105" t="str">
+        <f>IF(_sjgc_day_hour!U14="","",_sjgc_day_hour!U14)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" s="52" customFormat="1" ht="30" customHeight="1" spans="1:22">
+      <c r="A20" s="81">
+        <v>14</v>
+      </c>
+      <c r="B20" s="82" t="str">
+        <f>IF(_sjgc_day_hour!A15="","",_sjgc_day_hour!A15)</f>
+        <v/>
+      </c>
+      <c r="C20" s="82" t="str">
+        <f>IF(_sjgc_day_hour!B15="","",_sjgc_day_hour!B15)</f>
+        <v/>
+      </c>
+      <c r="D20" s="82" t="str">
+        <f>IF(_sjgc_day_hour!C15="","",_sjgc_day_hour!C15)</f>
+        <v/>
+      </c>
+      <c r="E20" s="83" t="str">
+        <f>IF(_sjgc_day_hour!D15="","",_sjgc_day_hour!D15)</f>
+        <v/>
+      </c>
+      <c r="F20" s="82" t="str">
+        <f>IF(_sjgc_day_hour!E15="","",_sjgc_day_hour!E15)</f>
+        <v/>
+      </c>
+      <c r="G20" s="82" t="str">
+        <f>IF(_sjgc_day_hour!F15="","",_sjgc_day_hour!F15)</f>
+        <v/>
+      </c>
+      <c r="H20" s="82" t="str">
+        <f>IF(_sjgc_day_hour!G15="","",_sjgc_day_hour!G15)</f>
+        <v/>
+      </c>
+      <c r="I20" s="82" t="str">
+        <f>IF(_sjgc_day_hour!H15="","",_sjgc_day_hour!H15)</f>
+        <v/>
+      </c>
+      <c r="J20" s="82" t="str">
+        <f>IF(_sjgc_day_hour!I15="","",_sjgc_day_hour!I15)</f>
+        <v/>
+      </c>
+      <c r="K20" s="83" t="str">
+        <f>IF(_sjgc_day_hour!J15="","",_sjgc_day_hour!J15)</f>
+        <v/>
+      </c>
+      <c r="L20" s="82" t="str">
+        <f>IF(_sjgc_day_hour!K15="","",_sjgc_day_hour!K15)</f>
+        <v/>
+      </c>
+      <c r="M20" s="95" t="str">
+        <f>IF(_sjgc_day_hour!L15="","",_sjgc_day_hour!L15)</f>
+        <v/>
+      </c>
+      <c r="N20" s="82" t="str">
+        <f>IF(_sjgc_day_hour!M15="","",_sjgc_day_hour!M15)</f>
+        <v/>
+      </c>
+      <c r="O20" s="82" t="str">
+        <f>IF(_sjgc_day_hour!N15="","",_sjgc_day_hour!N15)</f>
+        <v/>
+      </c>
+      <c r="P20" s="82" t="str">
+        <f>IF(_sjgc_day_hour!O15="","",_sjgc_day_hour!O15)</f>
+        <v/>
+      </c>
+      <c r="Q20" s="95" t="str">
+        <f>IF(_sjgc_day_hour!P15="","",_sjgc_day_hour!P15)</f>
+        <v/>
+      </c>
+      <c r="R20" s="95" t="str">
+        <f>IF(_sjgc_day_hour!Q15="","",_sjgc_day_hour!Q15)</f>
+        <v/>
+      </c>
+      <c r="S20" s="82" t="str">
+        <f>IF(_sjgc_day_hour!R15="","",_sjgc_day_hour!R15)</f>
+        <v/>
+      </c>
+      <c r="T20" s="95" t="str">
+        <f>IF(_sjgc_day_hour!S15="","",_sjgc_day_hour!S15)</f>
+        <v/>
+      </c>
+      <c r="U20" s="82" t="str">
+        <f>IF(_sjgc_day_hour!T15="","",_sjgc_day_hour!T15)</f>
+        <v/>
+      </c>
+      <c r="V20" s="105" t="str">
+        <f>IF(_sjgc_day_hour!U15="","",_sjgc_day_hour!U15)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" s="52" customFormat="1" ht="30" customHeight="1" spans="1:22">
+      <c r="A21" s="81">
+        <v>15</v>
+      </c>
+      <c r="B21" s="82" t="str">
+        <f>IF(_sjgc_day_hour!A16="","",_sjgc_day_hour!A16)</f>
+        <v/>
+      </c>
+      <c r="C21" s="82" t="str">
+        <f>IF(_sjgc_day_hour!B16="","",_sjgc_day_hour!B16)</f>
+        <v/>
+      </c>
+      <c r="D21" s="82" t="str">
+        <f>IF(_sjgc_day_hour!C16="","",_sjgc_day_hour!C16)</f>
+        <v/>
+      </c>
+      <c r="E21" s="83" t="str">
+        <f>IF(_sjgc_day_hour!D16="","",_sjgc_day_hour!D16)</f>
+        <v/>
+      </c>
+      <c r="F21" s="82" t="str">
+        <f>IF(_sjgc_day_hour!E16="","",_sjgc_day_hour!E16)</f>
+        <v/>
+      </c>
+      <c r="G21" s="82" t="str">
+        <f>IF(_sjgc_day_hour!F16="","",_sjgc_day_hour!F16)</f>
+        <v/>
+      </c>
+      <c r="H21" s="82" t="str">
+        <f>IF(_sjgc_day_hour!G16="","",_sjgc_day_hour!G16)</f>
+        <v/>
+      </c>
+      <c r="I21" s="82" t="str">
+        <f>IF(_sjgc_day_hour!H16="","",_sjgc_day_hour!H16)</f>
+        <v/>
+      </c>
+      <c r="J21" s="82" t="str">
+        <f>IF(_sjgc_day_hour!I16="","",_sjgc_day_hour!I16)</f>
+        <v/>
+      </c>
+      <c r="K21" s="83" t="str">
+        <f>IF(_sjgc_day_hour!J16="","",_sjgc_day_hour!J16)</f>
+        <v/>
+      </c>
+      <c r="L21" s="82" t="str">
+        <f>IF(_sjgc_day_hour!K16="","",_sjgc_day_hour!K16)</f>
+        <v/>
+      </c>
+      <c r="M21" s="95" t="str">
+        <f>IF(_sjgc_day_hour!L16="","",_sjgc_day_hour!L16)</f>
+        <v/>
+      </c>
+      <c r="N21" s="82" t="str">
+        <f>IF(_sjgc_day_hour!M16="","",_sjgc_day_hour!M16)</f>
+        <v/>
+      </c>
+      <c r="O21" s="82" t="str">
+        <f>IF(_sjgc_day_hour!N16="","",_sjgc_day_hour!N16)</f>
+        <v/>
+      </c>
+      <c r="P21" s="82" t="str">
+        <f>IF(_sjgc_day_hour!O16="","",_sjgc_day_hour!O16)</f>
+        <v/>
+      </c>
+      <c r="Q21" s="95" t="str">
+        <f>IF(_sjgc_day_hour!P16="","",_sjgc_day_hour!P16)</f>
+        <v/>
+      </c>
+      <c r="R21" s="95" t="str">
+        <f>IF(_sjgc_day_hour!Q16="","",_sjgc_day_hour!Q16)</f>
+        <v/>
+      </c>
+      <c r="S21" s="82" t="str">
+        <f>IF(_sjgc_day_hour!R16="","",_sjgc_day_hour!R16)</f>
+        <v/>
+      </c>
+      <c r="T21" s="95" t="str">
+        <f>IF(_sjgc_day_hour!S16="","",_sjgc_day_hour!S16)</f>
+        <v/>
+      </c>
+      <c r="U21" s="82" t="str">
+        <f>IF(_sjgc_day_hour!T16="","",_sjgc_day_hour!T16)</f>
+        <v/>
+      </c>
+      <c r="V21" s="105" t="str">
+        <f>IF(_sjgc_day_hour!U16="","",_sjgc_day_hour!U16)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" s="52" customFormat="1" ht="30" customHeight="1" spans="1:22">
+      <c r="A22" s="81">
+        <v>16</v>
+      </c>
+      <c r="B22" s="82" t="str">
+        <f>IF(_sjgc_day_hour!A17="","",_sjgc_day_hour!A17)</f>
+        <v/>
+      </c>
+      <c r="C22" s="82" t="str">
+        <f>IF(_sjgc_day_hour!B17="","",_sjgc_day_hour!B17)</f>
+        <v/>
+      </c>
+      <c r="D22" s="82" t="str">
+        <f>IF(_sjgc_day_hour!C17="","",_sjgc_day_hour!C17)</f>
+        <v/>
+      </c>
+      <c r="E22" s="83" t="str">
+        <f>IF(_sjgc_day_hour!D17="","",_sjgc_day_hour!D17)</f>
+        <v/>
+      </c>
+      <c r="F22" s="82" t="str">
+        <f>IF(_sjgc_day_hour!E17="","",_sjgc_day_hour!E17)</f>
+        <v/>
+      </c>
+      <c r="G22" s="82" t="str">
+        <f>IF(_sjgc_day_hour!F17="","",_sjgc_day_hour!F17)</f>
+        <v/>
+      </c>
+      <c r="H22" s="82" t="str">
+        <f>IF(_sjgc_day_hour!G17="","",_sjgc_day_hour!G17)</f>
+        <v/>
+      </c>
+      <c r="I22" s="82" t="str">
+        <f>IF(_sjgc_day_hour!H17="","",_sjgc_day_hour!H17)</f>
+        <v/>
+      </c>
+      <c r="J22" s="82" t="str">
+        <f>IF(_sjgc_day_hour!I17="","",_sjgc_day_hour!I17)</f>
+        <v/>
+      </c>
+      <c r="K22" s="83" t="str">
+        <f>IF(_sjgc_day_hour!J17="","",_sjgc_day_hour!J17)</f>
+        <v/>
+      </c>
+      <c r="L22" s="82" t="str">
+        <f>IF(_sjgc_day_hour!K17="","",_sjgc_day_hour!K17)</f>
+        <v/>
+      </c>
+      <c r="M22" s="95" t="str">
+        <f>IF(_sjgc_day_hour!L17="","",_sjgc_day_hour!L17)</f>
+        <v/>
+      </c>
+      <c r="N22" s="82" t="str">
+        <f>IF(_sjgc_day_hour!M17="","",_sjgc_day_hour!M17)</f>
+        <v/>
+      </c>
+      <c r="O22" s="82" t="str">
+        <f>IF(_sjgc_day_hour!N17="","",_sjgc_day_hour!N17)</f>
+        <v/>
+      </c>
+      <c r="P22" s="82" t="str">
+        <f>IF(_sjgc_day_hour!O17="","",_sjgc_day_hour!O17)</f>
+        <v/>
+      </c>
+      <c r="Q22" s="95" t="str">
+        <f>IF(_sjgc_day_hour!P17="","",_sjgc_day_hour!P17)</f>
+        <v/>
+      </c>
+      <c r="R22" s="95" t="str">
+        <f>IF(_sjgc_day_hour!Q17="","",_sjgc_day_hour!Q17)</f>
+        <v/>
+      </c>
+      <c r="S22" s="82" t="str">
+        <f>IF(_sjgc_day_hour!R17="","",_sjgc_day_hour!R17)</f>
+        <v/>
+      </c>
+      <c r="T22" s="95" t="str">
+        <f>IF(_sjgc_day_hour!S17="","",_sjgc_day_hour!S17)</f>
+        <v/>
+      </c>
+      <c r="U22" s="82" t="str">
+        <f>IF(_sjgc_day_hour!T17="","",_sjgc_day_hour!T17)</f>
+        <v/>
+      </c>
+      <c r="V22" s="105" t="str">
+        <f>IF(_sjgc_day_hour!U17="","",_sjgc_day_hour!U17)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" s="52" customFormat="1" ht="30" customHeight="1" spans="1:22">
+      <c r="A23" s="81">
+        <v>17</v>
+      </c>
+      <c r="B23" s="82" t="str">
+        <f>IF(_sjgc_day_hour!A18="","",_sjgc_day_hour!A18)</f>
+        <v/>
+      </c>
+      <c r="C23" s="82" t="str">
+        <f>IF(_sjgc_day_hour!B18="","",_sjgc_day_hour!B18)</f>
+        <v/>
+      </c>
+      <c r="D23" s="82" t="str">
+        <f>IF(_sjgc_day_hour!C18="","",_sjgc_day_hour!C18)</f>
+        <v/>
+      </c>
+      <c r="E23" s="83" t="str">
+        <f>IF(_sjgc_day_hour!D18="","",_sjgc_day_hour!D18)</f>
+        <v/>
+      </c>
+      <c r="F23" s="82" t="str">
+        <f>IF(_sjgc_day_hour!E18="","",_sjgc_day_hour!E18)</f>
+        <v/>
+      </c>
+      <c r="G23" s="82" t="str">
+        <f>IF(_sjgc_day_hour!F18="","",_sjgc_day_hour!F18)</f>
+        <v/>
+      </c>
+      <c r="H23" s="82" t="str">
+        <f>IF(_sjgc_day_hour!G18="","",_sjgc_day_hour!G18)</f>
+        <v/>
+      </c>
+      <c r="I23" s="82" t="str">
+        <f>IF(_sjgc_day_hour!H18="","",_sjgc_day_hour!H18)</f>
+        <v/>
+      </c>
+      <c r="J23" s="82" t="str">
+        <f>IF(_sjgc_day_hour!I18="","",_sjgc_day_hour!I18)</f>
+        <v/>
+      </c>
+      <c r="K23" s="83" t="str">
+        <f>IF(_sjgc_day_hour!J18="","",_sjgc_day_hour!J18)</f>
+        <v/>
+      </c>
+      <c r="L23" s="82" t="str">
+        <f>IF(_sjgc_day_hour!K18="","",_sjgc_day_hour!K18)</f>
+        <v/>
+      </c>
+      <c r="M23" s="95" t="str">
+        <f>IF(_sjgc_day_hour!L18="","",_sjgc_day_hour!L18)</f>
+        <v/>
+      </c>
+      <c r="N23" s="82" t="str">
+        <f>IF(_sjgc_day_hour!M18="","",_sjgc_day_hour!M18)</f>
+        <v/>
+      </c>
+      <c r="O23" s="82" t="str">
+        <f>IF(_sjgc_day_hour!N18="","",_sjgc_day_hour!N18)</f>
+        <v/>
+      </c>
+      <c r="P23" s="82" t="str">
+        <f>IF(_sjgc_day_hour!O18="","",_sjgc_day_hour!O18)</f>
+        <v/>
+      </c>
+      <c r="Q23" s="95" t="str">
+        <f>IF(_sjgc_day_hour!P18="","",_sjgc_day_hour!P18)</f>
+        <v/>
+      </c>
+      <c r="R23" s="95" t="str">
+        <f>IF(_sjgc_day_hour!Q18="","",_sjgc_day_hour!Q18)</f>
+        <v/>
+      </c>
+      <c r="S23" s="82" t="str">
+        <f>IF(_sjgc_day_hour!R18="","",_sjgc_day_hour!R18)</f>
+        <v/>
+      </c>
+      <c r="T23" s="95" t="str">
+        <f>IF(_sjgc_day_hour!S18="","",_sjgc_day_hour!S18)</f>
+        <v/>
+      </c>
+      <c r="U23" s="82" t="str">
+        <f>IF(_sjgc_day_hour!T18="","",_sjgc_day_hour!T18)</f>
+        <v/>
+      </c>
+      <c r="V23" s="105" t="str">
+        <f>IF(_sjgc_day_hour!U18="","",_sjgc_day_hour!U18)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" s="52" customFormat="1" ht="30" customHeight="1" spans="1:24">
+      <c r="A24" s="81">
+        <v>18</v>
+      </c>
+      <c r="B24" s="82" t="str">
+        <f>IF(_sjgc_day_hour!A19="","",_sjgc_day_hour!A19)</f>
+        <v/>
+      </c>
+      <c r="C24" s="82" t="str">
+        <f>IF(_sjgc_day_hour!B19="","",_sjgc_day_hour!B19)</f>
+        <v/>
+      </c>
+      <c r="D24" s="82" t="str">
+        <f>IF(_sjgc_day_hour!C19="","",_sjgc_day_hour!C19)</f>
+        <v/>
+      </c>
+      <c r="E24" s="83" t="str">
+        <f>IF(_sjgc_day_hour!D19="","",_sjgc_day_hour!D19)</f>
+        <v/>
+      </c>
+      <c r="F24" s="82" t="str">
+        <f>IF(_sjgc_day_hour!E19="","",_sjgc_day_hour!E19)</f>
+        <v/>
+      </c>
+      <c r="G24" s="82" t="str">
+        <f>IF(_sjgc_day_hour!F19="","",_sjgc_day_hour!F19)</f>
+        <v/>
+      </c>
+      <c r="H24" s="82" t="str">
+        <f>IF(_sjgc_day_hour!G19="","",_sjgc_day_hour!G19)</f>
+        <v/>
+      </c>
+      <c r="I24" s="82" t="str">
+        <f>IF(_sjgc_day_hour!H19="","",_sjgc_day_hour!H19)</f>
+        <v/>
+      </c>
+      <c r="J24" s="82" t="str">
+        <f>IF(_sjgc_day_hour!I19="","",_sjgc_day_hour!I19)</f>
+        <v/>
+      </c>
+      <c r="K24" s="83" t="str">
+        <f>IF(_sjgc_day_hour!J19="","",_sjgc_day_hour!J19)</f>
+        <v/>
+      </c>
+      <c r="L24" s="82" t="str">
+        <f>IF(_sjgc_day_hour!K19="","",_sjgc_day_hour!K19)</f>
+        <v/>
+      </c>
+      <c r="M24" s="95" t="str">
+        <f>IF(_sjgc_day_hour!L19="","",_sjgc_day_hour!L19)</f>
+        <v/>
+      </c>
+      <c r="N24" s="82" t="str">
+        <f>IF(_sjgc_day_hour!M19="","",_sjgc_day_hour!M19)</f>
+        <v/>
+      </c>
+      <c r="O24" s="82" t="str">
+        <f>IF(_sjgc_day_hour!N19="","",_sjgc_day_hour!N19)</f>
+        <v/>
+      </c>
+      <c r="P24" s="82" t="str">
+        <f>IF(_sjgc_day_hour!O19="","",_sjgc_day_hour!O19)</f>
+        <v/>
+      </c>
+      <c r="Q24" s="95" t="str">
+        <f>IF(_sjgc_day_hour!P19="","",_sjgc_day_hour!P19)</f>
+        <v/>
+      </c>
+      <c r="R24" s="95" t="str">
+        <f>IF(_sjgc_day_hour!Q19="","",_sjgc_day_hour!Q19)</f>
+        <v/>
+      </c>
+      <c r="S24" s="82" t="str">
+        <f>IF(_sjgc_day_hour!R19="","",_sjgc_day_hour!R19)</f>
+        <v/>
+      </c>
+      <c r="T24" s="95" t="str">
+        <f>IF(_sjgc_day_hour!S19="","",_sjgc_day_hour!S19)</f>
+        <v/>
+      </c>
+      <c r="U24" s="82" t="str">
+        <f>IF(_sjgc_day_hour!T19="","",_sjgc_day_hour!T19)</f>
+        <v/>
+      </c>
+      <c r="V24" s="105" t="str">
+        <f>IF(_sjgc_day_hour!U19="","",_sjgc_day_hour!U19)</f>
+        <v/>
+      </c>
+      <c r="W24" s="106"/>
+      <c r="X24" s="106"/>
+    </row>
+    <row r="25" s="52" customFormat="1" ht="30" customHeight="1" spans="1:22">
+      <c r="A25" s="81">
+        <v>19</v>
+      </c>
+      <c r="B25" s="82" t="str">
+        <f>IF(_sjgc_day_hour!A20="","",_sjgc_day_hour!A20)</f>
+        <v/>
+      </c>
+      <c r="C25" s="82" t="str">
+        <f>IF(_sjgc_day_hour!B20="","",_sjgc_day_hour!B20)</f>
+        <v/>
+      </c>
+      <c r="D25" s="82" t="str">
+        <f>IF(_sjgc_day_hour!C20="","",_sjgc_day_hour!C20)</f>
+        <v/>
+      </c>
+      <c r="E25" s="83" t="str">
+        <f>IF(_sjgc_day_hour!D20="","",_sjgc_day_hour!D20)</f>
+        <v/>
+      </c>
+      <c r="F25" s="82" t="str">
+        <f>IF(_sjgc_day_hour!E20="","",_sjgc_day_hour!E20)</f>
+        <v/>
+      </c>
+      <c r="G25" s="82" t="str">
+        <f>IF(_sjgc_day_hour!F20="","",_sjgc_day_hour!F20)</f>
+        <v/>
+      </c>
+      <c r="H25" s="82" t="str">
+        <f>IF(_sjgc_day_hour!G20="","",_sjgc_day_hour!G20)</f>
+        <v/>
+      </c>
+      <c r="I25" s="82" t="str">
+        <f>IF(_sjgc_day_hour!H20="","",_sjgc_day_hour!H20)</f>
+        <v/>
+      </c>
+      <c r="J25" s="82" t="str">
+        <f>IF(_sjgc_day_hour!I20="","",_sjgc_day_hour!I20)</f>
+        <v/>
+      </c>
+      <c r="K25" s="83" t="str">
+        <f>IF(_sjgc_day_hour!J20="","",_sjgc_day_hour!J20)</f>
+        <v/>
+      </c>
+      <c r="L25" s="82" t="str">
+        <f>IF(_sjgc_day_hour!K20="","",_sjgc_day_hour!K20)</f>
+        <v/>
+      </c>
+      <c r="M25" s="95" t="str">
+        <f>IF(_sjgc_day_hour!L20="","",_sjgc_day_hour!L20)</f>
+        <v/>
+      </c>
+      <c r="N25" s="82" t="str">
+        <f>IF(_sjgc_day_hour!M20="","",_sjgc_day_hour!M20)</f>
+        <v/>
+      </c>
+      <c r="O25" s="82" t="str">
+        <f>IF(_sjgc_day_hour!N20="","",_sjgc_day_hour!N20)</f>
+        <v/>
+      </c>
+      <c r="P25" s="82" t="str">
+        <f>IF(_sjgc_day_hour!O20="","",_sjgc_day_hour!O20)</f>
+        <v/>
+      </c>
+      <c r="Q25" s="95" t="str">
+        <f>IF(_sjgc_day_hour!P20="","",_sjgc_day_hour!P20)</f>
+        <v/>
+      </c>
+      <c r="R25" s="95" t="str">
+        <f>IF(_sjgc_day_hour!Q20="","",_sjgc_day_hour!Q20)</f>
+        <v/>
+      </c>
+      <c r="S25" s="82" t="str">
+        <f>IF(_sjgc_day_hour!R20="","",_sjgc_day_hour!R20)</f>
+        <v/>
+      </c>
+      <c r="T25" s="95" t="str">
+        <f>IF(_sjgc_day_hour!S20="","",_sjgc_day_hour!S20)</f>
+        <v/>
+      </c>
+      <c r="U25" s="82" t="str">
+        <f>IF(_sjgc_day_hour!T20="","",_sjgc_day_hour!T20)</f>
+        <v/>
+      </c>
+      <c r="V25" s="105" t="str">
+        <f>IF(_sjgc_day_hour!U20="","",_sjgc_day_hour!U20)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" s="52" customFormat="1" ht="30" customHeight="1" spans="1:22">
+      <c r="A26" s="81">
+        <v>20</v>
+      </c>
+      <c r="B26" s="82" t="str">
+        <f>IF(_sjgc_day_hour!A21="","",_sjgc_day_hour!A21)</f>
+        <v/>
+      </c>
+      <c r="C26" s="82" t="str">
+        <f>IF(_sjgc_day_hour!B21="","",_sjgc_day_hour!B21)</f>
+        <v/>
+      </c>
+      <c r="D26" s="82" t="str">
+        <f>IF(_sjgc_day_hour!C21="","",_sjgc_day_hour!C21)</f>
+        <v/>
+      </c>
+      <c r="E26" s="83" t="str">
+        <f>IF(_sjgc_day_hour!D21="","",_sjgc_day_hour!D21)</f>
+        <v/>
+      </c>
+      <c r="F26" s="82" t="str">
+        <f>IF(_sjgc_day_hour!E21="","",_sjgc_day_hour!E21)</f>
+        <v/>
+      </c>
+      <c r="G26" s="82" t="str">
+        <f>IF(_sjgc_day_hour!F21="","",_sjgc_day_hour!F21)</f>
+        <v/>
+      </c>
+      <c r="H26" s="82" t="str">
+        <f>IF(_sjgc_day_hour!G21="","",_sjgc_day_hour!G21)</f>
+        <v/>
+      </c>
+      <c r="I26" s="82" t="str">
+        <f>IF(_sjgc_day_hour!H21="","",_sjgc_day_hour!H21)</f>
+        <v/>
+      </c>
+      <c r="J26" s="82" t="str">
+        <f>IF(_sjgc_day_hour!I21="","",_sjgc_day_hour!I21)</f>
+        <v/>
+      </c>
+      <c r="K26" s="83" t="str">
+        <f>IF(_sjgc_day_hour!J21="","",_sjgc_day_hour!J21)</f>
+        <v/>
+      </c>
+      <c r="L26" s="82" t="str">
+        <f>IF(_sjgc_day_hour!K21="","",_sjgc_day_hour!K21)</f>
+        <v/>
+      </c>
+      <c r="M26" s="95" t="str">
+        <f>IF(_sjgc_day_hour!L21="","",_sjgc_day_hour!L21)</f>
+        <v/>
+      </c>
+      <c r="N26" s="82" t="str">
+        <f>IF(_sjgc_day_hour!M21="","",_sjgc_day_hour!M21)</f>
+        <v/>
+      </c>
+      <c r="O26" s="82" t="str">
+        <f>IF(_sjgc_day_hour!N21="","",_sjgc_day_hour!N21)</f>
+        <v/>
+      </c>
+      <c r="P26" s="82" t="str">
+        <f>IF(_sjgc_day_hour!O21="","",_sjgc_day_hour!O21)</f>
+        <v/>
+      </c>
+      <c r="Q26" s="95" t="str">
+        <f>IF(_sjgc_day_hour!P21="","",_sjgc_day_hour!P21)</f>
+        <v/>
+      </c>
+      <c r="R26" s="95" t="str">
+        <f>IF(_sjgc_day_hour!Q21="","",_sjgc_day_hour!Q21)</f>
+        <v/>
+      </c>
+      <c r="S26" s="82" t="str">
+        <f>IF(_sjgc_day_hour!R21="","",_sjgc_day_hour!R21)</f>
+        <v/>
+      </c>
+      <c r="T26" s="95" t="str">
+        <f>IF(_sjgc_day_hour!S21="","",_sjgc_day_hour!S21)</f>
+        <v/>
+      </c>
+      <c r="U26" s="82" t="str">
+        <f>IF(_sjgc_day_hour!T21="","",_sjgc_day_hour!T21)</f>
+        <v/>
+      </c>
+      <c r="V26" s="105" t="str">
+        <f>IF(_sjgc_day_hour!U21="","",_sjgc_day_hour!U21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" s="52" customFormat="1" ht="30" customHeight="1" spans="1:22">
+      <c r="A27" s="81">
+        <v>21</v>
+      </c>
+      <c r="B27" s="82" t="str">
+        <f>IF(_sjgc_day_hour!A22="","",_sjgc_day_hour!A22)</f>
+        <v/>
+      </c>
+      <c r="C27" s="82" t="str">
+        <f>IF(_sjgc_day_hour!B22="","",_sjgc_day_hour!B22)</f>
+        <v/>
+      </c>
+      <c r="D27" s="82" t="str">
+        <f>IF(_sjgc_day_hour!C22="","",_sjgc_day_hour!C22)</f>
+        <v/>
+      </c>
+      <c r="E27" s="83" t="str">
+        <f>IF(_sjgc_day_hour!D22="","",_sjgc_day_hour!D22)</f>
+        <v/>
+      </c>
+      <c r="F27" s="82" t="str">
+        <f>IF(_sjgc_day_hour!E22="","",_sjgc_day_hour!E22)</f>
+        <v/>
+      </c>
+      <c r="G27" s="82" t="str">
+        <f>IF(_sjgc_day_hour!F22="","",_sjgc_day_hour!F22)</f>
+        <v/>
+      </c>
+      <c r="H27" s="82" t="str">
+        <f>IF(_sjgc_day_hour!G22="","",_sjgc_day_hour!G22)</f>
+        <v/>
+      </c>
+      <c r="I27" s="82" t="str">
+        <f>IF(_sjgc_day_hour!H22="","",_sjgc_day_hour!H22)</f>
+        <v/>
+      </c>
+      <c r="J27" s="82" t="str">
+        <f>IF(_sjgc_day_hour!I22="","",_sjgc_day_hour!I22)</f>
+        <v/>
+      </c>
+      <c r="K27" s="83" t="str">
+        <f>IF(_sjgc_day_hour!J22="","",_sjgc_day_hour!J22)</f>
+        <v/>
+      </c>
+      <c r="L27" s="82" t="str">
+        <f>IF(_sjgc_day_hour!K22="","",_sjgc_day_hour!K22)</f>
+        <v/>
+      </c>
+      <c r="M27" s="95" t="str">
+        <f>IF(_sjgc_day_hour!L22="","",_sjgc_day_hour!L22)</f>
+        <v/>
+      </c>
+      <c r="N27" s="82" t="str">
+        <f>IF(_sjgc_day_hour!M22="","",_sjgc_day_hour!M22)</f>
+        <v/>
+      </c>
+      <c r="O27" s="82" t="str">
+        <f>IF(_sjgc_day_hour!N22="","",_sjgc_day_hour!N22)</f>
+        <v/>
+      </c>
+      <c r="P27" s="82" t="str">
+        <f>IF(_sjgc_day_hour!O22="","",_sjgc_day_hour!O22)</f>
+        <v/>
+      </c>
+      <c r="Q27" s="95" t="str">
+        <f>IF(_sjgc_day_hour!P22="","",_sjgc_day_hour!P22)</f>
+        <v/>
+      </c>
+      <c r="R27" s="95" t="str">
+        <f>IF(_sjgc_day_hour!Q22="","",_sjgc_day_hour!Q22)</f>
+        <v/>
+      </c>
+      <c r="S27" s="82" t="str">
+        <f>IF(_sjgc_day_hour!R22="","",_sjgc_day_hour!R22)</f>
+        <v/>
+      </c>
+      <c r="T27" s="95" t="str">
+        <f>IF(_sjgc_day_hour!S22="","",_sjgc_day_hour!S22)</f>
+        <v/>
+      </c>
+      <c r="U27" s="82" t="str">
+        <f>IF(_sjgc_day_hour!T22="","",_sjgc_day_hour!T22)</f>
+        <v/>
+      </c>
+      <c r="V27" s="105" t="str">
+        <f>IF(_sjgc_day_hour!U22="","",_sjgc_day_hour!U22)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" s="52" customFormat="1" ht="30" customHeight="1" spans="1:22">
+      <c r="A28" s="81">
+        <v>22</v>
+      </c>
+      <c r="B28" s="82" t="str">
+        <f>IF(_sjgc_day_hour!A23="","",_sjgc_day_hour!A23)</f>
+        <v/>
+      </c>
+      <c r="C28" s="82" t="str">
+        <f>IF(_sjgc_day_hour!B23="","",_sjgc_day_hour!B23)</f>
+        <v/>
+      </c>
+      <c r="D28" s="82" t="str">
+        <f>IF(_sjgc_day_hour!C23="","",_sjgc_day_hour!C23)</f>
+        <v/>
+      </c>
+      <c r="E28" s="83" t="str">
+        <f>IF(_sjgc_day_hour!D23="","",_sjgc_day_hour!D23)</f>
+        <v/>
+      </c>
+      <c r="F28" s="82" t="str">
+        <f>IF(_sjgc_day_hour!E23="","",_sjgc_day_hour!E23)</f>
+        <v/>
+      </c>
+      <c r="G28" s="82" t="str">
+        <f>IF(_sjgc_day_hour!F23="","",_sjgc_day_hour!F23)</f>
+        <v/>
+      </c>
+      <c r="H28" s="82" t="str">
+        <f>IF(_sjgc_day_hour!G23="","",_sjgc_day_hour!G23)</f>
+        <v/>
+      </c>
+      <c r="I28" s="82" t="str">
+        <f>IF(_sjgc_day_hour!H23="","",_sjgc_day_hour!H23)</f>
+        <v/>
+      </c>
+      <c r="J28" s="82" t="str">
+        <f>IF(_sjgc_day_hour!I23="","",_sjgc_day_hour!I23)</f>
+        <v/>
+      </c>
+      <c r="K28" s="83" t="str">
+        <f>IF(_sjgc_day_hour!J23="","",_sjgc_day_hour!J23)</f>
+        <v/>
+      </c>
+      <c r="L28" s="82" t="str">
+        <f>IF(_sjgc_day_hour!K23="","",_sjgc_day_hour!K23)</f>
+        <v/>
+      </c>
+      <c r="M28" s="95" t="str">
+        <f>IF(_sjgc_day_hour!L23="","",_sjgc_day_hour!L23)</f>
+        <v/>
+      </c>
+      <c r="N28" s="82" t="str">
+        <f>IF(_sjgc_day_hour!M23="","",_sjgc_day_hour!M23)</f>
+        <v/>
+      </c>
+      <c r="O28" s="82" t="str">
+        <f>IF(_sjgc_day_hour!N23="","",_sjgc_day_hour!N23)</f>
+        <v/>
+      </c>
+      <c r="P28" s="82" t="str">
+        <f>IF(_sjgc_day_hour!O23="","",_sjgc_day_hour!O23)</f>
+        <v/>
+      </c>
+      <c r="Q28" s="95" t="str">
+        <f>IF(_sjgc_day_hour!P23="","",_sjgc_day_hour!P23)</f>
+        <v/>
+      </c>
+      <c r="R28" s="95" t="str">
+        <f>IF(_sjgc_day_hour!Q23="","",_sjgc_day_hour!Q23)</f>
+        <v/>
+      </c>
+      <c r="S28" s="82" t="str">
+        <f>IF(_sjgc_day_hour!R23="","",_sjgc_day_hour!R23)</f>
+        <v/>
+      </c>
+      <c r="T28" s="95" t="str">
+        <f>IF(_sjgc_day_hour!S23="","",_sjgc_day_hour!S23)</f>
+        <v/>
+      </c>
+      <c r="U28" s="82" t="str">
+        <f>IF(_sjgc_day_hour!T23="","",_sjgc_day_hour!T23)</f>
+        <v/>
+      </c>
+      <c r="V28" s="105" t="str">
+        <f>IF(_sjgc_day_hour!U23="","",_sjgc_day_hour!U23)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" s="52" customFormat="1" ht="30" customHeight="1" spans="1:22">
+      <c r="A29" s="81">
+        <v>23</v>
+      </c>
+      <c r="B29" s="82" t="str">
+        <f>IF(_sjgc_day_hour!A24="","",_sjgc_day_hour!A24)</f>
+        <v/>
+      </c>
+      <c r="C29" s="82" t="str">
+        <f>IF(_sjgc_day_hour!B24="","",_sjgc_day_hour!B24)</f>
+        <v/>
+      </c>
+      <c r="D29" s="82" t="str">
+        <f>IF(_sjgc_day_hour!C24="","",_sjgc_day_hour!C24)</f>
+        <v/>
+      </c>
+      <c r="E29" s="83" t="str">
+        <f>IF(_sjgc_day_hour!D24="","",_sjgc_day_hour!D24)</f>
+        <v/>
+      </c>
+      <c r="F29" s="82" t="str">
+        <f>IF(_sjgc_day_hour!E24="","",_sjgc_day_hour!E24)</f>
+        <v/>
+      </c>
+      <c r="G29" s="82" t="str">
+        <f>IF(_sjgc_day_hour!F24="","",_sjgc_day_hour!F24)</f>
+        <v/>
+      </c>
+      <c r="H29" s="82" t="str">
+        <f>IF(_sjgc_day_hour!G24="","",_sjgc_day_hour!G24)</f>
+        <v/>
+      </c>
+      <c r="I29" s="82" t="str">
+        <f>IF(_sjgc_day_hour!H24="","",_sjgc_day_hour!H24)</f>
+        <v/>
+      </c>
+      <c r="J29" s="82" t="str">
+        <f>IF(_sjgc_day_hour!I24="","",_sjgc_day_hour!I24)</f>
+        <v/>
+      </c>
+      <c r="K29" s="83" t="str">
+        <f>IF(_sjgc_day_hour!J24="","",_sjgc_day_hour!J24)</f>
+        <v/>
+      </c>
+      <c r="L29" s="82" t="str">
+        <f>IF(_sjgc_day_hour!K24="","",_sjgc_day_hour!K24)</f>
+        <v/>
+      </c>
+      <c r="M29" s="95" t="str">
+        <f>IF(_sjgc_day_hour!L24="","",_sjgc_day_hour!L24)</f>
+        <v/>
+      </c>
+      <c r="N29" s="82" t="str">
+        <f>IF(_sjgc_day_hour!M24="","",_sjgc_day_hour!M24)</f>
+        <v/>
+      </c>
+      <c r="O29" s="82" t="str">
+        <f>IF(_sjgc_day_hour!N24="","",_sjgc_day_hour!N24)</f>
+        <v/>
+      </c>
+      <c r="P29" s="82" t="str">
+        <f>IF(_sjgc_day_hour!O24="","",_sjgc_day_hour!O24)</f>
+        <v/>
+      </c>
+      <c r="Q29" s="95" t="str">
+        <f>IF(_sjgc_day_hour!P24="","",_sjgc_day_hour!P24)</f>
+        <v/>
+      </c>
+      <c r="R29" s="95" t="str">
+        <f>IF(_sjgc_day_hour!Q24="","",_sjgc_day_hour!Q24)</f>
+        <v/>
+      </c>
+      <c r="S29" s="82" t="str">
+        <f>IF(_sjgc_day_hour!R24="","",_sjgc_day_hour!R24)</f>
+        <v/>
+      </c>
+      <c r="T29" s="95" t="str">
+        <f>IF(_sjgc_day_hour!S24="","",_sjgc_day_hour!S24)</f>
+        <v/>
+      </c>
+      <c r="U29" s="82" t="str">
+        <f>IF(_sjgc_day_hour!T24="","",_sjgc_day_hour!T24)</f>
+        <v/>
+      </c>
+      <c r="V29" s="105" t="str">
+        <f>IF(_sjgc_day_hour!U24="","",_sjgc_day_hour!U24)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" s="52" customFormat="1" ht="30" customHeight="1" spans="1:22">
+      <c r="A30" s="81">
+        <v>24</v>
+      </c>
+      <c r="B30" s="82" t="str">
+        <f>IF(_sjgc_day_hour!A25="","",_sjgc_day_hour!A25)</f>
+        <v/>
+      </c>
+      <c r="C30" s="82" t="str">
+        <f>IF(_sjgc_day_hour!B25="","",_sjgc_day_hour!B25)</f>
+        <v/>
+      </c>
+      <c r="D30" s="82" t="str">
+        <f>IF(_sjgc_day_hour!C25="","",_sjgc_day_hour!C25)</f>
+        <v/>
+      </c>
+      <c r="E30" s="83" t="str">
+        <f>IF(_sjgc_day_hour!D25="","",_sjgc_day_hour!D25)</f>
+        <v/>
+      </c>
+      <c r="F30" s="82" t="str">
+        <f>IF(_sjgc_day_hour!E25="","",_sjgc_day_hour!E25)</f>
+        <v/>
+      </c>
+      <c r="G30" s="82" t="str">
+        <f>IF(_sjgc_day_hour!F25="","",_sjgc_day_hour!F25)</f>
+        <v/>
+      </c>
+      <c r="H30" s="82" t="str">
+        <f>IF(_sjgc_day_hour!G25="","",_sjgc_day_hour!G25)</f>
+        <v/>
+      </c>
+      <c r="I30" s="82" t="str">
+        <f>IF(_sjgc_day_hour!H25="","",_sjgc_day_hour!H25)</f>
+        <v/>
+      </c>
+      <c r="J30" s="82" t="str">
+        <f>IF(_sjgc_day_hour!I25="","",_sjgc_day_hour!I25)</f>
+        <v/>
+      </c>
+      <c r="K30" s="83" t="str">
+        <f>IF(_sjgc_day_hour!J25="","",_sjgc_day_hour!J25)</f>
+        <v/>
+      </c>
+      <c r="L30" s="82" t="str">
+        <f>IF(_sjgc_day_hour!K25="","",_sjgc_day_hour!K25)</f>
+        <v/>
+      </c>
+      <c r="M30" s="95" t="str">
+        <f>IF(_sjgc_day_hour!L25="","",_sjgc_day_hour!L25)</f>
+        <v/>
+      </c>
+      <c r="N30" s="82" t="str">
+        <f>IF(_sjgc_day_hour!M25="","",_sjgc_day_hour!M25)</f>
+        <v/>
+      </c>
+      <c r="O30" s="82" t="str">
+        <f>IF(_sjgc_day_hour!N25="","",_sjgc_day_hour!N25)</f>
+        <v/>
+      </c>
+      <c r="P30" s="82" t="str">
+        <f>IF(_sjgc_day_hour!O25="","",_sjgc_day_hour!O25)</f>
+        <v/>
+      </c>
+      <c r="Q30" s="95" t="str">
+        <f>IF(_sjgc_day_hour!P25="","",_sjgc_day_hour!P25)</f>
+        <v/>
+      </c>
+      <c r="R30" s="95" t="str">
+        <f>IF(_sjgc_day_hour!Q25="","",_sjgc_day_hour!Q25)</f>
+        <v/>
+      </c>
+      <c r="S30" s="82" t="str">
+        <f>IF(_sjgc_day_hour!R25="","",_sjgc_day_hour!R25)</f>
+        <v/>
+      </c>
+      <c r="T30" s="95" t="str">
+        <f>IF(_sjgc_day_hour!S25="","",_sjgc_day_hour!S25)</f>
+        <v/>
+      </c>
+      <c r="U30" s="82" t="str">
+        <f>IF(_sjgc_day_hour!T25="","",_sjgc_day_hour!T25)</f>
+        <v/>
+      </c>
+      <c r="V30" s="105" t="str">
+        <f>IF(_sjgc_day_hour!U25="","",_sjgc_day_hour!U25)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" s="52" customFormat="1" ht="30" customHeight="1" spans="1:22">
+      <c r="A31" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="84"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="84"/>
+      <c r="K31" s="85"/>
+      <c r="L31" s="84"/>
+      <c r="M31" s="96"/>
+      <c r="N31" s="84"/>
+      <c r="O31" s="84"/>
+      <c r="P31" s="84"/>
+      <c r="Q31" s="96"/>
+      <c r="R31" s="96"/>
+      <c r="S31" s="84"/>
+      <c r="T31" s="96"/>
+      <c r="U31" s="84"/>
+      <c r="V31" s="108"/>
+    </row>
+    <row r="32" s="52" customFormat="1" ht="30" customHeight="1" spans="1:22">
+      <c r="A32" s="81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="84"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="84"/>
+      <c r="K32" s="85"/>
+      <c r="L32" s="84"/>
+      <c r="M32" s="96"/>
+      <c r="N32" s="84"/>
+      <c r="O32" s="84"/>
+      <c r="P32" s="84"/>
+      <c r="Q32" s="96"/>
+      <c r="R32" s="96"/>
+      <c r="S32" s="84"/>
+      <c r="T32" s="96"/>
+      <c r="U32" s="84"/>
+      <c r="V32" s="108"/>
+    </row>
+    <row r="33" s="52" customFormat="1" ht="30" customHeight="1" spans="1:22">
+      <c r="A33" s="81" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="84"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="84"/>
+      <c r="K33" s="85"/>
+      <c r="L33" s="84"/>
+      <c r="M33" s="96"/>
+      <c r="N33" s="84"/>
+      <c r="O33" s="84"/>
+      <c r="P33" s="84"/>
+      <c r="Q33" s="96"/>
+      <c r="R33" s="96"/>
+      <c r="S33" s="84"/>
+      <c r="T33" s="96"/>
+      <c r="U33" s="84"/>
+      <c r="V33" s="108"/>
+    </row>
+    <row r="34" s="52" customFormat="1" ht="30" customHeight="1" spans="1:22">
+      <c r="A34" s="81" t="s">
+        <v>162</v>
+      </c>
+      <c r="B34" s="86"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="86"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="87"/>
+      <c r="L34" s="86"/>
+      <c r="M34" s="97"/>
+      <c r="N34" s="86"/>
+      <c r="O34" s="86"/>
+      <c r="P34" s="86"/>
+      <c r="Q34" s="97"/>
+      <c r="R34" s="97"/>
+      <c r="S34" s="86"/>
+      <c r="T34" s="97"/>
+      <c r="U34" s="86"/>
+      <c r="V34" s="109"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:V2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="T4:U4"/>
+  </mergeCells>
+  <pageMargins left="0.359027777777778" right="0.275" top="0.826388888888889" bottom="0.729166666666667" header="0.826388888888889" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" scale="51" orientation="landscape" horizontalDpi="180" verticalDpi="180"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/excel/finished/烧结/6#烧结机生产日报.xlsx
+++ b/excel/finished/烧结/6#烧结机生产日报.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260">
   <si>
     <r>
       <rPr>
@@ -365,6 +365,19 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>夜班合计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>h</t>
+    </r>
+  </si>
+  <si>
     <t>混匀矿</t>
   </si>
   <si>
@@ -1476,19 +1489,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="14">
+    <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="179" formatCode="0.0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="0.0"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="178" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="179" formatCode="0.0_ "/>
-    <numFmt numFmtId="180" formatCode="0.0"/>
     <numFmt numFmtId="181" formatCode="0.0_);\(0.0\)"/>
     <numFmt numFmtId="182" formatCode="0_ "/>
-    <numFmt numFmtId="183" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="184" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="183" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="184" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="185" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="33">
@@ -1556,26 +1569,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1586,8 +1591,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1602,15 +1616,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1624,46 +1637,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1678,8 +1660,39 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1742,7 +1755,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1754,25 +1767,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1784,37 +1779,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1832,7 +1803,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1844,13 +1851,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1862,19 +1863,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1886,13 +1893,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1905,24 +1936,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2509,30 +2522,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2566,8 +2555,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2575,8 +2564,34 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2598,159 +2613,157 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="54" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="54" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="261">
+  <cellXfs count="263">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2860,7 +2873,7 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2890,7 +2903,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2917,7 +2930,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2954,7 +2967,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2975,19 +2988,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2999,7 +3012,7 @@
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="13" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3008,7 +3021,7 @@
     <xf numFmtId="180" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3044,19 +3057,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3258,108 +3271,108 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="183" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="183" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3419,6 +3432,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3479,11 +3500,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3916,8 +3937,8 @@
   <sheetPr/>
   <dimension ref="A2:Z115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4058,8 +4079,8 @@
       <c r="V5" s="146"/>
       <c r="W5" s="146"/>
       <c r="X5" s="188"/>
-      <c r="Y5" s="249"/>
-      <c r="Z5" s="249"/>
+      <c r="Y5" s="251"/>
+      <c r="Z5" s="251"/>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:26">
       <c r="A6" s="131"/>
@@ -4094,8 +4115,8 @@
       <c r="V6" s="111"/>
       <c r="W6" s="111"/>
       <c r="X6" s="212"/>
-      <c r="Y6" s="249"/>
-      <c r="Z6" s="249"/>
+      <c r="Y6" s="251"/>
+      <c r="Z6" s="251"/>
     </row>
     <row r="7" ht="30" customHeight="1" spans="1:26">
       <c r="A7" s="131" t="s">
@@ -4146,8 +4167,8 @@
       <c r="V7" s="217"/>
       <c r="W7" s="217"/>
       <c r="X7" s="218"/>
-      <c r="Y7" s="249"/>
-      <c r="Z7" s="249"/>
+      <c r="Y7" s="251"/>
+      <c r="Z7" s="251"/>
     </row>
     <row r="8" ht="30" customHeight="1" spans="1:26">
       <c r="A8" s="131" t="s">
@@ -4198,8 +4219,8 @@
       <c r="V8" s="217"/>
       <c r="W8" s="217"/>
       <c r="X8" s="218"/>
-      <c r="Y8" s="249"/>
-      <c r="Z8" s="249"/>
+      <c r="Y8" s="251"/>
+      <c r="Z8" s="251"/>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:26">
       <c r="A9" s="131" t="s">
@@ -4250,8 +4271,8 @@
       <c r="V9" s="217"/>
       <c r="W9" s="217"/>
       <c r="X9" s="218"/>
-      <c r="Y9" s="249"/>
-      <c r="Z9" s="249"/>
+      <c r="Y9" s="251"/>
+      <c r="Z9" s="251"/>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:26">
       <c r="A10" s="140" t="s">
@@ -4302,8 +4323,8 @@
       <c r="V10" s="217"/>
       <c r="W10" s="217"/>
       <c r="X10" s="218"/>
-      <c r="Y10" s="249"/>
-      <c r="Z10" s="249"/>
+      <c r="Y10" s="251"/>
+      <c r="Z10" s="251"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:26">
       <c r="A11" s="145" t="s">
@@ -4325,75 +4346,73 @@
       <c r="M11" s="190"/>
       <c r="N11" s="190"/>
       <c r="O11" s="191"/>
-      <c r="P11" s="261" t="s">
+      <c r="P11" s="263" t="s">
         <v>27</v>
       </c>
       <c r="Q11" s="221"/>
-      <c r="R11" s="175" t="s">
-        <v>20</v>
-      </c>
-      <c r="S11" s="214" t="s">
-        <v>20</v>
-      </c>
+      <c r="R11" s="222" t="s">
+        <v>28</v>
+      </c>
+      <c r="S11" s="223"/>
       <c r="T11" s="215"/>
       <c r="U11" s="216"/>
       <c r="V11" s="217"/>
       <c r="W11" s="217"/>
       <c r="X11" s="218"/>
-      <c r="Y11" s="249"/>
-      <c r="Z11" s="249"/>
+      <c r="Y11" s="251"/>
+      <c r="Z11" s="251"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:26">
       <c r="A12" s="131" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="147" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="148" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" s="148" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E12" s="148" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12" s="148" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="148" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="147" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="193" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="264" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="265" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" s="265" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" s="265" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" s="169" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" s="266" t="s">
+        <v>42</v>
+      </c>
+      <c r="P12" s="196" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q12" s="224" t="s">
         <v>32</v>
-      </c>
-      <c r="G12" s="148" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="147" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="193" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" s="262" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12" s="263" t="s">
-        <v>37</v>
-      </c>
-      <c r="L12" s="263" t="s">
-        <v>38</v>
-      </c>
-      <c r="M12" s="263" t="s">
-        <v>39</v>
-      </c>
-      <c r="N12" s="169" t="s">
-        <v>40</v>
-      </c>
-      <c r="O12" s="264" t="s">
-        <v>41</v>
-      </c>
-      <c r="P12" s="196" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q12" s="222" t="s">
-        <v>31</v>
       </c>
       <c r="R12" s="175" t="s">
         <v>20</v>
@@ -4406,8 +4425,8 @@
       <c r="V12" s="217"/>
       <c r="W12" s="217"/>
       <c r="X12" s="218"/>
-      <c r="Y12" s="249"/>
-      <c r="Z12" s="249"/>
+      <c r="Y12" s="251"/>
+      <c r="Z12" s="251"/>
     </row>
     <row r="13" ht="35.25" customHeight="1" spans="1:26">
       <c r="A13" s="131" t="s">
@@ -4442,7 +4461,7 @@
         <v/>
       </c>
       <c r="I13" s="197" t="str">
-        <f>IF(_sjmain1_day_shift!K2="","",_sjmain1_day_shift!K2)</f>
+        <f>IF(T11="","",8-T11)</f>
         <v/>
       </c>
       <c r="J13" s="198" t="str">
@@ -4488,8 +4507,8 @@
       <c r="V13" s="217"/>
       <c r="W13" s="217"/>
       <c r="X13" s="218"/>
-      <c r="Y13" s="249"/>
-      <c r="Z13" s="249"/>
+      <c r="Y13" s="251"/>
+      <c r="Z13" s="251"/>
     </row>
     <row r="14" ht="30" customHeight="1" spans="1:26">
       <c r="A14" s="131" t="s">
@@ -4524,7 +4543,7 @@
         <v/>
       </c>
       <c r="I14" s="199" t="str">
-        <f>IF(_sjmain1_day_shift!K3="","",_sjmain1_day_shift!K3)</f>
+        <f>IF(T21="","",8-T21)</f>
         <v/>
       </c>
       <c r="J14" s="198" t="str">
@@ -4562,7 +4581,7 @@
       <c r="R14" s="214" t="s">
         <v>20</v>
       </c>
-      <c r="S14" s="223" t="s">
+      <c r="S14" s="225" t="s">
         <v>20</v>
       </c>
       <c r="T14" s="215"/>
@@ -4570,8 +4589,8 @@
       <c r="V14" s="217"/>
       <c r="W14" s="217"/>
       <c r="X14" s="218"/>
-      <c r="Y14" s="249"/>
-      <c r="Z14" s="249"/>
+      <c r="Y14" s="251"/>
+      <c r="Z14" s="251"/>
     </row>
     <row r="15" ht="30" customHeight="1" spans="1:26">
       <c r="A15" s="140" t="s">
@@ -4606,7 +4625,7 @@
         <v/>
       </c>
       <c r="I15" s="200" t="str">
-        <f>IF(_sjmain1_day_shift!K4="","",_sjmain1_day_shift!K4)</f>
+        <f>IF(T29="","",8-T29)</f>
         <v/>
       </c>
       <c r="J15" s="198" t="str">
@@ -4641,30 +4660,30 @@
         <f>IF(_sjmain6_day_shift!A4="","",100-_sjmain6_day_shift!A4)</f>
         <v/>
       </c>
-      <c r="R15" s="224" t="s">
+      <c r="R15" s="226" t="s">
         <v>20</v>
       </c>
-      <c r="S15" s="223" t="s">
+      <c r="S15" s="225" t="s">
         <v>20</v>
       </c>
       <c r="T15" s="215"/>
-      <c r="U15" s="225"/>
-      <c r="V15" s="226"/>
-      <c r="W15" s="226"/>
-      <c r="X15" s="227"/>
-      <c r="Y15" s="249"/>
-      <c r="Z15" s="249"/>
+      <c r="U15" s="227"/>
+      <c r="V15" s="228"/>
+      <c r="W15" s="228"/>
+      <c r="X15" s="229"/>
+      <c r="Y15" s="251"/>
+      <c r="Z15" s="251"/>
     </row>
     <row r="16" ht="30" customHeight="1" spans="1:26">
       <c r="A16" s="151" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" s="152"/>
       <c r="C16" s="152"/>
       <c r="D16" s="152"/>
       <c r="E16" s="153"/>
       <c r="F16" s="151" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G16" s="152"/>
       <c r="H16" s="152"/>
@@ -4677,85 +4696,85 @@
       <c r="O16" s="152"/>
       <c r="P16" s="152"/>
       <c r="Q16" s="153"/>
-      <c r="R16" s="224" t="s">
+      <c r="R16" s="226" t="s">
         <v>20</v>
       </c>
-      <c r="S16" s="223" t="s">
+      <c r="S16" s="225" t="s">
         <v>20</v>
       </c>
       <c r="T16" s="215"/>
-      <c r="U16" s="225"/>
-      <c r="V16" s="226"/>
-      <c r="W16" s="226"/>
-      <c r="X16" s="227"/>
-      <c r="Y16" s="249"/>
-      <c r="Z16" s="249"/>
+      <c r="U16" s="227"/>
+      <c r="V16" s="228"/>
+      <c r="W16" s="228"/>
+      <c r="X16" s="229"/>
+      <c r="Y16" s="251"/>
+      <c r="Z16" s="251"/>
     </row>
     <row r="17" ht="30" customHeight="1" spans="1:26">
       <c r="A17" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="148" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="148" t="s">
-        <v>28</v>
-      </c>
       <c r="C17" s="148" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="148" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="148" t="s">
-        <v>31</v>
-      </c>
       <c r="E17" s="155" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" s="156" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G17" s="157" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" s="157" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" s="157" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J17" s="157" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K17" s="157" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L17" s="157" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M17" s="157" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N17" s="157" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="157" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P17" s="157" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q17" s="228" t="s">
         <v>56</v>
       </c>
-      <c r="R17" s="224" t="s">
+      <c r="Q17" s="230" t="s">
+        <v>57</v>
+      </c>
+      <c r="R17" s="226" t="s">
         <v>20</v>
       </c>
-      <c r="S17" s="223" t="s">
+      <c r="S17" s="225" t="s">
         <v>20</v>
       </c>
       <c r="T17" s="215"/>
-      <c r="U17" s="225"/>
-      <c r="V17" s="226"/>
-      <c r="W17" s="226"/>
-      <c r="X17" s="227"/>
-      <c r="Y17" s="249"/>
-      <c r="Z17" s="249"/>
+      <c r="U17" s="227"/>
+      <c r="V17" s="228"/>
+      <c r="W17" s="228"/>
+      <c r="X17" s="229"/>
+      <c r="Y17" s="251"/>
+      <c r="Z17" s="251"/>
     </row>
     <row r="18" customFormat="1" ht="48.95" customHeight="1" spans="1:26">
       <c r="A18" s="158"/>
@@ -4807,19 +4826,19 @@
         <f>IF(_sjmain2_day_shift!K2="","",_sjmain2_day_shift!K2)</f>
         <v/>
       </c>
-      <c r="Q18" s="229" t="str">
+      <c r="Q18" s="231" t="str">
         <f>IF(_sjmain2_day_shift!L2="","",_sjmain2_day_shift!L2)</f>
         <v/>
       </c>
-      <c r="R18" s="230"/>
-      <c r="S18" s="223"/>
+      <c r="R18" s="232"/>
+      <c r="S18" s="225"/>
       <c r="T18" s="215"/>
-      <c r="U18" s="225"/>
-      <c r="V18" s="226"/>
-      <c r="W18" s="226"/>
-      <c r="X18" s="227"/>
-      <c r="Y18" s="249"/>
-      <c r="Z18" s="249"/>
+      <c r="U18" s="227"/>
+      <c r="V18" s="228"/>
+      <c r="W18" s="228"/>
+      <c r="X18" s="229"/>
+      <c r="Y18" s="251"/>
+      <c r="Z18" s="251"/>
     </row>
     <row r="19" s="118" customFormat="1" ht="45.95" customHeight="1" spans="1:26">
       <c r="A19" s="158"/>
@@ -4871,19 +4890,19 @@
         <f>IF(_sjmain2_day_shift!K3="","",_sjmain2_day_shift!K3)</f>
         <v/>
       </c>
-      <c r="Q19" s="229" t="str">
+      <c r="Q19" s="231" t="str">
         <f>IF(_sjmain2_day_shift!L3="","",_sjmain2_day_shift!L3)</f>
         <v/>
       </c>
-      <c r="R19" s="231"/>
-      <c r="S19" s="232"/>
-      <c r="T19" s="233"/>
-      <c r="U19" s="225"/>
-      <c r="V19" s="226"/>
-      <c r="W19" s="226"/>
-      <c r="X19" s="227"/>
-      <c r="Y19" s="250"/>
-      <c r="Z19" s="250"/>
+      <c r="R19" s="233"/>
+      <c r="S19" s="234"/>
+      <c r="T19" s="235"/>
+      <c r="U19" s="227"/>
+      <c r="V19" s="228"/>
+      <c r="W19" s="228"/>
+      <c r="X19" s="229"/>
+      <c r="Y19" s="252"/>
+      <c r="Z19" s="252"/>
     </row>
     <row r="20" ht="48" customHeight="1" spans="1:26">
       <c r="A20" s="162"/>
@@ -4935,23 +4954,23 @@
         <f>IF(_sjmain2_day_shift!K4="","",_sjmain2_day_shift!K4)</f>
         <v/>
       </c>
-      <c r="Q20" s="229" t="str">
+      <c r="Q20" s="231" t="str">
         <f>IF(_sjmain2_day_shift!L4="","",_sjmain2_day_shift!L4)</f>
         <v/>
       </c>
-      <c r="R20" s="230"/>
-      <c r="S20" s="223"/>
+      <c r="R20" s="232"/>
+      <c r="S20" s="225"/>
       <c r="T20" s="215"/>
-      <c r="U20" s="225"/>
-      <c r="V20" s="226"/>
-      <c r="W20" s="226"/>
-      <c r="X20" s="227"/>
-      <c r="Y20" s="249"/>
-      <c r="Z20" s="249"/>
+      <c r="U20" s="227"/>
+      <c r="V20" s="228"/>
+      <c r="W20" s="228"/>
+      <c r="X20" s="229"/>
+      <c r="Y20" s="251"/>
+      <c r="Z20" s="251"/>
     </row>
     <row r="21" ht="30.95" customHeight="1" spans="1:26">
       <c r="A21" s="164" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B21" s="165"/>
       <c r="C21" s="165"/>
@@ -4968,68 +4987,68 @@
       <c r="N21" s="165"/>
       <c r="O21" s="165"/>
       <c r="P21" s="165"/>
-      <c r="Q21" s="234"/>
+      <c r="Q21" s="236"/>
       <c r="R21" s="110" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S21" s="111"/>
-      <c r="T21" s="235"/>
-      <c r="U21" s="236"/>
-      <c r="V21" s="237"/>
-      <c r="W21" s="237"/>
-      <c r="X21" s="238"/>
-      <c r="Y21" s="249"/>
-      <c r="Z21" s="249"/>
+      <c r="T21" s="237"/>
+      <c r="U21" s="238"/>
+      <c r="V21" s="239"/>
+      <c r="W21" s="239"/>
+      <c r="X21" s="240"/>
+      <c r="Y21" s="251"/>
+      <c r="Z21" s="251"/>
     </row>
     <row r="22" ht="30.95" customHeight="1" spans="1:26">
       <c r="A22" s="131" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22" s="166" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C22" s="167"/>
       <c r="D22" s="168" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E22" s="168" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F22" s="168" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G22" s="168" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H22" s="169" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I22" s="169" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J22" s="169" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K22" s="169" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L22" s="169" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M22" s="169" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N22" s="147" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O22" s="147" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P22" s="147" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q22" s="222" t="s">
         <v>74</v>
+      </c>
+      <c r="Q22" s="224" t="s">
+        <v>75</v>
       </c>
       <c r="R22" s="214" t="s">
         <v>20</v>
@@ -5042,8 +5061,8 @@
       <c r="V22" s="217"/>
       <c r="W22" s="217"/>
       <c r="X22" s="218"/>
-      <c r="Y22" s="249"/>
-      <c r="Z22" s="249"/>
+      <c r="Y22" s="251"/>
+      <c r="Z22" s="251"/>
     </row>
     <row r="23" ht="30.95" customHeight="1" spans="1:26">
       <c r="A23" s="170" t="str">
@@ -5107,14 +5126,14 @@
         <f>IF(_sjmain4_day_shift!P2="","",_sjmain4_day_shift!P2)</f>
         <v/>
       </c>
-      <c r="Q23" s="239" t="str">
+      <c r="Q23" s="241" t="str">
         <f>IF(_sjmain4_day_shift!Q2="","",_sjmain4_day_shift!Q2)</f>
         <v/>
       </c>
-      <c r="R23" s="224" t="s">
+      <c r="R23" s="226" t="s">
         <v>20</v>
       </c>
-      <c r="S23" s="223" t="s">
+      <c r="S23" s="225" t="s">
         <v>20</v>
       </c>
       <c r="T23" s="215"/>
@@ -5122,8 +5141,8 @@
       <c r="V23" s="217"/>
       <c r="W23" s="217"/>
       <c r="X23" s="218"/>
-      <c r="Y23" s="249"/>
-      <c r="Z23" s="249"/>
+      <c r="Y23" s="251"/>
+      <c r="Z23" s="251"/>
     </row>
     <row r="24" ht="30.75" customHeight="1" spans="1:26">
       <c r="A24" s="175" t="str">
@@ -5184,11 +5203,11 @@
         <v/>
       </c>
       <c r="P24" s="202"/>
-      <c r="Q24" s="239"/>
-      <c r="R24" s="224" t="s">
+      <c r="Q24" s="241"/>
+      <c r="R24" s="226" t="s">
         <v>20</v>
       </c>
-      <c r="S24" s="223" t="s">
+      <c r="S24" s="225" t="s">
         <v>20</v>
       </c>
       <c r="T24" s="215"/>
@@ -5196,8 +5215,8 @@
       <c r="V24" s="217"/>
       <c r="W24" s="217"/>
       <c r="X24" s="218"/>
-      <c r="Y24" s="249"/>
-      <c r="Z24" s="249"/>
+      <c r="Y24" s="251"/>
+      <c r="Z24" s="251"/>
     </row>
     <row r="25" ht="30.95" customHeight="1" spans="1:26">
       <c r="A25" s="175" t="str">
@@ -5258,11 +5277,11 @@
         <v/>
       </c>
       <c r="P25" s="202"/>
-      <c r="Q25" s="239"/>
-      <c r="R25" s="224" t="s">
+      <c r="Q25" s="241"/>
+      <c r="R25" s="226" t="s">
         <v>20</v>
       </c>
-      <c r="S25" s="223" t="s">
+      <c r="S25" s="225" t="s">
         <v>20</v>
       </c>
       <c r="T25" s="215"/>
@@ -5270,8 +5289,8 @@
       <c r="V25" s="217"/>
       <c r="W25" s="217"/>
       <c r="X25" s="218"/>
-      <c r="Y25" s="249"/>
-      <c r="Z25" s="249"/>
+      <c r="Y25" s="251"/>
+      <c r="Z25" s="251"/>
     </row>
     <row r="26" ht="30.95" customHeight="1" spans="1:26">
       <c r="A26" s="175" t="str">
@@ -5332,20 +5351,20 @@
         <v/>
       </c>
       <c r="P26" s="202"/>
-      <c r="Q26" s="239"/>
-      <c r="R26" s="224" t="s">
+      <c r="Q26" s="241"/>
+      <c r="R26" s="226" t="s">
         <v>20</v>
       </c>
-      <c r="S26" s="223" t="s">
+      <c r="S26" s="225" t="s">
         <v>20</v>
       </c>
       <c r="T26" s="215"/>
-      <c r="U26" s="225"/>
-      <c r="V26" s="226"/>
-      <c r="W26" s="226"/>
-      <c r="X26" s="227"/>
-      <c r="Y26" s="249"/>
-      <c r="Z26" s="249"/>
+      <c r="U26" s="227"/>
+      <c r="V26" s="228"/>
+      <c r="W26" s="228"/>
+      <c r="X26" s="229"/>
+      <c r="Y26" s="251"/>
+      <c r="Z26" s="251"/>
     </row>
     <row r="27" ht="30.95" customHeight="1" spans="1:26">
       <c r="A27" s="175" t="str">
@@ -5406,16 +5425,16 @@
         <v/>
       </c>
       <c r="P27" s="202"/>
-      <c r="Q27" s="239"/>
-      <c r="R27" s="224"/>
-      <c r="S27" s="223"/>
+      <c r="Q27" s="241"/>
+      <c r="R27" s="226"/>
+      <c r="S27" s="225"/>
       <c r="T27" s="215"/>
       <c r="U27" s="216"/>
       <c r="V27" s="217"/>
       <c r="W27" s="217"/>
       <c r="X27" s="218"/>
-      <c r="Y27" s="249"/>
-      <c r="Z27" s="249"/>
+      <c r="Y27" s="251"/>
+      <c r="Z27" s="251"/>
     </row>
     <row r="28" ht="30.95" customHeight="1" spans="1:26">
       <c r="A28" s="175" t="str">
@@ -5476,16 +5495,16 @@
         <v/>
       </c>
       <c r="P28" s="202"/>
-      <c r="Q28" s="239"/>
-      <c r="R28" s="224"/>
-      <c r="S28" s="223"/>
+      <c r="Q28" s="241"/>
+      <c r="R28" s="226"/>
+      <c r="S28" s="225"/>
       <c r="T28" s="215"/>
-      <c r="U28" s="225"/>
-      <c r="V28" s="226"/>
-      <c r="W28" s="226"/>
-      <c r="X28" s="227"/>
-      <c r="Y28" s="249"/>
-      <c r="Z28" s="249"/>
+      <c r="U28" s="227"/>
+      <c r="V28" s="228"/>
+      <c r="W28" s="228"/>
+      <c r="X28" s="229"/>
+      <c r="Y28" s="251"/>
+      <c r="Z28" s="251"/>
     </row>
     <row r="29" ht="30.95" customHeight="1" spans="1:26">
       <c r="A29" s="175" t="str">
@@ -5546,18 +5565,18 @@
         <v/>
       </c>
       <c r="P29" s="202"/>
-      <c r="Q29" s="239"/>
+      <c r="Q29" s="241"/>
       <c r="R29" s="110" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S29" s="111"/>
-      <c r="T29" s="235"/>
-      <c r="U29" s="236"/>
-      <c r="V29" s="237"/>
-      <c r="W29" s="237"/>
-      <c r="X29" s="238"/>
-      <c r="Y29" s="249"/>
-      <c r="Z29" s="249"/>
+      <c r="T29" s="237"/>
+      <c r="U29" s="238"/>
+      <c r="V29" s="239"/>
+      <c r="W29" s="239"/>
+      <c r="X29" s="240"/>
+      <c r="Y29" s="251"/>
+      <c r="Z29" s="251"/>
     </row>
     <row r="30" ht="30" customHeight="1" spans="1:24">
       <c r="A30" s="175" t="str">
@@ -5618,18 +5637,18 @@
         <v/>
       </c>
       <c r="P30" s="202"/>
-      <c r="Q30" s="239"/>
+      <c r="Q30" s="241"/>
       <c r="R30" s="110" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S30" s="111"/>
-      <c r="T30" s="235">
+      <c r="T30" s="237">
         <v>0</v>
       </c>
-      <c r="U30" s="236"/>
-      <c r="V30" s="237"/>
-      <c r="W30" s="237"/>
-      <c r="X30" s="238"/>
+      <c r="U30" s="238"/>
+      <c r="V30" s="239"/>
+      <c r="W30" s="239"/>
+      <c r="X30" s="240"/>
     </row>
     <row r="31" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A31" s="175" t="str">
@@ -5690,14 +5709,14 @@
         <v/>
       </c>
       <c r="P31" s="202"/>
-      <c r="Q31" s="239"/>
+      <c r="Q31" s="241"/>
       <c r="R31" s="110"/>
       <c r="S31" s="111"/>
-      <c r="T31" s="235"/>
-      <c r="U31" s="236"/>
-      <c r="V31" s="237"/>
-      <c r="W31" s="237"/>
-      <c r="X31" s="238"/>
+      <c r="T31" s="237"/>
+      <c r="U31" s="238"/>
+      <c r="V31" s="239"/>
+      <c r="W31" s="239"/>
+      <c r="X31" s="240"/>
     </row>
     <row r="32" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A32" s="175" t="str">
@@ -5758,14 +5777,14 @@
         <v/>
       </c>
       <c r="P32" s="202"/>
-      <c r="Q32" s="239"/>
+      <c r="Q32" s="241"/>
       <c r="R32" s="110"/>
       <c r="S32" s="111"/>
-      <c r="T32" s="235"/>
-      <c r="U32" s="236"/>
-      <c r="V32" s="237"/>
-      <c r="W32" s="237"/>
-      <c r="X32" s="238"/>
+      <c r="T32" s="237"/>
+      <c r="U32" s="238"/>
+      <c r="V32" s="239"/>
+      <c r="W32" s="239"/>
+      <c r="X32" s="240"/>
     </row>
     <row r="33" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A33" s="175" t="str">
@@ -5826,14 +5845,14 @@
         <v/>
       </c>
       <c r="P33" s="202"/>
-      <c r="Q33" s="239"/>
+      <c r="Q33" s="241"/>
       <c r="R33" s="110"/>
       <c r="S33" s="111"/>
-      <c r="T33" s="235"/>
-      <c r="U33" s="236"/>
-      <c r="V33" s="237"/>
-      <c r="W33" s="237"/>
-      <c r="X33" s="238"/>
+      <c r="T33" s="237"/>
+      <c r="U33" s="238"/>
+      <c r="V33" s="239"/>
+      <c r="W33" s="239"/>
+      <c r="X33" s="240"/>
     </row>
     <row r="34" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A34" s="175" t="str">
@@ -5894,14 +5913,14 @@
         <v/>
       </c>
       <c r="P34" s="202"/>
-      <c r="Q34" s="239"/>
+      <c r="Q34" s="241"/>
       <c r="R34" s="110"/>
       <c r="S34" s="111"/>
-      <c r="T34" s="235"/>
-      <c r="U34" s="236"/>
-      <c r="V34" s="237"/>
-      <c r="W34" s="237"/>
-      <c r="X34" s="238"/>
+      <c r="T34" s="237"/>
+      <c r="U34" s="238"/>
+      <c r="V34" s="239"/>
+      <c r="W34" s="239"/>
+      <c r="X34" s="240"/>
     </row>
     <row r="35" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A35" s="175" t="str">
@@ -5962,14 +5981,14 @@
         <v/>
       </c>
       <c r="P35" s="202"/>
-      <c r="Q35" s="239"/>
+      <c r="Q35" s="241"/>
       <c r="R35" s="110"/>
       <c r="S35" s="111"/>
-      <c r="T35" s="235"/>
-      <c r="U35" s="236"/>
-      <c r="V35" s="237"/>
-      <c r="W35" s="237"/>
-      <c r="X35" s="238"/>
+      <c r="T35" s="237"/>
+      <c r="U35" s="238"/>
+      <c r="V35" s="239"/>
+      <c r="W35" s="239"/>
+      <c r="X35" s="240"/>
     </row>
     <row r="36" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A36" s="175" t="str">
@@ -6030,14 +6049,14 @@
         <v/>
       </c>
       <c r="P36" s="202"/>
-      <c r="Q36" s="239"/>
+      <c r="Q36" s="241"/>
       <c r="R36" s="110"/>
       <c r="S36" s="111"/>
-      <c r="T36" s="235"/>
-      <c r="U36" s="236"/>
-      <c r="V36" s="237"/>
-      <c r="W36" s="237"/>
-      <c r="X36" s="238"/>
+      <c r="T36" s="237"/>
+      <c r="U36" s="238"/>
+      <c r="V36" s="239"/>
+      <c r="W36" s="239"/>
+      <c r="X36" s="240"/>
     </row>
     <row r="37" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A37" s="175" t="str">
@@ -6098,14 +6117,14 @@
         <v/>
       </c>
       <c r="P37" s="202"/>
-      <c r="Q37" s="239"/>
+      <c r="Q37" s="241"/>
       <c r="R37" s="110"/>
       <c r="S37" s="111"/>
-      <c r="T37" s="235"/>
-      <c r="U37" s="236"/>
-      <c r="V37" s="237"/>
-      <c r="W37" s="237"/>
-      <c r="X37" s="238"/>
+      <c r="T37" s="237"/>
+      <c r="U37" s="238"/>
+      <c r="V37" s="239"/>
+      <c r="W37" s="239"/>
+      <c r="X37" s="240"/>
     </row>
     <row r="38" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A38" s="175" t="str">
@@ -6166,14 +6185,14 @@
         <v/>
       </c>
       <c r="P38" s="202"/>
-      <c r="Q38" s="239"/>
+      <c r="Q38" s="241"/>
       <c r="R38" s="110"/>
       <c r="S38" s="111"/>
-      <c r="T38" s="235"/>
-      <c r="U38" s="236"/>
-      <c r="V38" s="237"/>
-      <c r="W38" s="237"/>
-      <c r="X38" s="238"/>
+      <c r="T38" s="237"/>
+      <c r="U38" s="238"/>
+      <c r="V38" s="239"/>
+      <c r="W38" s="239"/>
+      <c r="X38" s="240"/>
     </row>
     <row r="39" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A39" s="175" t="str">
@@ -6234,14 +6253,14 @@
         <v/>
       </c>
       <c r="P39" s="202"/>
-      <c r="Q39" s="239"/>
+      <c r="Q39" s="241"/>
       <c r="R39" s="110"/>
       <c r="S39" s="111"/>
-      <c r="T39" s="235"/>
-      <c r="U39" s="236"/>
-      <c r="V39" s="237"/>
-      <c r="W39" s="237"/>
-      <c r="X39" s="238"/>
+      <c r="T39" s="237"/>
+      <c r="U39" s="238"/>
+      <c r="V39" s="239"/>
+      <c r="W39" s="239"/>
+      <c r="X39" s="240"/>
     </row>
     <row r="40" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A40" s="175" t="str">
@@ -6302,14 +6321,14 @@
         <v/>
       </c>
       <c r="P40" s="202"/>
-      <c r="Q40" s="239"/>
+      <c r="Q40" s="241"/>
       <c r="R40" s="110"/>
       <c r="S40" s="111"/>
-      <c r="T40" s="235"/>
-      <c r="U40" s="236"/>
-      <c r="V40" s="237"/>
-      <c r="W40" s="237"/>
-      <c r="X40" s="238"/>
+      <c r="T40" s="237"/>
+      <c r="U40" s="238"/>
+      <c r="V40" s="239"/>
+      <c r="W40" s="239"/>
+      <c r="X40" s="240"/>
     </row>
     <row r="41" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A41" s="175" t="str">
@@ -6370,14 +6389,14 @@
         <v/>
       </c>
       <c r="P41" s="202"/>
-      <c r="Q41" s="239"/>
+      <c r="Q41" s="241"/>
       <c r="R41" s="110"/>
       <c r="S41" s="111"/>
-      <c r="T41" s="235"/>
-      <c r="U41" s="236"/>
-      <c r="V41" s="237"/>
-      <c r="W41" s="237"/>
-      <c r="X41" s="238"/>
+      <c r="T41" s="237"/>
+      <c r="U41" s="238"/>
+      <c r="V41" s="239"/>
+      <c r="W41" s="239"/>
+      <c r="X41" s="240"/>
     </row>
     <row r="42" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A42" s="175" t="str">
@@ -6438,14 +6457,14 @@
         <v/>
       </c>
       <c r="P42" s="202"/>
-      <c r="Q42" s="239"/>
+      <c r="Q42" s="241"/>
       <c r="R42" s="110"/>
       <c r="S42" s="111"/>
-      <c r="T42" s="235"/>
-      <c r="U42" s="236"/>
-      <c r="V42" s="237"/>
-      <c r="W42" s="237"/>
-      <c r="X42" s="238"/>
+      <c r="T42" s="237"/>
+      <c r="U42" s="238"/>
+      <c r="V42" s="239"/>
+      <c r="W42" s="239"/>
+      <c r="X42" s="240"/>
     </row>
     <row r="43" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A43" s="175" t="str">
@@ -6506,14 +6525,14 @@
         <v/>
       </c>
       <c r="P43" s="202"/>
-      <c r="Q43" s="239"/>
+      <c r="Q43" s="241"/>
       <c r="R43" s="110"/>
       <c r="S43" s="111"/>
-      <c r="T43" s="235"/>
-      <c r="U43" s="236"/>
-      <c r="V43" s="237"/>
-      <c r="W43" s="237"/>
-      <c r="X43" s="238"/>
+      <c r="T43" s="237"/>
+      <c r="U43" s="238"/>
+      <c r="V43" s="239"/>
+      <c r="W43" s="239"/>
+      <c r="X43" s="240"/>
     </row>
     <row r="44" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A44" s="175" t="str">
@@ -6574,14 +6593,14 @@
         <v/>
       </c>
       <c r="P44" s="202"/>
-      <c r="Q44" s="239"/>
+      <c r="Q44" s="241"/>
       <c r="R44" s="110"/>
       <c r="S44" s="111"/>
-      <c r="T44" s="235"/>
-      <c r="U44" s="236"/>
-      <c r="V44" s="237"/>
-      <c r="W44" s="237"/>
-      <c r="X44" s="238"/>
+      <c r="T44" s="237"/>
+      <c r="U44" s="238"/>
+      <c r="V44" s="239"/>
+      <c r="W44" s="239"/>
+      <c r="X44" s="240"/>
     </row>
     <row r="45" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A45" s="175" t="str">
@@ -6642,14 +6661,14 @@
         <v/>
       </c>
       <c r="P45" s="202"/>
-      <c r="Q45" s="239"/>
+      <c r="Q45" s="241"/>
       <c r="R45" s="110"/>
       <c r="S45" s="111"/>
-      <c r="T45" s="235"/>
-      <c r="U45" s="236"/>
-      <c r="V45" s="237"/>
-      <c r="W45" s="237"/>
-      <c r="X45" s="238"/>
+      <c r="T45" s="237"/>
+      <c r="U45" s="238"/>
+      <c r="V45" s="239"/>
+      <c r="W45" s="239"/>
+      <c r="X45" s="240"/>
     </row>
     <row r="46" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A46" s="175" t="str">
@@ -6710,14 +6729,14 @@
         <v/>
       </c>
       <c r="P46" s="202"/>
-      <c r="Q46" s="239"/>
+      <c r="Q46" s="241"/>
       <c r="R46" s="110"/>
       <c r="S46" s="111"/>
-      <c r="T46" s="235"/>
-      <c r="U46" s="236"/>
-      <c r="V46" s="237"/>
-      <c r="W46" s="237"/>
-      <c r="X46" s="238"/>
+      <c r="T46" s="237"/>
+      <c r="U46" s="238"/>
+      <c r="V46" s="239"/>
+      <c r="W46" s="239"/>
+      <c r="X46" s="240"/>
     </row>
     <row r="47" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A47" s="175" t="str">
@@ -6778,14 +6797,14 @@
         <v/>
       </c>
       <c r="P47" s="202"/>
-      <c r="Q47" s="239"/>
+      <c r="Q47" s="241"/>
       <c r="R47" s="110"/>
       <c r="S47" s="111"/>
-      <c r="T47" s="235"/>
-      <c r="U47" s="236"/>
-      <c r="V47" s="237"/>
-      <c r="W47" s="237"/>
-      <c r="X47" s="238"/>
+      <c r="T47" s="237"/>
+      <c r="U47" s="238"/>
+      <c r="V47" s="239"/>
+      <c r="W47" s="239"/>
+      <c r="X47" s="240"/>
     </row>
     <row r="48" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A48" s="175" t="str">
@@ -6846,14 +6865,14 @@
         <v/>
       </c>
       <c r="P48" s="202"/>
-      <c r="Q48" s="239"/>
+      <c r="Q48" s="241"/>
       <c r="R48" s="110"/>
       <c r="S48" s="111"/>
-      <c r="T48" s="235"/>
-      <c r="U48" s="236"/>
-      <c r="V48" s="237"/>
-      <c r="W48" s="237"/>
-      <c r="X48" s="238"/>
+      <c r="T48" s="237"/>
+      <c r="U48" s="238"/>
+      <c r="V48" s="239"/>
+      <c r="W48" s="239"/>
+      <c r="X48" s="240"/>
     </row>
     <row r="49" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A49" s="175" t="str">
@@ -6914,14 +6933,14 @@
         <v/>
       </c>
       <c r="P49" s="202"/>
-      <c r="Q49" s="239"/>
+      <c r="Q49" s="241"/>
       <c r="R49" s="110"/>
       <c r="S49" s="111"/>
-      <c r="T49" s="235"/>
-      <c r="U49" s="236"/>
-      <c r="V49" s="237"/>
-      <c r="W49" s="237"/>
-      <c r="X49" s="238"/>
+      <c r="T49" s="237"/>
+      <c r="U49" s="238"/>
+      <c r="V49" s="239"/>
+      <c r="W49" s="239"/>
+      <c r="X49" s="240"/>
     </row>
     <row r="50" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A50" s="175" t="str">
@@ -6982,14 +7001,14 @@
         <v/>
       </c>
       <c r="P50" s="202"/>
-      <c r="Q50" s="239"/>
+      <c r="Q50" s="241"/>
       <c r="R50" s="110"/>
       <c r="S50" s="111"/>
-      <c r="T50" s="235"/>
-      <c r="U50" s="236"/>
-      <c r="V50" s="237"/>
-      <c r="W50" s="237"/>
-      <c r="X50" s="238"/>
+      <c r="T50" s="237"/>
+      <c r="U50" s="238"/>
+      <c r="V50" s="239"/>
+      <c r="W50" s="239"/>
+      <c r="X50" s="240"/>
     </row>
     <row r="51" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A51" s="175" t="str">
@@ -7050,14 +7069,14 @@
         <v/>
       </c>
       <c r="P51" s="202"/>
-      <c r="Q51" s="239"/>
+      <c r="Q51" s="241"/>
       <c r="R51" s="110"/>
       <c r="S51" s="111"/>
-      <c r="T51" s="235"/>
-      <c r="U51" s="236"/>
-      <c r="V51" s="237"/>
-      <c r="W51" s="237"/>
-      <c r="X51" s="238"/>
+      <c r="T51" s="237"/>
+      <c r="U51" s="238"/>
+      <c r="V51" s="239"/>
+      <c r="W51" s="239"/>
+      <c r="X51" s="240"/>
     </row>
     <row r="52" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A52" s="175" t="str">
@@ -7118,14 +7137,14 @@
         <v/>
       </c>
       <c r="P52" s="202"/>
-      <c r="Q52" s="239"/>
+      <c r="Q52" s="241"/>
       <c r="R52" s="110"/>
       <c r="S52" s="111"/>
-      <c r="T52" s="235"/>
-      <c r="U52" s="236"/>
-      <c r="V52" s="237"/>
-      <c r="W52" s="237"/>
-      <c r="X52" s="238"/>
+      <c r="T52" s="237"/>
+      <c r="U52" s="238"/>
+      <c r="V52" s="239"/>
+      <c r="W52" s="239"/>
+      <c r="X52" s="240"/>
     </row>
     <row r="53" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A53" s="175" t="str">
@@ -7186,14 +7205,14 @@
         <v/>
       </c>
       <c r="P53" s="202"/>
-      <c r="Q53" s="239"/>
+      <c r="Q53" s="241"/>
       <c r="R53" s="110"/>
       <c r="S53" s="111"/>
-      <c r="T53" s="235"/>
-      <c r="U53" s="236"/>
-      <c r="V53" s="237"/>
-      <c r="W53" s="237"/>
-      <c r="X53" s="238"/>
+      <c r="T53" s="237"/>
+      <c r="U53" s="238"/>
+      <c r="V53" s="239"/>
+      <c r="W53" s="239"/>
+      <c r="X53" s="240"/>
     </row>
     <row r="54" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A54" s="175" t="str">
@@ -7254,14 +7273,14 @@
         <v/>
       </c>
       <c r="P54" s="202"/>
-      <c r="Q54" s="239"/>
+      <c r="Q54" s="241"/>
       <c r="R54" s="110"/>
       <c r="S54" s="111"/>
-      <c r="T54" s="235"/>
-      <c r="U54" s="236"/>
-      <c r="V54" s="237"/>
-      <c r="W54" s="237"/>
-      <c r="X54" s="238"/>
+      <c r="T54" s="237"/>
+      <c r="U54" s="238"/>
+      <c r="V54" s="239"/>
+      <c r="W54" s="239"/>
+      <c r="X54" s="240"/>
     </row>
     <row r="55" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A55" s="175" t="str">
@@ -7322,14 +7341,14 @@
         <v/>
       </c>
       <c r="P55" s="202"/>
-      <c r="Q55" s="239"/>
+      <c r="Q55" s="241"/>
       <c r="R55" s="110"/>
       <c r="S55" s="111"/>
-      <c r="T55" s="235"/>
-      <c r="U55" s="236"/>
-      <c r="V55" s="237"/>
-      <c r="W55" s="237"/>
-      <c r="X55" s="238"/>
+      <c r="T55" s="237"/>
+      <c r="U55" s="238"/>
+      <c r="V55" s="239"/>
+      <c r="W55" s="239"/>
+      <c r="X55" s="240"/>
     </row>
     <row r="56" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A56" s="175" t="str">
@@ -7390,14 +7409,14 @@
         <v/>
       </c>
       <c r="P56" s="202"/>
-      <c r="Q56" s="239"/>
+      <c r="Q56" s="241"/>
       <c r="R56" s="110"/>
       <c r="S56" s="111"/>
-      <c r="T56" s="235"/>
-      <c r="U56" s="236"/>
-      <c r="V56" s="237"/>
-      <c r="W56" s="237"/>
-      <c r="X56" s="238"/>
+      <c r="T56" s="237"/>
+      <c r="U56" s="238"/>
+      <c r="V56" s="239"/>
+      <c r="W56" s="239"/>
+      <c r="X56" s="240"/>
     </row>
     <row r="57" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A57" s="175" t="str">
@@ -7458,14 +7477,14 @@
         <v/>
       </c>
       <c r="P57" s="202"/>
-      <c r="Q57" s="239"/>
+      <c r="Q57" s="241"/>
       <c r="R57" s="110"/>
       <c r="S57" s="111"/>
-      <c r="T57" s="235"/>
-      <c r="U57" s="236"/>
-      <c r="V57" s="237"/>
-      <c r="W57" s="237"/>
-      <c r="X57" s="238"/>
+      <c r="T57" s="237"/>
+      <c r="U57" s="238"/>
+      <c r="V57" s="239"/>
+      <c r="W57" s="239"/>
+      <c r="X57" s="240"/>
     </row>
     <row r="58" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A58" s="175" t="str">
@@ -7526,14 +7545,14 @@
         <v/>
       </c>
       <c r="P58" s="202"/>
-      <c r="Q58" s="239"/>
+      <c r="Q58" s="241"/>
       <c r="R58" s="110"/>
       <c r="S58" s="111"/>
-      <c r="T58" s="235"/>
-      <c r="U58" s="236"/>
-      <c r="V58" s="237"/>
-      <c r="W58" s="237"/>
-      <c r="X58" s="238"/>
+      <c r="T58" s="237"/>
+      <c r="U58" s="238"/>
+      <c r="V58" s="239"/>
+      <c r="W58" s="239"/>
+      <c r="X58" s="240"/>
     </row>
     <row r="59" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A59" s="175" t="str">
@@ -7594,14 +7613,14 @@
         <v/>
       </c>
       <c r="P59" s="202"/>
-      <c r="Q59" s="239"/>
+      <c r="Q59" s="241"/>
       <c r="R59" s="110"/>
       <c r="S59" s="111"/>
-      <c r="T59" s="235"/>
-      <c r="U59" s="236"/>
-      <c r="V59" s="237"/>
-      <c r="W59" s="237"/>
-      <c r="X59" s="238"/>
+      <c r="T59" s="237"/>
+      <c r="U59" s="238"/>
+      <c r="V59" s="239"/>
+      <c r="W59" s="239"/>
+      <c r="X59" s="240"/>
     </row>
     <row r="60" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A60" s="175" t="str">
@@ -7662,14 +7681,14 @@
         <v/>
       </c>
       <c r="P60" s="202"/>
-      <c r="Q60" s="239"/>
+      <c r="Q60" s="241"/>
       <c r="R60" s="110"/>
       <c r="S60" s="111"/>
-      <c r="T60" s="235"/>
-      <c r="U60" s="236"/>
-      <c r="V60" s="237"/>
-      <c r="W60" s="237"/>
-      <c r="X60" s="238"/>
+      <c r="T60" s="237"/>
+      <c r="U60" s="238"/>
+      <c r="V60" s="239"/>
+      <c r="W60" s="239"/>
+      <c r="X60" s="240"/>
     </row>
     <row r="61" customFormat="1" ht="30" customHeight="1" spans="1:24">
       <c r="A61" s="175" t="str">
@@ -7730,14 +7749,14 @@
         <v/>
       </c>
       <c r="P61" s="202"/>
-      <c r="Q61" s="239"/>
+      <c r="Q61" s="241"/>
       <c r="R61" s="110"/>
       <c r="S61" s="111"/>
-      <c r="T61" s="235"/>
-      <c r="U61" s="236"/>
-      <c r="V61" s="237"/>
-      <c r="W61" s="237"/>
-      <c r="X61" s="238"/>
+      <c r="T61" s="237"/>
+      <c r="U61" s="238"/>
+      <c r="V61" s="239"/>
+      <c r="W61" s="239"/>
+      <c r="X61" s="240"/>
     </row>
     <row r="62" s="119" customFormat="1" ht="45" customHeight="1" spans="1:24">
       <c r="A62" s="175" t="str">
@@ -7798,18 +7817,18 @@
         <v/>
       </c>
       <c r="P62" s="202"/>
-      <c r="Q62" s="239"/>
+      <c r="Q62" s="241"/>
       <c r="R62" s="131"/>
       <c r="S62" s="211"/>
       <c r="T62" s="147"/>
-      <c r="U62" s="236"/>
-      <c r="V62" s="237"/>
-      <c r="W62" s="237"/>
-      <c r="X62" s="238"/>
+      <c r="U62" s="238"/>
+      <c r="V62" s="239"/>
+      <c r="W62" s="239"/>
+      <c r="X62" s="240"/>
     </row>
     <row r="63" s="119" customFormat="1" ht="45" customHeight="1" spans="1:24">
       <c r="A63" s="178" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B63" s="179"/>
       <c r="C63" s="180"/>
@@ -7826,18 +7845,18 @@
       <c r="N63" s="174"/>
       <c r="O63" s="174"/>
       <c r="P63" s="204"/>
-      <c r="Q63" s="240"/>
-      <c r="R63" s="241"/>
-      <c r="S63" s="242"/>
-      <c r="T63" s="243"/>
-      <c r="U63" s="244"/>
-      <c r="V63" s="245"/>
-      <c r="W63" s="245"/>
-      <c r="X63" s="246"/>
+      <c r="Q63" s="242"/>
+      <c r="R63" s="243"/>
+      <c r="S63" s="244"/>
+      <c r="T63" s="245"/>
+      <c r="U63" s="246"/>
+      <c r="V63" s="247"/>
+      <c r="W63" s="247"/>
+      <c r="X63" s="248"/>
     </row>
     <row r="64" s="119" customFormat="1" ht="45" customHeight="1" spans="1:24">
       <c r="A64" s="182" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B64" s="183"/>
       <c r="C64" s="183"/>
@@ -7847,7 +7866,7 @@
       <c r="G64" s="183"/>
       <c r="H64" s="184"/>
       <c r="I64" s="182" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J64" s="183"/>
       <c r="K64" s="183"/>
@@ -7857,183 +7876,183 @@
       <c r="O64" s="183"/>
       <c r="P64" s="184"/>
       <c r="Q64" s="182" t="s">
-        <v>80</v>
-      </c>
-      <c r="R64" s="247"/>
-      <c r="S64" s="247"/>
-      <c r="T64" s="247"/>
-      <c r="U64" s="247"/>
-      <c r="V64" s="247"/>
-      <c r="W64" s="247"/>
-      <c r="X64" s="248"/>
+        <v>81</v>
+      </c>
+      <c r="R64" s="249"/>
+      <c r="S64" s="249"/>
+      <c r="T64" s="249"/>
+      <c r="U64" s="249"/>
+      <c r="V64" s="249"/>
+      <c r="W64" s="249"/>
+      <c r="X64" s="250"/>
     </row>
     <row r="65" s="119" customFormat="1" ht="45" customHeight="1" spans="1:24">
-      <c r="A65" s="251"/>
-      <c r="B65" s="252"/>
-      <c r="C65" s="252"/>
-      <c r="D65" s="252"/>
-      <c r="E65" s="252"/>
-      <c r="F65" s="252"/>
-      <c r="G65" s="252"/>
-      <c r="H65" s="253"/>
-      <c r="I65" s="251"/>
-      <c r="J65" s="252"/>
-      <c r="K65" s="252"/>
-      <c r="L65" s="252"/>
-      <c r="M65" s="252"/>
-      <c r="N65" s="252"/>
-      <c r="O65" s="252"/>
-      <c r="P65" s="253"/>
-      <c r="Q65" s="251"/>
-      <c r="R65" s="252"/>
-      <c r="S65" s="252"/>
-      <c r="T65" s="252"/>
-      <c r="U65" s="252"/>
-      <c r="V65" s="252"/>
-      <c r="W65" s="252"/>
-      <c r="X65" s="253"/>
+      <c r="A65" s="253"/>
+      <c r="B65" s="254"/>
+      <c r="C65" s="254"/>
+      <c r="D65" s="254"/>
+      <c r="E65" s="254"/>
+      <c r="F65" s="254"/>
+      <c r="G65" s="254"/>
+      <c r="H65" s="255"/>
+      <c r="I65" s="253"/>
+      <c r="J65" s="254"/>
+      <c r="K65" s="254"/>
+      <c r="L65" s="254"/>
+      <c r="M65" s="254"/>
+      <c r="N65" s="254"/>
+      <c r="O65" s="254"/>
+      <c r="P65" s="255"/>
+      <c r="Q65" s="253"/>
+      <c r="R65" s="254"/>
+      <c r="S65" s="254"/>
+      <c r="T65" s="254"/>
+      <c r="U65" s="254"/>
+      <c r="V65" s="254"/>
+      <c r="W65" s="254"/>
+      <c r="X65" s="255"/>
     </row>
     <row r="66" s="119" customFormat="1" ht="45" customHeight="1" spans="1:24">
-      <c r="A66" s="251"/>
-      <c r="B66" s="252"/>
-      <c r="C66" s="252"/>
-      <c r="D66" s="252"/>
-      <c r="E66" s="252"/>
-      <c r="F66" s="252"/>
-      <c r="G66" s="252"/>
-      <c r="H66" s="253"/>
-      <c r="I66" s="251"/>
-      <c r="J66" s="252"/>
-      <c r="K66" s="252"/>
-      <c r="L66" s="252"/>
-      <c r="M66" s="252"/>
-      <c r="N66" s="252"/>
-      <c r="O66" s="252"/>
-      <c r="P66" s="253"/>
-      <c r="Q66" s="251"/>
-      <c r="R66" s="252"/>
-      <c r="S66" s="252"/>
-      <c r="T66" s="252"/>
-      <c r="U66" s="252"/>
-      <c r="V66" s="252"/>
-      <c r="W66" s="252"/>
-      <c r="X66" s="253"/>
+      <c r="A66" s="253"/>
+      <c r="B66" s="254"/>
+      <c r="C66" s="254"/>
+      <c r="D66" s="254"/>
+      <c r="E66" s="254"/>
+      <c r="F66" s="254"/>
+      <c r="G66" s="254"/>
+      <c r="H66" s="255"/>
+      <c r="I66" s="253"/>
+      <c r="J66" s="254"/>
+      <c r="K66" s="254"/>
+      <c r="L66" s="254"/>
+      <c r="M66" s="254"/>
+      <c r="N66" s="254"/>
+      <c r="O66" s="254"/>
+      <c r="P66" s="255"/>
+      <c r="Q66" s="253"/>
+      <c r="R66" s="254"/>
+      <c r="S66" s="254"/>
+      <c r="T66" s="254"/>
+      <c r="U66" s="254"/>
+      <c r="V66" s="254"/>
+      <c r="W66" s="254"/>
+      <c r="X66" s="255"/>
     </row>
     <row r="67" s="119" customFormat="1" ht="30" customHeight="1" spans="1:24">
-      <c r="A67" s="251"/>
-      <c r="B67" s="252"/>
-      <c r="C67" s="252"/>
-      <c r="D67" s="252"/>
-      <c r="E67" s="252"/>
-      <c r="F67" s="252"/>
-      <c r="G67" s="252"/>
-      <c r="H67" s="253"/>
-      <c r="I67" s="251"/>
-      <c r="J67" s="252"/>
-      <c r="K67" s="252"/>
-      <c r="L67" s="252"/>
-      <c r="M67" s="252"/>
-      <c r="N67" s="252"/>
-      <c r="O67" s="252"/>
-      <c r="P67" s="253"/>
-      <c r="Q67" s="251"/>
-      <c r="R67" s="252"/>
-      <c r="S67" s="252"/>
-      <c r="T67" s="252"/>
-      <c r="U67" s="252"/>
-      <c r="V67" s="252"/>
-      <c r="W67" s="252"/>
-      <c r="X67" s="253"/>
+      <c r="A67" s="253"/>
+      <c r="B67" s="254"/>
+      <c r="C67" s="254"/>
+      <c r="D67" s="254"/>
+      <c r="E67" s="254"/>
+      <c r="F67" s="254"/>
+      <c r="G67" s="254"/>
+      <c r="H67" s="255"/>
+      <c r="I67" s="253"/>
+      <c r="J67" s="254"/>
+      <c r="K67" s="254"/>
+      <c r="L67" s="254"/>
+      <c r="M67" s="254"/>
+      <c r="N67" s="254"/>
+      <c r="O67" s="254"/>
+      <c r="P67" s="255"/>
+      <c r="Q67" s="253"/>
+      <c r="R67" s="254"/>
+      <c r="S67" s="254"/>
+      <c r="T67" s="254"/>
+      <c r="U67" s="254"/>
+      <c r="V67" s="254"/>
+      <c r="W67" s="254"/>
+      <c r="X67" s="255"/>
     </row>
     <row r="68" s="119" customFormat="1" ht="22.5" spans="1:24">
-      <c r="A68" s="251"/>
-      <c r="B68" s="252"/>
-      <c r="C68" s="252"/>
-      <c r="D68" s="252"/>
-      <c r="E68" s="252"/>
-      <c r="F68" s="252"/>
-      <c r="G68" s="252"/>
-      <c r="H68" s="253"/>
-      <c r="I68" s="251"/>
-      <c r="J68" s="252"/>
-      <c r="K68" s="252"/>
-      <c r="L68" s="252"/>
-      <c r="M68" s="252"/>
-      <c r="N68" s="252"/>
-      <c r="O68" s="252"/>
-      <c r="P68" s="253"/>
-      <c r="Q68" s="251"/>
+      <c r="A68" s="253"/>
+      <c r="B68" s="254"/>
+      <c r="C68" s="254"/>
+      <c r="D68" s="254"/>
+      <c r="E68" s="254"/>
+      <c r="F68" s="254"/>
+      <c r="G68" s="254"/>
+      <c r="H68" s="255"/>
+      <c r="I68" s="253"/>
+      <c r="J68" s="254"/>
+      <c r="K68" s="254"/>
+      <c r="L68" s="254"/>
+      <c r="M68" s="254"/>
+      <c r="N68" s="254"/>
+      <c r="O68" s="254"/>
+      <c r="P68" s="255"/>
+      <c r="Q68" s="253"/>
       <c r="R68" s="124"/>
       <c r="S68" s="124"/>
       <c r="T68" s="124"/>
       <c r="U68" s="124"/>
       <c r="V68" s="124"/>
       <c r="W68" s="124"/>
-      <c r="X68" s="253"/>
+      <c r="X68" s="255"/>
     </row>
     <row r="69" s="119" customFormat="1" ht="22.5" spans="1:24">
-      <c r="A69" s="251"/>
-      <c r="B69" s="252"/>
-      <c r="C69" s="252"/>
-      <c r="D69" s="252"/>
-      <c r="E69" s="252"/>
-      <c r="F69" s="252"/>
-      <c r="G69" s="252"/>
-      <c r="H69" s="253"/>
-      <c r="I69" s="251"/>
-      <c r="J69" s="252"/>
-      <c r="K69" s="252"/>
-      <c r="L69" s="252"/>
-      <c r="M69" s="252"/>
-      <c r="N69" s="252"/>
-      <c r="O69" s="252"/>
-      <c r="P69" s="253"/>
-      <c r="Q69" s="251"/>
+      <c r="A69" s="253"/>
+      <c r="B69" s="254"/>
+      <c r="C69" s="254"/>
+      <c r="D69" s="254"/>
+      <c r="E69" s="254"/>
+      <c r="F69" s="254"/>
+      <c r="G69" s="254"/>
+      <c r="H69" s="255"/>
+      <c r="I69" s="253"/>
+      <c r="J69" s="254"/>
+      <c r="K69" s="254"/>
+      <c r="L69" s="254"/>
+      <c r="M69" s="254"/>
+      <c r="N69" s="254"/>
+      <c r="O69" s="254"/>
+      <c r="P69" s="255"/>
+      <c r="Q69" s="253"/>
       <c r="R69" s="124"/>
-      <c r="S69" s="259"/>
+      <c r="S69" s="261"/>
       <c r="T69" s="124"/>
-      <c r="U69" s="260"/>
-      <c r="V69" s="260"/>
-      <c r="W69" s="260"/>
-      <c r="X69" s="253"/>
+      <c r="U69" s="262"/>
+      <c r="V69" s="262"/>
+      <c r="W69" s="262"/>
+      <c r="X69" s="255"/>
     </row>
     <row r="70" s="119" customFormat="1" ht="23.25" spans="1:24">
-      <c r="A70" s="254" t="s">
-        <v>81</v>
-      </c>
-      <c r="B70" s="255"/>
-      <c r="C70" s="255"/>
-      <c r="D70" s="256" t="s">
+      <c r="A70" s="256" t="s">
         <v>82</v>
       </c>
-      <c r="E70" s="257"/>
-      <c r="F70" s="257"/>
-      <c r="G70" s="257"/>
-      <c r="H70" s="258"/>
-      <c r="I70" s="256" t="s">
-        <v>81</v>
-      </c>
-      <c r="J70" s="255"/>
-      <c r="K70" s="255"/>
-      <c r="L70" s="256" t="s">
+      <c r="B70" s="257"/>
+      <c r="C70" s="257"/>
+      <c r="D70" s="258" t="s">
+        <v>83</v>
+      </c>
+      <c r="E70" s="259"/>
+      <c r="F70" s="259"/>
+      <c r="G70" s="259"/>
+      <c r="H70" s="260"/>
+      <c r="I70" s="258" t="s">
         <v>82</v>
       </c>
-      <c r="M70" s="257"/>
-      <c r="N70" s="257"/>
-      <c r="O70" s="257"/>
-      <c r="P70" s="258"/>
-      <c r="Q70" s="254" t="s">
+      <c r="J70" s="257"/>
+      <c r="K70" s="257"/>
+      <c r="L70" s="258" t="s">
         <v>83</v>
       </c>
-      <c r="R70" s="257"/>
-      <c r="S70" s="257"/>
-      <c r="T70" s="256" t="s">
-        <v>82</v>
-      </c>
-      <c r="U70" s="257"/>
-      <c r="V70" s="257"/>
-      <c r="W70" s="257"/>
-      <c r="X70" s="258"/>
+      <c r="M70" s="259"/>
+      <c r="N70" s="259"/>
+      <c r="O70" s="259"/>
+      <c r="P70" s="260"/>
+      <c r="Q70" s="256" t="s">
+        <v>84</v>
+      </c>
+      <c r="R70" s="259"/>
+      <c r="S70" s="259"/>
+      <c r="T70" s="258" t="s">
+        <v>83</v>
+      </c>
+      <c r="U70" s="259"/>
+      <c r="V70" s="259"/>
+      <c r="W70" s="259"/>
+      <c r="X70" s="260"/>
     </row>
     <row r="71" s="119" customFormat="1" ht="20.25" spans="19:24">
       <c r="S71" s="205"/>
@@ -8394,7 +8413,7 @@
       <c r="Q115" s="119"/>
     </row>
   </sheetData>
-  <mergeCells count="165">
+  <mergeCells count="166">
     <mergeCell ref="A2:X2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="T4:U4"/>
@@ -8440,6 +8459,7 @@
     <mergeCell ref="A11:I11"/>
     <mergeCell ref="J11:O11"/>
     <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
     <mergeCell ref="U11:X11"/>
     <mergeCell ref="U12:X12"/>
     <mergeCell ref="U13:X13"/>
@@ -8580,67 +8600,67 @@
   <sheetData>
     <row r="1" ht="121.5" spans="1:21">
       <c r="A1" s="44" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E1" s="47" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F1" s="47" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G1" s="48" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H1" s="48" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I1" s="44" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J1" s="46" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K1" s="44" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L1" s="49" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M1" s="44" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N1" s="44" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O1" s="44" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P1" s="49" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q1" s="49" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="R1" s="47" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="S1" s="49" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="T1" s="47" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="U1" s="50" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -8682,7 +8702,7 @@
     </row>
     <row r="2" s="4" customFormat="1" ht="35.25" spans="1:43">
       <c r="A2" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -8732,7 +8752,7 @@
     </row>
     <row r="4" s="4" customFormat="1" ht="35.1" customHeight="1" spans="1:44">
       <c r="A4" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B4" s="11" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
@@ -8774,14 +8794,14 @@
       <c r="AJ4" s="31"/>
       <c r="AK4" s="12"/>
       <c r="AL4" s="12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AM4" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AN4" s="10"/>
       <c r="AO4" s="12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AP4" s="10" t="s">
         <v>5</v>
@@ -8791,10 +8811,10 @@
     </row>
     <row r="5" s="5" customFormat="1" ht="35.1" customHeight="1" spans="1:44">
       <c r="A5" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -8813,7 +8833,7 @@
       <c r="Q5" s="15"/>
       <c r="R5" s="28"/>
       <c r="S5" s="14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="T5" s="15"/>
       <c r="U5" s="15"/>
@@ -8832,7 +8852,7 @@
       <c r="AH5" s="15"/>
       <c r="AI5" s="28"/>
       <c r="AJ5" s="32" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AK5" s="32"/>
       <c r="AL5" s="32"/>
@@ -8846,133 +8866,133 @@
     <row r="6" s="5" customFormat="1" ht="35.1" customHeight="1" spans="1:44">
       <c r="A6" s="16"/>
       <c r="B6" s="17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C6" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="P6" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q6" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="R6" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="S6" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="T6" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="U6" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="V6" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="W6" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="X6" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="Y6" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="Z6" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="AA6" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="AB6" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="AC6" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="N6" s="17" t="s">
+      <c r="AD6" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="O6" s="17" t="s">
+      <c r="AE6" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="P6" s="17" t="s">
+      <c r="AF6" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="Q6" s="17" t="s">
+      <c r="AG6" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="R6" s="17" t="s">
+      <c r="AH6" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="S6" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="T6" s="17" t="s">
+      <c r="AI6" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="AJ6" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="U6" s="17" t="s">
+      <c r="AK6" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="AL6" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="V6" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="W6" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="X6" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="Y6" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="Z6" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="AA6" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="AB6" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="AC6" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="AD6" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="AE6" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="AF6" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="AG6" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="AH6" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="AI6" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="AJ6" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="AK6" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="AL6" s="17" t="s">
-        <v>192</v>
-      </c>
       <c r="AM6" s="17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN6" s="17" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AO6" s="37" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AP6" s="17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AQ6" s="17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AR6" s="38" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" s="5" customFormat="1" ht="37.5" customHeight="1" spans="1:46">
@@ -13233,7 +13253,7 @@
     </row>
     <row r="31" s="5" customFormat="1" ht="37.5" customHeight="1" spans="1:44">
       <c r="A31" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
@@ -13281,7 +13301,7 @@
     </row>
     <row r="32" s="5" customFormat="1" ht="37.5" customHeight="1" spans="1:44">
       <c r="A32" s="18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -13329,7 +13349,7 @@
     </row>
     <row r="33" s="5" customFormat="1" ht="37.5" customHeight="1" spans="1:44">
       <c r="A33" s="18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
@@ -13377,7 +13397,7 @@
     </row>
     <row r="34" s="5" customFormat="1" ht="37.5" customHeight="1" spans="1:44">
       <c r="A34" s="20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -13501,7 +13521,7 @@
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H38" s="7"/>
     </row>
@@ -13541,133 +13561,133 @@
   <sheetData>
     <row r="1" ht="112.5" spans="1:43">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AO1" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AP1" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AQ1" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -13689,7 +13709,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B1">
         <v>6</v>
@@ -13730,29 +13750,29 @@
   <sheetData>
     <row r="1" ht="135" spans="1:10">
       <c r="A1" s="114" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B1" s="115"/>
       <c r="D1" s="116" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E1" s="116" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F1" s="116" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G1" s="116" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H1" s="116" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I1" s="117" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J1" s="116" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -13777,40 +13797,40 @@
   <sheetData>
     <row r="1" ht="135.75" spans="1:12">
       <c r="A1" s="112" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B1" s="112" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C1" s="112" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D1" s="112" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E1" s="112" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F1" s="112" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G1" s="112" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H1" s="112" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I1" s="112" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J1" s="112" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K1" s="112" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L1" s="113" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -13832,22 +13852,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -13869,53 +13889,53 @@
   <sheetData>
     <row r="1" ht="90" spans="1:17">
       <c r="A1" s="110" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B1" s="110" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C1" s="111"/>
       <c r="D1" s="110" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E1" s="110" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F1" s="110" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G1" s="110" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H1" s="110" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I1" s="110" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J1" s="110" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K1" s="110" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L1" s="110" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M1" s="110" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N1" s="110" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O1" s="110" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P1" s="110" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q1" s="110" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -13940,7 +13960,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -13962,7 +13982,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -13984,7 +14004,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -14029,7 +14049,7 @@
   <sheetData>
     <row r="2" ht="35.25" spans="1:24">
       <c r="A2" s="61" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B2" s="61"/>
       <c r="C2" s="61"/>
@@ -14089,7 +14109,7 @@
       </c>
       <c r="C4" s="69"/>
       <c r="D4" s="70" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E4" s="71"/>
       <c r="F4" s="72"/>
@@ -14121,136 +14141,136 @@
     </row>
     <row r="5" s="51" customFormat="1" ht="33" customHeight="1" spans="1:22">
       <c r="A5" s="74" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B5" s="75" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C5" s="75" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D5" s="76" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E5" s="77" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F5" s="78" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G5" s="79" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H5" s="80" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I5" s="80" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J5" s="93" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K5" s="77" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L5" s="75" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M5" s="94" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N5" s="75" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O5" s="75" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P5" s="75" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q5" s="94" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="R5" s="94" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="S5" s="78" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="T5" s="94" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="U5" s="78" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="V5" s="103" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" s="51" customFormat="1" ht="33" customHeight="1" spans="1:22">
       <c r="A6" s="74"/>
       <c r="B6" s="75" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C6" s="75" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D6" s="76" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E6" s="77" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" s="78" t="s">
+        <v>156</v>
+      </c>
+      <c r="G6" s="79" t="s">
+        <v>157</v>
+      </c>
+      <c r="H6" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="I6" s="80" t="s">
+        <v>157</v>
+      </c>
+      <c r="J6" s="93" t="s">
+        <v>158</v>
+      </c>
+      <c r="K6" s="77" t="s">
         <v>154</v>
       </c>
-      <c r="F6" s="78" t="s">
-        <v>155</v>
-      </c>
-      <c r="G6" s="79" t="s">
-        <v>156</v>
-      </c>
-      <c r="H6" s="80" t="s">
+      <c r="L6" s="75" t="s">
         <v>157</v>
       </c>
-      <c r="I6" s="80" t="s">
-        <v>156</v>
-      </c>
-      <c r="J6" s="93" t="s">
+      <c r="M6" s="94" t="s">
+        <v>159</v>
+      </c>
+      <c r="N6" s="75" t="s">
         <v>157</v>
       </c>
-      <c r="K6" s="77" t="s">
-        <v>153</v>
-      </c>
-      <c r="L6" s="75" t="s">
-        <v>156</v>
-      </c>
-      <c r="M6" s="94" t="s">
-        <v>158</v>
-      </c>
-      <c r="N6" s="75" t="s">
-        <v>156</v>
-      </c>
       <c r="O6" s="75" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P6" s="75" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q6" s="94" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="R6" s="94" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S6" s="78" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="T6" s="94" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="U6" s="78" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="V6" s="104" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" s="52" customFormat="1" ht="30" customHeight="1" spans="1:22">
@@ -16398,7 +16418,7 @@
     </row>
     <row r="31" s="52" customFormat="1" ht="30" customHeight="1" spans="1:22">
       <c r="A31" s="81" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B31" s="84"/>
       <c r="C31" s="84"/>
@@ -16424,7 +16444,7 @@
     </row>
     <row r="32" s="52" customFormat="1" ht="30" customHeight="1" spans="1:22">
       <c r="A32" s="81" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B32" s="84"/>
       <c r="C32" s="84"/>
@@ -16450,7 +16470,7 @@
     </row>
     <row r="33" s="52" customFormat="1" ht="30" customHeight="1" spans="1:22">
       <c r="A33" s="81" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B33" s="84"/>
       <c r="C33" s="84"/>
@@ -16476,7 +16496,7 @@
     </row>
     <row r="34" s="52" customFormat="1" ht="30" customHeight="1" spans="1:22">
       <c r="A34" s="81" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B34" s="86"/>
       <c r="C34" s="86"/>

--- a/excel/finished/烧结/6#烧结机生产日报.xlsx
+++ b/excel/finished/烧结/6#烧结机生产日报.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="技术经济指标" sheetId="1" r:id="rId1"/>
@@ -366,6 +366,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="18"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>夜班合计</t>
     </r>
     <r>
@@ -1489,18 +1494,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="14">
-    <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="180" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="181" formatCode="0.0"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="179" formatCode="0.0_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0.0"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="0.0_);\(0.0\)"/>
     <numFmt numFmtId="182" formatCode="0_ "/>
-    <numFmt numFmtId="183" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="183" formatCode="0.0_);\(0.0\)"/>
     <numFmt numFmtId="184" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="185" formatCode="0.00_ "/>
   </numFmts>
@@ -1556,24 +1561,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1591,6 +1596,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1599,31 +1611,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1659,17 +1672,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1683,26 +1687,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1755,7 +1760,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1767,13 +1880,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1785,157 +1934,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2522,6 +2527,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2537,35 +2575,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2596,26 +2610,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2625,10 +2630,10 @@
     <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2637,93 +2642,99 @@
     <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="54" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="50" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2732,34 +2743,28 @@
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2782,7 +2787,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -2822,37 +2827,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="11" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2867,30 +2872,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="181" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2903,46 +2908,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2952,88 +2957,88 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="13" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="181" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="13" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3048,7 +3053,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3057,19 +3062,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3361,18 +3366,18 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3500,11 +3505,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3937,8 +3942,8 @@
   <sheetPr/>
   <dimension ref="A2:Z115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13740,15 +13745,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" ht="135" spans="1:10">
+    <row r="1" ht="135.75" spans="1:22">
       <c r="A1" s="114" t="s">
         <v>85</v>
       </c>
@@ -13773,6 +13778,42 @@
       </c>
       <c r="J1" s="116" t="s">
         <v>92</v>
+      </c>
+      <c r="K1" s="112" t="s">
+        <v>93</v>
+      </c>
+      <c r="L1" s="112" t="s">
+        <v>94</v>
+      </c>
+      <c r="M1" s="112" t="s">
+        <v>95</v>
+      </c>
+      <c r="N1" s="112" t="s">
+        <v>96</v>
+      </c>
+      <c r="O1" s="112" t="s">
+        <v>97</v>
+      </c>
+      <c r="P1" s="112" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q1" s="112" t="s">
+        <v>99</v>
+      </c>
+      <c r="R1" s="112" t="s">
+        <v>100</v>
+      </c>
+      <c r="S1" s="112" t="s">
+        <v>101</v>
+      </c>
+      <c r="T1" s="112" t="s">
+        <v>102</v>
+      </c>
+      <c r="U1" s="112" t="s">
+        <v>103</v>
+      </c>
+      <c r="V1" s="113" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -13790,7 +13831,7 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="A1" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
